--- a/input/resources_spreadsheets/uscore-server.xlsx
+++ b/input/resources_spreadsheets/uscore-server.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\US-Core-R4\source\source_spreadsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/US-Core-R4/input/resources_spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1321D2AF-A687-4B15-A23B-DAF83A17CAFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9824DA5-6D3D-AE4F-884E-324CA122A45D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3495" yWindow="420" windowWidth="25200" windowHeight="13425" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -145,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1991" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1978" uniqueCount="531">
   <si>
     <t>Element</t>
   </si>
@@ -990,21 +990,9 @@
     <t>support searching location by ZIP code</t>
   </si>
   <si>
-    <t>GET [base]/Location?name=Health</t>
-  </si>
-  <si>
-    <t>GET [base]/Location?address=Arbor</t>
-  </si>
-  <si>
-    <t>GET [base]/Location?address-postalcode=48104</t>
-  </si>
-  <si>
     <t>GET [base]/Location?address-state=MI</t>
   </si>
   <si>
-    <t>GET [base]/Location?address-city=Ann Arbor</t>
-  </si>
-  <si>
     <t>Organization</t>
   </si>
   <si>
@@ -1032,9 +1020,6 @@
     <t>support searching for a practitioner by a string match of any part of name</t>
   </si>
   <si>
-    <t>GET [base]/Practitioner?name=Smith</t>
-  </si>
-  <si>
     <t>PractitionerRole</t>
   </si>
   <si>
@@ -1252,15 +1237,6 @@
   </si>
   <si>
     <t>GET [base]/MedicationStatement?patient=14676~GET [base]/MedicationStatement?patient=14676&amp;_include=MedicationStatement:medication</t>
-  </si>
-  <si>
-    <t>GET [base]/PractitionerRole?practitioner.identifier=http://hl7.org/fhir/sid/us-npi\|97860456&amp;_include=PractitionerRole:practitioner&amp;_include=PractitionerRole?endpoint~GET [base]/PractitionerRole?practitioner.name=Henry&amp;_include=PractitionerRole:practitioner&amp;_include=PractitionerRole?endpoint</t>
-  </si>
-  <si>
-    <t>GET [base]/PractitionerRole?specialty=http://nucc.org/provider-taxonomy\|208D0000X</t>
-  </si>
-  <si>
-    <t>GET [base]/Practitioner?identifier=http://hl7.org/fhir/sid/us-npi\|97860456</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-careteam</t>
@@ -1790,7 +1766,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2262,12 +2238,12 @@
       <selection sqref="A1:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -2275,60 +2251,60 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="B2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="B3" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="B4" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="B5" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>75</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="B7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="B8" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
     </row>
   </sheetData>
@@ -2344,21 +2320,21 @@
       <selection activeCell="J57" sqref="J57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="1"/>
-    <col min="2" max="2" width="21.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="96.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="21.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="96.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="56" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="88.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="82.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.83203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="88.83203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="82.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="83.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
+    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>153</v>
       </c>
@@ -2378,7 +2354,7 @@
         <v>108</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>3</v>
@@ -2390,7 +2366,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickTop="1">
+    <row r="2" spans="1:10" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2415,7 +2391,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and date</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2440,7 +2416,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and date and patient</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2465,7 +2441,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and date and patient and type</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2490,7 +2466,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and date and type</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2511,17 +2487,17 @@
         <v>116</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="J6" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Fetches a bundle of all Encounter resources matching the specified class and patient</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2546,7 +2522,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and patient and status</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2571,7 +2547,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and patient and status and type</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2597,7 +2573,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and patient and type</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2624,7 +2600,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and status</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2650,7 +2626,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and status and type</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2675,7 +2651,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and type</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2696,17 +2672,17 @@
         <v>123</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="J13" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Fetches a bundle of all Encounter resources matching the specified date and patient</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="1" customFormat="1">
+    <row r="14" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2731,7 +2707,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified date and patient and type</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="1" customFormat="1">
+    <row r="15" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2756,7 +2732,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified date and type</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2777,17 +2753,17 @@
         <v>116</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="J16" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Fetches a bundle of all Encounter resources matching the specified patient and type</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2813,7 +2789,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified patient and status and type</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2834,17 +2810,17 @@
         <v>116</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="J18" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Fetches a bundle of all Encounter resources matching the specified patient and status</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="1" customFormat="1">
+    <row r="19" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2871,7 +2847,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified status and type</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="1" customFormat="1">
+    <row r="20" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>21</v>
       </c>
@@ -2897,7 +2873,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified context-type-value and publisher</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="1" customFormat="1">
+    <row r="21" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>22</v>
       </c>
@@ -2922,7 +2898,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified context-type-value and publisher and status</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>23</v>
       </c>
@@ -2948,7 +2924,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified context-type-value and status</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="1" customFormat="1">
+    <row r="23" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>24</v>
       </c>
@@ -2975,7 +2951,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified publisher and status</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="1" customFormat="1">
+    <row r="24" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>25</v>
       </c>
@@ -3002,7 +2978,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified publisher and status and version</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="1" customFormat="1">
+    <row r="25" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>26</v>
       </c>
@@ -3029,7 +3005,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified publisher and version</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="1" customFormat="1">
+    <row r="26" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>27</v>
       </c>
@@ -3054,7 +3030,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified status and title and version</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="1" customFormat="1">
+    <row r="27" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>28</v>
       </c>
@@ -3079,7 +3055,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified status and version</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="1" customFormat="1">
+    <row r="28" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>29</v>
       </c>
@@ -3104,7 +3080,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified title and version</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="1" customFormat="1">
+    <row r="29" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>30</v>
       </c>
@@ -3135,7 +3111,7 @@
         <v>Fetches a bundle of all Patient resources matching the specified birthdate and family</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="1" customFormat="1">
+    <row r="30" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>31</v>
       </c>
@@ -3166,7 +3142,7 @@
         <v>Fetches a bundle of all Patient resources matching the specified birthdate and name</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="1" customFormat="1">
+    <row r="31" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>32</v>
       </c>
@@ -3197,7 +3173,7 @@
         <v>Fetches a bundle of all Patient resources matching the specified family and gender</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="1" customFormat="1">
+    <row r="32" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>33</v>
       </c>
@@ -3228,7 +3204,7 @@
         <v>Fetches a bundle of all Patient resources matching the specified gender and name</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="1" customFormat="1">
+    <row r="33" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>36</v>
       </c>
@@ -3249,19 +3225,19 @@
         <v>116</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="H33" s="5" t="s">
         <v>166</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" s="1" customFormat="1">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>37</v>
       </c>
@@ -3285,13 +3261,13 @@
         <v>160</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="J34" s="5" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="35" spans="1:10" s="1" customFormat="1">
+    <row r="35" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>38</v>
       </c>
@@ -3315,13 +3291,13 @@
         <v>161</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="J35" s="5" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="1" customFormat="1">
+    <row r="36" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>39</v>
       </c>
@@ -3351,7 +3327,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="1" customFormat="1">
+    <row r="37" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>42</v>
       </c>
@@ -3375,13 +3351,13 @@
         <v>173</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" s="1" customFormat="1">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>45</v>
       </c>
@@ -3412,7 +3388,7 @@
         <v>Fetches a bundle of all Immunization resources for the specified patient and date</v>
       </c>
     </row>
-    <row r="39" spans="1:10" s="1" customFormat="1">
+    <row r="39" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>46</v>
       </c>
@@ -3433,7 +3409,7 @@
         <v>159</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="I39" s="5" t="s">
         <v>174</v>
@@ -3443,7 +3419,7 @@
         <v>Fetches a bundle of all Immunization resources for the specified patient and status</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="1" customFormat="1">
+    <row r="40" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>49</v>
       </c>
@@ -3473,7 +3449,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and status</v>
       </c>
     </row>
-    <row r="41" spans="1:10" s="1" customFormat="1" ht="15.75">
+    <row r="41" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>50</v>
       </c>
@@ -3493,7 +3469,7 @@
         <v>116</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="H41" s="5" t="s">
         <v>207</v>
@@ -3506,7 +3482,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and  a category code = `LAB`</v>
       </c>
     </row>
-    <row r="42" spans="1:10" s="1" customFormat="1" ht="15.75">
+    <row r="42" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>51</v>
       </c>
@@ -3536,7 +3512,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and  report code(s).  SHOULD support search by multiple report codes.</v>
       </c>
     </row>
-    <row r="43" spans="1:10" s="1" customFormat="1" ht="15.75">
+    <row r="43" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>52</v>
       </c>
@@ -3556,7 +3532,7 @@
         <v>234</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="H43" s="5" t="s">
         <v>209</v>
@@ -3569,7 +3545,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and a category code = `LAB`</v>
       </c>
     </row>
-    <row r="44" spans="1:10" s="1" customFormat="1">
+    <row r="44" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>53</v>
       </c>
@@ -3599,7 +3575,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes.</v>
       </c>
     </row>
-    <row r="45" spans="1:10" s="1" customFormat="1">
+    <row r="45" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>56</v>
       </c>
@@ -3619,7 +3595,7 @@
         <v>116</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="I45" s="5" t="s">
         <v>198</v>
@@ -3629,7 +3605,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and status</v>
       </c>
     </row>
-    <row r="46" spans="1:10" s="1" customFormat="1">
+    <row r="46" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>57</v>
       </c>
@@ -3659,7 +3635,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and  a category code specified in US Core DiagnosticReport Category Codes</v>
       </c>
     </row>
-    <row r="47" spans="1:10" s="1" customFormat="1">
+    <row r="47" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>58</v>
       </c>
@@ -3689,7 +3665,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and  report code(s).  SHOULD support search by multiple report codes.</v>
       </c>
     </row>
-    <row r="48" spans="1:10" s="1" customFormat="1">
+    <row r="48" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>59</v>
       </c>
@@ -3719,7 +3695,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and a category code specified in US Core DiagnosticReport Category Codes</v>
       </c>
     </row>
-    <row r="49" spans="1:10" s="1" customFormat="1">
+    <row r="49" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>60</v>
       </c>
@@ -3749,7 +3725,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes.</v>
       </c>
     </row>
-    <row r="50" spans="1:10" s="1" customFormat="1">
+    <row r="50" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>63</v>
       </c>
@@ -3761,7 +3737,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-goal</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>78</v>
@@ -3773,14 +3749,14 @@
         <v>200</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="J50" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B50&amp;" resources for the specified "&amp;SUBSTITUTE(D50,","," and ")</f>
         <v>Fetches a bundle of all Goal resources for the specified patient and lifecycle-status</v>
       </c>
     </row>
-    <row r="51" spans="1:10" s="1" customFormat="1">
+    <row r="51" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>64</v>
       </c>
@@ -3792,7 +3768,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-goal</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>78</v>
@@ -3804,14 +3780,14 @@
         <v>223</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="J51" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B51&amp;" resources for the specified "&amp;SUBSTITUTE(D51,","," and ")</f>
         <v>Fetches a bundle of all Goal resources for the specified patient and target-date</v>
       </c>
     </row>
-    <row r="52" spans="1:10" s="1" customFormat="1">
+    <row r="52" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>67</v>
       </c>
@@ -3823,7 +3799,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>13</v>
@@ -3832,19 +3808,19 @@
         <v>116</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" s="1" customFormat="1">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>68</v>
       </c>
@@ -3856,7 +3832,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>13</v>
@@ -3865,19 +3841,19 @@
         <v>116</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="H53" s="5" t="s">
         <v>199</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" s="1" customFormat="1">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>69</v>
       </c>
@@ -3889,7 +3865,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>78</v>
@@ -3898,19 +3874,19 @@
         <v>116</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="H54" s="5" t="s">
         <v>199</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" s="1" customFormat="1">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>70</v>
       </c>
@@ -3922,7 +3898,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>78</v>
@@ -3931,24 +3907,24 @@
         <v>234</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="H55" s="5" t="s">
         <v>249</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="J55" s="5" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" s="1" customFormat="1">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>73</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="C56" s="1" t="str">
         <f t="shared" si="2"/>
@@ -3967,19 +3943,19 @@
         <v>201</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="J56" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B56&amp;" resources for the specified "&amp;SUBSTITUTE(D56,","," and ")</f>
         <v>Fetches a bundle of all !MedicationStatement resources for the specified patient and status</v>
       </c>
     </row>
-    <row r="57" spans="1:10" s="1" customFormat="1">
+    <row r="57" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>74</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="C57" s="1" t="str">
         <f t="shared" si="2"/>
@@ -3998,13 +3974,13 @@
         <v>250</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="J57" s="5" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="58" spans="1:10" s="1" customFormat="1">
+    <row r="58" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>75</v>
       </c>
@@ -4035,7 +4011,7 @@
         <v>Fetches a bundle of all Procedure resources for the specified patient and status</v>
       </c>
     </row>
-    <row r="59" spans="1:10" s="1" customFormat="1">
+    <row r="59" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>76</v>
       </c>
@@ -4066,7 +4042,7 @@
         <v>Fetches a bundle of all Procedure resources for the specified patient and date</v>
       </c>
     </row>
-    <row r="60" spans="1:10" s="1" customFormat="1">
+    <row r="60" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>77</v>
       </c>
@@ -4097,7 +4073,7 @@
         <v>Fetches a bundle of all Procedure resources for the specified patient and date and procedure code(s).  SHOULD support search by multiple codes.</v>
       </c>
     </row>
-    <row r="61" spans="1:10" s="1" customFormat="1">
+    <row r="61" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>80</v>
       </c>
@@ -4105,7 +4081,7 @@
         <v>196</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>256</v>
@@ -4117,19 +4093,19 @@
         <v>116</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="J61" s="5" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" s="1" customFormat="1">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>81</v>
       </c>
@@ -4137,7 +4113,7 @@
         <v>196</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>155</v>
@@ -4149,20 +4125,20 @@
         <v>116</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="H62" s="5" t="s">
         <v>238</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="J62" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B62&amp;" resources for the specified patient and a category code = `laboratory`"</f>
         <v>Fetches a bundle of all Observation resources for the specified patient and a category code = `laboratory`</v>
       </c>
     </row>
-    <row r="63" spans="1:10" s="1" customFormat="1">
+    <row r="63" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>82</v>
       </c>
@@ -4170,7 +4146,7 @@
         <v>196</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>157</v>
@@ -4185,14 +4161,14 @@
         <v>242</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="J63" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B63&amp;" resources for the specified patient and observation code(s).  SHOULD support search by multiple report codes. The Observation `code` parameter searches `Observation.code only."</f>
         <v>Fetches a bundle of all Observation resources for the specified patient and observation code(s).  SHOULD support search by multiple report codes. The Observation `code` parameter searches `Observation.code only.</v>
       </c>
     </row>
-    <row r="64" spans="1:10" s="1" customFormat="1">
+    <row r="64" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>83</v>
       </c>
@@ -4200,7 +4176,7 @@
         <v>196</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>208</v>
@@ -4212,20 +4188,20 @@
         <v>234</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="H64" s="5" t="s">
         <v>243</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="J64" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B64&amp;" resources for the specified patient and date and a category code = `laboratory`"</f>
         <v>Fetches a bundle of all Observation resources for the specified patient and date and a category code = `laboratory`</v>
       </c>
     </row>
-    <row r="65" spans="1:16" s="1" customFormat="1">
+    <row r="65" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>84</v>
       </c>
@@ -4233,7 +4209,7 @@
         <v>196</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>235</v>
@@ -4255,15 +4231,15 @@
         <v>Fetches a bundle of all Observation resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes.</v>
       </c>
     </row>
-    <row r="66" spans="1:16" s="1" customFormat="1">
+    <row r="66" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>85</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>126</v>
@@ -4285,7 +4261,7 @@
         <v>Fetches a bundle of all !Observation resources for the specified patient and status</v>
       </c>
     </row>
-    <row r="67" spans="1:16" s="1" customFormat="1">
+    <row r="67" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>88</v>
       </c>
@@ -4305,7 +4281,7 @@
         <v>116</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="H67" s="5" t="s">
         <v>261</v>
@@ -4318,7 +4294,7 @@
         <v>Fetches a bundle of all CarePlan resources for the specified patient and category=`assess-plan`</v>
       </c>
     </row>
-    <row r="68" spans="1:16" s="1" customFormat="1">
+    <row r="68" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>89</v>
       </c>
@@ -4338,19 +4314,19 @@
         <v>234</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="H68" s="5" t="s">
         <v>260</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="J68" s="5" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="69" spans="1:16" s="1" customFormat="1">
+    <row r="69" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>90</v>
       </c>
@@ -4370,7 +4346,7 @@
         <v>116</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="H69" s="5" t="s">
         <v>258</v>
@@ -4382,7 +4358,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="70" spans="1:16" s="1" customFormat="1">
+    <row r="70" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>91</v>
       </c>
@@ -4402,19 +4378,19 @@
         <v>234</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="H70" s="5" t="s">
         <v>259</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="J70" s="5" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="71" spans="1:16" s="1" customFormat="1">
+    <row r="71" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>94</v>
       </c>
@@ -4435,7 +4411,7 @@
         <v>116</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="H71" s="5" t="s">
         <v>268</v>
@@ -4447,7 +4423,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="72" spans="1:16" s="1" customFormat="1" ht="15.75">
+    <row r="72" spans="1:16" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>97</v>
       </c>
@@ -4455,7 +4431,7 @@
         <v>196</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>157</v>
@@ -4467,20 +4443,20 @@
         <v>116</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="I72" s="5" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="J72" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B72&amp;" resources for the specified patient and observation code."</f>
         <v>Fetches a bundle of all Observation resources for the specified patient and observation code.</v>
       </c>
     </row>
-    <row r="73" spans="1:16" s="1" customFormat="1">
+    <row r="73" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>100</v>
       </c>
@@ -4488,7 +4464,7 @@
         <v>196</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>256</v>
@@ -4500,20 +4476,20 @@
         <v>116</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="J73" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B73&amp;" resources for the specified "&amp;SUBSTITUTE(D73,","," and ")</f>
         <v>Fetches a bundle of all Observation resources for the specified patient and category and status</v>
       </c>
     </row>
-    <row r="74" spans="1:16" s="1" customFormat="1">
+    <row r="74" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>101</v>
       </c>
@@ -4521,7 +4497,7 @@
         <v>196</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>155</v>
@@ -4533,20 +4509,20 @@
         <v>116</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="I74" s="5" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="J74" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B74&amp;" resources for the specified patient and a category code = `vital-signs`"</f>
         <v>Fetches a bundle of all Observation resources for the specified patient and a category code = `vital-signs`</v>
       </c>
     </row>
-    <row r="75" spans="1:16" s="1" customFormat="1">
+    <row r="75" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>102</v>
       </c>
@@ -4554,7 +4530,7 @@
         <v>196</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>157</v>
@@ -4566,20 +4542,20 @@
         <v>116</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="I75" s="5" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="J75" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B75&amp;" resources for the specified patient and observation code(s).  SHOULD support search by multiple codes. The Observation `code` parameter searches `Observation.code only."</f>
         <v>Fetches a bundle of all Observation resources for the specified patient and observation code(s).  SHOULD support search by multiple codes. The Observation `code` parameter searches `Observation.code only.</v>
       </c>
     </row>
-    <row r="76" spans="1:16" s="1" customFormat="1">
+    <row r="76" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>103</v>
       </c>
@@ -4587,7 +4563,7 @@
         <v>196</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>208</v>
@@ -4599,20 +4575,20 @@
         <v>234</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="J76" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B76&amp;" resources for the specified patient and date and a category code = `vital-signs`"</f>
         <v>Fetches a bundle of all Observation resources for the specified patient and date and a category code = `vital-signs`</v>
       </c>
     </row>
-    <row r="77" spans="1:16">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>104</v>
       </c>
@@ -4620,7 +4596,7 @@
         <v>196</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>235</v>
@@ -4632,10 +4608,10 @@
         <v>234</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="I77" s="5" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="J77" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B77&amp;" resources for the specified patient and date and report code(s).  SHOULD support search by multiple codes."</f>
@@ -4648,7 +4624,7 @@
       <c r="O77" s="1"/>
       <c r="P77" s="1"/>
     </row>
-    <row r="78" spans="1:16" s="1" customFormat="1">
+    <row r="78" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>107</v>
       </c>
@@ -4669,29 +4645,29 @@
         <v>116</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="I78" s="5" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="J78" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B78&amp;" resources for the specified "&amp;SUBSTITUTE(D78,","," and ") &amp;". See the implementation notes above for how to access the actual document."</f>
         <v>Fetches a bundle of all DocumentReference resources for the specified patient and status. See the implementation notes above for how to access the actual document.</v>
       </c>
     </row>
-    <row r="79" spans="1:16" s="1" customFormat="1" ht="20.25" customHeight="1">
+    <row r="79" spans="1:16" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>108</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C79" s="1" t="str">
         <f t="shared" si="3"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!documentreference</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>78</v>
@@ -4700,7 +4676,7 @@
         <v>159</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="I79" s="5"/>
       <c r="J79" s="5" t="str">
@@ -4708,7 +4684,7 @@
         <v>Fetches a bundle of all !DocumentReference resources for the specified patient and period. See the implementation notes above for how to access the actual document.</v>
       </c>
     </row>
-    <row r="80" spans="1:16" s="1" customFormat="1">
+    <row r="80" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>109</v>
       </c>
@@ -4729,19 +4705,19 @@
         <v>116</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="J80" s="5" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>110</v>
       </c>
@@ -4762,19 +4738,19 @@
         <v>234</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="I81" s="9" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="J81" s="5" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" s="1" customFormat="1">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>111</v>
       </c>
@@ -4795,16 +4771,16 @@
         <v>116</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="I82" s="5" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="J82" s="5" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>112</v>
       </c>
@@ -4816,7 +4792,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>78</v>
@@ -4825,17 +4801,17 @@
         <v>234</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="I83" s="5" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="J83" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B83&amp;" resources for the specified "&amp;SUBSTITUTE(D83,","," and ") &amp;". See the implementation notes above for how to access the actual document."</f>
         <v>Fetches a bundle of all DocumentReference resources for the specified patient and type and period. See the implementation notes above for how to access the actual document.</v>
       </c>
     </row>
-    <row r="84" spans="1:10" s="1" customFormat="1">
+    <row r="84" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>115</v>
       </c>
@@ -4843,7 +4819,7 @@
         <v>271</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>128</v>
@@ -4855,13 +4831,13 @@
         <v>116</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="I84" s="5" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="J84" s="5" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
     </row>
   </sheetData>
@@ -4881,13 +4857,13 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="95.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="95.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4895,47 +4871,47 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="1" customFormat="1">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" s="1" customFormat="1">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="139.5" customHeight="1">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="139.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -4943,20 +4919,20 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="351.75" customHeight="1">
+    <row r="8" spans="1:2" ht="351.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="103.5" customHeight="1">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
     </row>
   </sheetData>
@@ -4972,9 +4948,9 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -4995,15 +4971,15 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="94" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="60.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -5017,12 +4993,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="B2" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -5032,12 +5008,12 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="B3" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
@@ -5047,12 +5023,12 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>13</v>
@@ -5062,27 +5038,27 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>13</v>
@@ -5092,12 +5068,12 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>13</v>
@@ -5107,12 +5083,12 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>13</v>
@@ -5122,12 +5098,12 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>13</v>
@@ -5137,12 +5113,12 @@
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>13</v>
@@ -5152,12 +5128,12 @@
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>13</v>
@@ -5167,12 +5143,12 @@
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>13</v>
@@ -5182,27 +5158,27 @@
       </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>13</v>
@@ -5212,12 +5188,12 @@
       </c>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>13</v>
@@ -5227,27 +5203,27 @@
       </c>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>13</v>
@@ -5257,12 +5233,12 @@
       </c>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>203</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>13</v>
@@ -5272,27 +5248,27 @@
       </c>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>255</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>13</v>
@@ -5302,12 +5278,12 @@
       </c>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>13</v>
@@ -5317,12 +5293,12 @@
       </c>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>13</v>
@@ -5332,12 +5308,12 @@
       </c>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>13</v>
@@ -5347,12 +5323,12 @@
       </c>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" s="1" customFormat="1">
+    <row r="24" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>13</v>
@@ -5361,12 +5337,12 @@
         <v>196</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>202</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>13</v>
@@ -5376,12 +5352,12 @@
       </c>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>13</v>
@@ -5391,26 +5367,26 @@
       </c>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>13</v>
@@ -5430,29 +5406,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:X59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="25.5" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="49.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="36.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="49.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" customWidth="1"/>
-    <col min="6" max="12" width="17.42578125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="20.42578125" style="1" customWidth="1"/>
-    <col min="14" max="17" width="17.42578125" style="1" customWidth="1"/>
-    <col min="18" max="19" width="20.42578125" style="1" customWidth="1"/>
-    <col min="20" max="23" width="38.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="27.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="12" width="17.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="20.5" style="1" customWidth="1"/>
+    <col min="14" max="17" width="17.5" style="1" customWidth="1"/>
+    <col min="18" max="19" width="20.5" style="1" customWidth="1"/>
+    <col min="20" max="23" width="38.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="27.1640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="25.5" customHeight="1" thickBot="1">
+    <row r="1" spans="1:24" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -5466,67 +5442,67 @@
         <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="F1" t="s">
         <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="H1" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>446</v>
-      </c>
       <c r="P1" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>439</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>447</v>
       </c>
       <c r="R1" t="s">
         <v>19</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="U1" s="4" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="V1" s="4" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="X1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="25.5" customHeight="1" thickTop="1">
+    <row r="2" spans="1:24" ht="25.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
@@ -5543,14 +5519,14 @@
         <v>78</v>
       </c>
       <c r="V2" s="17" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="W2" s="17"/>
       <c r="X2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="25.5" customHeight="1">
+    <row r="3" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>253</v>
       </c>
@@ -5564,11 +5540,11 @@
         <v>78</v>
       </c>
       <c r="V3" s="17" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="W3" s="17"/>
     </row>
-    <row r="4" spans="1:24" ht="25.5" customHeight="1">
+    <row r="4" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>267</v>
       </c>
@@ -5582,11 +5558,11 @@
         <v>78</v>
       </c>
       <c r="V4" s="17" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="W4" s="17"/>
     </row>
-    <row r="5" spans="1:24" ht="25.5" customHeight="1">
+    <row r="5" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>148</v>
       </c>
@@ -5600,14 +5576,14 @@
         <v>78</v>
       </c>
       <c r="V5" s="17" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="W5" s="17"/>
       <c r="X5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="25.5" customHeight="1">
+    <row r="6" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>271</v>
       </c>
@@ -5621,11 +5597,11 @@
         <v>78</v>
       </c>
       <c r="V6" s="17" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="W6" s="17"/>
     </row>
-    <row r="7" spans="1:24" ht="25.5" customHeight="1">
+    <row r="7" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>192</v>
       </c>
@@ -5639,11 +5615,11 @@
         <v>78</v>
       </c>
       <c r="V7" s="17" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="W7" s="17"/>
     </row>
-    <row r="8" spans="1:24" ht="25.5" customHeight="1">
+    <row r="8" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>191</v>
       </c>
@@ -5651,7 +5627,7 @@
         <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="R8" s="1" t="s">
         <v>21</v>
@@ -5660,11 +5636,11 @@
         <v>78</v>
       </c>
       <c r="V8" s="17" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="W8" s="17"/>
     </row>
-    <row r="9" spans="1:24" ht="25.5" customHeight="1">
+    <row r="9" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -5678,11 +5654,11 @@
         <v>78</v>
       </c>
       <c r="V9" s="17" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="W9" s="17"/>
     </row>
-    <row r="10" spans="1:24" ht="25.5" customHeight="1">
+    <row r="10" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>193</v>
       </c>
@@ -5696,11 +5672,11 @@
         <v>78</v>
       </c>
       <c r="V10" s="17" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="W10" s="17"/>
     </row>
-    <row r="11" spans="1:24" ht="25.5" customHeight="1">
+    <row r="11" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>172</v>
       </c>
@@ -5714,11 +5690,11 @@
         <v>78</v>
       </c>
       <c r="V11" s="17" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="W11" s="17"/>
     </row>
-    <row r="12" spans="1:24" ht="25.5" customHeight="1">
+    <row r="12" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>272</v>
       </c>
@@ -5734,15 +5710,15 @@
       <c r="V12" s="17"/>
       <c r="W12" s="17"/>
     </row>
-    <row r="13" spans="1:24" ht="25.5" customHeight="1">
+    <row r="13" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="R13" s="1" t="s">
         <v>21</v>
@@ -5753,7 +5729,7 @@
       <c r="V13" s="17"/>
       <c r="W13" s="17"/>
     </row>
-    <row r="14" spans="1:24" ht="25.5" customHeight="1">
+    <row r="14" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>194</v>
       </c>
@@ -5761,7 +5737,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="R14" s="1" t="s">
         <v>21</v>
@@ -5773,19 +5749,19 @@
         <v>224</v>
       </c>
       <c r="V14" s="17" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="W14" s="17"/>
     </row>
-    <row r="15" spans="1:24" ht="25.5" customHeight="1">
+    <row r="15" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="R15" s="1" t="s">
         <v>21</v>
@@ -5794,14 +5770,14 @@
         <v>78</v>
       </c>
       <c r="U15" s="7" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="V15" s="17" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="W15" s="17"/>
     </row>
-    <row r="16" spans="1:24" ht="25.5" customHeight="1">
+    <row r="16" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>196</v>
       </c>
@@ -5815,13 +5791,13 @@
         <v>78</v>
       </c>
       <c r="V16" s="17" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="W16" s="17"/>
     </row>
-    <row r="17" spans="1:23" ht="25.5" customHeight="1">
+    <row r="17" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>13</v>
@@ -5835,7 +5811,7 @@
       <c r="V17" s="17"/>
       <c r="W17" s="17"/>
     </row>
-    <row r="18" spans="1:23" ht="25.5" customHeight="1">
+    <row r="18" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
@@ -5849,13 +5825,13 @@
         <v>78</v>
       </c>
       <c r="V18" s="17" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="W18" s="17"/>
     </row>
-    <row r="19" spans="1:23" ht="25.5" customHeight="1">
+    <row r="19" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>13</v>
@@ -5869,9 +5845,9 @@
       <c r="V19" s="17"/>
       <c r="W19" s="17"/>
     </row>
-    <row r="20" spans="1:23" ht="25.5" customHeight="1">
+    <row r="20" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>13</v>
@@ -5883,12 +5859,12 @@
         <v>78</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="V20" s="17"/>
       <c r="W20" s="17"/>
     </row>
-    <row r="21" spans="1:23" ht="25.5" customHeight="1">
+    <row r="21" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>195</v>
       </c>
@@ -5902,19 +5878,19 @@
         <v>78</v>
       </c>
       <c r="V21" s="17" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="W21" s="17"/>
     </row>
-    <row r="22" spans="1:23" ht="25.5" customHeight="1">
+    <row r="22" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="R22" s="1" t="s">
         <v>21</v>
@@ -5923,26 +5899,26 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="25.5" customHeight="1">
+    <row r="23" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="25.5" customHeight="1">
+    <row r="24" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24"/>
     </row>
-    <row r="25" spans="1:23" ht="25.5" customHeight="1">
+    <row r="25" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25"/>
     </row>
-    <row r="56" spans="20:23" ht="25.5" customHeight="1">
+    <row r="56" spans="20:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="T56" s="7"/>
       <c r="V56" s="7"/>
       <c r="W56" s="7"/>
     </row>
-    <row r="59" spans="20:23" ht="25.5" customHeight="1">
+    <row r="59" spans="20:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="W59" s="7"/>
     </row>
   </sheetData>
@@ -5963,15 +5939,15 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" customWidth="1"/>
     <col min="5" max="5" width="89" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1">
+    <row r="1" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -5988,12 +5964,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="135.75" thickBot="1">
+    <row r="2" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="B2" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>191</v>
@@ -6002,27 +5978,27 @@
         <v>13</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="60">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="B3" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="C3" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="D3" t="s">
         <v>78</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E4" s="2"/>
     </row>
   </sheetData>
@@ -6041,98 +6017,98 @@
       <selection pane="bottomRight" activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" customWidth="1"/>
-    <col min="7" max="7" width="58.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="28.140625" customWidth="1"/>
-    <col min="14" max="14" width="17.28515625" customWidth="1"/>
-    <col min="17" max="17" width="31.28515625" customWidth="1"/>
-    <col min="18" max="18" width="31.28515625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="20.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5" customWidth="1"/>
+    <col min="7" max="7" width="58.33203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="28.1640625" customWidth="1"/>
+    <col min="14" max="14" width="17.33203125" customWidth="1"/>
+    <col min="17" max="17" width="31.33203125" customWidth="1"/>
+    <col min="18" max="18" width="31.33203125" style="1" customWidth="1"/>
+    <col min="24" max="24" width="20.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="W1" t="s">
         <v>418</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="W1" t="s">
-        <v>426</v>
-      </c>
       <c r="X1" s="1" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" ht="75">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="64" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -6152,7 +6128,7 @@
         <v>34</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="H2" t="s">
         <v>13</v>
@@ -6203,7 +6179,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -6272,7 +6248,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -6340,7 +6316,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -6408,7 +6384,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -6476,7 +6452,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -6544,7 +6520,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -6612,7 +6588,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -6680,7 +6656,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -6761,12 +6737,12 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="51.140625" customWidth="1"/>
+    <col min="3" max="3" width="51.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
@@ -6774,39 +6750,39 @@
         <v>29</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="59.25" customHeight="1">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>34</v>
@@ -6822,42 +6798,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AB94"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="Z50" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="6" ySplit="1" topLeftCell="Z72" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B62" sqref="B62"/>
+      <selection pane="bottomRight" activeCell="F85" sqref="F85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.95" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="1"/>
-    <col min="2" max="2" width="21.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="21.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" customWidth="1"/>
-    <col min="6" max="6" width="73.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" customWidth="1"/>
-    <col min="10" max="10" width="36.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="22.42578125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.28515625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="16.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="73.83203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" customWidth="1"/>
+    <col min="10" max="10" width="36.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="22.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.33203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="16.33203125" style="1" customWidth="1"/>
     <col min="16" max="16" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="49.7109375" style="1" customWidth="1"/>
-    <col min="21" max="22" width="38.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="49.6640625" style="1" customWidth="1"/>
+    <col min="21" max="22" width="38.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="16" style="1" customWidth="1"/>
-    <col min="24" max="24" width="50.85546875" style="1" customWidth="1"/>
-    <col min="25" max="25" width="68.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="90.7109375" style="1" customWidth="1"/>
-    <col min="27" max="27" width="83.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="38.140625" customWidth="1"/>
+    <col min="24" max="24" width="50.83203125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="68.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="90.6640625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="83.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="38.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="18.95" customHeight="1" thickBot="1">
+    <row r="1" spans="1:28" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>151</v>
       </c>
@@ -6919,10 +6895,10 @@
         <v>56</v>
       </c>
       <c r="U1" s="4" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="V1" s="4" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="W1" s="4" t="s">
         <v>57</v>
@@ -6943,7 +6919,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1" thickTop="1">
+    <row r="2" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -6993,7 +6969,7 @@
         <v>SearchParameter-us-core-!example category search-category.html</v>
       </c>
     </row>
-    <row r="3" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="3" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -7040,7 +7016,7 @@
         <v>SearchParameter-us-core-!example code search-code.html</v>
       </c>
     </row>
-    <row r="4" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="4" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -7094,7 +7070,7 @@
         <v>SearchParameter-us-core-!example date search-date.html</v>
       </c>
     </row>
-    <row r="5" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="5" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -7153,7 +7129,7 @@
         <v>SearchParameter-us-core-!example patient search-patient.html</v>
       </c>
     </row>
-    <row r="6" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="6" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -7203,7 +7179,7 @@
         <v>SearchParameter-us-core-!example status search-status.html</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="18.95" customHeight="1">
+    <row r="7" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -7254,7 +7230,7 @@
         <v>SearchParameter-us-core-!patient-address.html</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="18.95" customHeight="1">
+    <row r="8" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -7305,7 +7281,7 @@
         <v>SearchParameter-us-core-!patient-telecom.html</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="18.95" customHeight="1">
+    <row r="9" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -7352,7 +7328,7 @@
         <v>SearchParameter-us-core-allergyintolerance-clinical-status.html</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="18.95" customHeight="1">
+    <row r="10" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -7412,7 +7388,7 @@
         <v>SearchParameter-us-core-allergyintolerance-patient.html</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="18.95" customHeight="1">
+    <row r="11" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -7463,7 +7439,7 @@
         <v>SearchParameter-us-core-condition-category.html</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="18.95" customHeight="1">
+    <row r="12" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -7511,7 +7487,7 @@
         <v>SearchParameter-us-core-condition-clinical-status.html</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="18.95" customHeight="1">
+    <row r="13" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -7569,7 +7545,7 @@
         <v>SearchParameter-us-core-condition-patient.html</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="18.95" customHeight="1">
+    <row r="14" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -7612,7 +7588,7 @@
         <v>227</v>
       </c>
       <c r="Z14" s="5" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="AA14" s="2" t="s">
         <v>183</v>
@@ -7622,7 +7598,7 @@
         <v>SearchParameter-us-core-encounter-id.html</v>
       </c>
     </row>
-    <row r="15" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="15" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -7672,7 +7648,7 @@
         <v>SearchParameter-us-core-encounter-class.html</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="18.95" customHeight="1">
+    <row r="16" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -7726,7 +7702,7 @@
         <v>SearchParameter-us-core-encounter-date.html</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="18.95" customHeight="1">
+    <row r="17" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -7780,7 +7756,7 @@
         <v>SearchParameter-us-core-encounter-identifier.html</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="18.95" customHeight="1">
+    <row r="18" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -7838,7 +7814,7 @@
         <v>SearchParameter-us-core-encounter-patient.html</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="18.95" customHeight="1">
+    <row r="19" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -7888,7 +7864,7 @@
         <v>SearchParameter-us-core-encounter-status.html</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="18.95" customHeight="1">
+    <row r="20" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -7936,7 +7912,7 @@
         <v>SearchParameter-us-core-encounter-type.html</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="18.95" customHeight="1">
+    <row r="21" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -7979,14 +7955,14 @@
         <v>84</v>
       </c>
       <c r="Z21" s="5" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="AB21" s="1" t="str">
         <f>"SearchParameter-us-core-"&amp;LOWER((B21)&amp;"-"&amp;SUBSTITUTE(C21,"_","")&amp;".html")</f>
         <v>SearchParameter-us-core-patient-id.html</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="18.95" customHeight="1">
+    <row r="22" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -8034,7 +8010,7 @@
         <v>SearchParameter-us-core-patient-birthdate.html</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="18.95" customHeight="1">
+    <row r="23" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -8078,7 +8054,7 @@
         <v>SearchParameter-us-core-patient-family.html</v>
       </c>
     </row>
-    <row r="24" spans="1:28" ht="18.95" customHeight="1">
+    <row r="24" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -8127,7 +8103,7 @@
         <v>SearchParameter-us-core-patient-gender.html</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="18.95" customHeight="1">
+    <row r="25" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -8171,7 +8147,7 @@
         <v>SearchParameter-us-core-patient-given.html</v>
       </c>
     </row>
-    <row r="26" spans="1:28" ht="18.95" customHeight="1">
+    <row r="26" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -8226,7 +8202,7 @@
         <v>SearchParameter-us-core-patient-identifier.html</v>
       </c>
     </row>
-    <row r="27" spans="1:28" ht="18.95" customHeight="1">
+    <row r="27" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -8284,7 +8260,7 @@
         <v>SearchParameter-us-core-patient-name.html</v>
       </c>
     </row>
-    <row r="28" spans="1:28" ht="18.95" customHeight="1">
+    <row r="28" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -8327,7 +8303,7 @@
         <v>SearchParameter-us-core-!questionnaire-_id.html</v>
       </c>
     </row>
-    <row r="29" spans="1:28" ht="18.95" customHeight="1">
+    <row r="29" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -8372,7 +8348,7 @@
         <v>SearchParameter-us-core-!questionnaire-context-type-value.html</v>
       </c>
     </row>
-    <row r="30" spans="1:28" ht="18.95" customHeight="1">
+    <row r="30" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -8422,7 +8398,7 @@
         <v>SearchParameter-us-core-!questionnaire-publisher.html</v>
       </c>
     </row>
-    <row r="31" spans="1:28" ht="18.95" customHeight="1">
+    <row r="31" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -8469,7 +8445,7 @@
         <v>SearchParameter-us-core-!questionnaire-status.html</v>
       </c>
     </row>
-    <row r="32" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="32" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -8529,7 +8505,7 @@
         <v>SearchParameter-us-core-!questionnaire-title.html</v>
       </c>
     </row>
-    <row r="33" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="33" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -8574,7 +8550,7 @@
         <v>SearchParameter-us-core-!questionnaire-url.html</v>
       </c>
     </row>
-    <row r="34" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="34" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -8619,7 +8595,7 @@
         <v>SearchParameter-us-core-!questionnaire-version.html</v>
       </c>
     </row>
-    <row r="35" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="35" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -8670,7 +8646,7 @@
         <v>SearchParameter-us-core-condition-onset-date.html</v>
       </c>
     </row>
-    <row r="36" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="36" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -8717,7 +8693,7 @@
         <v>SearchParameter-us-core-condition-code.html</v>
       </c>
     </row>
-    <row r="37" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="37" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -8776,7 +8752,7 @@
         <v>SearchParameter-us-core-immunization-patient.html</v>
       </c>
     </row>
-    <row r="38" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="38" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -8826,7 +8802,7 @@
         <v>SearchParameter-us-core-immunization-status.html</v>
       </c>
     </row>
-    <row r="39" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="39" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -8880,7 +8856,7 @@
         <v>SearchParameter-us-core-immunization-date.html</v>
       </c>
     </row>
-    <row r="40" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="40" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -8920,20 +8896,20 @@
         <v>62</v>
       </c>
       <c r="Y40" s="5" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="Z40" s="5" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="AA40" s="2" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="AB40" s="1" t="str">
         <f t="shared" ref="AB40" si="10">"SearchParameter-us-core-"&amp;LOWER((B40)&amp;"-"&amp;C40&amp;".html")</f>
         <v>SearchParameter-us-core-documentreference-_id.html</v>
       </c>
     </row>
-    <row r="41" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="41" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -8986,7 +8962,7 @@
         <v>SearchParameter-us-core-documentreference-status.html</v>
       </c>
     </row>
-    <row r="42" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="42" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -9045,7 +9021,7 @@
         <v>SearchParameter-us-core-documentreference-patient.html</v>
       </c>
     </row>
-    <row r="43" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="43" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -9095,7 +9071,7 @@
         <v>SearchParameter-us-core-documentreference-category.html</v>
       </c>
     </row>
-    <row r="44" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="44" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -9142,7 +9118,7 @@
         <v>SearchParameter-us-core-documentreference-type.html</v>
       </c>
     </row>
-    <row r="45" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="45" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -9196,7 +9172,7 @@
         <v>SearchParameter-us-core-documentreference-date.html</v>
       </c>
     </row>
-    <row r="46" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="46" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -9204,7 +9180,7 @@
         <v>191</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>34</v>
@@ -9226,7 +9202,7 @@
         <v>88</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="K46" s="1" t="s">
         <v>62</v>
@@ -9249,7 +9225,7 @@
         <v>SearchParameter-us-core-documentreference-period.html</v>
       </c>
     </row>
-    <row r="47" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="47" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -9302,7 +9278,7 @@
         <v>SearchParameter-us-core-diagnosticreport-status.html</v>
       </c>
     </row>
-    <row r="48" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="48" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -9361,7 +9337,7 @@
         <v>SearchParameter-us-core-diagnosticreport-patient.html</v>
       </c>
     </row>
-    <row r="49" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="49" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -9411,7 +9387,7 @@
         <v>SearchParameter-us-core-diagnosticreport-category.html</v>
       </c>
     </row>
-    <row r="50" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="50" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -9461,7 +9437,7 @@
         <v>SearchParameter-us-core-diagnosticreport-code.html</v>
       </c>
     </row>
-    <row r="51" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="51" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -9515,7 +9491,7 @@
         <v>SearchParameter-us-core-diagnosticreport-date.html</v>
       </c>
     </row>
-    <row r="52" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="52" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -9523,7 +9499,7 @@
         <v>193</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>34</v>
@@ -9565,7 +9541,7 @@
         <v>SearchParameter-us-core-goal-lifecycle-status.html</v>
       </c>
     </row>
-    <row r="53" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="53" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -9624,7 +9600,7 @@
         <v>SearchParameter-us-core-goal-patient.html</v>
       </c>
     </row>
-    <row r="54" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="54" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -9632,7 +9608,7 @@
         <v>193</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>34</v>
@@ -9678,7 +9654,7 @@
         <v>SearchParameter-us-core-goal-target-date.html</v>
       </c>
     </row>
-    <row r="55" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="55" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -9731,7 +9707,7 @@
         <v>SearchParameter-us-core-medicationrequest-status.html</v>
       </c>
     </row>
-    <row r="56" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="56" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>53</v>
       </c>
@@ -9739,7 +9715,7 @@
         <v>194</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>34</v>
@@ -9784,7 +9760,7 @@
         <v>SearchParameter-us-core-medicationrequest-intent.html</v>
       </c>
     </row>
-    <row r="57" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="57" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>54</v>
       </c>
@@ -9835,7 +9811,7 @@
         <v>SearchParameter-us-core-medicationrequest-patient.html</v>
       </c>
     </row>
-    <row r="58" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="58" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>54</v>
       </c>
@@ -9843,7 +9819,7 @@
         <v>194</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>34</v>
@@ -9886,7 +9862,7 @@
         <v>SearchParameter-us-core-medicationrequest-encounter.html</v>
       </c>
     </row>
-    <row r="59" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="59" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>55</v>
       </c>
@@ -9940,12 +9916,12 @@
         <v>SearchParameter-us-core-medicationrequest-authoredon.html</v>
       </c>
     </row>
-    <row r="60" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="60" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>56</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>68</v>
@@ -9993,12 +9969,12 @@
         <v>SearchParameter-us-core-!medicationstatement-status.html</v>
       </c>
     </row>
-    <row r="61" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="61" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>57</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>99</v>
@@ -10040,7 +10016,7 @@
         <v>230</v>
       </c>
       <c r="Z61" s="12" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="AA61" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B61&amp; " resources for the specified patient. Mandatory for client to support the _include parameter. Optional for server to support the _include parameter."</f>
@@ -10051,12 +10027,12 @@
         <v>SearchParameter-us-core-!medicationstatement-patient.html</v>
       </c>
     </row>
-    <row r="62" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="62" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>58</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>247</v>
@@ -10105,7 +10081,7 @@
         <v>SearchParameter-us-core-!medicationstatement-effective.html</v>
       </c>
     </row>
-    <row r="63" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="63" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>59</v>
       </c>
@@ -10158,7 +10134,7 @@
         <v>SearchParameter-us-core-procedure-status.html</v>
       </c>
     </row>
-    <row r="64" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="64" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>60</v>
       </c>
@@ -10216,7 +10192,7 @@
         <v>SearchParameter-us-core-procedure-patient.html</v>
       </c>
     </row>
-    <row r="65" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="65" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>61</v>
       </c>
@@ -10270,7 +10246,7 @@
         <v>SearchParameter-us-core-procedure-date.html</v>
       </c>
     </row>
-    <row r="66" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="66" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>62</v>
       </c>
@@ -10320,7 +10296,7 @@
         <v>SearchParameter-us-core-procedure-code.html</v>
       </c>
     </row>
-    <row r="67" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="67" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>63</v>
       </c>
@@ -10373,7 +10349,7 @@
         <v>SearchParameter-us-core-observation-status.html</v>
       </c>
     </row>
-    <row r="68" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="68" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>64</v>
       </c>
@@ -10423,7 +10399,7 @@
         <v>SearchParameter-us-core-observation-category.html</v>
       </c>
     </row>
-    <row r="69" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="69" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>65</v>
       </c>
@@ -10473,7 +10449,7 @@
         <v>SearchParameter-us-core-observation-code.html</v>
       </c>
     </row>
-    <row r="70" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="70" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>66</v>
       </c>
@@ -10527,7 +10503,7 @@
         <v>SearchParameter-us-core-observation-date.html</v>
       </c>
     </row>
-    <row r="71" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="71" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>67</v>
       </c>
@@ -10586,7 +10562,7 @@
         <v>SearchParameter-us-core-observation-patient.html</v>
       </c>
     </row>
-    <row r="72" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="72" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>68</v>
       </c>
@@ -10636,12 +10612,12 @@
         <v>SearchParameter-us-core-careplan-category.html</v>
       </c>
     </row>
-    <row r="73" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="73" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>69</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>30</v>
@@ -10683,7 +10659,7 @@
         <v>SearchParameter-us-core-!careplan-code.html</v>
       </c>
     </row>
-    <row r="74" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="74" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>70</v>
       </c>
@@ -10737,7 +10713,7 @@
         <v>SearchParameter-us-core-careplan-date.html</v>
       </c>
     </row>
-    <row r="75" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="75" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>71</v>
       </c>
@@ -10796,7 +10772,7 @@
         <v>SearchParameter-us-core-careplan-patient.html</v>
       </c>
     </row>
-    <row r="76" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="76" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>72</v>
       </c>
@@ -10849,7 +10825,7 @@
         <v>SearchParameter-us-core-careplan-status.html</v>
       </c>
     </row>
-    <row r="77" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="77" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>73</v>
       </c>
@@ -10908,7 +10884,7 @@
         <v>SearchParameter-us-core-careteam-patient.html</v>
       </c>
     </row>
-    <row r="78" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="78" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>74</v>
       </c>
@@ -10961,7 +10937,7 @@
         <v>SearchParameter-us-core-careteam-status.html</v>
       </c>
     </row>
-    <row r="79" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="79" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>75</v>
       </c>
@@ -11020,7 +10996,7 @@
         <v>SearchParameter-us-core-device-patient.html</v>
       </c>
     </row>
-    <row r="80" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="80" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>76</v>
       </c>
@@ -11066,7 +11042,7 @@
         <v>SearchParameter-us-core-device-type.html</v>
       </c>
     </row>
-    <row r="81" spans="1:28" ht="18.95" customHeight="1">
+    <row r="81" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>77</v>
       </c>
@@ -11108,8 +11084,9 @@
       <c r="Y81" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="Z81" s="7" t="s">
-        <v>281</v>
+      <c r="Z81" s="5" t="str">
+        <f>"GET [base]/"&amp;B81&amp;"?name=Health"</f>
+        <v>GET [base]/Location?name=Health</v>
       </c>
       <c r="AA81" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B81&amp; " resources that match the name"</f>
@@ -11120,7 +11097,7 @@
         <v>SearchParameter-us-core-location-name.html</v>
       </c>
     </row>
-    <row r="82" spans="1:28" ht="18.95" customHeight="1">
+    <row r="82" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>78</v>
       </c>
@@ -11162,8 +11139,9 @@
       <c r="Y82" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="Z82" s="7" t="s">
-        <v>282</v>
+      <c r="Z82" s="5" t="str">
+        <f>"GET [base]/"&amp;B82&amp;"?address=Arbor"</f>
+        <v>GET [base]/Location?address=Arbor</v>
       </c>
       <c r="AA82" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B82&amp; " resources that match the address string"</f>
@@ -11174,7 +11152,7 @@
         <v>SearchParameter-us-core-location-address.html</v>
       </c>
     </row>
-    <row r="83" spans="1:28" ht="18.95" customHeight="1">
+    <row r="83" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>79</v>
       </c>
@@ -11216,8 +11194,9 @@
       <c r="Y83" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Z83" s="7" t="s">
-        <v>285</v>
+      <c r="Z83" s="5" t="str">
+        <f>"GET [base]/"&amp;B83&amp;"?address-city=Ann Arbor"</f>
+        <v>GET [base]/Location?address-city=Ann Arbor</v>
       </c>
       <c r="AA83" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B83&amp; " resources for the city"</f>
@@ -11228,7 +11207,7 @@
         <v>SearchParameter-us-core-location-address-city.html</v>
       </c>
     </row>
-    <row r="84" spans="1:28" ht="18.95" customHeight="1">
+    <row r="84" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>80</v>
       </c>
@@ -11236,7 +11215,7 @@
         <v>272</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>78</v>
@@ -11270,8 +11249,8 @@
       <c r="Y84" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="Z84" s="7" t="s">
-        <v>284</v>
+      <c r="Z84" s="5" t="s">
+        <v>281</v>
       </c>
       <c r="AA84" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B84&amp; " resources for the state"</f>
@@ -11282,7 +11261,7 @@
         <v>SearchParameter-us-core-location-address-state.html</v>
       </c>
     </row>
-    <row r="85" spans="1:28" ht="18.95" customHeight="1">
+    <row r="85" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>81</v>
       </c>
@@ -11324,8 +11303,9 @@
       <c r="Y85" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="Z85" s="7" t="s">
-        <v>283</v>
+      <c r="Z85" s="5" t="str">
+        <f>"GET [base]/"&amp;B85&amp;"?address-postalcode=48104"</f>
+        <v>GET [base]/Location?address-postalcode=48104</v>
       </c>
       <c r="AA85" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B85&amp; " resources for the ZIP code"</f>
@@ -11336,12 +11316,12 @@
         <v>SearchParameter-us-core-location-address-postalcode.html</v>
       </c>
     </row>
-    <row r="86" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="86" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>82</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>27</v>
@@ -11376,10 +11356,11 @@
         <v>62</v>
       </c>
       <c r="Y86" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="Z86" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
+      </c>
+      <c r="Z86" s="5" t="str">
+        <f>"GET [base]/"&amp;B86&amp;"?name=Health"</f>
+        <v>GET [base]/Organization?name=Health</v>
       </c>
       <c r="AA86" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B86&amp; " resources that match the name"</f>
@@ -11390,12 +11371,12 @@
         <v>SearchParameter-us-core-organization-name.html</v>
       </c>
     </row>
-    <row r="87" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="87" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>83</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>95</v>
@@ -11430,10 +11411,11 @@
         <v>62</v>
       </c>
       <c r="Y87" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="Z87" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
+      </c>
+      <c r="Z87" s="5" t="str">
+        <f>"GET [base]/"&amp;B87&amp;"?address=Arbor"</f>
+        <v>GET [base]/Organization?address=Arbor</v>
       </c>
       <c r="AA87" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B87&amp; " resources that match the address string"</f>
@@ -11444,12 +11426,12 @@
         <v>SearchParameter-us-core-organization-address.html</v>
       </c>
     </row>
-    <row r="88" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="88" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>84</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>273</v>
@@ -11484,10 +11466,11 @@
         <v>62</v>
       </c>
       <c r="Y88" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="Z88" s="7" t="s">
         <v>285</v>
+      </c>
+      <c r="Z88" s="5" t="str">
+        <f>"GET [base]/"&amp;B88&amp;"?address-city=Ann Arbor"</f>
+        <v>GET [base]/!Organization?address-city=Ann Arbor</v>
       </c>
       <c r="AA88" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B88&amp; " resources for the city"</f>
@@ -11498,12 +11481,12 @@
         <v>SearchParameter-us-core-!organization-address-city.html</v>
       </c>
     </row>
-    <row r="89" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="89" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>85</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>274</v>
@@ -11538,10 +11521,11 @@
         <v>62</v>
       </c>
       <c r="Y89" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="Z89" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
+      </c>
+      <c r="Z89" s="5" t="str">
+        <f>"GET [base]/"&amp;B89&amp;"?address-state=MI"</f>
+        <v>GET [base]/!Organization?address-state=MI</v>
       </c>
       <c r="AA89" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B89&amp; " resources for the state"</f>
@@ -11552,12 +11536,12 @@
         <v>SearchParameter-us-core-!organization-adress-state.html</v>
       </c>
     </row>
-    <row r="90" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="90" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>86</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>275</v>
@@ -11592,10 +11576,11 @@
         <v>62</v>
       </c>
       <c r="Y90" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="Z90" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
+      </c>
+      <c r="Z90" s="5" t="str">
+        <f>"GET [base]/"&amp;B90&amp;"?address-postalcode=48104"</f>
+        <v>GET [base]/!Organization?address-postalcode=48104</v>
       </c>
       <c r="AA90" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B90&amp; " resources for the ZIP code"</f>
@@ -11606,12 +11591,12 @@
         <v>SearchParameter-us-core-!organization-address-postalcode.html</v>
       </c>
     </row>
-    <row r="91" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="91" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>87</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>27</v>
@@ -11649,10 +11634,11 @@
         <v>86</v>
       </c>
       <c r="Y91" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="Z91" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
+      </c>
+      <c r="Z91" s="5" t="str">
+        <f>"GET [base]/"&amp;B91&amp;"?name=Smith"</f>
+        <v>GET [base]/Practitioner?name=Smith</v>
       </c>
       <c r="AA91" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B91&amp;" resources matching the name"</f>
@@ -11663,12 +11649,12 @@
         <v>SearchParameter-us-core-practitioner-name.html</v>
       </c>
     </row>
-    <row r="92" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="92" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>88</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>85</v>
@@ -11703,10 +11689,11 @@
         <v>62</v>
       </c>
       <c r="Y92" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="Z92" s="7" t="s">
-        <v>371</v>
+        <v>349</v>
+      </c>
+      <c r="Z92" s="5" t="str">
+        <f>"GET [base]/"&amp;B92&amp;"?dentifier=http://hl7.org/fhir/sid/us-npi\|97860456"</f>
+        <v>GET [base]/Practitioner?dentifier=http://hl7.org/fhir/sid/us-npi\|97860456</v>
       </c>
       <c r="AA92" s="12" t="str">
         <f>"Fetches a bundle containing any "&amp;B92&amp;" resources matching the identifier"</f>
@@ -11717,15 +11704,15 @@
         <v>SearchParameter-us-core-practitioner-identifier.html</v>
       </c>
     </row>
-    <row r="93" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="93" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>89</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>13</v>
@@ -11757,13 +11744,14 @@
         <v>62</v>
       </c>
       <c r="V93" s="1" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="Y93" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z93" s="7" t="s">
-        <v>370</v>
+        <v>350</v>
+      </c>
+      <c r="Z93" s="5" t="str">
+        <f>"GET [base]/"&amp;B93&amp;"?specialty=http://nucc.org/provider-taxonomy\|208D0000X"</f>
+        <v>GET [base]/PractitionerRole?specialty=http://nucc.org/provider-taxonomy\|208D0000X</v>
       </c>
       <c r="AA93" s="12" t="str">
         <f>"Fetches a bundle containing  "&amp;B93&amp;" resources matching the specialty"</f>
@@ -11774,15 +11762,15 @@
         <v>SearchParameter-us-core-practitionerrole-specialty.html</v>
       </c>
     </row>
-    <row r="94" spans="1:28" ht="18.95" customHeight="1">
+    <row r="94" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>90</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>13</v>
@@ -11814,16 +11802,17 @@
         <v>62</v>
       </c>
       <c r="S94" s="1" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="V94" s="1" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="Y94" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="Z94" s="7" t="s">
-        <v>369</v>
+        <v>296</v>
+      </c>
+      <c r="Z94" s="5" t="str">
+        <f>_xlfn.CONCAT("GET [base]/",B94,"?practitioner.identifier=http://hl7.org/fhir/sid/us-npi\|97860456&amp;_include=PractitionerRole:practitioner","&amp;_include=PractitionerRole?endpoint~GET [base]/PractitionerRole?practitioner.name=Henry&amp;_include=PractitionerRole:practitioner&amp;_include=PractitionerRole?endpoint")</f>
+        <v>GET [base]/PractitionerRole?practitioner.identifier=http://hl7.org/fhir/sid/us-npi\|97860456&amp;_include=PractitionerRole:practitioner&amp;_include=PractitionerRole?endpoint~GET [base]/PractitionerRole?practitioner.name=Henry&amp;_include=PractitionerRole:practitioner&amp;_include=PractitionerRole?endpoint</v>
       </c>
       <c r="AA94" s="12" t="str">
         <f>"Fetches a bundle containing  "&amp;B94&amp;" resources matching the chained parameter practitioner.name or practitioner.identifier. SHOULD support the _include for PractionerRole.practitioner and PractitionerRole.endpoint."</f>

--- a/input/resources_spreadsheets/uscore-server.xlsx
+++ b/input/resources_spreadsheets/uscore-server.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/US-Core-R4/input/resources_spreadsheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\US-Core-R4\input\resources_spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9824DA5-6D3D-AE4F-884E-324CA122A45D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F1361E5-425E-4203-81E0-9CC892749F9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23130" yWindow="3045" windowWidth="38355" windowHeight="15795" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -702,9 +702,6 @@
     <t>support searching for a patient by a string match of any part of name and gender</t>
   </si>
   <si>
-    <t>support searching for a patient by a string match of any part of name</t>
-  </si>
-  <si>
     <t>GET [base]/Patient?name=Shaw</t>
   </si>
   <si>
@@ -1761,12 +1758,15 @@
   <si>
     <t>The  MedicationRequest resource can represent a medication, using an external reference to a Medication resource. If an external Medication Resourcse is used in a MedicationRequest, then the READ  **SHALL**  be supported.</t>
   </si>
+  <si>
+    <t>support searching for a patient by a server defined search that matches any of the string fields in the HumanName, including family, give, prefix, suffix, suffix, and/or text</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2238,12 +2238,12 @@
       <selection sqref="A1:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -2251,60 +2251,60 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>520</v>
+      </c>
+      <c r="B2" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>521</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>522</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>512</v>
+      </c>
+      <c r="B4" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>514</v>
+      </c>
+      <c r="B5" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>513</v>
-      </c>
-      <c r="B4" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>515</v>
-      </c>
-      <c r="B5" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>75</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B8" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
   </sheetData>
@@ -2320,21 +2320,21 @@
       <selection activeCell="J57" sqref="J57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="1"/>
-    <col min="2" max="2" width="21.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="96.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="21.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="96.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="56" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.83203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="88.83203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="82.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="83.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="88.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="82.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>153</v>
       </c>
@@ -2354,7 +2354,7 @@
         <v>108</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>3</v>
@@ -2366,7 +2366,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="15.75" thickTop="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2391,7 +2391,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and date</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2416,7 +2416,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and date and patient</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2441,7 +2441,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and date and patient and type</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2466,7 +2466,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and date and type</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2487,17 +2487,17 @@
         <v>116</v>
       </c>
       <c r="H6" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>330</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>331</v>
       </c>
       <c r="J6" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Fetches a bundle of all Encounter resources matching the specified class and patient</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2522,7 +2522,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and patient and status</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2547,7 +2547,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and patient and status and type</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2573,7 +2573,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and patient and type</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2600,7 +2600,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and status</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2626,7 +2626,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and status and type</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2651,7 +2651,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and type</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2672,17 +2672,17 @@
         <v>123</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J13" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Fetches a bundle of all Encounter resources matching the specified date and patient</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" s="1" customFormat="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2707,7 +2707,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified date and patient and type</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" s="1" customFormat="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2732,7 +2732,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified date and type</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2753,17 +2753,17 @@
         <v>116</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="J16" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Fetches a bundle of all Encounter resources matching the specified patient and type</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2789,7 +2789,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified patient and status and type</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2810,17 +2810,17 @@
         <v>116</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J18" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Fetches a bundle of all Encounter resources matching the specified patient and status</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" s="1" customFormat="1">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2847,7 +2847,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified status and type</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" s="1" customFormat="1">
       <c r="A20" s="1">
         <v>21</v>
       </c>
@@ -2873,7 +2873,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified context-type-value and publisher</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" s="1" customFormat="1">
       <c r="A21" s="1">
         <v>22</v>
       </c>
@@ -2898,7 +2898,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified context-type-value and publisher and status</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10">
       <c r="A22" s="1">
         <v>23</v>
       </c>
@@ -2924,7 +2924,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified context-type-value and status</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" s="1" customFormat="1">
       <c r="A23" s="1">
         <v>24</v>
       </c>
@@ -2951,7 +2951,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified publisher and status</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" s="1" customFormat="1">
       <c r="A24" s="1">
         <v>25</v>
       </c>
@@ -2978,7 +2978,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified publisher and status and version</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" s="1" customFormat="1">
       <c r="A25" s="1">
         <v>26</v>
       </c>
@@ -3005,7 +3005,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified publisher and version</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" s="1" customFormat="1">
       <c r="A26" s="1">
         <v>27</v>
       </c>
@@ -3030,7 +3030,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified status and title and version</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" s="1" customFormat="1">
       <c r="A27" s="1">
         <v>28</v>
       </c>
@@ -3055,7 +3055,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified status and version</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" s="1" customFormat="1">
       <c r="A28" s="1">
         <v>29</v>
       </c>
@@ -3080,7 +3080,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified title and version</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" s="1" customFormat="1">
       <c r="A29" s="1">
         <v>30</v>
       </c>
@@ -3104,14 +3104,14 @@
         <v>180</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J29" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Fetches a bundle of all Patient resources matching the specified birthdate and family</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" s="1" customFormat="1">
       <c r="A30" s="1">
         <v>31</v>
       </c>
@@ -3135,14 +3135,14 @@
         <v>181</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J30" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Fetches a bundle of all Patient resources matching the specified birthdate and name</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" s="1" customFormat="1">
       <c r="A31" s="1">
         <v>32</v>
       </c>
@@ -3166,14 +3166,14 @@
         <v>182</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J31" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Fetches a bundle of all Patient resources matching the specified family and gender</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" s="1" customFormat="1">
       <c r="A32" s="1">
         <v>33</v>
       </c>
@@ -3197,14 +3197,14 @@
         <v>184</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J32" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Fetches a bundle of all Patient resources matching the specified gender and name</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" s="1" customFormat="1">
       <c r="A33" s="1">
         <v>36</v>
       </c>
@@ -3225,19 +3225,19 @@
         <v>116</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H33" s="5" t="s">
         <v>166</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="1" customFormat="1">
       <c r="A34" s="1">
         <v>37</v>
       </c>
@@ -3261,13 +3261,13 @@
         <v>160</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="J34" s="5" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="35" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" s="1" customFormat="1">
       <c r="A35" s="1">
         <v>38</v>
       </c>
@@ -3291,13 +3291,13 @@
         <v>161</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J35" s="5" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" s="1" customFormat="1">
       <c r="A36" s="1">
         <v>39</v>
       </c>
@@ -3327,7 +3327,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" s="1" customFormat="1">
       <c r="A37" s="1">
         <v>42</v>
       </c>
@@ -3351,13 +3351,13 @@
         <v>173</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" s="1" customFormat="1">
       <c r="A38" s="1">
         <v>45</v>
       </c>
@@ -3388,7 +3388,7 @@
         <v>Fetches a bundle of all Immunization resources for the specified patient and date</v>
       </c>
     </row>
-    <row r="39" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" s="1" customFormat="1">
       <c r="A39" s="1">
         <v>46</v>
       </c>
@@ -3409,7 +3409,7 @@
         <v>159</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I39" s="5" t="s">
         <v>174</v>
@@ -3419,15 +3419,15 @@
         <v>Fetches a bundle of all Immunization resources for the specified patient and status</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" s="1" customFormat="1">
       <c r="A40" s="1">
         <v>49</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>126</v>
@@ -3439,25 +3439,25 @@
         <v>116</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J40" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B40&amp;" resources for the specified "&amp;SUBSTITUTE(D40,","," and ")</f>
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and status</v>
       </c>
     </row>
-    <row r="41" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" s="1" customFormat="1" ht="15.75">
       <c r="A41" s="1">
         <v>50</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>155</v>
@@ -3469,28 +3469,28 @@
         <v>116</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J41" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B41&amp;" resources for the specified patient and  a category code = `LAB`"</f>
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and  a category code = `LAB`</v>
       </c>
     </row>
-    <row r="42" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" s="1" customFormat="1" ht="15.75">
       <c r="A42" s="1">
         <v>51</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>157</v>
@@ -3502,88 +3502,88 @@
         <v>116</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J42" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B42&amp;" resources for the specified patient and  report code(s).  SHOULD support search by multiple report codes."</f>
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and  report code(s).  SHOULD support search by multiple report codes.</v>
       </c>
     </row>
-    <row r="43" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" s="1" customFormat="1" ht="15.75">
       <c r="A43" s="1">
         <v>52</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D43" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="H43" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>209</v>
-      </c>
       <c r="I43" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J43" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B43&amp;" resources for the specified patient and date and a category code = `LAB`"</f>
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and a category code = `LAB`</v>
       </c>
     </row>
-    <row r="44" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" s="1" customFormat="1">
       <c r="A44" s="1">
         <v>53</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>78</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J44" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B44&amp;" resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes."</f>
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes.</v>
       </c>
     </row>
-    <row r="45" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" s="1" customFormat="1">
       <c r="A45" s="1">
         <v>56</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>126</v>
@@ -3595,25 +3595,25 @@
         <v>116</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J45" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B45&amp;" resources for the specified "&amp;SUBSTITUTE(D45,","," and ")</f>
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and status</v>
       </c>
     </row>
-    <row r="46" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" s="1" customFormat="1">
       <c r="A46" s="1">
         <v>57</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>155</v>
@@ -3625,25 +3625,25 @@
         <v>116</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J46" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B46&amp;" resources for the specified patient and  a category code specified in US Core DiagnosticReport Category Codes"</f>
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and  a category code specified in US Core DiagnosticReport Category Codes</v>
       </c>
     </row>
-    <row r="47" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" s="1" customFormat="1">
       <c r="A47" s="1">
         <v>58</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>157</v>
@@ -3655,89 +3655,89 @@
         <v>116</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J47" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B47&amp;" resources for the specified patient and  report code(s).  SHOULD support search by multiple report codes."</f>
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and  report code(s).  SHOULD support search by multiple report codes.</v>
       </c>
     </row>
-    <row r="48" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" s="1" customFormat="1">
       <c r="A48" s="1">
         <v>59</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J48" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B48&amp;" resources for the specified patient and date and a category code specified in US Core DiagnosticReport Category Codes"</f>
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and a category code specified in US Core DiagnosticReport Category Codes</v>
       </c>
     </row>
-    <row r="49" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" s="1" customFormat="1">
       <c r="A49" s="1">
         <v>60</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D49" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="H49" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="E49" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="H49" s="5" t="s">
+      <c r="I49" s="5" t="s">
         <v>236</v>
-      </c>
-      <c r="I49" s="5" t="s">
-        <v>237</v>
       </c>
       <c r="J49" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B49&amp;" resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes."</f>
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes.</v>
       </c>
     </row>
-    <row r="50" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" s="1" customFormat="1">
       <c r="A50" s="1">
         <v>63</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C50" s="1" t="str">
         <f t="shared" ref="C50:C60" si="2">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B50)</f>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-goal</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>78</v>
@@ -3746,29 +3746,29 @@
         <v>116</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="J50" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B50&amp;" resources for the specified "&amp;SUBSTITUTE(D50,","," and ")</f>
         <v>Fetches a bundle of all Goal resources for the specified patient and lifecycle-status</v>
       </c>
     </row>
-    <row r="51" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" s="1" customFormat="1">
       <c r="A51" s="1">
         <v>64</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C51" s="1" t="str">
         <f t="shared" si="2"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-goal</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>78</v>
@@ -3777,29 +3777,29 @@
         <v>159</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="J51" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B51&amp;" resources for the specified "&amp;SUBSTITUTE(D51,","," and ")</f>
         <v>Fetches a bundle of all Goal resources for the specified patient and target-date</v>
       </c>
     </row>
-    <row r="52" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" s="1" customFormat="1">
       <c r="A52" s="1">
         <v>67</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C52" s="1" t="str">
         <f t="shared" si="2"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>13</v>
@@ -3808,31 +3808,31 @@
         <v>116</v>
       </c>
       <c r="G52" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="I52" s="5" t="s">
         <v>502</v>
       </c>
-      <c r="H52" s="5" t="s">
-        <v>473</v>
-      </c>
-      <c r="I52" s="5" t="s">
-        <v>503</v>
-      </c>
       <c r="J52" s="5" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" s="1" customFormat="1">
       <c r="A53" s="1">
         <v>68</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C53" s="1" t="str">
         <f t="shared" si="2"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>13</v>
@@ -3841,31 +3841,31 @@
         <v>116</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" s="1" customFormat="1">
       <c r="A54" s="1">
         <v>69</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C54" s="1" t="str">
         <f t="shared" si="2"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>78</v>
@@ -3874,57 +3874,57 @@
         <v>116</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" s="1" customFormat="1">
       <c r="A55" s="1">
         <v>70</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C55" s="1" t="str">
         <f t="shared" si="2"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>78</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="J55" s="5" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" s="1" customFormat="1">
       <c r="A56" s="1">
         <v>73</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C56" s="1" t="str">
         <f t="shared" si="2"/>
@@ -3940,29 +3940,29 @@
         <v>116</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J56" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B56&amp;" resources for the specified "&amp;SUBSTITUTE(D56,","," and ")</f>
         <v>Fetches a bundle of all !MedicationStatement resources for the specified patient and status</v>
       </c>
     </row>
-    <row r="57" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" s="1" customFormat="1">
       <c r="A57" s="1">
         <v>74</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C57" s="1" t="str">
         <f t="shared" si="2"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!medicationstatement</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>78</v>
@@ -3971,21 +3971,21 @@
         <v>159</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J57" s="5" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" s="1" customFormat="1">
       <c r="A58" s="1">
         <v>75</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C58" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4001,22 +4001,22 @@
         <v>116</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J58" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B58&amp;" resources for the specified "&amp;SUBSTITUTE(D58,","," and ")</f>
         <v>Fetches a bundle of all Procedure resources for the specified patient and status</v>
       </c>
     </row>
-    <row r="59" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" s="1" customFormat="1">
       <c r="A59" s="1">
         <v>76</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C59" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4032,59 +4032,59 @@
         <v>116</v>
       </c>
       <c r="H59" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="I59" s="5" t="s">
         <v>232</v>
-      </c>
-      <c r="I59" s="5" t="s">
-        <v>233</v>
       </c>
       <c r="J59" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B59&amp;" resources for the specified "&amp;SUBSTITUTE(D59,","," and ")</f>
         <v>Fetches a bundle of all Procedure resources for the specified patient and date</v>
       </c>
     </row>
-    <row r="60" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" s="1" customFormat="1">
       <c r="A60" s="1">
         <v>77</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C60" s="1" t="str">
         <f t="shared" si="2"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-procedure</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>78</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H60" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="I60" s="5" t="s">
         <v>245</v>
-      </c>
-      <c r="I60" s="5" t="s">
-        <v>246</v>
       </c>
       <c r="J60" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B60&amp;" resources for the specified patient and date and procedure code(s).  SHOULD support search by multiple codes."</f>
         <v>Fetches a bundle of all Procedure resources for the specified patient and date and procedure code(s).  SHOULD support search by multiple codes.</v>
       </c>
     </row>
-    <row r="61" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" s="1" customFormat="1">
       <c r="A61" s="1">
         <v>80</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>78</v>
@@ -4093,27 +4093,27 @@
         <v>116</v>
       </c>
       <c r="G61" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="I61" s="5" t="s">
         <v>457</v>
       </c>
-      <c r="H61" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="I61" s="5" t="s">
-        <v>458</v>
-      </c>
       <c r="J61" s="5" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" s="1" customFormat="1">
       <c r="A62" s="1">
         <v>81</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>155</v>
@@ -4125,28 +4125,28 @@
         <v>116</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="J62" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B62&amp;" resources for the specified patient and a category code = `laboratory`"</f>
         <v>Fetches a bundle of all Observation resources for the specified patient and a category code = `laboratory`</v>
       </c>
     </row>
-    <row r="63" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" s="1" customFormat="1">
       <c r="A63" s="1">
         <v>82</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>157</v>
@@ -4158,88 +4158,88 @@
         <v>116</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J63" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B63&amp;" resources for the specified patient and observation code(s).  SHOULD support search by multiple report codes. The Observation `code` parameter searches `Observation.code only."</f>
         <v>Fetches a bundle of all Observation resources for the specified patient and observation code(s).  SHOULD support search by multiple report codes. The Observation `code` parameter searches `Observation.code only.</v>
       </c>
     </row>
-    <row r="64" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" s="1" customFormat="1">
       <c r="A64" s="1">
         <v>83</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="J64" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B64&amp;" resources for the specified patient and date and a category code = `laboratory`"</f>
         <v>Fetches a bundle of all Observation resources for the specified patient and date and a category code = `laboratory`</v>
       </c>
     </row>
-    <row r="65" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:16" s="1" customFormat="1">
       <c r="A65" s="1">
         <v>84</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>78</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J65" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B65&amp;" resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes."</f>
         <v>Fetches a bundle of all Observation resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes.</v>
       </c>
     </row>
-    <row r="66" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:16" s="1" customFormat="1">
       <c r="A66" s="1">
         <v>85</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>126</v>
@@ -4251,25 +4251,25 @@
         <v>116</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J66" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B66&amp;" resources for the specified "&amp;SUBSTITUTE(D66,","," and ")</f>
         <v>Fetches a bundle of all !Observation resources for the specified patient and status</v>
       </c>
     </row>
-    <row r="67" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:16" s="1" customFormat="1">
       <c r="A67" s="1">
         <v>88</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>155</v>
@@ -4281,63 +4281,63 @@
         <v>116</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H67" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="I67" s="5" t="s">
         <v>261</v>
-      </c>
-      <c r="I67" s="5" t="s">
-        <v>262</v>
       </c>
       <c r="J67" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B67&amp;" resources for the specified "&amp;SUBSTITUTE(D67,","," and ")&amp;"=`assess-plan`"</f>
         <v>Fetches a bundle of all CarePlan resources for the specified patient and category=`assess-plan`</v>
       </c>
     </row>
-    <row r="68" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:16" s="1" customFormat="1">
       <c r="A68" s="1">
         <v>89</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>78</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J68" s="5" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" s="1" customFormat="1">
       <c r="A69" s="1">
         <v>90</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C69" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="D69" s="1" t="s">
         <v>255</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>256</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>78</v>
@@ -4346,56 +4346,56 @@
         <v>116</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J69" s="5" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" s="1" customFormat="1">
       <c r="A70" s="1">
         <v>91</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>78</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="J70" s="5" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" s="1" customFormat="1">
       <c r="A71" s="1">
         <v>94</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C71" s="1" t="str">
         <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B71)</f>
@@ -4411,27 +4411,27 @@
         <v>116</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H71" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="I71" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="I71" s="5" t="s">
+      <c r="J71" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="J71" s="5" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:16" s="1" customFormat="1" ht="15.75">
       <c r="A72" s="1">
         <v>97</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>157</v>
@@ -4443,31 +4443,31 @@
         <v>116</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I72" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J72" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B72&amp;" resources for the specified patient and observation code."</f>
         <v>Fetches a bundle of all Observation resources for the specified patient and observation code.</v>
       </c>
     </row>
-    <row r="73" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:16" s="1" customFormat="1">
       <c r="A73" s="1">
         <v>100</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>78</v>
@@ -4476,28 +4476,28 @@
         <v>116</v>
       </c>
       <c r="G73" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="H73" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="I73" s="5" t="s">
         <v>461</v>
-      </c>
-      <c r="H73" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="I73" s="5" t="s">
-        <v>462</v>
       </c>
       <c r="J73" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B73&amp;" resources for the specified "&amp;SUBSTITUTE(D73,","," and ")</f>
         <v>Fetches a bundle of all Observation resources for the specified patient and category and status</v>
       </c>
     </row>
-    <row r="74" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:16" s="1" customFormat="1">
       <c r="A74" s="1">
         <v>101</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>155</v>
@@ -4509,28 +4509,28 @@
         <v>116</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I74" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="J74" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B74&amp;" resources for the specified patient and a category code = `vital-signs`"</f>
         <v>Fetches a bundle of all Observation resources for the specified patient and a category code = `vital-signs`</v>
       </c>
     </row>
-    <row r="75" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:16" s="1" customFormat="1">
       <c r="A75" s="1">
         <v>102</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>157</v>
@@ -4542,76 +4542,76 @@
         <v>116</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H75" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="I75" s="5" t="s">
         <v>303</v>
-      </c>
-      <c r="I75" s="5" t="s">
-        <v>304</v>
       </c>
       <c r="J75" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B75&amp;" resources for the specified patient and observation code(s).  SHOULD support search by multiple codes. The Observation `code` parameter searches `Observation.code only."</f>
         <v>Fetches a bundle of all Observation resources for the specified patient and observation code(s).  SHOULD support search by multiple codes. The Observation `code` parameter searches `Observation.code only.</v>
       </c>
     </row>
-    <row r="76" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:16" s="1" customFormat="1">
       <c r="A76" s="1">
         <v>103</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="J76" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B76&amp;" resources for the specified patient and date and a category code = `vital-signs`"</f>
         <v>Fetches a bundle of all Observation resources for the specified patient and date and a category code = `vital-signs`</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:16">
       <c r="A77" s="1">
         <v>104</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>78</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I77" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J77" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B77&amp;" resources for the specified patient and date and report code(s).  SHOULD support search by multiple codes."</f>
@@ -4624,12 +4624,12 @@
       <c r="O77" s="1"/>
       <c r="P77" s="1"/>
     </row>
-    <row r="78" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:16" s="1" customFormat="1">
       <c r="A78" s="1">
         <v>107</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C78" s="1" t="str">
         <f t="shared" ref="C78:C83" si="3">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B78)</f>
@@ -4645,29 +4645,29 @@
         <v>116</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I78" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J78" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B78&amp;" resources for the specified "&amp;SUBSTITUTE(D78,","," and ") &amp;". See the implementation notes above for how to access the actual document."</f>
         <v>Fetches a bundle of all DocumentReference resources for the specified patient and status. See the implementation notes above for how to access the actual document.</v>
       </c>
     </row>
-    <row r="79" spans="1:16" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:16" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A79" s="1">
         <v>108</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C79" s="1" t="str">
         <f t="shared" si="3"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!documentreference</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>78</v>
@@ -4676,7 +4676,7 @@
         <v>159</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I79" s="5"/>
       <c r="J79" s="5" t="str">
@@ -4684,12 +4684,12 @@
         <v>Fetches a bundle of all !DocumentReference resources for the specified patient and period. See the implementation notes above for how to access the actual document.</v>
       </c>
     </row>
-    <row r="80" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:16" s="1" customFormat="1">
       <c r="A80" s="1">
         <v>109</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C80" s="1" t="str">
         <f t="shared" si="3"/>
@@ -4705,57 +4705,57 @@
         <v>116</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J80" s="5" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A81" s="1">
         <v>110</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C81" s="1" t="str">
         <f t="shared" si="3"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I81" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J81" s="5" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" s="1" customFormat="1">
       <c r="A82" s="1">
         <v>111</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C82" s="1" t="str">
         <f t="shared" si="3"/>
@@ -4771,55 +4771,55 @@
         <v>116</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I82" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="J82" s="5" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A83" s="1">
         <v>112</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C83" s="1" t="str">
         <f t="shared" si="3"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>78</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I83" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J83" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B83&amp;" resources for the specified "&amp;SUBSTITUTE(D83,","," and ") &amp;". See the implementation notes above for how to access the actual document."</f>
         <v>Fetches a bundle of all DocumentReference resources for the specified patient and type and period. See the implementation notes above for how to access the actual document.</v>
       </c>
     </row>
-    <row r="84" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" s="1" customFormat="1">
       <c r="A84" s="1">
         <v>115</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>128</v>
@@ -4831,13 +4831,13 @@
         <v>116</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I84" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="J84" s="5" t="s">
         <v>423</v>
-      </c>
-      <c r="J84" s="5" t="s">
-        <v>424</v>
       </c>
     </row>
   </sheetData>
@@ -4857,13 +4857,13 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="95.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="95.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4871,47 +4871,47 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="1" customFormat="1">
       <c r="A3" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="1" customFormat="1">
+      <c r="A4" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="139.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="139.5" customHeight="1">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -4919,20 +4919,20 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="351.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="351.75" customHeight="1">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="103.5" customHeight="1">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
   </sheetData>
@@ -4948,9 +4948,9 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -4971,15 +4971,15 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="94" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="60.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -4993,72 +4993,72 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B2" t="s">
         <v>364</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>266</v>
+      </c>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>528</v>
+      </c>
+      <c r="B3" t="s">
         <v>365</v>
       </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>267</v>
-      </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>529</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>196</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>197</v>
-      </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>368</v>
-      </c>
       <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>13</v>
@@ -5068,12 +5068,12 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>369</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>370</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>13</v>
@@ -5083,57 +5083,57 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>376</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>377</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>13</v>
@@ -5143,12 +5143,12 @@
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>13</v>
@@ -5158,206 +5158,206 @@
       </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="11" t="s">
+      <c r="B15" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="1" t="s">
+      <c r="C23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="B22" s="1" t="s">
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" s="1" customFormat="1">
+      <c r="A24" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="11" t="s">
-        <v>452</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="11" t="s">
-        <v>489</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>394</v>
-      </c>
       <c r="C25" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>13</v>
@@ -5367,32 +5367,32 @@
       </c>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>486</v>
-      </c>
       <c r="C27" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>528</v>
-      </c>
       <c r="C28" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -5413,22 +5413,22 @@
       <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="25.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="36.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="49.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="36.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="49.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" customWidth="1"/>
-    <col min="6" max="12" width="17.5" style="1" customWidth="1"/>
-    <col min="13" max="13" width="20.5" style="1" customWidth="1"/>
-    <col min="14" max="17" width="17.5" style="1" customWidth="1"/>
-    <col min="18" max="19" width="20.5" style="1" customWidth="1"/>
-    <col min="20" max="23" width="38.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="27.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="12" width="17.42578125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="20.42578125" style="1" customWidth="1"/>
+    <col min="14" max="17" width="17.42578125" style="1" customWidth="1"/>
+    <col min="18" max="19" width="20.42578125" style="1" customWidth="1"/>
+    <col min="20" max="23" width="38.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="27.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="25.5" customHeight="1" thickBot="1">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -5442,67 +5442,67 @@
         <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F1" t="s">
         <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H1" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>438</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>439</v>
       </c>
       <c r="R1" t="s">
         <v>19</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="T1" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="U1" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="U1" s="4" t="s">
-        <v>344</v>
-      </c>
       <c r="V1" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="W1" s="4" t="s">
         <v>427</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>428</v>
       </c>
       <c r="X1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="25.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="25.5" customHeight="1" thickTop="1">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
@@ -5519,16 +5519,16 @@
         <v>78</v>
       </c>
       <c r="V2" s="17" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="W2" s="17"/>
       <c r="X2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="25.5" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>13</v>
@@ -5540,13 +5540,13 @@
         <v>78</v>
       </c>
       <c r="V3" s="17" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="W3" s="17"/>
     </row>
-    <row r="4" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="25.5" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>13</v>
@@ -5558,11 +5558,11 @@
         <v>78</v>
       </c>
       <c r="V4" s="17" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="W4" s="17"/>
     </row>
-    <row r="5" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" ht="25.5" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>148</v>
       </c>
@@ -5576,16 +5576,16 @@
         <v>78</v>
       </c>
       <c r="V5" s="17" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="W5" s="17"/>
       <c r="X5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="25.5" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>13</v>
@@ -5597,13 +5597,13 @@
         <v>78</v>
       </c>
       <c r="V6" s="17" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="W6" s="17"/>
     </row>
-    <row r="7" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" ht="25.5" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>13</v>
@@ -5615,19 +5615,19 @@
         <v>78</v>
       </c>
       <c r="V7" s="17" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="W7" s="17"/>
     </row>
-    <row r="8" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="25.5" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="R8" s="1" t="s">
         <v>21</v>
@@ -5636,11 +5636,11 @@
         <v>78</v>
       </c>
       <c r="V8" s="17" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="W8" s="17"/>
     </row>
-    <row r="9" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="25.5" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -5654,13 +5654,13 @@
         <v>78</v>
       </c>
       <c r="V9" s="17" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="W9" s="17"/>
     </row>
-    <row r="10" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="25.5" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>13</v>
@@ -5672,11 +5672,11 @@
         <v>78</v>
       </c>
       <c r="V10" s="17" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="W10" s="17"/>
     </row>
-    <row r="11" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="25.5" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>172</v>
       </c>
@@ -5690,13 +5690,13 @@
         <v>78</v>
       </c>
       <c r="V11" s="17" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="W11" s="17"/>
     </row>
-    <row r="12" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="25.5" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>13</v>
@@ -5710,15 +5710,15 @@
       <c r="V12" s="17"/>
       <c r="W12" s="17"/>
     </row>
-    <row r="13" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="25.5" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="R13" s="1" t="s">
         <v>21</v>
@@ -5729,15 +5729,15 @@
       <c r="V13" s="17"/>
       <c r="W13" s="17"/>
     </row>
-    <row r="14" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="25.5" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="R14" s="1" t="s">
         <v>21</v>
@@ -5746,22 +5746,22 @@
         <v>78</v>
       </c>
       <c r="U14" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="V14" s="17" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="W14" s="17"/>
     </row>
-    <row r="15" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="25.5" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="R15" s="1" t="s">
         <v>21</v>
@@ -5770,16 +5770,16 @@
         <v>78</v>
       </c>
       <c r="U15" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="V15" s="17" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="W15" s="17"/>
     </row>
-    <row r="16" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" ht="25.5" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>13</v>
@@ -5791,13 +5791,13 @@
         <v>78</v>
       </c>
       <c r="V16" s="17" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="W16" s="17"/>
     </row>
-    <row r="17" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" ht="25.5" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>13</v>
@@ -5811,7 +5811,7 @@
       <c r="V17" s="17"/>
       <c r="W17" s="17"/>
     </row>
-    <row r="18" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" ht="25.5" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
@@ -5825,13 +5825,13 @@
         <v>78</v>
       </c>
       <c r="V18" s="17" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="W18" s="17"/>
     </row>
-    <row r="19" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" ht="25.5" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>13</v>
@@ -5845,9 +5845,9 @@
       <c r="V19" s="17"/>
       <c r="W19" s="17"/>
     </row>
-    <row r="20" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" ht="25.5" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>13</v>
@@ -5859,14 +5859,14 @@
         <v>78</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="V20" s="17"/>
       <c r="W20" s="17"/>
     </row>
-    <row r="21" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" ht="25.5" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>13</v>
@@ -5878,19 +5878,19 @@
         <v>78</v>
       </c>
       <c r="V21" s="17" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="W21" s="17"/>
     </row>
-    <row r="22" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" ht="25.5" customHeight="1">
       <c r="A22" t="s">
+        <v>482</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>483</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>484</v>
       </c>
       <c r="R22" s="1" t="s">
         <v>21</v>
@@ -5899,26 +5899,26 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" ht="25.5" customHeight="1">
       <c r="A23" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" ht="25.5" customHeight="1">
       <c r="A24"/>
     </row>
-    <row r="25" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" ht="25.5" customHeight="1">
       <c r="A25"/>
     </row>
-    <row r="56" spans="20:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="20:23" ht="25.5" customHeight="1">
       <c r="T56" s="7"/>
       <c r="V56" s="7"/>
       <c r="W56" s="7"/>
     </row>
-    <row r="59" spans="20:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="20:23" ht="25.5" customHeight="1">
       <c r="W59" s="7"/>
     </row>
   </sheetData>
@@ -5939,15 +5939,15 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1"/>
     <col min="5" max="5" width="89" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -5964,41 +5964,41 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="135.75" thickBot="1">
       <c r="A2" s="15" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="60">
       <c r="A3" t="s">
+        <v>491</v>
+      </c>
+      <c r="B3" t="s">
         <v>492</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>493</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="D3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:5">
       <c r="E4" s="2"/>
     </row>
   </sheetData>
@@ -6017,98 +6017,98 @@
       <selection pane="bottomRight" activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5" customWidth="1"/>
-    <col min="7" max="7" width="58.33203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="28.1640625" customWidth="1"/>
-    <col min="14" max="14" width="17.33203125" customWidth="1"/>
-    <col min="17" max="17" width="31.33203125" customWidth="1"/>
-    <col min="18" max="18" width="31.33203125" style="1" customWidth="1"/>
-    <col min="24" max="24" width="20.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="58.28515625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="28.140625" customWidth="1"/>
+    <col min="14" max="14" width="17.28515625" customWidth="1"/>
+    <col min="17" max="17" width="31.28515625" customWidth="1"/>
+    <col min="18" max="18" width="31.28515625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="20.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25">
       <c r="A1" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" t="s">
         <v>417</v>
       </c>
-      <c r="W1" t="s">
-        <v>418</v>
-      </c>
       <c r="X1" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" ht="64" x14ac:dyDescent="0.2">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="75">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -6128,7 +6128,7 @@
         <v>34</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H2" t="s">
         <v>13</v>
@@ -6179,7 +6179,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -6248,7 +6248,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -6316,7 +6316,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -6384,7 +6384,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -6452,7 +6452,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -6520,7 +6520,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -6588,7 +6588,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -6656,7 +6656,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -6737,12 +6737,12 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="51.1640625" customWidth="1"/>
+    <col min="3" max="3" width="51.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
@@ -6750,39 +6750,39 @@
         <v>29</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="59.25" customHeight="1">
+      <c r="A2" s="1" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
         <v>479</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>480</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>34</v>
@@ -6799,41 +6799,41 @@
   <dimension ref="A1:AB94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="Z72" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="Y2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F85" sqref="F85"/>
+      <selection pane="bottomRight" activeCell="Y2" sqref="Y2:Y7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="1"/>
-    <col min="2" max="2" width="21.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="21.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" customWidth="1"/>
-    <col min="6" max="6" width="73.83203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" customWidth="1"/>
-    <col min="10" max="10" width="36.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.6640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="22.5" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.33203125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="16.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="73.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" customWidth="1"/>
+    <col min="10" max="10" width="36.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="22.42578125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="16.28515625" style="1" customWidth="1"/>
     <col min="16" max="16" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="49.6640625" style="1" customWidth="1"/>
-    <col min="21" max="22" width="38.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="49.7109375" style="1" customWidth="1"/>
+    <col min="21" max="22" width="38.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="16" style="1" customWidth="1"/>
-    <col min="24" max="24" width="50.83203125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="68.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="90.6640625" style="1" customWidth="1"/>
-    <col min="27" max="27" width="83.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="38.1640625" customWidth="1"/>
+    <col min="24" max="24" width="50.85546875" style="1" customWidth="1"/>
+    <col min="25" max="25" width="68.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="90.7109375" style="1" customWidth="1"/>
+    <col min="27" max="27" width="83.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="38.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" ht="18.95" customHeight="1" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>151</v>
       </c>
@@ -6895,10 +6895,10 @@
         <v>56</v>
       </c>
       <c r="U1" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="V1" s="4" t="s">
         <v>343</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>344</v>
       </c>
       <c r="W1" s="4" t="s">
         <v>57</v>
@@ -6919,12 +6919,12 @@
         <v>177</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1" thickTop="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>150</v>
@@ -6969,12 +6969,12 @@
         <v>SearchParameter-us-core-!example category search-category.html</v>
       </c>
     </row>
-    <row r="3" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>30</v>
@@ -7016,12 +7016,12 @@
         <v>SearchParameter-us-core-!example code search-code.html</v>
       </c>
     </row>
-    <row r="4" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>88</v>
@@ -7070,7 +7070,7 @@
         <v>SearchParameter-us-core-!example date search-date.html</v>
       </c>
     </row>
-    <row r="5" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -7129,12 +7129,12 @@
         <v>SearchParameter-us-core-!example patient search-patient.html</v>
       </c>
     </row>
-    <row r="6" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>68</v>
@@ -7179,7 +7179,7 @@
         <v>SearchParameter-us-core-!example status search-status.html</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" ht="18.95" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -7219,7 +7219,7 @@
         <v>62</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="Z7" s="5" t="s">
         <v>96</v>
@@ -7230,7 +7230,7 @@
         <v>SearchParameter-us-core-!patient-address.html</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" ht="18.95" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -7270,7 +7270,7 @@
         <v>62</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Z8" s="1" t="s">
         <v>98</v>
@@ -7281,7 +7281,7 @@
         <v>SearchParameter-us-core-!patient-telecom.html</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" ht="18.95" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -7328,7 +7328,7 @@
         <v>SearchParameter-us-core-allergyintolerance-clinical-status.html</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" ht="18.95" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -7388,7 +7388,7 @@
         <v>SearchParameter-us-core-allergyintolerance-patient.html</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" ht="18.95" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -7439,7 +7439,7 @@
         <v>SearchParameter-us-core-condition-category.html</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" ht="18.95" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -7487,7 +7487,7 @@
         <v>SearchParameter-us-core-condition-clinical-status.html</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" ht="18.95" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -7545,7 +7545,7 @@
         <v>SearchParameter-us-core-condition-patient.html</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" ht="18.95" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -7585,10 +7585,10 @@
         <v>62</v>
       </c>
       <c r="Y14" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="Z14" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AA14" s="2" t="s">
         <v>183</v>
@@ -7598,7 +7598,7 @@
         <v>SearchParameter-us-core-encounter-id.html</v>
       </c>
     </row>
-    <row r="15" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -7648,7 +7648,7 @@
         <v>SearchParameter-us-core-encounter-class.html</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" ht="18.95" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -7702,7 +7702,7 @@
         <v>SearchParameter-us-core-encounter-date.html</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:28" ht="18.95" customHeight="1">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -7742,7 +7742,7 @@
         <v>62</v>
       </c>
       <c r="Y17" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="Z17" t="s">
         <v>171</v>
@@ -7756,7 +7756,7 @@
         <v>SearchParameter-us-core-encounter-identifier.html</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:28" ht="18.95" customHeight="1">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -7814,7 +7814,7 @@
         <v>SearchParameter-us-core-encounter-patient.html</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:28" ht="18.95" customHeight="1">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -7864,7 +7864,7 @@
         <v>SearchParameter-us-core-encounter-status.html</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:28" ht="18.95" customHeight="1">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -7912,7 +7912,7 @@
         <v>SearchParameter-us-core-encounter-type.html</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:28" ht="18.95" customHeight="1">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -7955,14 +7955,14 @@
         <v>84</v>
       </c>
       <c r="Z21" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AB21" s="1" t="str">
         <f>"SearchParameter-us-core-"&amp;LOWER((B21)&amp;"-"&amp;SUBSTITUTE(C21,"_","")&amp;".html")</f>
         <v>SearchParameter-us-core-patient-id.html</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:28" ht="18.95" customHeight="1">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -8010,7 +8010,7 @@
         <v>SearchParameter-us-core-patient-birthdate.html</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:28" ht="18.95" customHeight="1">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -8054,7 +8054,7 @@
         <v>SearchParameter-us-core-patient-family.html</v>
       </c>
     </row>
-    <row r="24" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:28" ht="18.95" customHeight="1">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -8103,7 +8103,7 @@
         <v>SearchParameter-us-core-patient-gender.html</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:28" ht="18.95" customHeight="1">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -8147,7 +8147,7 @@
         <v>SearchParameter-us-core-patient-given.html</v>
       </c>
     </row>
-    <row r="26" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:28" ht="18.95" customHeight="1">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -8188,7 +8188,7 @@
       </c>
       <c r="X26"/>
       <c r="Y26" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Z26" s="1" t="s">
         <v>170</v>
@@ -8202,7 +8202,7 @@
         <v>SearchParameter-us-core-patient-identifier.html</v>
       </c>
     </row>
-    <row r="27" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:28" ht="18.95" customHeight="1">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -8246,10 +8246,10 @@
         <v>86</v>
       </c>
       <c r="Y27" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="Z27" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="Z27" s="1" t="s">
-        <v>186</v>
       </c>
       <c r="AA27" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B27&amp;" resources matching the name"</f>
@@ -8260,7 +8260,7 @@
         <v>SearchParameter-us-core-patient-name.html</v>
       </c>
     </row>
-    <row r="28" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:28" ht="18.95" customHeight="1">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -8303,7 +8303,7 @@
         <v>SearchParameter-us-core-!questionnaire-_id.html</v>
       </c>
     </row>
-    <row r="29" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:28" ht="18.95" customHeight="1">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -8348,7 +8348,7 @@
         <v>SearchParameter-us-core-!questionnaire-context-type-value.html</v>
       </c>
     </row>
-    <row r="30" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:28" ht="18.95" customHeight="1">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -8398,7 +8398,7 @@
         <v>SearchParameter-us-core-!questionnaire-publisher.html</v>
       </c>
     </row>
-    <row r="31" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:28" ht="18.95" customHeight="1">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -8445,7 +8445,7 @@
         <v>SearchParameter-us-core-!questionnaire-status.html</v>
       </c>
     </row>
-    <row r="32" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -8505,7 +8505,7 @@
         <v>SearchParameter-us-core-!questionnaire-title.html</v>
       </c>
     </row>
-    <row r="33" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -8550,7 +8550,7 @@
         <v>SearchParameter-us-core-!questionnaire-url.html</v>
       </c>
     </row>
-    <row r="34" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -8595,7 +8595,7 @@
         <v>SearchParameter-us-core-!questionnaire-version.html</v>
       </c>
     </row>
-    <row r="35" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -8646,7 +8646,7 @@
         <v>SearchParameter-us-core-condition-onset-date.html</v>
       </c>
     </row>
-    <row r="36" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -8693,7 +8693,7 @@
         <v>SearchParameter-us-core-condition-code.html</v>
       </c>
     </row>
-    <row r="37" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -8752,7 +8752,7 @@
         <v>SearchParameter-us-core-immunization-patient.html</v>
       </c>
     </row>
-    <row r="38" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -8802,7 +8802,7 @@
         <v>SearchParameter-us-core-immunization-status.html</v>
       </c>
     </row>
-    <row r="39" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -8856,12 +8856,12 @@
         <v>SearchParameter-us-core-immunization-date.html</v>
       </c>
     </row>
-    <row r="40" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>61</v>
@@ -8896,25 +8896,25 @@
         <v>62</v>
       </c>
       <c r="Y40" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="Z40" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="AA40" s="2" t="s">
         <v>309</v>
-      </c>
-      <c r="Z40" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="AA40" s="2" t="s">
-        <v>310</v>
       </c>
       <c r="AB40" s="1" t="str">
         <f t="shared" ref="AB40" si="10">"SearchParameter-us-core-"&amp;LOWER((B40)&amp;"-"&amp;C40&amp;".html")</f>
         <v>SearchParameter-us-core-documentreference-_id.html</v>
       </c>
     </row>
-    <row r="41" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>68</v>
@@ -8962,12 +8962,12 @@
         <v>SearchParameter-us-core-documentreference-status.html</v>
       </c>
     </row>
-    <row r="42" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>99</v>
@@ -9021,12 +9021,12 @@
         <v>SearchParameter-us-core-documentreference-patient.html</v>
       </c>
     </row>
-    <row r="43" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>150</v>
@@ -9071,12 +9071,12 @@
         <v>SearchParameter-us-core-documentreference-category.html</v>
       </c>
     </row>
-    <row r="44" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>14</v>
@@ -9118,12 +9118,12 @@
         <v>SearchParameter-us-core-documentreference-type.html</v>
       </c>
     </row>
-    <row r="45" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>88</v>
@@ -9172,15 +9172,15 @@
         <v>SearchParameter-us-core-documentreference-date.html</v>
       </c>
     </row>
-    <row r="46" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>34</v>
@@ -9202,7 +9202,7 @@
         <v>88</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K46" s="1" t="s">
         <v>62</v>
@@ -9225,12 +9225,12 @@
         <v>SearchParameter-us-core-documentreference-period.html</v>
       </c>
     </row>
-    <row r="47" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>68</v>
@@ -9278,12 +9278,12 @@
         <v>SearchParameter-us-core-diagnosticreport-status.html</v>
       </c>
     </row>
-    <row r="48" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>99</v>
@@ -9337,12 +9337,12 @@
         <v>SearchParameter-us-core-diagnosticreport-patient.html</v>
       </c>
     </row>
-    <row r="49" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>150</v>
@@ -9387,12 +9387,12 @@
         <v>SearchParameter-us-core-diagnosticreport-category.html</v>
       </c>
     </row>
-    <row r="50" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>30</v>
@@ -9437,12 +9437,12 @@
         <v>SearchParameter-us-core-diagnosticreport-code.html</v>
       </c>
     </row>
-    <row r="51" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>88</v>
@@ -9491,15 +9491,15 @@
         <v>SearchParameter-us-core-diagnosticreport-date.html</v>
       </c>
     </row>
-    <row r="52" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>34</v>
@@ -9541,12 +9541,12 @@
         <v>SearchParameter-us-core-goal-lifecycle-status.html</v>
       </c>
     </row>
-    <row r="53" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>99</v>
@@ -9600,15 +9600,15 @@
         <v>SearchParameter-us-core-goal-patient.html</v>
       </c>
     </row>
-    <row r="54" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>34</v>
@@ -9654,12 +9654,12 @@
         <v>SearchParameter-us-core-goal-target-date.html</v>
       </c>
     </row>
-    <row r="55" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>68</v>
@@ -9707,15 +9707,15 @@
         <v>SearchParameter-us-core-medicationrequest-status.html</v>
       </c>
     </row>
-    <row r="56" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A56" s="1">
         <v>53</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>34</v>
@@ -9760,12 +9760,12 @@
         <v>SearchParameter-us-core-medicationrequest-intent.html</v>
       </c>
     </row>
-    <row r="57" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A57" s="1">
         <v>54</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>99</v>
@@ -9811,15 +9811,15 @@
         <v>SearchParameter-us-core-medicationrequest-patient.html</v>
       </c>
     </row>
-    <row r="58" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A58" s="1">
         <v>54</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>34</v>
@@ -9862,15 +9862,15 @@
         <v>SearchParameter-us-core-medicationrequest-encounter.html</v>
       </c>
     </row>
-    <row r="59" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A59" s="1">
         <v>55</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>34</v>
@@ -9916,12 +9916,12 @@
         <v>SearchParameter-us-core-medicationrequest-authoredon.html</v>
       </c>
     </row>
-    <row r="60" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A60" s="1">
         <v>56</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>68</v>
@@ -9969,12 +9969,12 @@
         <v>SearchParameter-us-core-!medicationstatement-status.html</v>
       </c>
     </row>
-    <row r="61" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A61" s="1">
         <v>57</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>99</v>
@@ -10013,10 +10013,10 @@
         <v>101</v>
       </c>
       <c r="Y61" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Z61" s="12" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AA61" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B61&amp; " resources for the specified patient. Mandatory for client to support the _include parameter. Optional for server to support the _include parameter."</f>
@@ -10027,15 +10027,15 @@
         <v>SearchParameter-us-core-!medicationstatement-patient.html</v>
       </c>
     </row>
-    <row r="62" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A62" s="1">
         <v>58</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>34</v>
@@ -10081,12 +10081,12 @@
         <v>SearchParameter-us-core-!medicationstatement-effective.html</v>
       </c>
     </row>
-    <row r="63" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A63" s="1">
         <v>59</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>68</v>
@@ -10134,12 +10134,12 @@
         <v>SearchParameter-us-core-procedure-status.html</v>
       </c>
     </row>
-    <row r="64" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A64" s="1">
         <v>60</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>99</v>
@@ -10181,7 +10181,7 @@
         <v>support searching for all procedures for a patient</v>
       </c>
       <c r="Z64" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AA64" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B64&amp; " resources for the specified patient"</f>
@@ -10192,12 +10192,12 @@
         <v>SearchParameter-us-core-procedure-patient.html</v>
       </c>
     </row>
-    <row r="65" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A65" s="1">
         <v>61</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>88</v>
@@ -10246,12 +10246,12 @@
         <v>SearchParameter-us-core-procedure-date.html</v>
       </c>
     </row>
-    <row r="66" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A66" s="1">
         <v>62</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>30</v>
@@ -10296,12 +10296,12 @@
         <v>SearchParameter-us-core-procedure-code.html</v>
       </c>
     </row>
-    <row r="67" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A67" s="1">
         <v>63</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>68</v>
@@ -10349,12 +10349,12 @@
         <v>SearchParameter-us-core-observation-status.html</v>
       </c>
     </row>
-    <row r="68" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A68" s="1">
         <v>64</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>150</v>
@@ -10399,12 +10399,12 @@
         <v>SearchParameter-us-core-observation-category.html</v>
       </c>
     </row>
-    <row r="69" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A69" s="1">
         <v>65</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>30</v>
@@ -10449,12 +10449,12 @@
         <v>SearchParameter-us-core-observation-code.html</v>
       </c>
     </row>
-    <row r="70" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A70" s="1">
         <v>66</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>88</v>
@@ -10503,12 +10503,12 @@
         <v>SearchParameter-us-core-observation-date.html</v>
       </c>
     </row>
-    <row r="71" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A71" s="1">
         <v>67</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>99</v>
@@ -10562,12 +10562,12 @@
         <v>SearchParameter-us-core-observation-patient.html</v>
       </c>
     </row>
-    <row r="72" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A72" s="1">
         <v>68</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>150</v>
@@ -10612,12 +10612,12 @@
         <v>SearchParameter-us-core-careplan-category.html</v>
       </c>
     </row>
-    <row r="73" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A73" s="1">
         <v>69</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>30</v>
@@ -10659,12 +10659,12 @@
         <v>SearchParameter-us-core-!careplan-code.html</v>
       </c>
     </row>
-    <row r="74" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A74" s="1">
         <v>70</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>88</v>
@@ -10713,12 +10713,12 @@
         <v>SearchParameter-us-core-careplan-date.html</v>
       </c>
     </row>
-    <row r="75" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A75" s="1">
         <v>71</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>99</v>
@@ -10772,12 +10772,12 @@
         <v>SearchParameter-us-core-careplan-patient.html</v>
       </c>
     </row>
-    <row r="76" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A76" s="1">
         <v>72</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>68</v>
@@ -10825,12 +10825,12 @@
         <v>SearchParameter-us-core-careplan-status.html</v>
       </c>
     </row>
-    <row r="77" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A77" s="1">
         <v>73</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>99</v>
@@ -10884,12 +10884,12 @@
         <v>SearchParameter-us-core-careteam-patient.html</v>
       </c>
     </row>
-    <row r="78" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A78" s="1">
         <v>74</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>68</v>
@@ -10937,12 +10937,12 @@
         <v>SearchParameter-us-core-careteam-status.html</v>
       </c>
     </row>
-    <row r="79" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A79" s="1">
         <v>75</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>99</v>
@@ -10996,12 +10996,12 @@
         <v>SearchParameter-us-core-device-patient.html</v>
       </c>
     </row>
-    <row r="80" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A80" s="1">
         <v>76</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>14</v>
@@ -11042,12 +11042,12 @@
         <v>SearchParameter-us-core-device-type.html</v>
       </c>
     </row>
-    <row r="81" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:28" ht="18.95" customHeight="1">
       <c r="A81" s="1">
         <v>77</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>27</v>
@@ -11082,7 +11082,7 @@
         <v>62</v>
       </c>
       <c r="Y81" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Z81" s="5" t="str">
         <f>"GET [base]/"&amp;B81&amp;"?name=Health"</f>
@@ -11097,12 +11097,12 @@
         <v>SearchParameter-us-core-location-name.html</v>
       </c>
     </row>
-    <row r="82" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:28" ht="18.95" customHeight="1">
       <c r="A82" s="1">
         <v>78</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>95</v>
@@ -11137,7 +11137,7 @@
         <v>62</v>
       </c>
       <c r="Y82" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="Z82" s="5" t="str">
         <f>"GET [base]/"&amp;B82&amp;"?address=Arbor"</f>
@@ -11152,15 +11152,15 @@
         <v>SearchParameter-us-core-location-address.html</v>
       </c>
     </row>
-    <row r="83" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:28" ht="18.95" customHeight="1">
       <c r="A83" s="1">
         <v>79</v>
       </c>
       <c r="B83" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>272</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>273</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>78</v>
@@ -11192,7 +11192,7 @@
         <v>62</v>
       </c>
       <c r="Y83" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Z83" s="5" t="str">
         <f>"GET [base]/"&amp;B83&amp;"?address-city=Ann Arbor"</f>
@@ -11207,15 +11207,15 @@
         <v>SearchParameter-us-core-location-address-city.html</v>
       </c>
     </row>
-    <row r="84" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:28" ht="18.95" customHeight="1">
       <c r="A84" s="1">
         <v>80</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>78</v>
@@ -11247,10 +11247,10 @@
         <v>62</v>
       </c>
       <c r="Y84" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Z84" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AA84" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B84&amp; " resources for the state"</f>
@@ -11261,15 +11261,15 @@
         <v>SearchParameter-us-core-location-address-state.html</v>
       </c>
     </row>
-    <row r="85" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:28" ht="18.95" customHeight="1">
       <c r="A85" s="1">
         <v>81</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>78</v>
@@ -11301,7 +11301,7 @@
         <v>62</v>
       </c>
       <c r="Y85" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Z85" s="5" t="str">
         <f>"GET [base]/"&amp;B85&amp;"?address-postalcode=48104"</f>
@@ -11316,12 +11316,12 @@
         <v>SearchParameter-us-core-location-address-postalcode.html</v>
       </c>
     </row>
-    <row r="86" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A86" s="1">
         <v>82</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>27</v>
@@ -11356,7 +11356,7 @@
         <v>62</v>
       </c>
       <c r="Y86" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Z86" s="5" t="str">
         <f>"GET [base]/"&amp;B86&amp;"?name=Health"</f>
@@ -11371,12 +11371,12 @@
         <v>SearchParameter-us-core-organization-name.html</v>
       </c>
     </row>
-    <row r="87" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A87" s="1">
         <v>83</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>95</v>
@@ -11411,7 +11411,7 @@
         <v>62</v>
       </c>
       <c r="Y87" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z87" s="5" t="str">
         <f>"GET [base]/"&amp;B87&amp;"?address=Arbor"</f>
@@ -11426,15 +11426,15 @@
         <v>SearchParameter-us-core-organization-address.html</v>
       </c>
     </row>
-    <row r="88" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A88" s="1">
         <v>84</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>78</v>
@@ -11466,7 +11466,7 @@
         <v>62</v>
       </c>
       <c r="Y88" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Z88" s="5" t="str">
         <f>"GET [base]/"&amp;B88&amp;"?address-city=Ann Arbor"</f>
@@ -11481,15 +11481,15 @@
         <v>SearchParameter-us-core-!organization-address-city.html</v>
       </c>
     </row>
-    <row r="89" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A89" s="1">
         <v>85</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>78</v>
@@ -11521,7 +11521,7 @@
         <v>62</v>
       </c>
       <c r="Y89" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Z89" s="5" t="str">
         <f>"GET [base]/"&amp;B89&amp;"?address-state=MI"</f>
@@ -11536,15 +11536,15 @@
         <v>SearchParameter-us-core-!organization-adress-state.html</v>
       </c>
     </row>
-    <row r="90" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A90" s="1">
         <v>86</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>78</v>
@@ -11576,7 +11576,7 @@
         <v>62</v>
       </c>
       <c r="Y90" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Z90" s="5" t="str">
         <f>"GET [base]/"&amp;B90&amp;"?address-postalcode=48104"</f>
@@ -11591,12 +11591,12 @@
         <v>SearchParameter-us-core-!organization-address-postalcode.html</v>
       </c>
     </row>
-    <row r="91" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A91" s="1">
         <v>87</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>27</v>
@@ -11634,7 +11634,7 @@
         <v>86</v>
       </c>
       <c r="Y91" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="Z91" s="5" t="str">
         <f>"GET [base]/"&amp;B91&amp;"?name=Smith"</f>
@@ -11649,12 +11649,12 @@
         <v>SearchParameter-us-core-practitioner-name.html</v>
       </c>
     </row>
-    <row r="92" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A92" s="1">
         <v>88</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>85</v>
@@ -11689,7 +11689,7 @@
         <v>62</v>
       </c>
       <c r="Y92" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="Z92" s="5" t="str">
         <f>"GET [base]/"&amp;B92&amp;"?dentifier=http://hl7.org/fhir/sid/us-npi\|97860456"</f>
@@ -11704,15 +11704,15 @@
         <v>SearchParameter-us-core-practitioner-identifier.html</v>
       </c>
     </row>
-    <row r="93" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A93" s="1">
         <v>89</v>
       </c>
       <c r="B93" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>291</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>292</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>13</v>
@@ -11744,10 +11744,10 @@
         <v>62</v>
       </c>
       <c r="V93" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Y93" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="Z93" s="5" t="str">
         <f>"GET [base]/"&amp;B93&amp;"?specialty=http://nucc.org/provider-taxonomy\|208D0000X"</f>
@@ -11762,15 +11762,15 @@
         <v>SearchParameter-us-core-practitionerrole-specialty.html</v>
       </c>
     </row>
-    <row r="94" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:28" ht="18.95" customHeight="1">
       <c r="A94" s="1">
         <v>90</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>13</v>
@@ -11802,13 +11802,13 @@
         <v>62</v>
       </c>
       <c r="S94" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="V94" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="V94" s="1" t="s">
+      <c r="Y94" s="5" t="s">
         <v>295</v>
-      </c>
-      <c r="Y94" s="5" t="s">
-        <v>296</v>
       </c>
       <c r="Z94" s="5" t="str">
         <f>_xlfn.CONCAT("GET [base]/",B94,"?practitioner.identifier=http://hl7.org/fhir/sid/us-npi\|97860456&amp;_include=PractitionerRole:practitioner","&amp;_include=PractitionerRole?endpoint~GET [base]/PractitionerRole?practitioner.name=Henry&amp;_include=PractitionerRole:practitioner&amp;_include=PractitionerRole?endpoint")</f>

--- a/input/resources_spreadsheets/uscore-server.xlsx
+++ b/input/resources_spreadsheets/uscore-server.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\US-Core-R4\input\resources_spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F1361E5-425E-4203-81E0-9CC892749F9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2066C11-ED68-48A8-86AC-CDE3197CE3C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23130" yWindow="3045" windowWidth="38355" windowHeight="15795" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38355" windowHeight="15795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -82,7 +82,7 @@
     <author>User</author>
   </authors>
   <commentList>
-    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{CAFAF164-B5B4-4280-B703-1E7EE7F64AEA}">
+    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{CAFAF164-B5B4-4280-B703-1E7EE7F64AEA}">
       <text>
         <r>
           <rPr>
@@ -145,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1978" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1980" uniqueCount="532">
   <si>
     <t>Element</t>
   </si>
@@ -1641,6 +1641,105 @@
   </si>
   <si>
     <t>conf_ValueSet</t>
+  </si>
+  <si>
+    <t>Provenance:target</t>
+  </si>
+  <si>
+    <t>doc_Observation</t>
+  </si>
+  <si>
+    <t>GET [base]/Condition?patient=1032702&amp;category=http://terminology.hl7.org/CodeSystem/condition-category\|problem-list-item~GET [base]/Condition?patient=1032702&amp;category=http://hl7.org/fhir/us/core/CodeSystem/condition-category\|health-concern~GET [base]/Condition?patient=1032702&amp;category=http://terminology.hl7.org/CodeSystem/condition-category\|encounter-diagnosis</t>
+  </si>
+  <si>
+    <t>fhirVersion</t>
+  </si>
+  <si>
+    <t>intent=order,plan</t>
+  </si>
+  <si>
+    <t>GET [base]/MedicationRequest?patient=14676&amp;intent=order,plan~GET [base]/MedicationRequest?patient=14676&amp;intent=order,plan&amp;_include=MedicationRequest:medication</t>
+  </si>
+  <si>
+    <t>GET [base]/MedicationRequest?patient=1137192&amp;intent=order,plan&amp;status=active~GET [base]/MedicationRequest?patient=1137192&amp;intent=order,plan&amp;status=active&amp;_include=MedicationRequest:medication</t>
+  </si>
+  <si>
+    <t>GET [base]/MedicationRequest?patient=1137192&amp;intent=order,plan&amp;status=active&amp;encounter=Encounter/123~GET [base]/MedicationRequest?patient=1137192&amp;intent=order,plan&amp;status=active&amp;&amp;encounter=Encounter/123&amp;_include=MedicationRequest:medication</t>
+  </si>
+  <si>
+    <t>GET [base]/MedicationRequest?patient=1137192&amp;intent=order,plan&amp;authoredon=ge2019~GET [base]/MedicationRequest?patient=1137192&amp;intent=order,plan&amp;authoredon=ge2019&amp;_include=MedicationRequest:medication</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all MedicationRequest resources for the specified patient and intent code = `order,plan`</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all MedicationRequest resources for the specified patient and intent  code = `order,plan` and status</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all MedicationRequest resources for the specified patient and intent  code = `order,plan` and encounter</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all MedicationRequest resources for the specified patient and intent  code = `order,plan` and authoredon date</t>
+  </si>
+  <si>
+    <t>3.1.1</t>
+  </si>
+  <si>
+    <t>4.0.1</t>
+  </si>
+  <si>
+    <t>pre</t>
+  </si>
+  <si>
+    <t>US-Core</t>
+  </si>
+  <si>
+    <t>canon</t>
+  </si>
+  <si>
+    <t>//ERICS-AIR-2/ehaas/Documents/FHIR/US-Core-R4/output</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/</t>
+  </si>
+  <si>
+    <t>HL7 International - US Realm Steering Committee</t>
+  </si>
+  <si>
+    <t>http://www.hl7.org/Special/committees/usrealm/index.cfm</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>packagepath</t>
+  </si>
+  <si>
+    <t>publishersystem</t>
+  </si>
+  <si>
+    <t>publishervalue</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/ImplementationGuide/hl7.fhir.us.core|3.1.1</t>
+  </si>
+  <si>
+    <t>This Section describes the expected capabilities of the US Core Server actor which is responsible for providing responses to the queries submitted by the US Core Requestors. The complete list of FHIR profiles, RESTful operations, and search parameters supported by US Core Servers are defined. Systems implementing this capability statement should meet the ONC 2015 Common Clinical Data Set (CCDS) access requirement for Patient Selection 170.315(g)(7) and Application Access - Data Category Request 170.315(g)(8) and and the ONC [U.S. Core Data for Interoperability (USCDI)](https://www.healthit.gov/isa/sites/isa/files/2020-03/USCDI-Version1-2020-Final-Standard.pdf).  US Core Clients have the option of choosing from this list to access necessary data based on their local use cases and other contextual requirements.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/head-occipital-frontal-circumference-percentile</t>
+  </si>
+  <si>
+    <t>US Core Pediatric Head Occipital-frontal Circumference Percentile Profile</t>
+  </si>
+  <si>
+    <t>!http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationstatement</t>
+  </si>
+  <si>
+    <t>The  MedicationRequest resource can represent a medication, using an external reference to a Medication resource. If an external Medication Resourcse is used in a MedicationRequest, then the READ  **SHALL**  be supported.</t>
+  </si>
+  <si>
+    <t>support searching for a patient by a server defined search that matches any of the string fields in the HumanName, including family, give, prefix, suffix, suffix, and/or text</t>
   </si>
   <si>
     <t>The US Core Server **SHALL**:
@@ -1650,9 +1749,8 @@
 1. Return the following response classes:
    - (Status 400): invalid parameter
    - (Status 401/4xx): unauthorized request
-   - (Status 403): insufficient scope
+   - (Status 403): insufficient scopes
    - (Status 404): unknown resource
-   - (Status 410): deleted resource.
 1. Support json source formats for all US Core interactions.
 The US Core Server **SHOULD**:
 1. Support xml source formats for all US Core interactions.
@@ -1660,106 +1758,10 @@
 1. Support xml resource formats for all Argonaut questionnaire interactions.</t>
   </si>
   <si>
-    <t>Provenance:target</t>
-  </si>
-  <si>
-    <t>doc_Observation</t>
-  </si>
-  <si>
-    <t>GET [base]/Condition?patient=1032702&amp;category=http://terminology.hl7.org/CodeSystem/condition-category\|problem-list-item~GET [base]/Condition?patient=1032702&amp;category=http://hl7.org/fhir/us/core/CodeSystem/condition-category\|health-concern~GET [base]/Condition?patient=1032702&amp;category=http://terminology.hl7.org/CodeSystem/condition-category\|encounter-diagnosis</t>
-  </si>
-  <si>
-    <t>fhirVersion</t>
-  </si>
-  <si>
-    <t>intent=order,plan</t>
-  </si>
-  <si>
-    <t>GET [base]/MedicationRequest?patient=14676&amp;intent=order,plan~GET [base]/MedicationRequest?patient=14676&amp;intent=order,plan&amp;_include=MedicationRequest:medication</t>
-  </si>
-  <si>
-    <t>GET [base]/MedicationRequest?patient=1137192&amp;intent=order,plan&amp;status=active~GET [base]/MedicationRequest?patient=1137192&amp;intent=order,plan&amp;status=active&amp;_include=MedicationRequest:medication</t>
-  </si>
-  <si>
-    <t>GET [base]/MedicationRequest?patient=1137192&amp;intent=order,plan&amp;status=active&amp;encounter=Encounter/123~GET [base]/MedicationRequest?patient=1137192&amp;intent=order,plan&amp;status=active&amp;&amp;encounter=Encounter/123&amp;_include=MedicationRequest:medication</t>
-  </si>
-  <si>
-    <t>GET [base]/MedicationRequest?patient=1137192&amp;intent=order,plan&amp;authoredon=ge2019~GET [base]/MedicationRequest?patient=1137192&amp;intent=order,plan&amp;authoredon=ge2019&amp;_include=MedicationRequest:medication</t>
-  </si>
-  <si>
-    <t>Fetches a bundle of all MedicationRequest resources for the specified patient and intent code = `order,plan`</t>
-  </si>
-  <si>
-    <t>Fetches a bundle of all MedicationRequest resources for the specified patient and intent  code = `order,plan` and status</t>
-  </si>
-  <si>
-    <t>Fetches a bundle of all MedicationRequest resources for the specified patient and intent  code = `order,plan` and encounter</t>
-  </si>
-  <si>
-    <t>Fetches a bundle of all MedicationRequest resources for the specified patient and intent  code = `order,plan` and authoredon date</t>
-  </si>
-  <si>
-    <t>3.1.1</t>
-  </si>
-  <si>
-    <t>4.0.1</t>
-  </si>
-  <si>
-    <t>pre</t>
-  </si>
-  <si>
-    <t>US-Core</t>
-  </si>
-  <si>
-    <t>canon</t>
-  </si>
-  <si>
-    <t>//ERICS-AIR-2/ehaas/Documents/FHIR/US-Core-R4/source/</t>
-  </si>
-  <si>
-    <t>//ERICS-AIR-2/ehaas/Documents/FHIR/US-Core-R4/output</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/</t>
-  </si>
-  <si>
-    <t>HL7 International - US Realm Steering Committee</t>
-  </si>
-  <si>
-    <t>http://www.hl7.org/Special/committees/usrealm/index.cfm</t>
-  </si>
-  <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t>packagepath</t>
-  </si>
-  <si>
-    <t>publishersystem</t>
-  </si>
-  <si>
-    <t>publishervalue</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/ImplementationGuide/hl7.fhir.us.core|3.1.1</t>
-  </si>
-  <si>
-    <t>This Section describes the expected capabilities of the US Core Server actor which is responsible for providing responses to the queries submitted by the US Core Requestors. The complete list of FHIR profiles, RESTful operations, and search parameters supported by US Core Servers are defined. Systems implementing this capability statement should meet the ONC 2015 Common Clinical Data Set (CCDS) access requirement for Patient Selection 170.315(g)(7) and Application Access - Data Category Request 170.315(g)(8) and and the ONC [U.S. Core Data for Interoperability (USCDI)](https://www.healthit.gov/isa/sites/isa/files/2020-03/USCDI-Version1-2020-Final-Standard.pdf).  US Core Clients have the option of choosing from this list to access necessary data based on their local use cases and other contextual requirements.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/head-occipital-frontal-circumference-percentile</t>
-  </si>
-  <si>
-    <t>US Core Pediatric Head Occipital-frontal Circumference Percentile Profile</t>
-  </si>
-  <si>
-    <t>!http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationstatement</t>
-  </si>
-  <si>
-    <t>The  MedicationRequest resource can represent a medication, using an external reference to a Medication resource. If an external Medication Resourcse is used in a MedicationRequest, then the READ  **SHALL**  be supported.</t>
-  </si>
-  <si>
-    <t>support searching for a patient by a server defined search that matches any of the string fields in the HumanName, including family, give, prefix, suffix, suffix, and/or text</t>
+    <t>profile_conf</t>
+  </si>
+  <si>
+    <t>//ERICS-AIR-2/ehaas/Documents/FHIR/US-Core-R4/input/</t>
   </si>
 </sst>
 </file>
@@ -2234,8 +2236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A508ECBD-F3E5-4662-8D7C-0F31D75EC9A2}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2253,34 +2255,34 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B2" t="s">
-        <v>515</v>
+        <v>531</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B3" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
+        <v>511</v>
+      </c>
+      <c r="B4" t="s">
         <v>512</v>
-      </c>
-      <c r="B4" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B5" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2288,12 +2290,12 @@
         <v>75</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B7" t="s">
         <v>66</v>
@@ -2301,10 +2303,10 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B8" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
   </sheetData>
@@ -3261,7 +3263,7 @@
         <v>160</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J34" s="5" t="s">
         <v>156</v>
@@ -3808,16 +3810,16 @@
         <v>116</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H52" s="5" t="s">
         <v>472</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="53" spans="1:10" s="1" customFormat="1">
@@ -3841,16 +3843,16 @@
         <v>116</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H53" s="5" t="s">
         <v>198</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="54" spans="1:10" s="1" customFormat="1">
@@ -3874,16 +3876,16 @@
         <v>116</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H54" s="5" t="s">
         <v>198</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="55" spans="1:10" s="1" customFormat="1">
@@ -3907,16 +3909,16 @@
         <v>233</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H55" s="5" t="s">
         <v>248</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J55" s="5" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="56" spans="1:10" s="1" customFormat="1">
@@ -4853,8 +4855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -4884,15 +4886,15 @@
         <v>74</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="1" customFormat="1">
       <c r="A4" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="139.5" customHeight="1">
@@ -4900,7 +4902,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4908,7 +4910,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4924,7 +4926,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>496</v>
+        <v>529</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="103.5" customHeight="1">
@@ -5010,7 +5012,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B3" t="s">
         <v>365</v>
@@ -5383,10 +5385,10 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>13</v>
@@ -5404,13 +5406,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:X59"/>
+  <dimension ref="A1:Z59"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomRight" activeCell="D1" sqref="D1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="25.5" customHeight="1"/>
@@ -5418,17 +5420,19 @@
     <col min="1" max="1" width="36.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="25.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="49.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="1" customWidth="1"/>
-    <col min="6" max="12" width="17.42578125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="20.42578125" style="1" customWidth="1"/>
-    <col min="14" max="17" width="17.42578125" style="1" customWidth="1"/>
-    <col min="18" max="19" width="20.42578125" style="1" customWidth="1"/>
-    <col min="20" max="23" width="38.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="27.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1" customWidth="1"/>
+    <col min="8" max="14" width="17.42578125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="20.42578125" style="1" customWidth="1"/>
+    <col min="16" max="19" width="17.42578125" style="1" customWidth="1"/>
+    <col min="20" max="21" width="20.42578125" style="1" customWidth="1"/>
+    <col min="22" max="25" width="38.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="27.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="25.5" customHeight="1" thickBot="1">
+    <row r="1" spans="1:26" ht="25.5" customHeight="1" thickBot="1">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -5438,71 +5442,77 @@
       <c r="C1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="F1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>19</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="25.5" customHeight="1" thickTop="1">
+    <row r="2" spans="1:26" ht="25.5" customHeight="1" thickTop="1">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
@@ -5510,116 +5520,118 @@
         <v>13</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
       <c r="F2"/>
-      <c r="R2" t="s">
+      <c r="H2"/>
+      <c r="T2" t="s">
         <v>21</v>
       </c>
-      <c r="S2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="V2" s="17" t="s">
-        <v>497</v>
-      </c>
-      <c r="W2" s="17"/>
-      <c r="X2" t="s">
+      <c r="U2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="X2" s="17" t="s">
+        <v>496</v>
+      </c>
+      <c r="Y2" s="17"/>
+      <c r="Z2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="25.5" customHeight="1">
+    <row r="3" spans="1:26" ht="25.5" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>252</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="S3" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="V3" s="17" t="s">
-        <v>497</v>
-      </c>
-      <c r="W3" s="17"/>
-    </row>
-    <row r="4" spans="1:24" ht="25.5" customHeight="1">
+      <c r="U3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="X3" s="17" t="s">
+        <v>496</v>
+      </c>
+      <c r="Y3" s="17"/>
+    </row>
+    <row r="4" spans="1:26" ht="25.5" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>266</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="T4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="S4" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="V4" s="17" t="s">
-        <v>497</v>
-      </c>
-      <c r="W4" s="17"/>
-    </row>
-    <row r="5" spans="1:24" ht="25.5" customHeight="1">
+      <c r="U4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="X4" s="17" t="s">
+        <v>496</v>
+      </c>
+      <c r="Y4" s="17"/>
+    </row>
+    <row r="5" spans="1:26" ht="25.5" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>148</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="T5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="S5" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="V5" s="17" t="s">
-        <v>497</v>
-      </c>
-      <c r="W5" s="17"/>
-      <c r="X5" t="s">
+      <c r="U5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="X5" s="17" t="s">
+        <v>496</v>
+      </c>
+      <c r="Y5" s="17"/>
+      <c r="Z5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="25.5" customHeight="1">
+    <row r="6" spans="1:26" ht="25.5" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>270</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="T6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="S6" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="V6" s="17" t="s">
-        <v>497</v>
-      </c>
-      <c r="W6" s="17"/>
-    </row>
-    <row r="7" spans="1:24" ht="25.5" customHeight="1">
+      <c r="U6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="X6" s="17" t="s">
+        <v>496</v>
+      </c>
+      <c r="Y6" s="17"/>
+    </row>
+    <row r="7" spans="1:26" ht="25.5" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>191</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="T7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="S7" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="V7" s="17" t="s">
-        <v>497</v>
-      </c>
-      <c r="W7" s="17"/>
-    </row>
-    <row r="8" spans="1:24" ht="25.5" customHeight="1">
+      <c r="U7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="X7" s="17" t="s">
+        <v>496</v>
+      </c>
+      <c r="Y7" s="17"/>
+    </row>
+    <row r="8" spans="1:26" ht="25.5" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>190</v>
       </c>
@@ -5629,88 +5641,88 @@
       <c r="C8" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="R8" s="1" t="s">
+      <c r="T8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="S8" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="V8" s="17" t="s">
-        <v>497</v>
-      </c>
-      <c r="W8" s="17"/>
-    </row>
-    <row r="9" spans="1:24" ht="25.5" customHeight="1">
+      <c r="U8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="X8" s="17" t="s">
+        <v>496</v>
+      </c>
+      <c r="Y8" s="17"/>
+    </row>
+    <row r="9" spans="1:26" ht="25.5" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="R9" s="1" t="s">
+      <c r="T9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="S9" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="V9" s="17" t="s">
-        <v>497</v>
-      </c>
-      <c r="W9" s="17"/>
-    </row>
-    <row r="10" spans="1:24" ht="25.5" customHeight="1">
+      <c r="U9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="X9" s="17" t="s">
+        <v>496</v>
+      </c>
+      <c r="Y9" s="17"/>
+    </row>
+    <row r="10" spans="1:26" ht="25.5" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>192</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="R10" s="1" t="s">
+      <c r="T10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="S10" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="V10" s="17" t="s">
-        <v>497</v>
-      </c>
-      <c r="W10" s="17"/>
-    </row>
-    <row r="11" spans="1:24" ht="25.5" customHeight="1">
+      <c r="U10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="X10" s="17" t="s">
+        <v>496</v>
+      </c>
+      <c r="Y10" s="17"/>
+    </row>
+    <row r="11" spans="1:26" ht="25.5" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>172</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="R11" s="1" t="s">
+      <c r="T11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="S11" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="V11" s="17" t="s">
-        <v>497</v>
-      </c>
-      <c r="W11" s="17"/>
-    </row>
-    <row r="12" spans="1:24" ht="25.5" customHeight="1">
+      <c r="U11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="X11" s="17" t="s">
+        <v>496</v>
+      </c>
+      <c r="Y11" s="17"/>
+    </row>
+    <row r="12" spans="1:26" ht="25.5" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>271</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="R12" s="1" t="s">
+      <c r="T12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="S12" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="V12" s="17"/>
-      <c r="W12" s="17"/>
-    </row>
-    <row r="13" spans="1:24" ht="25.5" customHeight="1">
+      <c r="U12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="X12" s="17"/>
+      <c r="Y12" s="17"/>
+    </row>
+    <row r="13" spans="1:26" ht="25.5" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>384</v>
       </c>
@@ -5718,18 +5730,18 @@
         <v>13</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="R13" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="T13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="S13" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="V13" s="17"/>
-      <c r="W13" s="17"/>
-    </row>
-    <row r="14" spans="1:24" ht="25.5" customHeight="1">
+      <c r="U13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="X13" s="17"/>
+      <c r="Y13" s="17"/>
+    </row>
+    <row r="14" spans="1:26" ht="25.5" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>193</v>
       </c>
@@ -5739,21 +5751,21 @@
       <c r="C14" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="R14" s="1" t="s">
+      <c r="T14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="S14" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="U14" s="7" t="s">
+      <c r="U14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W14" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="V14" s="17" t="s">
-        <v>497</v>
-      </c>
-      <c r="W14" s="17"/>
-    </row>
-    <row r="15" spans="1:24" ht="25.5" customHeight="1">
+      <c r="X14" s="17" t="s">
+        <v>496</v>
+      </c>
+      <c r="Y14" s="17"/>
+    </row>
+    <row r="15" spans="1:26" ht="25.5" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>480</v>
       </c>
@@ -5763,126 +5775,126 @@
       <c r="C15" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="R15" s="1" t="s">
+      <c r="T15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="S15" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="U15" s="7" t="s">
+      <c r="U15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W15" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="V15" s="17" t="s">
-        <v>497</v>
-      </c>
-      <c r="W15" s="17"/>
-    </row>
-    <row r="16" spans="1:24" ht="25.5" customHeight="1">
+      <c r="X15" s="17" t="s">
+        <v>496</v>
+      </c>
+      <c r="Y15" s="17"/>
+    </row>
+    <row r="16" spans="1:26" ht="25.5" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>195</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="R16" s="1" t="s">
+      <c r="T16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="S16" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="V16" s="17" t="s">
-        <v>497</v>
-      </c>
-      <c r="W16" s="17"/>
-    </row>
-    <row r="17" spans="1:23" ht="25.5" customHeight="1">
+      <c r="U16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="X16" s="17" t="s">
+        <v>496</v>
+      </c>
+      <c r="Y16" s="17"/>
+    </row>
+    <row r="17" spans="1:25" ht="25.5" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>281</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="R17" s="1" t="s">
+      <c r="T17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="S17" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="V17" s="17"/>
-      <c r="W17" s="17"/>
-    </row>
-    <row r="18" spans="1:23" ht="25.5" customHeight="1">
+      <c r="U17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="X17" s="17"/>
+      <c r="Y17" s="17"/>
+    </row>
+    <row r="18" spans="1:25" ht="25.5" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="R18" s="1" t="s">
+      <c r="T18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="S18" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="V18" s="17" t="s">
-        <v>497</v>
-      </c>
-      <c r="W18" s="17"/>
-    </row>
-    <row r="19" spans="1:23" ht="25.5" customHeight="1">
+      <c r="U18" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="X18" s="17" t="s">
+        <v>496</v>
+      </c>
+      <c r="Y18" s="17"/>
+    </row>
+    <row r="19" spans="1:25" ht="25.5" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>288</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="R19" s="1" t="s">
+      <c r="T19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="S19" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="V19" s="17"/>
-      <c r="W19" s="17"/>
-    </row>
-    <row r="20" spans="1:23" ht="25.5" customHeight="1">
+      <c r="U19" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="X19" s="17"/>
+      <c r="Y19" s="17"/>
+    </row>
+    <row r="20" spans="1:25" ht="25.5" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>290</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="R20" s="1" t="s">
+      <c r="T20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="S20" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="U20" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W20" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="V20" s="17"/>
-      <c r="W20" s="17"/>
-    </row>
-    <row r="21" spans="1:23" ht="25.5" customHeight="1">
+      <c r="X20" s="17"/>
+      <c r="Y20" s="17"/>
+    </row>
+    <row r="21" spans="1:25" ht="25.5" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>194</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="R21" s="1" t="s">
+      <c r="T21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="S21" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="V21" s="17" t="s">
-        <v>497</v>
-      </c>
-      <c r="W21" s="17"/>
-    </row>
-    <row r="22" spans="1:23" ht="25.5" customHeight="1">
+      <c r="U21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="X21" s="17" t="s">
+        <v>496</v>
+      </c>
+      <c r="Y21" s="17"/>
+    </row>
+    <row r="22" spans="1:25" ht="25.5" customHeight="1">
       <c r="A22" t="s">
         <v>482</v>
       </c>
@@ -5892,14 +5904,14 @@
       <c r="C22" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="R22" s="1" t="s">
+      <c r="T22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="S22" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" ht="25.5" customHeight="1">
+      <c r="U22" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" ht="25.5" customHeight="1">
       <c r="A23" t="s">
         <v>493</v>
       </c>
@@ -5907,19 +5919,19 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="25.5" customHeight="1">
+    <row r="24" spans="1:25" ht="25.5" customHeight="1">
       <c r="A24"/>
     </row>
-    <row r="25" spans="1:23" ht="25.5" customHeight="1">
+    <row r="25" spans="1:25" ht="25.5" customHeight="1">
       <c r="A25"/>
     </row>
-    <row r="56" spans="20:23" ht="25.5" customHeight="1">
-      <c r="T56" s="7"/>
+    <row r="56" spans="22:25" ht="25.5" customHeight="1">
       <c r="V56" s="7"/>
-      <c r="W56" s="7"/>
-    </row>
-    <row r="59" spans="20:23" ht="25.5" customHeight="1">
-      <c r="W59" s="7"/>
+      <c r="X56" s="7"/>
+      <c r="Y56" s="7"/>
+    </row>
+    <row r="59" spans="22:25" ht="25.5" customHeight="1">
+      <c r="Y59" s="7"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A21">
@@ -6084,7 +6096,7 @@
         <v>412</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>413</v>
@@ -6798,7 +6810,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AB94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="6" ySplit="1" topLeftCell="Y2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -8246,7 +8258,7 @@
         <v>86</v>
       </c>
       <c r="Y27" s="5" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="Z27" s="1" t="s">
         <v>185</v>

--- a/input/resources_spreadsheets/uscore-server.xlsx
+++ b/input/resources_spreadsheets/uscore-server.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\US-Core-R4\input\resources_spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2066C11-ED68-48A8-86AC-CDE3197CE3C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EDD17FD-9A77-4850-8D7D-B774C098E4E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38355" windowHeight="15795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="345" windowWidth="38355" windowHeight="15795" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -145,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1980" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1981" uniqueCount="533">
   <si>
     <t>Element</t>
   </si>
@@ -1762,6 +1762,13 @@
   </si>
   <si>
     <t>//ERICS-AIR-2/ehaas/Documents/FHIR/US-Core-R4/input/</t>
+  </si>
+  <si>
+    <t>* The Encounter resource can represent a reason using either a code with `Encounter.reasonCode`, or a reference with `Encounter.reasonReference` to  Condition or other resource.
+   * Although both are marked as must support, the server systems are not required to support both a code and a reference, but they **SHALL** support *at least one* of these elements.
+   * The client application **SHALL** support both elements.
+   * if `Encounter.reasonReference` references an Observation, it **SHOULD** conform to a US Core Observation if applicable. (for example, a laboratory result should conform to the US Core Laboratory Result Observation Profile)
+* The base FHIR Location resource is being referenced by `Encounter.location`.  However, it **SHOULD** conform to US Core Location.</t>
   </si>
 </sst>
 </file>
@@ -2236,7 +2243,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A508ECBD-F3E5-4662-8D7C-0F31D75EC9A2}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -5408,11 +5415,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Z59"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D1" sqref="D1:E1048576"/>
+      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="25.5" customHeight="1"/>
@@ -5658,6 +5665,9 @@
       </c>
       <c r="B9" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>532</v>
       </c>
       <c r="T9" s="1" t="s">
         <v>21</v>

--- a/input/resources_spreadsheets/uscore-server.xlsx
+++ b/input/resources_spreadsheets/uscore-server.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\US-Core-R4\input\resources_spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EDD17FD-9A77-4850-8D7D-B774C098E4E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B149867F-873E-4DFF-BD98-CE2991CA0C3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="345" windowWidth="38355" windowHeight="15795" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1260" yWindow="1815" windowWidth="38355" windowHeight="15465" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -1547,12 +1547,6 @@
     <t>This conformance expectation applies **only**  to the *US Core DiagnosticReport Profile for Report and Note exchange* profile.  The conformance expectation for the *US Core DiagnosticReport Profile for Laboratory Results Reporting* is  **MAY**.</t>
   </si>
   <si>
-    <t>The MedicationStatement resources can represent a medication using either a code or refer to the Medication resource. When referencing Medication, the resource may be [contained](http://hl7.org/fhir/R4/references.html#contained) or an external resource. The server application **MAY** choose any one way or more than one method, but if an external reference to Medication is used, the server **SHALL** support the _include` parameter for searching this element. The client application must support all methods.
- For example, A server **SHALL** be capable of returning all medications for a patient using one of or both:
- `GET /MedicationStatement?patient=[id]`
- `GET /MedicationStatement?patient=[id]&amp;_include=MedicationStatement:medication`</t>
-  </si>
-  <si>
     <t>intent</t>
   </si>
   <si>
@@ -1595,12 +1589,6 @@
     <t>!MedicationStatement</t>
   </si>
   <si>
-    <t>The MedicationRequest resources can represent a medication using either a code or refer to the Medication resource. When referencing Medication, the resource may be [contained](http://hl7.org/fhir/R4/references.html#contained) or an external resource. The server application **MAY** choose any one way or more than one method, but if an external reference to Medication is used, the server **SHALL** support the _include` parameter for searching this element. The client application must support all methods.
- For example, A server **SHALL** be capable of returning all medications for a patient using one of or both:
- `GET /MedicationRequest?patient=[id]`
- `GET /MedicationRequest?patient=[id]&amp;_include=MedicationRequest:medication`</t>
-  </si>
-  <si>
     <t>Provenance</t>
   </si>
   <si>
@@ -1734,9 +1722,6 @@
   </si>
   <si>
     <t>!http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationstatement</t>
-  </si>
-  <si>
-    <t>The  MedicationRequest resource can represent a medication, using an external reference to a Medication resource. If an external Medication Resourcse is used in a MedicationRequest, then the READ  **SHALL**  be supported.</t>
   </si>
   <si>
     <t>support searching for a patient by a server defined search that matches any of the string fields in the HumanName, including family, give, prefix, suffix, suffix, and/or text</t>
@@ -1769,6 +1754,25 @@
    * The client application **SHALL** support both elements.
    * if `Encounter.reasonReference` references an Observation, it **SHOULD** conform to a US Core Observation if applicable. (for example, a laboratory result should conform to the US Core Laboratory Result Observation Profile)
 * The base FHIR Location resource is being referenced by `Encounter.location`.  However, it **SHOULD** conform to US Core Location.</t>
+  </si>
+  <si>
+    <t>* The  MedicationRequest resource can represent a medication, using an external reference to a Medication resource. If an external Medication Resource is used in a MedicationRequest, then the READ  **SHALL**  be supported.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The MedicationStatement resources can represent a medication using either a code or refer to the Medication resource. When referencing Medication, the resource may be [contained](http://hl7.org/fhir/R4/references.html#contained) or an external resource. The server application **MAY** choose any one way or more than one method, but if an external reference to Medication is used, the server **SHALL** support the _include` parameter for searching this element. The client application must support all methods.
+ For example, A server **SHALL** be capable of returning all medications for a patient using one of or both:
+ `GET /MedicationStatement?patient=[id]`
+ `GET /MedicationStatement?patient=[id]&amp;_include=MedicationStatement:medication`
+</t>
+  </si>
+  <si>
+    <t>* The MedicationRequest resources can represent a medication using either a code or refer to the Medication resource. When referencing Medication, the resource may be [contained](http://hl7.org/fhir/R4/references.html#contained) or an external resource. The server application **MAY** choose any one way or more than one method, but if an external reference to Medication is used, the server **SHALL** support the _include` parameter for searching this element. The client application must support all methods.
+ For example, A server **SHALL** be capable of returning all medications for a patient using one of or both:
+ `GET /MedicationRequest?patient=[id]`
+ `GET /MedicationRequest?patient=[id]&amp;_include=MedicationRequest:medication`
+* The MedicationRequest resource can represent that information is from a secondary source using either a boolean flag or reference in `MedicationRequest.reportedBoolean`, or a reference using `MedicationRequest.reportedReference` to Practitioner or other resource.
+   *   Although both are marked as must support, the server systems are not required to support both a boolean and a reference, but **SHALL** choose to support at least one of these elements.
+   *  The client application **SHALL** support both elements.</t>
   </si>
 </sst>
 </file>
@@ -2262,34 +2266,34 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B2" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B3" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B4" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
+        <v>511</v>
+      </c>
+      <c r="B5" t="s">
         <v>513</v>
-      </c>
-      <c r="B5" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2297,12 +2301,12 @@
         <v>75</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B7" t="s">
         <v>66</v>
@@ -2310,10 +2314,10 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B8" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
   </sheetData>
@@ -3270,7 +3274,7 @@
         <v>160</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="J34" s="5" t="s">
         <v>156</v>
@@ -3363,7 +3367,7 @@
         <v>350</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="38" spans="1:10" s="1" customFormat="1">
@@ -3808,7 +3812,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>13</v>
@@ -3817,16 +3821,16 @@
         <v>116</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="53" spans="1:10" s="1" customFormat="1">
@@ -3841,7 +3845,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>13</v>
@@ -3850,16 +3854,16 @@
         <v>116</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="H53" s="5" t="s">
         <v>198</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="54" spans="1:10" s="1" customFormat="1">
@@ -3874,7 +3878,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>78</v>
@@ -3883,16 +3887,16 @@
         <v>116</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="H54" s="5" t="s">
         <v>198</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="55" spans="1:10" s="1" customFormat="1">
@@ -3907,7 +3911,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>78</v>
@@ -3916,16 +3920,16 @@
         <v>233</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="H55" s="5" t="s">
         <v>248</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="J55" s="5" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="56" spans="1:10" s="1" customFormat="1">
@@ -3933,7 +3937,7 @@
         <v>73</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C56" s="1" t="str">
         <f t="shared" si="2"/>
@@ -3964,7 +3968,7 @@
         <v>74</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C57" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4828,7 +4832,7 @@
         <v>270</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>128</v>
@@ -4893,15 +4897,15 @@
         <v>74</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="1" customFormat="1">
       <c r="A4" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="139.5" customHeight="1">
@@ -4909,7 +4913,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4917,7 +4921,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4933,7 +4937,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="103.5" customHeight="1">
@@ -5019,7 +5023,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B3" t="s">
         <v>365</v>
@@ -5034,10 +5038,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>13</v>
@@ -5334,10 +5338,10 @@
     </row>
     <row r="24" spans="1:6" s="1" customFormat="1">
       <c r="A24" s="11" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>13</v>
@@ -5378,24 +5382,24 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>13</v>
@@ -5416,10 +5420,10 @@
   <dimension ref="A1:Z59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="25.5" customHeight="1"/>
@@ -5453,7 +5457,7 @@
         <v>43</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="F1" t="s">
         <v>16</v>
@@ -5538,7 +5542,7 @@
         <v>78</v>
       </c>
       <c r="X2" s="17" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="Y2" s="17"/>
       <c r="Z2" t="s">
@@ -5559,7 +5563,7 @@
         <v>78</v>
       </c>
       <c r="X3" s="17" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="Y3" s="17"/>
     </row>
@@ -5577,7 +5581,7 @@
         <v>78</v>
       </c>
       <c r="X4" s="17" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="Y4" s="17"/>
     </row>
@@ -5595,7 +5599,7 @@
         <v>78</v>
       </c>
       <c r="X5" s="17" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="Y5" s="17"/>
       <c r="Z5" t="s">
@@ -5616,7 +5620,7 @@
         <v>78</v>
       </c>
       <c r="X6" s="17" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="Y6" s="17"/>
     </row>
@@ -5634,7 +5638,7 @@
         <v>78</v>
       </c>
       <c r="X7" s="17" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="Y7" s="17"/>
     </row>
@@ -5655,7 +5659,7 @@
         <v>78</v>
       </c>
       <c r="X8" s="17" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="Y8" s="17"/>
     </row>
@@ -5667,7 +5671,7 @@
         <v>13</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="T9" s="1" t="s">
         <v>21</v>
@@ -5676,7 +5680,7 @@
         <v>78</v>
       </c>
       <c r="X9" s="17" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="Y9" s="17"/>
     </row>
@@ -5694,7 +5698,7 @@
         <v>78</v>
       </c>
       <c r="X10" s="17" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="Y10" s="17"/>
     </row>
@@ -5712,7 +5716,7 @@
         <v>78</v>
       </c>
       <c r="X11" s="17" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="Y11" s="17"/>
     </row>
@@ -5740,7 +5744,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="T13" s="1" t="s">
         <v>21</v>
@@ -5759,7 +5763,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>481</v>
+        <v>532</v>
       </c>
       <c r="T14" s="1" t="s">
         <v>21</v>
@@ -5771,19 +5775,19 @@
         <v>223</v>
       </c>
       <c r="X14" s="17" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="Y14" s="17"/>
     </row>
     <row r="15" spans="1:26" ht="25.5" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>466</v>
+        <v>531</v>
       </c>
       <c r="T15" s="1" t="s">
         <v>21</v>
@@ -5795,7 +5799,7 @@
         <v>428</v>
       </c>
       <c r="X15" s="17" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="Y15" s="17"/>
     </row>
@@ -5813,7 +5817,7 @@
         <v>78</v>
       </c>
       <c r="X16" s="17" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="Y16" s="17"/>
     </row>
@@ -5847,7 +5851,7 @@
         <v>78</v>
       </c>
       <c r="X18" s="17" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="Y18" s="17"/>
     </row>
@@ -5900,19 +5904,19 @@
         <v>78</v>
       </c>
       <c r="X21" s="17" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="Y21" s="17"/>
     </row>
     <row r="22" spans="1:25" ht="25.5" customHeight="1">
       <c r="A22" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="T22" s="1" t="s">
         <v>21</v>
@@ -5923,7 +5927,7 @@
     </row>
     <row r="23" spans="1:25" ht="25.5" customHeight="1">
       <c r="A23" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>78</v>
@@ -6005,19 +6009,19 @@
     </row>
     <row r="3" spans="1:5" ht="60">
       <c r="A3" t="s">
+        <v>489</v>
+      </c>
+      <c r="B3" t="s">
+        <v>490</v>
+      </c>
+      <c r="C3" t="s">
         <v>491</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>492</v>
-      </c>
-      <c r="C3" t="s">
-        <v>493</v>
-      </c>
-      <c r="D3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -6106,7 +6110,7 @@
         <v>412</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>413</v>
@@ -6124,10 +6128,10 @@
         <v>417</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="75">
@@ -6772,12 +6776,12 @@
         <v>29</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="59.25" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>34</v>
@@ -6786,7 +6790,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>34</v>
@@ -6795,7 +6799,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>34</v>
@@ -6804,7 +6808,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>34</v>
@@ -8268,7 +8272,7 @@
         <v>86</v>
       </c>
       <c r="Y27" s="5" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="Z27" s="1" t="s">
         <v>185</v>
@@ -9737,7 +9741,7 @@
         <v>193</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>34</v>
@@ -9841,7 +9845,7 @@
         <v>193</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>34</v>
@@ -9943,7 +9947,7 @@
         <v>56</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>68</v>
@@ -9996,7 +10000,7 @@
         <v>57</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>99</v>
@@ -10054,7 +10058,7 @@
         <v>58</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>246</v>

--- a/input/resources_spreadsheets/uscore-server.xlsx
+++ b/input/resources_spreadsheets/uscore-server.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\US-Core-R4\input\resources_spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B149867F-873E-4DFF-BD98-CE2991CA0C3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{709EC4B8-D00B-4F6C-8A64-ADCFF0E43572}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="1815" windowWidth="38355" windowHeight="15465" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4635" yWindow="825" windowWidth="38355" windowHeight="15795" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -48,7 +48,7 @@
     <author>User</author>
   </authors>
   <commentList>
-    <comment ref="A25" authorId="0" shapeId="0" xr:uid="{7539690C-2454-403F-887E-95F9D9F8EF10}">
+    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{7539690C-2454-403F-887E-95F9D9F8EF10}">
       <text>
         <r>
           <rPr>
@@ -145,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1981" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2025" uniqueCount="558">
   <si>
     <t>Element</t>
   </si>
@@ -1501,18 +1501,6 @@
     <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation-lab</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/pediatric-bmi-for-age</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/pediatric-weight-for-height</t>
-  </si>
-  <si>
-    <t>US Core Pediatric BMI for Age Observation Profile</t>
-  </si>
-  <si>
-    <t>US Core Pediatric Weight  for Height Observation Profile</t>
-  </si>
-  <si>
     <t>A server **SHALL** be capable of responding to a $docref operation and  capable of returning at least a reference to a generated CCD document, if available. **MAY** provide references to other 'on-demand' and 'stable' documents (or 'delayed/deferred assembly') that meet the query parameters as well. If a context date range is supplied the server ** SHOULD**  provide references to any document that falls within the date range If no date range is supplied, then the server **SHALL** provide references to last or current encounter.  **SHOULD** document what resources, if any, are returned as included resources
 `GET [base]/DocumentReference/$docref?patient=[id]`</t>
   </si>
@@ -1592,9 +1580,6 @@
     <t>Provenance</t>
   </si>
   <si>
-    <t>If a system receives a provider in `Provenance.agent.who` as free text they must capture who sent them the information as the organization. On request they **SHALL** provide this organization as the source and **MAY** include the free text provider.</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-provenance</t>
   </si>
   <si>
@@ -1685,9 +1670,6 @@
     <t>canon</t>
   </si>
   <si>
-    <t>//ERICS-AIR-2/ehaas/Documents/FHIR/US-Core-R4/output</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/us/core/</t>
   </si>
   <si>
@@ -1713,12 +1695,6 @@
   </si>
   <si>
     <t>This Section describes the expected capabilities of the US Core Server actor which is responsible for providing responses to the queries submitted by the US Core Requestors. The complete list of FHIR profiles, RESTful operations, and search parameters supported by US Core Servers are defined. Systems implementing this capability statement should meet the ONC 2015 Common Clinical Data Set (CCDS) access requirement for Patient Selection 170.315(g)(7) and Application Access - Data Category Request 170.315(g)(8) and and the ONC [U.S. Core Data for Interoperability (USCDI)](https://www.healthit.gov/isa/sites/isa/files/2020-03/USCDI-Version1-2020-Final-Standard.pdf).  US Core Clients have the option of choosing from this list to access necessary data based on their local use cases and other contextual requirements.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/head-occipital-frontal-circumference-percentile</t>
-  </si>
-  <si>
-    <t>US Core Pediatric Head Occipital-frontal Circumference Percentile Profile</t>
   </si>
   <si>
     <t>!http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationstatement</t>
@@ -1749,13 +1725,6 @@
     <t>//ERICS-AIR-2/ehaas/Documents/FHIR/US-Core-R4/input/</t>
   </si>
   <si>
-    <t>* The Encounter resource can represent a reason using either a code with `Encounter.reasonCode`, or a reference with `Encounter.reasonReference` to  Condition or other resource.
-   * Although both are marked as must support, the server systems are not required to support both a code and a reference, but they **SHALL** support *at least one* of these elements.
-   * The client application **SHALL** support both elements.
-   * if `Encounter.reasonReference` references an Observation, it **SHOULD** conform to a US Core Observation if applicable. (for example, a laboratory result should conform to the US Core Laboratory Result Observation Profile)
-* The base FHIR Location resource is being referenced by `Encounter.location`.  However, it **SHOULD** conform to US Core Location.</t>
-  </si>
-  <si>
     <t>* The  MedicationRequest resource can represent a medication, using an external reference to a Medication resource. If an external Medication Resource is used in a MedicationRequest, then the READ  **SHALL**  be supported.</t>
   </si>
   <si>
@@ -1773,6 +1742,145 @@
 * The MedicationRequest resource can represent that information is from a secondary source using either a boolean flag or reference in `MedicationRequest.reportedBoolean`, or a reference using `MedicationRequest.reportedReference` to Practitioner or other resource.
    *   Although both are marked as must support, the server systems are not required to support both a boolean and a reference, but **SHALL** choose to support at least one of these elements.
    *  The client application **SHALL** support both elements.</t>
+  </si>
+  <si>
+    <t>US Core Vital Signs Profile</t>
+  </si>
+  <si>
+    <t>US Core Blood Pressure Profile</t>
+  </si>
+  <si>
+    <t>US Core BMI Profile</t>
+  </si>
+  <si>
+    <t>US Core Head Circumference Profile</t>
+  </si>
+  <si>
+    <t>US Core Body Height Profile</t>
+  </si>
+  <si>
+    <t>US Core Body Weight Profile</t>
+  </si>
+  <si>
+    <t>US Core Body Temperature Profile</t>
+  </si>
+  <si>
+    <t>US Core Heart Rate Profile</t>
+  </si>
+  <si>
+    <t>US Core Respiratory Rate Profile</t>
+  </si>
+  <si>
+    <t>Pediatric Head Occipital-frontal Circumference Percentile Profile</t>
+  </si>
+  <si>
+    <t>Pediatric Weight for Height Observation Profile</t>
+  </si>
+  <si>
+    <t>Pediatric BMI for Age Observation Profile</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-vital-signs</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-blood-pressure</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-bmi</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-head-circumference</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-body-height</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-body-weight</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-body-temperature</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-heart-rate</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/pediatric-bmi-for-age-observation</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/pediatric-head-occipital-frontal-circumference-percentile</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/pediatric-weight-for-height-observation</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-respiratory-rate</t>
+  </si>
+  <si>
+    <t>http://build.fhir.org/ig/HL7/US-Core/package.tgz</t>
+  </si>
+  <si>
+    <t>* The Encounter resource can represent a reason using either a code with `Encounter.reasonCode`, or a reference with `Encounter.reasonReference` to  Condition or other resource.
+   * Although both are marked as must support, the server systems are not required to support both a code and a reference, but they **SHALL** support *at least one* of these elements.
+   * The client application **SHALL** support both elements.
+   * if `Encounter.reasonReference` references an Observation, it **SHOULD** conform to a US Core Observation if applicable. (for example, a laboratory result should conform to the US Core Laboratory Result Observation Profile)
+* The intent of this profile is to support *where the encounter occurred*.  The location address can be represented by either by the Location referenced by `Encounter.location.location` or indirectly through the Organization referenced by `Encounter.serviceProvider`.
+  * Although both are marked as must support, the server systems are not required to support both `Encounter.location.location` and `Encounter.serviceProvider`, but they **SHALL** support *at least one* of these elements.
+  * The client application **SHALL** support both elements.
+  * if using `Encounter.locatison.location` it **SHOULD** conform to US Core Location.  However, as a result of implementation feedback, it **MAY**  reference the base FHIR Location resource.  See this guidance on [Referencing US Core Profiles]</t>
+  </si>
+  <si>
+    <t>* Based upon the ONC U.S. Core Data for Interoperability (USCDI) v1 requirements, CVX vaccine codes are required and the NDC vaccine codes **SHOULD** be supported as translations to them.</t>
+  </si>
+  <si>
+    <t>* Additional considerations for systems aligning with [HL7 Consolidated (C-CDA)](http://www.hl7.org/implement/standards/product_brief.cfm?product_id=492) Care Plan requirements:
+    - US Core Goal **SHOULD** be present in CarePlan.goal
+    - US Core Condition **SHOULD** be present in CarePlan.addresses
+    - Assement and Plan **MAY** be included as narrative text</t>
+  </si>
+  <si>
+    <t>*  Implantable medical devices that have UDI information **SHALL** represent this information in either `carrierAIDC` or `carrierHRF`.
+     - UDI may not be present in all scenarios such as historical implantable devices, patient reported implant information, payer reported devices, or improperly documented implants.
+     - Servers are not required to support both `carrierAIDC` and `carrierHR`.
+- For Implantable medical devices that have UDI information, at least one of the Production Identifiers (UDI-PI) **SHALL** be present.
+- Servers **SHOULD** support query by Device.type to allow clients to request the patient's devices by a specific type. Note: The Device.type is too granular to differentiate implantable vs. non-implantable devices.  
+- In the [Quick Start] section below, searching for all devices is described. Records of implanted devices **MAY** be queried against UDI data including:
+    - UDI HRF string (`udi-carrier`)
+    - UDI Device Identifier (`udi-di`)
+    - Manufacturer (`manufacturer`)
+    - Model number (`model`)
+  Implementers **MAY** also adopt custom SearchParameters for searching by:
+    - lot numbers
+    - serial number
+    - expiration date
+    - manufacture date
+    - distinct identifier</t>
+  </si>
+  <si>
+    <t>* The US Core Location  and PractitionerRole Profiles are not explicitly referenced in any US Core Profile. However they **SHOULD** be used as the default profile if referenced by another US Core profile.</t>
+  </si>
+  <si>
+    <t>* Systems **SHOULD** support `Observation.effectivePeriod` to accurately represent laboratory tests that are collected over a period of time (for example, a 24-Hour Urine Collection test).
+* An Observation without a value, **SHALL** include a reason why the data is absent unless there are component observations, or references to other Observations that are grouped within it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* For ONC's USCDI requirements, each Patient must support the following additional elements. These elements are included in the formal definition of the profile. The patient examples include all of these elements.
+1. contact detail (e.g. a telephone number or an email address)
+1. a communication language
+1. a race
+1. an ethnicity
+1. a birth sex*
+1. previous name
+   - Previous name is represented by providing an end date in the `Patient.name.period` element for a previous name.
+1. suffix
+   - Suffix is represented using the `Patient.name.suffix` element.
+</t>
+  </si>
+  <si>
+    <t>*  A procedure including an implantable device **SHOULD** use `Procedure.focalDevice` with a reference to the [US Core Implantable Device Profile].</t>
+  </si>
+  <si>
+    <t>* If a system receives a provider in `Provenance.agent.who` as free text they must capture who sent them the information as the organization. On request they **SHALL** provide this organization as the source and **MAY** include the free text provider.
+* Systems that need to know the activity has occurred **SHOULD** populate the activity.</t>
   </si>
 </sst>
 </file>
@@ -2248,7 +2356,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2266,34 +2374,34 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="B2" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="B3" t="s">
-        <v>512</v>
+        <v>548</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="B4" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="B5" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2301,12 +2409,12 @@
         <v>75</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="B7" t="s">
         <v>66</v>
@@ -2314,10 +2422,10 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="B8" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
     </row>
   </sheetData>
@@ -3274,7 +3382,7 @@
         <v>160</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="J34" s="5" t="s">
         <v>156</v>
@@ -3367,7 +3475,7 @@
         <v>350</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
     </row>
     <row r="38" spans="1:10" s="1" customFormat="1">
@@ -3812,7 +3920,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>13</v>
@@ -3821,16 +3929,16 @@
         <v>116</v>
       </c>
       <c r="G52" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="I52" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="J52" s="5" t="s">
         <v>498</v>
-      </c>
-      <c r="H52" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="I52" s="5" t="s">
-        <v>499</v>
-      </c>
-      <c r="J52" s="5" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="53" spans="1:10" s="1" customFormat="1">
@@ -3845,7 +3953,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>13</v>
@@ -3854,16 +3962,16 @@
         <v>116</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="H53" s="5" t="s">
         <v>198</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
     </row>
     <row r="54" spans="1:10" s="1" customFormat="1">
@@ -3878,7 +3986,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>78</v>
@@ -3887,16 +3995,16 @@
         <v>116</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="H54" s="5" t="s">
         <v>198</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
     <row r="55" spans="1:10" s="1" customFormat="1">
@@ -3911,7 +4019,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>78</v>
@@ -3920,16 +4028,16 @@
         <v>233</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="H55" s="5" t="s">
         <v>248</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="J55" s="5" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
     </row>
     <row r="56" spans="1:10" s="1" customFormat="1">
@@ -3937,7 +4045,7 @@
         <v>73</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="C56" s="1" t="str">
         <f t="shared" si="2"/>
@@ -3968,7 +4076,7 @@
         <v>74</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="C57" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4106,13 +4214,13 @@
         <v>116</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="H61" s="5" t="s">
         <v>301</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="J61" s="5" t="s">
         <v>346</v>
@@ -4138,13 +4246,13 @@
         <v>116</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="H62" s="5" t="s">
         <v>237</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="J62" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B62&amp;" resources for the specified patient and a category code = `laboratory`"</f>
@@ -4201,13 +4309,13 @@
         <v>233</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="H64" s="5" t="s">
         <v>242</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="J64" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B64&amp;" resources for the specified patient and date and a category code = `laboratory`"</f>
@@ -4489,13 +4597,13 @@
         <v>116</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="H73" s="5" t="s">
         <v>300</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="J73" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B73&amp;" resources for the specified "&amp;SUBSTITUTE(D73,","," and ")</f>
@@ -4522,13 +4630,13 @@
         <v>116</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="H74" s="5" t="s">
         <v>299</v>
       </c>
       <c r="I74" s="5" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="J74" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B74&amp;" resources for the specified patient and a category code = `vital-signs`"</f>
@@ -4555,7 +4663,7 @@
         <v>116</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="H75" s="5" t="s">
         <v>302</v>
@@ -4588,13 +4696,13 @@
         <v>233</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="H76" s="5" t="s">
         <v>305</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="J76" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B76&amp;" resources for the specified patient and date and a category code = `vital-signs`"</f>
@@ -4832,7 +4940,7 @@
         <v>270</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>128</v>
@@ -4897,15 +5005,15 @@
         <v>74</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="1" customFormat="1">
       <c r="A4" s="1" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="139.5" customHeight="1">
@@ -4913,7 +5021,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4921,7 +5029,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4937,7 +5045,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="103.5" customHeight="1">
@@ -4978,10 +5086,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D37" sqref="A1:D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -5008,106 +5116,106 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>363</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>364</v>
+        <v>396</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>266</v>
+        <v>23</v>
       </c>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>524</v>
+        <v>254</v>
       </c>
       <c r="B3" t="s">
-        <v>365</v>
+        <v>388</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>196</v>
+        <v>252</v>
       </c>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>473</v>
+        <v>363</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>488</v>
+        <v>364</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>288</v>
+        <v>148</v>
       </c>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>83</v>
+        <v>469</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>394</v>
+        <v>483</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>24</v>
+        <v>270</v>
       </c>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>368</v>
+        <v>201</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>369</v>
+        <v>393</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>296</v>
+        <v>202</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F8" s="1"/>
     </row>
@@ -5128,106 +5236,106 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>374</v>
+        <v>395</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>193</v>
+        <v>25</v>
       </c>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>375</v>
+        <v>389</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>376</v>
+        <v>390</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>148</v>
+        <v>192</v>
       </c>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>395</v>
+        <v>369</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>25</v>
+        <v>172</v>
       </c>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>378</v>
+        <v>391</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="11" t="s">
-        <v>452</v>
+      <c r="A14" s="1" t="s">
+        <v>382</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>454</v>
+        <v>383</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>195</v>
+        <v>384</v>
       </c>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>382</v>
+        <v>516</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>383</v>
+        <v>365</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>384</v>
+        <v>196</v>
       </c>
       <c r="F16" s="1"/>
     </row>
@@ -5247,86 +5355,85 @@
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="1" t="s">
-        <v>202</v>
+      <c r="A18" s="11" t="s">
+        <v>536</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>385</v>
+        <v>524</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>386</v>
+        <v>537</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>387</v>
+        <v>525</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>290</v>
+        <v>195</v>
       </c>
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="1" t="s">
-        <v>254</v>
+      <c r="A20" s="11" t="s">
+        <v>538</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>388</v>
+        <v>526</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>252</v>
+        <v>195</v>
       </c>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="1" t="s">
-        <v>389</v>
+      <c r="A21" s="11" t="s">
+        <v>539</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>390</v>
+        <v>527</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="1" t="s">
-        <v>391</v>
+    <row r="22" spans="1:6" s="1" customFormat="1">
+      <c r="A22" s="11" t="s">
+        <v>540</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>392</v>
+        <v>528</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:6">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="1" customFormat="1">
       <c r="A23" s="11" t="s">
-        <v>451</v>
+        <v>541</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>453</v>
+        <v>529</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>13</v>
@@ -5334,14 +5441,13 @@
       <c r="D23" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" s="1" customFormat="1">
       <c r="A24" s="11" t="s">
-        <v>486</v>
+        <v>542</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>485</v>
+        <v>530</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>13</v>
@@ -5350,56 +5456,54 @@
         <v>195</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="1" t="s">
-        <v>201</v>
+    <row r="25" spans="1:6" s="1" customFormat="1">
+      <c r="A25" s="11" t="s">
+        <v>543</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>393</v>
+        <v>531</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="1" t="s">
-        <v>81</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="1" customFormat="1">
+      <c r="A26" s="11" t="s">
+        <v>544</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>396</v>
+        <v>535</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="1" t="s">
-        <v>482</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="1" customFormat="1">
+      <c r="A27" s="11" t="s">
+        <v>545</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>483</v>
+        <v>533</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="1" t="s">
-        <v>522</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="1" customFormat="1">
+      <c r="A28" s="11" t="s">
+        <v>546</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>13</v>
@@ -5408,7 +5512,141 @@
         <v>195</v>
       </c>
     </row>
+    <row r="29" spans="1:6" s="1" customFormat="1">
+      <c r="A29" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="1" customFormat="1">
+      <c r="A30" s="11" t="s">
+        <v>547</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="1:6" s="1" customFormat="1">
+      <c r="A33" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D37">
+    <sortCondition ref="D2:D37"/>
+    <sortCondition ref="B2:B37"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -5420,10 +5658,10 @@
   <dimension ref="A1:Z59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="25.5" customHeight="1"/>
@@ -5457,7 +5695,7 @@
         <v>43</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="F1" t="s">
         <v>16</v>
@@ -5542,7 +5780,7 @@
         <v>78</v>
       </c>
       <c r="X2" s="17" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="Y2" s="17"/>
       <c r="Z2" t="s">
@@ -5556,6 +5794,9 @@
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="C3" s="2" t="s">
+        <v>551</v>
+      </c>
       <c r="T3" s="1" t="s">
         <v>21</v>
       </c>
@@ -5563,7 +5804,7 @@
         <v>78</v>
       </c>
       <c r="X3" s="17" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="Y3" s="17"/>
     </row>
@@ -5581,7 +5822,7 @@
         <v>78</v>
       </c>
       <c r="X4" s="17" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="Y4" s="17"/>
     </row>
@@ -5599,7 +5840,7 @@
         <v>78</v>
       </c>
       <c r="X5" s="17" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="Y5" s="17"/>
       <c r="Z5" t="s">
@@ -5613,6 +5854,9 @@
       <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="C6" s="2" t="s">
+        <v>552</v>
+      </c>
       <c r="T6" s="1" t="s">
         <v>21</v>
       </c>
@@ -5620,7 +5864,7 @@
         <v>78</v>
       </c>
       <c r="X6" s="17" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="Y6" s="17"/>
     </row>
@@ -5638,7 +5882,7 @@
         <v>78</v>
       </c>
       <c r="X7" s="17" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="Y7" s="17"/>
     </row>
@@ -5659,7 +5903,7 @@
         <v>78</v>
       </c>
       <c r="X8" s="17" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="Y8" s="17"/>
     </row>
@@ -5671,7 +5915,7 @@
         <v>13</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>529</v>
+        <v>549</v>
       </c>
       <c r="T9" s="1" t="s">
         <v>21</v>
@@ -5680,7 +5924,7 @@
         <v>78</v>
       </c>
       <c r="X9" s="17" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="Y9" s="17"/>
     </row>
@@ -5698,7 +5942,7 @@
         <v>78</v>
       </c>
       <c r="X10" s="17" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="Y10" s="17"/>
     </row>
@@ -5709,6 +5953,9 @@
       <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="C11" s="2" t="s">
+        <v>550</v>
+      </c>
       <c r="T11" s="1" t="s">
         <v>21</v>
       </c>
@@ -5716,7 +5963,7 @@
         <v>78</v>
       </c>
       <c r="X11" s="17" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="Y11" s="17"/>
     </row>
@@ -5727,6 +5974,9 @@
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="C12" s="2" t="s">
+        <v>553</v>
+      </c>
       <c r="T12" s="1" t="s">
         <v>21</v>
       </c>
@@ -5744,7 +5994,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="T13" s="1" t="s">
         <v>21</v>
@@ -5763,7 +6013,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="T14" s="1" t="s">
         <v>21</v>
@@ -5775,19 +6025,19 @@
         <v>223</v>
       </c>
       <c r="X14" s="17" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="Y14" s="17"/>
     </row>
     <row r="15" spans="1:26" ht="25.5" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="T15" s="1" t="s">
         <v>21</v>
@@ -5799,7 +6049,7 @@
         <v>428</v>
       </c>
       <c r="X15" s="17" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="Y15" s="17"/>
     </row>
@@ -5810,6 +6060,9 @@
       <c r="B16" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="C16" s="2" t="s">
+        <v>554</v>
+      </c>
       <c r="T16" s="1" t="s">
         <v>21</v>
       </c>
@@ -5817,7 +6070,7 @@
         <v>78</v>
       </c>
       <c r="X16" s="17" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="Y16" s="17"/>
     </row>
@@ -5844,6 +6097,9 @@
       <c r="B18" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="C18" s="2" t="s">
+        <v>555</v>
+      </c>
       <c r="T18" s="1" t="s">
         <v>21</v>
       </c>
@@ -5851,7 +6107,7 @@
         <v>78</v>
       </c>
       <c r="X18" s="17" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="Y18" s="17"/>
     </row>
@@ -5878,6 +6134,9 @@
       <c r="B20" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="C20" s="2" t="s">
+        <v>553</v>
+      </c>
       <c r="T20" s="1" t="s">
         <v>21</v>
       </c>
@@ -5897,6 +6156,9 @@
       <c r="B21" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="C21" s="2" t="s">
+        <v>556</v>
+      </c>
       <c r="T21" s="1" t="s">
         <v>21</v>
       </c>
@@ -5904,19 +6166,19 @@
         <v>78</v>
       </c>
       <c r="X21" s="17" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="Y21" s="17"/>
     </row>
     <row r="22" spans="1:25" ht="25.5" customHeight="1">
       <c r="A22" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>481</v>
+        <v>557</v>
       </c>
       <c r="T22" s="1" t="s">
         <v>21</v>
@@ -5927,7 +6189,7 @@
     </row>
     <row r="23" spans="1:25" ht="25.5" customHeight="1">
       <c r="A23" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>78</v>
@@ -6004,24 +6266,24 @@
         <v>13</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="60">
       <c r="A3" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="B3" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="C3" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="D3" t="s">
         <v>78</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -6077,7 +6339,7 @@
         <v>402</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>403</v>
@@ -6110,7 +6372,7 @@
         <v>412</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>413</v>
@@ -6128,10 +6390,10 @@
         <v>417</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="75">
@@ -6154,7 +6416,7 @@
         <v>34</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="H2" t="s">
         <v>13</v>
@@ -6776,12 +7038,12 @@
         <v>29</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="59.25" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>34</v>
@@ -6790,7 +7052,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>34</v>
@@ -6799,7 +7061,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>34</v>
@@ -6808,7 +7070,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>34</v>
@@ -8272,7 +8534,7 @@
         <v>86</v>
       </c>
       <c r="Y27" s="5" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="Z27" s="1" t="s">
         <v>185</v>
@@ -9741,7 +10003,7 @@
         <v>193</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>34</v>
@@ -9845,7 +10107,7 @@
         <v>193</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>34</v>
@@ -9947,7 +10209,7 @@
         <v>56</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>68</v>
@@ -10000,7 +10262,7 @@
         <v>57</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>99</v>
@@ -10058,7 +10320,7 @@
         <v>58</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>246</v>

--- a/input/resources_spreadsheets/uscore-server.xlsx
+++ b/input/resources_spreadsheets/uscore-server.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\US-Core-R4\input\resources_spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{709EC4B8-D00B-4F6C-8A64-ADCFF0E43572}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E374B30-39D0-4A02-9E89-9544946625EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4635" yWindow="825" windowWidth="38355" windowHeight="15795" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4980" yWindow="1170" windowWidth="38355" windowHeight="15795" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -48,7 +48,7 @@
     <author>User</author>
   </authors>
   <commentList>
-    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{7539690C-2454-403F-887E-95F9D9F8EF10}">
+    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{B013405F-0822-4C0A-98FD-D4663AF262BB}">
       <text>
         <r>
           <rPr>
@@ -1804,15 +1804,6 @@
     <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-heart-rate</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/pediatric-bmi-for-age-observation</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/pediatric-head-occipital-frontal-circumference-percentile</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/pediatric-weight-for-height-observation</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-respiratory-rate</t>
   </si>
   <si>
@@ -1881,6 +1872,15 @@
   <si>
     <t>* If a system receives a provider in `Provenance.agent.who` as free text they must capture who sent them the information as the organization. On request they **SHALL** provide this organization as the source and **MAY** include the free text provider.
 * Systems that need to know the activity has occurred **SHOULD** populate the activity.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/bmi-for-age-observation</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/head-occipital-frontal-circumference-percentile</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/weight-for-height-observation</t>
   </si>
 </sst>
 </file>
@@ -2385,7 +2385,7 @@
         <v>511</v>
       </c>
       <c r="B3" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5088,8 +5088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D37" sqref="A1:D37"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A14" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -5101,7 +5101,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B1" t="s">
@@ -5115,7 +5115,7 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B2" t="s">
@@ -5130,7 +5130,7 @@
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>254</v>
       </c>
       <c r="B3" t="s">
@@ -5355,7 +5355,7 @@
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="1" t="s">
         <v>536</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -5385,7 +5385,7 @@
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="1" t="s">
         <v>538</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -5400,7 +5400,7 @@
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="1" t="s">
         <v>539</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -5415,7 +5415,7 @@
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6" s="1" customFormat="1">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="1" t="s">
         <v>540</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -5429,7 +5429,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" s="1" customFormat="1">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="1" t="s">
         <v>541</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -5443,7 +5443,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" s="1" customFormat="1">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="1" t="s">
         <v>542</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -5457,7 +5457,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" s="1" customFormat="1">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="1" t="s">
         <v>543</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -5471,8 +5471,8 @@
       </c>
     </row>
     <row r="26" spans="1:6" s="1" customFormat="1">
-      <c r="A26" s="11" t="s">
-        <v>544</v>
+      <c r="A26" s="1" t="s">
+        <v>555</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>535</v>
@@ -5485,8 +5485,8 @@
       </c>
     </row>
     <row r="27" spans="1:6" s="1" customFormat="1">
-      <c r="A27" s="11" t="s">
-        <v>545</v>
+      <c r="A27" s="1" t="s">
+        <v>556</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>533</v>
@@ -5499,8 +5499,8 @@
       </c>
     </row>
     <row r="28" spans="1:6" s="1" customFormat="1">
-      <c r="A28" s="11" t="s">
-        <v>546</v>
+      <c r="A28" s="1" t="s">
+        <v>557</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>534</v>
@@ -5513,7 +5513,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" s="1" customFormat="1">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="1" t="s">
         <v>481</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -5527,8 +5527,8 @@
       </c>
     </row>
     <row r="30" spans="1:6" s="1" customFormat="1">
-      <c r="A30" s="11" t="s">
-        <v>547</v>
+      <c r="A30" s="1" t="s">
+        <v>544</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>532</v>
@@ -5657,7 +5657,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Z59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -5795,7 +5795,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>21</v>
@@ -5855,7 +5855,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="T6" s="1" t="s">
         <v>21</v>
@@ -5915,7 +5915,7 @@
         <v>13</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="T9" s="1" t="s">
         <v>21</v>
@@ -5954,7 +5954,7 @@
         <v>13</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="T11" s="1" t="s">
         <v>21</v>
@@ -5975,7 +5975,7 @@
         <v>13</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="T12" s="1" t="s">
         <v>21</v>
@@ -6061,7 +6061,7 @@
         <v>13</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="T16" s="1" t="s">
         <v>21</v>
@@ -6098,7 +6098,7 @@
         <v>13</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="T18" s="1" t="s">
         <v>21</v>
@@ -6135,7 +6135,7 @@
         <v>13</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="T20" s="1" t="s">
         <v>21</v>
@@ -6157,7 +6157,7 @@
         <v>13</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="T21" s="1" t="s">
         <v>21</v>
@@ -6178,7 +6178,7 @@
         <v>13</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="T22" s="1" t="s">
         <v>21</v>

--- a/input/resources_spreadsheets/uscore-server.xlsx
+++ b/input/resources_spreadsheets/uscore-server.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\US-Core-R4\input\resources_spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E374B30-39D0-4A02-9E89-9544946625EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB58C41-1CC6-41A8-AC5E-2130B5D24016}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4980" yWindow="1170" windowWidth="38355" windowHeight="15795" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5325" yWindow="1515" windowWidth="38355" windowHeight="15795" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -1771,15 +1771,6 @@
     <t>US Core Respiratory Rate Profile</t>
   </si>
   <si>
-    <t>Pediatric Head Occipital-frontal Circumference Percentile Profile</t>
-  </si>
-  <si>
-    <t>Pediatric Weight for Height Observation Profile</t>
-  </si>
-  <si>
-    <t>Pediatric BMI for Age Observation Profile</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-vital-signs</t>
   </si>
   <si>
@@ -1874,13 +1865,22 @@
 * Systems that need to know the activity has occurred **SHOULD** populate the activity.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/bmi-for-age-observation</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/us/core/StructureDefinition/head-occipital-frontal-circumference-percentile</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/weight-for-height-observation</t>
+    <t>US Core Pediatric BMI for Age Observation Profile</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/pediatric-bmi-for-age</t>
+  </si>
+  <si>
+    <t>US Core Pediatric Head Occipital-frontal Circumference Percentile Profile</t>
+  </si>
+  <si>
+    <t>US Core Pediatric Weight for Height Observation Profile</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/pediatric-weight-for-height</t>
   </si>
 </sst>
 </file>
@@ -2385,7 +2385,7 @@
         <v>511</v>
       </c>
       <c r="B3" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4974,9 +4974,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
@@ -5089,7 +5087,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A14" sqref="A1:A1048576"/>
+      <selection activeCell="A26" sqref="A26:XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -5356,7 +5354,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>524</v>
@@ -5371,7 +5369,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>525</v>
@@ -5386,7 +5384,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>526</v>
@@ -5401,7 +5399,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>527</v>
@@ -5416,7 +5414,7 @@
     </row>
     <row r="22" spans="1:6" s="1" customFormat="1">
       <c r="A22" s="1" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>528</v>
@@ -5430,7 +5428,7 @@
     </row>
     <row r="23" spans="1:6" s="1" customFormat="1">
       <c r="A23" s="1" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>529</v>
@@ -5444,7 +5442,7 @@
     </row>
     <row r="24" spans="1:6" s="1" customFormat="1">
       <c r="A24" s="1" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>530</v>
@@ -5458,7 +5456,7 @@
     </row>
     <row r="25" spans="1:6" s="1" customFormat="1">
       <c r="A25" s="1" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>531</v>
@@ -5472,10 +5470,10 @@
     </row>
     <row r="26" spans="1:6" s="1" customFormat="1">
       <c r="A26" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>13</v>
@@ -5486,10 +5484,10 @@
     </row>
     <row r="27" spans="1:6" s="1" customFormat="1">
       <c r="A27" s="1" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>533</v>
+        <v>555</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>13</v>
@@ -5503,7 +5501,7 @@
         <v>557</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>534</v>
+        <v>556</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>13</v>
@@ -5528,7 +5526,7 @@
     </row>
     <row r="30" spans="1:6" s="1" customFormat="1">
       <c r="A30" s="1" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>532</v>
@@ -5795,7 +5793,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>21</v>
@@ -5855,7 +5853,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="T6" s="1" t="s">
         <v>21</v>
@@ -5915,7 +5913,7 @@
         <v>13</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="T9" s="1" t="s">
         <v>21</v>
@@ -5954,7 +5952,7 @@
         <v>13</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="T11" s="1" t="s">
         <v>21</v>
@@ -5975,7 +5973,7 @@
         <v>13</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="T12" s="1" t="s">
         <v>21</v>
@@ -6061,7 +6059,7 @@
         <v>13</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="T16" s="1" t="s">
         <v>21</v>
@@ -6098,7 +6096,7 @@
         <v>13</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="T18" s="1" t="s">
         <v>21</v>
@@ -6135,7 +6133,7 @@
         <v>13</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="T20" s="1" t="s">
         <v>21</v>
@@ -6157,7 +6155,7 @@
         <v>13</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="T21" s="1" t="s">
         <v>21</v>
@@ -6178,7 +6176,7 @@
         <v>13</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="T22" s="1" t="s">
         <v>21</v>

--- a/input/resources_spreadsheets/uscore-server.xlsx
+++ b/input/resources_spreadsheets/uscore-server.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\US-Core-R4\input\resources_spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB58C41-1CC6-41A8-AC5E-2130B5D24016}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1DD89C9-2F60-4DF5-A2F7-9B2AC02DFF94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5325" yWindow="1515" windowWidth="38355" windowHeight="15795" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5535" yWindow="12465" windowWidth="38355" windowHeight="15795" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -26,7 +26,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">sp_combos!$B$1:$B$77</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">sps!$A$1:$AB$94</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">sps!$A$1:$AC$94</definedName>
   </definedNames>
   <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
@@ -116,7 +116,7 @@
     <author>User</author>
   </authors>
   <commentList>
-    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{B8B118CB-23C6-4556-9470-64A59EB595D7}">
+    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{B8B118CB-23C6-4556-9470-64A59EB595D7}">
       <text>
         <r>
           <rPr>
@@ -145,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2025" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2090" uniqueCount="563">
   <si>
     <t>Element</t>
   </si>
@@ -1689,9 +1689,6 @@
   </si>
   <si>
     <t>publishervalue</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/ImplementationGuide/hl7.fhir.us.core|3.1.1</t>
   </si>
   <si>
     <t>This Section describes the expected capabilities of the US Core Server actor which is responsible for providing responses to the queries submitted by the US Core Requestors. The complete list of FHIR profiles, RESTful operations, and search parameters supported by US Core Servers are defined. Systems implementing this capability statement should meet the ONC 2015 Common Clinical Data Set (CCDS) access requirement for Patient Selection 170.315(g)(7) and Application Access - Data Category Request 170.315(g)(8) and and the ONC [U.S. Core Data for Interoperability (USCDI)](https://www.healthit.gov/isa/sites/isa/files/2020-03/USCDI-Version1-2020-Final-Standard.pdf).  US Core Clients have the option of choosing from this list to access necessary data based on their local use cases and other contextual requirements.</t>
@@ -1881,6 +1878,28 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/us/core/StructureDefinition/pediatric-weight-for-height</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/ImplementationGuide/hl7.fhir.us.core|3.2.0</t>
+  </si>
+  <si>
+    <t>* A server **SHALL** support a value precise to the *day*.</t>
+  </si>
+  <si>
+    <t>The client **SHALL** provide at least a id value and **MAY** provide both the Type and id values.
+The server **SHALL** support both.</t>
+  </si>
+  <si>
+    <t>A client **SHALL** provide a value precise to the *second + time offset*.
+A server **SHALL** support a value precise to the *second + time offset*.</t>
+  </si>
+  <si>
+    <t>A client **SHALL** provide a value precise to the *day*.
+A server **SHALL** support a value a value precise to the *day*.</t>
+  </si>
+  <si>
+    <t>The client **SHALL** provide at least a code value and **MAY** provide both the system and code values.
+The server **SHALL** support both.</t>
   </si>
 </sst>
 </file>
@@ -2377,7 +2396,7 @@
         <v>510</v>
       </c>
       <c r="B2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2385,7 +2404,7 @@
         <v>511</v>
       </c>
       <c r="B3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4974,7 +4993,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
@@ -5019,7 +5040,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5027,7 +5048,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>514</v>
+        <v>557</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5043,7 +5064,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="103.5" customHeight="1">
@@ -5086,7 +5107,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="A26" sqref="A26:XFD28"/>
     </sheetView>
   </sheetViews>
@@ -5324,7 +5345,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>365</v>
@@ -5354,10 +5375,10 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>13</v>
@@ -5369,10 +5390,10 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>13</v>
@@ -5384,10 +5405,10 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>13</v>
@@ -5399,10 +5420,10 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>13</v>
@@ -5414,10 +5435,10 @@
     </row>
     <row r="22" spans="1:6" s="1" customFormat="1">
       <c r="A22" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>13</v>
@@ -5428,10 +5449,10 @@
     </row>
     <row r="23" spans="1:6" s="1" customFormat="1">
       <c r="A23" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>13</v>
@@ -5442,10 +5463,10 @@
     </row>
     <row r="24" spans="1:6" s="1" customFormat="1">
       <c r="A24" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>13</v>
@@ -5456,10 +5477,10 @@
     </row>
     <row r="25" spans="1:6" s="1" customFormat="1">
       <c r="A25" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>13</v>
@@ -5470,10 +5491,10 @@
     </row>
     <row r="26" spans="1:6" s="1" customFormat="1">
       <c r="A26" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>13</v>
@@ -5484,10 +5505,10 @@
     </row>
     <row r="27" spans="1:6" s="1" customFormat="1">
       <c r="A27" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>13</v>
@@ -5498,10 +5519,10 @@
     </row>
     <row r="28" spans="1:6" s="1" customFormat="1">
       <c r="A28" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>13</v>
@@ -5526,10 +5547,10 @@
     </row>
     <row r="30" spans="1:6" s="1" customFormat="1">
       <c r="A30" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>13</v>
@@ -5659,7 +5680,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C1" sqref="C1:C1048576"/>
+      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="25.5" customHeight="1"/>
@@ -5693,7 +5714,7 @@
         <v>43</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F1" t="s">
         <v>16</v>
@@ -5793,7 +5814,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>21</v>
@@ -5853,7 +5874,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="T6" s="1" t="s">
         <v>21</v>
@@ -5913,7 +5934,7 @@
         <v>13</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="T9" s="1" t="s">
         <v>21</v>
@@ -5952,7 +5973,7 @@
         <v>13</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="T11" s="1" t="s">
         <v>21</v>
@@ -5973,7 +5994,7 @@
         <v>13</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="T12" s="1" t="s">
         <v>21</v>
@@ -5992,7 +6013,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="T13" s="1" t="s">
         <v>21</v>
@@ -6011,7 +6032,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="T14" s="1" t="s">
         <v>21</v>
@@ -6035,7 +6056,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="T15" s="1" t="s">
         <v>21</v>
@@ -6059,7 +6080,7 @@
         <v>13</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="T16" s="1" t="s">
         <v>21</v>
@@ -6096,7 +6117,7 @@
         <v>13</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="T18" s="1" t="s">
         <v>21</v>
@@ -6133,7 +6154,7 @@
         <v>13</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="T20" s="1" t="s">
         <v>21</v>
@@ -6155,7 +6176,7 @@
         <v>13</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="T21" s="1" t="s">
         <v>21</v>
@@ -6176,7 +6197,7 @@
         <v>13</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="T22" s="1" t="s">
         <v>21</v>
@@ -7082,13 +7103,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:AB94"/>
+  <dimension ref="A1:AC94"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="Y2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="H44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y2" sqref="Y2:Y7"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.95" customHeight="1"/>
@@ -7098,28 +7119,29 @@
     <col min="3" max="3" width="33.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" customWidth="1"/>
-    <col min="6" max="6" width="73.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" customWidth="1"/>
-    <col min="10" max="10" width="36.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="22.42578125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.28515625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="16.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="49.7109375" style="1" customWidth="1"/>
-    <col min="21" max="22" width="38.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16" style="1" customWidth="1"/>
-    <col min="24" max="24" width="50.85546875" style="1" customWidth="1"/>
-    <col min="25" max="25" width="68.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="90.7109375" style="1" customWidth="1"/>
-    <col min="27" max="27" width="83.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="38.140625" customWidth="1"/>
+    <col min="6" max="6" width="38" style="1" customWidth="1"/>
+    <col min="7" max="7" width="73.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1"/>
+    <col min="11" max="11" width="36.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="22.42578125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="16.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="49.7109375" style="1" customWidth="1"/>
+    <col min="22" max="23" width="38.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16" style="1" customWidth="1"/>
+    <col min="25" max="25" width="50.85546875" style="1" customWidth="1"/>
+    <col min="26" max="26" width="68.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="90.7109375" style="1" customWidth="1"/>
+    <col min="28" max="28" width="83.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="38.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="18.95" customHeight="1" thickBot="1">
+    <row r="1" spans="1:29" ht="18.95" customHeight="1" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>151</v>
       </c>
@@ -7136,76 +7158,79 @@
         <v>44</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="AA1" s="13" t="s">
+      <c r="AB1" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AB1" s="8" t="s">
+      <c r="AC1" s="8" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1" thickTop="1">
+    <row r="2" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1" thickTop="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -7221,41 +7246,41 @@
       <c r="E2" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F2" s="1" t="str">
+      <c r="G2" s="1" t="str">
         <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B2)</f>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!example category search</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="H2" s="1" t="s">
         <v>62</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J2" s="1" t="str">
+      <c r="K2" s="1" t="str">
         <f>B2&amp;"."&amp;C2</f>
         <v>!EXAMPLE CATEGORY SEARCH.category</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="X2" s="1" t="s">
+      <c r="L2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y2" s="5"/>
       <c r="Z2" s="5"/>
-      <c r="AA2" s="12"/>
-      <c r="AB2" s="1" t="str">
-        <f t="shared" ref="AB2:AB4" si="0">"SearchParameter-us-core-"&amp;LOWER((B2)&amp;"-"&amp;C2&amp;".html")</f>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="1" t="str">
+        <f t="shared" ref="AC2:AC4" si="0">"SearchParameter-us-core-"&amp;LOWER((B2)&amp;"-"&amp;C2&amp;".html")</f>
         <v>SearchParameter-us-core-!example category search-category.html</v>
       </c>
     </row>
-    <row r="3" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="3" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -7271,38 +7296,38 @@
       <c r="E3" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F3" s="1" t="str">
-        <f t="shared" ref="F3:F66" si="1">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B3)</f>
+      <c r="G3" s="1" t="str">
+        <f t="shared" ref="G3:G66" si="1">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B3)</f>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!example code search</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="H3" s="1" t="s">
         <v>62</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J3" s="1" t="str">
+      <c r="K3" s="1" t="str">
         <f>B3&amp;"."&amp;C3</f>
         <v>!EXAMPLE CODE SEARCH.code</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y3" s="5"/>
+      <c r="L3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="Z3" s="5"/>
-      <c r="AA3" s="12"/>
-      <c r="AB3" s="1" t="str">
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="12"/>
+      <c r="AC3" s="1" t="str">
         <f t="shared" si="0"/>
         <v>SearchParameter-us-core-!example code search-code.html</v>
       </c>
     </row>
-    <row r="4" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="4" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -7318,45 +7343,45 @@
       <c r="E4" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F4" s="1" t="str">
+      <c r="G4" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!example date search</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="H4" s="1" t="s">
         <v>62</v>
       </c>
       <c r="I4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="J4" s="1" t="str">
+      <c r="K4" s="1" t="str">
         <f>B4&amp;"."&amp;C4</f>
         <v>!EXAMPLE DATE SEARCH.date</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>62</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="R4" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="X4" s="1" t="s">
+      <c r="Y4" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="AA4" s="12"/>
-      <c r="AB4" s="1" t="str">
+      <c r="AB4" s="12"/>
+      <c r="AC4" s="1" t="str">
         <f t="shared" si="0"/>
         <v>SearchParameter-us-core-!example date search-date.html</v>
       </c>
     </row>
-    <row r="5" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="5" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -7372,50 +7397,53 @@
       <c r="E5" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F5" s="1" t="str">
+      <c r="F5" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="G5" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!example patient search</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="H5" s="1" t="s">
         <v>62</v>
       </c>
       <c r="I5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="J5" s="1" t="str">
+      <c r="K5" s="1" t="str">
         <f>B5&amp;"."&amp;C5</f>
         <v>!EXAMPLE PATIENT SEARCH.patient</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="X5" s="1" t="s">
+      <c r="L5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y5" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="Y5" s="1" t="str">
+      <c r="Z5" s="1" t="str">
         <f>"support searching for all "&amp;LOWER(B5)&amp;"s for a patient"</f>
         <v>support searching for all !example patient searchs for a patient</v>
       </c>
-      <c r="Z5" s="5" t="str">
+      <c r="AA5" s="5" t="str">
         <f>"GET [base]/"&amp;B5&amp;"?patient=1137192"</f>
         <v>GET [base]/!EXAMPLE PATIENT SEARCH?patient=1137192</v>
       </c>
-      <c r="AA5" s="12" t="str">
+      <c r="AB5" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B5&amp; " resources for the specified patient"</f>
         <v>Fetches a bundle of all !EXAMPLE PATIENT SEARCH resources for the specified patient</v>
       </c>
-      <c r="AB5" s="1" t="str">
+      <c r="AC5" s="1" t="str">
         <f>"SearchParameter-us-core-"&amp;LOWER((B5)&amp;"-"&amp;C5&amp;".html")</f>
         <v>SearchParameter-us-core-!example patient search-patient.html</v>
       </c>
     </row>
-    <row r="6" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="6" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -7431,41 +7459,41 @@
       <c r="E6" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F6" s="1" t="str">
+      <c r="G6" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!example status search</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="H6" s="1" t="s">
         <v>62</v>
       </c>
       <c r="I6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J6" s="1" t="str">
-        <f t="shared" ref="J6" si="2">B6&amp;"."&amp;C6</f>
+      <c r="K6" s="1" t="str">
+        <f t="shared" ref="K6" si="2">B6&amp;"."&amp;C6</f>
         <v>!EXAMPLE STATUS SEARCH.status</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="X6" s="1" t="s">
+      <c r="L6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y6" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="Y6" s="5"/>
       <c r="Z6" s="5"/>
-      <c r="AA6" s="12"/>
-      <c r="AB6" s="1" t="str">
-        <f t="shared" ref="AB6" si="3">"SearchParameter-us-core-"&amp;LOWER((B6)&amp;"-"&amp;C6&amp;".html")</f>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="1" t="str">
+        <f t="shared" ref="AC6" si="3">"SearchParameter-us-core-"&amp;LOWER((B6)&amp;"-"&amp;C6&amp;".html")</f>
         <v>SearchParameter-us-core-!example status search-status.html</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="18.95" customHeight="1">
+    <row r="7" spans="1:29" ht="18.95" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -7481,42 +7509,42 @@
       <c r="E7" t="b">
         <v>0</v>
       </c>
-      <c r="F7" s="1" t="str">
+      <c r="G7" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!patient</v>
       </c>
-      <c r="G7" t="s">
-        <v>62</v>
-      </c>
       <c r="H7" t="s">
         <v>62</v>
       </c>
       <c r="I7" t="s">
+        <v>62</v>
+      </c>
+      <c r="J7" t="s">
         <v>71</v>
       </c>
-      <c r="J7" t="str">
-        <f t="shared" ref="J7:J22" si="4">B7&amp;"."&amp;C7</f>
+      <c r="K7" t="str">
+        <f t="shared" ref="K7:K22" si="4">B7&amp;"."&amp;C7</f>
         <v>!Patient.address</v>
       </c>
-      <c r="K7" t="s">
-        <v>62</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y7" s="1" t="s">
+      <c r="L7" t="s">
+        <v>62</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z7" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="Z7" s="5" t="s">
+      <c r="AA7" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="AA7" s="12"/>
-      <c r="AB7" t="str">
+      <c r="AB7" s="12"/>
+      <c r="AC7" t="str">
         <f>"SearchParameter-us-core-"&amp;LOWER((B7)&amp;"-"&amp;C7&amp;".html")</f>
         <v>SearchParameter-us-core-!patient-address.html</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="18.95" customHeight="1">
+    <row r="8" spans="1:29" ht="18.95" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -7532,42 +7560,42 @@
       <c r="E8" t="b">
         <v>0</v>
       </c>
-      <c r="F8" s="1" t="str">
+      <c r="G8" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!patient</v>
       </c>
-      <c r="G8" t="s">
-        <v>62</v>
-      </c>
       <c r="H8" t="s">
         <v>62</v>
       </c>
       <c r="I8" t="s">
+        <v>62</v>
+      </c>
+      <c r="J8" t="s">
         <v>71</v>
       </c>
-      <c r="J8" t="str">
+      <c r="K8" t="str">
         <f t="shared" si="4"/>
         <v>!Patient.telecom</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y8" s="1" t="s">
+      <c r="L8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z8" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="Z8" s="1" t="s">
+      <c r="AA8" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AA8" s="12"/>
-      <c r="AB8" s="1" t="str">
-        <f t="shared" ref="AB8:AB39" si="5">"SearchParameter-us-core-"&amp;LOWER((B8)&amp;"-"&amp;C8&amp;".html")</f>
+      <c r="AB8" s="12"/>
+      <c r="AC8" s="1" t="str">
+        <f t="shared" ref="AC8:AC39" si="5">"SearchParameter-us-core-"&amp;LOWER((B8)&amp;"-"&amp;C8&amp;".html")</f>
         <v>SearchParameter-us-core-!patient-telecom.html</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="18.95" customHeight="1">
+    <row r="9" spans="1:29" ht="18.95" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -7583,38 +7611,41 @@
       <c r="E9" t="b">
         <v>0</v>
       </c>
-      <c r="F9" s="1" t="str">
+      <c r="F9" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="G9" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-allergyintolerance</v>
       </c>
-      <c r="G9" t="s">
-        <v>62</v>
-      </c>
       <c r="H9" t="s">
         <v>62</v>
       </c>
       <c r="I9" t="s">
+        <v>62</v>
+      </c>
+      <c r="J9" t="s">
         <v>63</v>
       </c>
-      <c r="J9" t="str">
+      <c r="K9" t="str">
         <f t="shared" si="4"/>
         <v>AllergyIntolerance.clinical-status</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="X9"/>
-      <c r="Z9" s="5"/>
-      <c r="AA9" s="12"/>
-      <c r="AB9" s="1" t="str">
+      <c r="L9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y9"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="12"/>
+      <c r="AC9" s="1" t="str">
         <f t="shared" si="5"/>
         <v>SearchParameter-us-core-allergyintolerance-clinical-status.html</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="18.95" customHeight="1">
+    <row r="10" spans="1:29" ht="18.95" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -7630,51 +7661,54 @@
       <c r="E10" t="b">
         <v>1</v>
       </c>
-      <c r="F10" s="1" t="str">
+      <c r="F10" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="G10" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-allergyintolerance</v>
       </c>
-      <c r="G10" t="s">
-        <v>62</v>
-      </c>
       <c r="H10" t="s">
         <v>62</v>
       </c>
       <c r="I10" t="s">
+        <v>62</v>
+      </c>
+      <c r="J10" t="s">
         <v>100</v>
       </c>
-      <c r="J10" t="str">
+      <c r="K10" t="str">
         <f t="shared" si="4"/>
         <v>AllergyIntolerance.patient</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="P10"/>
+      <c r="L10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="Q10"/>
-      <c r="S10"/>
+      <c r="R10"/>
       <c r="T10"/>
-      <c r="X10"/>
-      <c r="Y10" t="s">
+      <c r="U10"/>
+      <c r="Y10"/>
+      <c r="Z10" t="s">
         <v>82</v>
       </c>
-      <c r="Z10" s="5" t="str">
+      <c r="AA10" s="5" t="str">
         <f>"GET [base]/"&amp;B10&amp;"?patient=1137192"</f>
         <v>GET [base]/AllergyIntolerance?patient=1137192</v>
       </c>
-      <c r="AA10" s="12" t="str">
+      <c r="AB10" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B10&amp; " resources for the specified patient"</f>
         <v>Fetches a bundle of all AllergyIntolerance resources for the specified patient</v>
       </c>
-      <c r="AB10" s="1" t="str">
+      <c r="AC10" s="1" t="str">
         <f>"SearchParameter-us-core-"&amp;LOWER((B10)&amp;"-"&amp;SUBSTITUTE(C10,"_","")&amp;".html")</f>
         <v>SearchParameter-us-core-allergyintolerance-patient.html</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="18.95" customHeight="1">
+    <row r="11" spans="1:29" ht="18.95" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -7690,42 +7724,45 @@
       <c r="E11" t="b">
         <v>0</v>
       </c>
-      <c r="F11" s="1" t="str">
+      <c r="F11" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="G11" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
       </c>
-      <c r="G11" t="s">
-        <v>62</v>
-      </c>
       <c r="H11" t="s">
         <v>62</v>
       </c>
       <c r="I11" t="s">
+        <v>62</v>
+      </c>
+      <c r="J11" t="s">
         <v>63</v>
       </c>
-      <c r="J11" t="str">
+      <c r="K11" t="str">
         <f t="shared" si="4"/>
         <v>Condition.category</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="O11"/>
-      <c r="X11" t="s">
+      <c r="L11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="P11"/>
+      <c r="Y11" t="s">
         <v>14</v>
       </c>
-      <c r="Y11" s="5"/>
       <c r="Z11" s="5"/>
-      <c r="AA11" s="12"/>
-      <c r="AB11" s="1" t="str">
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="12"/>
+      <c r="AC11" s="1" t="str">
         <f t="shared" si="5"/>
         <v>SearchParameter-us-core-condition-category.html</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="18.95" customHeight="1">
+    <row r="12" spans="1:29" ht="18.95" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -7741,39 +7778,42 @@
       <c r="E12" t="b">
         <v>0</v>
       </c>
-      <c r="F12" s="1" t="str">
+      <c r="F12" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="G12" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
       </c>
-      <c r="G12" t="s">
-        <v>62</v>
-      </c>
       <c r="H12" t="s">
         <v>62</v>
       </c>
       <c r="I12" t="s">
+        <v>62</v>
+      </c>
+      <c r="J12" t="s">
         <v>63</v>
       </c>
-      <c r="J12" t="str">
+      <c r="K12" t="str">
         <f t="shared" si="4"/>
         <v>Condition.clinical-status</v>
       </c>
-      <c r="K12" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="X12" s="1" t="s">
+      <c r="L12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y12" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="AA12" s="12"/>
-      <c r="AB12" s="1" t="str">
+      <c r="AB12" s="12"/>
+      <c r="AC12" s="1" t="str">
         <f t="shared" si="5"/>
         <v>SearchParameter-us-core-condition-clinical-status.html</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="18.95" customHeight="1">
+    <row r="13" spans="1:29" ht="18.95" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -7789,49 +7829,52 @@
       <c r="E13" t="b">
         <v>1</v>
       </c>
-      <c r="F13" s="1" t="str">
+      <c r="F13" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="G13" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
       </c>
-      <c r="G13" t="s">
-        <v>62</v>
-      </c>
       <c r="H13" t="s">
         <v>62</v>
       </c>
       <c r="I13" t="s">
+        <v>62</v>
+      </c>
+      <c r="J13" t="s">
         <v>100</v>
       </c>
-      <c r="J13" t="str">
+      <c r="K13" t="str">
         <f t="shared" si="4"/>
         <v>Condition.patient</v>
       </c>
-      <c r="K13" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="X13" s="1" t="s">
+      <c r="L13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y13" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="Y13" s="1" t="s">
+      <c r="Z13" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="Z13" s="5" t="str">
+      <c r="AA13" s="5" t="str">
         <f>"GET [base]/"&amp;B13&amp;"?patient=1137192"</f>
         <v>GET [base]/Condition?patient=1137192</v>
       </c>
-      <c r="AA13" s="12" t="str">
+      <c r="AB13" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B13&amp; " resources for the specified patient"</f>
         <v>Fetches a bundle of all Condition resources for the specified patient</v>
       </c>
-      <c r="AB13" s="1" t="str">
-        <f t="shared" ref="AB13:AB14" si="6">"SearchParameter-us-core-"&amp;LOWER((B13)&amp;"-"&amp;SUBSTITUTE(C13,"_","")&amp;".html")</f>
+      <c r="AC13" s="1" t="str">
+        <f t="shared" ref="AC13:AC14" si="6">"SearchParameter-us-core-"&amp;LOWER((B13)&amp;"-"&amp;SUBSTITUTE(C13,"_","")&amp;".html")</f>
         <v>SearchParameter-us-core-condition-patient.html</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="18.95" customHeight="1">
+    <row r="14" spans="1:29" ht="18.95" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -7847,44 +7890,44 @@
       <c r="E14" t="b">
         <v>1</v>
       </c>
-      <c r="F14" s="1" t="str">
+      <c r="G14" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter</v>
       </c>
-      <c r="G14" t="s">
-        <v>62</v>
-      </c>
       <c r="H14" t="s">
         <v>62</v>
       </c>
       <c r="I14" t="s">
+        <v>62</v>
+      </c>
+      <c r="J14" t="s">
         <v>63</v>
       </c>
-      <c r="J14" t="str">
+      <c r="K14" t="str">
         <f t="shared" si="4"/>
         <v>Encounter._id</v>
       </c>
-      <c r="K14" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y14" s="5" t="s">
+      <c r="L14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z14" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="Z14" s="5" t="s">
+      <c r="AA14" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="AA14" s="2" t="s">
+      <c r="AB14" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="AB14" s="1" t="str">
+      <c r="AC14" s="1" t="str">
         <f t="shared" si="6"/>
         <v>SearchParameter-us-core-encounter-id.html</v>
       </c>
     </row>
-    <row r="15" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="15" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -7900,41 +7943,44 @@
       <c r="E15" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F15" s="1" t="str">
+      <c r="F15" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="G15" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="H15" s="1" t="s">
         <v>62</v>
       </c>
       <c r="I15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J15" s="1" t="str">
+      <c r="K15" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Encounter.class</v>
       </c>
-      <c r="K15" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="X15" s="1" t="s">
+      <c r="L15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
-      <c r="AA15" s="12"/>
-      <c r="AB15" s="1" t="str">
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="12"/>
+      <c r="AC15" s="1" t="str">
         <f t="shared" si="5"/>
         <v>SearchParameter-us-core-encounter-class.html</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="18.95" customHeight="1">
+    <row r="16" spans="1:29" ht="18.95" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -7950,45 +7996,48 @@
       <c r="E16" t="b">
         <v>0</v>
       </c>
-      <c r="F16" s="1" t="str">
+      <c r="F16" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="G16" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter</v>
       </c>
-      <c r="G16" t="s">
-        <v>62</v>
-      </c>
       <c r="H16" t="s">
         <v>62</v>
       </c>
       <c r="I16" t="s">
+        <v>62</v>
+      </c>
+      <c r="J16" t="s">
         <v>88</v>
       </c>
-      <c r="J16" t="str">
+      <c r="K16" t="str">
         <f t="shared" si="4"/>
         <v>Encounter.date</v>
       </c>
-      <c r="K16" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M16" s="1" t="s">
+      <c r="L16" s="1" t="s">
         <v>62</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="R16" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="X16" s="1" t="s">
+      <c r="Y16" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="AA16" s="12"/>
-      <c r="AB16" s="1" t="str">
+      <c r="AB16" s="12"/>
+      <c r="AC16" s="1" t="str">
         <f t="shared" si="5"/>
         <v>SearchParameter-us-core-encounter-date.html</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="18.95" customHeight="1">
+    <row r="17" spans="1:29" ht="18.95" customHeight="1">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -8004,45 +8053,48 @@
       <c r="E17" t="b">
         <v>1</v>
       </c>
-      <c r="F17" s="1" t="str">
+      <c r="F17" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="G17" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter</v>
       </c>
-      <c r="G17" t="s">
-        <v>62</v>
-      </c>
       <c r="H17" t="s">
         <v>62</v>
       </c>
       <c r="I17" t="s">
+        <v>62</v>
+      </c>
+      <c r="J17" t="s">
         <v>63</v>
       </c>
-      <c r="J17" t="str">
+      <c r="K17" t="str">
         <f t="shared" si="4"/>
         <v>Encounter.identifier</v>
       </c>
-      <c r="K17" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y17" s="5" t="s">
+      <c r="L17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z17" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="Z17" t="s">
+      <c r="AA17" t="s">
         <v>171</v>
       </c>
-      <c r="AA17" s="12" t="str">
+      <c r="AB17" s="12" t="str">
         <f>"Fetches a bundle containing any "&amp;B17&amp;" resources matching the identifier"</f>
         <v>Fetches a bundle containing any Encounter resources matching the identifier</v>
       </c>
-      <c r="AB17" s="1" t="str">
-        <f t="shared" ref="AB17:AB18" si="7">"SearchParameter-us-core-"&amp;LOWER((B17)&amp;"-"&amp;SUBSTITUTE(C17,"_","")&amp;".html")</f>
+      <c r="AC17" s="1" t="str">
+        <f t="shared" ref="AC17:AC18" si="7">"SearchParameter-us-core-"&amp;LOWER((B17)&amp;"-"&amp;SUBSTITUTE(C17,"_","")&amp;".html")</f>
         <v>SearchParameter-us-core-encounter-identifier.html</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="18.95" customHeight="1">
+    <row r="18" spans="1:29" ht="18.95" customHeight="1">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -8058,49 +8110,52 @@
       <c r="E18" t="b">
         <v>1</v>
       </c>
-      <c r="F18" s="1" t="str">
+      <c r="F18" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="G18" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter</v>
       </c>
-      <c r="G18" t="s">
-        <v>62</v>
-      </c>
       <c r="H18" t="s">
         <v>62</v>
       </c>
       <c r="I18" t="s">
+        <v>62</v>
+      </c>
+      <c r="J18" t="s">
         <v>100</v>
       </c>
-      <c r="J18" s="1" t="str">
+      <c r="K18" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Encounter.patient</v>
       </c>
-      <c r="K18" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="X18" t="s">
+      <c r="L18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y18" t="s">
         <v>101</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
         <v>102</v>
       </c>
-      <c r="Z18" s="5" t="str">
+      <c r="AA18" s="5" t="str">
         <f>"GET [base]/"&amp;B18&amp;"?patient=1137192"</f>
         <v>GET [base]/Encounter?patient=1137192</v>
       </c>
-      <c r="AA18" s="12" t="str">
+      <c r="AB18" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B18&amp; " resources for the specified patient"</f>
         <v>Fetches a bundle of all Encounter resources for the specified patient</v>
       </c>
-      <c r="AB18" s="1" t="str">
+      <c r="AC18" s="1" t="str">
         <f t="shared" si="7"/>
         <v>SearchParameter-us-core-encounter-patient.html</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="18.95" customHeight="1">
+    <row r="19" spans="1:29" ht="18.95" customHeight="1">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -8116,41 +8171,44 @@
       <c r="E19" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F19" s="1" t="str">
+      <c r="F19" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="G19" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter</v>
       </c>
-      <c r="G19" t="s">
-        <v>62</v>
-      </c>
       <c r="H19" t="s">
         <v>62</v>
       </c>
       <c r="I19" t="s">
+        <v>62</v>
+      </c>
+      <c r="J19" t="s">
         <v>63</v>
       </c>
-      <c r="J19" t="str">
+      <c r="K19" t="str">
         <f t="shared" si="4"/>
         <v>Encounter.status</v>
       </c>
-      <c r="K19" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="X19" t="s">
+      <c r="L19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y19" t="s">
         <v>104</v>
       </c>
-      <c r="Y19" s="5"/>
       <c r="Z19" s="5"/>
-      <c r="AA19" s="12"/>
-      <c r="AB19" s="1" t="str">
+      <c r="AA19" s="5"/>
+      <c r="AB19" s="12"/>
+      <c r="AC19" s="1" t="str">
         <f t="shared" si="5"/>
         <v>SearchParameter-us-core-encounter-status.html</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="18.95" customHeight="1">
+    <row r="20" spans="1:29" ht="18.95" customHeight="1">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -8166,39 +8224,42 @@
       <c r="E20" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F20" s="1" t="str">
+      <c r="F20" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="G20" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter</v>
       </c>
-      <c r="G20" t="s">
-        <v>62</v>
-      </c>
       <c r="H20" t="s">
         <v>62</v>
       </c>
       <c r="I20" t="s">
+        <v>62</v>
+      </c>
+      <c r="J20" t="s">
         <v>63</v>
       </c>
-      <c r="J20" s="1" t="str">
+      <c r="K20" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Encounter.type</v>
       </c>
-      <c r="K20" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="X20"/>
-      <c r="Y20" s="5"/>
+      <c r="L20" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y20"/>
       <c r="Z20" s="5"/>
-      <c r="AA20" s="12"/>
-      <c r="AB20" s="1" t="str">
+      <c r="AA20" s="5"/>
+      <c r="AB20" s="12"/>
+      <c r="AC20" s="1" t="str">
         <f t="shared" si="5"/>
         <v>SearchParameter-us-core-encounter-type.html</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="18.95" customHeight="1">
+    <row r="21" spans="1:29" ht="18.95" customHeight="1">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -8214,41 +8275,41 @@
       <c r="E21" t="b">
         <v>1</v>
       </c>
-      <c r="F21" s="1" t="str">
+      <c r="G21" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient</v>
       </c>
-      <c r="G21" t="s">
-        <v>62</v>
-      </c>
       <c r="H21" t="s">
         <v>62</v>
       </c>
       <c r="I21" t="s">
+        <v>62</v>
+      </c>
+      <c r="J21" t="s">
         <v>63</v>
       </c>
-      <c r="J21" s="1" t="str">
+      <c r="K21" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Patient._id</v>
       </c>
-      <c r="K21" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y21" s="5" t="s">
+      <c r="L21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z21" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="Z21" s="5" t="s">
+      <c r="AA21" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="AB21" s="1" t="str">
+      <c r="AC21" s="1" t="str">
         <f>"SearchParameter-us-core-"&amp;LOWER((B21)&amp;"-"&amp;SUBSTITUTE(C21,"_","")&amp;".html")</f>
         <v>SearchParameter-us-core-patient-id.html</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="18.95" customHeight="1">
+    <row r="22" spans="1:29" ht="18.95" customHeight="1">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -8264,39 +8325,42 @@
       <c r="E22" t="b">
         <v>0</v>
       </c>
-      <c r="F22" s="1" t="str">
+      <c r="F22" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="G22" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient</v>
       </c>
-      <c r="G22" t="s">
-        <v>62</v>
-      </c>
       <c r="H22" t="s">
         <v>62</v>
       </c>
       <c r="I22" t="s">
+        <v>62</v>
+      </c>
+      <c r="J22" t="s">
         <v>88</v>
       </c>
-      <c r="J22" s="1" t="str">
+      <c r="K22" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Patient.birthdate</v>
       </c>
-      <c r="K22" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="X22" s="1" t="s">
+      <c r="L22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y22" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="Z22"/>
-      <c r="AB22" s="1" t="str">
+      <c r="AA22"/>
+      <c r="AC22" s="1" t="str">
         <f t="shared" si="5"/>
         <v>SearchParameter-us-core-patient-birthdate.html</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="18.95" customHeight="1">
+    <row r="23" spans="1:29" ht="18.95" customHeight="1">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -8312,35 +8376,38 @@
       <c r="E23" t="b">
         <v>0</v>
       </c>
-      <c r="F23" s="1" t="str">
+      <c r="F23" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="G23" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient</v>
       </c>
-      <c r="G23" t="s">
-        <v>62</v>
-      </c>
       <c r="H23" t="s">
         <v>62</v>
       </c>
       <c r="I23" t="s">
+        <v>62</v>
+      </c>
+      <c r="J23" t="s">
         <v>71</v>
       </c>
-      <c r="J23" s="6" t="s">
+      <c r="K23" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="K23" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y23"/>
-      <c r="AB23" s="1" t="str">
+      <c r="L23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z23"/>
+      <c r="AC23" s="1" t="str">
         <f t="shared" si="5"/>
         <v>SearchParameter-us-core-patient-family.html</v>
       </c>
     </row>
-    <row r="24" spans="1:28" ht="18.95" customHeight="1">
+    <row r="24" spans="1:29" ht="18.95" customHeight="1">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -8356,40 +8423,43 @@
       <c r="E24" t="b">
         <v>0</v>
       </c>
-      <c r="F24" s="1" t="str">
+      <c r="F24" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="G24" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient</v>
       </c>
-      <c r="G24" t="s">
-        <v>62</v>
-      </c>
       <c r="H24" t="s">
         <v>62</v>
       </c>
       <c r="I24" t="s">
+        <v>62</v>
+      </c>
+      <c r="J24" t="s">
         <v>63</v>
       </c>
-      <c r="J24" t="str">
+      <c r="K24" t="str">
         <f>B24&amp;"."&amp;C24</f>
         <v>Patient.gender</v>
       </c>
-      <c r="K24" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="X24" s="1" t="s">
+      <c r="L24" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y24" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="Y24"/>
-      <c r="AA24" s="12"/>
-      <c r="AB24" s="1" t="str">
+      <c r="Z24"/>
+      <c r="AB24" s="12"/>
+      <c r="AC24" s="1" t="str">
         <f t="shared" si="5"/>
         <v>SearchParameter-us-core-patient-gender.html</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="18.95" customHeight="1">
+    <row r="25" spans="1:29" ht="18.95" customHeight="1">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -8405,35 +8475,35 @@
       <c r="E25" t="b">
         <v>0</v>
       </c>
-      <c r="F25" s="1" t="str">
+      <c r="G25" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient</v>
       </c>
-      <c r="G25" t="s">
-        <v>62</v>
-      </c>
       <c r="H25" t="s">
         <v>62</v>
       </c>
       <c r="I25" t="s">
+        <v>62</v>
+      </c>
+      <c r="J25" t="s">
         <v>71</v>
       </c>
-      <c r="J25" s="6" t="s">
+      <c r="K25" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="K25" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA25" s="12"/>
-      <c r="AB25" s="1" t="str">
+      <c r="L25" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB25" s="12"/>
+      <c r="AC25" s="1" t="str">
         <f t="shared" si="5"/>
         <v>SearchParameter-us-core-patient-given.html</v>
       </c>
     </row>
-    <row r="26" spans="1:28" ht="18.95" customHeight="1">
+    <row r="26" spans="1:29" ht="18.95" customHeight="1">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -8449,46 +8519,49 @@
       <c r="E26" t="b">
         <v>1</v>
       </c>
-      <c r="F26" s="1" t="str">
+      <c r="F26" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="G26" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient</v>
       </c>
-      <c r="G26" t="s">
-        <v>62</v>
-      </c>
       <c r="H26" t="s">
         <v>62</v>
       </c>
       <c r="I26" t="s">
+        <v>62</v>
+      </c>
+      <c r="J26" t="s">
         <v>63</v>
       </c>
-      <c r="J26" t="str">
+      <c r="K26" t="str">
         <f>B26&amp;"."&amp;C26</f>
         <v>Patient.identifier</v>
       </c>
-      <c r="K26" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="X26"/>
-      <c r="Y26" s="5" t="s">
+      <c r="L26" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y26"/>
+      <c r="Z26" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="Z26" s="1" t="s">
+      <c r="AA26" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="AA26" s="12" t="str">
+      <c r="AB26" s="12" t="str">
         <f>"Fetches a bundle containing any "&amp;B26&amp;" resources matching the identifier"</f>
         <v>Fetches a bundle containing any Patient resources matching the identifier</v>
       </c>
-      <c r="AB26" s="1" t="str">
-        <f t="shared" ref="AB26:AB27" si="8">"SearchParameter-us-core-"&amp;LOWER((B26)&amp;"-"&amp;SUBSTITUTE(C26,"_","")&amp;".html")</f>
+      <c r="AC26" s="1" t="str">
+        <f t="shared" ref="AC26:AC27" si="8">"SearchParameter-us-core-"&amp;LOWER((B26)&amp;"-"&amp;SUBSTITUTE(C26,"_","")&amp;".html")</f>
         <v>SearchParameter-us-core-patient-identifier.html</v>
       </c>
     </row>
-    <row r="27" spans="1:28" ht="18.95" customHeight="1">
+    <row r="27" spans="1:29" ht="18.95" customHeight="1">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -8504,49 +8577,49 @@
       <c r="E27" t="b">
         <v>1</v>
       </c>
-      <c r="F27" s="1" t="str">
+      <c r="G27" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient</v>
       </c>
-      <c r="G27" t="s">
-        <v>62</v>
-      </c>
       <c r="H27" t="s">
         <v>62</v>
       </c>
       <c r="I27" t="s">
+        <v>62</v>
+      </c>
+      <c r="J27" t="s">
         <v>71</v>
       </c>
-      <c r="J27" t="str">
+      <c r="K27" t="str">
         <f>B27&amp;"."&amp;C27</f>
         <v>Patient.name</v>
       </c>
-      <c r="K27" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q27"/>
-      <c r="X27" t="s">
+      <c r="L27" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="R27"/>
+      <c r="Y27" t="s">
         <v>86</v>
       </c>
-      <c r="Y27" s="5" t="s">
-        <v>517</v>
-      </c>
-      <c r="Z27" s="1" t="s">
+      <c r="Z27" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="AA27" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="AA27" s="12" t="str">
+      <c r="AB27" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B27&amp;" resources matching the name"</f>
         <v>Fetches a bundle of all Patient resources matching the name</v>
       </c>
-      <c r="AB27" s="1" t="str">
+      <c r="AC27" s="1" t="str">
         <f t="shared" si="8"/>
         <v>SearchParameter-us-core-patient-name.html</v>
       </c>
     </row>
-    <row r="28" spans="1:28" ht="18.95" customHeight="1">
+    <row r="28" spans="1:29" ht="18.95" customHeight="1">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -8562,34 +8635,34 @@
       <c r="E28" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F28" s="1" t="str">
+      <c r="G28" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
       </c>
-      <c r="G28" t="s">
-        <v>62</v>
-      </c>
       <c r="H28" t="s">
         <v>62</v>
       </c>
       <c r="I28" t="s">
+        <v>62</v>
+      </c>
+      <c r="J28" t="s">
         <v>63</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
         <v>64</v>
       </c>
-      <c r="K28" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB28" s="1" t="str">
+      <c r="L28" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC28" s="1" t="str">
         <f t="shared" si="5"/>
         <v>SearchParameter-us-core-!questionnaire-_id.html</v>
       </c>
     </row>
-    <row r="29" spans="1:28" ht="18.95" customHeight="1">
+    <row r="29" spans="1:29" ht="18.95" customHeight="1">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -8605,36 +8678,36 @@
       <c r="E29" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F29" s="1" t="str">
+      <c r="G29" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>65</v>
       </c>
-      <c r="H29" t="s">
-        <v>62</v>
-      </c>
       <c r="I29" t="s">
+        <v>62</v>
+      </c>
+      <c r="J29" t="s">
         <v>80</v>
       </c>
-      <c r="J29" t="str">
-        <f t="shared" ref="J29:J39" si="9">B29&amp;"."&amp;C29</f>
+      <c r="K29" t="str">
+        <f t="shared" ref="K29:K39" si="9">B29&amp;"."&amp;C29</f>
         <v>!Questionnaire.context-type-value</v>
       </c>
-      <c r="K29" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="X29"/>
-      <c r="AB29" s="1" t="str">
+      <c r="L29" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y29"/>
+      <c r="AC29" s="1" t="str">
         <f t="shared" si="5"/>
         <v>SearchParameter-us-core-!questionnaire-context-type-value.html</v>
       </c>
     </row>
-    <row r="30" spans="1:28" ht="18.95" customHeight="1">
+    <row r="30" spans="1:29" ht="18.95" customHeight="1">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -8650,41 +8723,41 @@
       <c r="E30" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F30" s="1" t="str">
+      <c r="G30" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
       </c>
-      <c r="G30" t="s">
-        <v>62</v>
-      </c>
       <c r="H30" t="s">
         <v>62</v>
       </c>
       <c r="I30" t="s">
+        <v>62</v>
+      </c>
+      <c r="J30" t="s">
         <v>71</v>
       </c>
-      <c r="J30" t="str">
+      <c r="K30" t="str">
         <f t="shared" si="9"/>
         <v>!Questionnaire.publisher</v>
       </c>
-      <c r="K30" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="O30" s="1" t="s">
+      <c r="L30" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="P30" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="X30" t="s">
+      <c r="Y30" t="s">
         <v>77</v>
       </c>
-      <c r="AB30" s="1" t="str">
+      <c r="AC30" s="1" t="str">
         <f t="shared" si="5"/>
         <v>SearchParameter-us-core-!questionnaire-publisher.html</v>
       </c>
     </row>
-    <row r="31" spans="1:28" ht="18.95" customHeight="1">
+    <row r="31" spans="1:29" ht="18.95" customHeight="1">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -8700,38 +8773,38 @@
       <c r="E31" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F31" s="1" t="str">
+      <c r="G31" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
       </c>
-      <c r="G31" t="s">
-        <v>62</v>
-      </c>
       <c r="H31" t="s">
         <v>62</v>
       </c>
       <c r="I31" t="s">
+        <v>62</v>
+      </c>
+      <c r="J31" t="s">
         <v>63</v>
       </c>
-      <c r="J31" t="str">
+      <c r="K31" t="str">
         <f t="shared" si="9"/>
         <v>!Questionnaire.status</v>
       </c>
-      <c r="K31" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="X31" s="1" t="s">
+      <c r="L31" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y31" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AB31" s="1" t="str">
+      <c r="AC31" s="1" t="str">
         <f t="shared" si="5"/>
         <v>SearchParameter-us-core-!questionnaire-status.html</v>
       </c>
     </row>
-    <row r="32" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="32" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -8747,51 +8820,51 @@
       <c r="E32" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F32" s="1" t="str">
+      <c r="G32" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
       </c>
-      <c r="G32" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="H32" s="1" t="s">
         <v>62</v>
       </c>
       <c r="I32" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J32" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="J32" s="1" t="str">
+      <c r="K32" s="1" t="str">
         <f t="shared" si="9"/>
         <v>!Questionnaire.title</v>
       </c>
-      <c r="K32" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M32" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="P32" s="1" t="s">
+      <c r="L32" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q32" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="Q32" s="1" t="s">
+      <c r="R32" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="S32" s="1" t="s">
+      <c r="T32" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="T32" s="1" t="s">
+      <c r="U32" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="X32" s="1" t="s">
+      <c r="Y32" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="AA32" s="2"/>
-      <c r="AB32" s="1" t="str">
+      <c r="AB32" s="2"/>
+      <c r="AC32" s="1" t="str">
         <f t="shared" si="5"/>
         <v>SearchParameter-us-core-!questionnaire-title.html</v>
       </c>
     </row>
-    <row r="33" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="33" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -8807,36 +8880,36 @@
       <c r="E33" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F33" s="1" t="str">
+      <c r="G33" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
       </c>
-      <c r="G33" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="H33" s="1" t="s">
         <v>62</v>
       </c>
       <c r="I33" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J33" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J33" s="1" t="str">
+      <c r="K33" s="1" t="str">
         <f t="shared" si="9"/>
         <v>!Questionnaire.url</v>
       </c>
-      <c r="K33" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M33" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA33" s="2"/>
-      <c r="AB33" s="1" t="str">
+      <c r="L33" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB33" s="2"/>
+      <c r="AC33" s="1" t="str">
         <f t="shared" si="5"/>
         <v>SearchParameter-us-core-!questionnaire-url.html</v>
       </c>
     </row>
-    <row r="34" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="34" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -8852,36 +8925,36 @@
       <c r="E34" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F34" s="1" t="str">
+      <c r="G34" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
       </c>
-      <c r="G34" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="H34" s="1" t="s">
         <v>62</v>
       </c>
       <c r="I34" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J34" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J34" s="1" t="str">
+      <c r="K34" s="1" t="str">
         <f t="shared" si="9"/>
         <v>!Questionnaire.version</v>
       </c>
-      <c r="K34" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA34" s="2"/>
-      <c r="AB34" s="1" t="str">
+      <c r="L34" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB34" s="2"/>
+      <c r="AC34" s="1" t="str">
         <f t="shared" si="5"/>
         <v>SearchParameter-us-core-!questionnaire-version.html</v>
       </c>
     </row>
-    <row r="35" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="35" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -8897,42 +8970,45 @@
       <c r="E35" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F35" s="1" t="str">
+      <c r="F35" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="G35" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
       </c>
-      <c r="G35" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="H35" s="1" t="s">
         <v>62</v>
       </c>
       <c r="I35" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J35" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="J35" s="1" t="str">
+      <c r="K35" s="1" t="str">
         <f t="shared" si="9"/>
         <v>Condition.onset-date</v>
       </c>
-      <c r="K35" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M35" s="1" t="s">
+      <c r="L35" s="1" t="s">
         <v>62</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q35" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="R35" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="AA35" s="12"/>
-      <c r="AB35" s="1" t="str">
+      <c r="AB35" s="12"/>
+      <c r="AC35" s="1" t="str">
         <f t="shared" si="5"/>
         <v>SearchParameter-us-core-condition-onset-date.html</v>
       </c>
     </row>
-    <row r="36" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="36" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -8948,38 +9024,41 @@
       <c r="E36" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F36" s="1" t="str">
+      <c r="F36" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="G36" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
       </c>
-      <c r="G36" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="H36" s="1" t="s">
         <v>62</v>
       </c>
       <c r="I36" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J36" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J36" s="1" t="str">
+      <c r="K36" s="1" t="str">
         <f t="shared" si="9"/>
         <v>Condition.code</v>
       </c>
-      <c r="K36" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M36" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y36" s="5"/>
+      <c r="L36" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="Z36" s="5"/>
-      <c r="AA36" s="12"/>
-      <c r="AB36" s="1" t="str">
+      <c r="AA36" s="5"/>
+      <c r="AB36" s="12"/>
+      <c r="AC36" s="1" t="str">
         <f t="shared" si="5"/>
         <v>SearchParameter-us-core-condition-code.html</v>
       </c>
     </row>
-    <row r="37" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="37" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -8995,50 +9074,53 @@
       <c r="E37" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F37" s="1" t="str">
+      <c r="F37" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="G37" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-immunization</v>
       </c>
-      <c r="G37" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="H37" s="1" t="s">
         <v>62</v>
       </c>
       <c r="I37" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J37" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="J37" s="1" t="str">
+      <c r="K37" s="1" t="str">
         <f t="shared" si="9"/>
         <v>Immunization.patient</v>
       </c>
-      <c r="K37" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M37" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="X37" s="1" t="s">
+      <c r="L37" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y37" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="Y37" s="1" t="str">
+      <c r="Z37" s="1" t="str">
         <f>"support searching for all "&amp;LOWER(B37)&amp;"s for a patient"</f>
         <v>support searching for all immunizations for a patient</v>
       </c>
-      <c r="Z37" s="5" t="str">
+      <c r="AA37" s="5" t="str">
         <f>"GET [base]/"&amp;B37&amp;"?patient=1137192"</f>
         <v>GET [base]/Immunization?patient=1137192</v>
       </c>
-      <c r="AA37" s="12" t="str">
+      <c r="AB37" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B37&amp; " resources for the specified patient"</f>
         <v>Fetches a bundle of all Immunization resources for the specified patient</v>
       </c>
-      <c r="AB37" s="1" t="str">
+      <c r="AC37" s="1" t="str">
         <f>"SearchParameter-us-core-"&amp;LOWER((B37)&amp;"-"&amp;SUBSTITUTE(C37,"_","")&amp;".html")</f>
         <v>SearchParameter-us-core-immunization-patient.html</v>
       </c>
     </row>
-    <row r="38" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="38" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -9054,41 +9136,44 @@
       <c r="E38" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F38" s="1" t="str">
+      <c r="F38" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="G38" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-immunization</v>
       </c>
-      <c r="G38" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="H38" s="1" t="s">
         <v>62</v>
       </c>
       <c r="I38" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J38" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J38" s="1" t="str">
+      <c r="K38" s="1" t="str">
         <f t="shared" si="9"/>
         <v>Immunization.status</v>
       </c>
-      <c r="K38" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M38" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="X38" s="1" t="s">
+      <c r="L38" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y38" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="Y38" s="5"/>
       <c r="Z38" s="5"/>
-      <c r="AA38" s="12"/>
-      <c r="AB38" s="1" t="str">
+      <c r="AA38" s="5"/>
+      <c r="AB38" s="12"/>
+      <c r="AC38" s="1" t="str">
         <f t="shared" si="5"/>
         <v>SearchParameter-us-core-immunization-status.html</v>
       </c>
     </row>
-    <row r="39" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="39" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -9104,45 +9189,48 @@
       <c r="E39" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F39" s="1" t="str">
+      <c r="F39" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="G39" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-immunization</v>
       </c>
-      <c r="G39" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="H39" s="1" t="s">
         <v>62</v>
       </c>
       <c r="I39" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J39" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="J39" s="1" t="str">
+      <c r="K39" s="1" t="str">
         <f t="shared" si="9"/>
         <v>Immunization.date</v>
       </c>
-      <c r="K39" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M39" s="1" t="s">
+      <c r="L39" s="1" t="s">
         <v>62</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q39" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="R39" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="X39" s="1" t="s">
+      <c r="Y39" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="AA39" s="12"/>
-      <c r="AB39" s="1" t="str">
+      <c r="AB39" s="12"/>
+      <c r="AC39" s="1" t="str">
         <f t="shared" si="5"/>
         <v>SearchParameter-us-core-immunization-date.html</v>
       </c>
     </row>
-    <row r="40" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="40" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -9158,44 +9246,44 @@
       <c r="E40" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F40" s="1" t="str">
+      <c r="G40" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
       </c>
-      <c r="G40" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="H40" s="1" t="s">
         <v>62</v>
       </c>
       <c r="I40" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J40" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J40" s="1" t="str">
+      <c r="K40" s="1" t="str">
         <f>B40&amp;".id"</f>
         <v>DocumentReference.id</v>
       </c>
-      <c r="K40" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M40" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y40" s="5" t="s">
+      <c r="L40" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z40" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="Z40" s="5" t="s">
+      <c r="AA40" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="AA40" s="2" t="s">
+      <c r="AB40" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="AB40" s="1" t="str">
-        <f t="shared" ref="AB40" si="10">"SearchParameter-us-core-"&amp;LOWER((B40)&amp;"-"&amp;C40&amp;".html")</f>
+      <c r="AC40" s="1" t="str">
+        <f t="shared" ref="AC40" si="10">"SearchParameter-us-core-"&amp;LOWER((B40)&amp;"-"&amp;C40&amp;".html")</f>
         <v>SearchParameter-us-core-documentreference-_id.html</v>
       </c>
     </row>
-    <row r="41" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="41" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -9211,44 +9299,47 @@
       <c r="E41" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F41" s="1" t="str">
+      <c r="F41" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="G41" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
       </c>
-      <c r="G41" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="H41" s="1" t="s">
         <v>62</v>
       </c>
       <c r="I41" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J41" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J41" s="1" t="str">
-        <f t="shared" ref="J41:J67" si="11">B41&amp;"."&amp;C41</f>
+      <c r="K41" s="1" t="str">
+        <f t="shared" ref="K41:K67" si="11">B41&amp;"."&amp;C41</f>
         <v>DocumentReference.status</v>
       </c>
-      <c r="K41" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="L41" s="1" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="X41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y41" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="Y41" s="5"/>
       <c r="Z41" s="5"/>
-      <c r="AA41" s="12"/>
-      <c r="AB41" s="1" t="str">
-        <f t="shared" ref="AB41:AB70" si="12">"SearchParameter-us-core-"&amp;LOWER((B41)&amp;"-"&amp;C41&amp;".html")</f>
+      <c r="AA41" s="5"/>
+      <c r="AB41" s="12"/>
+      <c r="AC41" s="1" t="str">
+        <f t="shared" ref="AC41:AC70" si="12">"SearchParameter-us-core-"&amp;LOWER((B41)&amp;"-"&amp;C41&amp;".html")</f>
         <v>SearchParameter-us-core-documentreference-status.html</v>
       </c>
     </row>
-    <row r="42" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="42" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -9264,50 +9355,53 @@
       <c r="E42" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F42" s="1" t="str">
+      <c r="F42" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="G42" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
       </c>
-      <c r="G42" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="H42" s="1" t="s">
         <v>62</v>
       </c>
       <c r="I42" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J42" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="J42" s="1" t="str">
+      <c r="K42" s="1" t="str">
         <f t="shared" si="11"/>
         <v>DocumentReference.patient</v>
       </c>
-      <c r="K42" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M42" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="X42" s="1" t="s">
+      <c r="L42" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y42" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="Y42" s="1" t="str">
+      <c r="Z42" s="1" t="str">
         <f>"support searching for all "&amp;LOWER(B42)&amp;"s for a patient"</f>
         <v>support searching for all documentreferences for a patient</v>
       </c>
-      <c r="Z42" s="5" t="str">
+      <c r="AA42" s="5" t="str">
         <f>"GET [base]/"&amp;B42&amp;"?patient=1137192"</f>
         <v>GET [base]/DocumentReference?patient=1137192</v>
       </c>
-      <c r="AA42" s="12" t="str">
+      <c r="AB42" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B42&amp; " resources for the specified patient. See the implementation notes above for how to access the actual document."</f>
         <v>Fetches a bundle of all DocumentReference resources for the specified patient. See the implementation notes above for how to access the actual document.</v>
       </c>
-      <c r="AB42" s="1" t="str">
-        <f t="shared" ref="AB42:AB45" si="13">"SearchParameter-us-core-"&amp;LOWER((B42)&amp;"-"&amp;C42&amp;".html")</f>
+      <c r="AC42" s="1" t="str">
+        <f t="shared" ref="AC42:AC45" si="13">"SearchParameter-us-core-"&amp;LOWER((B42)&amp;"-"&amp;C42&amp;".html")</f>
         <v>SearchParameter-us-core-documentreference-patient.html</v>
       </c>
     </row>
-    <row r="43" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="43" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -9323,41 +9417,44 @@
       <c r="E43" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F43" s="1" t="str">
+      <c r="F43" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="G43" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
       </c>
-      <c r="G43" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="H43" s="1" t="s">
         <v>62</v>
       </c>
       <c r="I43" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J43" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J43" s="1" t="str">
-        <f t="shared" ref="J43:J45" si="14">B43&amp;"."&amp;C43</f>
+      <c r="K43" s="1" t="str">
+        <f t="shared" ref="K43:K45" si="14">B43&amp;"."&amp;C43</f>
         <v>DocumentReference.category</v>
       </c>
-      <c r="K43" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M43" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="X43" s="1" t="s">
+      <c r="L43" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y43" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y43" s="5"/>
       <c r="Z43" s="5"/>
-      <c r="AA43" s="12"/>
-      <c r="AB43" s="1" t="str">
+      <c r="AA43" s="5"/>
+      <c r="AB43" s="12"/>
+      <c r="AC43" s="1" t="str">
         <f t="shared" si="13"/>
         <v>SearchParameter-us-core-documentreference-category.html</v>
       </c>
     </row>
-    <row r="44" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="44" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -9373,38 +9470,41 @@
       <c r="E44" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F44" s="1" t="str">
+      <c r="F44" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="G44" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
       </c>
-      <c r="G44" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="H44" s="1" t="s">
         <v>62</v>
       </c>
       <c r="I44" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J44" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J44" s="1" t="str">
+      <c r="K44" s="1" t="str">
         <f t="shared" si="14"/>
         <v>DocumentReference.type</v>
       </c>
-      <c r="K44" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M44" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y44" s="5"/>
+      <c r="L44" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="Z44" s="5"/>
-      <c r="AA44" s="12"/>
-      <c r="AB44" s="1" t="str">
+      <c r="AA44" s="5"/>
+      <c r="AB44" s="12"/>
+      <c r="AC44" s="1" t="str">
         <f t="shared" si="13"/>
         <v>SearchParameter-us-core-documentreference-type.html</v>
       </c>
     </row>
-    <row r="45" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="45" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -9420,45 +9520,48 @@
       <c r="E45" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F45" s="1" t="str">
+      <c r="F45" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="G45" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
       </c>
-      <c r="G45" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="H45" s="1" t="s">
         <v>62</v>
       </c>
       <c r="I45" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J45" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="J45" s="1" t="str">
+      <c r="K45" s="1" t="str">
         <f t="shared" si="14"/>
         <v>DocumentReference.date</v>
       </c>
-      <c r="K45" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M45" s="1" t="s">
+      <c r="L45" s="1" t="s">
         <v>62</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q45" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="R45" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="X45" s="1" t="s">
+      <c r="Y45" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="AA45" s="12"/>
-      <c r="AB45" s="1" t="str">
+      <c r="AB45" s="12"/>
+      <c r="AC45" s="1" t="str">
         <f t="shared" si="13"/>
         <v>SearchParameter-us-core-documentreference-date.html</v>
       </c>
     </row>
-    <row r="46" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="46" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -9474,44 +9577,47 @@
       <c r="E46" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F46" s="1" t="str">
+      <c r="F46" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="G46" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
       </c>
-      <c r="G46" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="H46" s="1" t="s">
         <v>62</v>
       </c>
       <c r="I46" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J46" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="J46" s="1" t="s">
+      <c r="K46" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="K46" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M46" s="1" t="s">
+      <c r="L46" s="1" t="s">
         <v>62</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q46" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="R46" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="X46" s="1" t="s">
+      <c r="Y46" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="AA46" s="12"/>
-      <c r="AB46" s="1" t="str">
-        <f t="shared" ref="AB46" si="15">"SearchParameter-us-core-"&amp;LOWER((B46)&amp;"-"&amp;C46&amp;".html")</f>
+      <c r="AB46" s="12"/>
+      <c r="AC46" s="1" t="str">
+        <f t="shared" ref="AC46" si="15">"SearchParameter-us-core-"&amp;LOWER((B46)&amp;"-"&amp;C46&amp;".html")</f>
         <v>SearchParameter-us-core-documentreference-period.html</v>
       </c>
     </row>
-    <row r="47" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="47" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -9527,44 +9633,47 @@
       <c r="E47" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F47" s="1" t="str">
+      <c r="F47" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="G47" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-diagnosticreport</v>
       </c>
-      <c r="G47" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="H47" s="1" t="s">
         <v>62</v>
       </c>
       <c r="I47" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J47" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J47" s="1" t="str">
-        <f t="shared" ref="J47:J51" si="16">B47&amp;"."&amp;C47</f>
+      <c r="K47" s="1" t="str">
+        <f t="shared" ref="K47:K51" si="16">B47&amp;"."&amp;C47</f>
         <v>DiagnosticReport.status</v>
       </c>
-      <c r="K47" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="L47" s="1" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="X47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y47" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="Y47" s="5"/>
       <c r="Z47" s="5"/>
-      <c r="AA47" s="12"/>
-      <c r="AB47" s="1" t="str">
+      <c r="AA47" s="5"/>
+      <c r="AB47" s="12"/>
+      <c r="AC47" s="1" t="str">
         <f>"SearchParameter-us-core-"&amp;LOWER((B47)&amp;"-"&amp;C47&amp;".html")</f>
         <v>SearchParameter-us-core-diagnosticreport-status.html</v>
       </c>
     </row>
-    <row r="48" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="48" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -9580,50 +9689,53 @@
       <c r="E48" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F48" s="1" t="str">
+      <c r="F48" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="G48" s="1" t="str">
         <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B48)</f>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-diagnosticreport</v>
       </c>
-      <c r="G48" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="H48" s="1" t="s">
         <v>62</v>
       </c>
       <c r="I48" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J48" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="J48" s="1" t="str">
+      <c r="K48" s="1" t="str">
         <f t="shared" si="16"/>
         <v>DiagnosticReport.patient</v>
       </c>
-      <c r="K48" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M48" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="X48" s="1" t="s">
+      <c r="L48" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y48" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="Y48" s="1" t="str">
+      <c r="Z48" s="1" t="str">
         <f>"support searching for all "&amp;LOWER(B48)&amp;"s for a patient"</f>
         <v>support searching for all diagnosticreports for a patient</v>
       </c>
-      <c r="Z48" s="5" t="str">
+      <c r="AA48" s="5" t="str">
         <f>"GET [base]/"&amp;B48&amp;"?patient=1137192"</f>
         <v>GET [base]/DiagnosticReport?patient=1137192</v>
       </c>
-      <c r="AA48" s="12" t="str">
+      <c r="AB48" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B48&amp; " resources for the specified patient"</f>
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient</v>
       </c>
-      <c r="AB48" s="1" t="str">
+      <c r="AC48" s="1" t="str">
         <f>"SearchParameter-us-core-"&amp;LOWER((B48)&amp;"-"&amp;C48&amp;".html")</f>
         <v>SearchParameter-us-core-diagnosticreport-patient.html</v>
       </c>
     </row>
-    <row r="49" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="49" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -9639,41 +9751,44 @@
       <c r="E49" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F49" s="1" t="str">
+      <c r="F49" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="G49" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-diagnosticreport</v>
       </c>
-      <c r="G49" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="H49" s="1" t="s">
         <v>62</v>
       </c>
       <c r="I49" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J49" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J49" s="1" t="str">
+      <c r="K49" s="1" t="str">
         <f t="shared" si="16"/>
         <v>DiagnosticReport.category</v>
       </c>
-      <c r="K49" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M49" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="X49" s="1" t="s">
+      <c r="L49" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y49" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y49" s="5"/>
       <c r="Z49" s="5"/>
-      <c r="AA49" s="12"/>
-      <c r="AB49" s="1" t="str">
+      <c r="AA49" s="5"/>
+      <c r="AB49" s="12"/>
+      <c r="AC49" s="1" t="str">
         <f>"SearchParameter-us-core-"&amp;LOWER((B49)&amp;"-"&amp;C49&amp;".html")</f>
         <v>SearchParameter-us-core-diagnosticreport-category.html</v>
       </c>
     </row>
-    <row r="50" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="50" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -9689,41 +9804,44 @@
       <c r="E50" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F50" s="1" t="str">
+      <c r="F50" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="G50" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-diagnosticreport</v>
       </c>
-      <c r="G50" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="H50" s="1" t="s">
         <v>62</v>
       </c>
       <c r="I50" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J50" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J50" s="1" t="str">
+      <c r="K50" s="1" t="str">
         <f t="shared" si="16"/>
         <v>DiagnosticReport.code</v>
       </c>
-      <c r="K50" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="L50" s="1" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y50" s="5"/>
+        <v>78</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="Z50" s="5"/>
-      <c r="AA50" s="12"/>
-      <c r="AB50" s="1" t="str">
+      <c r="AA50" s="5"/>
+      <c r="AB50" s="12"/>
+      <c r="AC50" s="1" t="str">
         <f>"SearchParameter-us-core-"&amp;LOWER((B50)&amp;"-"&amp;C50&amp;".html")</f>
         <v>SearchParameter-us-core-diagnosticreport-code.html</v>
       </c>
     </row>
-    <row r="51" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="51" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -9739,45 +9857,48 @@
       <c r="E51" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F51" s="1" t="str">
+      <c r="F51" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="G51" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-diagnosticreport</v>
       </c>
-      <c r="G51" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="H51" s="1" t="s">
         <v>62</v>
       </c>
       <c r="I51" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J51" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="J51" s="1" t="str">
+      <c r="K51" s="1" t="str">
         <f t="shared" si="16"/>
         <v>DiagnosticReport.date</v>
       </c>
-      <c r="K51" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M51" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="N51" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q51" s="1" t="s">
+      <c r="L51" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O51" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="R51" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="X51" s="1" t="s">
+      <c r="Y51" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="AA51" s="12"/>
-      <c r="AB51" s="1" t="str">
+      <c r="AB51" s="12"/>
+      <c r="AC51" s="1" t="str">
         <f>"SearchParameter-us-core-"&amp;LOWER((B51)&amp;"-"&amp;C51&amp;".html")</f>
         <v>SearchParameter-us-core-diagnosticreport-date.html</v>
       </c>
     </row>
-    <row r="52" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="52" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -9793,41 +9914,44 @@
       <c r="E52" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F52" s="1" t="str">
+      <c r="F52" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="G52" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-goal</v>
       </c>
-      <c r="G52" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="H52" s="1" t="s">
         <v>62</v>
       </c>
       <c r="I52" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J52" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J52" s="1" t="str">
+      <c r="K52" s="1" t="str">
         <f t="shared" si="11"/>
         <v>Goal.lifecycle-status</v>
       </c>
-      <c r="K52" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M52" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="X52" s="1" t="s">
+      <c r="L52" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y52" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="Y52" s="5"/>
       <c r="Z52" s="5"/>
-      <c r="AA52" s="12"/>
-      <c r="AB52" s="1" t="str">
+      <c r="AA52" s="5"/>
+      <c r="AB52" s="12"/>
+      <c r="AC52" s="1" t="str">
         <f t="shared" si="12"/>
         <v>SearchParameter-us-core-goal-lifecycle-status.html</v>
       </c>
     </row>
-    <row r="53" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="53" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -9843,50 +9967,53 @@
       <c r="E53" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F53" s="1" t="str">
+      <c r="F53" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="G53" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-goal</v>
       </c>
-      <c r="G53" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="H53" s="1" t="s">
         <v>62</v>
       </c>
       <c r="I53" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J53" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="J53" s="1" t="str">
+      <c r="K53" s="1" t="str">
         <f t="shared" si="11"/>
         <v>Goal.patient</v>
       </c>
-      <c r="K53" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M53" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="X53" s="1" t="s">
+      <c r="L53" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y53" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="Y53" s="1" t="str">
+      <c r="Z53" s="1" t="str">
         <f>"support searching for all "&amp;LOWER(B53)&amp;"s for a patient"</f>
         <v>support searching for all goals for a patient</v>
       </c>
-      <c r="Z53" s="5" t="str">
+      <c r="AA53" s="5" t="str">
         <f>"GET [base]/"&amp;B53&amp;"?patient=1137192"</f>
         <v>GET [base]/Goal?patient=1137192</v>
       </c>
-      <c r="AA53" s="12" t="str">
+      <c r="AB53" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B53&amp; " resources for the specified patient"</f>
         <v>Fetches a bundle of all Goal resources for the specified patient</v>
       </c>
-      <c r="AB53" s="1" t="str">
-        <f t="shared" ref="AB53:AB54" si="17">"SearchParameter-us-core-"&amp;LOWER((B53)&amp;"-"&amp;C53&amp;".html")</f>
+      <c r="AC53" s="1" t="str">
+        <f t="shared" ref="AC53:AC54" si="17">"SearchParameter-us-core-"&amp;LOWER((B53)&amp;"-"&amp;C53&amp;".html")</f>
         <v>SearchParameter-us-core-goal-patient.html</v>
       </c>
     </row>
-    <row r="54" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="54" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -9902,45 +10029,48 @@
       <c r="E54" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F54" s="1" t="str">
+      <c r="F54" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="G54" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-goal</v>
       </c>
-      <c r="G54" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="H54" s="1" t="s">
         <v>62</v>
       </c>
       <c r="I54" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J54" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="J54" s="1" t="str">
-        <f t="shared" ref="J54" si="18">B54&amp;"."&amp;C54</f>
+      <c r="K54" s="1" t="str">
+        <f t="shared" ref="K54" si="18">B54&amp;"."&amp;C54</f>
         <v>Goal.target-date</v>
       </c>
-      <c r="K54" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M54" s="1" t="s">
+      <c r="L54" s="1" t="s">
         <v>62</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q54" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="R54" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="X54" s="1" t="s">
+      <c r="Y54" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="AA54" s="12"/>
-      <c r="AB54" s="1" t="str">
+      <c r="AB54" s="12"/>
+      <c r="AC54" s="1" t="str">
         <f t="shared" si="17"/>
         <v>SearchParameter-us-core-goal-target-date.html</v>
       </c>
     </row>
-    <row r="55" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="55" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -9956,44 +10086,47 @@
       <c r="E55" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F55" s="1" t="str">
+      <c r="F55" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="G55" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
-      <c r="G55" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="H55" s="1" t="s">
         <v>62</v>
       </c>
       <c r="I55" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J55" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J55" s="1" t="str">
+      <c r="K55" s="1" t="str">
         <f t="shared" si="11"/>
         <v>MedicationRequest.status</v>
       </c>
-      <c r="K55" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="L55" s="1" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="X55" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y55" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="Y55" s="5"/>
       <c r="Z55" s="5"/>
-      <c r="AA55" s="12"/>
-      <c r="AB55" s="1" t="str">
+      <c r="AA55" s="5"/>
+      <c r="AB55" s="12"/>
+      <c r="AC55" s="1" t="str">
         <f t="shared" si="12"/>
         <v>SearchParameter-us-core-medicationrequest-status.html</v>
       </c>
     </row>
-    <row r="56" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="56" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A56" s="1">
         <v>53</v>
       </c>
@@ -10009,44 +10142,47 @@
       <c r="E56" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F56" s="1" t="str">
+      <c r="F56" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="G56" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
-      <c r="G56" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="H56" s="1" t="s">
         <v>62</v>
       </c>
       <c r="I56" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J56" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J56" s="1" t="str">
-        <f t="shared" ref="J56" si="19">B56&amp;"."&amp;C56</f>
+      <c r="K56" s="1" t="str">
+        <f t="shared" ref="K56" si="19">B56&amp;"."&amp;C56</f>
         <v>MedicationRequest.intent</v>
       </c>
-      <c r="K56" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="L56" s="1" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="X56" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y56" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="Y56" s="5"/>
       <c r="Z56" s="5"/>
-      <c r="AA56" s="12"/>
-      <c r="AB56" s="1" t="str">
-        <f t="shared" ref="AB56" si="20">"SearchParameter-us-core-"&amp;LOWER((B56)&amp;"-"&amp;C56&amp;".html")</f>
+      <c r="AA56" s="5"/>
+      <c r="AB56" s="12"/>
+      <c r="AC56" s="1" t="str">
+        <f t="shared" ref="AC56" si="20">"SearchParameter-us-core-"&amp;LOWER((B56)&amp;"-"&amp;C56&amp;".html")</f>
         <v>SearchParameter-us-core-medicationrequest-intent.html</v>
       </c>
     </row>
-    <row r="57" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="57" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A57" s="1">
         <v>54</v>
       </c>
@@ -10062,42 +10198,45 @@
       <c r="E57" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F57" s="1" t="str">
+      <c r="F57" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="G57" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
-      <c r="G57" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="H57" s="1" t="s">
         <v>62</v>
       </c>
       <c r="I57" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J57" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="J57" s="1" t="str">
+      <c r="K57" s="1" t="str">
         <f t="shared" si="11"/>
         <v>MedicationRequest.patient</v>
       </c>
-      <c r="K57" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M57" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="U57" s="7"/>
+      <c r="L57" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="V57" s="7"/>
-      <c r="X57" s="1" t="s">
+      <c r="W57" s="7"/>
+      <c r="Y57" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="Z57" s="12"/>
       <c r="AA57" s="12"/>
-      <c r="AB57" s="1" t="str">
-        <f t="shared" ref="AB57" si="21">"SearchParameter-us-core-"&amp;LOWER((B57)&amp;"-"&amp;C57&amp;".html")</f>
+      <c r="AB57" s="12"/>
+      <c r="AC57" s="1" t="str">
+        <f t="shared" ref="AC57" si="21">"SearchParameter-us-core-"&amp;LOWER((B57)&amp;"-"&amp;C57&amp;".html")</f>
         <v>SearchParameter-us-core-medicationrequest-patient.html</v>
       </c>
     </row>
-    <row r="58" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="58" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A58" s="1">
         <v>54</v>
       </c>
@@ -10113,42 +10252,45 @@
       <c r="E58" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F58" s="1" t="str">
+      <c r="F58" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="G58" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
-      <c r="G58" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="H58" s="1" t="s">
         <v>62</v>
       </c>
       <c r="I58" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J58" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="J58" s="1" t="str">
-        <f t="shared" ref="J58" si="22">B58&amp;"."&amp;C58</f>
+      <c r="K58" s="1" t="str">
+        <f t="shared" ref="K58" si="22">B58&amp;"."&amp;C58</f>
         <v>MedicationRequest.encounter</v>
       </c>
-      <c r="K58" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M58" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="U58" s="7"/>
+      <c r="L58" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N58" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="V58" s="7"/>
-      <c r="X58" s="1" t="s">
+      <c r="W58" s="7"/>
+      <c r="Y58" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="Z58" s="12"/>
       <c r="AA58" s="12"/>
-      <c r="AB58" s="1" t="str">
-        <f t="shared" ref="AB58" si="23">"SearchParameter-us-core-"&amp;LOWER((B58)&amp;"-"&amp;C58&amp;".html")</f>
+      <c r="AB58" s="12"/>
+      <c r="AC58" s="1" t="str">
+        <f t="shared" ref="AC58" si="23">"SearchParameter-us-core-"&amp;LOWER((B58)&amp;"-"&amp;C58&amp;".html")</f>
         <v>SearchParameter-us-core-medicationrequest-encounter.html</v>
       </c>
     </row>
-    <row r="59" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="59" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A59" s="1">
         <v>55</v>
       </c>
@@ -10164,45 +10306,48 @@
       <c r="E59" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F59" s="1" t="str">
+      <c r="F59" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="G59" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
-      <c r="G59" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="H59" s="1" t="s">
         <v>62</v>
       </c>
       <c r="I59" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J59" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="J59" s="1" t="str">
-        <f t="shared" ref="J59" si="24">B59&amp;"."&amp;C59</f>
+      <c r="K59" s="1" t="str">
+        <f t="shared" ref="K59" si="24">B59&amp;"."&amp;C59</f>
         <v>MedicationRequest.authoredon</v>
       </c>
-      <c r="K59" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M59" s="1" t="s">
+      <c r="L59" s="1" t="s">
         <v>62</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q59" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O59" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="R59" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="X59" s="1" t="s">
+      <c r="Y59" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="AA59" s="12"/>
-      <c r="AB59" s="1" t="str">
+      <c r="AB59" s="12"/>
+      <c r="AC59" s="1" t="str">
         <f t="shared" si="12"/>
         <v>SearchParameter-us-core-medicationrequest-authoredon.html</v>
       </c>
     </row>
-    <row r="60" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="60" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A60" s="1">
         <v>56</v>
       </c>
@@ -10218,44 +10363,47 @@
       <c r="E60" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F60" s="1" t="str">
+      <c r="F60" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="G60" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!medicationstatement</v>
       </c>
-      <c r="G60" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="H60" s="1" t="s">
         <v>62</v>
       </c>
       <c r="I60" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J60" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J60" s="1" t="str">
+      <c r="K60" s="1" t="str">
         <f>B60&amp;"."&amp;C60</f>
         <v>!MedicationStatement.status</v>
       </c>
-      <c r="K60" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="L60" s="1" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="X60" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y60" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="Y60" s="5"/>
       <c r="Z60" s="5"/>
-      <c r="AA60" s="12"/>
-      <c r="AB60" s="1" t="str">
+      <c r="AA60" s="5"/>
+      <c r="AB60" s="12"/>
+      <c r="AC60" s="1" t="str">
         <f>"SearchParameter-us-core-"&amp;LOWER((B60)&amp;"-"&amp;C60&amp;".html")</f>
         <v>SearchParameter-us-core-!medicationstatement-status.html</v>
       </c>
     </row>
-    <row r="61" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="61" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A61" s="1">
         <v>57</v>
       </c>
@@ -10271,49 +10419,52 @@
       <c r="E61" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F61" s="1" t="str">
+      <c r="F61" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="G61" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!medicationstatement</v>
       </c>
-      <c r="G61" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="H61" s="1" t="s">
         <v>62</v>
       </c>
       <c r="I61" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J61" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="J61" s="1" t="str">
+      <c r="K61" s="1" t="str">
         <f t="shared" si="11"/>
         <v>!MedicationStatement.patient</v>
       </c>
-      <c r="K61" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M61" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="V61" s="7"/>
-      <c r="X61" s="1" t="s">
+      <c r="L61" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N61" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="W61" s="7"/>
+      <c r="Y61" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="Y61" s="1" t="s">
+      <c r="Z61" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="Z61" s="12" t="s">
+      <c r="AA61" s="12" t="s">
         <v>362</v>
       </c>
-      <c r="AA61" s="12" t="str">
+      <c r="AB61" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B61&amp; " resources for the specified patient. Mandatory for client to support the _include parameter. Optional for server to support the _include parameter."</f>
         <v>Fetches a bundle of all !MedicationStatement resources for the specified patient. Mandatory for client to support the _include parameter. Optional for server to support the _include parameter.</v>
       </c>
-      <c r="AB61" s="1" t="str">
-        <f t="shared" ref="AB61:AB62" si="25">"SearchParameter-us-core-"&amp;LOWER((B61)&amp;"-"&amp;C61&amp;".html")</f>
+      <c r="AC61" s="1" t="str">
+        <f t="shared" ref="AC61:AC62" si="25">"SearchParameter-us-core-"&amp;LOWER((B61)&amp;"-"&amp;C61&amp;".html")</f>
         <v>SearchParameter-us-core-!medicationstatement-patient.html</v>
       </c>
     </row>
-    <row r="62" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="62" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A62" s="1">
         <v>58</v>
       </c>
@@ -10329,45 +10480,48 @@
       <c r="E62" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F62" s="1" t="str">
+      <c r="F62" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="G62" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!medicationstatement</v>
       </c>
-      <c r="G62" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="H62" s="1" t="s">
         <v>62</v>
       </c>
       <c r="I62" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J62" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="J62" s="1" t="str">
-        <f t="shared" ref="J62" si="26">B62&amp;"."&amp;C62</f>
+      <c r="K62" s="1" t="str">
+        <f t="shared" ref="K62" si="26">B62&amp;"."&amp;C62</f>
         <v>!MedicationStatement.effective</v>
       </c>
-      <c r="K62" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M62" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="N62" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q62" s="1" t="s">
+      <c r="L62" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N62" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O62" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="R62" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="X62" s="1" t="s">
+      <c r="Y62" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="AA62" s="12"/>
-      <c r="AB62" s="1" t="str">
+      <c r="AB62" s="12"/>
+      <c r="AC62" s="1" t="str">
         <f t="shared" si="25"/>
         <v>SearchParameter-us-core-!medicationstatement-effective.html</v>
       </c>
     </row>
-    <row r="63" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="63" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A63" s="1">
         <v>59</v>
       </c>
@@ -10383,44 +10537,47 @@
       <c r="E63" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F63" s="1" t="str">
+      <c r="F63" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="G63" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-procedure</v>
       </c>
-      <c r="G63" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="H63" s="1" t="s">
         <v>62</v>
       </c>
       <c r="I63" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J63" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J63" s="1" t="str">
+      <c r="K63" s="1" t="str">
         <f t="shared" si="11"/>
         <v>Procedure.status</v>
       </c>
-      <c r="K63" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="L63" s="1" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="X63" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N63" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y63" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="Y63" s="5"/>
       <c r="Z63" s="5"/>
-      <c r="AA63" s="12"/>
-      <c r="AB63" s="1" t="str">
+      <c r="AA63" s="5"/>
+      <c r="AB63" s="12"/>
+      <c r="AC63" s="1" t="str">
         <f t="shared" si="12"/>
         <v>SearchParameter-us-core-procedure-status.html</v>
       </c>
     </row>
-    <row r="64" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="64" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A64" s="1">
         <v>60</v>
       </c>
@@ -10436,49 +10593,52 @@
       <c r="E64" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F64" s="1" t="str">
+      <c r="F64" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="G64" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-procedure</v>
       </c>
-      <c r="G64" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="H64" s="1" t="s">
         <v>62</v>
       </c>
       <c r="I64" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J64" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="J64" s="1" t="str">
+      <c r="K64" s="1" t="str">
         <f t="shared" si="11"/>
         <v>Procedure.patient</v>
       </c>
-      <c r="K64" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M64" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="X64" s="1" t="s">
+      <c r="L64" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N64" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y64" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="Y64" s="1" t="str">
+      <c r="Z64" s="1" t="str">
         <f>"support searching for all "&amp;LOWER(B64)&amp;"s for a patient"</f>
         <v>support searching for all procedures for a patient</v>
       </c>
-      <c r="Z64" s="5" t="s">
+      <c r="AA64" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="AA64" s="12" t="str">
+      <c r="AB64" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B64&amp; " resources for the specified patient"</f>
         <v>Fetches a bundle of all Procedure resources for the specified patient</v>
       </c>
-      <c r="AB64" s="1" t="str">
-        <f t="shared" ref="AB64:AB66" si="27">"SearchParameter-us-core-"&amp;LOWER((B64)&amp;"-"&amp;C64&amp;".html")</f>
+      <c r="AC64" s="1" t="str">
+        <f t="shared" ref="AC64:AC66" si="27">"SearchParameter-us-core-"&amp;LOWER((B64)&amp;"-"&amp;C64&amp;".html")</f>
         <v>SearchParameter-us-core-procedure-patient.html</v>
       </c>
     </row>
-    <row r="65" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="65" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A65" s="1">
         <v>61</v>
       </c>
@@ -10494,45 +10654,48 @@
       <c r="E65" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F65" s="1" t="str">
+      <c r="F65" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="G65" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-procedure</v>
       </c>
-      <c r="G65" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="H65" s="1" t="s">
         <v>62</v>
       </c>
       <c r="I65" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J65" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="J65" s="1" t="str">
-        <f t="shared" ref="J65:J66" si="28">B65&amp;"."&amp;C65</f>
+      <c r="K65" s="1" t="str">
+        <f t="shared" ref="K65:K66" si="28">B65&amp;"."&amp;C65</f>
         <v>Procedure.date</v>
       </c>
-      <c r="K65" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M65" s="1" t="s">
+      <c r="L65" s="1" t="s">
         <v>62</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q65" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O65" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="R65" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="X65" s="1" t="s">
+      <c r="Y65" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="AA65" s="12"/>
-      <c r="AB65" s="1" t="str">
+      <c r="AB65" s="12"/>
+      <c r="AC65" s="1" t="str">
         <f t="shared" si="27"/>
         <v>SearchParameter-us-core-procedure-date.html</v>
       </c>
     </row>
-    <row r="66" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="66" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A66" s="1">
         <v>62</v>
       </c>
@@ -10548,41 +10711,44 @@
       <c r="E66" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F66" s="1" t="str">
+      <c r="F66" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="G66" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-procedure</v>
       </c>
-      <c r="G66" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="H66" s="1" t="s">
         <v>62</v>
       </c>
       <c r="I66" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J66" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J66" s="1" t="str">
+      <c r="K66" s="1" t="str">
         <f t="shared" si="28"/>
         <v>Procedure.code</v>
       </c>
-      <c r="K66" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="L66" s="1" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y66" s="5"/>
+        <v>78</v>
+      </c>
+      <c r="N66" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="Z66" s="5"/>
-      <c r="AA66" s="12"/>
-      <c r="AB66" s="1" t="str">
+      <c r="AA66" s="5"/>
+      <c r="AB66" s="12"/>
+      <c r="AC66" s="1" t="str">
         <f t="shared" si="27"/>
         <v>SearchParameter-us-core-procedure-code.html</v>
       </c>
     </row>
-    <row r="67" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="67" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A67" s="1">
         <v>63</v>
       </c>
@@ -10598,44 +10764,47 @@
       <c r="E67" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F67" s="1" t="str">
-        <f t="shared" ref="F67:F94" si="29">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B67)</f>
+      <c r="F67" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="G67" s="1" t="str">
+        <f t="shared" ref="G67:G94" si="29">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B67)</f>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation</v>
       </c>
-      <c r="G67" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="H67" s="1" t="s">
         <v>62</v>
       </c>
       <c r="I67" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J67" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J67" s="1" t="str">
+      <c r="K67" s="1" t="str">
         <f t="shared" si="11"/>
         <v>Observation.status</v>
       </c>
-      <c r="K67" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="L67" s="1" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="X67" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N67" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y67" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="Y67" s="5"/>
       <c r="Z67" s="5"/>
-      <c r="AA67" s="12"/>
-      <c r="AB67" s="1" t="str">
+      <c r="AA67" s="5"/>
+      <c r="AB67" s="12"/>
+      <c r="AC67" s="1" t="str">
         <f t="shared" si="12"/>
         <v>SearchParameter-us-core-observation-status.html</v>
       </c>
     </row>
-    <row r="68" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="68" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A68" s="1">
         <v>64</v>
       </c>
@@ -10651,41 +10820,44 @@
       <c r="E68" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F68" s="1" t="str">
+      <c r="F68" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="G68" s="1" t="str">
         <f t="shared" si="29"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation</v>
       </c>
-      <c r="G68" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="H68" s="1" t="s">
         <v>62</v>
       </c>
       <c r="I68" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J68" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J68" s="1" t="str">
-        <f t="shared" ref="J68:J70" si="30">B68&amp;"."&amp;C68</f>
+      <c r="K68" s="1" t="str">
+        <f t="shared" ref="K68:K70" si="30">B68&amp;"."&amp;C68</f>
         <v>Observation.category</v>
       </c>
-      <c r="K68" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M68" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="X68" s="1" t="s">
+      <c r="L68" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N68" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y68" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y68" s="5"/>
       <c r="Z68" s="5"/>
-      <c r="AA68" s="12"/>
-      <c r="AB68" s="1" t="str">
+      <c r="AA68" s="5"/>
+      <c r="AB68" s="12"/>
+      <c r="AC68" s="1" t="str">
         <f t="shared" si="12"/>
         <v>SearchParameter-us-core-observation-category.html</v>
       </c>
     </row>
-    <row r="69" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="69" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A69" s="1">
         <v>65</v>
       </c>
@@ -10701,41 +10873,44 @@
       <c r="E69" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F69" s="1" t="str">
+      <c r="F69" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="G69" s="1" t="str">
         <f t="shared" si="29"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation</v>
       </c>
-      <c r="G69" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="H69" s="1" t="s">
         <v>62</v>
       </c>
       <c r="I69" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J69" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J69" s="1" t="str">
+      <c r="K69" s="1" t="str">
         <f t="shared" si="30"/>
         <v>Observation.code</v>
       </c>
-      <c r="K69" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="L69" s="1" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y69" s="5"/>
+        <v>78</v>
+      </c>
+      <c r="N69" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="Z69" s="5"/>
-      <c r="AA69" s="12"/>
-      <c r="AB69" s="1" t="str">
+      <c r="AA69" s="5"/>
+      <c r="AB69" s="12"/>
+      <c r="AC69" s="1" t="str">
         <f t="shared" si="12"/>
         <v>SearchParameter-us-core-observation-code.html</v>
       </c>
     </row>
-    <row r="70" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="70" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A70" s="1">
         <v>66</v>
       </c>
@@ -10751,45 +10926,48 @@
       <c r="E70" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F70" s="1" t="str">
+      <c r="F70" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="G70" s="1" t="str">
         <f t="shared" si="29"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation</v>
       </c>
-      <c r="G70" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="H70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="I70" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J70" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="J70" s="1" t="str">
+      <c r="K70" s="1" t="str">
         <f t="shared" si="30"/>
         <v>Observation.date</v>
       </c>
-      <c r="K70" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M70" s="1" t="s">
+      <c r="L70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q70" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O70" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="R70" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="X70" s="1" t="s">
+      <c r="Y70" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="AA70" s="12"/>
-      <c r="AB70" s="1" t="str">
+      <c r="AB70" s="12"/>
+      <c r="AC70" s="1" t="str">
         <f t="shared" si="12"/>
         <v>SearchParameter-us-core-observation-date.html</v>
       </c>
     </row>
-    <row r="71" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="71" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A71" s="1">
         <v>67</v>
       </c>
@@ -10805,50 +10983,53 @@
       <c r="E71" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F71" s="1" t="str">
+      <c r="F71" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="G71" s="1" t="str">
         <f t="shared" si="29"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation</v>
       </c>
-      <c r="G71" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="H71" s="1" t="s">
         <v>62</v>
       </c>
       <c r="I71" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J71" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="J71" s="1" t="str">
+      <c r="K71" s="1" t="str">
         <f>B71&amp;"."&amp;C71</f>
         <v>Observation.patient</v>
       </c>
-      <c r="K71" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M71" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="X71" s="1" t="s">
+      <c r="L71" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N71" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y71" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="Y71" s="1" t="str">
+      <c r="Z71" s="1" t="str">
         <f>"support searching for all "&amp;LOWER(B71)&amp;"s for a patient"</f>
         <v>support searching for all observations for a patient</v>
       </c>
-      <c r="Z71" s="5" t="str">
+      <c r="AA71" s="5" t="str">
         <f>"GET [base]/"&amp;B71&amp;"?patient=1137192"</f>
         <v>GET [base]/Observation?patient=1137192</v>
       </c>
-      <c r="AA71" s="12" t="str">
+      <c r="AB71" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B71&amp; " resources for the specified patient"</f>
         <v>Fetches a bundle of all Observation resources for the specified patient</v>
       </c>
-      <c r="AB71" s="1" t="str">
+      <c r="AC71" s="1" t="str">
         <f>"SearchParameter-us-core-"&amp;LOWER((B71)&amp;"-"&amp;C71&amp;".html")</f>
         <v>SearchParameter-us-core-observation-patient.html</v>
       </c>
     </row>
-    <row r="72" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="72" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A72" s="1">
         <v>68</v>
       </c>
@@ -10864,41 +11045,44 @@
       <c r="E72" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F72" s="1" t="str">
+      <c r="F72" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="G72" s="1" t="str">
         <f t="shared" si="29"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-careplan</v>
       </c>
-      <c r="G72" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="H72" s="1" t="s">
         <v>62</v>
       </c>
       <c r="I72" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J72" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J72" s="1" t="str">
-        <f t="shared" ref="J72:J74" si="31">B72&amp;"."&amp;C72</f>
+      <c r="K72" s="1" t="str">
+        <f t="shared" ref="K72:K74" si="31">B72&amp;"."&amp;C72</f>
         <v>CarePlan.category</v>
       </c>
-      <c r="K72" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M72" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="X72" s="1" t="s">
+      <c r="L72" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N72" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y72" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y72" s="5"/>
       <c r="Z72" s="5"/>
-      <c r="AA72" s="12"/>
-      <c r="AB72" s="1" t="str">
-        <f t="shared" ref="AB72:AB74" si="32">"SearchParameter-us-core-"&amp;LOWER((B72)&amp;"-"&amp;C72&amp;".html")</f>
+      <c r="AA72" s="5"/>
+      <c r="AB72" s="12"/>
+      <c r="AC72" s="1" t="str">
+        <f t="shared" ref="AC72:AC74" si="32">"SearchParameter-us-core-"&amp;LOWER((B72)&amp;"-"&amp;C72&amp;".html")</f>
         <v>SearchParameter-us-core-careplan-category.html</v>
       </c>
     </row>
-    <row r="73" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="73" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A73" s="1">
         <v>69</v>
       </c>
@@ -10914,38 +11098,41 @@
       <c r="E73" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F73" s="1" t="str">
+      <c r="F73" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="G73" s="1" t="str">
         <f t="shared" si="29"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!careplan</v>
       </c>
-      <c r="G73" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="H73" s="1" t="s">
         <v>62</v>
       </c>
       <c r="I73" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J73" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J73" s="1" t="str">
+      <c r="K73" s="1" t="str">
         <f t="shared" si="31"/>
         <v>!CarePlan.code</v>
       </c>
-      <c r="K73" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M73" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y73" s="5"/>
+      <c r="L73" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N73" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="Z73" s="5"/>
-      <c r="AA73" s="12"/>
-      <c r="AB73" s="1" t="str">
+      <c r="AA73" s="5"/>
+      <c r="AB73" s="12"/>
+      <c r="AC73" s="1" t="str">
         <f t="shared" si="32"/>
         <v>SearchParameter-us-core-!careplan-code.html</v>
       </c>
     </row>
-    <row r="74" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="74" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A74" s="1">
         <v>70</v>
       </c>
@@ -10961,45 +11148,48 @@
       <c r="E74" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F74" s="1" t="str">
+      <c r="F74" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="G74" s="1" t="str">
         <f t="shared" si="29"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-careplan</v>
       </c>
-      <c r="G74" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="H74" s="1" t="s">
         <v>62</v>
       </c>
       <c r="I74" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J74" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="J74" s="1" t="str">
+      <c r="K74" s="1" t="str">
         <f t="shared" si="31"/>
         <v>CarePlan.date</v>
       </c>
-      <c r="K74" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M74" s="1" t="s">
+      <c r="L74" s="1" t="s">
         <v>62</v>
       </c>
       <c r="N74" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q74" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O74" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="R74" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="X74" s="1" t="s">
+      <c r="Y74" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="AA74" s="12"/>
-      <c r="AB74" s="1" t="str">
+      <c r="AB74" s="12"/>
+      <c r="AC74" s="1" t="str">
         <f t="shared" si="32"/>
         <v>SearchParameter-us-core-careplan-date.html</v>
       </c>
     </row>
-    <row r="75" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="75" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A75" s="1">
         <v>71</v>
       </c>
@@ -11015,50 +11205,53 @@
       <c r="E75" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F75" s="1" t="str">
+      <c r="F75" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="G75" s="1" t="str">
         <f t="shared" si="29"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-careplan</v>
       </c>
-      <c r="G75" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="H75" s="1" t="s">
         <v>62</v>
       </c>
       <c r="I75" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J75" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="J75" s="1" t="str">
+      <c r="K75" s="1" t="str">
         <f>B75&amp;"."&amp;C75</f>
         <v>CarePlan.patient</v>
       </c>
-      <c r="K75" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M75" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="X75" s="1" t="s">
+      <c r="L75" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N75" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y75" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="Y75" s="1" t="str">
+      <c r="Z75" s="1" t="str">
         <f>"support searching for all "&amp;LOWER(B75)&amp;"s for a patient"</f>
         <v>support searching for all careplans for a patient</v>
       </c>
-      <c r="Z75" s="5" t="str">
+      <c r="AA75" s="5" t="str">
         <f>"GET [base]/"&amp;B75&amp;"?patient=1137192"</f>
         <v>GET [base]/CarePlan?patient=1137192</v>
       </c>
-      <c r="AA75" s="12" t="str">
+      <c r="AB75" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B75&amp; " resources for the specified patient"</f>
         <v>Fetches a bundle of all CarePlan resources for the specified patient</v>
       </c>
-      <c r="AB75" s="1" t="str">
+      <c r="AC75" s="1" t="str">
         <f>"SearchParameter-us-core-"&amp;LOWER((B75)&amp;"-"&amp;C75&amp;".html")</f>
         <v>SearchParameter-us-core-careplan-patient.html</v>
       </c>
     </row>
-    <row r="76" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="76" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A76" s="1">
         <v>72</v>
       </c>
@@ -11074,44 +11267,47 @@
       <c r="E76" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F76" s="1" t="str">
+      <c r="F76" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="G76" s="1" t="str">
         <f t="shared" si="29"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-careplan</v>
       </c>
-      <c r="G76" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="H76" s="1" t="s">
         <v>62</v>
       </c>
       <c r="I76" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J76" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J76" s="1" t="str">
-        <f t="shared" ref="J76" si="33">B76&amp;"."&amp;C76</f>
+      <c r="K76" s="1" t="str">
+        <f t="shared" ref="K76" si="33">B76&amp;"."&amp;C76</f>
         <v>CarePlan.status</v>
       </c>
-      <c r="K76" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="L76" s="1" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="M76" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="X76" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N76" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y76" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="Y76" s="5"/>
       <c r="Z76" s="5"/>
-      <c r="AA76" s="12"/>
-      <c r="AB76" s="1" t="str">
-        <f t="shared" ref="AB76" si="34">"SearchParameter-us-core-"&amp;LOWER((B76)&amp;"-"&amp;C76&amp;".html")</f>
+      <c r="AA76" s="5"/>
+      <c r="AB76" s="12"/>
+      <c r="AC76" s="1" t="str">
+        <f t="shared" ref="AC76" si="34">"SearchParameter-us-core-"&amp;LOWER((B76)&amp;"-"&amp;C76&amp;".html")</f>
         <v>SearchParameter-us-core-careplan-status.html</v>
       </c>
     </row>
-    <row r="77" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="77" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A77" s="1">
         <v>73</v>
       </c>
@@ -11127,50 +11323,53 @@
       <c r="E77" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F77" s="1" t="str">
+      <c r="F77" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="G77" s="1" t="str">
         <f t="shared" si="29"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-careteam</v>
       </c>
-      <c r="G77" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="H77" s="1" t="s">
         <v>62</v>
       </c>
       <c r="I77" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J77" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="J77" s="1" t="str">
+      <c r="K77" s="1" t="str">
         <f>B77&amp;"."&amp;C77</f>
         <v>CareTeam.patient</v>
       </c>
-      <c r="K77" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M77" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="X77" s="1" t="s">
+      <c r="L77" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N77" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y77" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="Y77" s="1" t="str">
+      <c r="Z77" s="1" t="str">
         <f>"support searching for all "&amp;LOWER(B77)&amp;"s for a patient"</f>
         <v>support searching for all careteams for a patient</v>
       </c>
-      <c r="Z77" s="5" t="str">
+      <c r="AA77" s="5" t="str">
         <f>"GET [base]/"&amp;B77&amp;"?patient=1137192"</f>
         <v>GET [base]/CareTeam?patient=1137192</v>
       </c>
-      <c r="AA77" s="12" t="str">
+      <c r="AB77" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B77&amp; " resources for the specified patient"</f>
         <v>Fetches a bundle of all CareTeam resources for the specified patient</v>
       </c>
-      <c r="AB77" s="1" t="str">
+      <c r="AC77" s="1" t="str">
         <f>"SearchParameter-us-core-"&amp;LOWER((B77)&amp;"-"&amp;C77&amp;".html")</f>
         <v>SearchParameter-us-core-careteam-patient.html</v>
       </c>
     </row>
-    <row r="78" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="78" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A78" s="1">
         <v>74</v>
       </c>
@@ -11186,44 +11385,47 @@
       <c r="E78" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F78" s="1" t="str">
+      <c r="F78" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="G78" s="1" t="str">
         <f t="shared" si="29"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-careteam</v>
       </c>
-      <c r="G78" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="H78" s="1" t="s">
         <v>62</v>
       </c>
       <c r="I78" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J78" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J78" s="1" t="str">
-        <f t="shared" ref="J78" si="35">B78&amp;"."&amp;C78</f>
+      <c r="K78" s="1" t="str">
+        <f t="shared" ref="K78" si="35">B78&amp;"."&amp;C78</f>
         <v>CareTeam.status</v>
       </c>
-      <c r="K78" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="L78" s="1" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="X78" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N78" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y78" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="Y78" s="5"/>
       <c r="Z78" s="5"/>
-      <c r="AA78" s="12"/>
-      <c r="AB78" s="1" t="str">
-        <f t="shared" ref="AB78" si="36">"SearchParameter-us-core-"&amp;LOWER((B78)&amp;"-"&amp;C78&amp;".html")</f>
+      <c r="AA78" s="5"/>
+      <c r="AB78" s="12"/>
+      <c r="AC78" s="1" t="str">
+        <f t="shared" ref="AC78" si="36">"SearchParameter-us-core-"&amp;LOWER((B78)&amp;"-"&amp;C78&amp;".html")</f>
         <v>SearchParameter-us-core-careteam-status.html</v>
       </c>
     </row>
-    <row r="79" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="79" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A79" s="1">
         <v>75</v>
       </c>
@@ -11239,50 +11441,53 @@
       <c r="E79" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F79" s="1" t="str">
+      <c r="F79" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="G79" s="1" t="str">
         <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-implantable-"&amp;LOWER(B79)</f>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-implantable-device</v>
       </c>
-      <c r="G79" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="H79" s="1" t="s">
         <v>62</v>
       </c>
       <c r="I79" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J79" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="J79" s="1" t="str">
-        <f t="shared" ref="J79:J94" si="37">B79&amp;"."&amp;C79</f>
+      <c r="K79" s="1" t="str">
+        <f t="shared" ref="K79:K94" si="37">B79&amp;"."&amp;C79</f>
         <v>Device.patient</v>
       </c>
-      <c r="K79" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M79" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="X79" s="1" t="s">
+      <c r="L79" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N79" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y79" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="Y79" s="1" t="str">
+      <c r="Z79" s="1" t="str">
         <f>"support searching for all "&amp;LOWER(B79)&amp;"s for a patient, including implantable devices"</f>
         <v>support searching for all devices for a patient, including implantable devices</v>
       </c>
-      <c r="Z79" s="5" t="str">
+      <c r="AA79" s="5" t="str">
         <f>"GET [base]/"&amp;B79&amp;"?patient=1137192"</f>
         <v>GET [base]/Device?patient=1137192</v>
       </c>
-      <c r="AA79" s="12" t="str">
+      <c r="AB79" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B79&amp; " resources for the specified patient"</f>
         <v>Fetches a bundle of all Device resources for the specified patient</v>
       </c>
-      <c r="AB79" s="1" t="str">
-        <f t="shared" ref="AB79:AB90" si="38">"SearchParameter-us-core-"&amp;LOWER((B79)&amp;"-"&amp;C79&amp;".html")</f>
+      <c r="AC79" s="1" t="str">
+        <f t="shared" ref="AC79:AC90" si="38">"SearchParameter-us-core-"&amp;LOWER((B79)&amp;"-"&amp;C79&amp;".html")</f>
         <v>SearchParameter-us-core-device-patient.html</v>
       </c>
     </row>
-    <row r="80" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="80" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A80" s="1">
         <v>76</v>
       </c>
@@ -11298,37 +11503,40 @@
       <c r="E80" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F80" s="1" t="str">
+      <c r="F80" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="G80" s="1" t="str">
         <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-implantable-"&amp;LOWER(B80)</f>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-implantable-device</v>
       </c>
-      <c r="G80" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="H80" s="1" t="s">
         <v>62</v>
       </c>
       <c r="I80" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J80" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J80" s="1" t="str">
-        <f t="shared" ref="J80" si="39">B80&amp;"."&amp;C80</f>
+      <c r="K80" s="1" t="str">
+        <f t="shared" ref="K80" si="39">B80&amp;"."&amp;C80</f>
         <v>Device.type</v>
       </c>
-      <c r="K80" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M80" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z80" s="5"/>
-      <c r="AA80" s="12"/>
-      <c r="AB80" s="1" t="str">
+      <c r="L80" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N80" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA80" s="5"/>
+      <c r="AB80" s="12"/>
+      <c r="AC80" s="1" t="str">
         <f t="shared" si="38"/>
         <v>SearchParameter-us-core-device-type.html</v>
       </c>
     </row>
-    <row r="81" spans="1:28" ht="18.95" customHeight="1">
+    <row r="81" spans="1:29" ht="18.95" customHeight="1">
       <c r="A81" s="1">
         <v>77</v>
       </c>
@@ -11344,46 +11552,46 @@
       <c r="E81" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F81" s="1" t="str">
+      <c r="G81" s="1" t="str">
         <f t="shared" si="29"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-location</v>
       </c>
-      <c r="G81" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="H81" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I81" t="s">
+      <c r="I81" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J81" t="s">
         <v>71</v>
       </c>
-      <c r="J81" s="1" t="str">
+      <c r="K81" s="1" t="str">
         <f t="shared" si="37"/>
         <v>Location.name</v>
       </c>
-      <c r="K81" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M81" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y81" s="1" t="s">
+      <c r="L81" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N81" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z81" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="Z81" s="5" t="str">
+      <c r="AA81" s="5" t="str">
         <f>"GET [base]/"&amp;B81&amp;"?name=Health"</f>
         <v>GET [base]/Location?name=Health</v>
       </c>
-      <c r="AA81" s="12" t="str">
+      <c r="AB81" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B81&amp; " resources that match the name"</f>
         <v>Fetches a bundle of all Location resources that match the name</v>
       </c>
-      <c r="AB81" t="str">
+      <c r="AC81" t="str">
         <f t="shared" si="38"/>
         <v>SearchParameter-us-core-location-name.html</v>
       </c>
     </row>
-    <row r="82" spans="1:28" ht="18.95" customHeight="1">
+    <row r="82" spans="1:29" ht="18.95" customHeight="1">
       <c r="A82" s="1">
         <v>78</v>
       </c>
@@ -11399,46 +11607,46 @@
       <c r="E82" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F82" s="1" t="str">
+      <c r="G82" s="1" t="str">
         <f t="shared" si="29"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-location</v>
       </c>
-      <c r="G82" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="H82" s="1" t="s">
         <v>62</v>
       </c>
       <c r="I82" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J82" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="J82" s="1" t="str">
+      <c r="K82" s="1" t="str">
         <f t="shared" si="37"/>
         <v>Location.address</v>
       </c>
-      <c r="K82" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M82" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y82" s="1" t="s">
+      <c r="L82" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N82" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z82" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="Z82" s="5" t="str">
+      <c r="AA82" s="5" t="str">
         <f>"GET [base]/"&amp;B82&amp;"?address=Arbor"</f>
         <v>GET [base]/Location?address=Arbor</v>
       </c>
-      <c r="AA82" s="12" t="str">
+      <c r="AB82" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B82&amp; " resources that match the address string"</f>
         <v>Fetches a bundle of all Location resources that match the address string</v>
       </c>
-      <c r="AB82" t="str">
+      <c r="AC82" t="str">
         <f t="shared" si="38"/>
         <v>SearchParameter-us-core-location-address.html</v>
       </c>
     </row>
-    <row r="83" spans="1:28" ht="18.95" customHeight="1">
+    <row r="83" spans="1:29" ht="18.95" customHeight="1">
       <c r="A83" s="1">
         <v>79</v>
       </c>
@@ -11454,46 +11662,46 @@
       <c r="E83" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F83" s="1" t="str">
+      <c r="G83" s="1" t="str">
         <f t="shared" si="29"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-location</v>
       </c>
-      <c r="G83" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="H83" s="1" t="s">
         <v>62</v>
       </c>
       <c r="I83" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J83" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="J83" s="1" t="str">
+      <c r="K83" s="1" t="str">
         <f t="shared" si="37"/>
         <v>Location.address-city</v>
       </c>
-      <c r="K83" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M83" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y83" s="1" t="s">
+      <c r="L83" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N83" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z83" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="Z83" s="5" t="str">
+      <c r="AA83" s="5" t="str">
         <f>"GET [base]/"&amp;B83&amp;"?address-city=Ann Arbor"</f>
         <v>GET [base]/Location?address-city=Ann Arbor</v>
       </c>
-      <c r="AA83" s="12" t="str">
+      <c r="AB83" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B83&amp; " resources for the city"</f>
         <v>Fetches a bundle of all Location resources for the city</v>
       </c>
-      <c r="AB83" t="str">
+      <c r="AC83" t="str">
         <f t="shared" si="38"/>
         <v>SearchParameter-us-core-location-address-city.html</v>
       </c>
     </row>
-    <row r="84" spans="1:28" ht="18.95" customHeight="1">
+    <row r="84" spans="1:29" ht="18.95" customHeight="1">
       <c r="A84" s="1">
         <v>80</v>
       </c>
@@ -11509,45 +11717,45 @@
       <c r="E84" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F84" s="1" t="str">
+      <c r="G84" s="1" t="str">
         <f t="shared" si="29"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-location</v>
       </c>
-      <c r="G84" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="H84" s="1" t="s">
         <v>62</v>
       </c>
       <c r="I84" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J84" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="J84" s="1" t="str">
+      <c r="K84" s="1" t="str">
         <f t="shared" si="37"/>
         <v>Location.address-state</v>
       </c>
-      <c r="K84" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M84" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y84" s="1" t="s">
+      <c r="L84" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N84" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z84" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Z84" s="5" t="s">
+      <c r="AA84" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="AA84" s="12" t="str">
+      <c r="AB84" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B84&amp; " resources for the state"</f>
         <v>Fetches a bundle of all Location resources for the state</v>
       </c>
-      <c r="AB84" t="str">
+      <c r="AC84" t="str">
         <f t="shared" si="38"/>
         <v>SearchParameter-us-core-location-address-state.html</v>
       </c>
     </row>
-    <row r="85" spans="1:28" ht="18.95" customHeight="1">
+    <row r="85" spans="1:29" ht="18.95" customHeight="1">
       <c r="A85" s="1">
         <v>81</v>
       </c>
@@ -11563,46 +11771,46 @@
       <c r="E85" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F85" s="1" t="str">
+      <c r="G85" s="1" t="str">
         <f t="shared" si="29"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-location</v>
       </c>
-      <c r="G85" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="H85" s="1" t="s">
         <v>62</v>
       </c>
       <c r="I85" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J85" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="J85" s="1" t="str">
+      <c r="K85" s="1" t="str">
         <f t="shared" si="37"/>
         <v>Location.address-postalcode</v>
       </c>
-      <c r="K85" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M85" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y85" s="1" t="s">
+      <c r="L85" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N85" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z85" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="Z85" s="5" t="str">
+      <c r="AA85" s="5" t="str">
         <f>"GET [base]/"&amp;B85&amp;"?address-postalcode=48104"</f>
         <v>GET [base]/Location?address-postalcode=48104</v>
       </c>
-      <c r="AA85" s="12" t="str">
+      <c r="AB85" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B85&amp; " resources for the ZIP code"</f>
         <v>Fetches a bundle of all Location resources for the ZIP code</v>
       </c>
-      <c r="AB85" t="str">
+      <c r="AC85" t="str">
         <f t="shared" si="38"/>
         <v>SearchParameter-us-core-location-address-postalcode.html</v>
       </c>
     </row>
-    <row r="86" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="86" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A86" s="1">
         <v>82</v>
       </c>
@@ -11618,46 +11826,46 @@
       <c r="E86" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F86" s="1" t="str">
+      <c r="G86" s="1" t="str">
         <f t="shared" si="29"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization</v>
       </c>
-      <c r="G86" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="H86" s="1" t="s">
         <v>62</v>
       </c>
       <c r="I86" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J86" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="J86" s="1" t="str">
+      <c r="K86" s="1" t="str">
         <f t="shared" si="37"/>
         <v>Organization.name</v>
       </c>
-      <c r="K86" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M86" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y86" s="1" t="s">
+      <c r="L86" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N86" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z86" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="Z86" s="5" t="str">
+      <c r="AA86" s="5" t="str">
         <f>"GET [base]/"&amp;B86&amp;"?name=Health"</f>
         <v>GET [base]/Organization?name=Health</v>
       </c>
-      <c r="AA86" s="12" t="str">
+      <c r="AB86" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B86&amp; " resources that match the name"</f>
         <v>Fetches a bundle of all Organization resources that match the name</v>
       </c>
-      <c r="AB86" s="1" t="str">
+      <c r="AC86" s="1" t="str">
         <f t="shared" si="38"/>
         <v>SearchParameter-us-core-organization-name.html</v>
       </c>
     </row>
-    <row r="87" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="87" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A87" s="1">
         <v>83</v>
       </c>
@@ -11673,46 +11881,46 @@
       <c r="E87" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F87" s="1" t="str">
+      <c r="G87" s="1" t="str">
         <f t="shared" si="29"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization</v>
       </c>
-      <c r="G87" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="H87" s="1" t="s">
         <v>62</v>
       </c>
       <c r="I87" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J87" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="J87" s="1" t="str">
+      <c r="K87" s="1" t="str">
         <f t="shared" si="37"/>
         <v>Organization.address</v>
       </c>
-      <c r="K87" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M87" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y87" s="1" t="s">
+      <c r="L87" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N87" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z87" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="Z87" s="5" t="str">
+      <c r="AA87" s="5" t="str">
         <f>"GET [base]/"&amp;B87&amp;"?address=Arbor"</f>
         <v>GET [base]/Organization?address=Arbor</v>
       </c>
-      <c r="AA87" s="12" t="str">
+      <c r="AB87" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B87&amp; " resources that match the address string"</f>
         <v>Fetches a bundle of all Organization resources that match the address string</v>
       </c>
-      <c r="AB87" s="1" t="str">
+      <c r="AC87" s="1" t="str">
         <f t="shared" si="38"/>
         <v>SearchParameter-us-core-organization-address.html</v>
       </c>
     </row>
-    <row r="88" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="88" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A88" s="1">
         <v>84</v>
       </c>
@@ -11728,46 +11936,46 @@
       <c r="E88" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F88" s="1" t="str">
+      <c r="G88" s="1" t="str">
         <f t="shared" si="29"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!organization</v>
       </c>
-      <c r="G88" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="H88" s="1" t="s">
         <v>62</v>
       </c>
       <c r="I88" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J88" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="J88" s="1" t="str">
+      <c r="K88" s="1" t="str">
         <f t="shared" si="37"/>
         <v>!Organization.address-city</v>
       </c>
-      <c r="K88" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M88" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y88" s="1" t="s">
+      <c r="L88" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N88" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z88" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="Z88" s="5" t="str">
+      <c r="AA88" s="5" t="str">
         <f>"GET [base]/"&amp;B88&amp;"?address-city=Ann Arbor"</f>
         <v>GET [base]/!Organization?address-city=Ann Arbor</v>
       </c>
-      <c r="AA88" s="12" t="str">
+      <c r="AB88" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B88&amp; " resources for the city"</f>
         <v>Fetches a bundle of all !Organization resources for the city</v>
       </c>
-      <c r="AB88" s="1" t="str">
+      <c r="AC88" s="1" t="str">
         <f t="shared" si="38"/>
         <v>SearchParameter-us-core-!organization-address-city.html</v>
       </c>
     </row>
-    <row r="89" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="89" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A89" s="1">
         <v>85</v>
       </c>
@@ -11783,46 +11991,46 @@
       <c r="E89" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F89" s="1" t="str">
+      <c r="G89" s="1" t="str">
         <f t="shared" si="29"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!organization</v>
       </c>
-      <c r="G89" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="H89" s="1" t="s">
         <v>62</v>
       </c>
       <c r="I89" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J89" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="J89" s="1" t="str">
+      <c r="K89" s="1" t="str">
         <f t="shared" si="37"/>
         <v>!Organization.adress-state</v>
       </c>
-      <c r="K89" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M89" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y89" s="1" t="s">
+      <c r="L89" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N89" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z89" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="Z89" s="5" t="str">
+      <c r="AA89" s="5" t="str">
         <f>"GET [base]/"&amp;B89&amp;"?address-state=MI"</f>
         <v>GET [base]/!Organization?address-state=MI</v>
       </c>
-      <c r="AA89" s="12" t="str">
+      <c r="AB89" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B89&amp; " resources for the state"</f>
         <v>Fetches a bundle of all !Organization resources for the state</v>
       </c>
-      <c r="AB89" s="1" t="str">
+      <c r="AC89" s="1" t="str">
         <f t="shared" si="38"/>
         <v>SearchParameter-us-core-!organization-adress-state.html</v>
       </c>
     </row>
-    <row r="90" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="90" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A90" s="1">
         <v>86</v>
       </c>
@@ -11838,46 +12046,46 @@
       <c r="E90" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F90" s="1" t="str">
+      <c r="G90" s="1" t="str">
         <f t="shared" si="29"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!organization</v>
       </c>
-      <c r="G90" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="H90" s="1" t="s">
         <v>62</v>
       </c>
       <c r="I90" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J90" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="J90" s="1" t="str">
+      <c r="K90" s="1" t="str">
         <f t="shared" si="37"/>
         <v>!Organization.address-postalcode</v>
       </c>
-      <c r="K90" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M90" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y90" s="1" t="s">
+      <c r="L90" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N90" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z90" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="Z90" s="5" t="str">
+      <c r="AA90" s="5" t="str">
         <f>"GET [base]/"&amp;B90&amp;"?address-postalcode=48104"</f>
         <v>GET [base]/!Organization?address-postalcode=48104</v>
       </c>
-      <c r="AA90" s="12" t="str">
+      <c r="AB90" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B90&amp; " resources for the ZIP code"</f>
         <v>Fetches a bundle of all !Organization resources for the ZIP code</v>
       </c>
-      <c r="AB90" s="1" t="str">
+      <c r="AC90" s="1" t="str">
         <f t="shared" si="38"/>
         <v>SearchParameter-us-core-!organization-address-postalcode.html</v>
       </c>
     </row>
-    <row r="91" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="91" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A91" s="1">
         <v>87</v>
       </c>
@@ -11893,49 +12101,49 @@
       <c r="E91" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F91" s="1" t="str">
+      <c r="G91" s="1" t="str">
         <f t="shared" si="29"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner</v>
       </c>
-      <c r="G91" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="H91" s="1" t="s">
         <v>62</v>
       </c>
       <c r="I91" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J91" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="J91" s="1" t="str">
+      <c r="K91" s="1" t="str">
         <f t="shared" si="37"/>
         <v>Practitioner.name</v>
       </c>
-      <c r="K91" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M91" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="X91" s="1" t="s">
+      <c r="L91" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N91" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y91" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="Y91" s="5" t="s">
+      <c r="Z91" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="Z91" s="5" t="str">
+      <c r="AA91" s="5" t="str">
         <f>"GET [base]/"&amp;B91&amp;"?name=Smith"</f>
         <v>GET [base]/Practitioner?name=Smith</v>
       </c>
-      <c r="AA91" s="12" t="str">
+      <c r="AB91" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B91&amp;" resources matching the name"</f>
         <v>Fetches a bundle of all Practitioner resources matching the name</v>
       </c>
-      <c r="AB91" s="1" t="str">
-        <f t="shared" ref="AB91:AB92" si="40">"SearchParameter-us-core-"&amp;LOWER((B91)&amp;"-"&amp;SUBSTITUTE(C91,"_","")&amp;".html")</f>
+      <c r="AC91" s="1" t="str">
+        <f t="shared" ref="AC91:AC92" si="40">"SearchParameter-us-core-"&amp;LOWER((B91)&amp;"-"&amp;SUBSTITUTE(C91,"_","")&amp;".html")</f>
         <v>SearchParameter-us-core-practitioner-name.html</v>
       </c>
     </row>
-    <row r="92" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="92" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A92" s="1">
         <v>88</v>
       </c>
@@ -11951,46 +12159,49 @@
       <c r="E92" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F92" s="1" t="str">
+      <c r="F92" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="G92" s="1" t="str">
         <f t="shared" si="29"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner</v>
       </c>
-      <c r="G92" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="H92" s="1" t="s">
         <v>62</v>
       </c>
       <c r="I92" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J92" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J92" s="1" t="str">
+      <c r="K92" s="1" t="str">
         <f t="shared" si="37"/>
         <v>Practitioner.identifier</v>
       </c>
-      <c r="K92" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M92" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y92" s="5" t="s">
+      <c r="L92" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N92" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z92" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="Z92" s="5" t="str">
+      <c r="AA92" s="5" t="str">
         <f>"GET [base]/"&amp;B92&amp;"?dentifier=http://hl7.org/fhir/sid/us-npi\|97860456"</f>
         <v>GET [base]/Practitioner?dentifier=http://hl7.org/fhir/sid/us-npi\|97860456</v>
       </c>
-      <c r="AA92" s="12" t="str">
+      <c r="AB92" s="12" t="str">
         <f>"Fetches a bundle containing any "&amp;B92&amp;" resources matching the identifier"</f>
         <v>Fetches a bundle containing any Practitioner resources matching the identifier</v>
       </c>
-      <c r="AB92" s="1" t="str">
+      <c r="AC92" s="1" t="str">
         <f t="shared" si="40"/>
         <v>SearchParameter-us-core-practitioner-identifier.html</v>
       </c>
     </row>
-    <row r="93" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="93" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A93" s="1">
         <v>89</v>
       </c>
@@ -12006,49 +12217,52 @@
       <c r="E93" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F93" s="1" t="str">
+      <c r="F93" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="G93" s="1" t="str">
         <f t="shared" si="29"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitionerrole</v>
       </c>
-      <c r="G93" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="H93" s="1" t="s">
         <v>62</v>
       </c>
       <c r="I93" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J93" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J93" s="1" t="str">
+      <c r="K93" s="1" t="str">
         <f t="shared" si="37"/>
         <v>PractitionerRole.specialty</v>
       </c>
-      <c r="K93" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M93" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="V93" s="1" t="s">
+      <c r="L93" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N93" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="W93" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="Y93" s="5" t="s">
+      <c r="Z93" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="Z93" s="5" t="str">
+      <c r="AA93" s="5" t="str">
         <f>"GET [base]/"&amp;B93&amp;"?specialty=http://nucc.org/provider-taxonomy\|208D0000X"</f>
         <v>GET [base]/PractitionerRole?specialty=http://nucc.org/provider-taxonomy\|208D0000X</v>
       </c>
-      <c r="AA93" s="12" t="str">
+      <c r="AB93" s="12" t="str">
         <f>"Fetches a bundle containing  "&amp;B93&amp;" resources matching the specialty"</f>
         <v>Fetches a bundle containing  PractitionerRole resources matching the specialty</v>
       </c>
-      <c r="AB93" s="1" t="str">
-        <f t="shared" ref="AB93" si="41">"SearchParameter-us-core-"&amp;LOWER((B93)&amp;"-"&amp;SUBSTITUTE(C93,"_","")&amp;".html")</f>
+      <c r="AC93" s="1" t="str">
+        <f t="shared" ref="AC93" si="41">"SearchParameter-us-core-"&amp;LOWER((B93)&amp;"-"&amp;SUBSTITUTE(C93,"_","")&amp;".html")</f>
         <v>SearchParameter-us-core-practitionerrole-specialty.html</v>
       </c>
     </row>
-    <row r="94" spans="1:28" ht="18.95" customHeight="1">
+    <row r="94" spans="1:29" ht="18.95" customHeight="1">
       <c r="A94" s="1">
         <v>90</v>
       </c>
@@ -12064,54 +12278,57 @@
       <c r="E94" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F94" s="1" t="str">
+      <c r="F94" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="G94" s="1" t="str">
         <f t="shared" si="29"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitionerrole</v>
       </c>
-      <c r="G94" t="s">
-        <v>62</v>
-      </c>
       <c r="H94" t="s">
         <v>62</v>
       </c>
       <c r="I94" t="s">
+        <v>62</v>
+      </c>
+      <c r="J94" t="s">
         <v>100</v>
       </c>
-      <c r="J94" s="1" t="str">
+      <c r="K94" s="1" t="str">
         <f t="shared" si="37"/>
         <v>PractitionerRole.practitioner</v>
       </c>
-      <c r="K94" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M94" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="S94" s="1" t="s">
+      <c r="L94" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N94" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="T94" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="V94" s="1" t="s">
+      <c r="W94" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="Y94" s="5" t="s">
+      <c r="Z94" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="Z94" s="5" t="str">
+      <c r="AA94" s="5" t="str">
         <f>_xlfn.CONCAT("GET [base]/",B94,"?practitioner.identifier=http://hl7.org/fhir/sid/us-npi\|97860456&amp;_include=PractitionerRole:practitioner","&amp;_include=PractitionerRole?endpoint~GET [base]/PractitionerRole?practitioner.name=Henry&amp;_include=PractitionerRole:practitioner&amp;_include=PractitionerRole?endpoint")</f>
         <v>GET [base]/PractitionerRole?practitioner.identifier=http://hl7.org/fhir/sid/us-npi\|97860456&amp;_include=PractitionerRole:practitioner&amp;_include=PractitionerRole?endpoint~GET [base]/PractitionerRole?practitioner.name=Henry&amp;_include=PractitionerRole:practitioner&amp;_include=PractitionerRole?endpoint</v>
       </c>
-      <c r="AA94" s="12" t="str">
+      <c r="AB94" s="12" t="str">
         <f>"Fetches a bundle containing  "&amp;B94&amp;" resources matching the chained parameter practitioner.name or practitioner.identifier. SHOULD support the _include for PractionerRole.practitioner and PractitionerRole.endpoint."</f>
         <v>Fetches a bundle containing  PractitionerRole resources matching the chained parameter practitioner.name or practitioner.identifier. SHOULD support the _include for PractionerRole.practitioner and PractitionerRole.endpoint.</v>
       </c>
-      <c r="AB94" t="str">
+      <c r="AC94" t="str">
         <f>"SearchParameter-us-core-"&amp;LOWER((B94)&amp;"-"&amp;SUBSTITUTE(C94,"_","")&amp;".html")</f>
         <v>SearchParameter-us-core-practitionerrole-practitioner.html</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AB94" xr:uid="{1CF5B17E-E72E-48B2-A597-9C21C12723F0}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:AA34">
+  <autoFilter ref="A1:AC94" xr:uid="{1CF5B17E-E72E-48B2-A597-9C21C12723F0}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:AB34">
     <sortCondition ref="B1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/input/resources_spreadsheets/uscore-server.xlsx
+++ b/input/resources_spreadsheets/uscore-server.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\US-Core-R4\input\resources_spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1DD89C9-2F60-4DF5-A2F7-9B2AC02DFF94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13922B3F-CD65-4062-A4FC-FBA734BC15EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5535" yWindow="12465" windowWidth="38355" windowHeight="15795" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1935" yWindow="2505" windowWidth="57210" windowHeight="15795" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <sheet name="sp_combos" sheetId="8" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">sp_combos!$B$1:$B$77</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">sp_combos!$A$1:$J$84</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">sps!$A$1:$AC$94</definedName>
   </definedNames>
   <calcPr calcId="191029" refMode="R1C1"/>
@@ -145,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2090" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2090" uniqueCount="562">
   <si>
     <t>Element</t>
   </si>
@@ -672,9 +672,6 @@
     <t>GET [base]/Immunization?patient=1137192&amp;status=completed</t>
   </si>
   <si>
-    <t>GET [base]/Immunization?patient=1137192&amp;date=ge2019-01-14</t>
-  </si>
-  <si>
     <t>patient,date</t>
   </si>
   <si>
@@ -777,9 +774,6 @@
     <t>GET [base]/DiagnosticReport?patient=f201&amp;category=http://terminology.hl7.org/CodeSystem/v2-0074\|LAB</t>
   </si>
   <si>
-    <t>GET [base]/DiagnosticReport?patient=f201&amp;category=http://terminology.hl7.org/CodeSystem/v2-0074\|LAB&amp;date=ge2010-01-14</t>
-  </si>
-  <si>
     <t>GET [base]/DiagnosticReport?patient=1032702&amp;code=http://loinc.org\|24323-8</t>
   </si>
   <si>
@@ -798,9 +792,6 @@
     <t>GET [base]/DiagnosticReport?patient=f201&amp;category=http://loinc.org\|LP29684-5</t>
   </si>
   <si>
-    <t>GET [base]/DiagnosticReport?patient=f201&amp;category=http://loinc.org\|LP29684-5&amp;date=ge2010-01-14</t>
-  </si>
-  <si>
     <t>GET [base]/Procedure?patient=1137192&amp;status=completed</t>
   </si>
   <si>
@@ -855,15 +846,9 @@
     <t>support searching for reports by code and date</t>
   </si>
   <si>
-    <t>GET [base]/DiagnosticReport?patient=f201&amp;code=http://loinc.org\|24323-8&amp;date=ge2019-01-14</t>
-  </si>
-  <si>
     <t>support searching for all laboratory results</t>
   </si>
   <si>
-    <t>GET [base]Observation?patient=555580&amp;code=http://loinc.org\|2339-0&amp;date=ge2019</t>
-  </si>
-  <si>
     <t>support searching for all laboratory reports by code  (for example, search for all metabolic panel reports for a patient, or search for all cbcs, metabolic panels, and urinalysis panels for a patient)</t>
   </si>
   <si>
@@ -882,9 +867,6 @@
     <t xml:space="preserve">support searching for procedures for a patient by code and date </t>
   </si>
   <si>
-    <t>GET [base]/Procedure?patient=1137192&amp;date=ge2019-01-14&amp;code=http://snomed.info/sct\|35637008</t>
-  </si>
-  <si>
     <t>effective</t>
   </si>
   <si>
@@ -1059,9 +1041,6 @@
     <t>GET [base]/Observation?patient=1186747&amp;code=http://loinc.org\|8867-4,http://loinc.org\|9279-1,http://loinc.org\|85354-9</t>
   </si>
   <si>
-    <t>GET [base]/Observation?patient=1186747&amp;code=http://loinc.org\|8867-4,http://loinc.org\|9279-1,http://loinc.org\|85354-9&amp;date=ge2019</t>
-  </si>
-  <si>
     <t>support searching for all vital sign observations by date (for example, find all the vital sign observations for 2019)</t>
   </si>
   <si>
@@ -1101,9 +1080,6 @@
     <t>support searching for all clinical notes for a given patient</t>
   </si>
   <si>
-    <t>GET [base]/DocumentReference?patient=1235541&amp;category=http://hl7.org/fhir/us/core/CodeSystem/us-core-documentreference-category\|clinical-note&amp;date=ge2019</t>
-  </si>
-  <si>
     <t>support searching for all clinical notes for a given patient by date (for example, since 2019)</t>
   </si>
   <si>
@@ -1140,9 +1116,6 @@
     <t>GET [base]/Encounter?patient=example1&amp;class= http://terminology.hl7.org/CodeSystem/v3-ActCode code\|AMB</t>
   </si>
   <si>
-    <t>GET [base]/Encounter?patient=example1&amp;date=ge2019</t>
-  </si>
-  <si>
     <t>GET [base]/Encounter?patient=1137192&amp;type=http://www.ama-assn.org/go/cpt code\|99201</t>
   </si>
   <si>
@@ -1179,9 +1152,6 @@
     <t>should_include</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-vitalsigns</t>
-  </si>
-  <si>
     <t>!Observation</t>
   </si>
   <si>
@@ -1407,9 +1377,6 @@
     <t>support searching for a specific device type for a patient (for example, implantable devices)</t>
   </si>
   <si>
-    <t>GET [base]/DocumentReference?patient=2169591&amp;type=http://loinc.org \|34133-9&amp;period=ge2019</t>
-  </si>
-  <si>
     <t>GET [base]/DocumentReference?patient=1316024&amp;type=http://loinc.org\|18842-5</t>
   </si>
   <si>
@@ -1480,12 +1447,6 @@
   </si>
   <si>
     <t>GET [base]/Goal?patient=1137192&amp;target-date=ge2015-01-14&amp;target-date=le2019-01-14</t>
-  </si>
-  <si>
-    <t>GET [base]/CarePlan?patient=1137192&amp;category=http://hl7.org/fhir/us/core/CodeSystem/careplan-category\|assess-plan&amp;date=ge2019~GET [base]/CarePlan?patient=1137192&amp;category=http://hl7.org/fhir/us/core/CodeSystem/careplan-category\|assess-plan&amp;date=ge2018&amp;date=le2018</t>
-  </si>
-  <si>
-    <t>GET [base]/CarePlan?patient=1137192&amp;category=http://hl7.org/fhir/us/core/CodeSystem/careplan-category\|assess-plan&amp;status=active&amp;date=ge2019~GET [base]/CarePlan?patient=1137192&amp;category=http://hl7.org/fhir/us/core/CodeSystem/careplan-category\|assess-plan&amp;status=active&amp;date=ge2018&amp;date=le2019</t>
   </si>
   <si>
     <t>The DocumentReference.type binding SHALL support at a minimum the [5 Common Clinical Notes](ValueSet-us-core-clinical-note-type.html) and may extend to the full US Core DocumentReference Type Value Set</t>
@@ -1514,9 +1475,6 @@
     <t>GET [base]/Observation?patient=1134281&amp;category=http://terminology.hl7.org/CodeSystem/observation-category\|laboratory</t>
   </si>
   <si>
-    <t>GET [base]Observation?patient=555580&amp;category=http://terminology.hl7.org/CodeSystem/observation-category\|laboratory&amp;date=ge2018-03-14</t>
-  </si>
-  <si>
     <t>category=http://terminology.hl7.org/CodeSystem/observation-category|vital-signs</t>
   </si>
   <si>
@@ -1526,9 +1484,6 @@
     <t>GET [base]/Observation?patient=1134281&amp;category=http://terminology.hl7.org/CodeSystem/observation-category\|vital-signs</t>
   </si>
   <si>
-    <t>GET [base]/Observation?patient=1134281&amp;category=http://terminology.hl7.org/CodeSystem/observation-category\|vital-signs&amp;date=ge2019</t>
-  </si>
-  <si>
     <t>doc_DiagnosticReport</t>
   </si>
   <si>
@@ -1638,9 +1593,6 @@
   </si>
   <si>
     <t>GET [base]/MedicationRequest?patient=1137192&amp;intent=order,plan&amp;status=active&amp;encounter=Encounter/123~GET [base]/MedicationRequest?patient=1137192&amp;intent=order,plan&amp;status=active&amp;&amp;encounter=Encounter/123&amp;_include=MedicationRequest:medication</t>
-  </si>
-  <si>
-    <t>GET [base]/MedicationRequest?patient=1137192&amp;intent=order,plan&amp;authoredon=ge2019~GET [base]/MedicationRequest?patient=1137192&amp;intent=order,plan&amp;authoredon=ge2019&amp;_include=MedicationRequest:medication</t>
   </si>
   <si>
     <t>Fetches a bundle of all MedicationRequest resources for the specified patient and intent code = `order,plan`</t>
@@ -1900,6 +1852,51 @@
   <si>
     <t>The client **SHALL** provide at least a code value and **MAY** provide both the system and code values.
 The server **SHALL** support both.</t>
+  </si>
+  <si>
+    <t>GET [base]/Encounter?patient=example1&amp;date=ge2019-01-01T00:00:00Z</t>
+  </si>
+  <si>
+    <t>GET [base]/Immunization?patient=1137192&amp;date=ge2019-01-14T00:00:00Z</t>
+  </si>
+  <si>
+    <t>GET [base]/DiagnosticReport?patient=f201&amp;category=http://terminology.hl7.org/CodeSystem/v2-0074\|LAB&amp;date=ge2010-01-14T00:00:00Z</t>
+  </si>
+  <si>
+    <t>GET [base]/DiagnosticReport?patient=f201&amp;code=http://loinc.org\|24323-8&amp;date=ge2019-01-14T00:00:00Z</t>
+  </si>
+  <si>
+    <t>GET [base]/DiagnosticReport?patient=f201&amp;category=http://loinc.org\|LP29684-5&amp;date=ge2010-01-14T00:00:00Z</t>
+  </si>
+  <si>
+    <t>GET [base]/MedicationRequest?patient=1137192&amp;intent=order,plan&amp;authoredon=ge2019-01-01T00:00:00Z~GET [base]/MedicationRequest?patient=1137192&amp;intent=order,plan&amp;authoredon=ge2019-01-01T00:00:00Z&amp;_include=MedicationRequest:medication</t>
+  </si>
+  <si>
+    <t>GET [base]/Procedure?patient=1137192&amp;date=ge2019-01-14T00:00:00Z&amp;code=http://snomed.info/sct\|35637008</t>
+  </si>
+  <si>
+    <t>GET [base]Observation?patient=555580&amp;category=http://terminology.hl7.org/CodeSystem/observation-category\|laboratory&amp;date=ge2018-03-14T00:00:00Z</t>
+  </si>
+  <si>
+    <t>GET [base]Observation?patient=555580&amp;code=http://loinc.org\|2339-0&amp;date=ge2019-01-01T00:00:00Z</t>
+  </si>
+  <si>
+    <t>GET [base]/CarePlan?patient=1137192&amp;category=http://hl7.org/fhir/us/core/CodeSystem/careplan-category\|assess-plan&amp;status=active&amp;date=ge2019-01-01T00:00:00Z~GET [base]/CarePlan?patient=1137192&amp;category=http://hl7.org/fhir/us/core/CodeSystem/careplan-category\|assess-plan&amp;status=active&amp;date=ge2018-01-01T00:00:00Z&amp;date=le2019-01-01T00:00:00Z</t>
+  </si>
+  <si>
+    <t>GET [base]/CarePlan?patient=1137192&amp;category=http://hl7.org/fhir/us/core/CodeSystem/careplan-category\|assess-plan&amp;date=ge2019-01-01T00:00:00Z~GET [base]/CarePlan?patient=1137192&amp;category=http://hl7.org/fhir/us/core/CodeSystem/careplan-category\|assess-plan&amp;date=ge2018-01-01T00:00:00Z&amp;date=le2019-01-01T00:00:00Z</t>
+  </si>
+  <si>
+    <t>GET [base]/Observation?patient=1134281&amp;category=http://terminology.hl7.org/CodeSystem/observation-category\|vital-signs&amp;date=ge2020-01-01T00:00:00Z</t>
+  </si>
+  <si>
+    <t>GET [base]/Observation?patient=1186747&amp;code=http://loinc.org\|8867-4,http://loinc.org\|9279-1,http://loinc.org\|85354-9&amp;date=ge2020-01-01T00:00:00Z</t>
+  </si>
+  <si>
+    <t>GET [base]/DocumentReference?patient=1235541&amp;category=http://hl7.org/fhir/us/core/CodeSystem/us-core-documentreference-category\|clinical-note&amp;date=ge2020-01-01T00:00:00Z</t>
+  </si>
+  <si>
+    <t>GET [base]/DocumentReference?patient=2169591&amp;type=http://loinc.org \|34133-9&amp;period=ge2020-01-01T00:00:00Z</t>
   </si>
 </sst>
 </file>
@@ -2393,34 +2390,34 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>510</v>
+        <v>494</v>
       </c>
       <c r="B2" t="s">
-        <v>519</v>
+        <v>503</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>511</v>
+        <v>495</v>
       </c>
       <c r="B3" t="s">
-        <v>541</v>
+        <v>525</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>504</v>
+        <v>488</v>
       </c>
       <c r="B4" t="s">
-        <v>505</v>
+        <v>489</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>506</v>
+        <v>490</v>
       </c>
       <c r="B5" t="s">
-        <v>507</v>
+        <v>491</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2428,12 +2425,12 @@
         <v>75</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>508</v>
+        <v>492</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>512</v>
+        <v>496</v>
       </c>
       <c r="B7" t="s">
         <v>66</v>
@@ -2441,10 +2438,10 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="B8" t="s">
-        <v>509</v>
+        <v>493</v>
       </c>
     </row>
   </sheetData>
@@ -2456,8 +2453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:P84"/>
   <sheetViews>
-    <sheetView topLeftCell="I36" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J57" sqref="J57"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2465,12 +2462,12 @@
     <col min="1" max="1" width="8.85546875" style="1"/>
     <col min="2" max="2" width="21.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="96.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="56" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="121.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="88.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="82.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="255.5703125" style="1" customWidth="1"/>
     <col min="10" max="10" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2494,7 +2491,7 @@
         <v>108</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>3</v>
@@ -2627,10 +2624,10 @@
         <v>116</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="J6" s="5" t="str">
         <f t="shared" si="1"/>
@@ -2812,10 +2809,10 @@
         <v>123</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>331</v>
+        <v>547</v>
       </c>
       <c r="J13" s="5" t="str">
         <f t="shared" si="1"/>
@@ -2893,10 +2890,10 @@
         <v>116</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="J16" s="5" t="str">
         <f t="shared" si="1"/>
@@ -2950,10 +2947,10 @@
         <v>116</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="J18" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3241,10 +3238,10 @@
         <v>144</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J29" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3272,10 +3269,10 @@
         <v>144</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J30" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3303,10 +3300,10 @@
         <v>137</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J31" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3334,10 +3331,10 @@
         <v>137</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J32" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3365,16 +3362,16 @@
         <v>116</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="H33" s="5" t="s">
         <v>166</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
     </row>
     <row r="34" spans="1:10" s="1" customFormat="1">
@@ -3401,7 +3398,7 @@
         <v>160</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="J34" s="5" t="s">
         <v>156</v>
@@ -3431,7 +3428,7 @@
         <v>161</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="J35" s="5" t="s">
         <v>162</v>
@@ -3491,10 +3488,10 @@
         <v>173</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>482</v>
+        <v>467</v>
       </c>
     </row>
     <row r="38" spans="1:10" s="1" customFormat="1">
@@ -3509,7 +3506,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-immunization</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>78</v>
@@ -3518,10 +3515,10 @@
         <v>123</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>175</v>
+        <v>548</v>
       </c>
       <c r="J38" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B38&amp;" resources for the specified "&amp;SUBSTITUTE(D38,","," and ")</f>
@@ -3549,7 +3546,7 @@
         <v>159</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="I39" s="5" t="s">
         <v>174</v>
@@ -3564,10 +3561,10 @@
         <v>49</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>126</v>
@@ -3579,10 +3576,10 @@
         <v>116</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J40" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B40&amp;" resources for the specified "&amp;SUBSTITUTE(D40,","," and ")</f>
@@ -3594,10 +3591,10 @@
         <v>50</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>155</v>
@@ -3609,13 +3606,13 @@
         <v>116</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J41" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B41&amp;" resources for the specified patient and  a category code = `LAB`"</f>
@@ -3627,10 +3624,10 @@
         <v>51</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>157</v>
@@ -3642,10 +3639,10 @@
         <v>116</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J42" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B42&amp;" resources for the specified patient and  report code(s).  SHOULD support search by multiple report codes."</f>
@@ -3657,28 +3654,28 @@
         <v>52</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D43" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="H43" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>208</v>
-      </c>
       <c r="I43" s="9" t="s">
-        <v>210</v>
+        <v>549</v>
       </c>
       <c r="J43" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B43&amp;" resources for the specified patient and date and a category code = `LAB`"</f>
@@ -3690,25 +3687,25 @@
         <v>53</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>78</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>236</v>
+        <v>550</v>
       </c>
       <c r="J44" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B44&amp;" resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes."</f>
@@ -3720,10 +3717,10 @@
         <v>56</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>126</v>
@@ -3735,10 +3732,10 @@
         <v>116</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J45" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B45&amp;" resources for the specified "&amp;SUBSTITUTE(D45,","," and ")</f>
@@ -3750,10 +3747,10 @@
         <v>57</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>155</v>
@@ -3765,10 +3762,10 @@
         <v>116</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="J46" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B46&amp;" resources for the specified patient and  a category code specified in US Core DiagnosticReport Category Codes"</f>
@@ -3780,10 +3777,10 @@
         <v>58</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>157</v>
@@ -3795,10 +3792,10 @@
         <v>116</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J47" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B47&amp;" resources for the specified patient and  report code(s).  SHOULD support search by multiple report codes."</f>
@@ -3810,25 +3807,25 @@
         <v>59</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>217</v>
+        <v>551</v>
       </c>
       <c r="J48" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B48&amp;" resources for the specified patient and date and a category code specified in US Core DiagnosticReport Category Codes"</f>
@@ -3840,25 +3837,25 @@
         <v>60</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>78</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>236</v>
+        <v>550</v>
       </c>
       <c r="J49" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B49&amp;" resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes."</f>
@@ -3870,14 +3867,14 @@
         <v>63</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C50" s="1" t="str">
         <f t="shared" ref="C50:C60" si="2">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B50)</f>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-goal</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>78</v>
@@ -3886,10 +3883,10 @@
         <v>116</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="J50" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B50&amp;" resources for the specified "&amp;SUBSTITUTE(D50,","," and ")</f>
@@ -3901,14 +3898,14 @@
         <v>64</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C51" s="1" t="str">
         <f t="shared" si="2"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-goal</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>78</v>
@@ -3917,10 +3914,10 @@
         <v>159</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="J51" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B51&amp;" resources for the specified "&amp;SUBSTITUTE(D51,","," and ")</f>
@@ -3932,14 +3929,14 @@
         <v>67</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C52" s="1" t="str">
         <f t="shared" si="2"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>13</v>
@@ -3948,16 +3945,16 @@
         <v>116</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>493</v>
+        <v>478</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>494</v>
+        <v>479</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>498</v>
+        <v>482</v>
       </c>
     </row>
     <row r="53" spans="1:10" s="1" customFormat="1">
@@ -3965,14 +3962,14 @@
         <v>68</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C53" s="1" t="str">
         <f t="shared" si="2"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>13</v>
@@ -3981,16 +3978,16 @@
         <v>116</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>493</v>
+        <v>478</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>499</v>
+        <v>483</v>
       </c>
     </row>
     <row r="54" spans="1:10" s="1" customFormat="1">
@@ -3998,14 +3995,14 @@
         <v>69</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C54" s="1" t="str">
         <f t="shared" si="2"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>78</v>
@@ -4014,16 +4011,16 @@
         <v>116</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>493</v>
+        <v>478</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>500</v>
+        <v>484</v>
       </c>
     </row>
     <row r="55" spans="1:10" s="1" customFormat="1">
@@ -4031,32 +4028,32 @@
         <v>70</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C55" s="1" t="str">
         <f t="shared" si="2"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>78</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>493</v>
+        <v>478</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>497</v>
+        <v>552</v>
       </c>
       <c r="J55" s="5" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
     </row>
     <row r="56" spans="1:10" s="1" customFormat="1">
@@ -4064,7 +4061,7 @@
         <v>73</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>475</v>
+        <v>460</v>
       </c>
       <c r="C56" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4080,10 +4077,10 @@
         <v>116</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="J56" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B56&amp;" resources for the specified "&amp;SUBSTITUTE(D56,","," and ")</f>
@@ -4092,17 +4089,18 @@
     </row>
     <row r="57" spans="1:10" s="1" customFormat="1">
       <c r="A57" s="1">
-        <v>74</v>
+        <f>SUBTOTAL(9,L97)</f>
+        <v>0</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>475</v>
+        <v>460</v>
       </c>
       <c r="C57" s="1" t="str">
         <f t="shared" si="2"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!medicationstatement</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>78</v>
@@ -4111,13 +4109,13 @@
         <v>159</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="J57" s="5" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="58" spans="1:10" s="1" customFormat="1">
@@ -4125,7 +4123,7 @@
         <v>75</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C58" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4141,10 +4139,10 @@
         <v>116</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="J58" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B58&amp;" resources for the specified "&amp;SUBSTITUTE(D58,","," and ")</f>
@@ -4156,14 +4154,14 @@
         <v>76</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C59" s="1" t="str">
         <f t="shared" si="2"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-procedure</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>13</v>
@@ -4172,10 +4170,10 @@
         <v>116</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="J59" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B59&amp;" resources for the specified "&amp;SUBSTITUTE(D59,","," and ")</f>
@@ -4187,26 +4185,26 @@
         <v>77</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C60" s="1" t="str">
         <f t="shared" si="2"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-procedure</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>78</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>245</v>
+        <v>553</v>
       </c>
       <c r="J60" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B60&amp;" resources for the specified patient and date and procedure code(s).  SHOULD support search by multiple codes."</f>
@@ -4218,13 +4216,13 @@
         <v>80</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>78</v>
@@ -4233,16 +4231,16 @@
         <v>116</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="J61" s="5" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
     </row>
     <row r="62" spans="1:10" s="1" customFormat="1">
@@ -4250,10 +4248,10 @@
         <v>81</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>155</v>
@@ -4265,13 +4263,13 @@
         <v>116</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="J62" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B62&amp;" resources for the specified patient and a category code = `laboratory`"</f>
@@ -4283,10 +4281,10 @@
         <v>82</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>157</v>
@@ -4298,10 +4296,10 @@
         <v>116</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="J63" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B63&amp;" resources for the specified patient and observation code(s).  SHOULD support search by multiple report codes. The Observation `code` parameter searches `Observation.code only."</f>
@@ -4313,28 +4311,28 @@
         <v>83</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>455</v>
+        <v>554</v>
       </c>
       <c r="J64" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B64&amp;" resources for the specified patient and date and a category code = `laboratory`"</f>
@@ -4346,25 +4344,25 @@
         <v>84</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>78</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>238</v>
+        <v>555</v>
       </c>
       <c r="J65" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B65&amp;" resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes."</f>
@@ -4376,10 +4374,10 @@
         <v>85</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>126</v>
@@ -4391,10 +4389,10 @@
         <v>116</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="J66" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B66&amp;" resources for the specified "&amp;SUBSTITUTE(D66,","," and ")</f>
@@ -4406,10 +4404,10 @@
         <v>88</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>155</v>
@@ -4421,13 +4419,13 @@
         <v>116</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="J67" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B67&amp;" resources for the specified "&amp;SUBSTITUTE(D67,","," and ")&amp;"=`assess-plan`"</f>
@@ -4439,31 +4437,31 @@
         <v>89</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>78</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>445</v>
+        <v>557</v>
       </c>
       <c r="J68" s="5" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="69" spans="1:16" s="1" customFormat="1">
@@ -4471,13 +4469,13 @@
         <v>90</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>78</v>
@@ -4486,16 +4484,16 @@
         <v>116</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="J69" s="5" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="70" spans="1:16" s="1" customFormat="1">
@@ -4503,31 +4501,31 @@
         <v>91</v>
       </c>
       <c r="B70" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="H70" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="C70" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="H70" s="5" t="s">
-        <v>258</v>
-      </c>
       <c r="I70" s="5" t="s">
-        <v>446</v>
+        <v>556</v>
       </c>
       <c r="J70" s="5" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="71" spans="1:16" s="1" customFormat="1">
@@ -4535,7 +4533,7 @@
         <v>94</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C71" s="1" t="str">
         <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B71)</f>
@@ -4551,16 +4549,16 @@
         <v>116</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="I71" s="5" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="J71" s="5" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="72" spans="1:16" s="1" customFormat="1" ht="15.75">
@@ -4568,10 +4566,10 @@
         <v>97</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>157</v>
@@ -4583,13 +4581,13 @@
         <v>116</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="I72" s="5" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="J72" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B72&amp;" resources for the specified patient and observation code."</f>
@@ -4601,13 +4599,13 @@
         <v>100</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>344</v>
+        <v>516</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>78</v>
@@ -4616,13 +4614,13 @@
         <v>116</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>457</v>
+        <v>443</v>
       </c>
       <c r="J73" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B73&amp;" resources for the specified "&amp;SUBSTITUTE(D73,","," and ")</f>
@@ -4634,10 +4632,10 @@
         <v>101</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>344</v>
+        <v>516</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>155</v>
@@ -4649,13 +4647,13 @@
         <v>116</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="I74" s="5" t="s">
-        <v>458</v>
+        <v>444</v>
       </c>
       <c r="J74" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B74&amp;" resources for the specified patient and a category code = `vital-signs`"</f>
@@ -4667,10 +4665,10 @@
         <v>102</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>344</v>
+        <v>516</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>157</v>
@@ -4682,13 +4680,13 @@
         <v>116</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="I75" s="5" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="J75" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B75&amp;" resources for the specified patient and observation code(s).  SHOULD support search by multiple codes. The Observation `code` parameter searches `Observation.code only."</f>
@@ -4700,28 +4698,28 @@
         <v>103</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>344</v>
+        <v>516</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>459</v>
+        <v>558</v>
       </c>
       <c r="J76" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B76&amp;" resources for the specified patient and date and a category code = `vital-signs`"</f>
@@ -4733,25 +4731,25 @@
         <v>104</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>344</v>
+        <v>516</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>78</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="I77" s="5" t="s">
-        <v>304</v>
+        <v>559</v>
       </c>
       <c r="J77" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B77&amp;" resources for the specified patient and date and report code(s).  SHOULD support search by multiple codes."</f>
@@ -4769,7 +4767,7 @@
         <v>107</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C78" s="1" t="str">
         <f t="shared" ref="C78:C83" si="3">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B78)</f>
@@ -4785,10 +4783,10 @@
         <v>116</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="I78" s="5" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="J78" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B78&amp;" resources for the specified "&amp;SUBSTITUTE(D78,","," and ") &amp;". See the implementation notes above for how to access the actual document."</f>
@@ -4800,14 +4798,14 @@
         <v>108</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="C79" s="1" t="str">
         <f t="shared" si="3"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!documentreference</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>78</v>
@@ -4816,7 +4814,7 @@
         <v>159</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="I79" s="5"/>
       <c r="J79" s="5" t="str">
@@ -4829,7 +4827,7 @@
         <v>109</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C80" s="1" t="str">
         <f t="shared" si="3"/>
@@ -4845,16 +4843,16 @@
         <v>116</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="J80" s="5" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
     </row>
     <row r="81" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1">
@@ -4862,32 +4860,32 @@
         <v>110</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C81" s="1" t="str">
         <f t="shared" si="3"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="I81" s="9" t="s">
-        <v>318</v>
+        <v>560</v>
       </c>
       <c r="J81" s="5" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
     </row>
     <row r="82" spans="1:10" s="1" customFormat="1">
@@ -4895,7 +4893,7 @@
         <v>111</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C82" s="1" t="str">
         <f t="shared" si="3"/>
@@ -4911,13 +4909,13 @@
         <v>116</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="I82" s="5" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="J82" s="5" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
     </row>
     <row r="83" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1">
@@ -4925,26 +4923,26 @@
         <v>112</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C83" s="1" t="str">
         <f t="shared" si="3"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>78</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="I83" s="5" t="s">
-        <v>420</v>
+        <v>561</v>
       </c>
       <c r="J83" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B83&amp;" resources for the specified "&amp;SUBSTITUTE(D83,","," and ") &amp;". See the implementation notes above for how to access the actual document."</f>
@@ -4956,10 +4954,10 @@
         <v>115</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>128</v>
@@ -4971,16 +4969,17 @@
         <v>116</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="I84" s="5" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="J84" s="5" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J84" xr:uid="{331E0B16-168F-459B-8951-3DF614BF0371}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J128">
     <sortCondition ref="A1"/>
   </sortState>
@@ -5016,7 +5015,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="1" customFormat="1">
@@ -5024,15 +5023,15 @@
         <v>74</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>502</v>
+        <v>486</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="1" customFormat="1">
       <c r="A4" s="1" t="s">
-        <v>492</v>
+        <v>477</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>503</v>
+        <v>487</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="139.5" customHeight="1">
@@ -5040,7 +5039,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>514</v>
+        <v>498</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5048,7 +5047,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>557</v>
+        <v>541</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5064,7 +5063,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>517</v>
+        <v>501</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="103.5" customHeight="1">
@@ -5072,7 +5071,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
     </row>
   </sheetData>
@@ -5138,7 +5137,7 @@
         <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -5150,40 +5149,40 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B3" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>13</v>
@@ -5195,70 +5194,70 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>483</v>
+        <v>468</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>13</v>
@@ -5270,25 +5269,25 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>13</v>
@@ -5300,292 +5299,292 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>515</v>
+        <v>499</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>532</v>
+        <v>516</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>523</v>
+        <v>507</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>533</v>
+        <v>517</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>524</v>
+        <v>508</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>534</v>
+        <v>518</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>525</v>
+        <v>509</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>535</v>
+        <v>519</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>526</v>
+        <v>510</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6" s="1" customFormat="1">
       <c r="A22" s="1" t="s">
-        <v>536</v>
+        <v>520</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>527</v>
+        <v>511</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="1" customFormat="1">
       <c r="A23" s="1" t="s">
-        <v>537</v>
+        <v>521</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="1" customFormat="1">
       <c r="A24" s="1" t="s">
-        <v>538</v>
+        <v>522</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>529</v>
+        <v>513</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="1" customFormat="1">
       <c r="A25" s="1" t="s">
-        <v>539</v>
+        <v>523</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>530</v>
+        <v>514</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="1" customFormat="1">
       <c r="A26" s="1" t="s">
-        <v>553</v>
+        <v>537</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>552</v>
+        <v>536</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="1" customFormat="1">
       <c r="A27" s="1" t="s">
-        <v>551</v>
+        <v>535</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>554</v>
+        <v>538</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="1" customFormat="1">
       <c r="A28" s="1" t="s">
-        <v>556</v>
+        <v>540</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>555</v>
+        <v>539</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="1" customFormat="1">
       <c r="A29" s="1" t="s">
-        <v>481</v>
+        <v>466</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>480</v>
+        <v>465</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="1" customFormat="1">
       <c r="A30" s="1" t="s">
-        <v>540</v>
+        <v>524</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>531</v>
+        <v>515</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="F32" s="1"/>
     </row>
@@ -5594,7 +5593,7 @@
         <v>83</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>13</v>
@@ -5605,60 +5604,60 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="F35" s="1"/>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>478</v>
+        <v>463</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>476</v>
+        <v>461</v>
       </c>
     </row>
   </sheetData>
@@ -5714,67 +5713,67 @@
         <v>43</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>518</v>
+        <v>502</v>
       </c>
       <c r="F1" t="s">
         <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="H1" t="s">
         <v>17</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="J1" t="s">
         <v>18</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>435</v>
-      </c>
       <c r="N1" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>436</v>
-      </c>
       <c r="P1" s="1" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="T1" t="s">
         <v>19</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="V1" s="4" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="X1" s="4" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="Y1" s="4" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="Z1" t="s">
         <v>20</v>
@@ -5799,7 +5798,7 @@
         <v>78</v>
       </c>
       <c r="X2" s="17" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="Y2" s="17"/>
       <c r="Z2" t="s">
@@ -5808,13 +5807,13 @@
     </row>
     <row r="3" spans="1:26" ht="25.5" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>544</v>
+        <v>528</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>21</v>
@@ -5823,13 +5822,13 @@
         <v>78</v>
       </c>
       <c r="X3" s="17" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="Y3" s="17"/>
     </row>
     <row r="4" spans="1:26" ht="25.5" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>13</v>
@@ -5841,7 +5840,7 @@
         <v>78</v>
       </c>
       <c r="X4" s="17" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="Y4" s="17"/>
     </row>
@@ -5859,7 +5858,7 @@
         <v>78</v>
       </c>
       <c r="X5" s="17" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="Y5" s="17"/>
       <c r="Z5" t="s">
@@ -5868,13 +5867,13 @@
     </row>
     <row r="6" spans="1:26" ht="25.5" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>545</v>
+        <v>529</v>
       </c>
       <c r="T6" s="1" t="s">
         <v>21</v>
@@ -5883,13 +5882,13 @@
         <v>78</v>
       </c>
       <c r="X6" s="17" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="Y6" s="17"/>
     </row>
     <row r="7" spans="1:26" ht="25.5" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>13</v>
@@ -5901,19 +5900,19 @@
         <v>78</v>
       </c>
       <c r="X7" s="17" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="Y7" s="17"/>
     </row>
     <row r="8" spans="1:26" ht="25.5" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="T8" s="1" t="s">
         <v>21</v>
@@ -5922,7 +5921,7 @@
         <v>78</v>
       </c>
       <c r="X8" s="17" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="Y8" s="17"/>
     </row>
@@ -5934,7 +5933,7 @@
         <v>13</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>542</v>
+        <v>526</v>
       </c>
       <c r="T9" s="1" t="s">
         <v>21</v>
@@ -5943,13 +5942,13 @@
         <v>78</v>
       </c>
       <c r="X9" s="17" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="Y9" s="17"/>
     </row>
     <row r="10" spans="1:26" ht="25.5" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>13</v>
@@ -5961,7 +5960,7 @@
         <v>78</v>
       </c>
       <c r="X10" s="17" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="Y10" s="17"/>
     </row>
@@ -5973,7 +5972,7 @@
         <v>13</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>543</v>
+        <v>527</v>
       </c>
       <c r="T11" s="1" t="s">
         <v>21</v>
@@ -5982,19 +5981,19 @@
         <v>78</v>
       </c>
       <c r="X11" s="17" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="Y11" s="17"/>
     </row>
     <row r="12" spans="1:26" ht="25.5" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>546</v>
+        <v>530</v>
       </c>
       <c r="T12" s="1" t="s">
         <v>21</v>
@@ -6007,13 +6006,13 @@
     </row>
     <row r="13" spans="1:26" ht="25.5" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
       <c r="T13" s="1" t="s">
         <v>21</v>
@@ -6026,13 +6025,13 @@
     </row>
     <row r="14" spans="1:26" ht="25.5" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>522</v>
+        <v>506</v>
       </c>
       <c r="T14" s="1" t="s">
         <v>21</v>
@@ -6041,22 +6040,22 @@
         <v>78</v>
       </c>
       <c r="W14" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="X14" s="17" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="Y14" s="17"/>
     </row>
     <row r="15" spans="1:26" ht="25.5" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>475</v>
+        <v>460</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>521</v>
+        <v>505</v>
       </c>
       <c r="T15" s="1" t="s">
         <v>21</v>
@@ -6065,22 +6064,22 @@
         <v>78</v>
       </c>
       <c r="W15" s="7" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="X15" s="17" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="Y15" s="17"/>
     </row>
     <row r="16" spans="1:26" ht="25.5" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>547</v>
+        <v>531</v>
       </c>
       <c r="T16" s="1" t="s">
         <v>21</v>
@@ -6089,13 +6088,13 @@
         <v>78</v>
       </c>
       <c r="X16" s="17" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="Y16" s="17"/>
     </row>
     <row r="17" spans="1:25" ht="25.5" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>13</v>
@@ -6117,7 +6116,7 @@
         <v>13</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>548</v>
+        <v>532</v>
       </c>
       <c r="T18" s="1" t="s">
         <v>21</v>
@@ -6126,13 +6125,13 @@
         <v>78</v>
       </c>
       <c r="X18" s="17" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="Y18" s="17"/>
     </row>
     <row r="19" spans="1:25" ht="25.5" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>13</v>
@@ -6148,13 +6147,13 @@
     </row>
     <row r="20" spans="1:25" ht="25.5" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>546</v>
+        <v>530</v>
       </c>
       <c r="T20" s="1" t="s">
         <v>21</v>
@@ -6163,20 +6162,20 @@
         <v>78</v>
       </c>
       <c r="W20" s="1" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="X20" s="17"/>
       <c r="Y20" s="17"/>
     </row>
     <row r="21" spans="1:25" ht="25.5" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>549</v>
+        <v>533</v>
       </c>
       <c r="T21" s="1" t="s">
         <v>21</v>
@@ -6185,19 +6184,19 @@
         <v>78</v>
       </c>
       <c r="X21" s="17" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="Y21" s="17"/>
     </row>
     <row r="22" spans="1:25" ht="25.5" customHeight="1">
       <c r="A22" t="s">
-        <v>476</v>
+        <v>461</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>550</v>
+        <v>534</v>
       </c>
       <c r="T22" s="1" t="s">
         <v>21</v>
@@ -6208,7 +6207,7 @@
     </row>
     <row r="23" spans="1:25" ht="25.5" customHeight="1">
       <c r="A23" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>78</v>
@@ -6273,36 +6272,36 @@
     </row>
     <row r="2" spans="1:5" ht="135.75" thickBot="1">
       <c r="A2" s="15" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="B2" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="60">
       <c r="A3" t="s">
-        <v>484</v>
+        <v>469</v>
       </c>
       <c r="B3" t="s">
-        <v>485</v>
+        <v>470</v>
       </c>
       <c r="C3" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="D3" t="s">
         <v>78</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -6343,76 +6342,76 @@
         <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="W1" t="s">
         <v>407</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="W1" t="s">
-        <v>417</v>
-      </c>
       <c r="X1" s="1" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>488</v>
+        <v>473</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="75">
@@ -6435,7 +6434,7 @@
         <v>34</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="H2" t="s">
         <v>13</v>
@@ -7057,12 +7056,12 @@
         <v>29</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>470</v>
+        <v>455</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="59.25" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>471</v>
+        <v>456</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>34</v>
@@ -7071,7 +7070,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>34</v>
@@ -7080,7 +7079,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>473</v>
+        <v>458</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>34</v>
@@ -7089,7 +7088,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>474</v>
+        <v>459</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>34</v>
@@ -7105,11 +7104,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AC94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H44" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="AA43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="F1:F1048576"/>
+      <selection pane="bottomRight" activeCell="G68" sqref="G68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.95" customHeight="1"/>
@@ -7120,19 +7119,19 @@
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" customWidth="1"/>
     <col min="6" max="6" width="38" style="1" customWidth="1"/>
-    <col min="7" max="7" width="73.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="116.42578125" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.28515625" customWidth="1"/>
     <col min="11" max="11" width="36.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="22.42578125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="16.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="49.7109375" style="1" customWidth="1"/>
-    <col min="22" max="23" width="38.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="22.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="10.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="16.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="18" style="1" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="19" style="1" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="21.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="20" max="21" width="49.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="22" max="23" width="38.85546875" style="1" hidden="1" customWidth="1"/>
     <col min="24" max="24" width="16" style="1" customWidth="1"/>
     <col min="25" max="25" width="50.85546875" style="1" customWidth="1"/>
     <col min="26" max="26" width="68.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -7206,10 +7205,10 @@
         <v>56</v>
       </c>
       <c r="V1" s="4" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="X1" s="4" t="s">
         <v>57</v>
@@ -7227,7 +7226,7 @@
         <v>60</v>
       </c>
       <c r="AC1" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1" thickTop="1">
@@ -7235,7 +7234,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>150</v>
@@ -7285,7 +7284,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>30</v>
@@ -7332,7 +7331,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>88</v>
@@ -7386,7 +7385,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>99</v>
@@ -7398,7 +7397,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="G5" s="1" t="str">
         <f t="shared" si="1"/>
@@ -7448,7 +7447,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>68</v>
@@ -7533,7 +7532,7 @@
         <v>62</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="AA7" s="5" t="s">
         <v>96</v>
@@ -7584,7 +7583,7 @@
         <v>62</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="AA8" s="1" t="s">
         <v>98</v>
@@ -7612,7 +7611,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="G9" s="1" t="str">
         <f t="shared" si="1"/>
@@ -7662,7 +7661,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="G10" s="1" t="str">
         <f t="shared" si="1"/>
@@ -7725,7 +7724,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="G11" s="1" t="str">
         <f t="shared" si="1"/>
@@ -7779,7 +7778,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="G12" s="1" t="str">
         <f t="shared" si="1"/>
@@ -7830,7 +7829,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="G13" s="1" t="str">
         <f t="shared" si="1"/>
@@ -7914,13 +7913,13 @@
         <v>62</v>
       </c>
       <c r="Z14" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="AA14" s="5" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="AB14" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AC14" s="1" t="str">
         <f t="shared" si="6"/>
@@ -7944,7 +7943,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="G15" s="1" t="str">
         <f t="shared" si="1"/>
@@ -7997,7 +7996,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>560</v>
+        <v>544</v>
       </c>
       <c r="G16" s="1" t="str">
         <f t="shared" si="1"/>
@@ -8054,7 +8053,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="G17" s="1" t="str">
         <f t="shared" si="1"/>
@@ -8080,7 +8079,7 @@
         <v>62</v>
       </c>
       <c r="Z17" s="5" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="AA17" t="s">
         <v>171</v>
@@ -8111,7 +8110,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="G18" s="1" t="str">
         <f t="shared" si="1"/>
@@ -8172,7 +8171,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="G19" s="1" t="str">
         <f t="shared" si="1"/>
@@ -8225,7 +8224,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="G20" s="1" t="str">
         <f t="shared" si="1"/>
@@ -8302,7 +8301,7 @@
         <v>84</v>
       </c>
       <c r="AA21" s="5" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="AC21" s="1" t="str">
         <f>"SearchParameter-us-core-"&amp;LOWER((B21)&amp;"-"&amp;SUBSTITUTE(C21,"_","")&amp;".html")</f>
@@ -8326,7 +8325,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>561</v>
+        <v>545</v>
       </c>
       <c r="G22" s="1" t="str">
         <f t="shared" si="1"/>
@@ -8377,7 +8376,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>558</v>
+        <v>542</v>
       </c>
       <c r="G23" s="1" t="str">
         <f t="shared" si="1"/>
@@ -8424,7 +8423,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="G24" s="1" t="str">
         <f t="shared" si="1"/>
@@ -8520,7 +8519,7 @@
         <v>1</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="G26" s="1" t="str">
         <f t="shared" si="1"/>
@@ -8547,7 +8546,7 @@
       </c>
       <c r="Y26"/>
       <c r="Z26" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="AA26" s="1" t="s">
         <v>170</v>
@@ -8605,10 +8604,10 @@
         <v>86</v>
       </c>
       <c r="Z27" s="5" t="s">
-        <v>516</v>
+        <v>500</v>
       </c>
       <c r="AA27" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AB27" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B27&amp;" resources matching the name"</f>
@@ -8971,7 +8970,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>560</v>
+        <v>544</v>
       </c>
       <c r="G35" s="1" t="str">
         <f t="shared" si="1"/>
@@ -9025,7 +9024,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="G36" s="1" t="str">
         <f t="shared" si="1"/>
@@ -9075,7 +9074,7 @@
         <v>1</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="G37" s="1" t="str">
         <f t="shared" si="1"/>
@@ -9137,7 +9136,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="G38" s="1" t="str">
         <f t="shared" si="1"/>
@@ -9190,7 +9189,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>560</v>
+        <v>544</v>
       </c>
       <c r="G39" s="1" t="str">
         <f t="shared" si="1"/>
@@ -9235,7 +9234,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>61</v>
@@ -9270,13 +9269,13 @@
         <v>62</v>
       </c>
       <c r="Z40" s="5" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="AA40" s="5" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="AB40" s="2" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="AC40" s="1" t="str">
         <f t="shared" ref="AC40" si="10">"SearchParameter-us-core-"&amp;LOWER((B40)&amp;"-"&amp;C40&amp;".html")</f>
@@ -9288,7 +9287,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>68</v>
@@ -9300,7 +9299,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="G41" s="1" t="str">
         <f t="shared" si="1"/>
@@ -9344,7 +9343,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>99</v>
@@ -9356,7 +9355,7 @@
         <v>1</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="G42" s="1" t="str">
         <f t="shared" si="1"/>
@@ -9406,7 +9405,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>150</v>
@@ -9418,7 +9417,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="G43" s="1" t="str">
         <f t="shared" si="1"/>
@@ -9459,7 +9458,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>14</v>
@@ -9471,7 +9470,7 @@
         <v>0</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="G44" s="1" t="str">
         <f t="shared" si="1"/>
@@ -9509,7 +9508,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>88</v>
@@ -9521,7 +9520,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>560</v>
+        <v>544</v>
       </c>
       <c r="G45" s="1" t="str">
         <f t="shared" si="1"/>
@@ -9566,10 +9565,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>34</v>
@@ -9578,7 +9577,7 @@
         <v>0</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>560</v>
+        <v>544</v>
       </c>
       <c r="G46" s="1" t="str">
         <f t="shared" si="1"/>
@@ -9594,7 +9593,7 @@
         <v>88</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="L46" s="1" t="s">
         <v>62</v>
@@ -9622,7 +9621,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>68</v>
@@ -9634,7 +9633,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="G47" s="1" t="str">
         <f t="shared" si="1"/>
@@ -9678,7 +9677,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>99</v>
@@ -9690,7 +9689,7 @@
         <v>1</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="G48" s="1" t="str">
         <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B48)</f>
@@ -9740,7 +9739,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>150</v>
@@ -9752,7 +9751,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="G49" s="1" t="str">
         <f t="shared" si="1"/>
@@ -9793,7 +9792,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>30</v>
@@ -9805,7 +9804,7 @@
         <v>0</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="G50" s="1" t="str">
         <f t="shared" si="1"/>
@@ -9846,7 +9845,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>88</v>
@@ -9858,7 +9857,7 @@
         <v>0</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>560</v>
+        <v>544</v>
       </c>
       <c r="G51" s="1" t="str">
         <f t="shared" si="1"/>
@@ -9903,10 +9902,10 @@
         <v>50</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>34</v>
@@ -9915,7 +9914,7 @@
         <v>0</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="G52" s="1" t="str">
         <f t="shared" si="1"/>
@@ -9956,7 +9955,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>99</v>
@@ -9968,7 +9967,7 @@
         <v>1</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="G53" s="1" t="str">
         <f t="shared" si="1"/>
@@ -10018,10 +10017,10 @@
         <v>52</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>34</v>
@@ -10030,7 +10029,7 @@
         <v>0</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>561</v>
+        <v>545</v>
       </c>
       <c r="G54" s="1" t="str">
         <f t="shared" si="1"/>
@@ -10075,7 +10074,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>68</v>
@@ -10087,7 +10086,7 @@
         <v>0</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="G55" s="1" t="str">
         <f t="shared" si="1"/>
@@ -10131,10 +10130,10 @@
         <v>53</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>34</v>
@@ -10143,7 +10142,7 @@
         <v>0</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="G56" s="1" t="str">
         <f t="shared" si="1"/>
@@ -10187,7 +10186,7 @@
         <v>54</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>99</v>
@@ -10199,7 +10198,7 @@
         <v>0</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="G57" s="1" t="str">
         <f t="shared" si="1"/>
@@ -10241,10 +10240,10 @@
         <v>54</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>34</v>
@@ -10253,7 +10252,7 @@
         <v>0</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="G58" s="1" t="str">
         <f t="shared" si="1"/>
@@ -10295,10 +10294,10 @@
         <v>55</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>34</v>
@@ -10307,7 +10306,7 @@
         <v>0</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>560</v>
+        <v>544</v>
       </c>
       <c r="G59" s="1" t="str">
         <f t="shared" si="1"/>
@@ -10352,7 +10351,7 @@
         <v>56</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>475</v>
+        <v>460</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>68</v>
@@ -10364,7 +10363,7 @@
         <v>0</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="G60" s="1" t="str">
         <f t="shared" si="1"/>
@@ -10408,7 +10407,7 @@
         <v>57</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>475</v>
+        <v>460</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>99</v>
@@ -10420,7 +10419,7 @@
         <v>1</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="G61" s="1" t="str">
         <f t="shared" si="1"/>
@@ -10450,10 +10449,10 @@
         <v>101</v>
       </c>
       <c r="Z61" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="AA61" s="12" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="AB61" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B61&amp; " resources for the specified patient. Mandatory for client to support the _include parameter. Optional for server to support the _include parameter."</f>
@@ -10469,10 +10468,10 @@
         <v>58</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>475</v>
+        <v>460</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>34</v>
@@ -10481,7 +10480,7 @@
         <v>0</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>560</v>
+        <v>544</v>
       </c>
       <c r="G62" s="1" t="str">
         <f t="shared" si="1"/>
@@ -10526,7 +10525,7 @@
         <v>59</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>68</v>
@@ -10538,7 +10537,7 @@
         <v>0</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="G63" s="1" t="str">
         <f t="shared" si="1"/>
@@ -10582,7 +10581,7 @@
         <v>60</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>99</v>
@@ -10594,7 +10593,7 @@
         <v>1</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="G64" s="1" t="str">
         <f t="shared" si="1"/>
@@ -10627,7 +10626,7 @@
         <v>support searching for all procedures for a patient</v>
       </c>
       <c r="AA64" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="AB64" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B64&amp; " resources for the specified patient"</f>
@@ -10643,7 +10642,7 @@
         <v>61</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>88</v>
@@ -10655,7 +10654,7 @@
         <v>0</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>560</v>
+        <v>544</v>
       </c>
       <c r="G65" s="1" t="str">
         <f t="shared" si="1"/>
@@ -10700,7 +10699,7 @@
         <v>62</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>30</v>
@@ -10712,7 +10711,7 @@
         <v>0</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="G66" s="1" t="str">
         <f t="shared" si="1"/>
@@ -10753,7 +10752,7 @@
         <v>63</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>68</v>
@@ -10765,7 +10764,7 @@
         <v>0</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="G67" s="1" t="str">
         <f t="shared" ref="G67:G94" si="29">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B67)</f>
@@ -10809,7 +10808,7 @@
         <v>64</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>150</v>
@@ -10821,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="G68" s="1" t="str">
         <f t="shared" si="29"/>
@@ -10862,7 +10861,7 @@
         <v>65</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>30</v>
@@ -10874,7 +10873,7 @@
         <v>0</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="G69" s="1" t="str">
         <f t="shared" si="29"/>
@@ -10915,7 +10914,7 @@
         <v>66</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>88</v>
@@ -10927,7 +10926,7 @@
         <v>0</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>560</v>
+        <v>544</v>
       </c>
       <c r="G70" s="1" t="str">
         <f t="shared" si="29"/>
@@ -10972,7 +10971,7 @@
         <v>67</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>99</v>
@@ -10984,7 +10983,7 @@
         <v>0</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="G71" s="1" t="str">
         <f t="shared" si="29"/>
@@ -11034,7 +11033,7 @@
         <v>68</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>150</v>
@@ -11046,7 +11045,7 @@
         <v>0</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="G72" s="1" t="str">
         <f t="shared" si="29"/>
@@ -11087,7 +11086,7 @@
         <v>69</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>30</v>
@@ -11099,7 +11098,7 @@
         <v>0</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="G73" s="1" t="str">
         <f t="shared" si="29"/>
@@ -11137,7 +11136,7 @@
         <v>70</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>88</v>
@@ -11149,7 +11148,7 @@
         <v>0</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>560</v>
+        <v>544</v>
       </c>
       <c r="G74" s="1" t="str">
         <f t="shared" si="29"/>
@@ -11194,7 +11193,7 @@
         <v>71</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>99</v>
@@ -11206,7 +11205,7 @@
         <v>0</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="G75" s="1" t="str">
         <f t="shared" si="29"/>
@@ -11256,7 +11255,7 @@
         <v>72</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>68</v>
@@ -11268,7 +11267,7 @@
         <v>0</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="G76" s="1" t="str">
         <f t="shared" si="29"/>
@@ -11312,7 +11311,7 @@
         <v>73</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>99</v>
@@ -11324,7 +11323,7 @@
         <v>0</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="G77" s="1" t="str">
         <f t="shared" si="29"/>
@@ -11374,7 +11373,7 @@
         <v>74</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>68</v>
@@ -11386,7 +11385,7 @@
         <v>0</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="G78" s="1" t="str">
         <f t="shared" si="29"/>
@@ -11430,7 +11429,7 @@
         <v>75</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>99</v>
@@ -11442,7 +11441,7 @@
         <v>1</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="G79" s="1" t="str">
         <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-implantable-"&amp;LOWER(B79)</f>
@@ -11492,7 +11491,7 @@
         <v>76</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>14</v>
@@ -11504,7 +11503,7 @@
         <v>0</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="G80" s="1" t="str">
         <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-implantable-"&amp;LOWER(B80)</f>
@@ -11541,7 +11540,7 @@
         <v>77</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>27</v>
@@ -11576,7 +11575,7 @@
         <v>62</v>
       </c>
       <c r="Z81" s="1" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="AA81" s="5" t="str">
         <f>"GET [base]/"&amp;B81&amp;"?name=Health"</f>
@@ -11596,7 +11595,7 @@
         <v>78</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>95</v>
@@ -11631,7 +11630,7 @@
         <v>62</v>
       </c>
       <c r="Z82" s="1" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="AA82" s="5" t="str">
         <f>"GET [base]/"&amp;B82&amp;"?address=Arbor"</f>
@@ -11651,10 +11650,10 @@
         <v>79</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>78</v>
@@ -11686,7 +11685,7 @@
         <v>62</v>
       </c>
       <c r="Z83" s="1" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="AA83" s="5" t="str">
         <f>"GET [base]/"&amp;B83&amp;"?address-city=Ann Arbor"</f>
@@ -11706,10 +11705,10 @@
         <v>80</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>78</v>
@@ -11741,10 +11740,10 @@
         <v>62</v>
       </c>
       <c r="Z84" s="1" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="AA84" s="5" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="AB84" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B84&amp; " resources for the state"</f>
@@ -11760,10 +11759,10 @@
         <v>81</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>78</v>
@@ -11795,7 +11794,7 @@
         <v>62</v>
       </c>
       <c r="Z85" s="1" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="AA85" s="5" t="str">
         <f>"GET [base]/"&amp;B85&amp;"?address-postalcode=48104"</f>
@@ -11815,7 +11814,7 @@
         <v>82</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>27</v>
@@ -11850,7 +11849,7 @@
         <v>62</v>
       </c>
       <c r="Z86" s="1" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="AA86" s="5" t="str">
         <f>"GET [base]/"&amp;B86&amp;"?name=Health"</f>
@@ -11870,7 +11869,7 @@
         <v>83</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>95</v>
@@ -11905,7 +11904,7 @@
         <v>62</v>
       </c>
       <c r="Z87" s="1" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AA87" s="5" t="str">
         <f>"GET [base]/"&amp;B87&amp;"?address=Arbor"</f>
@@ -11925,10 +11924,10 @@
         <v>84</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>78</v>
@@ -11960,7 +11959,7 @@
         <v>62</v>
       </c>
       <c r="Z88" s="1" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="AA88" s="5" t="str">
         <f>"GET [base]/"&amp;B88&amp;"?address-city=Ann Arbor"</f>
@@ -11980,10 +11979,10 @@
         <v>85</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>78</v>
@@ -12015,7 +12014,7 @@
         <v>62</v>
       </c>
       <c r="Z89" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="AA89" s="5" t="str">
         <f>"GET [base]/"&amp;B89&amp;"?address-state=MI"</f>
@@ -12035,10 +12034,10 @@
         <v>86</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>78</v>
@@ -12070,7 +12069,7 @@
         <v>62</v>
       </c>
       <c r="Z90" s="1" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="AA90" s="5" t="str">
         <f>"GET [base]/"&amp;B90&amp;"?address-postalcode=48104"</f>
@@ -12090,7 +12089,7 @@
         <v>87</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>27</v>
@@ -12128,7 +12127,7 @@
         <v>86</v>
       </c>
       <c r="Z91" s="5" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="AA91" s="5" t="str">
         <f>"GET [base]/"&amp;B91&amp;"?name=Smith"</f>
@@ -12148,7 +12147,7 @@
         <v>88</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>85</v>
@@ -12160,7 +12159,7 @@
         <v>1</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="G92" s="1" t="str">
         <f t="shared" si="29"/>
@@ -12186,7 +12185,7 @@
         <v>62</v>
       </c>
       <c r="Z92" s="5" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="AA92" s="5" t="str">
         <f>"GET [base]/"&amp;B92&amp;"?dentifier=http://hl7.org/fhir/sid/us-npi\|97860456"</f>
@@ -12206,10 +12205,10 @@
         <v>89</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>13</v>
@@ -12218,7 +12217,7 @@
         <v>1</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="G93" s="1" t="str">
         <f t="shared" si="29"/>
@@ -12244,10 +12243,10 @@
         <v>62</v>
       </c>
       <c r="W93" s="1" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="Z93" s="5" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="AA93" s="5" t="str">
         <f>"GET [base]/"&amp;B93&amp;"?specialty=http://nucc.org/provider-taxonomy\|208D0000X"</f>
@@ -12267,10 +12266,10 @@
         <v>90</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>13</v>
@@ -12279,7 +12278,7 @@
         <v>1</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="G94" s="1" t="str">
         <f t="shared" si="29"/>
@@ -12305,13 +12304,13 @@
         <v>62</v>
       </c>
       <c r="T94" s="1" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="W94" s="1" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="Z94" s="5" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="AA94" s="5" t="str">
         <f>_xlfn.CONCAT("GET [base]/",B94,"?practitioner.identifier=http://hl7.org/fhir/sid/us-npi\|97860456&amp;_include=PractitionerRole:practitioner","&amp;_include=PractitionerRole?endpoint~GET [base]/PractitionerRole?practitioner.name=Henry&amp;_include=PractitionerRole:practitioner&amp;_include=PractitionerRole?endpoint")</f>

--- a/input/resources_spreadsheets/uscore-server.xlsx
+++ b/input/resources_spreadsheets/uscore-server.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\US-Core-R4\input\resources_spreadsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/US-Core-R4/input/resources_spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13922B3F-CD65-4062-A4FC-FBA734BC15EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5829BA73-D5A1-E640-9B7E-39A881E139D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1935" yWindow="2505" windowWidth="57210" windowHeight="15795" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3280" yWindow="7820" windowWidth="28800" windowHeight="17540" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -1769,24 +1769,6 @@
     - Assement and Plan **MAY** be included as narrative text</t>
   </si>
   <si>
-    <t>*  Implantable medical devices that have UDI information **SHALL** represent this information in either `carrierAIDC` or `carrierHRF`.
-     - UDI may not be present in all scenarios such as historical implantable devices, patient reported implant information, payer reported devices, or improperly documented implants.
-     - Servers are not required to support both `carrierAIDC` and `carrierHR`.
-- For Implantable medical devices that have UDI information, at least one of the Production Identifiers (UDI-PI) **SHALL** be present.
-- Servers **SHOULD** support query by Device.type to allow clients to request the patient's devices by a specific type. Note: The Device.type is too granular to differentiate implantable vs. non-implantable devices.  
-- In the [Quick Start] section below, searching for all devices is described. Records of implanted devices **MAY** be queried against UDI data including:
-    - UDI HRF string (`udi-carrier`)
-    - UDI Device Identifier (`udi-di`)
-    - Manufacturer (`manufacturer`)
-    - Model number (`model`)
-  Implementers **MAY** also adopt custom SearchParameters for searching by:
-    - lot numbers
-    - serial number
-    - expiration date
-    - manufacture date
-    - distinct identifier</t>
-  </si>
-  <si>
     <t>* The US Core Location  and PractitionerRole Profiles are not explicitly referenced in any US Core Profile. However they **SHOULD** be used as the default profile if referenced by another US Core profile.</t>
   </si>
   <si>
@@ -1898,12 +1880,31 @@
   <si>
     <t>GET [base]/DocumentReference?patient=2169591&amp;type=http://loinc.org \|34133-9&amp;period=ge2020-01-01T00:00:00Z</t>
   </si>
+  <si>
+    <t>* Implantable medical devices that have UDI information **SHALL** represent this information in either `carrierAIDC` or `carrierHRF`.
+     - Although both are marked as must support, the server systems are not required to support both `carrierAIDC` and `carrierHRF`, but **SHALL** support at least one of these elements.
+     - The client application SHALL support both elements.
+     - UDI may not be present in all scenarios such as historical implantable devices, patient reported implant information, payer reported devices, or improperly documented implants.
+* For Implantable medical devices that have UDI information, at least one of the Production Identifiers (UDI-PI) **SHALL** be present.
+* Servers **SHOULD** support query by Device.type to allow clients to request the patient's devices by a specific type. Note: The Device.type is too granular to differentiate implantable vs. non-implantable devices.  
+* In the Quick Start section below, searching for all devices is described. Records of implanted devices **MAY** be queried against UDI data including:
+    - UDI HRF string (`udi-carrier`)
+    - UDI Device Identifier (`udi-di`)
+    - Manufacturer (`manufacturer`)
+    - Model number (`model`)
+  Implementers **MAY** also adopt custom SearchParameters for searching by:
+    - lot numbers
+    - serial number
+    - expiration date
+    - manufacture date
+    - distinct identifier</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2375,12 +2376,12 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -2388,7 +2389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>494</v>
       </c>
@@ -2396,7 +2397,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>495</v>
       </c>
@@ -2404,7 +2405,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>488</v>
       </c>
@@ -2412,7 +2413,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>490</v>
       </c>
@@ -2420,7 +2421,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>75</v>
       </c>
@@ -2428,7 +2429,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>496</v>
       </c>
@@ -2436,7 +2437,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>497</v>
       </c>
@@ -2453,25 +2454,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:P84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A49" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="1"/>
-    <col min="2" max="2" width="21.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="96.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="21.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="96.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="33" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="121.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="88.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="255.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="121.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="88.83203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="255.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="83.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
+    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>153</v>
       </c>
@@ -2503,7 +2504,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickTop="1">
+    <row r="2" spans="1:10" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2528,7 +2529,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and date</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2553,7 +2554,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and date and patient</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2578,7 +2579,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and date and patient and type</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2603,7 +2604,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and date and type</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2634,7 +2635,7 @@
         <v>Fetches a bundle of all Encounter resources matching the specified class and patient</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2659,7 +2660,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and patient and status</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2684,7 +2685,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and patient and status and type</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2710,7 +2711,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and patient and type</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2737,7 +2738,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and status</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2763,7 +2764,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and status and type</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2788,7 +2789,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and type</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2812,14 +2813,14 @@
         <v>319</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="J13" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Fetches a bundle of all Encounter resources matching the specified date and patient</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="1" customFormat="1">
+    <row r="14" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2844,7 +2845,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified date and patient and type</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="1" customFormat="1">
+    <row r="15" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2869,7 +2870,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified date and type</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2900,7 +2901,7 @@
         <v>Fetches a bundle of all Encounter resources matching the specified patient and type</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2926,7 +2927,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified patient and status and type</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2957,7 +2958,7 @@
         <v>Fetches a bundle of all Encounter resources matching the specified patient and status</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="1" customFormat="1">
+    <row r="19" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2984,7 +2985,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified status and type</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="1" customFormat="1">
+    <row r="20" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>21</v>
       </c>
@@ -3010,7 +3011,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified context-type-value and publisher</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="1" customFormat="1">
+    <row r="21" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>22</v>
       </c>
@@ -3035,7 +3036,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified context-type-value and publisher and status</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>23</v>
       </c>
@@ -3061,7 +3062,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified context-type-value and status</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="1" customFormat="1">
+    <row r="23" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>24</v>
       </c>
@@ -3088,7 +3089,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified publisher and status</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="1" customFormat="1">
+    <row r="24" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>25</v>
       </c>
@@ -3115,7 +3116,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified publisher and status and version</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="1" customFormat="1">
+    <row r="25" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>26</v>
       </c>
@@ -3142,7 +3143,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified publisher and version</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="1" customFormat="1">
+    <row r="26" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>27</v>
       </c>
@@ -3167,7 +3168,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified status and title and version</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="1" customFormat="1">
+    <row r="27" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>28</v>
       </c>
@@ -3192,7 +3193,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified status and version</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="1" customFormat="1">
+    <row r="28" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>29</v>
       </c>
@@ -3217,7 +3218,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified title and version</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="1" customFormat="1">
+    <row r="29" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>30</v>
       </c>
@@ -3248,7 +3249,7 @@
         <v>Fetches a bundle of all Patient resources matching the specified birthdate and family</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="1" customFormat="1">
+    <row r="30" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>31</v>
       </c>
@@ -3279,7 +3280,7 @@
         <v>Fetches a bundle of all Patient resources matching the specified birthdate and name</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="1" customFormat="1">
+    <row r="31" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>32</v>
       </c>
@@ -3310,7 +3311,7 @@
         <v>Fetches a bundle of all Patient resources matching the specified family and gender</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="1" customFormat="1">
+    <row r="32" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>33</v>
       </c>
@@ -3341,7 +3342,7 @@
         <v>Fetches a bundle of all Patient resources matching the specified gender and name</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="1" customFormat="1">
+    <row r="33" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>36</v>
       </c>
@@ -3374,7 +3375,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="1" customFormat="1">
+    <row r="34" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>37</v>
       </c>
@@ -3404,7 +3405,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="35" spans="1:10" s="1" customFormat="1">
+    <row r="35" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>38</v>
       </c>
@@ -3434,7 +3435,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="1" customFormat="1">
+    <row r="36" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>39</v>
       </c>
@@ -3464,7 +3465,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="1" customFormat="1">
+    <row r="37" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>42</v>
       </c>
@@ -3494,7 +3495,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="1" customFormat="1">
+    <row r="38" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>45</v>
       </c>
@@ -3518,14 +3519,14 @@
         <v>178</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="J38" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B38&amp;" resources for the specified "&amp;SUBSTITUTE(D38,","," and ")</f>
         <v>Fetches a bundle of all Immunization resources for the specified patient and date</v>
       </c>
     </row>
-    <row r="39" spans="1:10" s="1" customFormat="1">
+    <row r="39" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>46</v>
       </c>
@@ -3556,7 +3557,7 @@
         <v>Fetches a bundle of all Immunization resources for the specified patient and status</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="1" customFormat="1">
+    <row r="40" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>49</v>
       </c>
@@ -3586,7 +3587,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and status</v>
       </c>
     </row>
-    <row r="41" spans="1:10" s="1" customFormat="1" ht="15.75">
+    <row r="41" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>50</v>
       </c>
@@ -3619,7 +3620,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and  a category code = `LAB`</v>
       </c>
     </row>
-    <row r="42" spans="1:10" s="1" customFormat="1" ht="15.75">
+    <row r="42" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>51</v>
       </c>
@@ -3649,7 +3650,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and  report code(s).  SHOULD support search by multiple report codes.</v>
       </c>
     </row>
-    <row r="43" spans="1:10" s="1" customFormat="1" ht="15.75">
+    <row r="43" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>52</v>
       </c>
@@ -3675,14 +3676,14 @@
         <v>207</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="J43" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B43&amp;" resources for the specified patient and date and a category code = `LAB`"</f>
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and a category code = `LAB`</v>
       </c>
     </row>
-    <row r="44" spans="1:10" s="1" customFormat="1">
+    <row r="44" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>53</v>
       </c>
@@ -3705,14 +3706,14 @@
         <v>238</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="J44" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B44&amp;" resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes."</f>
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes.</v>
       </c>
     </row>
-    <row r="45" spans="1:10" s="1" customFormat="1">
+    <row r="45" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>56</v>
       </c>
@@ -3742,7 +3743,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and status</v>
       </c>
     </row>
-    <row r="46" spans="1:10" s="1" customFormat="1">
+    <row r="46" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>57</v>
       </c>
@@ -3772,7 +3773,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and  a category code specified in US Core DiagnosticReport Category Codes</v>
       </c>
     </row>
-    <row r="47" spans="1:10" s="1" customFormat="1">
+    <row r="47" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>58</v>
       </c>
@@ -3802,7 +3803,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and  report code(s).  SHOULD support search by multiple report codes.</v>
       </c>
     </row>
-    <row r="48" spans="1:10" s="1" customFormat="1">
+    <row r="48" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>59</v>
       </c>
@@ -3825,14 +3826,14 @@
         <v>213</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="J48" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B48&amp;" resources for the specified patient and date and a category code specified in US Core DiagnosticReport Category Codes"</f>
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and a category code specified in US Core DiagnosticReport Category Codes</v>
       </c>
     </row>
-    <row r="49" spans="1:10" s="1" customFormat="1">
+    <row r="49" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>60</v>
       </c>
@@ -3855,14 +3856,14 @@
         <v>232</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="J49" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B49&amp;" resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes."</f>
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes.</v>
       </c>
     </row>
-    <row r="50" spans="1:10" s="1" customFormat="1">
+    <row r="50" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>63</v>
       </c>
@@ -3893,7 +3894,7 @@
         <v>Fetches a bundle of all Goal resources for the specified patient and lifecycle-status</v>
       </c>
     </row>
-    <row r="51" spans="1:10" s="1" customFormat="1">
+    <row r="51" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>64</v>
       </c>
@@ -3924,7 +3925,7 @@
         <v>Fetches a bundle of all Goal resources for the specified patient and target-date</v>
       </c>
     </row>
-    <row r="52" spans="1:10" s="1" customFormat="1">
+    <row r="52" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>67</v>
       </c>
@@ -3957,7 +3958,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="53" spans="1:10" s="1" customFormat="1">
+    <row r="53" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>68</v>
       </c>
@@ -3990,7 +3991,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="54" spans="1:10" s="1" customFormat="1">
+    <row r="54" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>69</v>
       </c>
@@ -4023,7 +4024,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="55" spans="1:10" s="1" customFormat="1">
+    <row r="55" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>70</v>
       </c>
@@ -4050,13 +4051,13 @@
         <v>242</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="J55" s="5" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="56" spans="1:10" s="1" customFormat="1">
+    <row r="56" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>73</v>
       </c>
@@ -4087,7 +4088,7 @@
         <v>Fetches a bundle of all !MedicationStatement resources for the specified patient and status</v>
       </c>
     </row>
-    <row r="57" spans="1:10" s="1" customFormat="1">
+    <row r="57" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <f>SUBTOTAL(9,L97)</f>
         <v>0</v>
@@ -4118,7 +4119,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="58" spans="1:10" s="1" customFormat="1">
+    <row r="58" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>75</v>
       </c>
@@ -4149,7 +4150,7 @@
         <v>Fetches a bundle of all Procedure resources for the specified patient and status</v>
       </c>
     </row>
-    <row r="59" spans="1:10" s="1" customFormat="1">
+    <row r="59" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>76</v>
       </c>
@@ -4180,7 +4181,7 @@
         <v>Fetches a bundle of all Procedure resources for the specified patient and date</v>
       </c>
     </row>
-    <row r="60" spans="1:10" s="1" customFormat="1">
+    <row r="60" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>77</v>
       </c>
@@ -4204,14 +4205,14 @@
         <v>239</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="J60" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B60&amp;" resources for the specified patient and date and procedure code(s).  SHOULD support search by multiple codes."</f>
         <v>Fetches a bundle of all Procedure resources for the specified patient and date and procedure code(s).  SHOULD support search by multiple codes.</v>
       </c>
     </row>
-    <row r="61" spans="1:10" s="1" customFormat="1">
+    <row r="61" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>80</v>
       </c>
@@ -4243,7 +4244,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="62" spans="1:10" s="1" customFormat="1">
+    <row r="62" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>81</v>
       </c>
@@ -4276,7 +4277,7 @@
         <v>Fetches a bundle of all Observation resources for the specified patient and a category code = `laboratory`</v>
       </c>
     </row>
-    <row r="63" spans="1:10" s="1" customFormat="1">
+    <row r="63" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>82</v>
       </c>
@@ -4306,7 +4307,7 @@
         <v>Fetches a bundle of all Observation resources for the specified patient and observation code(s).  SHOULD support search by multiple report codes. The Observation `code` parameter searches `Observation.code only.</v>
       </c>
     </row>
-    <row r="64" spans="1:10" s="1" customFormat="1">
+    <row r="64" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>83</v>
       </c>
@@ -4332,14 +4333,14 @@
         <v>237</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="J64" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B64&amp;" resources for the specified patient and date and a category code = `laboratory`"</f>
         <v>Fetches a bundle of all Observation resources for the specified patient and date and a category code = `laboratory`</v>
       </c>
     </row>
-    <row r="65" spans="1:16" s="1" customFormat="1">
+    <row r="65" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>84</v>
       </c>
@@ -4362,14 +4363,14 @@
         <v>235</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="J65" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B65&amp;" resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes."</f>
         <v>Fetches a bundle of all Observation resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes.</v>
       </c>
     </row>
-    <row r="66" spans="1:16" s="1" customFormat="1">
+    <row r="66" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>85</v>
       </c>
@@ -4399,7 +4400,7 @@
         <v>Fetches a bundle of all !Observation resources for the specified patient and status</v>
       </c>
     </row>
-    <row r="67" spans="1:16" s="1" customFormat="1">
+    <row r="67" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>88</v>
       </c>
@@ -4432,7 +4433,7 @@
         <v>Fetches a bundle of all CarePlan resources for the specified patient and category=`assess-plan`</v>
       </c>
     </row>
-    <row r="68" spans="1:16" s="1" customFormat="1">
+    <row r="68" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>89</v>
       </c>
@@ -4458,13 +4459,13 @@
         <v>253</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J68" s="5" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="69" spans="1:16" s="1" customFormat="1">
+    <row r="69" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>90</v>
       </c>
@@ -4496,7 +4497,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="70" spans="1:16" s="1" customFormat="1">
+    <row r="70" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>91</v>
       </c>
@@ -4522,13 +4523,13 @@
         <v>252</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="J70" s="5" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="71" spans="1:16" s="1" customFormat="1">
+    <row r="71" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>94</v>
       </c>
@@ -4561,7 +4562,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="72" spans="1:16" s="1" customFormat="1" ht="15.75">
+    <row r="72" spans="1:16" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>97</v>
       </c>
@@ -4594,7 +4595,7 @@
         <v>Fetches a bundle of all Observation resources for the specified patient and observation code.</v>
       </c>
     </row>
-    <row r="73" spans="1:16" s="1" customFormat="1">
+    <row r="73" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>100</v>
       </c>
@@ -4627,7 +4628,7 @@
         <v>Fetches a bundle of all Observation resources for the specified patient and category and status</v>
       </c>
     </row>
-    <row r="74" spans="1:16" s="1" customFormat="1">
+    <row r="74" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>101</v>
       </c>
@@ -4660,7 +4661,7 @@
         <v>Fetches a bundle of all Observation resources for the specified patient and a category code = `vital-signs`</v>
       </c>
     </row>
-    <row r="75" spans="1:16" s="1" customFormat="1">
+    <row r="75" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>102</v>
       </c>
@@ -4693,7 +4694,7 @@
         <v>Fetches a bundle of all Observation resources for the specified patient and observation code(s).  SHOULD support search by multiple codes. The Observation `code` parameter searches `Observation.code only.</v>
       </c>
     </row>
-    <row r="76" spans="1:16" s="1" customFormat="1">
+    <row r="76" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>103</v>
       </c>
@@ -4719,14 +4720,14 @@
         <v>298</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="J76" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B76&amp;" resources for the specified patient and date and a category code = `vital-signs`"</f>
         <v>Fetches a bundle of all Observation resources for the specified patient and date and a category code = `vital-signs`</v>
       </c>
     </row>
-    <row r="77" spans="1:16">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>104</v>
       </c>
@@ -4749,7 +4750,7 @@
         <v>299</v>
       </c>
       <c r="I77" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="J77" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B77&amp;" resources for the specified patient and date and report code(s).  SHOULD support search by multiple codes."</f>
@@ -4762,7 +4763,7 @@
       <c r="O77" s="1"/>
       <c r="P77" s="1"/>
     </row>
-    <row r="78" spans="1:16" s="1" customFormat="1">
+    <row r="78" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>107</v>
       </c>
@@ -4793,7 +4794,7 @@
         <v>Fetches a bundle of all DocumentReference resources for the specified patient and status. See the implementation notes above for how to access the actual document.</v>
       </c>
     </row>
-    <row r="79" spans="1:16" s="1" customFormat="1" ht="20.25" customHeight="1">
+    <row r="79" spans="1:16" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>108</v>
       </c>
@@ -4822,7 +4823,7 @@
         <v>Fetches a bundle of all !DocumentReference resources for the specified patient and period. See the implementation notes above for how to access the actual document.</v>
       </c>
     </row>
-    <row r="80" spans="1:16" s="1" customFormat="1">
+    <row r="80" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>109</v>
       </c>
@@ -4855,7 +4856,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="81" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1">
+    <row r="81" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>110</v>
       </c>
@@ -4882,13 +4883,13 @@
         <v>311</v>
       </c>
       <c r="I81" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="J81" s="5" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="82" spans="1:10" s="1" customFormat="1">
+    <row r="82" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>111</v>
       </c>
@@ -4918,7 +4919,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="83" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1">
+    <row r="83" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>112</v>
       </c>
@@ -4942,14 +4943,14 @@
         <v>316</v>
       </c>
       <c r="I83" s="5" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="J83" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B83&amp;" resources for the specified "&amp;SUBSTITUTE(D83,","," and ") &amp;". See the implementation notes above for how to access the actual document."</f>
         <v>Fetches a bundle of all DocumentReference resources for the specified patient and type and period. See the implementation notes above for how to access the actual document.</v>
       </c>
     </row>
-    <row r="84" spans="1:10" s="1" customFormat="1">
+    <row r="84" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>115</v>
       </c>
@@ -4996,13 +4997,13 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="95.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="95.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5010,7 +5011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -5018,7 +5019,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="1" customFormat="1">
+    <row r="3" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>74</v>
       </c>
@@ -5026,7 +5027,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="1" customFormat="1">
+    <row r="4" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>477</v>
       </c>
@@ -5034,7 +5035,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="139.5" customHeight="1">
+    <row r="5" spans="1:2" ht="139.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -5042,15 +5043,15 @@
         <v>498</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -5058,7 +5059,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="351.75" customHeight="1">
+    <row r="8" spans="1:2" ht="351.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -5066,7 +5067,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="103.5" customHeight="1">
+    <row r="9" spans="1:2" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -5087,9 +5088,9 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -5110,15 +5111,15 @@
       <selection activeCell="A26" sqref="A26:XFD28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="94" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="60.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -5132,7 +5133,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>81</v>
       </c>
@@ -5147,7 +5148,7 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>248</v>
       </c>
@@ -5162,7 +5163,7 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>353</v>
       </c>
@@ -5177,7 +5178,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>365</v>
       </c>
@@ -5192,7 +5193,7 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>454</v>
       </c>
@@ -5207,7 +5208,7 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>200</v>
       </c>
@@ -5222,7 +5223,7 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>201</v>
       </c>
@@ -5237,7 +5238,7 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>361</v>
       </c>
@@ -5252,7 +5253,7 @@
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>367</v>
       </c>
@@ -5267,7 +5268,7 @@
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>379</v>
       </c>
@@ -5282,7 +5283,7 @@
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>358</v>
       </c>
@@ -5297,7 +5298,7 @@
       </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>381</v>
       </c>
@@ -5312,7 +5313,7 @@
       </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>372</v>
       </c>
@@ -5327,7 +5328,7 @@
       </c>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>363</v>
       </c>
@@ -5342,7 +5343,7 @@
       </c>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>499</v>
       </c>
@@ -5357,7 +5358,7 @@
       </c>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>437</v>
       </c>
@@ -5372,7 +5373,7 @@
       </c>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>516</v>
       </c>
@@ -5387,7 +5388,7 @@
       </c>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>517</v>
       </c>
@@ -5402,7 +5403,7 @@
       </c>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>518</v>
       </c>
@@ -5417,7 +5418,7 @@
       </c>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>519</v>
       </c>
@@ -5432,7 +5433,7 @@
       </c>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" s="1" customFormat="1">
+    <row r="22" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>520</v>
       </c>
@@ -5446,7 +5447,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="1" customFormat="1">
+    <row r="23" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>521</v>
       </c>
@@ -5460,7 +5461,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="1" customFormat="1">
+    <row r="24" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>522</v>
       </c>
@@ -5474,7 +5475,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="1" customFormat="1">
+    <row r="25" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>523</v>
       </c>
@@ -5488,12 +5489,12 @@
         <v>194</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="1" customFormat="1">
+    <row r="26" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>13</v>
@@ -5502,12 +5503,12 @@
         <v>194</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="1" customFormat="1">
+    <row r="27" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>13</v>
@@ -5516,12 +5517,12 @@
         <v>194</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="1" customFormat="1">
+    <row r="28" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>13</v>
@@ -5530,7 +5531,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="1" customFormat="1">
+    <row r="29" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>466</v>
       </c>
@@ -5544,7 +5545,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="1" customFormat="1">
+    <row r="30" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>524</v>
       </c>
@@ -5558,7 +5559,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>290</v>
       </c>
@@ -5573,7 +5574,7 @@
       </c>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>368</v>
       </c>
@@ -5588,7 +5589,7 @@
       </c>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="1:6" s="1" customFormat="1">
+    <row r="33" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>83</v>
       </c>
@@ -5602,7 +5603,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>356</v>
       </c>
@@ -5617,7 +5618,7 @@
       </c>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>376</v>
       </c>
@@ -5632,7 +5633,7 @@
       </c>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>370</v>
       </c>
@@ -5646,7 +5647,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>462</v>
       </c>
@@ -5675,31 +5676,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Z59"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="25.5" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="49.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="36.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="49.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1" customWidth="1"/>
-    <col min="8" max="14" width="17.42578125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="20.42578125" style="1" customWidth="1"/>
-    <col min="16" max="19" width="17.42578125" style="1" customWidth="1"/>
-    <col min="20" max="21" width="20.42578125" style="1" customWidth="1"/>
-    <col min="22" max="25" width="38.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="27.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="14" width="17.5" style="1" customWidth="1"/>
+    <col min="15" max="15" width="20.5" style="1" customWidth="1"/>
+    <col min="16" max="19" width="17.5" style="1" customWidth="1"/>
+    <col min="20" max="21" width="20.5" style="1" customWidth="1"/>
+    <col min="22" max="25" width="38.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="27.1640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="25.5" customHeight="1" thickBot="1">
+    <row r="1" spans="1:26" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -5779,7 +5780,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="25.5" customHeight="1" thickTop="1">
+    <row r="2" spans="1:26" ht="25.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
@@ -5805,7 +5806,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="25.5" customHeight="1">
+    <row r="3" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>246</v>
       </c>
@@ -5826,7 +5827,7 @@
       </c>
       <c r="Y3" s="17"/>
     </row>
-    <row r="4" spans="1:26" ht="25.5" customHeight="1">
+    <row r="4" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>260</v>
       </c>
@@ -5844,7 +5845,7 @@
       </c>
       <c r="Y4" s="17"/>
     </row>
-    <row r="5" spans="1:26" ht="25.5" customHeight="1">
+    <row r="5" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>148</v>
       </c>
@@ -5865,7 +5866,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="25.5" customHeight="1">
+    <row r="6" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>264</v>
       </c>
@@ -5873,7 +5874,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>529</v>
+        <v>561</v>
       </c>
       <c r="T6" s="1" t="s">
         <v>21</v>
@@ -5886,7 +5887,7 @@
       </c>
       <c r="Y6" s="17"/>
     </row>
-    <row r="7" spans="1:26" ht="25.5" customHeight="1">
+    <row r="7" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>190</v>
       </c>
@@ -5904,7 +5905,7 @@
       </c>
       <c r="Y7" s="17"/>
     </row>
-    <row r="8" spans="1:26" ht="25.5" customHeight="1">
+    <row r="8" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>189</v>
       </c>
@@ -5925,7 +5926,7 @@
       </c>
       <c r="Y8" s="17"/>
     </row>
-    <row r="9" spans="1:26" ht="25.5" customHeight="1">
+    <row r="9" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -5946,7 +5947,7 @@
       </c>
       <c r="Y9" s="17"/>
     </row>
-    <row r="10" spans="1:26" ht="25.5" customHeight="1">
+    <row r="10" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>191</v>
       </c>
@@ -5964,7 +5965,7 @@
       </c>
       <c r="Y10" s="17"/>
     </row>
-    <row r="11" spans="1:26" ht="25.5" customHeight="1">
+    <row r="11" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>172</v>
       </c>
@@ -5985,7 +5986,7 @@
       </c>
       <c r="Y11" s="17"/>
     </row>
-    <row r="12" spans="1:26" ht="25.5" customHeight="1">
+    <row r="12" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>265</v>
       </c>
@@ -5993,7 +5994,7 @@
         <v>13</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="T12" s="1" t="s">
         <v>21</v>
@@ -6004,7 +6005,7 @@
       <c r="X12" s="17"/>
       <c r="Y12" s="17"/>
     </row>
-    <row r="13" spans="1:26" ht="25.5" customHeight="1">
+    <row r="13" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>374</v>
       </c>
@@ -6023,7 +6024,7 @@
       <c r="X13" s="17"/>
       <c r="Y13" s="17"/>
     </row>
-    <row r="14" spans="1:26" ht="25.5" customHeight="1">
+    <row r="14" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>192</v>
       </c>
@@ -6047,7 +6048,7 @@
       </c>
       <c r="Y14" s="17"/>
     </row>
-    <row r="15" spans="1:26" ht="25.5" customHeight="1">
+    <row r="15" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>460</v>
       </c>
@@ -6071,7 +6072,7 @@
       </c>
       <c r="Y15" s="17"/>
     </row>
-    <row r="16" spans="1:26" ht="25.5" customHeight="1">
+    <row r="16" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>194</v>
       </c>
@@ -6079,7 +6080,7 @@
         <v>13</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="T16" s="1" t="s">
         <v>21</v>
@@ -6092,7 +6093,7 @@
       </c>
       <c r="Y16" s="17"/>
     </row>
-    <row r="17" spans="1:25" ht="25.5" customHeight="1">
+    <row r="17" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>275</v>
       </c>
@@ -6108,7 +6109,7 @@
       <c r="X17" s="17"/>
       <c r="Y17" s="17"/>
     </row>
-    <row r="18" spans="1:25" ht="25.5" customHeight="1">
+    <row r="18" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
@@ -6116,7 +6117,7 @@
         <v>13</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="T18" s="1" t="s">
         <v>21</v>
@@ -6129,7 +6130,7 @@
       </c>
       <c r="Y18" s="17"/>
     </row>
-    <row r="19" spans="1:25" ht="25.5" customHeight="1">
+    <row r="19" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>282</v>
       </c>
@@ -6145,7 +6146,7 @@
       <c r="X19" s="17"/>
       <c r="Y19" s="17"/>
     </row>
-    <row r="20" spans="1:25" ht="25.5" customHeight="1">
+    <row r="20" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>284</v>
       </c>
@@ -6153,7 +6154,7 @@
         <v>13</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="T20" s="1" t="s">
         <v>21</v>
@@ -6167,7 +6168,7 @@
       <c r="X20" s="17"/>
       <c r="Y20" s="17"/>
     </row>
-    <row r="21" spans="1:25" ht="25.5" customHeight="1">
+    <row r="21" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>193</v>
       </c>
@@ -6175,7 +6176,7 @@
         <v>13</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="T21" s="1" t="s">
         <v>21</v>
@@ -6188,7 +6189,7 @@
       </c>
       <c r="Y21" s="17"/>
     </row>
-    <row r="22" spans="1:25" ht="25.5" customHeight="1">
+    <row r="22" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>461</v>
       </c>
@@ -6196,7 +6197,7 @@
         <v>13</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="T22" s="1" t="s">
         <v>21</v>
@@ -6205,7 +6206,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:25" ht="25.5" customHeight="1">
+    <row r="23" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>471</v>
       </c>
@@ -6213,18 +6214,18 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:25" ht="25.5" customHeight="1">
+    <row r="24" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24"/>
     </row>
-    <row r="25" spans="1:25" ht="25.5" customHeight="1">
+    <row r="25" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25"/>
     </row>
-    <row r="56" spans="22:25" ht="25.5" customHeight="1">
+    <row r="56" spans="22:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="V56" s="7"/>
       <c r="X56" s="7"/>
       <c r="Y56" s="7"/>
     </row>
-    <row r="59" spans="22:25" ht="25.5" customHeight="1">
+    <row r="59" spans="22:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y59" s="7"/>
     </row>
   </sheetData>
@@ -6245,15 +6246,15 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" customWidth="1"/>
     <col min="5" max="5" width="89" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1">
+    <row r="1" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -6270,7 +6271,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="135.75" thickBot="1">
+    <row r="2" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>387</v>
       </c>
@@ -6287,7 +6288,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="60">
+    <row r="3" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>469</v>
       </c>
@@ -6304,7 +6305,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E4" s="2"/>
     </row>
   </sheetData>
@@ -6323,21 +6324,21 @@
       <selection pane="bottomRight" activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" customWidth="1"/>
-    <col min="7" max="7" width="58.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="28.140625" customWidth="1"/>
-    <col min="14" max="14" width="17.28515625" customWidth="1"/>
-    <col min="17" max="17" width="31.28515625" customWidth="1"/>
-    <col min="18" max="18" width="31.28515625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="20.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5" customWidth="1"/>
+    <col min="7" max="7" width="58.33203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="28.1640625" customWidth="1"/>
+    <col min="14" max="14" width="17.33203125" customWidth="1"/>
+    <col min="17" max="17" width="31.33203125" customWidth="1"/>
+    <col min="18" max="18" width="31.33203125" style="1" customWidth="1"/>
+    <col min="24" max="24" width="20.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -6414,7 +6415,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="75">
+    <row r="2" spans="1:25" ht="64" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -6485,7 +6486,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -6554,7 +6555,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -6622,7 +6623,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -6690,7 +6691,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -6758,7 +6759,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -6826,7 +6827,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -6894,7 +6895,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -6962,7 +6963,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -7043,12 +7044,12 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="51.140625" customWidth="1"/>
+    <col min="3" max="3" width="51.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
@@ -7059,7 +7060,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="59.25" customHeight="1">
+    <row r="2" spans="1:3" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>456</v>
       </c>
@@ -7068,7 +7069,7 @@
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>457</v>
       </c>
@@ -7077,7 +7078,7 @@
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>458</v>
       </c>
@@ -7086,7 +7087,7 @@
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>459</v>
       </c>
@@ -7111,36 +7112,36 @@
       <selection pane="bottomRight" activeCell="G68" sqref="G68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.95" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="1"/>
-    <col min="2" max="2" width="21.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="21.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" customWidth="1"/>
     <col min="6" max="6" width="38" style="1" customWidth="1"/>
-    <col min="7" max="7" width="116.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1"/>
-    <col min="11" max="11" width="36.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="22.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="10.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="16.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="116.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" customWidth="1"/>
+    <col min="11" max="11" width="36.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.6640625" style="1" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="22.5" style="1" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" style="1" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="10.33203125" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="16.33203125" style="1" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="18" style="1" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="19" style="1" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="21.140625" style="1" hidden="1" customWidth="1"/>
-    <col min="20" max="21" width="49.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="22" max="23" width="38.85546875" style="1" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="21.1640625" style="1" hidden="1" customWidth="1"/>
+    <col min="20" max="21" width="49.6640625" style="1" hidden="1" customWidth="1"/>
+    <col min="22" max="23" width="38.83203125" style="1" hidden="1" customWidth="1"/>
     <col min="24" max="24" width="16" style="1" customWidth="1"/>
-    <col min="25" max="25" width="50.85546875" style="1" customWidth="1"/>
-    <col min="26" max="26" width="68.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="90.7109375" style="1" customWidth="1"/>
-    <col min="28" max="28" width="83.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="38.140625" customWidth="1"/>
+    <col min="25" max="25" width="50.83203125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="68.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="90.6640625" style="1" customWidth="1"/>
+    <col min="28" max="28" width="83.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="38.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="18.95" customHeight="1" thickBot="1">
+    <row r="1" spans="1:29" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>151</v>
       </c>
@@ -7229,7 +7230,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1" thickTop="1">
+    <row r="2" spans="1:29" s="1" customFormat="1" ht="19" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -7279,7 +7280,7 @@
         <v>SearchParameter-us-core-!example category search-category.html</v>
       </c>
     </row>
-    <row r="3" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="3" spans="1:29" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -7326,7 +7327,7 @@
         <v>SearchParameter-us-core-!example code search-code.html</v>
       </c>
     </row>
-    <row r="4" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="4" spans="1:29" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -7380,7 +7381,7 @@
         <v>SearchParameter-us-core-!example date search-date.html</v>
       </c>
     </row>
-    <row r="5" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="5" spans="1:29" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -7397,7 +7398,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G5" s="1" t="str">
         <f t="shared" si="1"/>
@@ -7442,7 +7443,7 @@
         <v>SearchParameter-us-core-!example patient search-patient.html</v>
       </c>
     </row>
-    <row r="6" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="6" spans="1:29" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -7492,7 +7493,7 @@
         <v>SearchParameter-us-core-!example status search-status.html</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="18.95" customHeight="1">
+    <row r="7" spans="1:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -7543,7 +7544,7 @@
         <v>SearchParameter-us-core-!patient-address.html</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="18.95" customHeight="1">
+    <row r="8" spans="1:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -7594,7 +7595,7 @@
         <v>SearchParameter-us-core-!patient-telecom.html</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="18.95" customHeight="1">
+    <row r="9" spans="1:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -7611,7 +7612,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G9" s="1" t="str">
         <f t="shared" si="1"/>
@@ -7644,7 +7645,7 @@
         <v>SearchParameter-us-core-allergyintolerance-clinical-status.html</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="18.95" customHeight="1">
+    <row r="10" spans="1:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -7661,7 +7662,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G10" s="1" t="str">
         <f t="shared" si="1"/>
@@ -7707,7 +7708,7 @@
         <v>SearchParameter-us-core-allergyintolerance-patient.html</v>
       </c>
     </row>
-    <row r="11" spans="1:29" ht="18.95" customHeight="1">
+    <row r="11" spans="1:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -7724,7 +7725,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G11" s="1" t="str">
         <f t="shared" si="1"/>
@@ -7761,7 +7762,7 @@
         <v>SearchParameter-us-core-condition-category.html</v>
       </c>
     </row>
-    <row r="12" spans="1:29" ht="18.95" customHeight="1">
+    <row r="12" spans="1:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -7778,7 +7779,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G12" s="1" t="str">
         <f t="shared" si="1"/>
@@ -7812,7 +7813,7 @@
         <v>SearchParameter-us-core-condition-clinical-status.html</v>
       </c>
     </row>
-    <row r="13" spans="1:29" ht="18.95" customHeight="1">
+    <row r="13" spans="1:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -7829,7 +7830,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G13" s="1" t="str">
         <f t="shared" si="1"/>
@@ -7873,7 +7874,7 @@
         <v>SearchParameter-us-core-condition-patient.html</v>
       </c>
     </row>
-    <row r="14" spans="1:29" ht="18.95" customHeight="1">
+    <row r="14" spans="1:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -7926,7 +7927,7 @@
         <v>SearchParameter-us-core-encounter-id.html</v>
       </c>
     </row>
-    <row r="15" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="15" spans="1:29" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -7943,7 +7944,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G15" s="1" t="str">
         <f t="shared" si="1"/>
@@ -7979,7 +7980,7 @@
         <v>SearchParameter-us-core-encounter-class.html</v>
       </c>
     </row>
-    <row r="16" spans="1:29" ht="18.95" customHeight="1">
+    <row r="16" spans="1:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -7996,7 +7997,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G16" s="1" t="str">
         <f t="shared" si="1"/>
@@ -8036,7 +8037,7 @@
         <v>SearchParameter-us-core-encounter-date.html</v>
       </c>
     </row>
-    <row r="17" spans="1:29" ht="18.95" customHeight="1">
+    <row r="17" spans="1:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -8053,7 +8054,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G17" s="1" t="str">
         <f t="shared" si="1"/>
@@ -8093,7 +8094,7 @@
         <v>SearchParameter-us-core-encounter-identifier.html</v>
       </c>
     </row>
-    <row r="18" spans="1:29" ht="18.95" customHeight="1">
+    <row r="18" spans="1:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -8110,7 +8111,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G18" s="1" t="str">
         <f t="shared" si="1"/>
@@ -8154,7 +8155,7 @@
         <v>SearchParameter-us-core-encounter-patient.html</v>
       </c>
     </row>
-    <row r="19" spans="1:29" ht="18.95" customHeight="1">
+    <row r="19" spans="1:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -8171,7 +8172,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G19" s="1" t="str">
         <f t="shared" si="1"/>
@@ -8207,7 +8208,7 @@
         <v>SearchParameter-us-core-encounter-status.html</v>
       </c>
     </row>
-    <row r="20" spans="1:29" ht="18.95" customHeight="1">
+    <row r="20" spans="1:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -8224,7 +8225,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G20" s="1" t="str">
         <f t="shared" si="1"/>
@@ -8258,7 +8259,7 @@
         <v>SearchParameter-us-core-encounter-type.html</v>
       </c>
     </row>
-    <row r="21" spans="1:29" ht="18.95" customHeight="1">
+    <row r="21" spans="1:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -8308,7 +8309,7 @@
         <v>SearchParameter-us-core-patient-id.html</v>
       </c>
     </row>
-    <row r="22" spans="1:29" ht="18.95" customHeight="1">
+    <row r="22" spans="1:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -8325,7 +8326,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G22" s="1" t="str">
         <f t="shared" si="1"/>
@@ -8359,7 +8360,7 @@
         <v>SearchParameter-us-core-patient-birthdate.html</v>
       </c>
     </row>
-    <row r="23" spans="1:29" ht="18.95" customHeight="1">
+    <row r="23" spans="1:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -8376,7 +8377,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G23" s="1" t="str">
         <f t="shared" si="1"/>
@@ -8406,7 +8407,7 @@
         <v>SearchParameter-us-core-patient-family.html</v>
       </c>
     </row>
-    <row r="24" spans="1:29" ht="18.95" customHeight="1">
+    <row r="24" spans="1:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -8423,7 +8424,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G24" s="1" t="str">
         <f t="shared" si="1"/>
@@ -8458,7 +8459,7 @@
         <v>SearchParameter-us-core-patient-gender.html</v>
       </c>
     </row>
-    <row r="25" spans="1:29" ht="18.95" customHeight="1">
+    <row r="25" spans="1:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -8502,7 +8503,7 @@
         <v>SearchParameter-us-core-patient-given.html</v>
       </c>
     </row>
-    <row r="26" spans="1:29" ht="18.95" customHeight="1">
+    <row r="26" spans="1:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -8519,7 +8520,7 @@
         <v>1</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G26" s="1" t="str">
         <f t="shared" si="1"/>
@@ -8560,7 +8561,7 @@
         <v>SearchParameter-us-core-patient-identifier.html</v>
       </c>
     </row>
-    <row r="27" spans="1:29" ht="18.95" customHeight="1">
+    <row r="27" spans="1:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -8618,7 +8619,7 @@
         <v>SearchParameter-us-core-patient-name.html</v>
       </c>
     </row>
-    <row r="28" spans="1:29" ht="18.95" customHeight="1">
+    <row r="28" spans="1:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -8661,7 +8662,7 @@
         <v>SearchParameter-us-core-!questionnaire-_id.html</v>
       </c>
     </row>
-    <row r="29" spans="1:29" ht="18.95" customHeight="1">
+    <row r="29" spans="1:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -8706,7 +8707,7 @@
         <v>SearchParameter-us-core-!questionnaire-context-type-value.html</v>
       </c>
     </row>
-    <row r="30" spans="1:29" ht="18.95" customHeight="1">
+    <row r="30" spans="1:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -8756,7 +8757,7 @@
         <v>SearchParameter-us-core-!questionnaire-publisher.html</v>
       </c>
     </row>
-    <row r="31" spans="1:29" ht="18.95" customHeight="1">
+    <row r="31" spans="1:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -8803,7 +8804,7 @@
         <v>SearchParameter-us-core-!questionnaire-status.html</v>
       </c>
     </row>
-    <row r="32" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="32" spans="1:29" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -8863,7 +8864,7 @@
         <v>SearchParameter-us-core-!questionnaire-title.html</v>
       </c>
     </row>
-    <row r="33" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="33" spans="1:29" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -8908,7 +8909,7 @@
         <v>SearchParameter-us-core-!questionnaire-url.html</v>
       </c>
     </row>
-    <row r="34" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="34" spans="1:29" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -8953,7 +8954,7 @@
         <v>SearchParameter-us-core-!questionnaire-version.html</v>
       </c>
     </row>
-    <row r="35" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="35" spans="1:29" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -8970,7 +8971,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G35" s="1" t="str">
         <f t="shared" si="1"/>
@@ -9007,7 +9008,7 @@
         <v>SearchParameter-us-core-condition-onset-date.html</v>
       </c>
     </row>
-    <row r="36" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="36" spans="1:29" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -9024,7 +9025,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G36" s="1" t="str">
         <f t="shared" si="1"/>
@@ -9057,7 +9058,7 @@
         <v>SearchParameter-us-core-condition-code.html</v>
       </c>
     </row>
-    <row r="37" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="37" spans="1:29" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -9074,7 +9075,7 @@
         <v>1</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G37" s="1" t="str">
         <f t="shared" si="1"/>
@@ -9119,7 +9120,7 @@
         <v>SearchParameter-us-core-immunization-patient.html</v>
       </c>
     </row>
-    <row r="38" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="38" spans="1:29" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -9136,7 +9137,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G38" s="1" t="str">
         <f t="shared" si="1"/>
@@ -9172,7 +9173,7 @@
         <v>SearchParameter-us-core-immunization-status.html</v>
       </c>
     </row>
-    <row r="39" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="39" spans="1:29" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -9189,7 +9190,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G39" s="1" t="str">
         <f t="shared" si="1"/>
@@ -9229,7 +9230,7 @@
         <v>SearchParameter-us-core-immunization-date.html</v>
       </c>
     </row>
-    <row r="40" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="40" spans="1:29" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -9282,7 +9283,7 @@
         <v>SearchParameter-us-core-documentreference-_id.html</v>
       </c>
     </row>
-    <row r="41" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="41" spans="1:29" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -9299,7 +9300,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G41" s="1" t="str">
         <f t="shared" si="1"/>
@@ -9338,7 +9339,7 @@
         <v>SearchParameter-us-core-documentreference-status.html</v>
       </c>
     </row>
-    <row r="42" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="42" spans="1:29" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -9355,7 +9356,7 @@
         <v>1</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G42" s="1" t="str">
         <f t="shared" si="1"/>
@@ -9400,7 +9401,7 @@
         <v>SearchParameter-us-core-documentreference-patient.html</v>
       </c>
     </row>
-    <row r="43" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="43" spans="1:29" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -9417,7 +9418,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G43" s="1" t="str">
         <f t="shared" si="1"/>
@@ -9453,7 +9454,7 @@
         <v>SearchParameter-us-core-documentreference-category.html</v>
       </c>
     </row>
-    <row r="44" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="44" spans="1:29" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -9470,7 +9471,7 @@
         <v>0</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G44" s="1" t="str">
         <f t="shared" si="1"/>
@@ -9503,7 +9504,7 @@
         <v>SearchParameter-us-core-documentreference-type.html</v>
       </c>
     </row>
-    <row r="45" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="45" spans="1:29" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -9520,7 +9521,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G45" s="1" t="str">
         <f t="shared" si="1"/>
@@ -9560,7 +9561,7 @@
         <v>SearchParameter-us-core-documentreference-date.html</v>
       </c>
     </row>
-    <row r="46" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="46" spans="1:29" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -9577,7 +9578,7 @@
         <v>0</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G46" s="1" t="str">
         <f t="shared" si="1"/>
@@ -9616,7 +9617,7 @@
         <v>SearchParameter-us-core-documentreference-period.html</v>
       </c>
     </row>
-    <row r="47" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="47" spans="1:29" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -9633,7 +9634,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G47" s="1" t="str">
         <f t="shared" si="1"/>
@@ -9672,7 +9673,7 @@
         <v>SearchParameter-us-core-diagnosticreport-status.html</v>
       </c>
     </row>
-    <row r="48" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="48" spans="1:29" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -9689,7 +9690,7 @@
         <v>1</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G48" s="1" t="str">
         <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B48)</f>
@@ -9734,7 +9735,7 @@
         <v>SearchParameter-us-core-diagnosticreport-patient.html</v>
       </c>
     </row>
-    <row r="49" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="49" spans="1:29" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -9751,7 +9752,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G49" s="1" t="str">
         <f t="shared" si="1"/>
@@ -9787,7 +9788,7 @@
         <v>SearchParameter-us-core-diagnosticreport-category.html</v>
       </c>
     </row>
-    <row r="50" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="50" spans="1:29" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -9804,7 +9805,7 @@
         <v>0</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G50" s="1" t="str">
         <f t="shared" si="1"/>
@@ -9840,7 +9841,7 @@
         <v>SearchParameter-us-core-diagnosticreport-code.html</v>
       </c>
     </row>
-    <row r="51" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="51" spans="1:29" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -9857,7 +9858,7 @@
         <v>0</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G51" s="1" t="str">
         <f t="shared" si="1"/>
@@ -9897,7 +9898,7 @@
         <v>SearchParameter-us-core-diagnosticreport-date.html</v>
       </c>
     </row>
-    <row r="52" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="52" spans="1:29" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -9914,7 +9915,7 @@
         <v>0</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G52" s="1" t="str">
         <f t="shared" si="1"/>
@@ -9950,7 +9951,7 @@
         <v>SearchParameter-us-core-goal-lifecycle-status.html</v>
       </c>
     </row>
-    <row r="53" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="53" spans="1:29" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -9967,7 +9968,7 @@
         <v>1</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G53" s="1" t="str">
         <f t="shared" si="1"/>
@@ -10012,7 +10013,7 @@
         <v>SearchParameter-us-core-goal-patient.html</v>
       </c>
     </row>
-    <row r="54" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="54" spans="1:29" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -10029,7 +10030,7 @@
         <v>0</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G54" s="1" t="str">
         <f t="shared" si="1"/>
@@ -10069,7 +10070,7 @@
         <v>SearchParameter-us-core-goal-target-date.html</v>
       </c>
     </row>
-    <row r="55" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="55" spans="1:29" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -10086,7 +10087,7 @@
         <v>0</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G55" s="1" t="str">
         <f t="shared" si="1"/>
@@ -10125,7 +10126,7 @@
         <v>SearchParameter-us-core-medicationrequest-status.html</v>
       </c>
     </row>
-    <row r="56" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="56" spans="1:29" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>53</v>
       </c>
@@ -10142,7 +10143,7 @@
         <v>0</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G56" s="1" t="str">
         <f t="shared" si="1"/>
@@ -10181,7 +10182,7 @@
         <v>SearchParameter-us-core-medicationrequest-intent.html</v>
       </c>
     </row>
-    <row r="57" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="57" spans="1:29" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>54</v>
       </c>
@@ -10198,7 +10199,7 @@
         <v>0</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G57" s="1" t="str">
         <f t="shared" si="1"/>
@@ -10235,7 +10236,7 @@
         <v>SearchParameter-us-core-medicationrequest-patient.html</v>
       </c>
     </row>
-    <row r="58" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="58" spans="1:29" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>54</v>
       </c>
@@ -10252,7 +10253,7 @@
         <v>0</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G58" s="1" t="str">
         <f t="shared" si="1"/>
@@ -10289,7 +10290,7 @@
         <v>SearchParameter-us-core-medicationrequest-encounter.html</v>
       </c>
     </row>
-    <row r="59" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="59" spans="1:29" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>55</v>
       </c>
@@ -10306,7 +10307,7 @@
         <v>0</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G59" s="1" t="str">
         <f t="shared" si="1"/>
@@ -10346,7 +10347,7 @@
         <v>SearchParameter-us-core-medicationrequest-authoredon.html</v>
       </c>
     </row>
-    <row r="60" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="60" spans="1:29" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>56</v>
       </c>
@@ -10363,7 +10364,7 @@
         <v>0</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G60" s="1" t="str">
         <f t="shared" si="1"/>
@@ -10402,7 +10403,7 @@
         <v>SearchParameter-us-core-!medicationstatement-status.html</v>
       </c>
     </row>
-    <row r="61" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="61" spans="1:29" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>57</v>
       </c>
@@ -10419,7 +10420,7 @@
         <v>1</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G61" s="1" t="str">
         <f t="shared" si="1"/>
@@ -10463,7 +10464,7 @@
         <v>SearchParameter-us-core-!medicationstatement-patient.html</v>
       </c>
     </row>
-    <row r="62" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="62" spans="1:29" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>58</v>
       </c>
@@ -10480,7 +10481,7 @@
         <v>0</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G62" s="1" t="str">
         <f t="shared" si="1"/>
@@ -10520,7 +10521,7 @@
         <v>SearchParameter-us-core-!medicationstatement-effective.html</v>
       </c>
     </row>
-    <row r="63" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="63" spans="1:29" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>59</v>
       </c>
@@ -10537,7 +10538,7 @@
         <v>0</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G63" s="1" t="str">
         <f t="shared" si="1"/>
@@ -10576,7 +10577,7 @@
         <v>SearchParameter-us-core-procedure-status.html</v>
       </c>
     </row>
-    <row r="64" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="64" spans="1:29" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>60</v>
       </c>
@@ -10593,7 +10594,7 @@
         <v>1</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G64" s="1" t="str">
         <f t="shared" si="1"/>
@@ -10637,7 +10638,7 @@
         <v>SearchParameter-us-core-procedure-patient.html</v>
       </c>
     </row>
-    <row r="65" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="65" spans="1:29" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>61</v>
       </c>
@@ -10654,7 +10655,7 @@
         <v>0</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G65" s="1" t="str">
         <f t="shared" si="1"/>
@@ -10694,7 +10695,7 @@
         <v>SearchParameter-us-core-procedure-date.html</v>
       </c>
     </row>
-    <row r="66" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="66" spans="1:29" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>62</v>
       </c>
@@ -10711,7 +10712,7 @@
         <v>0</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G66" s="1" t="str">
         <f t="shared" si="1"/>
@@ -10747,7 +10748,7 @@
         <v>SearchParameter-us-core-procedure-code.html</v>
       </c>
     </row>
-    <row r="67" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="67" spans="1:29" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>63</v>
       </c>
@@ -10764,7 +10765,7 @@
         <v>0</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G67" s="1" t="str">
         <f t="shared" ref="G67:G94" si="29">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B67)</f>
@@ -10803,7 +10804,7 @@
         <v>SearchParameter-us-core-observation-status.html</v>
       </c>
     </row>
-    <row r="68" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="68" spans="1:29" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>64</v>
       </c>
@@ -10820,7 +10821,7 @@
         <v>0</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G68" s="1" t="str">
         <f t="shared" si="29"/>
@@ -10856,7 +10857,7 @@
         <v>SearchParameter-us-core-observation-category.html</v>
       </c>
     </row>
-    <row r="69" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="69" spans="1:29" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>65</v>
       </c>
@@ -10873,7 +10874,7 @@
         <v>0</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G69" s="1" t="str">
         <f t="shared" si="29"/>
@@ -10909,7 +10910,7 @@
         <v>SearchParameter-us-core-observation-code.html</v>
       </c>
     </row>
-    <row r="70" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="70" spans="1:29" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>66</v>
       </c>
@@ -10926,7 +10927,7 @@
         <v>0</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G70" s="1" t="str">
         <f t="shared" si="29"/>
@@ -10966,7 +10967,7 @@
         <v>SearchParameter-us-core-observation-date.html</v>
       </c>
     </row>
-    <row r="71" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="71" spans="1:29" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>67</v>
       </c>
@@ -10983,7 +10984,7 @@
         <v>0</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G71" s="1" t="str">
         <f t="shared" si="29"/>
@@ -11028,7 +11029,7 @@
         <v>SearchParameter-us-core-observation-patient.html</v>
       </c>
     </row>
-    <row r="72" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="72" spans="1:29" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>68</v>
       </c>
@@ -11045,7 +11046,7 @@
         <v>0</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G72" s="1" t="str">
         <f t="shared" si="29"/>
@@ -11081,7 +11082,7 @@
         <v>SearchParameter-us-core-careplan-category.html</v>
       </c>
     </row>
-    <row r="73" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="73" spans="1:29" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>69</v>
       </c>
@@ -11098,7 +11099,7 @@
         <v>0</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G73" s="1" t="str">
         <f t="shared" si="29"/>
@@ -11131,7 +11132,7 @@
         <v>SearchParameter-us-core-!careplan-code.html</v>
       </c>
     </row>
-    <row r="74" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="74" spans="1:29" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>70</v>
       </c>
@@ -11148,7 +11149,7 @@
         <v>0</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G74" s="1" t="str">
         <f t="shared" si="29"/>
@@ -11188,7 +11189,7 @@
         <v>SearchParameter-us-core-careplan-date.html</v>
       </c>
     </row>
-    <row r="75" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="75" spans="1:29" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>71</v>
       </c>
@@ -11205,7 +11206,7 @@
         <v>0</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G75" s="1" t="str">
         <f t="shared" si="29"/>
@@ -11250,7 +11251,7 @@
         <v>SearchParameter-us-core-careplan-patient.html</v>
       </c>
     </row>
-    <row r="76" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="76" spans="1:29" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>72</v>
       </c>
@@ -11267,7 +11268,7 @@
         <v>0</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G76" s="1" t="str">
         <f t="shared" si="29"/>
@@ -11306,7 +11307,7 @@
         <v>SearchParameter-us-core-careplan-status.html</v>
       </c>
     </row>
-    <row r="77" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="77" spans="1:29" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>73</v>
       </c>
@@ -11323,7 +11324,7 @@
         <v>0</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G77" s="1" t="str">
         <f t="shared" si="29"/>
@@ -11368,7 +11369,7 @@
         <v>SearchParameter-us-core-careteam-patient.html</v>
       </c>
     </row>
-    <row r="78" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="78" spans="1:29" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>74</v>
       </c>
@@ -11385,7 +11386,7 @@
         <v>0</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G78" s="1" t="str">
         <f t="shared" si="29"/>
@@ -11424,7 +11425,7 @@
         <v>SearchParameter-us-core-careteam-status.html</v>
       </c>
     </row>
-    <row r="79" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="79" spans="1:29" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>75</v>
       </c>
@@ -11441,7 +11442,7 @@
         <v>1</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G79" s="1" t="str">
         <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-implantable-"&amp;LOWER(B79)</f>
@@ -11486,7 +11487,7 @@
         <v>SearchParameter-us-core-device-patient.html</v>
       </c>
     </row>
-    <row r="80" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="80" spans="1:29" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>76</v>
       </c>
@@ -11503,7 +11504,7 @@
         <v>0</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G80" s="1" t="str">
         <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-implantable-"&amp;LOWER(B80)</f>
@@ -11535,7 +11536,7 @@
         <v>SearchParameter-us-core-device-type.html</v>
       </c>
     </row>
-    <row r="81" spans="1:29" ht="18.95" customHeight="1">
+    <row r="81" spans="1:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>77</v>
       </c>
@@ -11590,7 +11591,7 @@
         <v>SearchParameter-us-core-location-name.html</v>
       </c>
     </row>
-    <row r="82" spans="1:29" ht="18.95" customHeight="1">
+    <row r="82" spans="1:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>78</v>
       </c>
@@ -11645,7 +11646,7 @@
         <v>SearchParameter-us-core-location-address.html</v>
       </c>
     </row>
-    <row r="83" spans="1:29" ht="18.95" customHeight="1">
+    <row r="83" spans="1:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>79</v>
       </c>
@@ -11700,7 +11701,7 @@
         <v>SearchParameter-us-core-location-address-city.html</v>
       </c>
     </row>
-    <row r="84" spans="1:29" ht="18.95" customHeight="1">
+    <row r="84" spans="1:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>80</v>
       </c>
@@ -11754,7 +11755,7 @@
         <v>SearchParameter-us-core-location-address-state.html</v>
       </c>
     </row>
-    <row r="85" spans="1:29" ht="18.95" customHeight="1">
+    <row r="85" spans="1:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>81</v>
       </c>
@@ -11809,7 +11810,7 @@
         <v>SearchParameter-us-core-location-address-postalcode.html</v>
       </c>
     </row>
-    <row r="86" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="86" spans="1:29" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>82</v>
       </c>
@@ -11864,7 +11865,7 @@
         <v>SearchParameter-us-core-organization-name.html</v>
       </c>
     </row>
-    <row r="87" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="87" spans="1:29" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>83</v>
       </c>
@@ -11919,7 +11920,7 @@
         <v>SearchParameter-us-core-organization-address.html</v>
       </c>
     </row>
-    <row r="88" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="88" spans="1:29" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>84</v>
       </c>
@@ -11974,7 +11975,7 @@
         <v>SearchParameter-us-core-!organization-address-city.html</v>
       </c>
     </row>
-    <row r="89" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="89" spans="1:29" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>85</v>
       </c>
@@ -12029,7 +12030,7 @@
         <v>SearchParameter-us-core-!organization-adress-state.html</v>
       </c>
     </row>
-    <row r="90" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="90" spans="1:29" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>86</v>
       </c>
@@ -12084,7 +12085,7 @@
         <v>SearchParameter-us-core-!organization-address-postalcode.html</v>
       </c>
     </row>
-    <row r="91" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="91" spans="1:29" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>87</v>
       </c>
@@ -12142,7 +12143,7 @@
         <v>SearchParameter-us-core-practitioner-name.html</v>
       </c>
     </row>
-    <row r="92" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="92" spans="1:29" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>88</v>
       </c>
@@ -12159,7 +12160,7 @@
         <v>1</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G92" s="1" t="str">
         <f t="shared" si="29"/>
@@ -12200,7 +12201,7 @@
         <v>SearchParameter-us-core-practitioner-identifier.html</v>
       </c>
     </row>
-    <row r="93" spans="1:29" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="93" spans="1:29" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>89</v>
       </c>
@@ -12217,7 +12218,7 @@
         <v>1</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G93" s="1" t="str">
         <f t="shared" si="29"/>
@@ -12261,7 +12262,7 @@
         <v>SearchParameter-us-core-practitionerrole-specialty.html</v>
       </c>
     </row>
-    <row r="94" spans="1:29" ht="18.95" customHeight="1">
+    <row r="94" spans="1:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>90</v>
       </c>
@@ -12278,7 +12279,7 @@
         <v>1</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G94" s="1" t="str">
         <f t="shared" si="29"/>

--- a/input/resources_spreadsheets/uscore-server.xlsx
+++ b/input/resources_spreadsheets/uscore-server.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/US-Core-R4/input/resources_spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5829BA73-D5A1-E640-9B7E-39A881E139D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBABB7EA-8E33-054D-A860-B9AA4286C4B1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3280" yWindow="7820" windowWidth="28800" windowHeight="17540" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -1883,8 +1883,8 @@
   <si>
     <t>* Implantable medical devices that have UDI information **SHALL** represent this information in either `carrierAIDC` or `carrierHRF`.
      - Although both are marked as must support, the server systems are not required to support both `carrierAIDC` and `carrierHRF`, but **SHALL** support at least one of these elements.
-     - The client application SHALL support both elements.
-     - UDI may not be present in all scenarios such as historical implantable devices, patient reported implant information, payer reported devices, or improperly documented implants.
+     - The client application **SHALL** support both elements.
+     - UDI may not be present in all scenarios such as historical implantable devices, patient reported implant information, payer reported devices, or improperly documented implants. If UDI is not present and the manufacturer (`manufacturer`) and model number (`model`) information is available, it **SHOULD** be included to support historical reports of implantable medical devices
 * For Implantable medical devices that have UDI information, at least one of the Production Identifiers (UDI-PI) **SHALL** be present.
 * Servers **SHOULD** support query by Device.type to allow clients to request the patient's devices by a specific type. Note: The Device.type is too granular to differentiate implantable vs. non-implantable devices.  
 * In the Quick Start section below, searching for all devices is described. Records of implanted devices **MAY** be queried against UDI data including:

--- a/input/resources_spreadsheets/uscore-server.xlsx
+++ b/input/resources_spreadsheets/uscore-server.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/US-Core-R4/input/resources_spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBABB7EA-8E33-054D-A860-B9AA4286C4B1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9077A1-F0E1-424A-92CB-A9CCCA6A4D5D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1884,7 +1884,7 @@
     <t>* Implantable medical devices that have UDI information **SHALL** represent this information in either `carrierAIDC` or `carrierHRF`.
      - Although both are marked as must support, the server systems are not required to support both `carrierAIDC` and `carrierHRF`, but **SHALL** support at least one of these elements.
      - The client application **SHALL** support both elements.
-     - UDI may not be present in all scenarios such as historical implantable devices, patient reported implant information, payer reported devices, or improperly documented implants. If UDI is not present and the manufacturer (`manufacturer`) and model number (`model`) information is available, it **SHOULD** be included to support historical reports of implantable medical devices
+     - UDI may not be present in all scenarios such as historical implantable devices, patient reported implant information, payer reported devices, or improperly documented implants. If UDI is not present and the manufacturer (`manufacturer`) and model number (`model`) information is available, they **SHOULD** be included to support historical reports of implantable medical devices
 * For Implantable medical devices that have UDI information, at least one of the Production Identifiers (UDI-PI) **SHALL** be present.
 * Servers **SHOULD** support query by Device.type to allow clients to request the patient's devices by a specific type. Note: The Device.type is too granular to differentiate implantable vs. non-implantable devices.  
 * In the Quick Start section below, searching for all devices is described. Records of implanted devices **MAY** be queried against UDI data including:

--- a/input/resources_spreadsheets/uscore-server.xlsx
+++ b/input/resources_spreadsheets/uscore-server.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/US-Core-R4/input/resources_spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0296DB6C-1408-BA4E-B039-B8B87C49CA11}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE5748C8-8D27-0C44-A6A2-5EF114AEFFD9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-31640" yWindow="-19260" windowWidth="28800" windowHeight="18080" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -89,7 +89,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -98,12 +98,21 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-not being used since enumerating for US Core</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not being used since enumerating for US Core</t>
         </r>
       </text>
     </comment>
@@ -1620,9 +1629,6 @@
     <t>profile_conf</t>
   </si>
   <si>
-    <t>//ERICS-AIR-2/ehaas/Documents/FHIR/US-Core-R4/input/</t>
-  </si>
-  <si>
     <t>* The  MedicationRequest resource can represent a medication, using an external reference to a Medication resource. If an external Medication Resource is used in a MedicationRequest, then the READ  **SHALL**  be supported.</t>
   </si>
   <si>
@@ -1761,9 +1767,6 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/us/core/StructureDefinition/pediatric-weight-for-height</t>
-  </si>
-  <si>
-    <t>* A server **SHALL** support a value precise to the *day*.</t>
   </si>
   <si>
     <t>The client **SHALL** provide at least a id value and **MAY** provide both the Type and id values.
@@ -1906,17 +1909,23 @@
     <t>suppress_may_sps</t>
   </si>
   <si>
-    <t>US Core Implementation Guide</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core</t>
+    <t>A server **SHALL** support a value precise to the *day*.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/CapabilityStatement/us-core-server</t>
+  </si>
+  <si>
+    <t>Documents/FHIR/US-Core-R4/input/</t>
+  </si>
+  <si>
+    <t>US Core Server CapabilityStatement</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2011,6 +2020,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2405,10 +2427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A508ECBD-F3E5-4662-8D7C-0F31D75EC9A2}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2429,7 +2451,7 @@
         <v>488</v>
       </c>
       <c r="B2" t="s">
-        <v>497</v>
+        <v>575</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -2437,7 +2459,7 @@
         <v>489</v>
       </c>
       <c r="B3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -2482,11 +2504,14 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
       </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2498,10 +2523,7 @@
   <dimension ref="A1:AC94"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="AA43" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G68" sqref="G68"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2790,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="G5" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3004,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="G9" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3054,7 +3076,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="G10" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3117,7 +3139,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="G11" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3171,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="G12" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3222,7 +3244,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="G13" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3336,7 +3358,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="G15" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3389,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="G16" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3446,7 +3468,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="G17" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3503,7 +3525,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="G18" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3564,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="G19" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3617,7 +3639,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="G20" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3718,7 +3740,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="G22" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3769,7 +3791,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>534</v>
+        <v>573</v>
       </c>
       <c r="G23" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3816,7 +3838,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="G24" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3912,7 +3934,7 @@
         <v>1</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="G26" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4363,7 +4385,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="G35" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4417,7 +4439,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="G36" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4467,7 +4489,7 @@
         <v>1</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="G37" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4529,7 +4551,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="G38" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4582,7 +4604,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="G39" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4692,7 +4714,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="G41" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4748,7 +4770,7 @@
         <v>1</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="G42" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4810,7 +4832,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="G43" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4863,7 +4885,7 @@
         <v>0</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="G44" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4913,7 +4935,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="G45" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4970,7 +4992,7 @@
         <v>0</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="G46" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5026,7 +5048,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="G47" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5082,7 +5104,7 @@
         <v>1</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="G48" s="1" t="str">
         <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B48)</f>
@@ -5144,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="G49" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5197,7 +5219,7 @@
         <v>0</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="G50" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5250,7 +5272,7 @@
         <v>0</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="G51" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5307,7 +5329,7 @@
         <v>0</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="G52" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5360,7 +5382,7 @@
         <v>1</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="G53" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5422,7 +5444,7 @@
         <v>0</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="G54" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5479,7 +5501,7 @@
         <v>0</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="G55" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5535,7 +5557,7 @@
         <v>0</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="G56" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5591,7 +5613,7 @@
         <v>0</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="G57" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5645,7 +5667,7 @@
         <v>0</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="G58" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5699,7 +5721,7 @@
         <v>0</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="G59" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5756,7 +5778,7 @@
         <v>0</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="G60" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5812,7 +5834,7 @@
         <v>1</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="G61" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5873,7 +5895,7 @@
         <v>0</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="G62" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5930,7 +5952,7 @@
         <v>0</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="G63" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5986,7 +6008,7 @@
         <v>1</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="G64" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6047,7 +6069,7 @@
         <v>0</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="G65" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6104,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="G66" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6157,7 +6179,7 @@
         <v>0</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="G67" s="1" t="str">
         <f t="shared" ref="G67:G94" si="29">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B67)</f>
@@ -6213,7 +6235,7 @@
         <v>0</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="G68" s="1" t="str">
         <f t="shared" si="29"/>
@@ -6266,7 +6288,7 @@
         <v>0</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="G69" s="1" t="str">
         <f t="shared" si="29"/>
@@ -6319,7 +6341,7 @@
         <v>0</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="G70" s="1" t="str">
         <f t="shared" si="29"/>
@@ -6376,7 +6398,7 @@
         <v>0</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="G71" s="1" t="str">
         <f t="shared" si="29"/>
@@ -6438,7 +6460,7 @@
         <v>0</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="G72" s="1" t="str">
         <f t="shared" si="29"/>
@@ -6491,7 +6513,7 @@
         <v>0</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="G73" s="1" t="str">
         <f t="shared" si="29"/>
@@ -6541,7 +6563,7 @@
         <v>0</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="G74" s="1" t="str">
         <f t="shared" si="29"/>
@@ -6598,7 +6620,7 @@
         <v>0</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="G75" s="1" t="str">
         <f t="shared" si="29"/>
@@ -6660,7 +6682,7 @@
         <v>0</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="G76" s="1" t="str">
         <f t="shared" si="29"/>
@@ -6716,7 +6738,7 @@
         <v>0</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="G77" s="1" t="str">
         <f t="shared" si="29"/>
@@ -6778,7 +6800,7 @@
         <v>0</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="G78" s="1" t="str">
         <f t="shared" si="29"/>
@@ -6834,7 +6856,7 @@
         <v>1</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="G79" s="1" t="str">
         <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-implantable-"&amp;LOWER(B79)</f>
@@ -6896,7 +6918,7 @@
         <v>0</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="G80" s="1" t="str">
         <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-implantable-"&amp;LOWER(B80)</f>
@@ -7552,7 +7574,7 @@
         <v>1</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="G92" s="1" t="str">
         <f t="shared" si="29"/>
@@ -7610,7 +7632,7 @@
         <v>1</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="G93" s="1" t="str">
         <f t="shared" si="29"/>
@@ -7671,7 +7693,7 @@
         <v>1</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="G94" s="1" t="str">
         <f t="shared" si="29"/>
@@ -8092,7 +8114,7 @@
         <v>315</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="J13" s="5" t="str">
         <f t="shared" si="1"/>
@@ -8798,7 +8820,7 @@
         <v>174</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="J38" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B38&amp;" resources for the specified "&amp;SUBSTITUTE(D38,","," and ")</f>
@@ -8955,7 +8977,7 @@
         <v>203</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="J43" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B43&amp;" resources for the specified patient and date and a category code = `LAB`"</f>
@@ -8985,7 +9007,7 @@
         <v>234</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="J44" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B44&amp;" resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes."</f>
@@ -9105,7 +9127,7 @@
         <v>209</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="J48" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B48&amp;" resources for the specified patient and date and a category code specified in US Core DiagnosticReport Category Codes"</f>
@@ -9135,7 +9157,7 @@
         <v>228</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="J49" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B49&amp;" resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes."</f>
@@ -9330,7 +9352,7 @@
         <v>238</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="J55" s="5" t="s">
         <v>479</v>
@@ -9484,7 +9506,7 @@
         <v>235</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="J60" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B60&amp;" resources for the specified patient and date and procedure code(s).  SHOULD support search by multiple codes."</f>
@@ -9612,7 +9634,7 @@
         <v>233</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="J64" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B64&amp;" resources for the specified patient and date and a category code = `laboratory`"</f>
@@ -9642,7 +9664,7 @@
         <v>231</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="J65" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B65&amp;" resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes."</f>
@@ -9738,7 +9760,7 @@
         <v>249</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="J68" s="5" t="s">
         <v>253</v>
@@ -9802,7 +9824,7 @@
         <v>248</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="J70" s="5" t="s">
         <v>255</v>
@@ -9882,7 +9904,7 @@
         <v>190</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>245</v>
@@ -9915,7 +9937,7 @@
         <v>190</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>151</v>
@@ -9948,7 +9970,7 @@
         <v>190</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>153</v>
@@ -9981,7 +10003,7 @@
         <v>190</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>202</v>
@@ -9999,7 +10021,7 @@
         <v>294</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="J76" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B76&amp;" resources for the specified patient and date and a category code = `vital-signs`"</f>
@@ -10014,7 +10036,7 @@
         <v>190</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>227</v>
@@ -10029,7 +10051,7 @@
         <v>295</v>
       </c>
       <c r="I77" s="5" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="J77" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B77&amp;" resources for the specified patient and date and report code(s).  SHOULD support search by multiple codes."</f>
@@ -10162,7 +10184,7 @@
         <v>307</v>
       </c>
       <c r="I81" s="9" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="J81" s="5" t="s">
         <v>309</v>
@@ -10222,7 +10244,7 @@
         <v>312</v>
       </c>
       <c r="I83" s="5" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="J83" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B83&amp;" resources for the specified "&amp;SUBSTITUTE(D83,","," and ") &amp;". See the implementation notes above for how to access the actual document."</f>
@@ -10348,31 +10370,31 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>555</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>556</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="B11" s="18" t="s">
         <v>567</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>74</v>
@@ -10402,7 +10424,7 @@
         <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C1" t="s">
         <v>14</v>
@@ -10410,10 +10432,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B2" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C2" t="s">
         <v>74</v>
@@ -10421,10 +10443,10 @@
     </row>
     <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>74</v>
@@ -10445,7 +10467,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10460,16 +10482,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>14</v>
@@ -10480,10 +10502,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>12</v>
@@ -10766,10 +10788,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>12</v>
@@ -10781,10 +10803,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>12</v>
@@ -10796,10 +10818,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>12</v>
@@ -10811,10 +10833,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>12</v>
@@ -10826,10 +10848,10 @@
     </row>
     <row r="22" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>12</v>
@@ -10840,10 +10862,10 @@
     </row>
     <row r="23" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>12</v>
@@ -10854,10 +10876,10 @@
     </row>
     <row r="24" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>12</v>
@@ -10868,10 +10890,10 @@
     </row>
     <row r="25" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>12</v>
@@ -10882,10 +10904,10 @@
     </row>
     <row r="26" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>12</v>
@@ -10896,10 +10918,10 @@
     </row>
     <row r="27" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>12</v>
@@ -10910,10 +10932,10 @@
     </row>
     <row r="28" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>12</v>
@@ -10938,10 +10960,10 @@
     </row>
     <row r="30" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>12</v>
@@ -11068,10 +11090,10 @@
   <dimension ref="A1:Y59"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="T10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="W10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V17" sqref="V17"/>
+      <selection pane="bottomRight" activeCell="X24" sqref="X24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11155,16 +11177,16 @@
         <v>422</v>
       </c>
       <c r="V1" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="Y1" s="4" t="s">
         <v>562</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>561</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>563</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="25.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -11200,7 +11222,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>19</v>
@@ -11263,7 +11285,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="T6" s="1" t="s">
         <v>19</v>
@@ -11329,7 +11351,7 @@
         <v>12</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="T9" s="1" t="s">
         <v>19</v>
@@ -11372,7 +11394,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="T11" s="1" t="s">
         <v>19</v>
@@ -11395,7 +11417,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="T12" s="1" t="s">
         <v>19</v>
@@ -11414,7 +11436,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="T13" s="1" t="s">
         <v>19</v>
@@ -11433,7 +11455,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="T14" s="1" t="s">
         <v>19</v>
@@ -11462,7 +11484,7 @@
         <v>12</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="T15" s="1" t="s">
         <v>19</v>
@@ -11491,7 +11513,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="T16" s="1" t="s">
         <v>19</v>
@@ -11530,7 +11552,7 @@
         <v>12</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="T18" s="1" t="s">
         <v>19</v>
@@ -11569,7 +11591,7 @@
         <v>12</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="T20" s="1" t="s">
         <v>19</v>
@@ -11578,7 +11600,7 @@
         <v>74</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="W20" s="1" t="s">
         <v>284</v>
@@ -11594,7 +11616,7 @@
         <v>12</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="T21" s="1" t="s">
         <v>19</v>
@@ -11617,7 +11639,7 @@
         <v>12</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="T22" s="1" t="s">
         <v>19</v>
@@ -11737,10 +11759,10 @@
   <dimension ref="A1:Y10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L20" sqref="L20"/>
+      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/input/resources_spreadsheets/uscore-server.xlsx
+++ b/input/resources_spreadsheets/uscore-server.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/US-Core-R4/input/resources_spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE5748C8-8D27-0C44-A6A2-5EF114AEFFD9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D26A98CA-48A9-0441-9EC1-38488091F5BE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-31640" yWindow="-19260" windowWidth="28800" windowHeight="18080" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1960" yWindow="-19000" windowWidth="28800" windowHeight="18080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -1610,22 +1610,6 @@
     <t>support searching for a patient by a server defined search that matches any of the string fields in the HumanName, including family, give, prefix, suffix, suffix, and/or text</t>
   </si>
   <si>
-    <t>The US Core Server **SHALL**:
-1. Support the US Core Patient resource profile.
-1. Support at least one additional resource profile from the list of US Core Profiles.
-1. Implement the RESTful behavior according to the FHIR specification.
-1. Return the following response classes:
-   - (Status 400): invalid parameter
-   - (Status 401/4xx): unauthorized request
-   - (Status 403): insufficient scopes
-   - (Status 404): unknown resource
-1. Support json source formats for all US Core interactions.
-The US Core Server **SHOULD**:
-1. Support xml source formats for all US Core interactions.
-1. Identify the US Core profiles supported as part of the FHIR `meta.profile` attribute for each instance.
-1. Support xml resource formats for all Argonaut questionnaire interactions.</t>
-  </si>
-  <si>
     <t>profile_conf</t>
   </si>
   <si>
@@ -1919,6 +1903,23 @@
   </si>
   <si>
     <t>US Core Server CapabilityStatement</t>
+  </si>
+  <si>
+    <t>The US Core Server **SHALL**:
+1. Support the US Core Patient resource profile.
+1. Support at least one additional resource profile from the list of US Core Profiles.
+1. Implement the RESTful behavior according to the FHIR specification.
+1. For all the supported search interactions in this guide, support the `GET` based search.
+1. Return the following response classes:
+   - (Status 400): invalid parameter
+   - (Status 401/4xx): unauthorized request
+   - (Status 403): insufficient scopes
+   - (Status 404): unknown resource
+1. Support json source formats for all US Core interactions.
+The US Core Server **SHOULD**:
+1. Support xml source formats for all US Core interactions.
+1. Identify the US Core profiles supported as part of the FHIR `meta.profile` attribute for each instance.
+1. Support xml resource formats for all Argonaut questionnaire interactions.</t>
   </si>
 </sst>
 </file>
@@ -2430,7 +2431,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2451,7 +2452,7 @@
         <v>488</v>
       </c>
       <c r="B2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -2459,7 +2460,7 @@
         <v>489</v>
       </c>
       <c r="B3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -2504,7 +2505,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -2812,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G5" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3026,7 +3027,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G9" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3076,7 +3077,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G10" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3139,7 +3140,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G11" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3193,7 +3194,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G12" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3244,7 +3245,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G13" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3358,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G15" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3411,7 +3412,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G16" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3468,7 +3469,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G17" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3525,7 +3526,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G18" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3586,7 +3587,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G19" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3639,7 +3640,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G20" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3740,7 +3741,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G22" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3791,7 +3792,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="G23" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3838,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G24" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3934,7 +3935,7 @@
         <v>1</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G26" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4385,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G35" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4439,7 +4440,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G36" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4489,7 +4490,7 @@
         <v>1</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G37" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4551,7 +4552,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G38" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4604,7 +4605,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G39" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4714,7 +4715,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G41" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4770,7 +4771,7 @@
         <v>1</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G42" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4832,7 +4833,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G43" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4885,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G44" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4935,7 +4936,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G45" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4992,7 +4993,7 @@
         <v>0</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G46" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5048,7 +5049,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G47" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5104,7 +5105,7 @@
         <v>1</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G48" s="1" t="str">
         <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B48)</f>
@@ -5166,7 +5167,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G49" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5219,7 +5220,7 @@
         <v>0</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G50" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5272,7 +5273,7 @@
         <v>0</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G51" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5329,7 +5330,7 @@
         <v>0</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G52" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5382,7 +5383,7 @@
         <v>1</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G53" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5444,7 +5445,7 @@
         <v>0</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G54" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5501,7 +5502,7 @@
         <v>0</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G55" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5557,7 +5558,7 @@
         <v>0</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G56" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5613,7 +5614,7 @@
         <v>0</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G57" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5667,7 +5668,7 @@
         <v>0</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G58" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5721,7 +5722,7 @@
         <v>0</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G59" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5778,7 +5779,7 @@
         <v>0</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G60" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5834,7 +5835,7 @@
         <v>1</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G61" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5895,7 +5896,7 @@
         <v>0</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G62" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5952,7 +5953,7 @@
         <v>0</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G63" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6008,7 +6009,7 @@
         <v>1</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G64" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6069,7 +6070,7 @@
         <v>0</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G65" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6126,7 +6127,7 @@
         <v>0</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G66" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6179,7 +6180,7 @@
         <v>0</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G67" s="1" t="str">
         <f t="shared" ref="G67:G94" si="29">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B67)</f>
@@ -6235,7 +6236,7 @@
         <v>0</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G68" s="1" t="str">
         <f t="shared" si="29"/>
@@ -6288,7 +6289,7 @@
         <v>0</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G69" s="1" t="str">
         <f t="shared" si="29"/>
@@ -6341,7 +6342,7 @@
         <v>0</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G70" s="1" t="str">
         <f t="shared" si="29"/>
@@ -6398,7 +6399,7 @@
         <v>0</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G71" s="1" t="str">
         <f t="shared" si="29"/>
@@ -6460,7 +6461,7 @@
         <v>0</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G72" s="1" t="str">
         <f t="shared" si="29"/>
@@ -6513,7 +6514,7 @@
         <v>0</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G73" s="1" t="str">
         <f t="shared" si="29"/>
@@ -6563,7 +6564,7 @@
         <v>0</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G74" s="1" t="str">
         <f t="shared" si="29"/>
@@ -6620,7 +6621,7 @@
         <v>0</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G75" s="1" t="str">
         <f t="shared" si="29"/>
@@ -6682,7 +6683,7 @@
         <v>0</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G76" s="1" t="str">
         <f t="shared" si="29"/>
@@ -6738,7 +6739,7 @@
         <v>0</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G77" s="1" t="str">
         <f t="shared" si="29"/>
@@ -6800,7 +6801,7 @@
         <v>0</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G78" s="1" t="str">
         <f t="shared" si="29"/>
@@ -6856,7 +6857,7 @@
         <v>1</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G79" s="1" t="str">
         <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-implantable-"&amp;LOWER(B79)</f>
@@ -6918,7 +6919,7 @@
         <v>0</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G80" s="1" t="str">
         <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-implantable-"&amp;LOWER(B80)</f>
@@ -7574,7 +7575,7 @@
         <v>1</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G92" s="1" t="str">
         <f t="shared" si="29"/>
@@ -7632,7 +7633,7 @@
         <v>1</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G93" s="1" t="str">
         <f t="shared" si="29"/>
@@ -7693,7 +7694,7 @@
         <v>1</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G94" s="1" t="str">
         <f t="shared" si="29"/>
@@ -8114,7 +8115,7 @@
         <v>315</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J13" s="5" t="str">
         <f t="shared" si="1"/>
@@ -8820,7 +8821,7 @@
         <v>174</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="J38" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B38&amp;" resources for the specified "&amp;SUBSTITUTE(D38,","," and ")</f>
@@ -8977,7 +8978,7 @@
         <v>203</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="J43" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B43&amp;" resources for the specified patient and date and a category code = `LAB`"</f>
@@ -9007,7 +9008,7 @@
         <v>234</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="J44" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B44&amp;" resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes."</f>
@@ -9127,7 +9128,7 @@
         <v>209</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="J48" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B48&amp;" resources for the specified patient and date and a category code specified in US Core DiagnosticReport Category Codes"</f>
@@ -9157,7 +9158,7 @@
         <v>228</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="J49" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B49&amp;" resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes."</f>
@@ -9352,7 +9353,7 @@
         <v>238</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="J55" s="5" t="s">
         <v>479</v>
@@ -9506,7 +9507,7 @@
         <v>235</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="J60" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B60&amp;" resources for the specified patient and date and procedure code(s).  SHOULD support search by multiple codes."</f>
@@ -9634,7 +9635,7 @@
         <v>233</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="J64" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B64&amp;" resources for the specified patient and date and a category code = `laboratory`"</f>
@@ -9664,7 +9665,7 @@
         <v>231</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="J65" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B65&amp;" resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes."</f>
@@ -9760,7 +9761,7 @@
         <v>249</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="J68" s="5" t="s">
         <v>253</v>
@@ -9824,7 +9825,7 @@
         <v>248</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J70" s="5" t="s">
         <v>255</v>
@@ -9904,7 +9905,7 @@
         <v>190</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>245</v>
@@ -9937,7 +9938,7 @@
         <v>190</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>151</v>
@@ -9970,7 +9971,7 @@
         <v>190</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>153</v>
@@ -10003,7 +10004,7 @@
         <v>190</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>202</v>
@@ -10021,7 +10022,7 @@
         <v>294</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="J76" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B76&amp;" resources for the specified patient and date and a category code = `vital-signs`"</f>
@@ -10036,7 +10037,7 @@
         <v>190</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>227</v>
@@ -10051,7 +10052,7 @@
         <v>295</v>
       </c>
       <c r="I77" s="5" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="J77" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B77&amp;" resources for the specified patient and date and report code(s).  SHOULD support search by multiple codes."</f>
@@ -10184,7 +10185,7 @@
         <v>307</v>
       </c>
       <c r="I81" s="9" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="J81" s="5" t="s">
         <v>309</v>
@@ -10244,7 +10245,7 @@
         <v>312</v>
       </c>
       <c r="I83" s="5" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="J83" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B83&amp;" resources for the specified "&amp;SUBSTITUTE(D83,","," and ") &amp;". See the implementation notes above for how to access the actual document."</f>
@@ -10294,8 +10295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B7" sqref="A1:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10357,7 +10358,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>495</v>
+        <v>576</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10370,31 +10371,31 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>74</v>
@@ -10410,7 +10411,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A11" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10424,7 +10425,7 @@
         <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C1" t="s">
         <v>14</v>
@@ -10432,10 +10433,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C2" t="s">
         <v>74</v>
@@ -10443,10 +10444,10 @@
     </row>
     <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>74</v>
@@ -10466,8 +10467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84EBB963-62EF-8346-A79F-04E3300CC06A}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10482,16 +10483,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>557</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>558</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>14</v>
@@ -10502,10 +10503,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>12</v>
@@ -10788,10 +10789,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>12</v>
@@ -10803,10 +10804,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>12</v>
@@ -10818,10 +10819,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>12</v>
@@ -10833,10 +10834,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>12</v>
@@ -10848,10 +10849,10 @@
     </row>
     <row r="22" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>12</v>
@@ -10862,10 +10863,10 @@
     </row>
     <row r="23" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>12</v>
@@ -10876,10 +10877,10 @@
     </row>
     <row r="24" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>12</v>
@@ -10890,10 +10891,10 @@
     </row>
     <row r="25" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>12</v>
@@ -10904,10 +10905,10 @@
     </row>
     <row r="26" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>12</v>
@@ -10918,10 +10919,10 @@
     </row>
     <row r="27" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>12</v>
@@ -10932,10 +10933,10 @@
     </row>
     <row r="28" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>12</v>
@@ -10960,10 +10961,10 @@
     </row>
     <row r="30" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>12</v>
@@ -11093,7 +11094,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="W10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="X24" sqref="X24"/>
+      <selection pane="bottomRight" activeCell="V1" sqref="V1:Y1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11126,7 +11127,7 @@
         <v>39</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F1" t="s">
         <v>15</v>
@@ -11177,16 +11178,16 @@
         <v>422</v>
       </c>
       <c r="V1" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="X1" s="4" t="s">
         <v>560</v>
       </c>
-      <c r="W1" s="4" t="s">
-        <v>559</v>
-      </c>
-      <c r="X1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>561</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="25.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -11222,7 +11223,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>19</v>
@@ -11285,7 +11286,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="T6" s="1" t="s">
         <v>19</v>
@@ -11351,7 +11352,7 @@
         <v>12</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="T9" s="1" t="s">
         <v>19</v>
@@ -11394,7 +11395,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="T11" s="1" t="s">
         <v>19</v>
@@ -11417,7 +11418,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="T12" s="1" t="s">
         <v>19</v>
@@ -11436,7 +11437,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="T13" s="1" t="s">
         <v>19</v>
@@ -11455,7 +11456,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="T14" s="1" t="s">
         <v>19</v>
@@ -11484,7 +11485,7 @@
         <v>12</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="T15" s="1" t="s">
         <v>19</v>
@@ -11513,7 +11514,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="T16" s="1" t="s">
         <v>19</v>
@@ -11552,7 +11553,7 @@
         <v>12</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="T18" s="1" t="s">
         <v>19</v>
@@ -11591,7 +11592,7 @@
         <v>12</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="T20" s="1" t="s">
         <v>19</v>
@@ -11600,7 +11601,7 @@
         <v>74</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="W20" s="1" t="s">
         <v>284</v>
@@ -11616,7 +11617,7 @@
         <v>12</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="T21" s="1" t="s">
         <v>19</v>
@@ -11639,7 +11640,7 @@
         <v>12</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="T22" s="1" t="s">
         <v>19</v>
@@ -11759,10 +11760,10 @@
   <dimension ref="A1:Y10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomRight" activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/input/resources_spreadsheets/uscore-server.xlsx
+++ b/input/resources_spreadsheets/uscore-server.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/US-Core-R4/input/resources_spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D26A98CA-48A9-0441-9EC1-38488091F5BE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D48CC85-AD1C-754D-BE7E-DF9C86D6072E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1960" yWindow="-19000" windowWidth="28800" windowHeight="18080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15300" yWindow="-18080" windowWidth="28800" windowHeight="18080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -121,7 +121,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2127" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2130" uniqueCount="577">
   <si>
     <t>Element</t>
   </si>
@@ -2431,7 +2431,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A9" sqref="A9:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10296,7 +10296,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B7" sqref="A1:B12"/>
+      <selection activeCell="A9" sqref="A9:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10408,10 +10408,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A70CC787-78D8-4AA0-BE43-37746049F77C}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A11" sqref="A1:XFD1048576"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10420,7 +10420,7 @@
     <col min="2" max="2" width="35.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -10428,35 +10428,38 @@
         <v>563</v>
       </c>
       <c r="C1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>570</v>
       </c>
       <c r="B2" t="s">
         <v>567</v>
       </c>
-      <c r="C2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>569</v>
       </c>
       <c r="B3" s="19" t="s">
         <v>568</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10465,10 +10468,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84EBB963-62EF-8346-A79F-04E3300CC06A}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="A1:XFD1048576"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10476,12 +10479,12 @@
     <col min="1" max="1" width="8.83203125" style="1"/>
     <col min="2" max="2" width="13.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="24.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.83203125" style="1"/>
+    <col min="4" max="5" width="16" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>556</v>
       </c>
@@ -10495,10 +10498,13 @@
         <v>563</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B2" s="20" t="b">
         <v>1</v>
       </c>
@@ -10508,7 +10514,8 @@
       <c r="D2" s="19" t="s">
         <v>573</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="19"/>
+      <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -10519,565 +10526,569 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="94" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="60.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B2" t="s">
         <v>382</v>
       </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
       <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>244</v>
       </c>
       <c r="B3" t="s">
         <v>374</v>
       </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
       <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
         <v>242</v>
       </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>349</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>361</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>448</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>196</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="D7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>197</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="D8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>357</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>363</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="D10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>375</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="D11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>354</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="D12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>377</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="D13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>368</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="D14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>359</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="D15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>493</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="D16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>431</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="D17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>508</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="D18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>509</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="D19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>510</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="D20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>511</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="D21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>512</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="D22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>513</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="D23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>514</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="D24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>515</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="D25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>528</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="D26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>526</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="D27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>531</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="D28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>460</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="D29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>516</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="D30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>286</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="D31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>364</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="D32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="D33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>352</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="D34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>372</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="D35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>366</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="D36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>456</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="D37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>455</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D37">
-    <sortCondition ref="D2:D37"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E37">
+    <sortCondition ref="E2:E37"/>
     <sortCondition ref="B2:B37"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11091,10 +11102,10 @@
   <dimension ref="A1:Y59"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="W10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="U10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V1" sqref="V1:Y1048576"/>
+      <selection pane="bottomRight" activeCell="V1" sqref="V1:Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/input/resources_spreadsheets/uscore-server.xlsx
+++ b/input/resources_spreadsheets/uscore-server.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/US-Core-R4/input/resources_spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D48CC85-AD1C-754D-BE7E-DF9C86D6072E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA07258-8DC6-1342-ADE9-2EF7FDFA5028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15300" yWindow="-18080" windowWidth="28800" windowHeight="18080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15300" yWindow="-18080" windowWidth="28800" windowHeight="18080" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -1814,25 +1814,6 @@
     <t>GET [base]/DocumentReference?patient=2169591&amp;type=http://loinc.org \|34133-9&amp;period=ge2020-01-01T00:00:00Z</t>
   </si>
   <si>
-    <t>* Implantable medical devices that have UDI information **SHALL** represent this information in either `carrierAIDC` or `carrierHRF`.
-     - Although both are marked as must support, the server systems are not required to support both `carrierAIDC` and `carrierHRF`, but **SHALL** support at least one of these elements.
-     - The client application **SHALL** support both elements.
-     - UDI may not be present in all scenarios such as historical implantable devices, patient reported implant information, payer reported devices, or improperly documented implants. If UDI is not present and the manufacturer (`manufacturer`) and model number (`model`) information is available, they **SHOULD** be included to support historical reports of implantable medical devices
-* For Implantable medical devices that have UDI information, at least one of the Production Identifiers (UDI-PI) **SHALL** be present.
-* Servers **SHOULD** support query by Device.type to allow clients to request the patient's devices by a specific type. Note: The Device.type is too granular to differentiate implantable vs. non-implantable devices.  
-* In the Quick Start section below, searching for all devices is described. Records of implanted devices **MAY** be queried against UDI data including:
-    - UDI HRF string (`udi-carrier`)
-    - UDI Device Identifier (`udi-di`)
-    - Manufacturer (`manufacturer`)
-    - Model number (`model`)
-  Implementers **MAY** also adopt custom SearchParameters for searching by:
-    - lot numbers
-    - serial number
-    - expiration date
-    - manufacture date
-    - distinct identifier</t>
-  </si>
-  <si>
     <t>format</t>
   </si>
   <si>
@@ -1920,6 +1901,41 @@
 1. Support xml source formats for all US Core interactions.
 1. Identify the US Core profiles supported as part of the FHIR `meta.profile` attribute for each instance.
 1. Support xml resource formats for all Argonaut questionnaire interactions.</t>
+  </si>
+  <si>
+    <t>* Implantable medical devices that have UDI information **SHALL** represent the UDI code in `Device.udiCarrier.carrierHRF`.
+   - All of the five UDI-PI elements that are present in the UDI code **SHALL** be represented in the corresponding US Core Implantable Device Profile element.
+   UDI may not be present in all scenarios such as historical implantable devices, patient reported implant information, payer reported devices, or improperly documented implants. If UDI is not present and the manufacturer and/or model number information is available, they **SHOULD** be included to support historical reports of implantable medical devices as follows:
+    &lt;table&gt;
+    &lt;thead&gt;
+    &lt;tr class="header"&gt;
+    &lt;th&gt;data element&lt;/th&gt;
+    &lt;th&gt;US Core Implantable Device Profile element&lt;/th&gt;
+    &lt;/tr&gt;
+    &lt;/thead&gt;
+    &lt;tbody&gt;
+    &lt;tr class="odd"&gt;
+    &lt;td&gt;manufacturer&lt;/td&gt;
+    &lt;td&gt;Device.manufacturer&lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr class="even"&gt;
+    &lt;td&gt;model&lt;/td&gt;
+    &lt;td&gt;Device.model&lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;/tbody&gt;
+    &lt;/table&gt;
+* Servers **SHOULD** support query by Device.type to allow clients to request the patient's devices by a specific type. Note: The Device.type is too granular to differentiate implantable vs. non-implantable devices.  
+* In the Quick Start section below, searching for all devices is described. Records of implanted devices **MAY** be queried against UDI data including:
+    - UDI HRF string (`udi-carrier`)
+    - UDI Device Identifier (`udi-di`)
+    - Manufacturer (`manufacturer`)
+    - Model number (`model`)
+  Implementers **MAY** also adopt custom SearchParameters for searching by:
+    - lot numbers
+    - serial number
+    - expiration date
+    - manufacture date
+    - distinct identifier</t>
   </si>
 </sst>
 </file>
@@ -2452,7 +2468,7 @@
         <v>488</v>
       </c>
       <c r="B2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -2505,7 +2521,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -3792,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G23" s="1" t="str">
         <f t="shared" si="1"/>
@@ -10295,7 +10311,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A9" sqref="A9:XFD12"/>
     </sheetView>
   </sheetViews>
@@ -10358,7 +10374,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10371,31 +10387,31 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>74</v>
@@ -10425,7 +10441,7 @@
         <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C1" t="s">
         <v>62</v>
@@ -10436,10 +10452,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D2" t="s">
         <v>74</v>
@@ -10447,10 +10463,10 @@
     </row>
     <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>74</v>
@@ -10486,16 +10502,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>556</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>557</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>62</v>
@@ -10509,10 +10525,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E2" s="19"/>
       <c r="F2" s="1" t="s">
@@ -11101,11 +11117,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Y59"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="U10" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V1" sqref="V1:Y1"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11189,16 +11205,16 @@
         <v>422</v>
       </c>
       <c r="V1" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="X1" s="4" t="s">
         <v>559</v>
       </c>
-      <c r="W1" s="4" t="s">
-        <v>558</v>
-      </c>
-      <c r="X1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>560</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="25.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -11297,7 +11313,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>551</v>
+        <v>576</v>
       </c>
       <c r="T6" s="1" t="s">
         <v>19</v>
@@ -11612,7 +11628,7 @@
         <v>74</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="W20" s="1" t="s">
         <v>284</v>

--- a/input/resources_spreadsheets/uscore-server.xlsx
+++ b/input/resources_spreadsheets/uscore-server.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/US-Core-R4/input/resources_spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65B33161-9688-164B-B376-BAA8A7A43F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C97FC48-26E2-F74B-AE90-2A48883CA9CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5740" yWindow="-21140" windowWidth="40220" windowHeight="21140" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26980" yWindow="-14860" windowWidth="40220" windowHeight="21140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -1798,12 +1798,6 @@
     <t>application/json-patch+json</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/smart-app-launch</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/uv/bulkdata</t>
-  </si>
-  <si>
     <t>Bulk Data Access IG</t>
   </si>
   <si>
@@ -1875,6 +1869,12 @@
     - expiration date
     - manufacture date
     - distinct identifier</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/uv/bulkdata/STU1.0.1/ImplementationGuide-hl7.fhir.uv.bulkdata.html</t>
+  </si>
+  <si>
+    <t>http://fhir-registry.smarthealthit.org</t>
   </si>
 </sst>
 </file>
@@ -2394,7 +2394,7 @@
         <v>482</v>
       </c>
       <c r="B2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -2447,7 +2447,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -2465,7 +2465,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AA94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C68" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -3679,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="G23" s="1" t="str">
         <f t="shared" si="1"/>
@@ -10113,7 +10113,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10165,8 +10165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A70CC787-78D8-4AA0-BE43-37746049F77C}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10191,21 +10191,21 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B2" t="s">
+        <v>570</v>
+      </c>
+      <c r="D2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
         <v>560</v>
       </c>
-      <c r="D2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
-        <v>562</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>561</v>
+      <c r="B3" s="1" t="s">
+        <v>569</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>70</v>
@@ -10264,10 +10264,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E2" s="19"/>
       <c r="F2" s="1" t="s">
@@ -11052,7 +11052,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="T6" s="1" t="s">
         <v>19</v>

--- a/input/resources_spreadsheets/uscore-server.xlsx
+++ b/input/resources_spreadsheets/uscore-server.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/US-Core-R4/input/resources_spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C97FC48-26E2-F74B-AE90-2A48883CA9CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D8416F0-28EC-A54B-AC7F-6F2353CCFA82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26980" yWindow="-14860" windowWidth="40220" windowHeight="21140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26980" yWindow="-21140" windowWidth="40220" windowHeight="21140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -1871,10 +1871,10 @@
     - distinct identifier</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/bulkdata/STU1.0.1/ImplementationGuide-hl7.fhir.uv.bulkdata.html</t>
-  </si>
-  <si>
     <t>http://fhir-registry.smarthealthit.org</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/uv/bulkdata/STU1.0.1/ImplementationGuide-hl7.fhir.uv.bulkdata</t>
   </si>
 </sst>
 </file>
@@ -10166,7 +10166,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10194,7 +10194,7 @@
         <v>561</v>
       </c>
       <c r="B2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D2" t="s">
         <v>70</v>
@@ -10205,7 +10205,7 @@
         <v>560</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>70</v>

--- a/input/resources_spreadsheets/uscore-server.xlsx
+++ b/input/resources_spreadsheets/uscore-server.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/US-Core-R4/input/resources_spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D8416F0-28EC-A54B-AC7F-6F2353CCFA82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B44D094A-BD97-9F49-8797-F62D5339C02B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26980" yWindow="-21140" windowWidth="40220" windowHeight="21140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3920" yWindow="6920" windowWidth="28800" windowHeight="17540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -1871,10 +1871,10 @@
     - distinct identifier</t>
   </si>
   <si>
-    <t>http://fhir-registry.smarthealthit.org</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/uv/bulkdata/STU1.0.1/ImplementationGuide-hl7.fhir.uv.bulkdata</t>
+    <t>http://hl7.org/fhir/smart-app-launch</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/uv/bulkdata</t>
   </si>
 </sst>
 </file>
@@ -10166,7 +10166,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10193,18 +10193,18 @@
       <c r="A2" s="11" t="s">
         <v>561</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>569</v>
       </c>
       <c r="D2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>560</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="19" t="s">
         <v>570</v>
       </c>
       <c r="D3" s="1" t="s">

--- a/input/resources_spreadsheets/uscore-server.xlsx
+++ b/input/resources_spreadsheets/uscore-server.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/US-Core-R4/input/resources_spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B44D094A-BD97-9F49-8797-F62D5339C02B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6487D2D9-1421-6B42-BB84-3BDD532FC064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3920" yWindow="6920" windowWidth="28800" windowHeight="17540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2073" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2075" uniqueCount="573">
   <si>
     <t>Element</t>
   </si>
@@ -1869,6 +1869,12 @@
     - expiration date
     - manufacture date
     - distinct identifier</t>
+  </si>
+  <si>
+    <t>http://fhir-registry.smarthealthit.org</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/uv/bulkdata/STU1.0.1/ImplementationGuide-hl7.fhir.uv.bulkdata</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/smart-app-launch</t>
@@ -10166,7 +10172,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10196,6 +10202,9 @@
       <c r="B2" s="1" t="s">
         <v>569</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>571</v>
+      </c>
       <c r="D2" t="s">
         <v>70</v>
       </c>
@@ -10204,8 +10213,11 @@
       <c r="A3" s="11" t="s">
         <v>560</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="1" t="s">
         <v>570</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>572</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>70</v>

--- a/input/resources_spreadsheets/uscore-server.xlsx
+++ b/input/resources_spreadsheets/uscore-server.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/US-Core-R4/input/resources_spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6487D2D9-1421-6B42-BB84-3BDD532FC064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B2C667-DAE4-C747-9173-9BE7E405CDE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3920" yWindow="6920" windowWidth="28800" windowHeight="17540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1874,13 +1874,13 @@
     <t>http://fhir-registry.smarthealthit.org</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/bulkdata/STU1.0.1/ImplementationGuide-hl7.fhir.uv.bulkdata</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/smart-app-launch</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/uv/bulkdata</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/uv/bulkdata/ImplementationGuide/hl7.fhir.uv.bulkdata</t>
   </si>
 </sst>
 </file>
@@ -10172,7 +10172,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10203,7 +10203,7 @@
         <v>569</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D2" t="s">
         <v>70</v>
@@ -10214,10 +10214,10 @@
         <v>560</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>70</v>

--- a/input/resources_spreadsheets/uscore-server.xlsx
+++ b/input/resources_spreadsheets/uscore-server.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/US-Core-R4/input/resources_spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B2C667-DAE4-C747-9173-9BE7E405CDE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741F4EE0-C9DB-154D-8130-A47463542893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3920" yWindow="6920" windowWidth="28800" windowHeight="17540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1500" yWindow="11200" windowWidth="28800" windowHeight="17540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2075" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2076" uniqueCount="574">
   <si>
     <t>Element</t>
   </si>
@@ -1874,13 +1874,16 @@
     <t>http://fhir-registry.smarthealthit.org</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/smart-app-launch</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/uv/bulkdata</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/uv/bulkdata/ImplementationGuide/hl7.fhir.uv.bulkdata</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/smart-app-launch/index.html</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/uv/bulkdata/index.html</t>
+  </si>
+  <si>
+    <t>http://build.fhir.org/ig/HL7/US-Core/CapabilityStatement-us-core-server.html</t>
   </si>
 </sst>
 </file>
@@ -10172,13 +10175,14 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C2" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="61.5" customWidth="1"/>
     <col min="2" max="2" width="35.83203125" customWidth="1"/>
+    <col min="3" max="3" width="33.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -10203,7 +10207,7 @@
         <v>569</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D2" t="s">
         <v>70</v>
@@ -10214,10 +10218,10 @@
         <v>560</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="C3" s="19" t="s">
         <v>572</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>571</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>70</v>
@@ -10238,7 +10242,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10246,7 +10250,8 @@
     <col min="1" max="1" width="8.83203125" style="1"/>
     <col min="2" max="2" width="13.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="24.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16" style="1" customWidth="1"/>
+    <col min="5" max="5" width="50.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.6640625" style="1" customWidth="1"/>
     <col min="7" max="16384" width="8.83203125" style="1"/>
   </cols>
@@ -10281,7 +10286,9 @@
       <c r="D2" s="19" t="s">
         <v>564</v>
       </c>
-      <c r="E2" s="19"/>
+      <c r="E2" s="19" t="s">
+        <v>573</v>
+      </c>
       <c r="F2" s="1" t="s">
         <v>12</v>
       </c>

--- a/input/resources_spreadsheets/uscore-server.xlsx
+++ b/input/resources_spreadsheets/uscore-server.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/US-Core-R4/input/resources_spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741F4EE0-C9DB-154D-8130-A47463542893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B0CE35-16F6-E74A-814F-9D7B05EB7F93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="11200" windowWidth="28800" windowHeight="17540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -1883,7 +1883,7 @@
     <t>http://hl7.org/fhir/uv/bulkdata/index.html</t>
   </si>
   <si>
-    <t>http://build.fhir.org/ig/HL7/US-Core/CapabilityStatement-us-core-server.html</t>
+    <t>CapabilityStatement-us-core-server.html</t>
   </si>
 </sst>
 </file>
@@ -10174,7 +10174,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A70CC787-78D8-4AA0-BE43-37746049F77C}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
@@ -10241,8 +10241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84EBB963-62EF-8346-A79F-04E3300CC06A}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/input/resources_spreadsheets/uscore-server.xlsx
+++ b/input/resources_spreadsheets/uscore-server.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/US-Core-R4/input/resources_spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B0CE35-16F6-E74A-814F-9D7B05EB7F93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{917C8972-63C5-E044-A785-B33752549AA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2076" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2075" uniqueCount="573">
   <si>
     <t>Element</t>
   </si>
@@ -1881,9 +1881,6 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/uv/bulkdata/index.html</t>
-  </si>
-  <si>
-    <t>CapabilityStatement-us-core-server.html</t>
   </si>
 </sst>
 </file>
@@ -10242,7 +10239,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10250,7 +10247,7 @@
     <col min="1" max="1" width="8.83203125" style="1"/>
     <col min="2" max="2" width="13.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="24.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" style="1" customWidth="1"/>
+    <col min="4" max="4" width="65" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="50.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.6640625" style="1" customWidth="1"/>
     <col min="7" max="16384" width="8.83203125" style="1"/>
@@ -10286,9 +10283,7 @@
       <c r="D2" s="19" t="s">
         <v>564</v>
       </c>
-      <c r="E2" s="19" t="s">
-        <v>573</v>
-      </c>
+      <c r="E2" s="19"/>
       <c r="F2" s="1" t="s">
         <v>12</v>
       </c>

--- a/input/resources_spreadsheets/uscore-server.xlsx
+++ b/input/resources_spreadsheets/uscore-server.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/US-Core-R4/input/resources_spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{917C8972-63C5-E044-A785-B33752549AA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B5D143-55DF-4443-9FEB-2ACC05F57607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2075" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2076" uniqueCount="574">
   <si>
     <t>Element</t>
   </si>
@@ -1881,6 +1881,9 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/uv/bulkdata/index.html</t>
+  </si>
+  <si>
+    <t>CapabilityStatement-us-core-server.html</t>
   </si>
 </sst>
 </file>
@@ -10239,7 +10242,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10283,7 +10286,9 @@
       <c r="D2" s="19" t="s">
         <v>564</v>
       </c>
-      <c r="E2" s="19"/>
+      <c r="E2" s="19" t="s">
+        <v>573</v>
+      </c>
       <c r="F2" s="1" t="s">
         <v>12</v>
       </c>

--- a/input/resources_spreadsheets/uscore-server.xlsx
+++ b/input/resources_spreadsheets/uscore-server.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/US-Core-R4/input/resources_spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B5D143-55DF-4443-9FEB-2ACC05F57607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84428969-B8F8-6244-B00E-F0AE55249986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-32660" yWindow="-21140" windowWidth="42040" windowHeight="21140" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -26,8 +26,8 @@
     <sheet name="sp_combos" sheetId="8" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">sp_combos!$A$1:$J$84</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">sps!$A$1:$AA$94</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">sp_combos!$A$1:$J$88</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">sps!$A$1:$AA$98</definedName>
   </definedNames>
   <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
@@ -77,8 +77,71 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={9A91E9C9-8B21-8546-B0F6-E258B9D2B6FF}</author>
+    <author>tc={2FB8FCA2-BD31-DF4C-95E0-15548A47CED8}</author>
+    <author>tc={B335108E-FDC9-AC41-96F3-657CAF0CB14F}</author>
+  </authors>
+  <commentList>
+    <comment ref="K36" authorId="0" shapeId="0" xr:uid="{9A91E9C9-8B21-8546-B0F6-E258B9D2B6FF}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    where does this show up?</t>
+      </text>
+    </comment>
+    <comment ref="Y40" authorId="1" shapeId="0" xr:uid="{2FB8FCA2-BD31-DF4C-95E0-15548A47CED8}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    do i need this?</t>
+      </text>
+    </comment>
+    <comment ref="Z40" authorId="2" shapeId="0" xr:uid="{B335108E-FDC9-AC41-96F3-657CAF0CB14F}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    do I need this?</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={319A7A6B-68B8-F140-B723-972FDDF92401}</author>
+    <author>tc={55554AA4-06E7-B947-A224-22F62EAAB8DA}</author>
+  </authors>
+  <commentList>
+    <comment ref="J35" authorId="0" shapeId="0" xr:uid="{319A7A6B-68B8-F140-B723-972FDDF92401}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    does this do anything???</t>
+      </text>
+    </comment>
+    <comment ref="H37" authorId="1" shapeId="0" xr:uid="{55554AA4-06E7-B947-A224-22F62EAAB8DA}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    is column being used???</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2076" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2147" uniqueCount="587">
   <si>
     <t>Element</t>
   </si>
@@ -540,9 +603,6 @@
   </si>
   <si>
     <t>support searching for all conditions for a patient for a specified time period</t>
-  </si>
-  <si>
-    <t>GET [base]Condition?patient=555580&amp;date=ge2018-01-14</t>
   </si>
   <si>
     <t>onset-date</t>
@@ -1885,12 +1945,54 @@
   <si>
     <t>CapabilityStatement-us-core-server.html</t>
   </si>
+  <si>
+    <t>asserted-date</t>
+  </si>
+  <si>
+    <t>recorded-date</t>
+  </si>
+  <si>
+    <t>abatement-date</t>
+  </si>
+  <si>
+    <t>support searching for all encounter diagnosis for a patient for an encounter</t>
+  </si>
+  <si>
+    <t>patient,asserted-date</t>
+  </si>
+  <si>
+    <t>patient,recorded-date</t>
+  </si>
+  <si>
+    <t>patient,abatement-date</t>
+  </si>
+  <si>
+    <t>patient,category,encounter</t>
+  </si>
+  <si>
+    <t>GET [base]Condition?patient=555580&amp;onset-date=ge2018-01-14</t>
+  </si>
+  <si>
+    <t>GET [base]Condition?patient=555580&amp;asserted-date=ge2018-01-14</t>
+  </si>
+  <si>
+    <t>GET [base]Condition?patient=555580&amp;recorded-date=ge2018-01-14</t>
+  </si>
+  <si>
+    <t>GET [base]Condition?patient=555580&amp;abatement-date=ge2018-01-14</t>
+  </si>
+  <si>
+    <t>GET [base]/Condition?patient=1032702&amp;category=http://terminology.hl7.org/CodeSystem/condition-category\|encounter-diagnosis?encounter=1036</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all Condition resources for the specified patient and category. DOES THIS DO ANYTHING!!!</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1986,6 +2088,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2080,6 +2188,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Eric Haas" id="{01DB13A2-9E02-7A4D-96F1-9E53507C2507}" userId="deea5e002be8d274" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2377,6 +2491,31 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="K36" dT="2021-11-06T02:36:52.48" personId="{01DB13A2-9E02-7A4D-96F1-9E53507C2507}" id="{9A91E9C9-8B21-8546-B0F6-E258B9D2B6FF}">
+    <text>where does this show up?</text>
+  </threadedComment>
+  <threadedComment ref="Y40" dT="2021-11-06T02:39:25.62" personId="{01DB13A2-9E02-7A4D-96F1-9E53507C2507}" id="{2FB8FCA2-BD31-DF4C-95E0-15548A47CED8}">
+    <text>do i need this?</text>
+  </threadedComment>
+  <threadedComment ref="Z40" dT="2021-11-06T02:40:08.93" personId="{01DB13A2-9E02-7A4D-96F1-9E53507C2507}" id="{B335108E-FDC9-AC41-96F3-657CAF0CB14F}">
+    <text>do I need this?</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="J35" dT="2021-11-06T02:51:23.56" personId="{01DB13A2-9E02-7A4D-96F1-9E53507C2507}" id="{319A7A6B-68B8-F140-B723-972FDDF92401}">
+    <text>does this do anything???</text>
+  </threadedComment>
+  <threadedComment ref="H37" dT="2021-11-06T02:44:23.26" personId="{01DB13A2-9E02-7A4D-96F1-9E53507C2507}" id="{55554AA4-06E7-B947-A224-22F62EAAB8DA}">
+    <text>is column being used???</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A508ECBD-F3E5-4662-8D7C-0F31D75EC9A2}">
   <dimension ref="A1:B17"/>
@@ -2400,34 +2539,34 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>475</v>
+      </c>
+      <c r="B4" t="s">
         <v>476</v>
-      </c>
-      <c r="B4" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>477</v>
+      </c>
+      <c r="B5" t="s">
         <v>478</v>
-      </c>
-      <c r="B5" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -2435,12 +2574,12 @@
         <v>68</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B7" t="s">
         <v>60</v>
@@ -2448,15 +2587,15 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B8" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -2471,14 +2610,15 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:AA94"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:AA98"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C68" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="Z11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M84" sqref="M84"/>
+      <selection pane="bottomRight" activeCell="AA104" sqref="AA104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2488,10 +2628,11 @@
     <col min="3" max="3" width="33.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" customWidth="1"/>
-    <col min="6" max="6" width="38" style="1" customWidth="1"/>
+    <col min="6" max="6" width="37.83203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="60" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" customWidth="1"/>
-    <col min="11" max="24" width="13.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="31.1640625" style="1" customWidth="1"/>
+    <col min="12" max="24" width="13.33203125" style="1" customWidth="1"/>
     <col min="25" max="25" width="90.6640625" style="1" customWidth="1"/>
     <col min="26" max="26" width="83.5" style="2" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="38.1640625" customWidth="1"/>
@@ -2562,10 +2703,10 @@
         <v>52</v>
       </c>
       <c r="V1" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="W1" s="4" t="s">
         <v>323</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>324</v>
       </c>
       <c r="X1" s="4" t="s">
         <v>3</v>
@@ -2577,15 +2718,15 @@
         <v>54</v>
       </c>
       <c r="AA1" s="8" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" s="1" customFormat="1" ht="19" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>140</v>
@@ -2627,12 +2768,12 @@
         <v>SearchParameter-us-core-!example category search-category.html</v>
       </c>
     </row>
-    <row r="3" spans="1:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>26</v>
@@ -2644,7 +2785,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="1" t="str">
-        <f t="shared" ref="G3:G66" si="1">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B3)</f>
+        <f t="shared" ref="G3:G70" si="1">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B3)</f>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!example code search</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -2674,12 +2815,12 @@
         <v>SearchParameter-us-core-!example code search-code.html</v>
       </c>
     </row>
-    <row r="4" spans="1:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>79</v>
@@ -2725,12 +2866,12 @@
         <v>SearchParameter-us-core-!example date search-date.html</v>
       </c>
     </row>
-    <row r="5" spans="1:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>90</v>
@@ -2742,7 +2883,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G5" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2784,12 +2925,12 @@
         <v>SearchParameter-us-core-!example patient search-patient.html</v>
       </c>
     </row>
-    <row r="6" spans="1:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>62</v>
@@ -2831,7 +2972,7 @@
         <v>SearchParameter-us-core-!example status search-status.html</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2871,7 +3012,7 @@
         <v>56</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="Y7" s="5" t="s">
         <v>87</v>
@@ -2882,7 +3023,7 @@
         <v>SearchParameter-us-core-!patient-address.html</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2922,18 +3063,18 @@
         <v>56</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Y8" s="1" t="s">
         <v>89</v>
       </c>
       <c r="Z8" s="12"/>
       <c r="AA8" s="1" t="str">
-        <f t="shared" ref="AA8:AA39" si="5">"SearchParameter-us-core-"&amp;LOWER((B8)&amp;"-"&amp;C8&amp;".html")</f>
+        <f t="shared" ref="AA8:AA43" si="5">"SearchParameter-us-core-"&amp;LOWER((B8)&amp;"-"&amp;C8&amp;".html")</f>
         <v>SearchParameter-us-core-!patient-telecom.html</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2950,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G9" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2982,7 +3123,7 @@
         <v>SearchParameter-us-core-allergyintolerance-clinical-status.html</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2999,7 +3140,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G10" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3044,7 +3185,7 @@
         <v>SearchParameter-us-core-allergyintolerance-patient.html</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" ht="19" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3061,7 +3202,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G11" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3112,7 +3253,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G12" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3160,7 +3301,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G13" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3201,7 +3342,7 @@
         <v>SearchParameter-us-core-condition-patient.html</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3241,20 +3382,20 @@
         <v>56</v>
       </c>
       <c r="X14" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Y14" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="Z14" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AA14" s="1" t="str">
         <f t="shared" si="6"/>
         <v>SearchParameter-us-core-encounter-id.html</v>
       </c>
     </row>
-    <row r="15" spans="1:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -3271,7 +3412,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G15" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3304,7 +3445,7 @@
         <v>SearchParameter-us-core-encounter-class.html</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -3321,7 +3462,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G16" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3358,7 +3499,7 @@
         <v>SearchParameter-us-core-encounter-date.html</v>
       </c>
     </row>
-    <row r="17" spans="1:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -3375,7 +3516,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G17" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3401,10 +3542,10 @@
         <v>56</v>
       </c>
       <c r="X17" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="Y17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Z17" s="12" t="str">
         <f>"Fetches a bundle containing any "&amp;B17&amp;" resources matching the identifier"</f>
@@ -3415,7 +3556,7 @@
         <v>SearchParameter-us-core-encounter-identifier.html</v>
       </c>
     </row>
-    <row r="18" spans="1:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -3432,7 +3573,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G18" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3473,7 +3614,7 @@
         <v>SearchParameter-us-core-encounter-patient.html</v>
       </c>
     </row>
-    <row r="19" spans="1:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -3490,7 +3631,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G19" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3523,7 +3664,7 @@
         <v>SearchParameter-us-core-encounter-status.html</v>
       </c>
     </row>
-    <row r="20" spans="1:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -3540,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G20" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3573,7 +3714,7 @@
         <v>SearchParameter-us-core-encounter-type.html</v>
       </c>
     </row>
-    <row r="21" spans="1:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -3616,14 +3757,14 @@
         <v>76</v>
       </c>
       <c r="Y21" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AA21" s="1" t="str">
         <f>"SearchParameter-us-core-"&amp;LOWER((B21)&amp;"-"&amp;SUBSTITUTE(C21,"_","")&amp;".html")</f>
         <v>SearchParameter-us-core-patient-id.html</v>
       </c>
     </row>
-    <row r="22" spans="1:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -3640,7 +3781,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G22" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3671,7 +3812,7 @@
         <v>SearchParameter-us-core-patient-birthdate.html</v>
       </c>
     </row>
-    <row r="23" spans="1:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:27" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -3688,7 +3829,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G23" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3718,7 +3859,7 @@
         <v>SearchParameter-us-core-patient-family.html</v>
       </c>
     </row>
-    <row r="24" spans="1:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:27" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -3735,7 +3876,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G24" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3767,7 +3908,7 @@
         <v>SearchParameter-us-core-patient-gender.html</v>
       </c>
     </row>
-    <row r="25" spans="1:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:27" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -3811,7 +3952,7 @@
         <v>SearchParameter-us-core-patient-given.html</v>
       </c>
     </row>
-    <row r="26" spans="1:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:27" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -3828,7 +3969,7 @@
         <v>1</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G26" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3854,10 +3995,10 @@
         <v>56</v>
       </c>
       <c r="X26" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="Y26" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Z26" s="12" t="str">
         <f>"Fetches a bundle containing any "&amp;B26&amp;" resources matching the identifier"</f>
@@ -3868,7 +4009,7 @@
         <v>SearchParameter-us-core-patient-identifier.html</v>
       </c>
     </row>
-    <row r="27" spans="1:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:27" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -3909,10 +4050,10 @@
       </c>
       <c r="R27"/>
       <c r="X27" s="5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="Y27" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Z27" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B27&amp;" resources matching the name"</f>
@@ -3923,12 +4064,12 @@
         <v>SearchParameter-us-core-patient-name.html</v>
       </c>
     </row>
-    <row r="28" spans="1:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:27" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C28" t="s">
         <v>55</v>
@@ -3966,12 +4107,12 @@
         <v>SearchParameter-us-core-!questionnaire-_id.html</v>
       </c>
     </row>
-    <row r="29" spans="1:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:27" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C29" t="s">
         <v>71</v>
@@ -3996,7 +4137,7 @@
         <v>72</v>
       </c>
       <c r="K29" t="str">
-        <f t="shared" ref="K29:K39" si="9">B29&amp;"."&amp;C29</f>
+        <f t="shared" ref="K29:K43" si="9">B29&amp;"."&amp;C29</f>
         <v>!Questionnaire.context-type-value</v>
       </c>
       <c r="L29" s="1" t="s">
@@ -4010,12 +4151,12 @@
         <v>SearchParameter-us-core-!questionnaire-context-type-value.html</v>
       </c>
     </row>
-    <row r="30" spans="1:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:27" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C30" t="s">
         <v>68</v>
@@ -4057,12 +4198,12 @@
         <v>SearchParameter-us-core-!questionnaire-publisher.html</v>
       </c>
     </row>
-    <row r="31" spans="1:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:27" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C31" t="s">
         <v>62</v>
@@ -4101,12 +4242,12 @@
         <v>SearchParameter-us-core-!questionnaire-status.html</v>
       </c>
     </row>
-    <row r="32" spans="1:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>63</v>
@@ -4158,12 +4299,12 @@
         <v>SearchParameter-us-core-!questionnaire-title.html</v>
       </c>
     </row>
-    <row r="33" spans="1:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>60</v>
@@ -4203,12 +4344,12 @@
         <v>SearchParameter-us-core-!questionnaire-url.html</v>
       </c>
     </row>
-    <row r="34" spans="1:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>67</v>
@@ -4256,7 +4397,7 @@
         <v>138</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>30</v>
@@ -4265,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G35" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4310,7 +4451,7 @@
         <v>138</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>26</v>
+        <v>573</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>30</v>
@@ -4319,24 +4460,24 @@
         <v>0</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="G36" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="G36:G38" si="10">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B36)</f>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>56</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="K36" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>Condition.code</v>
+        <f t="shared" ref="K36:K38" si="11">B36&amp;"."&amp;C36</f>
+        <v>Condition.asserted-date</v>
       </c>
       <c r="L36" s="1" t="s">
         <v>56</v>
@@ -4344,12 +4485,16 @@
       <c r="N36" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="X36" s="5"/>
-      <c r="Y36" s="5"/>
+      <c r="O36" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="Z36" s="12"/>
       <c r="AA36" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>SearchParameter-us-core-condition-code.html</v>
+        <f t="shared" ref="AA36:AA38" si="12">"SearchParameter-us-core-"&amp;LOWER((B36)&amp;"-"&amp;C36&amp;".html")</f>
+        <v>SearchParameter-us-core-condition-asserted-date.html</v>
       </c>
     </row>
     <row r="37" spans="1:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -4357,23 +4502,23 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>90</v>
+        <v>574</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E37" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>526</v>
       </c>
       <c r="G37" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-immunization</v>
+        <f t="shared" si="10"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>56</v>
@@ -4382,11 +4527,11 @@
         <v>56</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K37" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>Immunization.patient</v>
+        <f t="shared" si="11"/>
+        <v>Condition.recorded-date</v>
       </c>
       <c r="L37" s="1" t="s">
         <v>56</v>
@@ -4394,21 +4539,16 @@
       <c r="N37" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="X37" s="1" t="str">
-        <f>"support searching for all "&amp;LOWER(B37)&amp;"s for a patient"</f>
-        <v>support searching for all immunizations for a patient</v>
-      </c>
-      <c r="Y37" s="5" t="str">
-        <f>"GET [base]/"&amp;B37&amp;"?patient=1137192"</f>
-        <v>GET [base]/Immunization?patient=1137192</v>
-      </c>
-      <c r="Z37" s="12" t="str">
-        <f>"Fetches a bundle of all "&amp;B37&amp; " resources for the specified patient"</f>
-        <v>Fetches a bundle of all Immunization resources for the specified patient</v>
-      </c>
+      <c r="O37" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="R37" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z37" s="12"/>
       <c r="AA37" s="1" t="str">
-        <f>"SearchParameter-us-core-"&amp;LOWER((B37)&amp;"-"&amp;SUBSTITUTE(C37,"_","")&amp;".html")</f>
-        <v>SearchParameter-us-core-immunization-patient.html</v>
+        <f t="shared" si="12"/>
+        <v>SearchParameter-us-core-condition-recorded-date.html</v>
       </c>
     </row>
     <row r="38" spans="1:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -4416,10 +4556,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>62</v>
+        <v>575</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>30</v>
@@ -4428,11 +4568,11 @@
         <v>0</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="G38" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-immunization</v>
+        <f t="shared" si="10"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>56</v>
@@ -4441,11 +4581,11 @@
         <v>56</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="K38" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>Immunization.status</v>
+        <f t="shared" si="11"/>
+        <v>Condition.abatement-date</v>
       </c>
       <c r="L38" s="1" t="s">
         <v>56</v>
@@ -4453,12 +4593,16 @@
       <c r="N38" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="X38" s="5"/>
-      <c r="Y38" s="5"/>
+      <c r="O38" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="R38" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="Z38" s="12"/>
       <c r="AA38" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>SearchParameter-us-core-immunization-status.html</v>
+        <f t="shared" si="12"/>
+        <v>SearchParameter-us-core-condition-abatement-date.html</v>
       </c>
     </row>
     <row r="39" spans="1:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -4466,10 +4610,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>30</v>
@@ -4478,11 +4622,11 @@
         <v>0</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G39" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-immunization</v>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>56</v>
@@ -4491,11 +4635,11 @@
         <v>56</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="K39" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>Immunization.date</v>
+        <v>Condition.code</v>
       </c>
       <c r="L39" s="1" t="s">
         <v>56</v>
@@ -4503,93 +4647,94 @@
       <c r="N39" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="O39" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="R39" s="1" t="s">
-        <v>93</v>
-      </c>
+      <c r="X39" s="5"/>
+      <c r="Y39" s="5"/>
       <c r="Z39" s="12"/>
       <c r="AA39" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>SearchParameter-us-core-immunization-date.html</v>
+        <v>SearchParameter-us-core-condition-code.html</v>
       </c>
     </row>
     <row r="40" spans="1:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
+        <v>12</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E40" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="G40" s="1" t="str">
+        <f t="shared" ref="G40" si="13">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B40)</f>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K40" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>Condition.encounter</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="X40" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="Y40" s="5" t="str">
+        <f>"GET [base]/"&amp;B40&amp;"?patient=1137192"</f>
+        <v>GET [base]/Condition?patient=1137192</v>
+      </c>
+      <c r="Z40" s="12" t="str">
+        <f>"Fetches a bundle of all "&amp;B40&amp; " resources for the specified patient"</f>
+        <v>Fetches a bundle of all Condition resources for the specified patient</v>
+      </c>
+      <c r="AA40" s="1" t="str">
+        <f t="shared" ref="AA40" si="14">"SearchParameter-us-core-"&amp;LOWER((B40)&amp;"-"&amp;SUBSTITUTE(C40,"_","")&amp;".html")</f>
+        <v>SearchParameter-us-core-condition-encounter.html</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E40" s="1" t="b">
+      <c r="B41" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G40" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K40" s="1" t="str">
-        <f>B40&amp;".id"</f>
-        <v>DocumentReference.id</v>
-      </c>
-      <c r="L40" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N40" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="X40" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="Y40" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="Z40" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="AA40" s="1" t="str">
-        <f t="shared" ref="AA40" si="10">"SearchParameter-us-core-"&amp;LOWER((B40)&amp;"-"&amp;C40&amp;".html")</f>
-        <v>SearchParameter-us-core-documentreference-_id.html</v>
-      </c>
-    </row>
-    <row r="41" spans="1:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
-        <v>40</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E41" s="1" t="b">
-        <v>0</v>
-      </c>
       <c r="F41" s="2" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="G41" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-immunization</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>56</v>
@@ -4598,51 +4743,57 @@
         <v>56</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="K41" s="1" t="str">
-        <f t="shared" ref="K41:K67" si="11">B41&amp;"."&amp;C41</f>
-        <v>DocumentReference.status</v>
+        <f t="shared" si="9"/>
+        <v>Immunization.patient</v>
       </c>
       <c r="L41" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="M41" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="N41" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="X41" s="5"/>
-      <c r="Y41" s="5"/>
-      <c r="Z41" s="12"/>
+      <c r="X41" s="1" t="str">
+        <f>"support searching for all "&amp;LOWER(B41)&amp;"s for a patient"</f>
+        <v>support searching for all immunizations for a patient</v>
+      </c>
+      <c r="Y41" s="5" t="str">
+        <f>"GET [base]/"&amp;B41&amp;"?patient=1137192"</f>
+        <v>GET [base]/Immunization?patient=1137192</v>
+      </c>
+      <c r="Z41" s="12" t="str">
+        <f>"Fetches a bundle of all "&amp;B41&amp; " resources for the specified patient"</f>
+        <v>Fetches a bundle of all Immunization resources for the specified patient</v>
+      </c>
       <c r="AA41" s="1" t="str">
-        <f t="shared" ref="AA41:AA70" si="12">"SearchParameter-us-core-"&amp;LOWER((B41)&amp;"-"&amp;C41&amp;".html")</f>
-        <v>SearchParameter-us-core-documentreference-status.html</v>
-      </c>
-    </row>
-    <row r="42" spans="1:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+        <f>"SearchParameter-us-core-"&amp;LOWER((B41)&amp;"-"&amp;SUBSTITUTE(C41,"_","")&amp;".html")</f>
+        <v>SearchParameter-us-core-immunization-patient.html</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E42" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="G42" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-immunization</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>56</v>
@@ -4651,11 +4802,11 @@
         <v>56</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="K42" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>DocumentReference.patient</v>
+        <f t="shared" si="9"/>
+        <v>Immunization.status</v>
       </c>
       <c r="L42" s="1" t="s">
         <v>56</v>
@@ -4663,32 +4814,23 @@
       <c r="N42" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="X42" s="1" t="str">
-        <f>"support searching for all "&amp;LOWER(B42)&amp;"s for a patient"</f>
-        <v>support searching for all documentreferences for a patient</v>
-      </c>
-      <c r="Y42" s="5" t="str">
-        <f>"GET [base]/"&amp;B42&amp;"?patient=1137192"</f>
-        <v>GET [base]/DocumentReference?patient=1137192</v>
-      </c>
-      <c r="Z42" s="12" t="str">
-        <f>"Fetches a bundle of all "&amp;B42&amp; " resources for the specified patient. See the implementation notes above for how to access the actual document."</f>
-        <v>Fetches a bundle of all DocumentReference resources for the specified patient. See the implementation notes above for how to access the actual document.</v>
-      </c>
+      <c r="X42" s="5"/>
+      <c r="Y42" s="5"/>
+      <c r="Z42" s="12"/>
       <c r="AA42" s="1" t="str">
-        <f t="shared" ref="AA42:AA45" si="13">"SearchParameter-us-core-"&amp;LOWER((B42)&amp;"-"&amp;C42&amp;".html")</f>
-        <v>SearchParameter-us-core-documentreference-patient.html</v>
-      </c>
-    </row>
-    <row r="43" spans="1:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>SearchParameter-us-core-immunization-status.html</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>30</v>
@@ -4697,11 +4839,11 @@
         <v>0</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="G43" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-immunization</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>56</v>
@@ -4710,11 +4852,11 @@
         <v>56</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="K43" s="1" t="str">
-        <f t="shared" ref="K43:K45" si="14">B43&amp;"."&amp;C43</f>
-        <v>DocumentReference.category</v>
+        <f t="shared" si="9"/>
+        <v>Immunization.date</v>
       </c>
       <c r="L43" s="1" t="s">
         <v>56</v>
@@ -4722,32 +4864,33 @@
       <c r="N43" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="X43" s="5"/>
-      <c r="Y43" s="5"/>
+      <c r="O43" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="R43" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="Z43" s="12"/>
       <c r="AA43" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>SearchParameter-us-core-documentreference-category.html</v>
-      </c>
-    </row>
-    <row r="44" spans="1:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>SearchParameter-us-core-immunization-date.html</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="E44" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>529</v>
+        <v>1</v>
       </c>
       <c r="G44" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4763,8 +4906,8 @@
         <v>57</v>
       </c>
       <c r="K44" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>DocumentReference.type</v>
+        <f>B44&amp;".id"</f>
+        <v>DocumentReference.id</v>
       </c>
       <c r="L44" s="1" t="s">
         <v>56</v>
@@ -4772,23 +4915,29 @@
       <c r="N44" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="X44" s="5"/>
-      <c r="Y44" s="5"/>
-      <c r="Z44" s="12"/>
+      <c r="X44" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="Y44" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="Z44" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="AA44" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>SearchParameter-us-core-documentreference-type.html</v>
-      </c>
-    </row>
-    <row r="45" spans="1:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="AA44" si="15">"SearchParameter-us-core-"&amp;LOWER((B44)&amp;"-"&amp;C44&amp;".html")</f>
+        <v>SearchParameter-us-core-documentreference-_id.html</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>30</v>
@@ -4797,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G45" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4810,48 +4959,47 @@
         <v>56</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="K45" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>DocumentReference.date</v>
+        <f t="shared" ref="K45:K71" si="16">B45&amp;"."&amp;C45</f>
+        <v>DocumentReference.status</v>
       </c>
       <c r="L45" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="M45" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="N45" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="O45" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="R45" s="1" t="s">
-        <v>93</v>
-      </c>
+      <c r="X45" s="5"/>
+      <c r="Y45" s="5"/>
       <c r="Z45" s="12"/>
       <c r="AA45" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>SearchParameter-us-core-documentreference-date.html</v>
-      </c>
-    </row>
-    <row r="46" spans="1:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="AA45:AA74" si="17">"SearchParameter-us-core-"&amp;LOWER((B45)&amp;"-"&amp;C45&amp;".html")</f>
+        <v>SearchParameter-us-core-documentreference-status.html</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>290</v>
+        <v>90</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="E46" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="G46" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4864,10 +5012,11 @@
         <v>56</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>293</v>
+        <v>91</v>
+      </c>
+      <c r="K46" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>DocumentReference.patient</v>
       </c>
       <c r="L46" s="1" t="s">
         <v>56</v>
@@ -4875,27 +5024,32 @@
       <c r="N46" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="O46" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="R46" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z46" s="12"/>
+      <c r="X46" s="1" t="str">
+        <f>"support searching for all "&amp;LOWER(B46)&amp;"s for a patient"</f>
+        <v>support searching for all documentreferences for a patient</v>
+      </c>
+      <c r="Y46" s="5" t="str">
+        <f>"GET [base]/"&amp;B46&amp;"?patient=1137192"</f>
+        <v>GET [base]/DocumentReference?patient=1137192</v>
+      </c>
+      <c r="Z46" s="12" t="str">
+        <f>"Fetches a bundle of all "&amp;B46&amp; " resources for the specified patient. See the implementation notes above for how to access the actual document."</f>
+        <v>Fetches a bundle of all DocumentReference resources for the specified patient. See the implementation notes above for how to access the actual document.</v>
+      </c>
       <c r="AA46" s="1" t="str">
-        <f t="shared" ref="AA46" si="15">"SearchParameter-us-core-"&amp;LOWER((B46)&amp;"-"&amp;C46&amp;".html")</f>
-        <v>SearchParameter-us-core-documentreference-period.html</v>
-      </c>
-    </row>
-    <row r="47" spans="1:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="AA46:AA49" si="18">"SearchParameter-us-core-"&amp;LOWER((B46)&amp;"-"&amp;C46&amp;".html")</f>
+        <v>SearchParameter-us-core-documentreference-patient.html</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>62</v>
+        <v>140</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>30</v>
@@ -4904,11 +5058,11 @@
         <v>0</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G47" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-diagnosticreport</v>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>56</v>
@@ -4920,14 +5074,11 @@
         <v>57</v>
       </c>
       <c r="K47" s="1" t="str">
-        <f t="shared" ref="K47:K51" si="16">B47&amp;"."&amp;C47</f>
-        <v>DiagnosticReport.status</v>
+        <f t="shared" ref="K47:K49" si="19">B47&amp;"."&amp;C47</f>
+        <v>DocumentReference.category</v>
       </c>
       <c r="L47" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="M47" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="N47" s="1" t="s">
         <v>56</v>
@@ -4936,32 +5087,32 @@
       <c r="Y47" s="5"/>
       <c r="Z47" s="12"/>
       <c r="AA47" s="1" t="str">
-        <f>"SearchParameter-us-core-"&amp;LOWER((B47)&amp;"-"&amp;C47&amp;".html")</f>
-        <v>SearchParameter-us-core-diagnosticreport-status.html</v>
-      </c>
-    </row>
-    <row r="48" spans="1:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="18"/>
+        <v>SearchParameter-us-core-documentreference-category.html</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E48" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="G48" s="1" t="str">
-        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B48)</f>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-diagnosticreport</v>
+        <f t="shared" si="1"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>56</v>
@@ -4970,11 +5121,11 @@
         <v>56</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="K48" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>DiagnosticReport.patient</v>
+        <f t="shared" si="19"/>
+        <v>DocumentReference.type</v>
       </c>
       <c r="L48" s="1" t="s">
         <v>56</v>
@@ -4982,32 +5133,23 @@
       <c r="N48" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="X48" s="1" t="str">
-        <f>"support searching for all "&amp;LOWER(B48)&amp;"s for a patient"</f>
-        <v>support searching for all diagnosticreports for a patient</v>
-      </c>
-      <c r="Y48" s="5" t="str">
-        <f>"GET [base]/"&amp;B48&amp;"?patient=1137192"</f>
-        <v>GET [base]/DiagnosticReport?patient=1137192</v>
-      </c>
-      <c r="Z48" s="12" t="str">
-        <f>"Fetches a bundle of all "&amp;B48&amp; " resources for the specified patient"</f>
-        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient</v>
-      </c>
+      <c r="X48" s="5"/>
+      <c r="Y48" s="5"/>
+      <c r="Z48" s="12"/>
       <c r="AA48" s="1" t="str">
-        <f>"SearchParameter-us-core-"&amp;LOWER((B48)&amp;"-"&amp;C48&amp;".html")</f>
-        <v>SearchParameter-us-core-diagnosticreport-patient.html</v>
-      </c>
-    </row>
-    <row r="49" spans="1:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="18"/>
+        <v>SearchParameter-us-core-documentreference-type.html</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>30</v>
@@ -5016,11 +5158,11 @@
         <v>0</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="G49" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-diagnosticreport</v>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>56</v>
@@ -5029,11 +5171,11 @@
         <v>56</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="K49" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>DiagnosticReport.category</v>
+        <f t="shared" si="19"/>
+        <v>DocumentReference.date</v>
       </c>
       <c r="L49" s="1" t="s">
         <v>56</v>
@@ -5041,23 +5183,27 @@
       <c r="N49" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="X49" s="5"/>
-      <c r="Y49" s="5"/>
+      <c r="O49" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="R49" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="Z49" s="12"/>
       <c r="AA49" s="1" t="str">
-        <f>"SearchParameter-us-core-"&amp;LOWER((B49)&amp;"-"&amp;C49&amp;".html")</f>
-        <v>SearchParameter-us-core-diagnosticreport-category.html</v>
-      </c>
-    </row>
-    <row r="50" spans="1:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="18"/>
+        <v>SearchParameter-us-core-documentreference-date.html</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>26</v>
+        <v>289</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>30</v>
@@ -5066,11 +5212,11 @@
         <v>0</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="G50" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-diagnosticreport</v>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>56</v>
@@ -5079,38 +5225,38 @@
         <v>56</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K50" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>DiagnosticReport.code</v>
+        <v>79</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>292</v>
       </c>
       <c r="L50" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="M50" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="N50" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="X50" s="5"/>
-      <c r="Y50" s="5"/>
+      <c r="O50" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="R50" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="Z50" s="12"/>
       <c r="AA50" s="1" t="str">
-        <f>"SearchParameter-us-core-"&amp;LOWER((B50)&amp;"-"&amp;C50&amp;".html")</f>
-        <v>SearchParameter-us-core-diagnosticreport-code.html</v>
-      </c>
-    </row>
-    <row r="51" spans="1:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="AA50" si="20">"SearchParameter-us-core-"&amp;LOWER((B50)&amp;"-"&amp;C50&amp;".html")</f>
+        <v>SearchParameter-us-core-documentreference-period.html</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>30</v>
@@ -5119,7 +5265,7 @@
         <v>0</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G51" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5132,269 +5278,268 @@
         <v>56</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="K51" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>DiagnosticReport.date</v>
+        <f t="shared" ref="K51:K55" si="21">B51&amp;"."&amp;C51</f>
+        <v>DiagnosticReport.status</v>
       </c>
       <c r="L51" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="M51" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="N51" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="O51" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="R51" s="1" t="s">
-        <v>93</v>
-      </c>
+      <c r="X51" s="5"/>
+      <c r="Y51" s="5"/>
       <c r="Z51" s="12"/>
       <c r="AA51" s="1" t="str">
         <f>"SearchParameter-us-core-"&amp;LOWER((B51)&amp;"-"&amp;C51&amp;".html")</f>
-        <v>SearchParameter-us-core-diagnosticreport-date.html</v>
-      </c>
-    </row>
-    <row r="52" spans="1:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+        <v>SearchParameter-us-core-diagnosticreport-status.html</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>318</v>
+        <v>90</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="E52" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="G52" s="1" t="str">
+        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B52)</f>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-diagnosticreport</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K52" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>DiagnosticReport.patient</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="X52" s="1" t="str">
+        <f>"support searching for all "&amp;LOWER(B52)&amp;"s for a patient"</f>
+        <v>support searching for all diagnosticreports for a patient</v>
+      </c>
+      <c r="Y52" s="5" t="str">
+        <f>"GET [base]/"&amp;B52&amp;"?patient=1137192"</f>
+        <v>GET [base]/DiagnosticReport?patient=1137192</v>
+      </c>
+      <c r="Z52" s="12" t="str">
+        <f>"Fetches a bundle of all "&amp;B52&amp; " resources for the specified patient"</f>
+        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient</v>
+      </c>
+      <c r="AA52" s="1" t="str">
+        <f>"SearchParameter-us-core-"&amp;LOWER((B52)&amp;"-"&amp;C52&amp;".html")</f>
+        <v>SearchParameter-us-core-diagnosticreport-patient.html</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E53" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F52" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="G52" s="1" t="str">
+      <c r="F53" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="G53" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-diagnosticreport</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K53" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>DiagnosticReport.category</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="X53" s="5"/>
+      <c r="Y53" s="5"/>
+      <c r="Z53" s="12"/>
+      <c r="AA53" s="1" t="str">
+        <f>"SearchParameter-us-core-"&amp;LOWER((B53)&amp;"-"&amp;C53&amp;".html")</f>
+        <v>SearchParameter-us-core-diagnosticreport-category.html</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E54" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="G54" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-diagnosticreport</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K54" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>DiagnosticReport.code</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="X54" s="5"/>
+      <c r="Y54" s="5"/>
+      <c r="Z54" s="12"/>
+      <c r="AA54" s="1" t="str">
+        <f>"SearchParameter-us-core-"&amp;LOWER((B54)&amp;"-"&amp;C54&amp;".html")</f>
+        <v>SearchParameter-us-core-diagnosticreport-code.html</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E55" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="G55" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-diagnosticreport</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K55" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>DiagnosticReport.date</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O55" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="R55" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z55" s="12"/>
+      <c r="AA55" s="1" t="str">
+        <f>"SearchParameter-us-core-"&amp;LOWER((B55)&amp;"-"&amp;C55&amp;".html")</f>
+        <v>SearchParameter-us-core-diagnosticreport-date.html</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E56" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="G56" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-goal</v>
       </c>
-      <c r="H52" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K52" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>Goal.lifecycle-status</v>
-      </c>
-      <c r="L52" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N52" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="X52" s="5"/>
-      <c r="Y52" s="5"/>
-      <c r="Z52" s="12"/>
-      <c r="AA52" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>SearchParameter-us-core-goal-lifecycle-status.html</v>
-      </c>
-    </row>
-    <row r="53" spans="1:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="1">
-        <v>51</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E53" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="G53" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-goal</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K53" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>Goal.patient</v>
-      </c>
-      <c r="L53" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N53" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="X53" s="1" t="str">
-        <f>"support searching for all "&amp;LOWER(B53)&amp;"s for a patient"</f>
-        <v>support searching for all goals for a patient</v>
-      </c>
-      <c r="Y53" s="5" t="str">
-        <f>"GET [base]/"&amp;B53&amp;"?patient=1137192"</f>
-        <v>GET [base]/Goal?patient=1137192</v>
-      </c>
-      <c r="Z53" s="12" t="str">
-        <f>"Fetches a bundle of all "&amp;B53&amp; " resources for the specified patient"</f>
-        <v>Fetches a bundle of all Goal resources for the specified patient</v>
-      </c>
-      <c r="AA53" s="1" t="str">
-        <f t="shared" ref="AA53:AA54" si="17">"SearchParameter-us-core-"&amp;LOWER((B53)&amp;"-"&amp;C53&amp;".html")</f>
-        <v>SearchParameter-us-core-goal-patient.html</v>
-      </c>
-    </row>
-    <row r="54" spans="1:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="1">
-        <v>52</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E54" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="G54" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-goal</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K54" s="1" t="str">
-        <f t="shared" ref="K54" si="18">B54&amp;"."&amp;C54</f>
-        <v>Goal.target-date</v>
-      </c>
-      <c r="L54" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N54" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="O54" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="R54" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z54" s="12"/>
-      <c r="AA54" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>SearchParameter-us-core-goal-target-date.html</v>
-      </c>
-    </row>
-    <row r="55" spans="1:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="1">
-        <v>53</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E55" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="G55" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K55" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>MedicationRequest.status</v>
-      </c>
-      <c r="L55" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="M55" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N55" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="X55" s="5"/>
-      <c r="Y55" s="5"/>
-      <c r="Z55" s="12"/>
-      <c r="AA55" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>SearchParameter-us-core-medicationrequest-status.html</v>
-      </c>
-    </row>
-    <row r="56" spans="1:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="1">
-        <v>53</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E56" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="G56" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
-      </c>
       <c r="H56" s="1" t="s">
         <v>56</v>
       </c>
@@ -5405,14 +5550,11 @@
         <v>57</v>
       </c>
       <c r="K56" s="1" t="str">
-        <f t="shared" ref="K56" si="19">B56&amp;"."&amp;C56</f>
-        <v>MedicationRequest.intent</v>
+        <f t="shared" si="16"/>
+        <v>Goal.lifecycle-status</v>
       </c>
       <c r="L56" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="M56" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="N56" s="1" t="s">
         <v>56</v>
@@ -5421,32 +5563,32 @@
       <c r="Y56" s="5"/>
       <c r="Z56" s="12"/>
       <c r="AA56" s="1" t="str">
-        <f t="shared" ref="AA56" si="20">"SearchParameter-us-core-"&amp;LOWER((B56)&amp;"-"&amp;C56&amp;".html")</f>
-        <v>SearchParameter-us-core-medicationrequest-intent.html</v>
-      </c>
-    </row>
-    <row r="57" spans="1:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="17"/>
+        <v>SearchParameter-us-core-goal-lifecycle-status.html</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="E57" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G57" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-goal</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>56</v>
@@ -5458,8 +5600,8 @@
         <v>91</v>
       </c>
       <c r="K57" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>MedicationRequest.patient</v>
+        <f t="shared" si="16"/>
+        <v>Goal.patient</v>
       </c>
       <c r="L57" s="1" t="s">
         <v>56</v>
@@ -5467,24 +5609,32 @@
       <c r="N57" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="V57" s="7"/>
-      <c r="W57" s="7"/>
-      <c r="Y57" s="12"/>
-      <c r="Z57" s="12"/>
+      <c r="X57" s="1" t="str">
+        <f>"support searching for all "&amp;LOWER(B57)&amp;"s for a patient"</f>
+        <v>support searching for all goals for a patient</v>
+      </c>
+      <c r="Y57" s="5" t="str">
+        <f>"GET [base]/"&amp;B57&amp;"?patient=1137192"</f>
+        <v>GET [base]/Goal?patient=1137192</v>
+      </c>
+      <c r="Z57" s="12" t="str">
+        <f>"Fetches a bundle of all "&amp;B57&amp; " resources for the specified patient"</f>
+        <v>Fetches a bundle of all Goal resources for the specified patient</v>
+      </c>
       <c r="AA57" s="1" t="str">
-        <f t="shared" ref="AA57" si="21">"SearchParameter-us-core-"&amp;LOWER((B57)&amp;"-"&amp;C57&amp;".html")</f>
-        <v>SearchParameter-us-core-medicationrequest-patient.html</v>
-      </c>
-    </row>
-    <row r="58" spans="1:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="AA57:AA58" si="22">"SearchParameter-us-core-"&amp;LOWER((B57)&amp;"-"&amp;C57&amp;".html")</f>
+        <v>SearchParameter-us-core-goal-patient.html</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>441</v>
+        <v>418</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>30</v>
@@ -5493,11 +5643,11 @@
         <v>0</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="G58" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-goal</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>56</v>
@@ -5506,11 +5656,11 @@
         <v>56</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K58" s="1" t="str">
-        <f t="shared" ref="K58" si="22">B58&amp;"."&amp;C58</f>
-        <v>MedicationRequest.encounter</v>
+        <f t="shared" ref="K58" si="23">B58&amp;"."&amp;C58</f>
+        <v>Goal.target-date</v>
       </c>
       <c r="L58" s="1" t="s">
         <v>56</v>
@@ -5518,24 +5668,27 @@
       <c r="N58" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="V58" s="7"/>
-      <c r="W58" s="7"/>
-      <c r="Y58" s="12"/>
+      <c r="O58" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="R58" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="Z58" s="12"/>
       <c r="AA58" s="1" t="str">
-        <f t="shared" ref="AA58" si="23">"SearchParameter-us-core-"&amp;LOWER((B58)&amp;"-"&amp;C58&amp;".html")</f>
-        <v>SearchParameter-us-core-medicationrequest-encounter.html</v>
-      </c>
-    </row>
-    <row r="59" spans="1:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="22"/>
+        <v>SearchParameter-us-core-goal-target-date.html</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>231</v>
+        <v>62</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>30</v>
@@ -5544,7 +5697,7 @@
         <v>0</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G59" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5557,39 +5710,38 @@
         <v>56</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="K59" s="1" t="str">
-        <f t="shared" ref="K59" si="24">B59&amp;"."&amp;C59</f>
-        <v>MedicationRequest.authoredon</v>
+        <f t="shared" si="16"/>
+        <v>MedicationRequest.status</v>
       </c>
       <c r="L59" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="M59" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="N59" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="O59" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="R59" s="1" t="s">
-        <v>93</v>
-      </c>
+      <c r="X59" s="5"/>
+      <c r="Y59" s="5"/>
       <c r="Z59" s="12"/>
       <c r="AA59" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>SearchParameter-us-core-medicationrequest-authoredon.html</v>
-      </c>
-    </row>
-    <row r="60" spans="1:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="17"/>
+        <v>SearchParameter-us-core-medicationrequest-status.html</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>448</v>
+        <v>181</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>62</v>
+        <v>434</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>30</v>
@@ -5598,11 +5750,11 @@
         <v>0</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G60" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!medicationstatement</v>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>56</v>
@@ -5614,8 +5766,8 @@
         <v>57</v>
       </c>
       <c r="K60" s="1" t="str">
-        <f>B60&amp;"."&amp;C60</f>
-        <v>!MedicationStatement.status</v>
+        <f t="shared" ref="K60" si="24">B60&amp;"."&amp;C60</f>
+        <v>MedicationRequest.intent</v>
       </c>
       <c r="L60" s="1" t="s">
         <v>56</v>
@@ -5630,32 +5782,32 @@
       <c r="Y60" s="5"/>
       <c r="Z60" s="12"/>
       <c r="AA60" s="1" t="str">
-        <f>"SearchParameter-us-core-"&amp;LOWER((B60)&amp;"-"&amp;C60&amp;".html")</f>
-        <v>SearchParameter-us-core-!medicationstatement-status.html</v>
-      </c>
-    </row>
-    <row r="61" spans="1:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="AA60" si="25">"SearchParameter-us-core-"&amp;LOWER((B60)&amp;"-"&amp;C60&amp;".html")</f>
+        <v>SearchParameter-us-core-medicationrequest-intent.html</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>448</v>
+        <v>181</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E61" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G61" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!medicationstatement</v>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>56</v>
@@ -5667,8 +5819,8 @@
         <v>91</v>
       </c>
       <c r="K61" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>!MedicationStatement.patient</v>
+        <f t="shared" si="16"/>
+        <v>MedicationRequest.patient</v>
       </c>
       <c r="L61" s="1" t="s">
         <v>56</v>
@@ -5676,31 +5828,24 @@
       <c r="N61" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="V61" s="7"/>
       <c r="W61" s="7"/>
-      <c r="X61" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="Y61" s="12" t="s">
-        <v>342</v>
-      </c>
-      <c r="Z61" s="12" t="str">
-        <f>"Fetches a bundle of all "&amp;B61&amp; " resources for the specified patient. Mandatory for client to support the _include parameter. Optional for server to support the _include parameter."</f>
-        <v>Fetches a bundle of all !MedicationStatement resources for the specified patient. Mandatory for client to support the _include parameter. Optional for server to support the _include parameter.</v>
-      </c>
+      <c r="Y61" s="12"/>
+      <c r="Z61" s="12"/>
       <c r="AA61" s="1" t="str">
-        <f t="shared" ref="AA61:AA62" si="25">"SearchParameter-us-core-"&amp;LOWER((B61)&amp;"-"&amp;C61&amp;".html")</f>
-        <v>SearchParameter-us-core-!medicationstatement-patient.html</v>
-      </c>
-    </row>
-    <row r="62" spans="1:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="AA61" si="26">"SearchParameter-us-core-"&amp;LOWER((B61)&amp;"-"&amp;C61&amp;".html")</f>
+        <v>SearchParameter-us-core-medicationrequest-patient.html</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>448</v>
+        <v>181</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>230</v>
+        <v>440</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>30</v>
@@ -5709,11 +5854,11 @@
         <v>0</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="G62" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!medicationstatement</v>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>56</v>
@@ -5722,11 +5867,11 @@
         <v>56</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K62" s="1" t="str">
-        <f t="shared" ref="K62" si="26">B62&amp;"."&amp;C62</f>
-        <v>!MedicationStatement.effective</v>
+        <f t="shared" ref="K62" si="27">B62&amp;"."&amp;C62</f>
+        <v>MedicationRequest.encounter</v>
       </c>
       <c r="L62" s="1" t="s">
         <v>56</v>
@@ -5734,27 +5879,24 @@
       <c r="N62" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="O62" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="R62" s="1" t="s">
-        <v>93</v>
-      </c>
+      <c r="V62" s="7"/>
+      <c r="W62" s="7"/>
+      <c r="Y62" s="12"/>
       <c r="Z62" s="12"/>
       <c r="AA62" s="1" t="str">
-        <f t="shared" si="25"/>
-        <v>SearchParameter-us-core-!medicationstatement-effective.html</v>
-      </c>
-    </row>
-    <row r="63" spans="1:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="AA62" si="28">"SearchParameter-us-core-"&amp;LOWER((B62)&amp;"-"&amp;C62&amp;".html")</f>
+        <v>SearchParameter-us-core-medicationrequest-encounter.html</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>62</v>
+        <v>230</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>30</v>
@@ -5763,11 +5905,11 @@
         <v>0</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="G63" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-procedure</v>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>56</v>
@@ -5776,51 +5918,52 @@
         <v>56</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="K63" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>Procedure.status</v>
+        <f t="shared" ref="K63" si="29">B63&amp;"."&amp;C63</f>
+        <v>MedicationRequest.authoredon</v>
       </c>
       <c r="L63" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="M63" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="N63" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="X63" s="5"/>
-      <c r="Y63" s="5"/>
+      <c r="O63" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="R63" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="Z63" s="12"/>
       <c r="AA63" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>SearchParameter-us-core-procedure-status.html</v>
-      </c>
-    </row>
-    <row r="64" spans="1:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="17"/>
+        <v>SearchParameter-us-core-medicationrequest-authoredon.html</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>183</v>
+        <v>447</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E64" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="G64" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-procedure</v>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!medicationstatement</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>56</v>
@@ -5829,56 +5972,51 @@
         <v>56</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="K64" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>Procedure.patient</v>
+        <f>B64&amp;"."&amp;C64</f>
+        <v>!MedicationStatement.status</v>
       </c>
       <c r="L64" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="M64" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="N64" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="X64" s="1" t="str">
-        <f>"support searching for all "&amp;LOWER(B64)&amp;"s for a patient"</f>
-        <v>support searching for all procedures for a patient</v>
-      </c>
-      <c r="Y64" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="Z64" s="12" t="str">
-        <f>"Fetches a bundle of all "&amp;B64&amp; " resources for the specified patient"</f>
-        <v>Fetches a bundle of all Procedure resources for the specified patient</v>
-      </c>
+      <c r="X64" s="5"/>
+      <c r="Y64" s="5"/>
+      <c r="Z64" s="12"/>
       <c r="AA64" s="1" t="str">
-        <f t="shared" ref="AA64:AA66" si="27">"SearchParameter-us-core-"&amp;LOWER((B64)&amp;"-"&amp;C64&amp;".html")</f>
-        <v>SearchParameter-us-core-procedure-patient.html</v>
-      </c>
-    </row>
-    <row r="65" spans="1:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+        <f>"SearchParameter-us-core-"&amp;LOWER((B64)&amp;"-"&amp;C64&amp;".html")</f>
+        <v>SearchParameter-us-core-!medicationstatement-status.html</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>183</v>
+        <v>447</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="E65" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="G65" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-procedure</v>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!medicationstatement</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>56</v>
@@ -5887,11 +6025,11 @@
         <v>56</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K65" s="1" t="str">
-        <f t="shared" ref="K65:K66" si="28">B65&amp;"."&amp;C65</f>
-        <v>Procedure.date</v>
+        <f t="shared" si="16"/>
+        <v>!MedicationStatement.patient</v>
       </c>
       <c r="L65" s="1" t="s">
         <v>56</v>
@@ -5899,27 +6037,31 @@
       <c r="N65" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="O65" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="R65" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z65" s="12"/>
+      <c r="W65" s="7"/>
+      <c r="X65" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y65" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="Z65" s="12" t="str">
+        <f>"Fetches a bundle of all "&amp;B65&amp; " resources for the specified patient. Mandatory for client to support the _include parameter. Optional for server to support the _include parameter."</f>
+        <v>Fetches a bundle of all !MedicationStatement resources for the specified patient. Mandatory for client to support the _include parameter. Optional for server to support the _include parameter.</v>
+      </c>
       <c r="AA65" s="1" t="str">
-        <f t="shared" si="27"/>
-        <v>SearchParameter-us-core-procedure-date.html</v>
-      </c>
-    </row>
-    <row r="66" spans="1:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="AA65:AA66" si="30">"SearchParameter-us-core-"&amp;LOWER((B65)&amp;"-"&amp;C65&amp;".html")</f>
+        <v>SearchParameter-us-core-!medicationstatement-patient.html</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>183</v>
+        <v>447</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>26</v>
+        <v>229</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>30</v>
@@ -5928,11 +6070,11 @@
         <v>0</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="G66" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-procedure</v>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!medicationstatement</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>56</v>
@@ -5941,35 +6083,36 @@
         <v>56</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="K66" s="1" t="str">
-        <f t="shared" si="28"/>
-        <v>Procedure.code</v>
+        <f t="shared" ref="K66" si="31">B66&amp;"."&amp;C66</f>
+        <v>!MedicationStatement.effective</v>
       </c>
       <c r="L66" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="M66" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="N66" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="X66" s="5"/>
-      <c r="Y66" s="5"/>
+      <c r="O66" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="R66" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="Z66" s="12"/>
       <c r="AA66" s="1" t="str">
-        <f t="shared" si="27"/>
-        <v>SearchParameter-us-core-procedure-code.html</v>
-      </c>
-    </row>
-    <row r="67" spans="1:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="30"/>
+        <v>SearchParameter-us-core-!medicationstatement-effective.html</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>62</v>
@@ -5981,11 +6124,11 @@
         <v>0</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G67" s="1" t="str">
-        <f t="shared" ref="G67:G94" si="29">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B67)</f>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation</v>
+        <f t="shared" si="1"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-procedure</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>56</v>
@@ -5997,8 +6140,8 @@
         <v>57</v>
       </c>
       <c r="K67" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>Observation.status</v>
+        <f t="shared" si="16"/>
+        <v>Procedure.status</v>
       </c>
       <c r="L67" s="1" t="s">
         <v>56</v>
@@ -6013,32 +6156,32 @@
       <c r="Y67" s="5"/>
       <c r="Z67" s="12"/>
       <c r="AA67" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>SearchParameter-us-core-observation-status.html</v>
-      </c>
-    </row>
-    <row r="68" spans="1:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="17"/>
+        <v>SearchParameter-us-core-procedure-status.html</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="E68" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="G68" s="1" t="str">
-        <f t="shared" si="29"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation</v>
+        <f t="shared" si="1"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-procedure</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>56</v>
@@ -6047,11 +6190,11 @@
         <v>56</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="K68" s="1" t="str">
-        <f t="shared" ref="K68:K70" si="30">B68&amp;"."&amp;C68</f>
-        <v>Observation.category</v>
+        <f t="shared" si="16"/>
+        <v>Procedure.patient</v>
       </c>
       <c r="L68" s="1" t="s">
         <v>56</v>
@@ -6059,23 +6202,31 @@
       <c r="N68" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="X68" s="5"/>
-      <c r="Y68" s="5"/>
-      <c r="Z68" s="12"/>
+      <c r="X68" s="1" t="str">
+        <f>"support searching for all "&amp;LOWER(B68)&amp;"s for a patient"</f>
+        <v>support searching for all procedures for a patient</v>
+      </c>
+      <c r="Y68" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z68" s="12" t="str">
+        <f>"Fetches a bundle of all "&amp;B68&amp; " resources for the specified patient"</f>
+        <v>Fetches a bundle of all Procedure resources for the specified patient</v>
+      </c>
       <c r="AA68" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>SearchParameter-us-core-observation-category.html</v>
-      </c>
-    </row>
-    <row r="69" spans="1:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="AA68:AA70" si="32">"SearchParameter-us-core-"&amp;LOWER((B68)&amp;"-"&amp;C68&amp;".html")</f>
+        <v>SearchParameter-us-core-procedure-patient.html</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>30</v>
@@ -6084,11 +6235,11 @@
         <v>0</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="G69" s="1" t="str">
-        <f t="shared" si="29"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation</v>
+        <f t="shared" si="1"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-procedure</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>56</v>
@@ -6097,38 +6248,39 @@
         <v>56</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="K69" s="1" t="str">
-        <f t="shared" si="30"/>
-        <v>Observation.code</v>
+        <f t="shared" ref="K69:K70" si="33">B69&amp;"."&amp;C69</f>
+        <v>Procedure.date</v>
       </c>
       <c r="L69" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="M69" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="N69" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="X69" s="5"/>
-      <c r="Y69" s="5"/>
+      <c r="O69" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="R69" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="Z69" s="12"/>
       <c r="AA69" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>SearchParameter-us-core-observation-code.html</v>
-      </c>
-    </row>
-    <row r="70" spans="1:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="32"/>
+        <v>SearchParameter-us-core-procedure-date.html</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>30</v>
@@ -6137,11 +6289,11 @@
         <v>0</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G70" s="1" t="str">
-        <f t="shared" si="29"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation</v>
+        <f t="shared" si="1"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-procedure</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>56</v>
@@ -6150,39 +6302,38 @@
         <v>56</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="K70" s="1" t="str">
-        <f t="shared" si="30"/>
-        <v>Observation.date</v>
+        <f t="shared" si="33"/>
+        <v>Procedure.code</v>
       </c>
       <c r="L70" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="M70" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="N70" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="O70" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="R70" s="1" t="s">
-        <v>93</v>
-      </c>
+      <c r="X70" s="5"/>
+      <c r="Y70" s="5"/>
       <c r="Z70" s="12"/>
       <c r="AA70" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>SearchParameter-us-core-observation-date.html</v>
-      </c>
-    </row>
-    <row r="71" spans="1:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="32"/>
+        <v>SearchParameter-us-core-procedure-code.html</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>30</v>
@@ -6191,10 +6342,10 @@
         <v>0</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="G71" s="1" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" ref="G71:G98" si="34">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B71)</f>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation</v>
       </c>
       <c r="H71" s="1" t="s">
@@ -6204,41 +6355,35 @@
         <v>56</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="K71" s="1" t="str">
-        <f>B71&amp;"."&amp;C71</f>
-        <v>Observation.patient</v>
+        <f t="shared" si="16"/>
+        <v>Observation.status</v>
       </c>
       <c r="L71" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="M71" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="N71" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="X71" s="1" t="str">
-        <f>"support searching for all "&amp;LOWER(B71)&amp;"s for a patient"</f>
-        <v>support searching for all observations for a patient</v>
-      </c>
-      <c r="Y71" s="5" t="str">
-        <f>"GET [base]/"&amp;B71&amp;"?patient=1137192"</f>
-        <v>GET [base]/Observation?patient=1137192</v>
-      </c>
-      <c r="Z71" s="12" t="str">
-        <f>"Fetches a bundle of all "&amp;B71&amp; " resources for the specified patient"</f>
-        <v>Fetches a bundle of all Observation resources for the specified patient</v>
-      </c>
+      <c r="X71" s="5"/>
+      <c r="Y71" s="5"/>
+      <c r="Z71" s="12"/>
       <c r="AA71" s="1" t="str">
-        <f>"SearchParameter-us-core-"&amp;LOWER((B71)&amp;"-"&amp;C71&amp;".html")</f>
-        <v>SearchParameter-us-core-observation-patient.html</v>
-      </c>
-    </row>
-    <row r="72" spans="1:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="17"/>
+        <v>SearchParameter-us-core-observation-status.html</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>236</v>
+        <v>183</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>140</v>
@@ -6250,11 +6395,11 @@
         <v>0</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G72" s="1" t="str">
-        <f t="shared" si="29"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-careplan</v>
+        <f t="shared" si="34"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>56</v>
@@ -6266,8 +6411,8 @@
         <v>57</v>
       </c>
       <c r="K72" s="1" t="str">
-        <f t="shared" ref="K72:K74" si="31">B72&amp;"."&amp;C72</f>
-        <v>CarePlan.category</v>
+        <f t="shared" ref="K72:K74" si="35">B72&amp;"."&amp;C72</f>
+        <v>Observation.category</v>
       </c>
       <c r="L72" s="1" t="s">
         <v>56</v>
@@ -6279,16 +6424,16 @@
       <c r="Y72" s="5"/>
       <c r="Z72" s="12"/>
       <c r="AA72" s="1" t="str">
-        <f t="shared" ref="AA72:AA74" si="32">"SearchParameter-us-core-"&amp;LOWER((B72)&amp;"-"&amp;C72&amp;".html")</f>
-        <v>SearchParameter-us-core-careplan-category.html</v>
-      </c>
-    </row>
-    <row r="73" spans="1:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="17"/>
+        <v>SearchParameter-us-core-observation-category.html</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>319</v>
+        <v>183</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>26</v>
@@ -6300,11 +6445,11 @@
         <v>0</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G73" s="1" t="str">
-        <f t="shared" si="29"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!careplan</v>
+        <f t="shared" si="34"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>56</v>
@@ -6316,11 +6461,14 @@
         <v>57</v>
       </c>
       <c r="K73" s="1" t="str">
-        <f t="shared" si="31"/>
-        <v>!CarePlan.code</v>
+        <f t="shared" si="35"/>
+        <v>Observation.code</v>
       </c>
       <c r="L73" s="1" t="s">
         <v>56</v>
+      </c>
+      <c r="M73" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="N73" s="1" t="s">
         <v>56</v>
@@ -6329,16 +6477,16 @@
       <c r="Y73" s="5"/>
       <c r="Z73" s="12"/>
       <c r="AA73" s="1" t="str">
-        <f t="shared" si="32"/>
-        <v>SearchParameter-us-core-!careplan-code.html</v>
-      </c>
-    </row>
-    <row r="74" spans="1:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="17"/>
+        <v>SearchParameter-us-core-observation-code.html</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>236</v>
+        <v>183</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>79</v>
@@ -6350,11 +6498,11 @@
         <v>0</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G74" s="1" t="str">
-        <f t="shared" si="29"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-careplan</v>
+        <f t="shared" si="34"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>56</v>
@@ -6366,8 +6514,8 @@
         <v>79</v>
       </c>
       <c r="K74" s="1" t="str">
-        <f t="shared" si="31"/>
-        <v>CarePlan.date</v>
+        <f t="shared" si="35"/>
+        <v>Observation.date</v>
       </c>
       <c r="L74" s="1" t="s">
         <v>56</v>
@@ -6383,16 +6531,16 @@
       </c>
       <c r="Z74" s="12"/>
       <c r="AA74" s="1" t="str">
-        <f t="shared" si="32"/>
-        <v>SearchParameter-us-core-careplan-date.html</v>
-      </c>
-    </row>
-    <row r="75" spans="1:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="17"/>
+        <v>SearchParameter-us-core-observation-date.html</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>236</v>
+        <v>183</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>90</v>
@@ -6404,11 +6552,11 @@
         <v>0</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G75" s="1" t="str">
-        <f t="shared" si="29"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-careplan</v>
+        <f t="shared" si="34"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>56</v>
@@ -6421,7 +6569,7 @@
       </c>
       <c r="K75" s="1" t="str">
         <f>B75&amp;"."&amp;C75</f>
-        <v>CarePlan.patient</v>
+        <v>Observation.patient</v>
       </c>
       <c r="L75" s="1" t="s">
         <v>56</v>
@@ -6431,30 +6579,30 @@
       </c>
       <c r="X75" s="1" t="str">
         <f>"support searching for all "&amp;LOWER(B75)&amp;"s for a patient"</f>
-        <v>support searching for all careplans for a patient</v>
+        <v>support searching for all observations for a patient</v>
       </c>
       <c r="Y75" s="5" t="str">
         <f>"GET [base]/"&amp;B75&amp;"?patient=1137192"</f>
-        <v>GET [base]/CarePlan?patient=1137192</v>
+        <v>GET [base]/Observation?patient=1137192</v>
       </c>
       <c r="Z75" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B75&amp; " resources for the specified patient"</f>
-        <v>Fetches a bundle of all CarePlan resources for the specified patient</v>
+        <v>Fetches a bundle of all Observation resources for the specified patient</v>
       </c>
       <c r="AA75" s="1" t="str">
         <f>"SearchParameter-us-core-"&amp;LOWER((B75)&amp;"-"&amp;C75&amp;".html")</f>
-        <v>SearchParameter-us-core-careplan-patient.html</v>
-      </c>
-    </row>
-    <row r="76" spans="1:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+        <v>SearchParameter-us-core-observation-patient.html</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>62</v>
+        <v>140</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>30</v>
@@ -6463,10 +6611,10 @@
         <v>0</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G76" s="1" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-careplan</v>
       </c>
       <c r="H76" s="1" t="s">
@@ -6479,14 +6627,11 @@
         <v>57</v>
       </c>
       <c r="K76" s="1" t="str">
-        <f t="shared" ref="K76" si="33">B76&amp;"."&amp;C76</f>
-        <v>CarePlan.status</v>
+        <f t="shared" ref="K76:K78" si="36">B76&amp;"."&amp;C76</f>
+        <v>CarePlan.category</v>
       </c>
       <c r="L76" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="M76" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="N76" s="1" t="s">
         <v>56</v>
@@ -6495,19 +6640,19 @@
       <c r="Y76" s="5"/>
       <c r="Z76" s="12"/>
       <c r="AA76" s="1" t="str">
-        <f t="shared" ref="AA76" si="34">"SearchParameter-us-core-"&amp;LOWER((B76)&amp;"-"&amp;C76&amp;".html")</f>
-        <v>SearchParameter-us-core-careplan-status.html</v>
-      </c>
-    </row>
-    <row r="77" spans="1:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="AA76:AA78" si="37">"SearchParameter-us-core-"&amp;LOWER((B76)&amp;"-"&amp;C76&amp;".html")</f>
+        <v>SearchParameter-us-core-careplan-category.html</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>250</v>
+        <v>318</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>30</v>
@@ -6516,11 +6661,11 @@
         <v>0</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="G77" s="1" t="str">
-        <f t="shared" si="29"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-careteam</v>
+        <f t="shared" si="34"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!careplan</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>56</v>
@@ -6529,11 +6674,11 @@
         <v>56</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="K77" s="1" t="str">
-        <f>B77&amp;"."&amp;C77</f>
-        <v>CareTeam.patient</v>
+        <f t="shared" si="36"/>
+        <v>!CarePlan.code</v>
       </c>
       <c r="L77" s="1" t="s">
         <v>56</v>
@@ -6541,32 +6686,23 @@
       <c r="N77" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="X77" s="1" t="str">
-        <f>"support searching for all "&amp;LOWER(B77)&amp;"s for a patient"</f>
-        <v>support searching for all careteams for a patient</v>
-      </c>
-      <c r="Y77" s="5" t="str">
-        <f>"GET [base]/"&amp;B77&amp;"?patient=1137192"</f>
-        <v>GET [base]/CareTeam?patient=1137192</v>
-      </c>
-      <c r="Z77" s="12" t="str">
-        <f>"Fetches a bundle of all "&amp;B77&amp; " resources for the specified patient"</f>
-        <v>Fetches a bundle of all CareTeam resources for the specified patient</v>
-      </c>
+      <c r="X77" s="5"/>
+      <c r="Y77" s="5"/>
+      <c r="Z77" s="12"/>
       <c r="AA77" s="1" t="str">
-        <f>"SearchParameter-us-core-"&amp;LOWER((B77)&amp;"-"&amp;C77&amp;".html")</f>
-        <v>SearchParameter-us-core-careteam-patient.html</v>
-      </c>
-    </row>
-    <row r="78" spans="1:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="37"/>
+        <v>SearchParameter-us-core-!careplan-code.html</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>30</v>
@@ -6575,11 +6711,11 @@
         <v>0</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="G78" s="1" t="str">
-        <f t="shared" si="29"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-careteam</v>
+        <f t="shared" si="34"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-careplan</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>56</v>
@@ -6588,51 +6724,52 @@
         <v>56</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="K78" s="1" t="str">
-        <f t="shared" ref="K78" si="35">B78&amp;"."&amp;C78</f>
-        <v>CareTeam.status</v>
+        <f t="shared" si="36"/>
+        <v>CarePlan.date</v>
       </c>
       <c r="L78" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="M78" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="N78" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="X78" s="5"/>
-      <c r="Y78" s="5"/>
+      <c r="O78" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="R78" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="Z78" s="12"/>
       <c r="AA78" s="1" t="str">
-        <f t="shared" ref="AA78" si="36">"SearchParameter-us-core-"&amp;LOWER((B78)&amp;"-"&amp;C78&amp;".html")</f>
-        <v>SearchParameter-us-core-careteam-status.html</v>
-      </c>
-    </row>
-    <row r="79" spans="1:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="37"/>
+        <v>SearchParameter-us-core-careplan-date.html</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E79" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G79" s="1" t="str">
-        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-implantable-"&amp;LOWER(B79)</f>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-implantable-device</v>
+        <f t="shared" si="34"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-careplan</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>56</v>
@@ -6644,8 +6781,8 @@
         <v>91</v>
       </c>
       <c r="K79" s="1" t="str">
-        <f t="shared" ref="K79:K94" si="37">B79&amp;"."&amp;C79</f>
-        <v>Device.patient</v>
+        <f>B79&amp;"."&amp;C79</f>
+        <v>CarePlan.patient</v>
       </c>
       <c r="L79" s="1" t="s">
         <v>56</v>
@@ -6654,31 +6791,31 @@
         <v>56</v>
       </c>
       <c r="X79" s="1" t="str">
-        <f>"support searching for all "&amp;LOWER(B79)&amp;"s for a patient, including implantable devices"</f>
-        <v>support searching for all devices for a patient, including implantable devices</v>
+        <f>"support searching for all "&amp;LOWER(B79)&amp;"s for a patient"</f>
+        <v>support searching for all careplans for a patient</v>
       </c>
       <c r="Y79" s="5" t="str">
         <f>"GET [base]/"&amp;B79&amp;"?patient=1137192"</f>
-        <v>GET [base]/Device?patient=1137192</v>
+        <v>GET [base]/CarePlan?patient=1137192</v>
       </c>
       <c r="Z79" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B79&amp; " resources for the specified patient"</f>
-        <v>Fetches a bundle of all Device resources for the specified patient</v>
+        <v>Fetches a bundle of all CarePlan resources for the specified patient</v>
       </c>
       <c r="AA79" s="1" t="str">
-        <f t="shared" ref="AA79:AA90" si="38">"SearchParameter-us-core-"&amp;LOWER((B79)&amp;"-"&amp;C79&amp;".html")</f>
-        <v>SearchParameter-us-core-device-patient.html</v>
-      </c>
-    </row>
-    <row r="80" spans="1:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+        <f>"SearchParameter-us-core-"&amp;LOWER((B79)&amp;"-"&amp;C79&amp;".html")</f>
+        <v>SearchParameter-us-core-careplan-patient.html</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>30</v>
@@ -6687,11 +6824,11 @@
         <v>0</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G80" s="1" t="str">
-        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-implantable-"&amp;LOWER(B80)</f>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-implantable-device</v>
+        <f t="shared" si="34"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-careplan</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>56</v>
@@ -6703,41 +6840,48 @@
         <v>57</v>
       </c>
       <c r="K80" s="1" t="str">
-        <f t="shared" ref="K80" si="39">B80&amp;"."&amp;C80</f>
-        <v>Device.type</v>
+        <f t="shared" ref="K80" si="38">B80&amp;"."&amp;C80</f>
+        <v>CarePlan.status</v>
       </c>
       <c r="L80" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="M80" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="N80" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="X80" s="5"/>
       <c r="Y80" s="5"/>
       <c r="Z80" s="12"/>
       <c r="AA80" s="1" t="str">
-        <f t="shared" si="38"/>
-        <v>SearchParameter-us-core-device-type.html</v>
-      </c>
-    </row>
-    <row r="81" spans="1:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="AA80" si="39">"SearchParameter-us-core-"&amp;LOWER((B80)&amp;"-"&amp;C80&amp;".html")</f>
+        <v>SearchParameter-us-core-careplan-status.html</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E81" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>525</v>
       </c>
       <c r="G81" s="1" t="str">
-        <f t="shared" si="29"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-location</v>
+        <f t="shared" si="34"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-careteam</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>56</v>
@@ -6745,12 +6889,12 @@
       <c r="I81" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J81" t="s">
-        <v>64</v>
+      <c r="J81" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="K81" s="1" t="str">
-        <f t="shared" si="37"/>
-        <v>Location.name</v>
+        <f>B81&amp;"."&amp;C81</f>
+        <v>CareTeam.patient</v>
       </c>
       <c r="L81" s="1" t="s">
         <v>56</v>
@@ -6758,41 +6902,45 @@
       <c r="N81" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="X81" s="1" t="s">
-        <v>259</v>
+      <c r="X81" s="1" t="str">
+        <f>"support searching for all "&amp;LOWER(B81)&amp;"s for a patient"</f>
+        <v>support searching for all careteams for a patient</v>
       </c>
       <c r="Y81" s="5" t="str">
-        <f>"GET [base]/"&amp;B81&amp;"?name=Health"</f>
-        <v>GET [base]/Location?name=Health</v>
+        <f>"GET [base]/"&amp;B81&amp;"?patient=1137192"</f>
+        <v>GET [base]/CareTeam?patient=1137192</v>
       </c>
       <c r="Z81" s="12" t="str">
-        <f>"Fetches a bundle of all "&amp;B81&amp; " resources that match the name"</f>
-        <v>Fetches a bundle of all Location resources that match the name</v>
-      </c>
-      <c r="AA81" t="str">
-        <f t="shared" si="38"/>
-        <v>SearchParameter-us-core-location-name.html</v>
-      </c>
-    </row>
-    <row r="82" spans="1:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+        <f>"Fetches a bundle of all "&amp;B81&amp; " resources for the specified patient"</f>
+        <v>Fetches a bundle of all CareTeam resources for the specified patient</v>
+      </c>
+      <c r="AA81" s="1" t="str">
+        <f>"SearchParameter-us-core-"&amp;LOWER((B81)&amp;"-"&amp;C81&amp;".html")</f>
+        <v>SearchParameter-us-core-careteam-patient.html</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E82" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>528</v>
       </c>
       <c r="G82" s="1" t="str">
-        <f t="shared" si="29"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-location</v>
+        <f t="shared" si="34"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-careteam</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>56</v>
@@ -6801,53 +6949,51 @@
         <v>56</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="K82" s="1" t="str">
-        <f t="shared" si="37"/>
-        <v>Location.address</v>
+        <f t="shared" ref="K82" si="40">B82&amp;"."&amp;C82</f>
+        <v>CareTeam.status</v>
       </c>
       <c r="L82" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="M82" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="N82" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="X82" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="Y82" s="5" t="str">
-        <f>"GET [base]/"&amp;B82&amp;"?address=Arbor"</f>
-        <v>GET [base]/Location?address=Arbor</v>
-      </c>
-      <c r="Z82" s="12" t="str">
-        <f>"Fetches a bundle of all "&amp;B82&amp; " resources that match the address string"</f>
-        <v>Fetches a bundle of all Location resources that match the address string</v>
-      </c>
-      <c r="AA82" t="str">
-        <f t="shared" si="38"/>
-        <v>SearchParameter-us-core-location-address.html</v>
-      </c>
-    </row>
-    <row r="83" spans="1:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X82" s="5"/>
+      <c r="Y82" s="5"/>
+      <c r="Z82" s="12"/>
+      <c r="AA82" s="1" t="str">
+        <f t="shared" ref="AA82" si="41">"SearchParameter-us-core-"&amp;LOWER((B82)&amp;"-"&amp;C82&amp;".html")</f>
+        <v>SearchParameter-us-core-careteam-status.html</v>
+      </c>
+    </row>
+    <row r="83" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>256</v>
+        <v>90</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="E83" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="F83" s="2" t="s">
+        <v>525</v>
+      </c>
       <c r="G83" s="1" t="str">
-        <f t="shared" si="29"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-location</v>
+        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-implantable-"&amp;LOWER(B83)</f>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-implantable-device</v>
       </c>
       <c r="H83" s="1" t="s">
         <v>56</v>
@@ -6856,11 +7002,11 @@
         <v>56</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="K83" s="1" t="str">
-        <f t="shared" si="37"/>
-        <v>Location.address-city</v>
+        <f t="shared" ref="K83:K98" si="42">B83&amp;"."&amp;C83</f>
+        <v>Device.patient</v>
       </c>
       <c r="L83" s="1" t="s">
         <v>56</v>
@@ -6868,41 +7014,45 @@
       <c r="N83" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="X83" s="1" t="s">
-        <v>261</v>
+      <c r="X83" s="1" t="str">
+        <f>"support searching for all "&amp;LOWER(B83)&amp;"s for a patient, including implantable devices"</f>
+        <v>support searching for all devices for a patient, including implantable devices</v>
       </c>
       <c r="Y83" s="5" t="str">
-        <f>"GET [base]/"&amp;B83&amp;"?address-city=Ann Arbor"</f>
-        <v>GET [base]/Location?address-city=Ann Arbor</v>
+        <f>"GET [base]/"&amp;B83&amp;"?patient=1137192"</f>
+        <v>GET [base]/Device?patient=1137192</v>
       </c>
       <c r="Z83" s="12" t="str">
-        <f>"Fetches a bundle of all "&amp;B83&amp; " resources for the city"</f>
-        <v>Fetches a bundle of all Location resources for the city</v>
-      </c>
-      <c r="AA83" t="str">
-        <f t="shared" si="38"/>
-        <v>SearchParameter-us-core-location-address-city.html</v>
-      </c>
-    </row>
-    <row r="84" spans="1:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+        <f>"Fetches a bundle of all "&amp;B83&amp; " resources for the specified patient"</f>
+        <v>Fetches a bundle of all Device resources for the specified patient</v>
+      </c>
+      <c r="AA83" s="1" t="str">
+        <f t="shared" ref="AA83:AA94" si="43">"SearchParameter-us-core-"&amp;LOWER((B83)&amp;"-"&amp;C83&amp;".html")</f>
+        <v>SearchParameter-us-core-device-patient.html</v>
+      </c>
+    </row>
+    <row r="84" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>320</v>
+        <v>13</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="E84" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>528</v>
       </c>
       <c r="G84" s="1" t="str">
-        <f t="shared" si="29"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-location</v>
+        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-implantable-"&amp;LOWER(B84)</f>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-implantable-device</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>56</v>
@@ -6911,11 +7061,11 @@
         <v>56</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="K84" s="1" t="str">
-        <f t="shared" si="37"/>
-        <v>Location.address-state</v>
+        <f t="shared" ref="K84" si="44">B84&amp;"."&amp;C84</f>
+        <v>Device.type</v>
       </c>
       <c r="L84" s="1" t="s">
         <v>56</v>
@@ -6923,39 +7073,31 @@
       <c r="N84" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="X84" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="Y84" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="Z84" s="12" t="str">
-        <f>"Fetches a bundle of all "&amp;B84&amp; " resources for the state"</f>
-        <v>Fetches a bundle of all Location resources for the state</v>
-      </c>
-      <c r="AA84" t="str">
-        <f t="shared" si="38"/>
-        <v>SearchParameter-us-core-location-address-state.html</v>
-      </c>
-    </row>
-    <row r="85" spans="1:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y84" s="5"/>
+      <c r="Z84" s="12"/>
+      <c r="AA84" s="1" t="str">
+        <f t="shared" si="43"/>
+        <v>SearchParameter-us-core-device-type.html</v>
+      </c>
+    </row>
+    <row r="85" spans="1:27" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>258</v>
+        <v>23</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="E85" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G85" s="1" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-location</v>
       </c>
       <c r="H85" s="1" t="s">
@@ -6964,12 +7106,12 @@
       <c r="I85" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J85" s="1" t="s">
+      <c r="J85" t="s">
         <v>64</v>
       </c>
       <c r="K85" s="1" t="str">
-        <f t="shared" si="37"/>
-        <v>Location.address-postalcode</v>
+        <f t="shared" si="42"/>
+        <v>Location.name</v>
       </c>
       <c r="L85" s="1" t="s">
         <v>56</v>
@@ -6978,30 +7120,30 @@
         <v>56</v>
       </c>
       <c r="X85" s="1" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="Y85" s="5" t="str">
-        <f>"GET [base]/"&amp;B85&amp;"?address-postalcode=48104"</f>
-        <v>GET [base]/Location?address-postalcode=48104</v>
+        <f>"GET [base]/"&amp;B85&amp;"?name=Health"</f>
+        <v>GET [base]/Location?name=Health</v>
       </c>
       <c r="Z85" s="12" t="str">
-        <f>"Fetches a bundle of all "&amp;B85&amp; " resources for the ZIP code"</f>
-        <v>Fetches a bundle of all Location resources for the ZIP code</v>
+        <f>"Fetches a bundle of all "&amp;B85&amp; " resources that match the name"</f>
+        <v>Fetches a bundle of all Location resources that match the name</v>
       </c>
       <c r="AA85" t="str">
-        <f t="shared" si="38"/>
-        <v>SearchParameter-us-core-location-address-postalcode.html</v>
-      </c>
-    </row>
-    <row r="86" spans="1:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="43"/>
+        <v>SearchParameter-us-core-location-name.html</v>
+      </c>
+    </row>
+    <row r="86" spans="1:27" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>12</v>
@@ -7010,8 +7152,8 @@
         <v>1</v>
       </c>
       <c r="G86" s="1" t="str">
-        <f t="shared" si="29"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization</v>
+        <f t="shared" si="34"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-location</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>56</v>
@@ -7023,8 +7165,8 @@
         <v>64</v>
       </c>
       <c r="K86" s="1" t="str">
-        <f t="shared" si="37"/>
-        <v>Organization.name</v>
+        <f t="shared" si="42"/>
+        <v>Location.address</v>
       </c>
       <c r="L86" s="1" t="s">
         <v>56</v>
@@ -7033,40 +7175,40 @@
         <v>56</v>
       </c>
       <c r="X86" s="1" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="Y86" s="5" t="str">
-        <f>"GET [base]/"&amp;B86&amp;"?name=Health"</f>
-        <v>GET [base]/Organization?name=Health</v>
+        <f>"GET [base]/"&amp;B86&amp;"?address=Arbor"</f>
+        <v>GET [base]/Location?address=Arbor</v>
       </c>
       <c r="Z86" s="12" t="str">
-        <f>"Fetches a bundle of all "&amp;B86&amp; " resources that match the name"</f>
-        <v>Fetches a bundle of all Organization resources that match the name</v>
-      </c>
-      <c r="AA86" s="1" t="str">
-        <f t="shared" si="38"/>
-        <v>SearchParameter-us-core-organization-name.html</v>
-      </c>
-    </row>
-    <row r="87" spans="1:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+        <f>"Fetches a bundle of all "&amp;B86&amp; " resources that match the address string"</f>
+        <v>Fetches a bundle of all Location resources that match the address string</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" si="43"/>
+        <v>SearchParameter-us-core-location-address.html</v>
+      </c>
+    </row>
+    <row r="87" spans="1:27" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>86</v>
+        <v>255</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="E87" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G87" s="1" t="str">
-        <f t="shared" si="29"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization</v>
+        <f t="shared" si="34"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-location</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>56</v>
@@ -7078,8 +7220,8 @@
         <v>64</v>
       </c>
       <c r="K87" s="1" t="str">
-        <f t="shared" si="37"/>
-        <v>Organization.address</v>
+        <f t="shared" si="42"/>
+        <v>Location.address-city</v>
       </c>
       <c r="L87" s="1" t="s">
         <v>56</v>
@@ -7088,30 +7230,30 @@
         <v>56</v>
       </c>
       <c r="X87" s="1" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="Y87" s="5" t="str">
-        <f>"GET [base]/"&amp;B87&amp;"?address=Arbor"</f>
-        <v>GET [base]/Organization?address=Arbor</v>
+        <f>"GET [base]/"&amp;B87&amp;"?address-city=Ann Arbor"</f>
+        <v>GET [base]/Location?address-city=Ann Arbor</v>
       </c>
       <c r="Z87" s="12" t="str">
-        <f>"Fetches a bundle of all "&amp;B87&amp; " resources that match the address string"</f>
-        <v>Fetches a bundle of all Organization resources that match the address string</v>
-      </c>
-      <c r="AA87" s="1" t="str">
-        <f t="shared" si="38"/>
-        <v>SearchParameter-us-core-organization-address.html</v>
-      </c>
-    </row>
-    <row r="88" spans="1:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+        <f>"Fetches a bundle of all "&amp;B87&amp; " resources for the city"</f>
+        <v>Fetches a bundle of all Location resources for the city</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" si="43"/>
+        <v>SearchParameter-us-core-location-address-city.html</v>
+      </c>
+    </row>
+    <row r="88" spans="1:27" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>256</v>
+        <v>319</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>70</v>
@@ -7120,8 +7262,8 @@
         <v>1</v>
       </c>
       <c r="G88" s="1" t="str">
-        <f t="shared" si="29"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!organization</v>
+        <f t="shared" si="34"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-location</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>56</v>
@@ -7133,8 +7275,8 @@
         <v>64</v>
       </c>
       <c r="K88" s="1" t="str">
-        <f t="shared" si="37"/>
-        <v>!Organization.address-city</v>
+        <f t="shared" si="42"/>
+        <v>Location.address-state</v>
       </c>
       <c r="L88" s="1" t="s">
         <v>56</v>
@@ -7143,27 +7285,26 @@
         <v>56</v>
       </c>
       <c r="X88" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="Y88" s="5" t="str">
-        <f>"GET [base]/"&amp;B88&amp;"?address-city=Ann Arbor"</f>
-        <v>GET [base]/!Organization?address-city=Ann Arbor</v>
+        <v>261</v>
+      </c>
+      <c r="Y88" s="5" t="s">
+        <v>263</v>
       </c>
       <c r="Z88" s="12" t="str">
-        <f>"Fetches a bundle of all "&amp;B88&amp; " resources for the city"</f>
-        <v>Fetches a bundle of all !Organization resources for the city</v>
-      </c>
-      <c r="AA88" s="1" t="str">
-        <f t="shared" si="38"/>
-        <v>SearchParameter-us-core-!organization-address-city.html</v>
-      </c>
-    </row>
-    <row r="89" spans="1:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+        <f>"Fetches a bundle of all "&amp;B88&amp; " resources for the state"</f>
+        <v>Fetches a bundle of all Location resources for the state</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="43"/>
+        <v>SearchParameter-us-core-location-address-state.html</v>
+      </c>
+    </row>
+    <row r="89" spans="1:27" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>257</v>
@@ -7175,8 +7316,8 @@
         <v>1</v>
       </c>
       <c r="G89" s="1" t="str">
-        <f t="shared" si="29"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!organization</v>
+        <f t="shared" si="34"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-location</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>56</v>
@@ -7188,8 +7329,8 @@
         <v>64</v>
       </c>
       <c r="K89" s="1" t="str">
-        <f t="shared" si="37"/>
-        <v>!Organization.adress-state</v>
+        <f t="shared" si="42"/>
+        <v>Location.address-postalcode</v>
       </c>
       <c r="L89" s="1" t="s">
         <v>56</v>
@@ -7198,40 +7339,40 @@
         <v>56</v>
       </c>
       <c r="X89" s="1" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="Y89" s="5" t="str">
-        <f>"GET [base]/"&amp;B89&amp;"?address-state=MI"</f>
-        <v>GET [base]/!Organization?address-state=MI</v>
+        <f>"GET [base]/"&amp;B89&amp;"?address-postalcode=48104"</f>
+        <v>GET [base]/Location?address-postalcode=48104</v>
       </c>
       <c r="Z89" s="12" t="str">
-        <f>"Fetches a bundle of all "&amp;B89&amp; " resources for the state"</f>
-        <v>Fetches a bundle of all !Organization resources for the state</v>
-      </c>
-      <c r="AA89" s="1" t="str">
-        <f t="shared" si="38"/>
-        <v>SearchParameter-us-core-!organization-adress-state.html</v>
-      </c>
-    </row>
-    <row r="90" spans="1:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+        <f>"Fetches a bundle of all "&amp;B89&amp; " resources for the ZIP code"</f>
+        <v>Fetches a bundle of all Location resources for the ZIP code</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" si="43"/>
+        <v>SearchParameter-us-core-location-address-postalcode.html</v>
+      </c>
+    </row>
+    <row r="90" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>258</v>
+        <v>23</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="E90" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G90" s="1" t="str">
-        <f t="shared" si="29"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!organization</v>
+        <f t="shared" si="34"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>56</v>
@@ -7243,8 +7384,8 @@
         <v>64</v>
       </c>
       <c r="K90" s="1" t="str">
-        <f t="shared" si="37"/>
-        <v>!Organization.address-postalcode</v>
+        <f t="shared" si="42"/>
+        <v>Organization.name</v>
       </c>
       <c r="L90" s="1" t="s">
         <v>56</v>
@@ -7253,30 +7394,30 @@
         <v>56</v>
       </c>
       <c r="X90" s="1" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="Y90" s="5" t="str">
-        <f>"GET [base]/"&amp;B90&amp;"?address-postalcode=48104"</f>
-        <v>GET [base]/!Organization?address-postalcode=48104</v>
+        <f>"GET [base]/"&amp;B90&amp;"?name=Health"</f>
+        <v>GET [base]/Organization?name=Health</v>
       </c>
       <c r="Z90" s="12" t="str">
-        <f>"Fetches a bundle of all "&amp;B90&amp; " resources for the ZIP code"</f>
-        <v>Fetches a bundle of all !Organization resources for the ZIP code</v>
+        <f>"Fetches a bundle of all "&amp;B90&amp; " resources that match the name"</f>
+        <v>Fetches a bundle of all Organization resources that match the name</v>
       </c>
       <c r="AA90" s="1" t="str">
-        <f t="shared" si="38"/>
-        <v>SearchParameter-us-core-!organization-address-postalcode.html</v>
-      </c>
-    </row>
-    <row r="91" spans="1:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="43"/>
+        <v>SearchParameter-us-core-organization-name.html</v>
+      </c>
+    </row>
+    <row r="91" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>12</v>
@@ -7285,8 +7426,8 @@
         <v>1</v>
       </c>
       <c r="G91" s="1" t="str">
-        <f t="shared" si="29"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner</v>
+        <f t="shared" si="34"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>56</v>
@@ -7298,8 +7439,8 @@
         <v>64</v>
       </c>
       <c r="K91" s="1" t="str">
-        <f t="shared" si="37"/>
-        <v>Practitioner.name</v>
+        <f t="shared" si="42"/>
+        <v>Organization.address</v>
       </c>
       <c r="L91" s="1" t="s">
         <v>56</v>
@@ -7307,44 +7448,41 @@
       <c r="N91" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="X91" s="5" t="s">
-        <v>273</v>
+      <c r="X91" s="1" t="s">
+        <v>266</v>
       </c>
       <c r="Y91" s="5" t="str">
-        <f>"GET [base]/"&amp;B91&amp;"?name=Smith"</f>
-        <v>GET [base]/Practitioner?name=Smith</v>
+        <f>"GET [base]/"&amp;B91&amp;"?address=Arbor"</f>
+        <v>GET [base]/Organization?address=Arbor</v>
       </c>
       <c r="Z91" s="12" t="str">
-        <f>"Fetches a bundle of all "&amp;B91&amp;" resources matching the name"</f>
-        <v>Fetches a bundle of all Practitioner resources matching the name</v>
+        <f>"Fetches a bundle of all "&amp;B91&amp; " resources that match the address string"</f>
+        <v>Fetches a bundle of all Organization resources that match the address string</v>
       </c>
       <c r="AA91" s="1" t="str">
-        <f t="shared" ref="AA91:AA92" si="40">"SearchParameter-us-core-"&amp;LOWER((B91)&amp;"-"&amp;SUBSTITUTE(C91,"_","")&amp;".html")</f>
-        <v>SearchParameter-us-core-practitioner-name.html</v>
-      </c>
-    </row>
-    <row r="92" spans="1:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="43"/>
+        <v>SearchParameter-us-core-organization-address.html</v>
+      </c>
+    </row>
+    <row r="92" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>77</v>
+        <v>255</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="E92" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F92" s="2" t="s">
-        <v>529</v>
-      </c>
       <c r="G92" s="1" t="str">
-        <f t="shared" si="29"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner</v>
+        <f t="shared" si="34"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!organization</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>56</v>
@@ -7353,11 +7491,11 @@
         <v>56</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="K92" s="1" t="str">
-        <f t="shared" si="37"/>
-        <v>Practitioner.identifier</v>
+        <f t="shared" si="42"/>
+        <v>!Organization.address-city</v>
       </c>
       <c r="L92" s="1" t="s">
         <v>56</v>
@@ -7365,44 +7503,41 @@
       <c r="N92" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="X92" s="5" t="s">
-        <v>328</v>
+      <c r="X92" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="Y92" s="5" t="str">
-        <f>"GET [base]/"&amp;B92&amp;"?dentifier=http://hl7.org/fhir/sid/us-npi\|97860456"</f>
-        <v>GET [base]/Practitioner?dentifier=http://hl7.org/fhir/sid/us-npi\|97860456</v>
+        <f>"GET [base]/"&amp;B92&amp;"?address-city=Ann Arbor"</f>
+        <v>GET [base]/!Organization?address-city=Ann Arbor</v>
       </c>
       <c r="Z92" s="12" t="str">
-        <f>"Fetches a bundle containing any "&amp;B92&amp;" resources matching the identifier"</f>
-        <v>Fetches a bundle containing any Practitioner resources matching the identifier</v>
+        <f>"Fetches a bundle of all "&amp;B92&amp; " resources for the city"</f>
+        <v>Fetches a bundle of all !Organization resources for the city</v>
       </c>
       <c r="AA92" s="1" t="str">
-        <f t="shared" si="40"/>
-        <v>SearchParameter-us-core-practitioner-identifier.html</v>
-      </c>
-    </row>
-    <row r="93" spans="1:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="43"/>
+        <v>SearchParameter-us-core-!organization-address-city.html</v>
+      </c>
+    </row>
+    <row r="93" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="E93" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F93" s="2" t="s">
-        <v>529</v>
-      </c>
       <c r="G93" s="1" t="str">
-        <f t="shared" si="29"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitionerrole</v>
+        <f t="shared" si="34"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!organization</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>56</v>
@@ -7411,11 +7546,11 @@
         <v>56</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="K93" s="1" t="str">
-        <f t="shared" si="37"/>
-        <v>PractitionerRole.specialty</v>
+        <f t="shared" si="42"/>
+        <v>!Organization.adress-state</v>
       </c>
       <c r="L93" s="1" t="s">
         <v>56</v>
@@ -7423,105 +7558,338 @@
       <c r="N93" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="W93" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="X93" s="5" t="s">
-        <v>329</v>
+      <c r="X93" s="1" t="s">
+        <v>268</v>
       </c>
       <c r="Y93" s="5" t="str">
-        <f>"GET [base]/"&amp;B93&amp;"?specialty=http://nucc.org/provider-taxonomy\|208D0000X"</f>
-        <v>GET [base]/PractitionerRole?specialty=http://nucc.org/provider-taxonomy\|208D0000X</v>
+        <f>"GET [base]/"&amp;B93&amp;"?address-state=MI"</f>
+        <v>GET [base]/!Organization?address-state=MI</v>
       </c>
       <c r="Z93" s="12" t="str">
-        <f>"Fetches a bundle containing  "&amp;B93&amp;" resources matching the specialty"</f>
-        <v>Fetches a bundle containing  PractitionerRole resources matching the specialty</v>
+        <f>"Fetches a bundle of all "&amp;B93&amp; " resources for the state"</f>
+        <v>Fetches a bundle of all !Organization resources for the state</v>
       </c>
       <c r="AA93" s="1" t="str">
-        <f t="shared" ref="AA93" si="41">"SearchParameter-us-core-"&amp;LOWER((B93)&amp;"-"&amp;SUBSTITUTE(C93,"_","")&amp;".html")</f>
-        <v>SearchParameter-us-core-practitionerrole-specialty.html</v>
-      </c>
-    </row>
-    <row r="94" spans="1:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="43"/>
+        <v>SearchParameter-us-core-!organization-adress-state.html</v>
+      </c>
+    </row>
+    <row r="94" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="E94" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F94" s="2" t="s">
-        <v>526</v>
-      </c>
       <c r="G94" s="1" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!organization</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K94" s="1" t="str">
+        <f t="shared" si="42"/>
+        <v>!Organization.address-postalcode</v>
+      </c>
+      <c r="L94" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N94" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="X94" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="Y94" s="5" t="str">
+        <f>"GET [base]/"&amp;B94&amp;"?address-postalcode=48104"</f>
+        <v>GET [base]/!Organization?address-postalcode=48104</v>
+      </c>
+      <c r="Z94" s="12" t="str">
+        <f>"Fetches a bundle of all "&amp;B94&amp; " resources for the ZIP code"</f>
+        <v>Fetches a bundle of all !Organization resources for the ZIP code</v>
+      </c>
+      <c r="AA94" s="1" t="str">
+        <f t="shared" si="43"/>
+        <v>SearchParameter-us-core-!organization-address-postalcode.html</v>
+      </c>
+    </row>
+    <row r="95" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E95" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G95" s="1" t="str">
+        <f t="shared" si="34"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K95" s="1" t="str">
+        <f t="shared" si="42"/>
+        <v>Practitioner.name</v>
+      </c>
+      <c r="L95" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N95" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="X95" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="Y95" s="5" t="str">
+        <f>"GET [base]/"&amp;B95&amp;"?name=Smith"</f>
+        <v>GET [base]/Practitioner?name=Smith</v>
+      </c>
+      <c r="Z95" s="12" t="str">
+        <f>"Fetches a bundle of all "&amp;B95&amp;" resources matching the name"</f>
+        <v>Fetches a bundle of all Practitioner resources matching the name</v>
+      </c>
+      <c r="AA95" s="1" t="str">
+        <f t="shared" ref="AA95:AA96" si="45">"SearchParameter-us-core-"&amp;LOWER((B95)&amp;"-"&amp;SUBSTITUTE(C95,"_","")&amp;".html")</f>
+        <v>SearchParameter-us-core-practitioner-name.html</v>
+      </c>
+    </row>
+    <row r="96" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E96" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="G96" s="1" t="str">
+        <f t="shared" si="34"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K96" s="1" t="str">
+        <f t="shared" si="42"/>
+        <v>Practitioner.identifier</v>
+      </c>
+      <c r="L96" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N96" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="X96" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="Y96" s="5" t="str">
+        <f>"GET [base]/"&amp;B96&amp;"?dentifier=http://hl7.org/fhir/sid/us-npi\|97860456"</f>
+        <v>GET [base]/Practitioner?dentifier=http://hl7.org/fhir/sid/us-npi\|97860456</v>
+      </c>
+      <c r="Z96" s="12" t="str">
+        <f>"Fetches a bundle containing any "&amp;B96&amp;" resources matching the identifier"</f>
+        <v>Fetches a bundle containing any Practitioner resources matching the identifier</v>
+      </c>
+      <c r="AA96" s="1" t="str">
+        <f t="shared" si="45"/>
+        <v>SearchParameter-us-core-practitioner-identifier.html</v>
+      </c>
+    </row>
+    <row r="97" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E97" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="G97" s="1" t="str">
+        <f t="shared" si="34"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitionerrole</v>
       </c>
-      <c r="H94" t="s">
-        <v>56</v>
-      </c>
-      <c r="I94" t="s">
-        <v>56</v>
-      </c>
-      <c r="J94" t="s">
+      <c r="H97" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K97" s="1" t="str">
+        <f t="shared" si="42"/>
+        <v>PractitionerRole.specialty</v>
+      </c>
+      <c r="L97" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N97" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="W97" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="X97" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="Y97" s="5" t="str">
+        <f>"GET [base]/"&amp;B97&amp;"?specialty=http://nucc.org/provider-taxonomy\|208D0000X"</f>
+        <v>GET [base]/PractitionerRole?specialty=http://nucc.org/provider-taxonomy\|208D0000X</v>
+      </c>
+      <c r="Z97" s="12" t="str">
+        <f>"Fetches a bundle containing  "&amp;B97&amp;" resources matching the specialty"</f>
+        <v>Fetches a bundle containing  PractitionerRole resources matching the specialty</v>
+      </c>
+      <c r="AA97" s="1" t="str">
+        <f t="shared" ref="AA97" si="46">"SearchParameter-us-core-"&amp;LOWER((B97)&amp;"-"&amp;SUBSTITUTE(C97,"_","")&amp;".html")</f>
+        <v>SearchParameter-us-core-practitionerrole-specialty.html</v>
+      </c>
+    </row>
+    <row r="98" spans="1:27" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E98" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="G98" s="1" t="str">
+        <f t="shared" si="34"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitionerrole</v>
+      </c>
+      <c r="H98" t="s">
+        <v>56</v>
+      </c>
+      <c r="I98" t="s">
+        <v>56</v>
+      </c>
+      <c r="J98" t="s">
         <v>91</v>
       </c>
-      <c r="K94" s="1" t="str">
-        <f t="shared" si="37"/>
+      <c r="K98" s="1" t="str">
+        <f t="shared" si="42"/>
         <v>PractitionerRole.practitioner</v>
       </c>
-      <c r="L94" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N94" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="T94" s="1" t="s">
+      <c r="L98" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N98" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="T98" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="W98" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="W94" s="1" t="s">
+      <c r="X98" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="X94" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="Y94" s="5" t="str">
-        <f>_xlfn.CONCAT("GET [base]/",B94,"?practitioner.identifier=http://hl7.org/fhir/sid/us-npi\|97860456&amp;_include=PractitionerRole:practitioner","&amp;_include=PractitionerRole?endpoint~GET [base]/PractitionerRole?practitioner.name=Henry&amp;_include=PractitionerRole:practitioner&amp;_include=PractitionerRole?endpoint")</f>
+      <c r="Y98" s="5" t="str">
+        <f>_xlfn.CONCAT("GET [base]/",B98,"?practitioner.identifier=http://hl7.org/fhir/sid/us-npi\|97860456&amp;_include=PractitionerRole:practitioner","&amp;_include=PractitionerRole?endpoint~GET [base]/PractitionerRole?practitioner.name=Henry&amp;_include=PractitionerRole:practitioner&amp;_include=PractitionerRole?endpoint")</f>
         <v>GET [base]/PractitionerRole?practitioner.identifier=http://hl7.org/fhir/sid/us-npi\|97860456&amp;_include=PractitionerRole:practitioner&amp;_include=PractitionerRole?endpoint~GET [base]/PractitionerRole?practitioner.name=Henry&amp;_include=PractitionerRole:practitioner&amp;_include=PractitionerRole?endpoint</v>
       </c>
-      <c r="Z94" s="12" t="str">
-        <f>"Fetches a bundle containing  "&amp;B94&amp;" resources matching the chained parameter practitioner.name or practitioner.identifier. SHOULD support the _include for PractionerRole.practitioner and PractitionerRole.endpoint."</f>
+      <c r="Z98" s="12" t="str">
+        <f>"Fetches a bundle containing  "&amp;B98&amp;" resources matching the chained parameter practitioner.name or practitioner.identifier. SHOULD support the _include for PractionerRole.practitioner and PractitionerRole.endpoint."</f>
         <v>Fetches a bundle containing  PractitionerRole resources matching the chained parameter practitioner.name or practitioner.identifier. SHOULD support the _include for PractionerRole.practitioner and PractitionerRole.endpoint.</v>
       </c>
-      <c r="AA94" t="str">
-        <f>"SearchParameter-us-core-"&amp;LOWER((B94)&amp;"-"&amp;SUBSTITUTE(C94,"_","")&amp;".html")</f>
+      <c r="AA98" t="str">
+        <f>"SearchParameter-us-core-"&amp;LOWER((B98)&amp;"-"&amp;SUBSTITUTE(C98,"_","")&amp;".html")</f>
         <v>SearchParameter-us-core-practitionerrole-practitioner.html</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AA94" xr:uid="{1CF5B17E-E72E-48B2-A597-9C21C12723F0}"/>
+  <autoFilter ref="A1:AA98" xr:uid="{1CF5B17E-E72E-48B2-A597-9C21C12723F0}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Condition"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:Z34">
     <sortCondition ref="B1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:P84"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:P88"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7532,9 +7900,9 @@
     <col min="4" max="4" width="33" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="121.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="88.83203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="255.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="121.6640625" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="88.83203125" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="120" style="1" customWidth="1"/>
     <col min="10" max="10" width="83.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7558,7 +7926,7 @@
         <v>98</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>3</v>
@@ -7575,10 +7943,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C2" s="1" t="str">
-        <f t="shared" ref="C2:C39" si="0">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B2)</f>
+        <f t="shared" ref="C2:C43" si="0">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B2)</f>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
       </c>
       <c r="D2" t="s">
@@ -7600,7 +7968,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C3" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7625,7 +7993,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C4" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7650,7 +8018,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C5" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7691,10 +8059,10 @@
         <v>106</v>
       </c>
       <c r="H6" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>311</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>312</v>
       </c>
       <c r="J6" s="5" t="str">
         <f t="shared" si="1"/>
@@ -7706,7 +8074,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C7" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7731,7 +8099,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C8" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7756,7 +8124,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C9" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7782,7 +8150,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C10" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7809,7 +8177,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C11" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7835,7 +8203,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C12" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7876,10 +8244,10 @@
         <v>113</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="J13" s="5" t="str">
         <f t="shared" si="1"/>
@@ -7891,7 +8259,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C14" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7916,7 +8284,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C15" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7957,10 +8325,10 @@
         <v>106</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J16" s="5" t="str">
         <f t="shared" si="1"/>
@@ -7972,7 +8340,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C17" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8014,10 +8382,10 @@
         <v>106</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J18" s="5" t="str">
         <f t="shared" si="1"/>
@@ -8029,7 +8397,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C19" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8056,7 +8424,7 @@
         <v>21</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C20" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8082,7 +8450,7 @@
         <v>22</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C21" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8107,7 +8475,7 @@
         <v>23</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C22" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8133,7 +8501,7 @@
         <v>24</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C23" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8160,7 +8528,7 @@
         <v>25</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C24" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8187,7 +8555,7 @@
         <v>26</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C25" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8214,7 +8582,7 @@
         <v>27</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C26" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8239,7 +8607,7 @@
         <v>28</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C27" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8264,7 +8632,7 @@
         <v>29</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C28" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8305,10 +8673,10 @@
         <v>134</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J29" s="5" t="str">
         <f t="shared" si="1"/>
@@ -8336,10 +8704,10 @@
         <v>134</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J30" s="5" t="str">
         <f t="shared" si="1"/>
@@ -8367,10 +8735,10 @@
         <v>127</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J31" s="5" t="str">
         <f t="shared" si="1"/>
@@ -8398,10 +8766,10 @@
         <v>127</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J32" s="5" t="str">
         <f t="shared" si="1"/>
@@ -8429,16 +8797,16 @@
         <v>106</v>
       </c>
       <c r="G33" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="I33" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="H33" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="I33" s="5" t="s">
-        <v>336</v>
-      </c>
       <c r="J33" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="34" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8465,7 +8833,7 @@
         <v>150</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="J34" s="5" t="s">
         <v>146</v>
@@ -8473,17 +8841,17 @@
     </row>
     <row r="35" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>138</v>
       </c>
       <c r="C35" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C35" si="2">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B35)</f>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>147</v>
+        <v>580</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>70</v>
@@ -8492,18 +8860,18 @@
         <v>106</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>337</v>
+        <v>585</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>152</v>
+        <v>586</v>
       </c>
     </row>
     <row r="36" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>138</v>
@@ -8513,314 +8881,311 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>149</v>
+        <v>106</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>154</v>
+        <v>336</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="37" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>20</v>
+        <v>138</v>
       </c>
       <c r="C37" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-allergyintolerance</v>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>106</v>
+        <v>149</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>330</v>
+        <v>581</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>455</v>
+        <v>156</v>
       </c>
     </row>
     <row r="38" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
+        <v>39</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C38" s="1" t="str">
+        <f t="shared" ref="C38:C40" si="3">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B38)</f>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>39</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C39" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C40" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>42</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-allergyintolerance</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
         <v>45</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C38" s="1" t="str">
+      <c r="B42" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C42" s="1" t="str">
         <f t="shared" si="0"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-immunization</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F38" s="1" t="s">
+      <c r="D42" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F42" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="H38" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="I38" s="5" t="s">
-        <v>531</v>
-      </c>
-      <c r="J38" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B38&amp;" resources for the specified "&amp;SUBSTITUTE(D38,","," and ")</f>
+      <c r="H42" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="J42" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B42&amp;" resources for the specified "&amp;SUBSTITUTE(D42,","," and ")</f>
         <v>Fetches a bundle of all Immunization resources for the specified patient and date</v>
       </c>
     </row>
-    <row r="39" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
+    <row r="43" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
         <v>46</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C39" s="1" t="str">
+      <c r="B43" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C43" s="1" t="str">
         <f t="shared" si="0"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-immunization</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F39" s="1" t="s">
+      <c r="E43" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H39" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="I39" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="J39" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B39&amp;" resources for the specified "&amp;SUBSTITUTE(D39,","," and ")</f>
+      <c r="H43" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="J43" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B43&amp;" resources for the specified "&amp;SUBSTITUTE(D43,","," and ")</f>
         <v>Fetches a bundle of all Immunization resources for the specified patient and status</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
-        <v>49</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="I40" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="J40" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B40&amp;" resources for the specified "&amp;SUBSTITUTE(D40,","," and ")</f>
-        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and status</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
-        <v>50</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="H41" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="I41" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="J41" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B41&amp;" resources for the specified patient and  a category code = `LAB`"</f>
-        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and  a category code = `LAB`</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
-        <v>51</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="H42" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="I42" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="J42" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B42&amp;" resources for the specified patient and  report code(s).  SHOULD support search by multiple report codes."</f>
-        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and  report code(s).  SHOULD support search by multiple report codes.</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
-        <v>52</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="I43" s="9" t="s">
-        <v>532</v>
-      </c>
-      <c r="J43" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B43&amp;" resources for the specified patient and date and a category code = `LAB`"</f>
-        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and a category code = `LAB`</v>
       </c>
     </row>
     <row r="44" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>221</v>
+        <v>116</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>220</v>
+        <v>106</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>228</v>
+        <v>201</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>533</v>
+        <v>185</v>
       </c>
       <c r="J44" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B44&amp;" resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes."</f>
-        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes.</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <f>"Fetches a bundle of all "&amp;B44&amp;" resources for the specified "&amp;SUBSTITUTE(D44,","," and ")</f>
+        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and status</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>191</v>
+        <v>179</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>106</v>
       </c>
+      <c r="G45" s="1" t="s">
+        <v>330</v>
+      </c>
       <c r="H45" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="I45" s="5" t="s">
-        <v>186</v>
+        <v>194</v>
+      </c>
+      <c r="I45" s="9" t="s">
+        <v>197</v>
       </c>
       <c r="J45" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B45&amp;" resources for the specified "&amp;SUBSTITUTE(D45,","," and ")</f>
-        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and status</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <f>"Fetches a bundle of all "&amp;B45&amp;" resources for the specified patient and  a category code = `LAB`"</f>
+        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and  a category code = `LAB`</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>191</v>
+        <v>179</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>12</v>
@@ -8829,247 +9194,242 @@
         <v>106</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="I46" s="5" t="s">
-        <v>204</v>
+        <v>223</v>
+      </c>
+      <c r="I46" s="9" t="s">
+        <v>198</v>
       </c>
       <c r="J46" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B46&amp;" resources for the specified patient and  a category code specified in US Core DiagnosticReport Category Codes"</f>
-        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and  a category code specified in US Core DiagnosticReport Category Codes</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <f>"Fetches a bundle of all "&amp;B46&amp;" resources for the specified patient and  report code(s).  SHOULD support search by multiple report codes."</f>
+        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and  report code(s).  SHOULD support search by multiple report codes.</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>191</v>
+        <v>179</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>147</v>
+        <v>195</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>106</v>
+        <v>219</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>330</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="I47" s="5" t="s">
-        <v>199</v>
+        <v>196</v>
+      </c>
+      <c r="I47" s="9" t="s">
+        <v>531</v>
       </c>
       <c r="J47" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B47&amp;" resources for the specified patient and  report code(s).  SHOULD support search by multiple report codes."</f>
-        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and  report code(s).  SHOULD support search by multiple report codes.</v>
+        <f>"Fetches a bundle of all "&amp;B47&amp;" resources for the specified patient and date and a category code = `LAB`"</f>
+        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and a category code = `LAB`</v>
       </c>
     </row>
     <row r="48" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>191</v>
+        <v>179</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>196</v>
+        <v>220</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="J48" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B48&amp;" resources for the specified patient and date and a category code specified in US Core DiagnosticReport Category Codes"</f>
-        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and a category code specified in US Core DiagnosticReport Category Codes</v>
+        <f>"Fetches a bundle of all "&amp;B48&amp;" resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes."</f>
+        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes.</v>
       </c>
     </row>
     <row r="49" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>221</v>
+        <v>116</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>220</v>
+        <v>106</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>222</v>
+        <v>307</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>533</v>
+        <v>185</v>
       </c>
       <c r="J49" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B49&amp;" resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes."</f>
-        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes.</v>
+        <f>"Fetches a bundle of all "&amp;B49&amp;" resources for the specified "&amp;SUBSTITUTE(D49,","," and ")</f>
+        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and status</v>
       </c>
     </row>
     <row r="50" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C50" s="1" t="str">
-        <f t="shared" ref="C50:C60" si="2">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B50)</f>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-goal</v>
+        <v>179</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>190</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>321</v>
+        <v>145</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>106</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>322</v>
+        <v>203</v>
       </c>
       <c r="J50" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B50&amp;" resources for the specified "&amp;SUBSTITUTE(D50,","," and ")</f>
-        <v>Fetches a bundle of all Goal resources for the specified patient and lifecycle-status</v>
+        <f>"Fetches a bundle of all "&amp;B50&amp;" resources for the specified patient and  a category code specified in US Core DiagnosticReport Category Codes"</f>
+        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and  a category code specified in US Core DiagnosticReport Category Codes</v>
       </c>
     </row>
     <row r="51" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C51" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-goal</v>
+        <v>179</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>190</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>420</v>
+        <v>147</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>149</v>
+        <v>106</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>421</v>
+        <v>198</v>
       </c>
       <c r="J51" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B51&amp;" resources for the specified "&amp;SUBSTITUTE(D51,","," and ")</f>
-        <v>Fetches a bundle of all Goal resources for the specified patient and target-date</v>
+        <f>"Fetches a bundle of all "&amp;B51&amp;" resources for the specified patient and  report code(s).  SHOULD support search by multiple report codes."</f>
+        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and  report code(s).  SHOULD support search by multiple report codes.</v>
       </c>
     </row>
     <row r="52" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C52" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
+        <v>179</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>190</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>436</v>
+        <v>195</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>466</v>
+        <v>219</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>440</v>
+        <v>202</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>467</v>
-      </c>
-      <c r="J52" s="5" t="s">
-        <v>470</v>
+        <v>533</v>
+      </c>
+      <c r="J52" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B52&amp;" resources for the specified patient and date and a category code specified in US Core DiagnosticReport Category Codes"</f>
+        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and a category code specified in US Core DiagnosticReport Category Codes</v>
       </c>
     </row>
     <row r="53" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C53" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
+        <v>179</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>190</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>437</v>
+        <v>220</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>466</v>
+        <v>219</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>187</v>
+        <v>221</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>468</v>
-      </c>
-      <c r="J53" s="5" t="s">
-        <v>471</v>
+        <v>532</v>
+      </c>
+      <c r="J53" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B53&amp;" resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes."</f>
+        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes.</v>
       </c>
     </row>
     <row r="54" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C54" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
+        <f t="shared" ref="C54:C64" si="4">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B54)</f>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-goal</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>439</v>
+        <v>320</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>70</v>
@@ -9077,127 +9437,127 @@
       <c r="F54" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G54" s="1" t="s">
-        <v>466</v>
-      </c>
       <c r="H54" s="5" t="s">
         <v>187</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>469</v>
-      </c>
-      <c r="J54" s="5" t="s">
-        <v>472</v>
+        <v>321</v>
+      </c>
+      <c r="J54" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B54&amp;" resources for the specified "&amp;SUBSTITUTE(D54,","," and ")</f>
+        <v>Fetches a bundle of all Goal resources for the specified patient and lifecycle-status</v>
       </c>
     </row>
     <row r="55" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C55" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
+        <f t="shared" si="4"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-goal</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>438</v>
+        <v>419</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>466</v>
+        <v>149</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>535</v>
-      </c>
-      <c r="J55" s="5" t="s">
-        <v>473</v>
+        <v>420</v>
+      </c>
+      <c r="J55" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B55&amp;" resources for the specified "&amp;SUBSTITUTE(D55,","," and ")</f>
+        <v>Fetches a bundle of all Goal resources for the specified patient and target-date</v>
       </c>
     </row>
     <row r="56" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>448</v>
+        <v>181</v>
       </c>
       <c r="C56" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!medicationstatement</v>
+        <f t="shared" si="4"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>116</v>
+        <v>435</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>106</v>
       </c>
+      <c r="G56" s="1" t="s">
+        <v>465</v>
+      </c>
       <c r="H56" s="5" t="s">
-        <v>189</v>
+        <v>439</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="J56" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B56&amp;" resources for the specified "&amp;SUBSTITUTE(D56,","," and ")</f>
-        <v>Fetches a bundle of all !MedicationStatement resources for the specified patient and status</v>
+        <v>466</v>
+      </c>
+      <c r="J56" s="5" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="57" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <f>SUBTOTAL(9,L97)</f>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>448</v>
+        <v>181</v>
       </c>
       <c r="C57" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!medicationstatement</v>
+        <f t="shared" si="4"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>234</v>
+        <v>436</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>149</v>
+        <v>106</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>465</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>233</v>
+        <v>186</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>418</v>
+        <v>467</v>
       </c>
       <c r="J57" s="5" t="s">
-        <v>235</v>
+        <v>470</v>
       </c>
     </row>
     <row r="58" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C58" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-procedure</v>
+        <f t="shared" si="4"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>116</v>
+        <v>438</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>70</v>
@@ -9205,156 +9565,158 @@
       <c r="F58" s="1" t="s">
         <v>106</v>
       </c>
+      <c r="G58" s="1" t="s">
+        <v>465</v>
+      </c>
       <c r="H58" s="5" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="J58" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B58&amp;" resources for the specified "&amp;SUBSTITUTE(D58,","," and ")</f>
-        <v>Fetches a bundle of all Procedure resources for the specified patient and status</v>
+        <v>468</v>
+      </c>
+      <c r="J58" s="5" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="59" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C59" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-procedure</v>
+        <f t="shared" si="4"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>165</v>
+        <v>437</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>106</v>
+        <v>219</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>465</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="J59" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B59&amp;" resources for the specified "&amp;SUBSTITUTE(D59,","," and ")</f>
-        <v>Fetches a bundle of all Procedure resources for the specified patient and date</v>
+        <v>534</v>
+      </c>
+      <c r="J59" s="5" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="60" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>183</v>
+        <v>447</v>
       </c>
       <c r="C60" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-procedure</v>
+        <f t="shared" si="4"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!medicationstatement</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>221</v>
+        <v>116</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>220</v>
+        <v>106</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>229</v>
+        <v>188</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>536</v>
+        <v>416</v>
       </c>
       <c r="J60" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B60&amp;" resources for the specified patient and date and procedure code(s).  SHOULD support search by multiple codes."</f>
-        <v>Fetches a bundle of all Procedure resources for the specified patient and date and procedure code(s).  SHOULD support search by multiple codes.</v>
+        <f>"Fetches a bundle of all "&amp;B60&amp;" resources for the specified "&amp;SUBSTITUTE(D60,","," and ")</f>
+        <v>Fetches a bundle of all !MedicationStatement resources for the specified patient and status</v>
       </c>
     </row>
     <row r="61" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>80</v>
+        <f>SUBTOTAL(9,L101)</f>
+        <v>0</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>425</v>
+        <v>447</v>
+      </c>
+      <c r="C61" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!medicationstatement</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>427</v>
+        <v>149</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>285</v>
+        <v>232</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="J61" s="5" t="s">
-        <v>326</v>
+        <v>234</v>
       </c>
     </row>
     <row r="62" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>425</v>
+        <v>182</v>
+      </c>
+      <c r="C62" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-procedure</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G62" s="1" t="s">
-        <v>427</v>
-      </c>
       <c r="H62" s="5" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>429</v>
+        <v>204</v>
       </c>
       <c r="J62" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B62&amp;" resources for the specified patient and a category code = `laboratory`"</f>
-        <v>Fetches a bundle of all Observation resources for the specified patient and a category code = `laboratory`</v>
+        <f>"Fetches a bundle of all "&amp;B62&amp;" resources for the specified "&amp;SUBSTITUTE(D62,","," and ")</f>
+        <v>Fetches a bundle of all Procedure resources for the specified patient and status</v>
       </c>
     </row>
     <row r="63" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>425</v>
+        <v>182</v>
+      </c>
+      <c r="C63" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-procedure</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>12</v>
@@ -9363,121 +9725,124 @@
         <v>106</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>338</v>
+        <v>218</v>
       </c>
       <c r="J63" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B63&amp;" resources for the specified patient and observation code(s).  SHOULD support search by multiple report codes. The Observation `code` parameter searches `Observation.code only."</f>
-        <v>Fetches a bundle of all Observation resources for the specified patient and observation code(s).  SHOULD support search by multiple report codes. The Observation `code` parameter searches `Observation.code only.</v>
+        <f>"Fetches a bundle of all "&amp;B63&amp;" resources for the specified "&amp;SUBSTITUTE(D63,","," and ")</f>
+        <v>Fetches a bundle of all Procedure resources for the specified patient and date</v>
       </c>
     </row>
     <row r="64" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C64" s="11" t="s">
-        <v>425</v>
+        <v>182</v>
+      </c>
+      <c r="C64" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-procedure</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>196</v>
+        <v>220</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="G64" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="I64" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="J64" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B64&amp;" resources for the specified patient and date and procedure code(s).  SHOULD support search by multiple codes."</f>
+        <v>Fetches a bundle of all Procedure resources for the specified patient and date and procedure code(s).  SHOULD support search by multiple codes.</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>80</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="I65" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="H64" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="I64" s="5" t="s">
-        <v>537</v>
-      </c>
-      <c r="J64" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B64&amp;" resources for the specified patient and date and a category code = `laboratory`"</f>
-        <v>Fetches a bundle of all Observation resources for the specified patient and date and a category code = `laboratory`</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="1">
-        <v>84</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C65" s="11" t="s">
-        <v>425</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="H65" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="I65" s="5" t="s">
-        <v>538</v>
-      </c>
-      <c r="J65" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B65&amp;" resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes."</f>
-        <v>Fetches a bundle of all Observation resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes.</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J65" s="5" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>325</v>
+        <v>183</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>106</v>
       </c>
+      <c r="G66" s="1" t="s">
+        <v>426</v>
+      </c>
       <c r="H66" s="5" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>207</v>
+        <v>428</v>
       </c>
       <c r="J66" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B66&amp;" resources for the specified "&amp;SUBSTITUTE(D66,","," and ")</f>
-        <v>Fetches a bundle of all !Observation resources for the specified patient and status</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <f>"Fetches a bundle of all "&amp;B66&amp;" resources for the specified patient and a category code = `laboratory`"</f>
+        <v>Fetches a bundle of all Observation resources for the specified patient and a category code = `laboratory`</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C67" s="11" t="s">
-        <v>238</v>
+        <v>183</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>424</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>12</v>
@@ -9485,129 +9850,122 @@
       <c r="F67" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G67" s="1" t="s">
-        <v>332</v>
-      </c>
       <c r="H67" s="5" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>245</v>
+        <v>337</v>
       </c>
       <c r="J67" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B67&amp;" resources for the specified "&amp;SUBSTITUTE(D67,","," and ")&amp;"=`assess-plan`"</f>
-        <v>Fetches a bundle of all CarePlan resources for the specified patient and category=`assess-plan`</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <f>"Fetches a bundle of all "&amp;B67&amp;" resources for the specified patient and observation code(s).  SHOULD support search by multiple report codes. The Observation `code` parameter searches `Observation.code only."</f>
+        <v>Fetches a bundle of all Observation resources for the specified patient and observation code(s).  SHOULD support search by multiple report codes. The Observation `code` parameter searches `Observation.code only.</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>236</v>
+        <v>183</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>238</v>
+        <v>424</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="F68" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="I68" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="J68" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B68&amp;" resources for the specified patient and date and a category code = `laboratory`"</f>
+        <v>Fetches a bundle of all Observation resources for the specified patient and date and a category code = `laboratory`</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>84</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>424</v>
+      </c>
+      <c r="D69" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="G68" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="H68" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="I68" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="J68" s="5" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="1">
-        <v>90</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C69" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>239</v>
-      </c>
       <c r="E69" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F69" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="I69" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="J69" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B69&amp;" resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes."</f>
+        <v>Fetches a bundle of all Observation resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes.</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>85</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F70" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G69" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="H69" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="I69" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="J69" s="5" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="1">
-        <v>91</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C70" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>332</v>
-      </c>
       <c r="H70" s="5" t="s">
-        <v>242</v>
+        <v>207</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>539</v>
-      </c>
-      <c r="J70" s="5" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+      <c r="J70" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B70&amp;" resources for the specified "&amp;SUBSTITUTE(D70,","," and ")</f>
+        <v>Fetches a bundle of all !Observation resources for the specified patient and status</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C71" s="1" t="str">
-        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B71)</f>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-careteam</v>
+        <v>235</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>237</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>12</v>
@@ -9616,63 +9974,63 @@
         <v>106</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="I71" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="J71" s="5" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>244</v>
+      </c>
+      <c r="J71" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B71&amp;" resources for the specified "&amp;SUBSTITUTE(D71,","," and ")&amp;"=`assess-plan`"</f>
+        <v>Fetches a bundle of all CarePlan resources for the specified patient and category=`assess-plan`</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C72" s="10" t="s">
-        <v>280</v>
+        <v>235</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>237</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>147</v>
+        <v>195</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>106</v>
+        <v>219</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>282</v>
+        <v>242</v>
       </c>
       <c r="I72" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="J72" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B72&amp;" resources for the specified patient and observation code."</f>
-        <v>Fetches a bundle of all Observation resources for the specified patient and observation code.</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>539</v>
+      </c>
+      <c r="J72" s="5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>502</v>
+        <v>235</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>237</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>70</v>
@@ -9681,64 +10039,63 @@
         <v>106</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>430</v>
+        <v>331</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>284</v>
+        <v>240</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>431</v>
-      </c>
-      <c r="J73" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B73&amp;" resources for the specified "&amp;SUBSTITUTE(D73,","," and ")</f>
-        <v>Fetches a bundle of all Observation resources for the specified patient and category and status</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>245</v>
+      </c>
+      <c r="J73" s="5" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>502</v>
+        <v>235</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>237</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>145</v>
+        <v>239</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>106</v>
+        <v>219</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>430</v>
+        <v>331</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>283</v>
+        <v>241</v>
       </c>
       <c r="I74" s="5" t="s">
-        <v>432</v>
-      </c>
-      <c r="J74" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B74&amp;" resources for the specified patient and a category code = `vital-signs`"</f>
-        <v>Fetches a bundle of all Observation resources for the specified patient and a category code = `vital-signs`</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>538</v>
+      </c>
+      <c r="J74" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>502</v>
+        <v>249</v>
+      </c>
+      <c r="C75" s="1" t="str">
+        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B75)</f>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-careteam</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>12</v>
@@ -9747,311 +10104,443 @@
         <v>106</v>
       </c>
       <c r="G75" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="H75" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="I75" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="J75" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <v>97</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="H76" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="I76" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="J76" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B76&amp;" resources for the specified patient and observation code."</f>
+        <v>Fetches a bundle of all Observation resources for the specified patient and observation code.</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <v>100</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="H77" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="I77" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="H75" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="I75" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="J75" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B75&amp;" resources for the specified patient and observation code(s).  SHOULD support search by multiple codes. The Observation `code` parameter searches `Observation.code only."</f>
-        <v>Fetches a bundle of all Observation resources for the specified patient and observation code(s).  SHOULD support search by multiple codes. The Observation `code` parameter searches `Observation.code only.</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="1">
-        <v>103</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="H76" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="I76" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J76" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B76&amp;" resources for the specified patient and date and a category code = `vital-signs`"</f>
-        <v>Fetches a bundle of all Observation resources for the specified patient and date and a category code = `vital-signs`</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A77" s="1">
-        <v>104</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="H77" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="I77" s="5" t="s">
-        <v>542</v>
-      </c>
       <c r="J77" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B77&amp;" resources for the specified patient and date and report code(s).  SHOULD support search by multiple codes."</f>
-        <v>Fetches a bundle of all Observation resources for the specified patient and date and report code(s).  SHOULD support search by multiple codes.</v>
-      </c>
-      <c r="K77" s="1"/>
-      <c r="L77" s="1"/>
-      <c r="M77" s="1"/>
-      <c r="N77" s="1"/>
-      <c r="O77" s="1"/>
-      <c r="P77" s="1"/>
-    </row>
-    <row r="78" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <f>"Fetches a bundle of all "&amp;B77&amp;" resources for the specified "&amp;SUBSTITUTE(D77,","," and ")</f>
+        <v>Fetches a bundle of all Observation resources for the specified patient and category and status</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C78" s="1" t="str">
-        <f t="shared" ref="C78:C83" si="3">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B78)</f>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
+        <v>183</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>501</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>106</v>
       </c>
+      <c r="G78" s="1" t="s">
+        <v>429</v>
+      </c>
       <c r="H78" s="5" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="I78" s="5" t="s">
-        <v>298</v>
+        <v>431</v>
       </c>
       <c r="J78" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B78&amp;" resources for the specified "&amp;SUBSTITUTE(D78,","," and ") &amp;". See the implementation notes above for how to access the actual document."</f>
-        <v>Fetches a bundle of all DocumentReference resources for the specified patient and status. See the implementation notes above for how to access the actual document.</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+        <f>"Fetches a bundle of all "&amp;B78&amp;" resources for the specified patient and a category code = `vital-signs`"</f>
+        <v>Fetches a bundle of all Observation resources for the specified patient and a category code = `vital-signs`</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="C79" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!documentreference</v>
+        <v>183</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>501</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>294</v>
+        <v>147</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>149</v>
+        <v>106</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>429</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="I79" s="5"/>
+        <v>285</v>
+      </c>
+      <c r="I79" s="5" t="s">
+        <v>286</v>
+      </c>
       <c r="J79" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B79&amp;" resources for the specified "&amp;SUBSTITUTE(D79,","," and ") &amp;". See the implementation notes above for how to access the actual document."</f>
-        <v>Fetches a bundle of all !DocumentReference resources for the specified patient and period. See the implementation notes above for how to access the actual document.</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <f>"Fetches a bundle of all "&amp;B79&amp;" resources for the specified patient and observation code(s).  SHOULD support search by multiple codes. The Observation `code` parameter searches `Observation.code only."</f>
+        <v>Fetches a bundle of all Observation resources for the specified patient and observation code(s).  SHOULD support search by multiple codes. The Observation `code` parameter searches `Observation.code only.</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C80" s="1" t="str">
-        <f t="shared" si="3"/>
+        <v>183</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="H80" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="I80" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="J80" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B80&amp;" resources for the specified patient and date and a category code = `vital-signs`"</f>
+        <v>Fetches a bundle of all Observation resources for the specified patient and date and a category code = `vital-signs`</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
+        <v>104</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="H81" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="I81" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="J81" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B81&amp;" resources for the specified patient and date and report code(s).  SHOULD support search by multiple codes."</f>
+        <v>Fetches a bundle of all Observation resources for the specified patient and date and report code(s).  SHOULD support search by multiple codes.</v>
+      </c>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+      <c r="O81" s="1"/>
+      <c r="P81" s="1"/>
+    </row>
+    <row r="82" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
+        <v>107</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C82" s="1" t="str">
+        <f t="shared" ref="C82:C87" si="5">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B82)</f>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
       </c>
-      <c r="D80" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H80" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="I80" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="J80" s="5" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="1">
-        <v>110</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C81" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H81" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="I81" s="9" t="s">
-        <v>543</v>
-      </c>
-      <c r="J81" s="5" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="1">
-        <v>111</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C82" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
-      </c>
       <c r="D82" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>106</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="I82" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="J82" s="5" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+      <c r="J82" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B82&amp;" resources for the specified "&amp;SUBSTITUTE(D82,","," and ") &amp;". See the implementation notes above for how to access the actual document."</f>
+        <v>Fetches a bundle of all DocumentReference resources for the specified patient and status. See the implementation notes above for how to access the actual document.</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>179</v>
+        <v>294</v>
       </c>
       <c r="C83" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
+        <f t="shared" si="5"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!documentreference</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>220</v>
+        <v>149</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="I83" s="5" t="s">
-        <v>544</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="I83" s="5"/>
       <c r="J83" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B83&amp;" resources for the specified "&amp;SUBSTITUTE(D83,","," and ") &amp;". See the implementation notes above for how to access the actual document."</f>
-        <v>Fetches a bundle of all DocumentReference resources for the specified patient and type and period. See the implementation notes above for how to access the actual document.</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>Fetches a bundle of all !DocumentReference resources for the specified patient and period. See the implementation notes above for how to access the actual document.</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>442</v>
+        <v>178</v>
+      </c>
+      <c r="C84" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>106</v>
       </c>
+      <c r="G84" s="1" t="s">
+        <v>333</v>
+      </c>
       <c r="H84" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="I84" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="J84" s="5" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="1">
+        <v>110</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C85" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H85" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="I85" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="J85" s="5" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
+        <v>111</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C86" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H86" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="I86" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="I84" s="5" t="s">
+      <c r="J86" s="5" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
+        <v>112</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C87" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="H87" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="I87" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="J87" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B87&amp;" resources for the specified "&amp;SUBSTITUTE(D87,","," and ") &amp;". See the implementation notes above for how to access the actual document."</f>
+        <v>Fetches a bundle of all DocumentReference resources for the specified patient and type and period. See the implementation notes above for how to access the actual document.</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
+        <v>115</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H88" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="I88" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="J88" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="J84" s="5" t="s">
-        <v>402</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J84" xr:uid="{331E0B16-168F-459B-8951-3DF614BF0371}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J128">
+  <autoFilter ref="A1:J88" xr:uid="{331E0B16-168F-459B-8951-3DF614BF0371}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J132">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -10082,7 +10571,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -10090,15 +10579,15 @@
         <v>67</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="139.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10106,7 +10595,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -10122,7 +10611,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10130,36 +10619,36 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>70</v>
@@ -10190,7 +10679,7 @@
         <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C1" t="s">
         <v>60</v>
@@ -10201,13 +10690,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D2" t="s">
         <v>70</v>
@@ -10215,13 +10704,13 @@
     </row>
     <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>70</v>
@@ -10241,7 +10730,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84EBB963-62EF-8346-A79F-04E3300CC06A}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -10258,16 +10747,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>549</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>550</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>60</v>
@@ -10281,13 +10770,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>12</v>
@@ -10337,7 +10826,7 @@
         <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -10349,40 +10838,40 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>344</v>
-      </c>
       <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>355</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>356</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>12</v>
@@ -10394,70 +10883,70 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>352</v>
-      </c>
       <c r="D9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>12</v>
@@ -10469,322 +10958,322 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>370</v>
-      </c>
       <c r="D11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>349</v>
-      </c>
       <c r="D12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>372</v>
-      </c>
       <c r="D13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="D14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>363</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>364</v>
       </c>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>354</v>
-      </c>
       <c r="D15" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>359</v>
-      </c>
       <c r="D32" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G32" s="1"/>
     </row>
@@ -10793,7 +11282,7 @@
         <v>75</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>12</v>
@@ -10804,60 +11293,60 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>347</v>
-      </c>
       <c r="D34" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>367</v>
-      </c>
       <c r="D35" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>361</v>
-      </c>
       <c r="D36" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>451</v>
-      </c>
       <c r="D37" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
   </sheetData>
@@ -10912,67 +11401,67 @@
         <v>39</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F1" t="s">
         <v>15</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H1" t="s">
         <v>16</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="J1" t="s">
         <v>17</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>414</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>415</v>
       </c>
       <c r="T1" t="s">
         <v>18</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="V1" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="X1" s="4" t="s">
         <v>552</v>
       </c>
-      <c r="W1" s="4" t="s">
-        <v>551</v>
-      </c>
-      <c r="X1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>553</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="25.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -10994,7 +11483,7 @@
         <v>70</v>
       </c>
       <c r="X2" s="17" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Y2" s="17" t="s">
         <v>12</v>
@@ -11002,13 +11491,13 @@
     </row>
     <row r="3" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>19</v>
@@ -11017,7 +11506,7 @@
         <v>70</v>
       </c>
       <c r="X3" s="17" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Y3" s="17" t="s">
         <v>12</v>
@@ -11025,7 +11514,7 @@
     </row>
     <row r="4" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>12</v>
@@ -11037,7 +11526,7 @@
         <v>70</v>
       </c>
       <c r="X4" s="17" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Y4" s="17" t="s">
         <v>12</v>
@@ -11057,7 +11546,7 @@
         <v>70</v>
       </c>
       <c r="X5" s="17" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Y5" s="17" t="s">
         <v>12</v>
@@ -11065,13 +11554,13 @@
     </row>
     <row r="6" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="T6" s="1" t="s">
         <v>19</v>
@@ -11080,7 +11569,7 @@
         <v>70</v>
       </c>
       <c r="X6" s="17" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Y6" s="17" t="s">
         <v>12</v>
@@ -11088,7 +11577,7 @@
     </row>
     <row r="7" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>12</v>
@@ -11100,7 +11589,7 @@
         <v>70</v>
       </c>
       <c r="X7" s="17" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Y7" s="17" t="s">
         <v>12</v>
@@ -11108,13 +11597,13 @@
     </row>
     <row r="8" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="T8" s="1" t="s">
         <v>19</v>
@@ -11123,7 +11612,7 @@
         <v>70</v>
       </c>
       <c r="X8" s="17" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Y8" s="17" t="s">
         <v>12</v>
@@ -11137,7 +11626,7 @@
         <v>12</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="T9" s="1" t="s">
         <v>19</v>
@@ -11146,7 +11635,7 @@
         <v>70</v>
       </c>
       <c r="X9" s="17" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Y9" s="17" t="s">
         <v>12</v>
@@ -11154,7 +11643,7 @@
     </row>
     <row r="10" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>12</v>
@@ -11166,7 +11655,7 @@
         <v>70</v>
       </c>
       <c r="X10" s="17" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Y10" s="17" t="s">
         <v>12</v>
@@ -11174,13 +11663,13 @@
     </row>
     <row r="11" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="T11" s="1" t="s">
         <v>19</v>
@@ -11189,7 +11678,7 @@
         <v>70</v>
       </c>
       <c r="X11" s="17" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Y11" s="17" t="s">
         <v>12</v>
@@ -11197,13 +11686,13 @@
     </row>
     <row r="12" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="T12" s="1" t="s">
         <v>19</v>
@@ -11216,13 +11705,13 @@
     </row>
     <row r="13" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="T13" s="1" t="s">
         <v>19</v>
@@ -11235,13 +11724,13 @@
     </row>
     <row r="14" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="T14" s="1" t="s">
         <v>19</v>
@@ -11253,10 +11742,10 @@
         <v>70</v>
       </c>
       <c r="W14" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="X14" s="17" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Y14" s="17" t="s">
         <v>12</v>
@@ -11264,13 +11753,13 @@
     </row>
     <row r="15" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="T15" s="1" t="s">
         <v>19</v>
@@ -11282,10 +11771,10 @@
         <v>70</v>
       </c>
       <c r="W15" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="X15" s="17" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Y15" s="17" t="s">
         <v>12</v>
@@ -11293,13 +11782,13 @@
     </row>
     <row r="16" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="T16" s="1" t="s">
         <v>19</v>
@@ -11308,7 +11797,7 @@
         <v>70</v>
       </c>
       <c r="X16" s="17" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Y16" s="17" t="s">
         <v>12</v>
@@ -11316,7 +11805,7 @@
     </row>
     <row r="17" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>12</v>
@@ -11338,7 +11827,7 @@
         <v>12</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="T18" s="1" t="s">
         <v>19</v>
@@ -11347,7 +11836,7 @@
         <v>70</v>
       </c>
       <c r="X18" s="17" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Y18" s="17" t="s">
         <v>12</v>
@@ -11355,7 +11844,7 @@
     </row>
     <row r="19" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>12</v>
@@ -11371,13 +11860,13 @@
     </row>
     <row r="20" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="T20" s="1" t="s">
         <v>19</v>
@@ -11386,23 +11875,23 @@
         <v>70</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="W20" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="X20" s="17"/>
       <c r="Y20" s="17"/>
     </row>
     <row r="21" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="T21" s="1" t="s">
         <v>19</v>
@@ -11411,7 +11900,7 @@
         <v>70</v>
       </c>
       <c r="X21" s="17" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Y21" s="17" t="s">
         <v>12</v>
@@ -11419,13 +11908,13 @@
     </row>
     <row r="22" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="T22" s="1" t="s">
         <v>19</v>
@@ -11436,7 +11925,7 @@
     </row>
     <row r="23" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>70</v>
@@ -11500,36 +11989,36 @@
     </row>
     <row r="2" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>456</v>
+      </c>
+      <c r="B3" t="s">
         <v>457</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>458</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>459</v>
-      </c>
-      <c r="D3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -11570,76 +12059,76 @@
         <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" t="s">
         <v>396</v>
       </c>
-      <c r="W1" t="s">
-        <v>397</v>
-      </c>
       <c r="X1" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="64" x14ac:dyDescent="0.2">
@@ -11662,7 +12151,7 @@
         <v>30</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H2" t="s">
         <v>12</v>
@@ -12284,12 +12773,12 @@
         <v>25</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>30</v>
@@ -12298,7 +12787,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>30</v>
@@ -12307,7 +12796,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>30</v>
@@ -12316,7 +12805,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>30</v>

--- a/input/resources_spreadsheets/uscore-server.xlsx
+++ b/input/resources_spreadsheets/uscore-server.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/US-Core-R4/input/resources_spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84428969-B8F8-6244-B00E-F0AE55249986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12A81FAE-C036-EA4F-A3D9-576417BCEE56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32660" yWindow="-21140" windowWidth="42040" windowHeight="21140" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-35580" yWindow="-21140" windowWidth="42040" windowHeight="21140" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -116,19 +116,10 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={319A7A6B-68B8-F140-B723-972FDDF92401}</author>
     <author>tc={55554AA4-06E7-B947-A224-22F62EAAB8DA}</author>
   </authors>
   <commentList>
-    <comment ref="J35" authorId="0" shapeId="0" xr:uid="{319A7A6B-68B8-F140-B723-972FDDF92401}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    does this do anything???</t>
-      </text>
-    </comment>
-    <comment ref="H37" authorId="1" shapeId="0" xr:uid="{55554AA4-06E7-B947-A224-22F62EAAB8DA}">
+    <comment ref="H37" authorId="0" shapeId="0" xr:uid="{55554AA4-06E7-B947-A224-22F62EAAB8DA}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1985,7 +1976,7 @@
     <t>GET [base]/Condition?patient=1032702&amp;category=http://terminology.hl7.org/CodeSystem/condition-category\|encounter-diagnosis?encounter=1036</t>
   </si>
   <si>
-    <t>Fetches a bundle of all Condition resources for the specified patient and category. DOES THIS DO ANYTHING!!!</t>
+    <t>Fetches a bundle of all Condition resources for the specified patient and category and encounter. When category = "encounter-diagnosis" will return the encounter diagnosis for the encounter.</t>
   </si>
 </sst>
 </file>
@@ -2507,9 +2498,6 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="J35" dT="2021-11-06T02:51:23.56" personId="{01DB13A2-9E02-7A4D-96F1-9E53507C2507}" id="{319A7A6B-68B8-F140-B723-972FDDF92401}">
-    <text>does this do anything???</text>
-  </threadedComment>
   <threadedComment ref="H37" dT="2021-11-06T02:44:23.26" personId="{01DB13A2-9E02-7A4D-96F1-9E53507C2507}" id="{55554AA4-06E7-B947-A224-22F62EAAB8DA}">
     <text>is column being used???</text>
   </threadedComment>
@@ -7888,8 +7876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:P88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7900,8 +7888,8 @@
     <col min="4" max="4" width="33" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="121.6640625" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="88.83203125" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="121.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="88.83203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="120" style="1" customWidth="1"/>
     <col min="10" max="10" width="83.5" style="1" bestFit="1" customWidth="1"/>
   </cols>

--- a/input/resources_spreadsheets/uscore-server.xlsx
+++ b/input/resources_spreadsheets/uscore-server.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/US-Core-R4/input/resources_spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12A81FAE-C036-EA4F-A3D9-576417BCEE56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23198CBE-5B5A-F144-B019-3FDB8FA8D031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35580" yWindow="-21140" windowWidth="42040" windowHeight="21140" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-71680" yWindow="-12140" windowWidth="47680" windowHeight="17540" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -26,8 +26,8 @@
     <sheet name="sp_combos" sheetId="8" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">sp_combos!$A$1:$J$88</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">sps!$A$1:$AA$98</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">sp_combos!$A$1:$K$88</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">sps!$A$1:$AB$98</definedName>
   </definedNames>
   <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
@@ -85,7 +85,7 @@
     <author>tc={B335108E-FDC9-AC41-96F3-657CAF0CB14F}</author>
   </authors>
   <commentList>
-    <comment ref="K36" authorId="0" shapeId="0" xr:uid="{9A91E9C9-8B21-8546-B0F6-E258B9D2B6FF}">
+    <comment ref="L36" authorId="0" shapeId="0" xr:uid="{9A91E9C9-8B21-8546-B0F6-E258B9D2B6FF}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -93,7 +93,7 @@
     where does this show up?</t>
       </text>
     </comment>
-    <comment ref="Y40" authorId="1" shapeId="0" xr:uid="{2FB8FCA2-BD31-DF4C-95E0-15548A47CED8}">
+    <comment ref="Z40" authorId="1" shapeId="0" xr:uid="{2FB8FCA2-BD31-DF4C-95E0-15548A47CED8}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -101,7 +101,7 @@
     do i need this?</t>
       </text>
     </comment>
-    <comment ref="Z40" authorId="2" shapeId="0" xr:uid="{B335108E-FDC9-AC41-96F3-657CAF0CB14F}">
+    <comment ref="AA40" authorId="2" shapeId="0" xr:uid="{B335108E-FDC9-AC41-96F3-657CAF0CB14F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -119,7 +119,7 @@
     <author>tc={55554AA4-06E7-B947-A224-22F62EAAB8DA}</author>
   </authors>
   <commentList>
-    <comment ref="H37" authorId="0" shapeId="0" xr:uid="{55554AA4-06E7-B947-A224-22F62EAAB8DA}">
+    <comment ref="I37" authorId="0" shapeId="0" xr:uid="{55554AA4-06E7-B947-A224-22F62EAAB8DA}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -132,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2147" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2149" uniqueCount="588">
   <si>
     <t>Element</t>
   </si>
@@ -1977,6 +1977,9 @@
   </si>
   <si>
     <t>Fetches a bundle of all Condition resources for the specified patient and category and encounter. When category = "encounter-diagnosis" will return the encounter diagnosis for the encounter.</t>
+  </si>
+  <si>
+    <t>is_new</t>
   </si>
 </sst>
 </file>
@@ -2484,13 +2487,13 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="K36" dT="2021-11-06T02:36:52.48" personId="{01DB13A2-9E02-7A4D-96F1-9E53507C2507}" id="{9A91E9C9-8B21-8546-B0F6-E258B9D2B6FF}">
+  <threadedComment ref="L36" dT="2021-11-06T02:36:52.48" personId="{01DB13A2-9E02-7A4D-96F1-9E53507C2507}" id="{9A91E9C9-8B21-8546-B0F6-E258B9D2B6FF}">
     <text>where does this show up?</text>
   </threadedComment>
-  <threadedComment ref="Y40" dT="2021-11-06T02:39:25.62" personId="{01DB13A2-9E02-7A4D-96F1-9E53507C2507}" id="{2FB8FCA2-BD31-DF4C-95E0-15548A47CED8}">
+  <threadedComment ref="Z40" dT="2021-11-06T02:39:25.62" personId="{01DB13A2-9E02-7A4D-96F1-9E53507C2507}" id="{2FB8FCA2-BD31-DF4C-95E0-15548A47CED8}">
     <text>do i need this?</text>
   </threadedComment>
-  <threadedComment ref="Z40" dT="2021-11-06T02:40:08.93" personId="{01DB13A2-9E02-7A4D-96F1-9E53507C2507}" id="{B335108E-FDC9-AC41-96F3-657CAF0CB14F}">
+  <threadedComment ref="AA40" dT="2021-11-06T02:40:08.93" personId="{01DB13A2-9E02-7A4D-96F1-9E53507C2507}" id="{B335108E-FDC9-AC41-96F3-657CAF0CB14F}">
     <text>do I need this?</text>
   </threadedComment>
 </ThreadedComments>
@@ -2498,7 +2501,7 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="H37" dT="2021-11-06T02:44:23.26" personId="{01DB13A2-9E02-7A4D-96F1-9E53507C2507}" id="{55554AA4-06E7-B947-A224-22F62EAAB8DA}">
+  <threadedComment ref="I37" dT="2021-11-06T02:44:23.26" personId="{01DB13A2-9E02-7A4D-96F1-9E53507C2507}" id="{55554AA4-06E7-B947-A224-22F62EAAB8DA}">
     <text>is column being used???</text>
   </threadedComment>
 </ThreadedComments>
@@ -2600,13 +2603,13 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:AA98"/>
+  <dimension ref="A1:AB98"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="Z11" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AA104" sqref="AA104"/>
+      <selection pane="bottomRight" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2618,15 +2621,16 @@
     <col min="5" max="5" width="9" style="1" customWidth="1"/>
     <col min="6" max="6" width="37.83203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="60" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" customWidth="1"/>
-    <col min="11" max="11" width="31.1640625" style="1" customWidth="1"/>
-    <col min="12" max="24" width="13.33203125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="90.6640625" style="1" customWidth="1"/>
-    <col min="26" max="26" width="83.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="38.1640625" customWidth="1"/>
+    <col min="9" max="9" width="8.83203125" style="1"/>
+    <col min="10" max="10" width="14.33203125" customWidth="1"/>
+    <col min="12" max="12" width="31.1640625" style="1" customWidth="1"/>
+    <col min="13" max="25" width="13.33203125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="90.6640625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="83.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="38.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>141</v>
       </c>
@@ -2652,64 +2656,67 @@
         <v>41</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="Z1" s="13" t="s">
+      <c r="AA1" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="AA1" s="8" t="s">
+      <c r="AB1" s="8" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2732,31 +2739,31 @@
       <c r="H2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="J2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K2" s="1" t="str">
+      <c r="L2" s="1" t="str">
         <f>B2&amp;"."&amp;C2</f>
         <v>!EXAMPLE CATEGORY SEARCH.category</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="X2" s="5"/>
+      <c r="M2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="Y2" s="5"/>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="1" t="str">
-        <f t="shared" ref="AA2:AA4" si="0">"SearchParameter-us-core-"&amp;LOWER((B2)&amp;"-"&amp;C2&amp;".html")</f>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="12"/>
+      <c r="AB2" s="1" t="str">
+        <f t="shared" ref="AB2:AB4" si="0">"SearchParameter-us-core-"&amp;LOWER((B2)&amp;"-"&amp;C2&amp;".html")</f>
         <v>SearchParameter-us-core-!example category search-category.html</v>
       </c>
     </row>
-    <row r="3" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2779,31 +2786,31 @@
       <c r="H3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="J3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K3" s="1" t="str">
+      <c r="L3" s="1" t="str">
         <f>B3&amp;"."&amp;C3</f>
         <v>!EXAMPLE CODE SEARCH.code</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="X3" s="5"/>
+      <c r="M3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="Y3" s="5"/>
-      <c r="Z3" s="12"/>
-      <c r="AA3" s="1" t="str">
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="12"/>
+      <c r="AB3" s="1" t="str">
         <f t="shared" si="0"/>
         <v>SearchParameter-us-core-!example code search-code.html</v>
       </c>
     </row>
-    <row r="4" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2826,35 +2833,35 @@
       <c r="H4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="J4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="K4" s="1" t="str">
+      <c r="L4" s="1" t="str">
         <f>B4&amp;"."&amp;C4</f>
         <v>!EXAMPLE DATE SEARCH.date</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>56</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="R4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S4" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="Z4" s="12"/>
-      <c r="AA4" s="1" t="str">
+      <c r="AA4" s="12"/>
+      <c r="AB4" s="1" t="str">
         <f t="shared" si="0"/>
         <v>SearchParameter-us-core-!example date search-date.html</v>
       </c>
     </row>
-    <row r="5" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2880,40 +2887,40 @@
       <c r="H5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="J5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="K5" s="1" t="str">
+      <c r="L5" s="1" t="str">
         <f>B5&amp;"."&amp;C5</f>
         <v>!EXAMPLE PATIENT SEARCH.patient</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="X5" s="1" t="str">
+      <c r="M5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y5" s="1" t="str">
         <f>"support searching for all "&amp;LOWER(B5)&amp;"s for a patient"</f>
         <v>support searching for all !example patient searchs for a patient</v>
       </c>
-      <c r="Y5" s="5" t="str">
+      <c r="Z5" s="5" t="str">
         <f>"GET [base]/"&amp;B5&amp;"?patient=1137192"</f>
         <v>GET [base]/!EXAMPLE PATIENT SEARCH?patient=1137192</v>
       </c>
-      <c r="Z5" s="12" t="str">
+      <c r="AA5" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B5&amp; " resources for the specified patient"</f>
         <v>Fetches a bundle of all !EXAMPLE PATIENT SEARCH resources for the specified patient</v>
       </c>
-      <c r="AA5" s="1" t="str">
+      <c r="AB5" s="1" t="str">
         <f>"SearchParameter-us-core-"&amp;LOWER((B5)&amp;"-"&amp;C5&amp;".html")</f>
         <v>SearchParameter-us-core-!example patient search-patient.html</v>
       </c>
     </row>
-    <row r="6" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2936,31 +2943,31 @@
       <c r="H6" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="J6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K6" s="1" t="str">
-        <f t="shared" ref="K6" si="2">B6&amp;"."&amp;C6</f>
+      <c r="L6" s="1" t="str">
+        <f t="shared" ref="L6" si="2">B6&amp;"."&amp;C6</f>
         <v>!EXAMPLE STATUS SEARCH.status</v>
       </c>
-      <c r="L6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="X6" s="5"/>
+      <c r="M6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="Y6" s="5"/>
-      <c r="Z6" s="12"/>
-      <c r="AA6" s="1" t="str">
-        <f t="shared" ref="AA6" si="3">"SearchParameter-us-core-"&amp;LOWER((B6)&amp;"-"&amp;C6&amp;".html")</f>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="1" t="str">
+        <f t="shared" ref="AB6" si="3">"SearchParameter-us-core-"&amp;LOWER((B6)&amp;"-"&amp;C6&amp;".html")</f>
         <v>SearchParameter-us-core-!example status search-status.html</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2983,35 +2990,35 @@
       <c r="H7" t="s">
         <v>56</v>
       </c>
-      <c r="I7" t="s">
-        <v>56</v>
-      </c>
       <c r="J7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K7" t="s">
         <v>64</v>
       </c>
-      <c r="K7" t="str">
-        <f t="shared" ref="K7:K22" si="4">B7&amp;"."&amp;C7</f>
+      <c r="L7" t="str">
+        <f t="shared" ref="L7:L22" si="4">B7&amp;"."&amp;C7</f>
         <v>!Patient.address</v>
       </c>
-      <c r="L7" t="s">
-        <v>56</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="X7" s="1" t="s">
+      <c r="M7" t="s">
+        <v>56</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y7" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="Y7" s="5" t="s">
+      <c r="Z7" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="Z7" s="12"/>
-      <c r="AA7" t="str">
+      <c r="AA7" s="12"/>
+      <c r="AB7" t="str">
         <f>"SearchParameter-us-core-"&amp;LOWER((B7)&amp;"-"&amp;C7&amp;".html")</f>
         <v>SearchParameter-us-core-!patient-address.html</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3034,35 +3041,35 @@
       <c r="H8" t="s">
         <v>56</v>
       </c>
-      <c r="I8" t="s">
-        <v>56</v>
-      </c>
       <c r="J8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K8" t="s">
         <v>64</v>
       </c>
-      <c r="K8" t="str">
+      <c r="L8" t="str">
         <f t="shared" si="4"/>
         <v>!Patient.telecom</v>
       </c>
-      <c r="L8" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="X8" s="1" t="s">
+      <c r="M8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y8" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="Y8" s="1" t="s">
+      <c r="Z8" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="Z8" s="12"/>
-      <c r="AA8" s="1" t="str">
-        <f t="shared" ref="AA8:AA43" si="5">"SearchParameter-us-core-"&amp;LOWER((B8)&amp;"-"&amp;C8&amp;".html")</f>
+      <c r="AA8" s="12"/>
+      <c r="AB8" s="1" t="str">
+        <f t="shared" ref="AB8:AB43" si="5">"SearchParameter-us-core-"&amp;LOWER((B8)&amp;"-"&amp;C8&amp;".html")</f>
         <v>SearchParameter-us-core-!patient-telecom.html</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3088,30 +3095,30 @@
       <c r="H9" t="s">
         <v>56</v>
       </c>
-      <c r="I9" t="s">
-        <v>56</v>
-      </c>
       <c r="J9" t="s">
+        <v>56</v>
+      </c>
+      <c r="K9" t="s">
         <v>57</v>
       </c>
-      <c r="K9" t="str">
+      <c r="L9" t="str">
         <f t="shared" si="4"/>
         <v>AllergyIntolerance.clinical-status</v>
       </c>
-      <c r="L9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y9" s="5"/>
-      <c r="Z9" s="12"/>
-      <c r="AA9" s="1" t="str">
+      <c r="M9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="12"/>
+      <c r="AB9" s="1" t="str">
         <f t="shared" si="5"/>
         <v>SearchParameter-us-core-allergyintolerance-clinical-status.html</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3137,43 +3144,43 @@
       <c r="H10" t="s">
         <v>56</v>
       </c>
-      <c r="I10" t="s">
-        <v>56</v>
-      </c>
       <c r="J10" t="s">
+        <v>56</v>
+      </c>
+      <c r="K10" t="s">
         <v>91</v>
       </c>
-      <c r="K10" t="str">
+      <c r="L10" t="str">
         <f t="shared" si="4"/>
         <v>AllergyIntolerance.patient</v>
       </c>
-      <c r="L10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q10"/>
+      <c r="M10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="R10"/>
-      <c r="T10"/>
+      <c r="S10"/>
       <c r="U10"/>
-      <c r="X10" t="s">
+      <c r="V10"/>
+      <c r="Y10" t="s">
         <v>74</v>
       </c>
-      <c r="Y10" s="5" t="str">
+      <c r="Z10" s="5" t="str">
         <f>"GET [base]/"&amp;B10&amp;"?patient=1137192"</f>
         <v>GET [base]/AllergyIntolerance?patient=1137192</v>
       </c>
-      <c r="Z10" s="12" t="str">
+      <c r="AA10" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B10&amp; " resources for the specified patient"</f>
         <v>Fetches a bundle of all AllergyIntolerance resources for the specified patient</v>
       </c>
-      <c r="AA10" s="1" t="str">
+      <c r="AB10" s="1" t="str">
         <f>"SearchParameter-us-core-"&amp;LOWER((B10)&amp;"-"&amp;SUBSTITUTE(C10,"_","")&amp;".html")</f>
         <v>SearchParameter-us-core-allergyintolerance-patient.html</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="19" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" ht="19" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3199,32 +3206,32 @@
       <c r="H11" t="s">
         <v>56</v>
       </c>
-      <c r="I11" t="s">
-        <v>56</v>
-      </c>
       <c r="J11" t="s">
+        <v>56</v>
+      </c>
+      <c r="K11" t="s">
         <v>57</v>
       </c>
-      <c r="K11" t="str">
+      <c r="L11" t="str">
         <f t="shared" si="4"/>
         <v>Condition.category</v>
       </c>
-      <c r="L11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="P11"/>
-      <c r="X11" s="5"/>
+      <c r="M11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q11"/>
       <c r="Y11" s="5"/>
-      <c r="Z11" s="12"/>
-      <c r="AA11" s="1" t="str">
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="12"/>
+      <c r="AB11" s="1" t="str">
         <f t="shared" si="5"/>
         <v>SearchParameter-us-core-condition-category.html</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3250,29 +3257,29 @@
       <c r="H12" t="s">
         <v>56</v>
       </c>
-      <c r="I12" t="s">
-        <v>56</v>
-      </c>
       <c r="J12" t="s">
+        <v>56</v>
+      </c>
+      <c r="K12" t="s">
         <v>57</v>
       </c>
-      <c r="K12" t="str">
+      <c r="L12" t="str">
         <f t="shared" si="4"/>
         <v>Condition.clinical-status</v>
       </c>
-      <c r="L12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z12" s="12"/>
-      <c r="AA12" s="1" t="str">
+      <c r="M12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA12" s="12"/>
+      <c r="AB12" s="1" t="str">
         <f t="shared" si="5"/>
         <v>SearchParameter-us-core-condition-clinical-status.html</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3298,39 +3305,39 @@
       <c r="H13" t="s">
         <v>56</v>
       </c>
-      <c r="I13" t="s">
-        <v>56</v>
-      </c>
       <c r="J13" t="s">
+        <v>56</v>
+      </c>
+      <c r="K13" t="s">
         <v>91</v>
       </c>
-      <c r="K13" t="str">
+      <c r="L13" t="str">
         <f t="shared" si="4"/>
         <v>Condition.patient</v>
       </c>
-      <c r="L13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="X13" s="1" t="s">
+      <c r="M13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y13" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="Y13" s="5" t="str">
+      <c r="Z13" s="5" t="str">
         <f>"GET [base]/"&amp;B13&amp;"?patient=1137192"</f>
         <v>GET [base]/Condition?patient=1137192</v>
       </c>
-      <c r="Z13" s="12" t="str">
+      <c r="AA13" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B13&amp; " resources for the specified patient"</f>
         <v>Fetches a bundle of all Condition resources for the specified patient</v>
       </c>
-      <c r="AA13" s="1" t="str">
-        <f t="shared" ref="AA13:AA14" si="6">"SearchParameter-us-core-"&amp;LOWER((B13)&amp;"-"&amp;SUBSTITUTE(C13,"_","")&amp;".html")</f>
+      <c r="AB13" s="1" t="str">
+        <f t="shared" ref="AB13:AB14" si="6">"SearchParameter-us-core-"&amp;LOWER((B13)&amp;"-"&amp;SUBSTITUTE(C13,"_","")&amp;".html")</f>
         <v>SearchParameter-us-core-condition-patient.html</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3353,37 +3360,37 @@
       <c r="H14" t="s">
         <v>56</v>
       </c>
-      <c r="I14" t="s">
-        <v>56</v>
-      </c>
       <c r="J14" t="s">
+        <v>56</v>
+      </c>
+      <c r="K14" t="s">
         <v>57</v>
       </c>
-      <c r="K14" t="str">
+      <c r="L14" t="str">
         <f t="shared" si="4"/>
         <v>Encounter._id</v>
       </c>
-      <c r="L14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="X14" s="5" t="s">
+      <c r="M14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y14" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="Y14" s="5" t="s">
+      <c r="Z14" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="Z14" s="2" t="s">
+      <c r="AA14" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="AA14" s="1" t="str">
+      <c r="AB14" s="1" t="str">
         <f t="shared" si="6"/>
         <v>SearchParameter-us-core-encounter-id.html</v>
       </c>
     </row>
-    <row r="15" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -3409,31 +3416,31 @@
       <c r="H15" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="J15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K15" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K15" s="1" t="str">
+      <c r="L15" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Encounter.class</v>
       </c>
-      <c r="L15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="X15" s="5"/>
+      <c r="M15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="Y15" s="5"/>
-      <c r="Z15" s="12"/>
-      <c r="AA15" s="1" t="str">
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="12"/>
+      <c r="AB15" s="1" t="str">
         <f t="shared" si="5"/>
         <v>SearchParameter-us-core-encounter-class.html</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -3459,35 +3466,35 @@
       <c r="H16" t="s">
         <v>56</v>
       </c>
-      <c r="I16" t="s">
-        <v>56</v>
-      </c>
       <c r="J16" t="s">
+        <v>56</v>
+      </c>
+      <c r="K16" t="s">
         <v>79</v>
       </c>
-      <c r="K16" t="str">
+      <c r="L16" t="str">
         <f t="shared" si="4"/>
         <v>Encounter.date</v>
       </c>
-      <c r="L16" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N16" s="1" t="s">
+      <c r="M16" s="1" t="s">
         <v>56</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="R16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S16" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="Z16" s="12"/>
-      <c r="AA16" s="1" t="str">
+      <c r="AA16" s="12"/>
+      <c r="AB16" s="1" t="str">
         <f t="shared" si="5"/>
         <v>SearchParameter-us-core-encounter-date.html</v>
       </c>
     </row>
-    <row r="17" spans="1:27" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -3513,38 +3520,38 @@
       <c r="H17" t="s">
         <v>56</v>
       </c>
-      <c r="I17" t="s">
-        <v>56</v>
-      </c>
       <c r="J17" t="s">
+        <v>56</v>
+      </c>
+      <c r="K17" t="s">
         <v>57</v>
       </c>
-      <c r="K17" t="str">
+      <c r="L17" t="str">
         <f t="shared" si="4"/>
         <v>Encounter.identifier</v>
       </c>
-      <c r="L17" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="X17" s="5" t="s">
+      <c r="M17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y17" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>160</v>
       </c>
-      <c r="Z17" s="12" t="str">
+      <c r="AA17" s="12" t="str">
         <f>"Fetches a bundle containing any "&amp;B17&amp;" resources matching the identifier"</f>
         <v>Fetches a bundle containing any Encounter resources matching the identifier</v>
       </c>
-      <c r="AA17" s="1" t="str">
-        <f t="shared" ref="AA17:AA18" si="7">"SearchParameter-us-core-"&amp;LOWER((B17)&amp;"-"&amp;SUBSTITUTE(C17,"_","")&amp;".html")</f>
+      <c r="AB17" s="1" t="str">
+        <f t="shared" ref="AB17:AB18" si="7">"SearchParameter-us-core-"&amp;LOWER((B17)&amp;"-"&amp;SUBSTITUTE(C17,"_","")&amp;".html")</f>
         <v>SearchParameter-us-core-encounter-identifier.html</v>
       </c>
     </row>
-    <row r="18" spans="1:27" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -3570,39 +3577,39 @@
       <c r="H18" t="s">
         <v>56</v>
       </c>
-      <c r="I18" t="s">
-        <v>56</v>
-      </c>
       <c r="J18" t="s">
+        <v>56</v>
+      </c>
+      <c r="K18" t="s">
         <v>91</v>
       </c>
-      <c r="K18" s="1" t="str">
+      <c r="L18" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Encounter.patient</v>
       </c>
-      <c r="L18" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="X18" t="s">
+      <c r="M18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y18" t="s">
         <v>92</v>
       </c>
-      <c r="Y18" s="5" t="str">
+      <c r="Z18" s="5" t="str">
         <f>"GET [base]/"&amp;B18&amp;"?patient=1137192"</f>
         <v>GET [base]/Encounter?patient=1137192</v>
       </c>
-      <c r="Z18" s="12" t="str">
+      <c r="AA18" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B18&amp; " resources for the specified patient"</f>
         <v>Fetches a bundle of all Encounter resources for the specified patient</v>
       </c>
-      <c r="AA18" s="1" t="str">
+      <c r="AB18" s="1" t="str">
         <f t="shared" si="7"/>
         <v>SearchParameter-us-core-encounter-patient.html</v>
       </c>
     </row>
-    <row r="19" spans="1:27" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -3628,31 +3635,31 @@
       <c r="H19" t="s">
         <v>56</v>
       </c>
-      <c r="I19" t="s">
-        <v>56</v>
-      </c>
       <c r="J19" t="s">
+        <v>56</v>
+      </c>
+      <c r="K19" t="s">
         <v>57</v>
       </c>
-      <c r="K19" t="str">
+      <c r="L19" t="str">
         <f t="shared" si="4"/>
         <v>Encounter.status</v>
       </c>
-      <c r="L19" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="X19" s="5"/>
+      <c r="M19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="Y19" s="5"/>
-      <c r="Z19" s="12"/>
-      <c r="AA19" s="1" t="str">
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="12"/>
+      <c r="AB19" s="1" t="str">
         <f t="shared" si="5"/>
         <v>SearchParameter-us-core-encounter-status.html</v>
       </c>
     </row>
-    <row r="20" spans="1:27" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -3678,31 +3685,31 @@
       <c r="H20" t="s">
         <v>56</v>
       </c>
-      <c r="I20" t="s">
-        <v>56</v>
-      </c>
       <c r="J20" t="s">
+        <v>56</v>
+      </c>
+      <c r="K20" t="s">
         <v>57</v>
       </c>
-      <c r="K20" s="1" t="str">
+      <c r="L20" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Encounter.type</v>
       </c>
-      <c r="L20" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="X20" s="5"/>
+      <c r="M20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="Y20" s="5"/>
-      <c r="Z20" s="12"/>
-      <c r="AA20" s="1" t="str">
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="12"/>
+      <c r="AB20" s="1" t="str">
         <f t="shared" si="5"/>
         <v>SearchParameter-us-core-encounter-type.html</v>
       </c>
     </row>
-    <row r="21" spans="1:27" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -3725,34 +3732,34 @@
       <c r="H21" t="s">
         <v>56</v>
       </c>
-      <c r="I21" t="s">
-        <v>56</v>
-      </c>
       <c r="J21" t="s">
+        <v>56</v>
+      </c>
+      <c r="K21" t="s">
         <v>57</v>
       </c>
-      <c r="K21" s="1" t="str">
+      <c r="L21" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Patient._id</v>
       </c>
-      <c r="L21" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="X21" s="5" t="s">
+      <c r="M21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y21" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="Y21" s="5" t="s">
+      <c r="Z21" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="AA21" s="1" t="str">
+      <c r="AB21" s="1" t="str">
         <f>"SearchParameter-us-core-"&amp;LOWER((B21)&amp;"-"&amp;SUBSTITUTE(C21,"_","")&amp;".html")</f>
         <v>SearchParameter-us-core-patient-id.html</v>
       </c>
     </row>
-    <row r="22" spans="1:27" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -3778,29 +3785,29 @@
       <c r="H22" t="s">
         <v>56</v>
       </c>
-      <c r="I22" t="s">
-        <v>56</v>
-      </c>
       <c r="J22" t="s">
+        <v>56</v>
+      </c>
+      <c r="K22" t="s">
         <v>79</v>
       </c>
-      <c r="K22" s="1" t="str">
+      <c r="L22" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Patient.birthdate</v>
       </c>
-      <c r="L22" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y22"/>
-      <c r="AA22" s="1" t="str">
+      <c r="M22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z22"/>
+      <c r="AB22" s="1" t="str">
         <f t="shared" si="5"/>
         <v>SearchParameter-us-core-patient-birthdate.html</v>
       </c>
     </row>
-    <row r="23" spans="1:27" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -3826,28 +3833,28 @@
       <c r="H23" t="s">
         <v>56</v>
       </c>
-      <c r="I23" t="s">
-        <v>56</v>
-      </c>
       <c r="J23" t="s">
+        <v>56</v>
+      </c>
+      <c r="K23" t="s">
         <v>64</v>
       </c>
-      <c r="K23" s="6" t="s">
+      <c r="L23" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="L23" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="X23"/>
-      <c r="AA23" s="1" t="str">
+      <c r="M23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y23"/>
+      <c r="AB23" s="1" t="str">
         <f t="shared" si="5"/>
         <v>SearchParameter-us-core-patient-family.html</v>
       </c>
     </row>
-    <row r="24" spans="1:27" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -3873,30 +3880,30 @@
       <c r="H24" t="s">
         <v>56</v>
       </c>
-      <c r="I24" t="s">
-        <v>56</v>
-      </c>
       <c r="J24" t="s">
+        <v>56</v>
+      </c>
+      <c r="K24" t="s">
         <v>57</v>
       </c>
-      <c r="K24" t="str">
+      <c r="L24" t="str">
         <f>B24&amp;"."&amp;C24</f>
         <v>Patient.gender</v>
       </c>
-      <c r="L24" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="X24"/>
-      <c r="Z24" s="12"/>
-      <c r="AA24" s="1" t="str">
+      <c r="M24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y24"/>
+      <c r="AA24" s="12"/>
+      <c r="AB24" s="1" t="str">
         <f t="shared" si="5"/>
         <v>SearchParameter-us-core-patient-gender.html</v>
       </c>
     </row>
-    <row r="25" spans="1:27" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -3919,28 +3926,28 @@
       <c r="H25" t="s">
         <v>56</v>
       </c>
-      <c r="I25" t="s">
-        <v>56</v>
-      </c>
       <c r="J25" t="s">
+        <v>56</v>
+      </c>
+      <c r="K25" t="s">
         <v>64</v>
       </c>
-      <c r="K25" s="6" t="s">
+      <c r="L25" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="L25" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z25" s="12"/>
-      <c r="AA25" s="1" t="str">
+      <c r="M25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA25" s="12"/>
+      <c r="AB25" s="1" t="str">
         <f t="shared" si="5"/>
         <v>SearchParameter-us-core-patient-given.html</v>
       </c>
     </row>
-    <row r="26" spans="1:27" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -3966,38 +3973,38 @@
       <c r="H26" t="s">
         <v>56</v>
       </c>
-      <c r="I26" t="s">
-        <v>56</v>
-      </c>
       <c r="J26" t="s">
+        <v>56</v>
+      </c>
+      <c r="K26" t="s">
         <v>57</v>
       </c>
-      <c r="K26" t="str">
+      <c r="L26" t="str">
         <f>B26&amp;"."&amp;C26</f>
         <v>Patient.identifier</v>
       </c>
-      <c r="L26" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N26" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="X26" s="5" t="s">
+      <c r="M26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y26" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="Y26" s="1" t="s">
+      <c r="Z26" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="Z26" s="12" t="str">
+      <c r="AA26" s="12" t="str">
         <f>"Fetches a bundle containing any "&amp;B26&amp;" resources matching the identifier"</f>
         <v>Fetches a bundle containing any Patient resources matching the identifier</v>
       </c>
-      <c r="AA26" s="1" t="str">
-        <f t="shared" ref="AA26:AA27" si="8">"SearchParameter-us-core-"&amp;LOWER((B26)&amp;"-"&amp;SUBSTITUTE(C26,"_","")&amp;".html")</f>
+      <c r="AB26" s="1" t="str">
+        <f t="shared" ref="AB26:AB27" si="8">"SearchParameter-us-core-"&amp;LOWER((B26)&amp;"-"&amp;SUBSTITUTE(C26,"_","")&amp;".html")</f>
         <v>SearchParameter-us-core-patient-identifier.html</v>
       </c>
     </row>
-    <row r="27" spans="1:27" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -4020,39 +4027,39 @@
       <c r="H27" t="s">
         <v>56</v>
       </c>
-      <c r="I27" t="s">
-        <v>56</v>
-      </c>
       <c r="J27" t="s">
+        <v>56</v>
+      </c>
+      <c r="K27" t="s">
         <v>64</v>
       </c>
-      <c r="K27" t="str">
+      <c r="L27" t="str">
         <f>B27&amp;"."&amp;C27</f>
         <v>Patient.name</v>
       </c>
-      <c r="L27" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="R27"/>
-      <c r="X27" s="5" t="s">
+      <c r="M27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="S27"/>
+      <c r="Y27" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="Y27" s="1" t="s">
+      <c r="Z27" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="Z27" s="12" t="str">
+      <c r="AA27" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B27&amp;" resources matching the name"</f>
         <v>Fetches a bundle of all Patient resources matching the name</v>
       </c>
-      <c r="AA27" s="1" t="str">
+      <c r="AB27" s="1" t="str">
         <f t="shared" si="8"/>
         <v>SearchParameter-us-core-patient-name.html</v>
       </c>
     </row>
-    <row r="28" spans="1:27" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -4075,27 +4082,27 @@
       <c r="H28" t="s">
         <v>56</v>
       </c>
-      <c r="I28" t="s">
-        <v>56</v>
-      </c>
       <c r="J28" t="s">
+        <v>56</v>
+      </c>
+      <c r="K28" t="s">
         <v>57</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>58</v>
       </c>
-      <c r="L28" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N28" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA28" s="1" t="str">
+      <c r="M28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB28" s="1" t="str">
         <f t="shared" si="5"/>
         <v>SearchParameter-us-core-!questionnaire-_id.html</v>
       </c>
     </row>
-    <row r="29" spans="1:27" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -4118,28 +4125,28 @@
       <c r="H29" t="s">
         <v>59</v>
       </c>
-      <c r="I29" t="s">
-        <v>56</v>
-      </c>
       <c r="J29" t="s">
+        <v>56</v>
+      </c>
+      <c r="K29" t="s">
         <v>72</v>
       </c>
-      <c r="K29" t="str">
-        <f t="shared" ref="K29:K43" si="9">B29&amp;"."&amp;C29</f>
+      <c r="L29" t="str">
+        <f t="shared" ref="L29:L43" si="9">B29&amp;"."&amp;C29</f>
         <v>!Questionnaire.context-type-value</v>
       </c>
-      <c r="L29" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA29" s="1" t="str">
+      <c r="M29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB29" s="1" t="str">
         <f t="shared" si="5"/>
         <v>SearchParameter-us-core-!questionnaire-context-type-value.html</v>
       </c>
     </row>
-    <row r="30" spans="1:27" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -4162,31 +4169,31 @@
       <c r="H30" t="s">
         <v>56</v>
       </c>
-      <c r="I30" t="s">
-        <v>56</v>
-      </c>
       <c r="J30" t="s">
+        <v>56</v>
+      </c>
+      <c r="K30" t="s">
         <v>64</v>
       </c>
-      <c r="K30" t="str">
+      <c r="L30" t="str">
         <f t="shared" si="9"/>
         <v>!Questionnaire.publisher</v>
       </c>
-      <c r="L30" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N30" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="P30" s="1" t="s">
+      <c r="M30" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q30" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AA30" s="1" t="str">
+      <c r="AB30" s="1" t="str">
         <f t="shared" si="5"/>
         <v>SearchParameter-us-core-!questionnaire-publisher.html</v>
       </c>
     </row>
-    <row r="31" spans="1:27" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -4209,28 +4216,28 @@
       <c r="H31" t="s">
         <v>56</v>
       </c>
-      <c r="I31" t="s">
-        <v>56</v>
-      </c>
       <c r="J31" t="s">
+        <v>56</v>
+      </c>
+      <c r="K31" t="s">
         <v>57</v>
       </c>
-      <c r="K31" t="str">
+      <c r="L31" t="str">
         <f t="shared" si="9"/>
         <v>!Questionnaire.status</v>
       </c>
-      <c r="L31" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N31" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA31" s="1" t="str">
+      <c r="M31" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB31" s="1" t="str">
         <f t="shared" si="5"/>
         <v>SearchParameter-us-core-!questionnaire-status.html</v>
       </c>
     </row>
-    <row r="32" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -4253,41 +4260,41 @@
       <c r="H32" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I32" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="J32" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K32" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="K32" s="1" t="str">
+      <c r="L32" s="1" t="str">
         <f t="shared" si="9"/>
         <v>!Questionnaire.title</v>
       </c>
-      <c r="L32" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N32" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q32" s="1" t="s">
+      <c r="M32" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="R32" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="R32" s="1" t="s">
+      <c r="S32" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="T32" s="1" t="s">
+      <c r="U32" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="U32" s="1" t="s">
+      <c r="V32" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="Z32" s="2"/>
-      <c r="AA32" s="1" t="str">
+      <c r="AA32" s="2"/>
+      <c r="AB32" s="1" t="str">
         <f t="shared" si="5"/>
         <v>SearchParameter-us-core-!questionnaire-title.html</v>
       </c>
     </row>
-    <row r="33" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -4310,29 +4317,29 @@
       <c r="H33" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I33" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="J33" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K33" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="K33" s="1" t="str">
+      <c r="L33" s="1" t="str">
         <f t="shared" si="9"/>
         <v>!Questionnaire.url</v>
       </c>
-      <c r="L33" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N33" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z33" s="2"/>
-      <c r="AA33" s="1" t="str">
+      <c r="M33" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA33" s="2"/>
+      <c r="AB33" s="1" t="str">
         <f t="shared" si="5"/>
         <v>SearchParameter-us-core-!questionnaire-url.html</v>
       </c>
     </row>
-    <row r="34" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -4355,29 +4362,29 @@
       <c r="H34" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I34" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="J34" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K34" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K34" s="1" t="str">
+      <c r="L34" s="1" t="str">
         <f t="shared" si="9"/>
         <v>!Questionnaire.version</v>
       </c>
-      <c r="L34" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N34" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z34" s="2"/>
-      <c r="AA34" s="1" t="str">
+      <c r="M34" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA34" s="2"/>
+      <c r="AB34" s="1" t="str">
         <f t="shared" si="5"/>
         <v>SearchParameter-us-core-!questionnaire-version.html</v>
       </c>
     </row>
-    <row r="35" spans="1:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -4403,35 +4410,35 @@
       <c r="H35" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I35" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="J35" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K35" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="K35" s="1" t="str">
+      <c r="L35" s="1" t="str">
         <f t="shared" si="9"/>
         <v>Condition.onset-date</v>
       </c>
-      <c r="L35" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N35" s="1" t="s">
+      <c r="M35" s="1" t="s">
         <v>56</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="R35" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S35" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="Z35" s="12"/>
-      <c r="AA35" s="1" t="str">
+      <c r="AA35" s="12"/>
+      <c r="AB35" s="1" t="str">
         <f t="shared" si="5"/>
         <v>SearchParameter-us-core-condition-onset-date.html</v>
       </c>
     </row>
-    <row r="36" spans="1:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -4457,35 +4464,38 @@
       <c r="H36" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I36" s="1" t="s">
-        <v>56</v>
+      <c r="I36" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="J36" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K36" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="K36" s="1" t="str">
-        <f t="shared" ref="K36:K38" si="11">B36&amp;"."&amp;C36</f>
+      <c r="L36" s="1" t="str">
+        <f t="shared" ref="L36:L38" si="11">B36&amp;"."&amp;C36</f>
         <v>Condition.asserted-date</v>
       </c>
-      <c r="L36" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N36" s="1" t="s">
+      <c r="M36" s="1" t="s">
         <v>56</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="R36" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S36" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="Z36" s="12"/>
-      <c r="AA36" s="1" t="str">
-        <f t="shared" ref="AA36:AA38" si="12">"SearchParameter-us-core-"&amp;LOWER((B36)&amp;"-"&amp;C36&amp;".html")</f>
+      <c r="AA36" s="12"/>
+      <c r="AB36" s="1" t="str">
+        <f t="shared" ref="AB36:AB38" si="12">"SearchParameter-us-core-"&amp;LOWER((B36)&amp;"-"&amp;C36&amp;".html")</f>
         <v>SearchParameter-us-core-condition-asserted-date.html</v>
       </c>
     </row>
-    <row r="37" spans="1:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -4511,35 +4521,38 @@
       <c r="H37" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I37" s="1" t="s">
-        <v>56</v>
+      <c r="I37" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="J37" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K37" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="K37" s="1" t="str">
+      <c r="L37" s="1" t="str">
         <f t="shared" si="11"/>
         <v>Condition.recorded-date</v>
       </c>
-      <c r="L37" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N37" s="1" t="s">
+      <c r="M37" s="1" t="s">
         <v>56</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="R37" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S37" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="Z37" s="12"/>
-      <c r="AA37" s="1" t="str">
+      <c r="AA37" s="12"/>
+      <c r="AB37" s="1" t="str">
         <f t="shared" si="12"/>
         <v>SearchParameter-us-core-condition-recorded-date.html</v>
       </c>
     </row>
-    <row r="38" spans="1:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -4565,35 +4578,38 @@
       <c r="H38" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I38" s="1" t="s">
-        <v>56</v>
+      <c r="I38" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="J38" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K38" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="K38" s="1" t="str">
+      <c r="L38" s="1" t="str">
         <f t="shared" si="11"/>
         <v>Condition.abatement-date</v>
       </c>
-      <c r="L38" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N38" s="1" t="s">
+      <c r="M38" s="1" t="s">
         <v>56</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="R38" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S38" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="Z38" s="12"/>
-      <c r="AA38" s="1" t="str">
+      <c r="AA38" s="12"/>
+      <c r="AB38" s="1" t="str">
         <f t="shared" si="12"/>
         <v>SearchParameter-us-core-condition-abatement-date.html</v>
       </c>
     </row>
-    <row r="39" spans="1:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -4619,31 +4635,31 @@
       <c r="H39" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I39" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="J39" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K39" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K39" s="1" t="str">
+      <c r="L39" s="1" t="str">
         <f t="shared" si="9"/>
         <v>Condition.code</v>
       </c>
-      <c r="L39" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N39" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="X39" s="5"/>
+      <c r="M39" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="Y39" s="5"/>
-      <c r="Z39" s="12"/>
-      <c r="AA39" s="1" t="str">
+      <c r="Z39" s="5"/>
+      <c r="AA39" s="12"/>
+      <c r="AB39" s="1" t="str">
         <f t="shared" si="5"/>
         <v>SearchParameter-us-core-condition-code.html</v>
       </c>
     </row>
-    <row r="40" spans="1:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>12</v>
       </c>
@@ -4669,39 +4685,42 @@
       <c r="H40" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I40" s="1" t="s">
-        <v>56</v>
+      <c r="I40" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="J40" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K40" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="K40" s="1" t="str">
+      <c r="L40" s="1" t="str">
         <f t="shared" si="9"/>
         <v>Condition.encounter</v>
       </c>
-      <c r="L40" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N40" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="X40" s="1" t="s">
+      <c r="M40" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y40" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="Y40" s="5" t="str">
+      <c r="Z40" s="5" t="str">
         <f>"GET [base]/"&amp;B40&amp;"?patient=1137192"</f>
         <v>GET [base]/Condition?patient=1137192</v>
       </c>
-      <c r="Z40" s="12" t="str">
+      <c r="AA40" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B40&amp; " resources for the specified patient"</f>
         <v>Fetches a bundle of all Condition resources for the specified patient</v>
       </c>
-      <c r="AA40" s="1" t="str">
-        <f t="shared" ref="AA40" si="14">"SearchParameter-us-core-"&amp;LOWER((B40)&amp;"-"&amp;SUBSTITUTE(C40,"_","")&amp;".html")</f>
+      <c r="AB40" s="1" t="str">
+        <f t="shared" ref="AB40" si="14">"SearchParameter-us-core-"&amp;LOWER((B40)&amp;"-"&amp;SUBSTITUTE(C40,"_","")&amp;".html")</f>
         <v>SearchParameter-us-core-condition-encounter.html</v>
       </c>
     </row>
-    <row r="41" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -4727,40 +4746,40 @@
       <c r="H41" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I41" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="J41" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K41" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="K41" s="1" t="str">
+      <c r="L41" s="1" t="str">
         <f t="shared" si="9"/>
         <v>Immunization.patient</v>
       </c>
-      <c r="L41" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N41" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="X41" s="1" t="str">
+      <c r="M41" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y41" s="1" t="str">
         <f>"support searching for all "&amp;LOWER(B41)&amp;"s for a patient"</f>
         <v>support searching for all immunizations for a patient</v>
       </c>
-      <c r="Y41" s="5" t="str">
+      <c r="Z41" s="5" t="str">
         <f>"GET [base]/"&amp;B41&amp;"?patient=1137192"</f>
         <v>GET [base]/Immunization?patient=1137192</v>
       </c>
-      <c r="Z41" s="12" t="str">
+      <c r="AA41" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B41&amp; " resources for the specified patient"</f>
         <v>Fetches a bundle of all Immunization resources for the specified patient</v>
       </c>
-      <c r="AA41" s="1" t="str">
+      <c r="AB41" s="1" t="str">
         <f>"SearchParameter-us-core-"&amp;LOWER((B41)&amp;"-"&amp;SUBSTITUTE(C41,"_","")&amp;".html")</f>
         <v>SearchParameter-us-core-immunization-patient.html</v>
       </c>
     </row>
-    <row r="42" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -4786,31 +4805,31 @@
       <c r="H42" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I42" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="J42" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K42" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K42" s="1" t="str">
+      <c r="L42" s="1" t="str">
         <f t="shared" si="9"/>
         <v>Immunization.status</v>
       </c>
-      <c r="L42" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N42" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="X42" s="5"/>
+      <c r="M42" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="Y42" s="5"/>
-      <c r="Z42" s="12"/>
-      <c r="AA42" s="1" t="str">
+      <c r="Z42" s="5"/>
+      <c r="AA42" s="12"/>
+      <c r="AB42" s="1" t="str">
         <f t="shared" si="5"/>
         <v>SearchParameter-us-core-immunization-status.html</v>
       </c>
     </row>
-    <row r="43" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -4836,35 +4855,35 @@
       <c r="H43" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I43" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="J43" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K43" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="K43" s="1" t="str">
+      <c r="L43" s="1" t="str">
         <f t="shared" si="9"/>
         <v>Immunization.date</v>
       </c>
-      <c r="L43" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N43" s="1" t="s">
+      <c r="M43" s="1" t="s">
         <v>56</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="R43" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S43" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="Z43" s="12"/>
-      <c r="AA43" s="1" t="str">
+      <c r="AA43" s="12"/>
+      <c r="AB43" s="1" t="str">
         <f t="shared" si="5"/>
         <v>SearchParameter-us-core-immunization-date.html</v>
       </c>
     </row>
-    <row r="44" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -4887,37 +4906,37 @@
       <c r="H44" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I44" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="J44" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K44" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K44" s="1" t="str">
+      <c r="L44" s="1" t="str">
         <f>B44&amp;".id"</f>
         <v>DocumentReference.id</v>
       </c>
-      <c r="L44" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N44" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="X44" s="5" t="s">
+      <c r="M44" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y44" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="Y44" s="5" t="s">
+      <c r="Z44" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="Z44" s="2" t="s">
+      <c r="AA44" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="AA44" s="1" t="str">
-        <f t="shared" ref="AA44" si="15">"SearchParameter-us-core-"&amp;LOWER((B44)&amp;"-"&amp;C44&amp;".html")</f>
+      <c r="AB44" s="1" t="str">
+        <f t="shared" ref="AB44" si="15">"SearchParameter-us-core-"&amp;LOWER((B44)&amp;"-"&amp;C44&amp;".html")</f>
         <v>SearchParameter-us-core-documentreference-_id.html</v>
       </c>
     </row>
-    <row r="45" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -4943,34 +4962,34 @@
       <c r="H45" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I45" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="J45" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K45" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K45" s="1" t="str">
-        <f t="shared" ref="K45:K71" si="16">B45&amp;"."&amp;C45</f>
+      <c r="L45" s="1" t="str">
+        <f t="shared" ref="L45:L71" si="16">B45&amp;"."&amp;C45</f>
         <v>DocumentReference.status</v>
       </c>
-      <c r="L45" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="M45" s="1" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="X45" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="Y45" s="5"/>
-      <c r="Z45" s="12"/>
-      <c r="AA45" s="1" t="str">
-        <f t="shared" ref="AA45:AA74" si="17">"SearchParameter-us-core-"&amp;LOWER((B45)&amp;"-"&amp;C45&amp;".html")</f>
+      <c r="Z45" s="5"/>
+      <c r="AA45" s="12"/>
+      <c r="AB45" s="1" t="str">
+        <f t="shared" ref="AB45:AB74" si="17">"SearchParameter-us-core-"&amp;LOWER((B45)&amp;"-"&amp;C45&amp;".html")</f>
         <v>SearchParameter-us-core-documentreference-status.html</v>
       </c>
     </row>
-    <row r="46" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -4996,40 +5015,40 @@
       <c r="H46" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I46" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="J46" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K46" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="K46" s="1" t="str">
+      <c r="L46" s="1" t="str">
         <f t="shared" si="16"/>
         <v>DocumentReference.patient</v>
       </c>
-      <c r="L46" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N46" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="X46" s="1" t="str">
+      <c r="M46" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y46" s="1" t="str">
         <f>"support searching for all "&amp;LOWER(B46)&amp;"s for a patient"</f>
         <v>support searching for all documentreferences for a patient</v>
       </c>
-      <c r="Y46" s="5" t="str">
+      <c r="Z46" s="5" t="str">
         <f>"GET [base]/"&amp;B46&amp;"?patient=1137192"</f>
         <v>GET [base]/DocumentReference?patient=1137192</v>
       </c>
-      <c r="Z46" s="12" t="str">
+      <c r="AA46" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B46&amp; " resources for the specified patient. See the implementation notes above for how to access the actual document."</f>
         <v>Fetches a bundle of all DocumentReference resources for the specified patient. See the implementation notes above for how to access the actual document.</v>
       </c>
-      <c r="AA46" s="1" t="str">
-        <f t="shared" ref="AA46:AA49" si="18">"SearchParameter-us-core-"&amp;LOWER((B46)&amp;"-"&amp;C46&amp;".html")</f>
+      <c r="AB46" s="1" t="str">
+        <f t="shared" ref="AB46:AB49" si="18">"SearchParameter-us-core-"&amp;LOWER((B46)&amp;"-"&amp;C46&amp;".html")</f>
         <v>SearchParameter-us-core-documentreference-patient.html</v>
       </c>
     </row>
-    <row r="47" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -5055,31 +5074,31 @@
       <c r="H47" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I47" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="J47" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K47" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K47" s="1" t="str">
-        <f t="shared" ref="K47:K49" si="19">B47&amp;"."&amp;C47</f>
+      <c r="L47" s="1" t="str">
+        <f t="shared" ref="L47:L49" si="19">B47&amp;"."&amp;C47</f>
         <v>DocumentReference.category</v>
       </c>
-      <c r="L47" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N47" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="X47" s="5"/>
+      <c r="M47" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="Y47" s="5"/>
-      <c r="Z47" s="12"/>
-      <c r="AA47" s="1" t="str">
+      <c r="Z47" s="5"/>
+      <c r="AA47" s="12"/>
+      <c r="AB47" s="1" t="str">
         <f t="shared" si="18"/>
         <v>SearchParameter-us-core-documentreference-category.html</v>
       </c>
     </row>
-    <row r="48" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -5105,31 +5124,31 @@
       <c r="H48" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I48" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="J48" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K48" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K48" s="1" t="str">
+      <c r="L48" s="1" t="str">
         <f t="shared" si="19"/>
         <v>DocumentReference.type</v>
       </c>
-      <c r="L48" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N48" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="X48" s="5"/>
+      <c r="M48" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="Y48" s="5"/>
-      <c r="Z48" s="12"/>
-      <c r="AA48" s="1" t="str">
+      <c r="Z48" s="5"/>
+      <c r="AA48" s="12"/>
+      <c r="AB48" s="1" t="str">
         <f t="shared" si="18"/>
         <v>SearchParameter-us-core-documentreference-type.html</v>
       </c>
     </row>
-    <row r="49" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -5155,35 +5174,35 @@
       <c r="H49" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I49" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="J49" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K49" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="K49" s="1" t="str">
+      <c r="L49" s="1" t="str">
         <f t="shared" si="19"/>
         <v>DocumentReference.date</v>
       </c>
-      <c r="L49" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N49" s="1" t="s">
+      <c r="M49" s="1" t="s">
         <v>56</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="R49" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S49" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="Z49" s="12"/>
-      <c r="AA49" s="1" t="str">
+      <c r="AA49" s="12"/>
+      <c r="AB49" s="1" t="str">
         <f t="shared" si="18"/>
         <v>SearchParameter-us-core-documentreference-date.html</v>
       </c>
     </row>
-    <row r="50" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -5209,34 +5228,34 @@
       <c r="H50" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I50" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="J50" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K50" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="K50" s="1" t="s">
+      <c r="L50" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="L50" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N50" s="1" t="s">
+      <c r="M50" s="1" t="s">
         <v>56</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="R50" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="P50" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S50" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="Z50" s="12"/>
-      <c r="AA50" s="1" t="str">
-        <f t="shared" ref="AA50" si="20">"SearchParameter-us-core-"&amp;LOWER((B50)&amp;"-"&amp;C50&amp;".html")</f>
+      <c r="AA50" s="12"/>
+      <c r="AB50" s="1" t="str">
+        <f t="shared" ref="AB50" si="20">"SearchParameter-us-core-"&amp;LOWER((B50)&amp;"-"&amp;C50&amp;".html")</f>
         <v>SearchParameter-us-core-documentreference-period.html</v>
       </c>
     </row>
-    <row r="51" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -5262,34 +5281,34 @@
       <c r="H51" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I51" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="J51" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K51" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K51" s="1" t="str">
-        <f t="shared" ref="K51:K55" si="21">B51&amp;"."&amp;C51</f>
+      <c r="L51" s="1" t="str">
+        <f t="shared" ref="L51:L55" si="21">B51&amp;"."&amp;C51</f>
         <v>DiagnosticReport.status</v>
       </c>
-      <c r="L51" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="M51" s="1" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="X51" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="Y51" s="5"/>
-      <c r="Z51" s="12"/>
-      <c r="AA51" s="1" t="str">
+      <c r="Z51" s="5"/>
+      <c r="AA51" s="12"/>
+      <c r="AB51" s="1" t="str">
         <f>"SearchParameter-us-core-"&amp;LOWER((B51)&amp;"-"&amp;C51&amp;".html")</f>
         <v>SearchParameter-us-core-diagnosticreport-status.html</v>
       </c>
     </row>
-    <row r="52" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -5315,40 +5334,40 @@
       <c r="H52" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I52" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="J52" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K52" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="K52" s="1" t="str">
+      <c r="L52" s="1" t="str">
         <f t="shared" si="21"/>
         <v>DiagnosticReport.patient</v>
       </c>
-      <c r="L52" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N52" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="X52" s="1" t="str">
+      <c r="M52" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y52" s="1" t="str">
         <f>"support searching for all "&amp;LOWER(B52)&amp;"s for a patient"</f>
         <v>support searching for all diagnosticreports for a patient</v>
       </c>
-      <c r="Y52" s="5" t="str">
+      <c r="Z52" s="5" t="str">
         <f>"GET [base]/"&amp;B52&amp;"?patient=1137192"</f>
         <v>GET [base]/DiagnosticReport?patient=1137192</v>
       </c>
-      <c r="Z52" s="12" t="str">
+      <c r="AA52" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B52&amp; " resources for the specified patient"</f>
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient</v>
       </c>
-      <c r="AA52" s="1" t="str">
+      <c r="AB52" s="1" t="str">
         <f>"SearchParameter-us-core-"&amp;LOWER((B52)&amp;"-"&amp;C52&amp;".html")</f>
         <v>SearchParameter-us-core-diagnosticreport-patient.html</v>
       </c>
     </row>
-    <row r="53" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -5374,31 +5393,31 @@
       <c r="H53" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I53" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="J53" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K53" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K53" s="1" t="str">
+      <c r="L53" s="1" t="str">
         <f t="shared" si="21"/>
         <v>DiagnosticReport.category</v>
       </c>
-      <c r="L53" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N53" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="X53" s="5"/>
+      <c r="M53" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O53" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="Y53" s="5"/>
-      <c r="Z53" s="12"/>
-      <c r="AA53" s="1" t="str">
+      <c r="Z53" s="5"/>
+      <c r="AA53" s="12"/>
+      <c r="AB53" s="1" t="str">
         <f>"SearchParameter-us-core-"&amp;LOWER((B53)&amp;"-"&amp;C53&amp;".html")</f>
         <v>SearchParameter-us-core-diagnosticreport-category.html</v>
       </c>
     </row>
-    <row r="54" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -5424,34 +5443,34 @@
       <c r="H54" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I54" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="J54" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K54" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K54" s="1" t="str">
+      <c r="L54" s="1" t="str">
         <f t="shared" si="21"/>
         <v>DiagnosticReport.code</v>
       </c>
-      <c r="L54" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="M54" s="1" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="X54" s="5"/>
+        <v>70</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="Y54" s="5"/>
-      <c r="Z54" s="12"/>
-      <c r="AA54" s="1" t="str">
+      <c r="Z54" s="5"/>
+      <c r="AA54" s="12"/>
+      <c r="AB54" s="1" t="str">
         <f>"SearchParameter-us-core-"&amp;LOWER((B54)&amp;"-"&amp;C54&amp;".html")</f>
         <v>SearchParameter-us-core-diagnosticreport-code.html</v>
       </c>
     </row>
-    <row r="55" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -5477,35 +5496,35 @@
       <c r="H55" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I55" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="J55" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K55" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="K55" s="1" t="str">
+      <c r="L55" s="1" t="str">
         <f t="shared" si="21"/>
         <v>DiagnosticReport.date</v>
       </c>
-      <c r="L55" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N55" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="O55" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="R55" s="1" t="s">
+      <c r="M55" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="P55" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="S55" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="Z55" s="12"/>
-      <c r="AA55" s="1" t="str">
+      <c r="AA55" s="12"/>
+      <c r="AB55" s="1" t="str">
         <f>"SearchParameter-us-core-"&amp;LOWER((B55)&amp;"-"&amp;C55&amp;".html")</f>
         <v>SearchParameter-us-core-diagnosticreport-date.html</v>
       </c>
     </row>
-    <row r="56" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -5531,31 +5550,31 @@
       <c r="H56" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I56" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="J56" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K56" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K56" s="1" t="str">
+      <c r="L56" s="1" t="str">
         <f t="shared" si="16"/>
         <v>Goal.lifecycle-status</v>
       </c>
-      <c r="L56" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N56" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="X56" s="5"/>
+      <c r="M56" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O56" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="Y56" s="5"/>
-      <c r="Z56" s="12"/>
-      <c r="AA56" s="1" t="str">
+      <c r="Z56" s="5"/>
+      <c r="AA56" s="12"/>
+      <c r="AB56" s="1" t="str">
         <f t="shared" si="17"/>
         <v>SearchParameter-us-core-goal-lifecycle-status.html</v>
       </c>
     </row>
-    <row r="57" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -5581,40 +5600,40 @@
       <c r="H57" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I57" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="J57" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K57" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="K57" s="1" t="str">
+      <c r="L57" s="1" t="str">
         <f t="shared" si="16"/>
         <v>Goal.patient</v>
       </c>
-      <c r="L57" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N57" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="X57" s="1" t="str">
+      <c r="M57" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O57" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y57" s="1" t="str">
         <f>"support searching for all "&amp;LOWER(B57)&amp;"s for a patient"</f>
         <v>support searching for all goals for a patient</v>
       </c>
-      <c r="Y57" s="5" t="str">
+      <c r="Z57" s="5" t="str">
         <f>"GET [base]/"&amp;B57&amp;"?patient=1137192"</f>
         <v>GET [base]/Goal?patient=1137192</v>
       </c>
-      <c r="Z57" s="12" t="str">
+      <c r="AA57" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B57&amp; " resources for the specified patient"</f>
         <v>Fetches a bundle of all Goal resources for the specified patient</v>
       </c>
-      <c r="AA57" s="1" t="str">
-        <f t="shared" ref="AA57:AA58" si="22">"SearchParameter-us-core-"&amp;LOWER((B57)&amp;"-"&amp;C57&amp;".html")</f>
+      <c r="AB57" s="1" t="str">
+        <f t="shared" ref="AB57:AB58" si="22">"SearchParameter-us-core-"&amp;LOWER((B57)&amp;"-"&amp;C57&amp;".html")</f>
         <v>SearchParameter-us-core-goal-patient.html</v>
       </c>
     </row>
-    <row r="58" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -5640,35 +5659,35 @@
       <c r="H58" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I58" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="J58" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K58" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="K58" s="1" t="str">
-        <f t="shared" ref="K58" si="23">B58&amp;"."&amp;C58</f>
+      <c r="L58" s="1" t="str">
+        <f t="shared" ref="L58" si="23">B58&amp;"."&amp;C58</f>
         <v>Goal.target-date</v>
       </c>
-      <c r="L58" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N58" s="1" t="s">
+      <c r="M58" s="1" t="s">
         <v>56</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="R58" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="P58" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S58" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="Z58" s="12"/>
-      <c r="AA58" s="1" t="str">
+      <c r="AA58" s="12"/>
+      <c r="AB58" s="1" t="str">
         <f t="shared" si="22"/>
         <v>SearchParameter-us-core-goal-target-date.html</v>
       </c>
     </row>
-    <row r="59" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -5694,34 +5713,34 @@
       <c r="H59" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I59" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="J59" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K59" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K59" s="1" t="str">
+      <c r="L59" s="1" t="str">
         <f t="shared" si="16"/>
         <v>MedicationRequest.status</v>
       </c>
-      <c r="L59" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="M59" s="1" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="X59" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="O59" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="Y59" s="5"/>
-      <c r="Z59" s="12"/>
-      <c r="AA59" s="1" t="str">
+      <c r="Z59" s="5"/>
+      <c r="AA59" s="12"/>
+      <c r="AB59" s="1" t="str">
         <f t="shared" si="17"/>
         <v>SearchParameter-us-core-medicationrequest-status.html</v>
       </c>
     </row>
-    <row r="60" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -5747,34 +5766,34 @@
       <c r="H60" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I60" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="J60" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K60" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K60" s="1" t="str">
-        <f t="shared" ref="K60" si="24">B60&amp;"."&amp;C60</f>
+      <c r="L60" s="1" t="str">
+        <f t="shared" ref="L60" si="24">B60&amp;"."&amp;C60</f>
         <v>MedicationRequest.intent</v>
       </c>
-      <c r="L60" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="M60" s="1" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="X60" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="O60" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="Y60" s="5"/>
-      <c r="Z60" s="12"/>
-      <c r="AA60" s="1" t="str">
-        <f t="shared" ref="AA60" si="25">"SearchParameter-us-core-"&amp;LOWER((B60)&amp;"-"&amp;C60&amp;".html")</f>
+      <c r="Z60" s="5"/>
+      <c r="AA60" s="12"/>
+      <c r="AB60" s="1" t="str">
+        <f t="shared" ref="AB60" si="25">"SearchParameter-us-core-"&amp;LOWER((B60)&amp;"-"&amp;C60&amp;".html")</f>
         <v>SearchParameter-us-core-medicationrequest-intent.html</v>
       </c>
     </row>
-    <row r="61" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -5800,32 +5819,32 @@
       <c r="H61" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I61" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="J61" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K61" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="K61" s="1" t="str">
+      <c r="L61" s="1" t="str">
         <f t="shared" si="16"/>
         <v>MedicationRequest.patient</v>
       </c>
-      <c r="L61" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N61" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="V61" s="7"/>
+      <c r="M61" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O61" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="W61" s="7"/>
-      <c r="Y61" s="12"/>
+      <c r="X61" s="7"/>
       <c r="Z61" s="12"/>
-      <c r="AA61" s="1" t="str">
-        <f t="shared" ref="AA61" si="26">"SearchParameter-us-core-"&amp;LOWER((B61)&amp;"-"&amp;C61&amp;".html")</f>
+      <c r="AA61" s="12"/>
+      <c r="AB61" s="1" t="str">
+        <f t="shared" ref="AB61" si="26">"SearchParameter-us-core-"&amp;LOWER((B61)&amp;"-"&amp;C61&amp;".html")</f>
         <v>SearchParameter-us-core-medicationrequest-patient.html</v>
       </c>
     </row>
-    <row r="62" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -5851,32 +5870,32 @@
       <c r="H62" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I62" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="J62" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K62" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="K62" s="1" t="str">
-        <f t="shared" ref="K62" si="27">B62&amp;"."&amp;C62</f>
+      <c r="L62" s="1" t="str">
+        <f t="shared" ref="L62" si="27">B62&amp;"."&amp;C62</f>
         <v>MedicationRequest.encounter</v>
       </c>
-      <c r="L62" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N62" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="V62" s="7"/>
+      <c r="M62" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O62" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="W62" s="7"/>
-      <c r="Y62" s="12"/>
+      <c r="X62" s="7"/>
       <c r="Z62" s="12"/>
-      <c r="AA62" s="1" t="str">
-        <f t="shared" ref="AA62" si="28">"SearchParameter-us-core-"&amp;LOWER((B62)&amp;"-"&amp;C62&amp;".html")</f>
+      <c r="AA62" s="12"/>
+      <c r="AB62" s="1" t="str">
+        <f t="shared" ref="AB62" si="28">"SearchParameter-us-core-"&amp;LOWER((B62)&amp;"-"&amp;C62&amp;".html")</f>
         <v>SearchParameter-us-core-medicationrequest-encounter.html</v>
       </c>
     </row>
-    <row r="63" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -5902,35 +5921,35 @@
       <c r="H63" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I63" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="J63" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K63" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="K63" s="1" t="str">
-        <f t="shared" ref="K63" si="29">B63&amp;"."&amp;C63</f>
+      <c r="L63" s="1" t="str">
+        <f t="shared" ref="L63" si="29">B63&amp;"."&amp;C63</f>
         <v>MedicationRequest.authoredon</v>
       </c>
-      <c r="L63" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N63" s="1" t="s">
+      <c r="M63" s="1" t="s">
         <v>56</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="R63" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="P63" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S63" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="Z63" s="12"/>
-      <c r="AA63" s="1" t="str">
+      <c r="AA63" s="12"/>
+      <c r="AB63" s="1" t="str">
         <f t="shared" si="17"/>
         <v>SearchParameter-us-core-medicationrequest-authoredon.html</v>
       </c>
     </row>
-    <row r="64" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -5956,34 +5975,34 @@
       <c r="H64" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I64" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="J64" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K64" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K64" s="1" t="str">
+      <c r="L64" s="1" t="str">
         <f>B64&amp;"."&amp;C64</f>
         <v>!MedicationStatement.status</v>
       </c>
-      <c r="L64" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="M64" s="1" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="X64" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="O64" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="Y64" s="5"/>
-      <c r="Z64" s="12"/>
-      <c r="AA64" s="1" t="str">
+      <c r="Z64" s="5"/>
+      <c r="AA64" s="12"/>
+      <c r="AB64" s="1" t="str">
         <f>"SearchParameter-us-core-"&amp;LOWER((B64)&amp;"-"&amp;C64&amp;".html")</f>
         <v>SearchParameter-us-core-!medicationstatement-status.html</v>
       </c>
     </row>
-    <row r="65" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -6009,39 +6028,39 @@
       <c r="H65" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I65" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="J65" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K65" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="K65" s="1" t="str">
+      <c r="L65" s="1" t="str">
         <f t="shared" si="16"/>
         <v>!MedicationStatement.patient</v>
       </c>
-      <c r="L65" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N65" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="W65" s="7"/>
-      <c r="X65" s="1" t="s">
+      <c r="M65" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O65" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="X65" s="7"/>
+      <c r="Y65" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="Y65" s="12" t="s">
+      <c r="Z65" s="12" t="s">
         <v>341</v>
       </c>
-      <c r="Z65" s="12" t="str">
+      <c r="AA65" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B65&amp; " resources for the specified patient. Mandatory for client to support the _include parameter. Optional for server to support the _include parameter."</f>
         <v>Fetches a bundle of all !MedicationStatement resources for the specified patient. Mandatory for client to support the _include parameter. Optional for server to support the _include parameter.</v>
       </c>
-      <c r="AA65" s="1" t="str">
-        <f t="shared" ref="AA65:AA66" si="30">"SearchParameter-us-core-"&amp;LOWER((B65)&amp;"-"&amp;C65&amp;".html")</f>
+      <c r="AB65" s="1" t="str">
+        <f t="shared" ref="AB65:AB66" si="30">"SearchParameter-us-core-"&amp;LOWER((B65)&amp;"-"&amp;C65&amp;".html")</f>
         <v>SearchParameter-us-core-!medicationstatement-patient.html</v>
       </c>
     </row>
-    <row r="66" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -6067,35 +6086,35 @@
       <c r="H66" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I66" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="J66" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K66" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="K66" s="1" t="str">
-        <f t="shared" ref="K66" si="31">B66&amp;"."&amp;C66</f>
+      <c r="L66" s="1" t="str">
+        <f t="shared" ref="L66" si="31">B66&amp;"."&amp;C66</f>
         <v>!MedicationStatement.effective</v>
       </c>
-      <c r="L66" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N66" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="O66" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="R66" s="1" t="s">
+      <c r="M66" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O66" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="P66" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="S66" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="Z66" s="12"/>
-      <c r="AA66" s="1" t="str">
+      <c r="AA66" s="12"/>
+      <c r="AB66" s="1" t="str">
         <f t="shared" si="30"/>
         <v>SearchParameter-us-core-!medicationstatement-effective.html</v>
       </c>
     </row>
-    <row r="67" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -6121,34 +6140,34 @@
       <c r="H67" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I67" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="J67" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K67" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K67" s="1" t="str">
+      <c r="L67" s="1" t="str">
         <f t="shared" si="16"/>
         <v>Procedure.status</v>
       </c>
-      <c r="L67" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="M67" s="1" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="X67" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="O67" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="Y67" s="5"/>
-      <c r="Z67" s="12"/>
-      <c r="AA67" s="1" t="str">
+      <c r="Z67" s="5"/>
+      <c r="AA67" s="12"/>
+      <c r="AB67" s="1" t="str">
         <f t="shared" si="17"/>
         <v>SearchParameter-us-core-procedure-status.html</v>
       </c>
     </row>
-    <row r="68" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -6174,39 +6193,39 @@
       <c r="H68" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I68" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="J68" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K68" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="K68" s="1" t="str">
+      <c r="L68" s="1" t="str">
         <f t="shared" si="16"/>
         <v>Procedure.patient</v>
       </c>
-      <c r="L68" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N68" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="X68" s="1" t="str">
+      <c r="M68" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O68" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y68" s="1" t="str">
         <f>"support searching for all "&amp;LOWER(B68)&amp;"s for a patient"</f>
         <v>support searching for all procedures for a patient</v>
       </c>
-      <c r="Y68" s="5" t="s">
+      <c r="Z68" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="Z68" s="12" t="str">
+      <c r="AA68" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B68&amp; " resources for the specified patient"</f>
         <v>Fetches a bundle of all Procedure resources for the specified patient</v>
       </c>
-      <c r="AA68" s="1" t="str">
-        <f t="shared" ref="AA68:AA70" si="32">"SearchParameter-us-core-"&amp;LOWER((B68)&amp;"-"&amp;C68&amp;".html")</f>
+      <c r="AB68" s="1" t="str">
+        <f t="shared" ref="AB68:AB70" si="32">"SearchParameter-us-core-"&amp;LOWER((B68)&amp;"-"&amp;C68&amp;".html")</f>
         <v>SearchParameter-us-core-procedure-patient.html</v>
       </c>
     </row>
-    <row r="69" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -6232,35 +6251,35 @@
       <c r="H69" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I69" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="J69" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K69" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="K69" s="1" t="str">
-        <f t="shared" ref="K69:K70" si="33">B69&amp;"."&amp;C69</f>
+      <c r="L69" s="1" t="str">
+        <f t="shared" ref="L69:L70" si="33">B69&amp;"."&amp;C69</f>
         <v>Procedure.date</v>
       </c>
-      <c r="L69" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N69" s="1" t="s">
+      <c r="M69" s="1" t="s">
         <v>56</v>
       </c>
       <c r="O69" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="R69" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="P69" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S69" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="Z69" s="12"/>
-      <c r="AA69" s="1" t="str">
+      <c r="AA69" s="12"/>
+      <c r="AB69" s="1" t="str">
         <f t="shared" si="32"/>
         <v>SearchParameter-us-core-procedure-date.html</v>
       </c>
     </row>
-    <row r="70" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -6286,34 +6305,34 @@
       <c r="H70" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I70" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="J70" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K70" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K70" s="1" t="str">
+      <c r="L70" s="1" t="str">
         <f t="shared" si="33"/>
         <v>Procedure.code</v>
       </c>
-      <c r="L70" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="M70" s="1" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="X70" s="5"/>
+        <v>70</v>
+      </c>
+      <c r="O70" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="Y70" s="5"/>
-      <c r="Z70" s="12"/>
-      <c r="AA70" s="1" t="str">
+      <c r="Z70" s="5"/>
+      <c r="AA70" s="12"/>
+      <c r="AB70" s="1" t="str">
         <f t="shared" si="32"/>
         <v>SearchParameter-us-core-procedure-code.html</v>
       </c>
     </row>
-    <row r="71" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -6339,34 +6358,34 @@
       <c r="H71" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I71" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="J71" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K71" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K71" s="1" t="str">
+      <c r="L71" s="1" t="str">
         <f t="shared" si="16"/>
         <v>Observation.status</v>
       </c>
-      <c r="L71" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="M71" s="1" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="X71" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="O71" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="Y71" s="5"/>
-      <c r="Z71" s="12"/>
-      <c r="AA71" s="1" t="str">
+      <c r="Z71" s="5"/>
+      <c r="AA71" s="12"/>
+      <c r="AB71" s="1" t="str">
         <f t="shared" si="17"/>
         <v>SearchParameter-us-core-observation-status.html</v>
       </c>
     </row>
-    <row r="72" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -6392,31 +6411,31 @@
       <c r="H72" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I72" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="J72" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K72" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K72" s="1" t="str">
-        <f t="shared" ref="K72:K74" si="35">B72&amp;"."&amp;C72</f>
+      <c r="L72" s="1" t="str">
+        <f t="shared" ref="L72:L74" si="35">B72&amp;"."&amp;C72</f>
         <v>Observation.category</v>
       </c>
-      <c r="L72" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N72" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="X72" s="5"/>
+      <c r="M72" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O72" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="Y72" s="5"/>
-      <c r="Z72" s="12"/>
-      <c r="AA72" s="1" t="str">
+      <c r="Z72" s="5"/>
+      <c r="AA72" s="12"/>
+      <c r="AB72" s="1" t="str">
         <f t="shared" si="17"/>
         <v>SearchParameter-us-core-observation-category.html</v>
       </c>
     </row>
-    <row r="73" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -6442,34 +6461,34 @@
       <c r="H73" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I73" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="J73" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K73" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K73" s="1" t="str">
+      <c r="L73" s="1" t="str">
         <f t="shared" si="35"/>
         <v>Observation.code</v>
       </c>
-      <c r="L73" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="M73" s="1" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="N73" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="X73" s="5"/>
+        <v>70</v>
+      </c>
+      <c r="O73" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="Y73" s="5"/>
-      <c r="Z73" s="12"/>
-      <c r="AA73" s="1" t="str">
+      <c r="Z73" s="5"/>
+      <c r="AA73" s="12"/>
+      <c r="AB73" s="1" t="str">
         <f t="shared" si="17"/>
         <v>SearchParameter-us-core-observation-code.html</v>
       </c>
     </row>
-    <row r="74" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -6495,35 +6514,35 @@
       <c r="H74" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I74" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="J74" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K74" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="K74" s="1" t="str">
+      <c r="L74" s="1" t="str">
         <f t="shared" si="35"/>
         <v>Observation.date</v>
       </c>
-      <c r="L74" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N74" s="1" t="s">
+      <c r="M74" s="1" t="s">
         <v>56</v>
       </c>
       <c r="O74" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="R74" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="P74" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S74" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="Z74" s="12"/>
-      <c r="AA74" s="1" t="str">
+      <c r="AA74" s="12"/>
+      <c r="AB74" s="1" t="str">
         <f t="shared" si="17"/>
         <v>SearchParameter-us-core-observation-date.html</v>
       </c>
     </row>
-    <row r="75" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -6549,40 +6568,40 @@
       <c r="H75" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I75" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="J75" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K75" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="K75" s="1" t="str">
+      <c r="L75" s="1" t="str">
         <f>B75&amp;"."&amp;C75</f>
         <v>Observation.patient</v>
       </c>
-      <c r="L75" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N75" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="X75" s="1" t="str">
+      <c r="M75" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O75" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y75" s="1" t="str">
         <f>"support searching for all "&amp;LOWER(B75)&amp;"s for a patient"</f>
         <v>support searching for all observations for a patient</v>
       </c>
-      <c r="Y75" s="5" t="str">
+      <c r="Z75" s="5" t="str">
         <f>"GET [base]/"&amp;B75&amp;"?patient=1137192"</f>
         <v>GET [base]/Observation?patient=1137192</v>
       </c>
-      <c r="Z75" s="12" t="str">
+      <c r="AA75" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B75&amp; " resources for the specified patient"</f>
         <v>Fetches a bundle of all Observation resources for the specified patient</v>
       </c>
-      <c r="AA75" s="1" t="str">
+      <c r="AB75" s="1" t="str">
         <f>"SearchParameter-us-core-"&amp;LOWER((B75)&amp;"-"&amp;C75&amp;".html")</f>
         <v>SearchParameter-us-core-observation-patient.html</v>
       </c>
     </row>
-    <row r="76" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -6608,31 +6627,31 @@
       <c r="H76" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I76" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="J76" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K76" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K76" s="1" t="str">
-        <f t="shared" ref="K76:K78" si="36">B76&amp;"."&amp;C76</f>
+      <c r="L76" s="1" t="str">
+        <f t="shared" ref="L76:L78" si="36">B76&amp;"."&amp;C76</f>
         <v>CarePlan.category</v>
       </c>
-      <c r="L76" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N76" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="X76" s="5"/>
+      <c r="M76" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O76" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="Y76" s="5"/>
-      <c r="Z76" s="12"/>
-      <c r="AA76" s="1" t="str">
-        <f t="shared" ref="AA76:AA78" si="37">"SearchParameter-us-core-"&amp;LOWER((B76)&amp;"-"&amp;C76&amp;".html")</f>
+      <c r="Z76" s="5"/>
+      <c r="AA76" s="12"/>
+      <c r="AB76" s="1" t="str">
+        <f t="shared" ref="AB76:AB78" si="37">"SearchParameter-us-core-"&amp;LOWER((B76)&amp;"-"&amp;C76&amp;".html")</f>
         <v>SearchParameter-us-core-careplan-category.html</v>
       </c>
     </row>
-    <row r="77" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -6658,31 +6677,31 @@
       <c r="H77" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I77" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="J77" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K77" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K77" s="1" t="str">
+      <c r="L77" s="1" t="str">
         <f t="shared" si="36"/>
         <v>!CarePlan.code</v>
       </c>
-      <c r="L77" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N77" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="X77" s="5"/>
+      <c r="M77" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O77" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="Y77" s="5"/>
-      <c r="Z77" s="12"/>
-      <c r="AA77" s="1" t="str">
+      <c r="Z77" s="5"/>
+      <c r="AA77" s="12"/>
+      <c r="AB77" s="1" t="str">
         <f t="shared" si="37"/>
         <v>SearchParameter-us-core-!careplan-code.html</v>
       </c>
     </row>
-    <row r="78" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -6708,35 +6727,35 @@
       <c r="H78" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I78" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="J78" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K78" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="K78" s="1" t="str">
+      <c r="L78" s="1" t="str">
         <f t="shared" si="36"/>
         <v>CarePlan.date</v>
       </c>
-      <c r="L78" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N78" s="1" t="s">
+      <c r="M78" s="1" t="s">
         <v>56</v>
       </c>
       <c r="O78" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="R78" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="P78" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S78" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="Z78" s="12"/>
-      <c r="AA78" s="1" t="str">
+      <c r="AA78" s="12"/>
+      <c r="AB78" s="1" t="str">
         <f t="shared" si="37"/>
         <v>SearchParameter-us-core-careplan-date.html</v>
       </c>
     </row>
-    <row r="79" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -6762,40 +6781,40 @@
       <c r="H79" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I79" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="J79" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K79" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="K79" s="1" t="str">
+      <c r="L79" s="1" t="str">
         <f>B79&amp;"."&amp;C79</f>
         <v>CarePlan.patient</v>
       </c>
-      <c r="L79" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N79" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="X79" s="1" t="str">
+      <c r="M79" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O79" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y79" s="1" t="str">
         <f>"support searching for all "&amp;LOWER(B79)&amp;"s for a patient"</f>
         <v>support searching for all careplans for a patient</v>
       </c>
-      <c r="Y79" s="5" t="str">
+      <c r="Z79" s="5" t="str">
         <f>"GET [base]/"&amp;B79&amp;"?patient=1137192"</f>
         <v>GET [base]/CarePlan?patient=1137192</v>
       </c>
-      <c r="Z79" s="12" t="str">
+      <c r="AA79" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B79&amp; " resources for the specified patient"</f>
         <v>Fetches a bundle of all CarePlan resources for the specified patient</v>
       </c>
-      <c r="AA79" s="1" t="str">
+      <c r="AB79" s="1" t="str">
         <f>"SearchParameter-us-core-"&amp;LOWER((B79)&amp;"-"&amp;C79&amp;".html")</f>
         <v>SearchParameter-us-core-careplan-patient.html</v>
       </c>
     </row>
-    <row r="80" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -6821,34 +6840,34 @@
       <c r="H80" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I80" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="J80" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K80" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K80" s="1" t="str">
-        <f t="shared" ref="K80" si="38">B80&amp;"."&amp;C80</f>
+      <c r="L80" s="1" t="str">
+        <f t="shared" ref="L80" si="38">B80&amp;"."&amp;C80</f>
         <v>CarePlan.status</v>
       </c>
-      <c r="L80" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="M80" s="1" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="X80" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="O80" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="Y80" s="5"/>
-      <c r="Z80" s="12"/>
-      <c r="AA80" s="1" t="str">
-        <f t="shared" ref="AA80" si="39">"SearchParameter-us-core-"&amp;LOWER((B80)&amp;"-"&amp;C80&amp;".html")</f>
+      <c r="Z80" s="5"/>
+      <c r="AA80" s="12"/>
+      <c r="AB80" s="1" t="str">
+        <f t="shared" ref="AB80" si="39">"SearchParameter-us-core-"&amp;LOWER((B80)&amp;"-"&amp;C80&amp;".html")</f>
         <v>SearchParameter-us-core-careplan-status.html</v>
       </c>
     </row>
-    <row r="81" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -6874,40 +6893,40 @@
       <c r="H81" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I81" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="J81" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K81" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="K81" s="1" t="str">
+      <c r="L81" s="1" t="str">
         <f>B81&amp;"."&amp;C81</f>
         <v>CareTeam.patient</v>
       </c>
-      <c r="L81" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N81" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="X81" s="1" t="str">
+      <c r="M81" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O81" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y81" s="1" t="str">
         <f>"support searching for all "&amp;LOWER(B81)&amp;"s for a patient"</f>
         <v>support searching for all careteams for a patient</v>
       </c>
-      <c r="Y81" s="5" t="str">
+      <c r="Z81" s="5" t="str">
         <f>"GET [base]/"&amp;B81&amp;"?patient=1137192"</f>
         <v>GET [base]/CareTeam?patient=1137192</v>
       </c>
-      <c r="Z81" s="12" t="str">
+      <c r="AA81" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B81&amp; " resources for the specified patient"</f>
         <v>Fetches a bundle of all CareTeam resources for the specified patient</v>
       </c>
-      <c r="AA81" s="1" t="str">
+      <c r="AB81" s="1" t="str">
         <f>"SearchParameter-us-core-"&amp;LOWER((B81)&amp;"-"&amp;C81&amp;".html")</f>
         <v>SearchParameter-us-core-careteam-patient.html</v>
       </c>
     </row>
-    <row r="82" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -6933,34 +6952,34 @@
       <c r="H82" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I82" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="J82" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K82" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K82" s="1" t="str">
-        <f t="shared" ref="K82" si="40">B82&amp;"."&amp;C82</f>
+      <c r="L82" s="1" t="str">
+        <f t="shared" ref="L82" si="40">B82&amp;"."&amp;C82</f>
         <v>CareTeam.status</v>
       </c>
-      <c r="L82" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="M82" s="1" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="X82" s="5"/>
+        <v>70</v>
+      </c>
+      <c r="O82" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="Y82" s="5"/>
-      <c r="Z82" s="12"/>
-      <c r="AA82" s="1" t="str">
-        <f t="shared" ref="AA82" si="41">"SearchParameter-us-core-"&amp;LOWER((B82)&amp;"-"&amp;C82&amp;".html")</f>
+      <c r="Z82" s="5"/>
+      <c r="AA82" s="12"/>
+      <c r="AB82" s="1" t="str">
+        <f t="shared" ref="AB82" si="41">"SearchParameter-us-core-"&amp;LOWER((B82)&amp;"-"&amp;C82&amp;".html")</f>
         <v>SearchParameter-us-core-careteam-status.html</v>
       </c>
     </row>
-    <row r="83" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -6986,40 +7005,40 @@
       <c r="H83" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I83" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="J83" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K83" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="K83" s="1" t="str">
-        <f t="shared" ref="K83:K98" si="42">B83&amp;"."&amp;C83</f>
+      <c r="L83" s="1" t="str">
+        <f t="shared" ref="L83:L98" si="42">B83&amp;"."&amp;C83</f>
         <v>Device.patient</v>
       </c>
-      <c r="L83" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N83" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="X83" s="1" t="str">
+      <c r="M83" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O83" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y83" s="1" t="str">
         <f>"support searching for all "&amp;LOWER(B83)&amp;"s for a patient, including implantable devices"</f>
         <v>support searching for all devices for a patient, including implantable devices</v>
       </c>
-      <c r="Y83" s="5" t="str">
+      <c r="Z83" s="5" t="str">
         <f>"GET [base]/"&amp;B83&amp;"?patient=1137192"</f>
         <v>GET [base]/Device?patient=1137192</v>
       </c>
-      <c r="Z83" s="12" t="str">
+      <c r="AA83" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B83&amp; " resources for the specified patient"</f>
         <v>Fetches a bundle of all Device resources for the specified patient</v>
       </c>
-      <c r="AA83" s="1" t="str">
-        <f t="shared" ref="AA83:AA94" si="43">"SearchParameter-us-core-"&amp;LOWER((B83)&amp;"-"&amp;C83&amp;".html")</f>
+      <c r="AB83" s="1" t="str">
+        <f t="shared" ref="AB83:AB94" si="43">"SearchParameter-us-core-"&amp;LOWER((B83)&amp;"-"&amp;C83&amp;".html")</f>
         <v>SearchParameter-us-core-device-patient.html</v>
       </c>
     </row>
-    <row r="84" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -7045,30 +7064,30 @@
       <c r="H84" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I84" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="J84" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K84" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K84" s="1" t="str">
-        <f t="shared" ref="K84" si="44">B84&amp;"."&amp;C84</f>
+      <c r="L84" s="1" t="str">
+        <f t="shared" ref="L84" si="44">B84&amp;"."&amp;C84</f>
         <v>Device.type</v>
       </c>
-      <c r="L84" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N84" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y84" s="5"/>
-      <c r="Z84" s="12"/>
-      <c r="AA84" s="1" t="str">
+      <c r="M84" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O84" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z84" s="5"/>
+      <c r="AA84" s="12"/>
+      <c r="AB84" s="1" t="str">
         <f t="shared" si="43"/>
         <v>SearchParameter-us-core-device-type.html</v>
       </c>
     </row>
-    <row r="85" spans="1:27" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -7091,39 +7110,39 @@
       <c r="H85" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I85" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J85" t="s">
+      <c r="J85" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K85" t="s">
         <v>64</v>
       </c>
-      <c r="K85" s="1" t="str">
+      <c r="L85" s="1" t="str">
         <f t="shared" si="42"/>
         <v>Location.name</v>
       </c>
-      <c r="L85" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N85" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="X85" s="1" t="s">
+      <c r="M85" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O85" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y85" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="Y85" s="5" t="str">
+      <c r="Z85" s="5" t="str">
         <f>"GET [base]/"&amp;B85&amp;"?name=Health"</f>
         <v>GET [base]/Location?name=Health</v>
       </c>
-      <c r="Z85" s="12" t="str">
+      <c r="AA85" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B85&amp; " resources that match the name"</f>
         <v>Fetches a bundle of all Location resources that match the name</v>
       </c>
-      <c r="AA85" t="str">
+      <c r="AB85" t="str">
         <f t="shared" si="43"/>
         <v>SearchParameter-us-core-location-name.html</v>
       </c>
     </row>
-    <row r="86" spans="1:27" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -7146,39 +7165,39 @@
       <c r="H86" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I86" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="J86" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K86" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="K86" s="1" t="str">
+      <c r="L86" s="1" t="str">
         <f t="shared" si="42"/>
         <v>Location.address</v>
       </c>
-      <c r="L86" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N86" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="X86" s="1" t="s">
+      <c r="M86" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O86" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y86" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="Y86" s="5" t="str">
+      <c r="Z86" s="5" t="str">
         <f>"GET [base]/"&amp;B86&amp;"?address=Arbor"</f>
         <v>GET [base]/Location?address=Arbor</v>
       </c>
-      <c r="Z86" s="12" t="str">
+      <c r="AA86" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B86&amp; " resources that match the address string"</f>
         <v>Fetches a bundle of all Location resources that match the address string</v>
       </c>
-      <c r="AA86" t="str">
+      <c r="AB86" t="str">
         <f t="shared" si="43"/>
         <v>SearchParameter-us-core-location-address.html</v>
       </c>
     </row>
-    <row r="87" spans="1:27" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -7201,39 +7220,39 @@
       <c r="H87" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I87" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="J87" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K87" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="K87" s="1" t="str">
+      <c r="L87" s="1" t="str">
         <f t="shared" si="42"/>
         <v>Location.address-city</v>
       </c>
-      <c r="L87" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N87" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="X87" s="1" t="s">
+      <c r="M87" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O87" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y87" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="Y87" s="5" t="str">
+      <c r="Z87" s="5" t="str">
         <f>"GET [base]/"&amp;B87&amp;"?address-city=Ann Arbor"</f>
         <v>GET [base]/Location?address-city=Ann Arbor</v>
       </c>
-      <c r="Z87" s="12" t="str">
+      <c r="AA87" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B87&amp; " resources for the city"</f>
         <v>Fetches a bundle of all Location resources for the city</v>
       </c>
-      <c r="AA87" t="str">
+      <c r="AB87" t="str">
         <f t="shared" si="43"/>
         <v>SearchParameter-us-core-location-address-city.html</v>
       </c>
     </row>
-    <row r="88" spans="1:27" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -7256,38 +7275,38 @@
       <c r="H88" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I88" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="J88" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K88" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="K88" s="1" t="str">
+      <c r="L88" s="1" t="str">
         <f t="shared" si="42"/>
         <v>Location.address-state</v>
       </c>
-      <c r="L88" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N88" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="X88" s="1" t="s">
+      <c r="M88" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O88" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y88" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="Y88" s="5" t="s">
+      <c r="Z88" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="Z88" s="12" t="str">
+      <c r="AA88" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B88&amp; " resources for the state"</f>
         <v>Fetches a bundle of all Location resources for the state</v>
       </c>
-      <c r="AA88" t="str">
+      <c r="AB88" t="str">
         <f t="shared" si="43"/>
         <v>SearchParameter-us-core-location-address-state.html</v>
       </c>
     </row>
-    <row r="89" spans="1:27" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -7310,39 +7329,39 @@
       <c r="H89" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I89" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="J89" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K89" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="K89" s="1" t="str">
+      <c r="L89" s="1" t="str">
         <f t="shared" si="42"/>
         <v>Location.address-postalcode</v>
       </c>
-      <c r="L89" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N89" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="X89" s="1" t="s">
+      <c r="M89" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O89" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y89" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="Y89" s="5" t="str">
+      <c r="Z89" s="5" t="str">
         <f>"GET [base]/"&amp;B89&amp;"?address-postalcode=48104"</f>
         <v>GET [base]/Location?address-postalcode=48104</v>
       </c>
-      <c r="Z89" s="12" t="str">
+      <c r="AA89" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B89&amp; " resources for the ZIP code"</f>
         <v>Fetches a bundle of all Location resources for the ZIP code</v>
       </c>
-      <c r="AA89" t="str">
+      <c r="AB89" t="str">
         <f t="shared" si="43"/>
         <v>SearchParameter-us-core-location-address-postalcode.html</v>
       </c>
     </row>
-    <row r="90" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -7365,39 +7384,39 @@
       <c r="H90" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I90" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="J90" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K90" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="K90" s="1" t="str">
+      <c r="L90" s="1" t="str">
         <f t="shared" si="42"/>
         <v>Organization.name</v>
       </c>
-      <c r="L90" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N90" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="X90" s="1" t="s">
+      <c r="M90" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O90" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y90" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="Y90" s="5" t="str">
+      <c r="Z90" s="5" t="str">
         <f>"GET [base]/"&amp;B90&amp;"?name=Health"</f>
         <v>GET [base]/Organization?name=Health</v>
       </c>
-      <c r="Z90" s="12" t="str">
+      <c r="AA90" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B90&amp; " resources that match the name"</f>
         <v>Fetches a bundle of all Organization resources that match the name</v>
       </c>
-      <c r="AA90" s="1" t="str">
+      <c r="AB90" s="1" t="str">
         <f t="shared" si="43"/>
         <v>SearchParameter-us-core-organization-name.html</v>
       </c>
     </row>
-    <row r="91" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -7420,39 +7439,39 @@
       <c r="H91" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I91" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="J91" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K91" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="K91" s="1" t="str">
+      <c r="L91" s="1" t="str">
         <f t="shared" si="42"/>
         <v>Organization.address</v>
       </c>
-      <c r="L91" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N91" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="X91" s="1" t="s">
+      <c r="M91" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O91" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y91" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="Y91" s="5" t="str">
+      <c r="Z91" s="5" t="str">
         <f>"GET [base]/"&amp;B91&amp;"?address=Arbor"</f>
         <v>GET [base]/Organization?address=Arbor</v>
       </c>
-      <c r="Z91" s="12" t="str">
+      <c r="AA91" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B91&amp; " resources that match the address string"</f>
         <v>Fetches a bundle of all Organization resources that match the address string</v>
       </c>
-      <c r="AA91" s="1" t="str">
+      <c r="AB91" s="1" t="str">
         <f t="shared" si="43"/>
         <v>SearchParameter-us-core-organization-address.html</v>
       </c>
     </row>
-    <row r="92" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -7475,39 +7494,39 @@
       <c r="H92" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I92" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="J92" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K92" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="K92" s="1" t="str">
+      <c r="L92" s="1" t="str">
         <f t="shared" si="42"/>
         <v>!Organization.address-city</v>
       </c>
-      <c r="L92" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N92" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="X92" s="1" t="s">
+      <c r="M92" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O92" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y92" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="Y92" s="5" t="str">
+      <c r="Z92" s="5" t="str">
         <f>"GET [base]/"&amp;B92&amp;"?address-city=Ann Arbor"</f>
         <v>GET [base]/!Organization?address-city=Ann Arbor</v>
       </c>
-      <c r="Z92" s="12" t="str">
+      <c r="AA92" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B92&amp; " resources for the city"</f>
         <v>Fetches a bundle of all !Organization resources for the city</v>
       </c>
-      <c r="AA92" s="1" t="str">
+      <c r="AB92" s="1" t="str">
         <f t="shared" si="43"/>
         <v>SearchParameter-us-core-!organization-address-city.html</v>
       </c>
     </row>
-    <row r="93" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -7530,39 +7549,39 @@
       <c r="H93" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I93" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="J93" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K93" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="K93" s="1" t="str">
+      <c r="L93" s="1" t="str">
         <f t="shared" si="42"/>
         <v>!Organization.adress-state</v>
       </c>
-      <c r="L93" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N93" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="X93" s="1" t="s">
+      <c r="M93" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O93" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y93" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="Y93" s="5" t="str">
+      <c r="Z93" s="5" t="str">
         <f>"GET [base]/"&amp;B93&amp;"?address-state=MI"</f>
         <v>GET [base]/!Organization?address-state=MI</v>
       </c>
-      <c r="Z93" s="12" t="str">
+      <c r="AA93" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B93&amp; " resources for the state"</f>
         <v>Fetches a bundle of all !Organization resources for the state</v>
       </c>
-      <c r="AA93" s="1" t="str">
+      <c r="AB93" s="1" t="str">
         <f t="shared" si="43"/>
         <v>SearchParameter-us-core-!organization-adress-state.html</v>
       </c>
     </row>
-    <row r="94" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -7585,39 +7604,39 @@
       <c r="H94" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I94" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="J94" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K94" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="K94" s="1" t="str">
+      <c r="L94" s="1" t="str">
         <f t="shared" si="42"/>
         <v>!Organization.address-postalcode</v>
       </c>
-      <c r="L94" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N94" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="X94" s="1" t="s">
+      <c r="M94" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O94" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y94" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="Y94" s="5" t="str">
+      <c r="Z94" s="5" t="str">
         <f>"GET [base]/"&amp;B94&amp;"?address-postalcode=48104"</f>
         <v>GET [base]/!Organization?address-postalcode=48104</v>
       </c>
-      <c r="Z94" s="12" t="str">
+      <c r="AA94" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B94&amp; " resources for the ZIP code"</f>
         <v>Fetches a bundle of all !Organization resources for the ZIP code</v>
       </c>
-      <c r="AA94" s="1" t="str">
+      <c r="AB94" s="1" t="str">
         <f t="shared" si="43"/>
         <v>SearchParameter-us-core-!organization-address-postalcode.html</v>
       </c>
     </row>
-    <row r="95" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -7640,39 +7659,39 @@
       <c r="H95" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I95" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="J95" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K95" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="K95" s="1" t="str">
+      <c r="L95" s="1" t="str">
         <f t="shared" si="42"/>
         <v>Practitioner.name</v>
       </c>
-      <c r="L95" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N95" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="X95" s="5" t="s">
+      <c r="M95" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O95" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y95" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="Y95" s="5" t="str">
+      <c r="Z95" s="5" t="str">
         <f>"GET [base]/"&amp;B95&amp;"?name=Smith"</f>
         <v>GET [base]/Practitioner?name=Smith</v>
       </c>
-      <c r="Z95" s="12" t="str">
+      <c r="AA95" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B95&amp;" resources matching the name"</f>
         <v>Fetches a bundle of all Practitioner resources matching the name</v>
       </c>
-      <c r="AA95" s="1" t="str">
-        <f t="shared" ref="AA95:AA96" si="45">"SearchParameter-us-core-"&amp;LOWER((B95)&amp;"-"&amp;SUBSTITUTE(C95,"_","")&amp;".html")</f>
+      <c r="AB95" s="1" t="str">
+        <f t="shared" ref="AB95:AB96" si="45">"SearchParameter-us-core-"&amp;LOWER((B95)&amp;"-"&amp;SUBSTITUTE(C95,"_","")&amp;".html")</f>
         <v>SearchParameter-us-core-practitioner-name.html</v>
       </c>
     </row>
-    <row r="96" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -7698,39 +7717,39 @@
       <c r="H96" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I96" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="J96" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K96" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K96" s="1" t="str">
+      <c r="L96" s="1" t="str">
         <f t="shared" si="42"/>
         <v>Practitioner.identifier</v>
       </c>
-      <c r="L96" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N96" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="X96" s="5" t="s">
+      <c r="M96" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O96" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y96" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="Y96" s="5" t="str">
+      <c r="Z96" s="5" t="str">
         <f>"GET [base]/"&amp;B96&amp;"?dentifier=http://hl7.org/fhir/sid/us-npi\|97860456"</f>
         <v>GET [base]/Practitioner?dentifier=http://hl7.org/fhir/sid/us-npi\|97860456</v>
       </c>
-      <c r="Z96" s="12" t="str">
+      <c r="AA96" s="12" t="str">
         <f>"Fetches a bundle containing any "&amp;B96&amp;" resources matching the identifier"</f>
         <v>Fetches a bundle containing any Practitioner resources matching the identifier</v>
       </c>
-      <c r="AA96" s="1" t="str">
+      <c r="AB96" s="1" t="str">
         <f t="shared" si="45"/>
         <v>SearchParameter-us-core-practitioner-identifier.html</v>
       </c>
     </row>
-    <row r="97" spans="1:27" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -7756,42 +7775,42 @@
       <c r="H97" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I97" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="J97" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K97" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K97" s="1" t="str">
+      <c r="L97" s="1" t="str">
         <f t="shared" si="42"/>
         <v>PractitionerRole.specialty</v>
       </c>
-      <c r="L97" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N97" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="W97" s="1" t="s">
+      <c r="M97" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O97" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="X97" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="X97" s="5" t="s">
+      <c r="Y97" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="Y97" s="5" t="str">
+      <c r="Z97" s="5" t="str">
         <f>"GET [base]/"&amp;B97&amp;"?specialty=http://nucc.org/provider-taxonomy\|208D0000X"</f>
         <v>GET [base]/PractitionerRole?specialty=http://nucc.org/provider-taxonomy\|208D0000X</v>
       </c>
-      <c r="Z97" s="12" t="str">
+      <c r="AA97" s="12" t="str">
         <f>"Fetches a bundle containing  "&amp;B97&amp;" resources matching the specialty"</f>
         <v>Fetches a bundle containing  PractitionerRole resources matching the specialty</v>
       </c>
-      <c r="AA97" s="1" t="str">
-        <f t="shared" ref="AA97" si="46">"SearchParameter-us-core-"&amp;LOWER((B97)&amp;"-"&amp;SUBSTITUTE(C97,"_","")&amp;".html")</f>
+      <c r="AB97" s="1" t="str">
+        <f t="shared" ref="AB97" si="46">"SearchParameter-us-core-"&amp;LOWER((B97)&amp;"-"&amp;SUBSTITUTE(C97,"_","")&amp;".html")</f>
         <v>SearchParameter-us-core-practitionerrole-specialty.html</v>
       </c>
     </row>
-    <row r="98" spans="1:27" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -7817,53 +7836,53 @@
       <c r="H98" t="s">
         <v>56</v>
       </c>
-      <c r="I98" t="s">
-        <v>56</v>
-      </c>
       <c r="J98" t="s">
+        <v>56</v>
+      </c>
+      <c r="K98" t="s">
         <v>91</v>
       </c>
-      <c r="K98" s="1" t="str">
+      <c r="L98" s="1" t="str">
         <f t="shared" si="42"/>
         <v>PractitionerRole.practitioner</v>
       </c>
-      <c r="L98" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N98" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="T98" s="1" t="s">
+      <c r="M98" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O98" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="U98" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="W98" s="1" t="s">
+      <c r="X98" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="X98" s="5" t="s">
+      <c r="Y98" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="Y98" s="5" t="str">
+      <c r="Z98" s="5" t="str">
         <f>_xlfn.CONCAT("GET [base]/",B98,"?practitioner.identifier=http://hl7.org/fhir/sid/us-npi\|97860456&amp;_include=PractitionerRole:practitioner","&amp;_include=PractitionerRole?endpoint~GET [base]/PractitionerRole?practitioner.name=Henry&amp;_include=PractitionerRole:practitioner&amp;_include=PractitionerRole?endpoint")</f>
         <v>GET [base]/PractitionerRole?practitioner.identifier=http://hl7.org/fhir/sid/us-npi\|97860456&amp;_include=PractitionerRole:practitioner&amp;_include=PractitionerRole?endpoint~GET [base]/PractitionerRole?practitioner.name=Henry&amp;_include=PractitionerRole:practitioner&amp;_include=PractitionerRole?endpoint</v>
       </c>
-      <c r="Z98" s="12" t="str">
+      <c r="AA98" s="12" t="str">
         <f>"Fetches a bundle containing  "&amp;B98&amp;" resources matching the chained parameter practitioner.name or practitioner.identifier. SHOULD support the _include for PractionerRole.practitioner and PractitionerRole.endpoint."</f>
         <v>Fetches a bundle containing  PractitionerRole resources matching the chained parameter practitioner.name or practitioner.identifier. SHOULD support the _include for PractionerRole.practitioner and PractitionerRole.endpoint.</v>
       </c>
-      <c r="AA98" t="str">
+      <c r="AB98" t="str">
         <f>"SearchParameter-us-core-"&amp;LOWER((B98)&amp;"-"&amp;SUBSTITUTE(C98,"_","")&amp;".html")</f>
         <v>SearchParameter-us-core-practitionerrole-practitioner.html</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AA98" xr:uid="{1CF5B17E-E72E-48B2-A597-9C21C12723F0}">
+  <autoFilter ref="A1:AB98" xr:uid="{1CF5B17E-E72E-48B2-A597-9C21C12723F0}">
     <filterColumn colId="1">
       <filters>
         <filter val="Condition"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:Z34">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:AA34">
     <sortCondition ref="B1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7874,10 +7893,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:P88"/>
+  <dimension ref="A1:Q88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7886,15 +7905,16 @@
     <col min="2" max="2" width="21.1640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="96.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="33" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="121.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="88.83203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="120" style="1" customWidth="1"/>
-    <col min="10" max="10" width="83.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="121.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="88.83203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="120" style="1" customWidth="1"/>
+    <col min="11" max="11" width="83.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>143</v>
       </c>
@@ -7908,25 +7928,28 @@
         <v>96</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -7940,18 +7963,18 @@
       <c r="D2" t="s">
         <v>99</v>
       </c>
-      <c r="E2" t="s">
-        <v>70</v>
-      </c>
       <c r="F2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" t="s">
         <v>100</v>
       </c>
-      <c r="J2" s="5" t="str">
-        <f t="shared" ref="J2:J32" si="1">"Fetches a bundle of all "&amp;B2&amp;" resources matching the specified "&amp;SUBSTITUTE(D2,","," and ")</f>
+      <c r="K2" s="5" t="str">
+        <f t="shared" ref="K2:K32" si="1">"Fetches a bundle of all "&amp;B2&amp;" resources matching the specified "&amp;SUBSTITUTE(D2,","," and ")</f>
         <v>Fetches a bundle of all !Encounter resources matching the specified class and date</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -7965,18 +7988,18 @@
       <c r="D3" t="s">
         <v>101</v>
       </c>
-      <c r="E3" t="s">
-        <v>70</v>
-      </c>
       <c r="F3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" t="s">
         <v>102</v>
       </c>
-      <c r="J3" s="5" t="str">
+      <c r="K3" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Fetches a bundle of all !Encounter resources matching the specified class and date and patient</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -7990,18 +8013,18 @@
       <c r="D4" t="s">
         <v>103</v>
       </c>
-      <c r="E4" t="s">
-        <v>70</v>
-      </c>
       <c r="F4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" t="s">
         <v>102</v>
       </c>
-      <c r="J4" s="5" t="str">
+      <c r="K4" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Fetches a bundle of all !Encounter resources matching the specified class and date and patient and type</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -8015,18 +8038,18 @@
       <c r="D5" t="s">
         <v>104</v>
       </c>
-      <c r="E5" t="s">
-        <v>70</v>
-      </c>
       <c r="F5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" t="s">
         <v>100</v>
       </c>
-      <c r="J5" s="5" t="str">
+      <c r="K5" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Fetches a bundle of all !Encounter resources matching the specified class and date and type</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -8040,24 +8063,24 @@
       <c r="D6" t="s">
         <v>105</v>
       </c>
-      <c r="E6" t="s">
-        <v>70</v>
-      </c>
       <c r="F6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" t="s">
         <v>106</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="J6" s="5" t="str">
+      <c r="K6" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Fetches a bundle of all Encounter resources matching the specified class and patient</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -8071,18 +8094,18 @@
       <c r="D7" t="s">
         <v>107</v>
       </c>
-      <c r="E7" t="s">
-        <v>70</v>
-      </c>
       <c r="F7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" t="s">
         <v>106</v>
       </c>
-      <c r="J7" s="5" t="str">
+      <c r="K7" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Fetches a bundle of all !Encounter resources matching the specified class and patient and status</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -8096,18 +8119,18 @@
       <c r="D8" t="s">
         <v>108</v>
       </c>
-      <c r="E8" t="s">
-        <v>70</v>
-      </c>
       <c r="F8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" t="s">
         <v>106</v>
       </c>
-      <c r="J8" s="5" t="str">
+      <c r="K8" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Fetches a bundle of all !Encounter resources matching the specified class and patient and status and type</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -8121,19 +8144,19 @@
       <c r="D9" t="s">
         <v>109</v>
       </c>
-      <c r="E9" t="s">
-        <v>70</v>
-      </c>
       <c r="F9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" t="s">
         <v>106</v>
       </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5" t="str">
+      <c r="J9" s="5"/>
+      <c r="K9" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Fetches a bundle of all !Encounter resources matching the specified class and patient and type</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -8147,20 +8170,20 @@
       <c r="D10" t="s">
         <v>110</v>
       </c>
-      <c r="E10" t="s">
-        <v>70</v>
-      </c>
       <c r="F10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" t="s">
         <v>57</v>
       </c>
-      <c r="H10" s="5"/>
       <c r="I10" s="5"/>
-      <c r="J10" s="5" t="str">
+      <c r="J10" s="5"/>
+      <c r="K10" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Fetches a bundle of all !Encounter resources matching the specified class and status</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -8174,19 +8197,19 @@
       <c r="D11" t="s">
         <v>111</v>
       </c>
-      <c r="E11" t="s">
-        <v>70</v>
-      </c>
       <c r="F11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" t="s">
         <v>57</v>
       </c>
-      <c r="H11" s="5"/>
-      <c r="J11" s="5" t="str">
+      <c r="I11" s="5"/>
+      <c r="K11" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Fetches a bundle of all !Encounter resources matching the specified class and status and type</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -8200,18 +8223,18 @@
       <c r="D12" t="s">
         <v>94</v>
       </c>
-      <c r="E12" t="s">
-        <v>70</v>
-      </c>
       <c r="F12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" t="s">
         <v>57</v>
       </c>
-      <c r="J12" s="5" t="str">
+      <c r="K12" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Fetches a bundle of all !Encounter resources matching the specified class and type</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -8225,24 +8248,24 @@
       <c r="D13" t="s">
         <v>112</v>
       </c>
-      <c r="E13" t="s">
-        <v>12</v>
-      </c>
       <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
         <v>113</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="I13" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="J13" s="5" t="str">
+      <c r="K13" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Fetches a bundle of all Encounter resources matching the specified date and patient</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -8256,18 +8279,18 @@
       <c r="D14" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="F14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="J14" s="5" t="str">
+      <c r="K14" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Fetches a bundle of all !Encounter resources matching the specified date and patient and type</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -8281,18 +8304,18 @@
       <c r="D15" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="F15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="J15" s="5" t="str">
+      <c r="K15" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Fetches a bundle of all !Encounter resources matching the specified date and type</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -8306,24 +8329,24 @@
       <c r="D16" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="F16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="I16" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="J16" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="J16" s="5" t="str">
+      <c r="K16" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Fetches a bundle of all Encounter resources matching the specified patient and type</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -8337,19 +8360,19 @@
       <c r="D17" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="F17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5" t="str">
+      <c r="J17" s="5"/>
+      <c r="K17" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Fetches a bundle of all !Encounter resources matching the specified patient and status and type</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -8363,24 +8386,24 @@
       <c r="D18" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="F18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="I18" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="J18" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="J18" s="5" t="str">
+      <c r="K18" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Fetches a bundle of all Encounter resources matching the specified patient and status</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -8394,20 +8417,20 @@
       <c r="D19" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="F19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H19" s="5"/>
       <c r="I19" s="5"/>
-      <c r="J19" s="5" t="str">
+      <c r="J19" s="5"/>
+      <c r="K19" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Fetches a bundle of all !Encounter resources matching the specified status and type</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>21</v>
       </c>
@@ -8421,19 +8444,19 @@
       <c r="D20" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="F20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5" t="str">
+      <c r="J20" s="5"/>
+      <c r="K20" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Fetches a bundle of all !Questionnaire resources matching the specified context-type-value and publisher</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>22</v>
       </c>
@@ -8447,18 +8470,18 @@
       <c r="D21" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="F21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="J21" s="5" t="str">
+      <c r="K21" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Fetches a bundle of all !Questionnaire resources matching the specified context-type-value and publisher and status</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>23</v>
       </c>
@@ -8472,19 +8495,19 @@
       <c r="D22" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="F22" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="H22" s="5"/>
-      <c r="J22" s="5" t="str">
+      <c r="I22" s="5"/>
+      <c r="K22" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Fetches a bundle of all !Questionnaire resources matching the specified context-type-value and status</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>24</v>
       </c>
@@ -8498,20 +8521,20 @@
       <c r="D23" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="F23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="H23" s="5"/>
       <c r="I23" s="5"/>
-      <c r="J23" s="5" t="str">
+      <c r="J23" s="5"/>
+      <c r="K23" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Fetches a bundle of all !Questionnaire resources matching the specified publisher and status</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>25</v>
       </c>
@@ -8525,20 +8548,20 @@
       <c r="D24" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="F24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="H24" s="5"/>
       <c r="I24" s="5"/>
-      <c r="J24" s="5" t="str">
+      <c r="J24" s="5"/>
+      <c r="K24" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Fetches a bundle of all !Questionnaire resources matching the specified publisher and status and version</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>26</v>
       </c>
@@ -8552,20 +8575,20 @@
       <c r="D25" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="F25" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="H25" s="5"/>
       <c r="I25" s="5"/>
-      <c r="J25" s="5" t="str">
+      <c r="J25" s="5"/>
+      <c r="K25" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Fetches a bundle of all !Questionnaire resources matching the specified publisher and version</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>27</v>
       </c>
@@ -8579,18 +8602,18 @@
       <c r="D26" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="F26" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="J26" s="5" t="str">
+      <c r="K26" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Fetches a bundle of all !Questionnaire resources matching the specified status and title and version</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>28</v>
       </c>
@@ -8604,18 +8627,18 @@
       <c r="D27" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="F27" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="J27" s="5" t="str">
+      <c r="K27" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Fetches a bundle of all !Questionnaire resources matching the specified status and version</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>29</v>
       </c>
@@ -8629,18 +8652,18 @@
       <c r="D28" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="F28" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="J28" s="5" t="str">
+      <c r="K28" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Fetches a bundle of all !Questionnaire resources matching the specified title and version</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>30</v>
       </c>
@@ -8654,24 +8677,24 @@
       <c r="D29" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="F29" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="H29" s="5" t="s">
+      <c r="I29" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="I29" s="5" t="s">
+      <c r="J29" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="J29" s="5" t="str">
+      <c r="K29" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Fetches a bundle of all Patient resources matching the specified birthdate and family</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>31</v>
       </c>
@@ -8685,24 +8708,24 @@
       <c r="D30" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="F30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="H30" s="5" t="s">
+      <c r="I30" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="I30" s="5" t="s">
+      <c r="J30" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="J30" s="5" t="str">
+      <c r="K30" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Fetches a bundle of all Patient resources matching the specified birthdate and name</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>32</v>
       </c>
@@ -8716,24 +8739,24 @@
       <c r="D31" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="F31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G31" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="H31" s="5" t="s">
+      <c r="I31" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="I31" s="5" t="s">
+      <c r="J31" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="J31" s="5" t="str">
+      <c r="K31" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Fetches a bundle of all Patient resources matching the specified family and gender</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>33</v>
       </c>
@@ -8747,24 +8770,24 @@
       <c r="D32" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="F32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="H32" s="5" t="s">
+      <c r="I32" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="I32" s="5" t="s">
+      <c r="J32" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="J32" s="5" t="str">
+      <c r="K32" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Fetches a bundle of all Patient resources matching the specified gender and name</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>36</v>
       </c>
@@ -8778,26 +8801,26 @@
       <c r="D33" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="F33" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="H33" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="H33" s="5" t="s">
+      <c r="I33" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="I33" s="5" t="s">
+      <c r="J33" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="J33" s="5" t="s">
+      <c r="K33" s="5" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>37</v>
       </c>
@@ -8811,23 +8834,23 @@
       <c r="D34" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="F34" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="H34" s="5" t="s">
+      <c r="I34" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="I34" s="5" t="s">
+      <c r="J34" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="J34" s="5" t="s">
+      <c r="K34" s="5" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="35" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>37</v>
       </c>
@@ -8841,23 +8864,23 @@
       <c r="D35" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="F35" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="H35" s="5" t="s">
+      <c r="I35" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="I35" s="5" t="s">
+      <c r="J35" s="5" t="s">
         <v>585</v>
       </c>
-      <c r="J35" s="5" t="s">
+      <c r="K35" s="5" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>38</v>
       </c>
@@ -8871,23 +8894,23 @@
       <c r="D36" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="F36" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G36" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="H36" s="5" t="s">
+      <c r="I36" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="I36" s="5" t="s">
+      <c r="J36" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="J36" s="5" t="s">
+      <c r="K36" s="5" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>39</v>
       </c>
@@ -8901,23 +8924,23 @@
       <c r="D37" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="F37" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H37" s="5" t="s">
+      <c r="I37" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="I37" s="5" t="s">
+      <c r="J37" s="5" t="s">
         <v>581</v>
       </c>
-      <c r="J37" s="5" t="s">
+      <c r="K37" s="5" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>39</v>
       </c>
@@ -8931,23 +8954,23 @@
       <c r="D38" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="F38" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H38" s="5" t="s">
+      <c r="I38" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="I38" s="5" t="s">
+      <c r="J38" s="5" t="s">
         <v>582</v>
       </c>
-      <c r="J38" s="5" t="s">
+      <c r="K38" s="5" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="39" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>39</v>
       </c>
@@ -8961,23 +8984,23 @@
       <c r="D39" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="F39" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H39" s="5" t="s">
+      <c r="I39" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="I39" s="5" t="s">
+      <c r="J39" s="5" t="s">
         <v>583</v>
       </c>
-      <c r="J39" s="5" t="s">
+      <c r="K39" s="5" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -8991,23 +9014,23 @@
       <c r="D40" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="F40" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G40" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H40" s="5" t="s">
+      <c r="I40" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="I40" s="5" t="s">
+      <c r="J40" s="5" t="s">
         <v>584</v>
       </c>
-      <c r="J40" s="5" t="s">
+      <c r="K40" s="5" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="41" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>42</v>
       </c>
@@ -9021,23 +9044,23 @@
       <c r="D41" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="F41" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G41" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="H41" s="5" t="s">
+      <c r="I41" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="I41" s="5" t="s">
+      <c r="J41" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="J41" s="5" t="s">
+      <c r="K41" s="5" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="42" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>45</v>
       </c>
@@ -9051,24 +9074,24 @@
       <c r="D42" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="F42" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G42" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="H42" s="5" t="s">
+      <c r="I42" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="I42" s="5" t="s">
+      <c r="J42" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="J42" s="5" t="str">
+      <c r="K42" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B42&amp;" resources for the specified "&amp;SUBSTITUTE(D42,","," and ")</f>
         <v>Fetches a bundle of all Immunization resources for the specified patient and date</v>
       </c>
     </row>
-    <row r="43" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>46</v>
       </c>
@@ -9082,24 +9105,24 @@
       <c r="D43" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="F43" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G43" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H43" s="5" t="s">
+      <c r="I43" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="I43" s="5" t="s">
+      <c r="J43" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="J43" s="5" t="str">
+      <c r="K43" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B43&amp;" resources for the specified "&amp;SUBSTITUTE(D43,","," and ")</f>
         <v>Fetches a bundle of all Immunization resources for the specified patient and status</v>
       </c>
     </row>
-    <row r="44" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>49</v>
       </c>
@@ -9112,24 +9135,24 @@
       <c r="D44" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="F44" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G44" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="H44" s="5" t="s">
+      <c r="I44" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="I44" s="5" t="s">
+      <c r="J44" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="J44" s="5" t="str">
+      <c r="K44" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B44&amp;" resources for the specified "&amp;SUBSTITUTE(D44,","," and ")</f>
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and status</v>
       </c>
     </row>
-    <row r="45" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>50</v>
       </c>
@@ -9142,27 +9165,27 @@
       <c r="D45" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="F45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="H45" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="H45" s="5" t="s">
+      <c r="I45" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="I45" s="9" t="s">
+      <c r="J45" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="J45" s="5" t="str">
+      <c r="K45" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B45&amp;" resources for the specified patient and  a category code = `LAB`"</f>
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and  a category code = `LAB`</v>
       </c>
     </row>
-    <row r="46" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>51</v>
       </c>
@@ -9175,24 +9198,24 @@
       <c r="D46" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E46" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="F46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="H46" s="5" t="s">
+      <c r="I46" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="I46" s="9" t="s">
+      <c r="J46" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="J46" s="5" t="str">
+      <c r="K46" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B46&amp;" resources for the specified patient and  report code(s).  SHOULD support search by multiple report codes."</f>
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and  report code(s).  SHOULD support search by multiple report codes.</v>
       </c>
     </row>
-    <row r="47" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>52</v>
       </c>
@@ -9205,27 +9228,27 @@
       <c r="D47" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="E47" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="F47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="H47" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="H47" s="5" t="s">
+      <c r="I47" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="I47" s="9" t="s">
+      <c r="J47" s="9" t="s">
         <v>531</v>
       </c>
-      <c r="J47" s="5" t="str">
+      <c r="K47" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B47&amp;" resources for the specified patient and date and a category code = `LAB`"</f>
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and a category code = `LAB`</v>
       </c>
     </row>
-    <row r="48" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>53</v>
       </c>
@@ -9238,24 +9261,24 @@
       <c r="D48" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="E48" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="F48" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G48" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="H48" s="5" t="s">
+      <c r="I48" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="I48" s="5" t="s">
+      <c r="J48" s="5" t="s">
         <v>532</v>
       </c>
-      <c r="J48" s="5" t="str">
+      <c r="K48" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B48&amp;" resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes."</f>
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes.</v>
       </c>
     </row>
-    <row r="49" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>56</v>
       </c>
@@ -9268,24 +9291,24 @@
       <c r="D49" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E49" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="F49" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G49" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="H49" s="5" t="s">
+      <c r="I49" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="I49" s="5" t="s">
+      <c r="J49" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="J49" s="5" t="str">
+      <c r="K49" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B49&amp;" resources for the specified "&amp;SUBSTITUTE(D49,","," and ")</f>
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and status</v>
       </c>
     </row>
-    <row r="50" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>57</v>
       </c>
@@ -9298,24 +9321,24 @@
       <c r="D50" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E50" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="F50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="H50" s="5" t="s">
+      <c r="I50" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="I50" s="5" t="s">
+      <c r="J50" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="J50" s="5" t="str">
+      <c r="K50" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B50&amp;" resources for the specified patient and  a category code specified in US Core DiagnosticReport Category Codes"</f>
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and  a category code specified in US Core DiagnosticReport Category Codes</v>
       </c>
     </row>
-    <row r="51" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>58</v>
       </c>
@@ -9328,24 +9351,24 @@
       <c r="D51" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E51" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="F51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="H51" s="5" t="s">
+      <c r="I51" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="I51" s="5" t="s">
+      <c r="J51" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="J51" s="5" t="str">
+      <c r="K51" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B51&amp;" resources for the specified patient and  report code(s).  SHOULD support search by multiple report codes."</f>
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and  report code(s).  SHOULD support search by multiple report codes.</v>
       </c>
     </row>
-    <row r="52" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>59</v>
       </c>
@@ -9358,24 +9381,24 @@
       <c r="D52" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="E52" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="F52" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G52" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="H52" s="5" t="s">
+      <c r="I52" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="I52" s="5" t="s">
+      <c r="J52" s="5" t="s">
         <v>533</v>
       </c>
-      <c r="J52" s="5" t="str">
+      <c r="K52" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B52&amp;" resources for the specified patient and date and a category code specified in US Core DiagnosticReport Category Codes"</f>
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and a category code specified in US Core DiagnosticReport Category Codes</v>
       </c>
     </row>
-    <row r="53" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>60</v>
       </c>
@@ -9388,24 +9411,24 @@
       <c r="D53" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="E53" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="F53" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G53" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="H53" s="5" t="s">
+      <c r="I53" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="I53" s="5" t="s">
+      <c r="J53" s="5" t="s">
         <v>532</v>
       </c>
-      <c r="J53" s="5" t="str">
+      <c r="K53" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B53&amp;" resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes."</f>
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes.</v>
       </c>
     </row>
-    <row r="54" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>63</v>
       </c>
@@ -9419,24 +9442,24 @@
       <c r="D54" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="E54" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="F54" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G54" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="H54" s="5" t="s">
+      <c r="I54" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="I54" s="5" t="s">
+      <c r="J54" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="J54" s="5" t="str">
+      <c r="K54" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B54&amp;" resources for the specified "&amp;SUBSTITUTE(D54,","," and ")</f>
         <v>Fetches a bundle of all Goal resources for the specified patient and lifecycle-status</v>
       </c>
     </row>
-    <row r="55" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>64</v>
       </c>
@@ -9450,24 +9473,24 @@
       <c r="D55" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="E55" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="F55" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G55" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H55" s="5" t="s">
+      <c r="I55" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="I55" s="5" t="s">
+      <c r="J55" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="J55" s="5" t="str">
+      <c r="K55" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B55&amp;" resources for the specified "&amp;SUBSTITUTE(D55,","," and ")</f>
         <v>Fetches a bundle of all Goal resources for the specified patient and target-date</v>
       </c>
     </row>
-    <row r="56" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>67</v>
       </c>
@@ -9481,26 +9504,26 @@
       <c r="D56" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="E56" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="F56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G56" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="H56" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="H56" s="5" t="s">
+      <c r="I56" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="I56" s="5" t="s">
+      <c r="J56" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="J56" s="5" t="s">
+      <c r="K56" s="5" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="57" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>68</v>
       </c>
@@ -9514,26 +9537,26 @@
       <c r="D57" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="E57" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="F57" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G57" s="1" t="s">
+      <c r="H57" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="H57" s="5" t="s">
+      <c r="I57" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="I57" s="5" t="s">
+      <c r="J57" s="5" t="s">
         <v>467</v>
       </c>
-      <c r="J57" s="5" t="s">
+      <c r="K57" s="5" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="58" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>69</v>
       </c>
@@ -9547,26 +9570,26 @@
       <c r="D58" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="E58" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="F58" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G58" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G58" s="1" t="s">
+      <c r="H58" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="H58" s="5" t="s">
+      <c r="I58" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="I58" s="5" t="s">
+      <c r="J58" s="5" t="s">
         <v>468</v>
       </c>
-      <c r="J58" s="5" t="s">
+      <c r="K58" s="5" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="59" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>70</v>
       </c>
@@ -9580,26 +9603,26 @@
       <c r="D59" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="E59" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="F59" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G59" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="G59" s="1" t="s">
+      <c r="H59" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="H59" s="5" t="s">
+      <c r="I59" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="I59" s="5" t="s">
+      <c r="J59" s="5" t="s">
         <v>534</v>
       </c>
-      <c r="J59" s="5" t="s">
+      <c r="K59" s="5" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="60" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>73</v>
       </c>
@@ -9613,26 +9636,26 @@
       <c r="D60" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E60" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="F60" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G60" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="H60" s="5" t="s">
+      <c r="I60" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="I60" s="5" t="s">
+      <c r="J60" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="J60" s="5" t="str">
+      <c r="K60" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B60&amp;" resources for the specified "&amp;SUBSTITUTE(D60,","," and ")</f>
         <v>Fetches a bundle of all !MedicationStatement resources for the specified patient and status</v>
       </c>
     </row>
-    <row r="61" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <f>SUBTOTAL(9,L101)</f>
+        <f>SUBTOTAL(9,M101)</f>
         <v>0</v>
       </c>
       <c r="B61" s="1" t="s">
@@ -9645,23 +9668,23 @@
       <c r="D61" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="E61" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="F61" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G61" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H61" s="5" t="s">
+      <c r="I61" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="I61" s="5" t="s">
+      <c r="J61" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="J61" s="5" t="s">
+      <c r="K61" s="5" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="62" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>75</v>
       </c>
@@ -9675,24 +9698,24 @@
       <c r="D62" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E62" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="F62" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G62" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="H62" s="5" t="s">
+      <c r="I62" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="I62" s="5" t="s">
+      <c r="J62" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="J62" s="5" t="str">
+      <c r="K62" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B62&amp;" resources for the specified "&amp;SUBSTITUTE(D62,","," and ")</f>
         <v>Fetches a bundle of all Procedure resources for the specified patient and status</v>
       </c>
     </row>
-    <row r="63" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>76</v>
       </c>
@@ -9706,24 +9729,24 @@
       <c r="D63" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="E63" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="F63" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G63" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="H63" s="5" t="s">
+      <c r="I63" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="I63" s="5" t="s">
+      <c r="J63" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="J63" s="5" t="str">
+      <c r="K63" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B63&amp;" resources for the specified "&amp;SUBSTITUTE(D63,","," and ")</f>
         <v>Fetches a bundle of all Procedure resources for the specified patient and date</v>
       </c>
     </row>
-    <row r="64" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>77</v>
       </c>
@@ -9737,24 +9760,24 @@
       <c r="D64" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="E64" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="F64" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G64" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="H64" s="5" t="s">
+      <c r="I64" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="I64" s="5" t="s">
+      <c r="J64" s="5" t="s">
         <v>535</v>
       </c>
-      <c r="J64" s="5" t="str">
+      <c r="K64" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B64&amp;" resources for the specified patient and date and procedure code(s).  SHOULD support search by multiple codes."</f>
         <v>Fetches a bundle of all Procedure resources for the specified patient and date and procedure code(s).  SHOULD support search by multiple codes.</v>
       </c>
     </row>
-    <row r="65" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>80</v>
       </c>
@@ -9767,26 +9790,26 @@
       <c r="D65" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="E65" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="F65" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G65" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G65" s="1" t="s">
+      <c r="H65" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="H65" s="5" t="s">
+      <c r="I65" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="I65" s="5" t="s">
+      <c r="J65" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="J65" s="5" t="s">
+      <c r="K65" s="5" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="66" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>81</v>
       </c>
@@ -9799,27 +9822,27 @@
       <c r="D66" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E66" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="F66" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G66" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G66" s="1" t="s">
+      <c r="H66" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="H66" s="5" t="s">
+      <c r="I66" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="I66" s="5" t="s">
+      <c r="J66" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="J66" s="5" t="str">
+      <c r="K66" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B66&amp;" resources for the specified patient and a category code = `laboratory`"</f>
         <v>Fetches a bundle of all Observation resources for the specified patient and a category code = `laboratory`</v>
       </c>
     </row>
-    <row r="67" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>82</v>
       </c>
@@ -9832,24 +9855,24 @@
       <c r="D67" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E67" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="F67" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G67" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="H67" s="5" t="s">
+      <c r="I67" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="I67" s="5" t="s">
+      <c r="J67" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="J67" s="5" t="str">
+      <c r="K67" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B67&amp;" resources for the specified patient and observation code(s).  SHOULD support search by multiple report codes. The Observation `code` parameter searches `Observation.code only."</f>
         <v>Fetches a bundle of all Observation resources for the specified patient and observation code(s).  SHOULD support search by multiple report codes. The Observation `code` parameter searches `Observation.code only.</v>
       </c>
     </row>
-    <row r="68" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>83</v>
       </c>
@@ -9862,27 +9885,27 @@
       <c r="D68" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="E68" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="F68" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G68" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="G68" s="1" t="s">
+      <c r="H68" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="H68" s="5" t="s">
+      <c r="I68" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="I68" s="5" t="s">
+      <c r="J68" s="5" t="s">
         <v>536</v>
       </c>
-      <c r="J68" s="5" t="str">
+      <c r="K68" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B68&amp;" resources for the specified patient and date and a category code = `laboratory`"</f>
         <v>Fetches a bundle of all Observation resources for the specified patient and date and a category code = `laboratory`</v>
       </c>
     </row>
-    <row r="69" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>84</v>
       </c>
@@ -9895,24 +9918,24 @@
       <c r="D69" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="E69" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="F69" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G69" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="H69" s="5" t="s">
+      <c r="I69" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="I69" s="5" t="s">
+      <c r="J69" s="5" t="s">
         <v>537</v>
       </c>
-      <c r="J69" s="5" t="str">
+      <c r="K69" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B69&amp;" resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes."</f>
         <v>Fetches a bundle of all Observation resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes.</v>
       </c>
     </row>
-    <row r="70" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>85</v>
       </c>
@@ -9925,24 +9948,24 @@
       <c r="D70" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E70" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="F70" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G70" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="H70" s="5" t="s">
+      <c r="I70" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="I70" s="5" t="s">
+      <c r="J70" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="J70" s="5" t="str">
+      <c r="K70" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B70&amp;" resources for the specified "&amp;SUBSTITUTE(D70,","," and ")</f>
         <v>Fetches a bundle of all !Observation resources for the specified patient and status</v>
       </c>
     </row>
-    <row r="71" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>88</v>
       </c>
@@ -9955,27 +9978,27 @@
       <c r="D71" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E71" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="F71" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G71" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G71" s="1" t="s">
+      <c r="H71" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="H71" s="5" t="s">
+      <c r="I71" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="I71" s="5" t="s">
+      <c r="J71" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="J71" s="5" t="str">
+      <c r="K71" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B71&amp;" resources for the specified "&amp;SUBSTITUTE(D71,","," and ")&amp;"=`assess-plan`"</f>
         <v>Fetches a bundle of all CarePlan resources for the specified patient and category=`assess-plan`</v>
       </c>
     </row>
-    <row r="72" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>89</v>
       </c>
@@ -9988,26 +10011,26 @@
       <c r="D72" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="E72" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="F72" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G72" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="G72" s="1" t="s">
+      <c r="H72" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="H72" s="5" t="s">
+      <c r="I72" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="I72" s="5" t="s">
+      <c r="J72" s="5" t="s">
         <v>539</v>
       </c>
-      <c r="J72" s="5" t="s">
+      <c r="K72" s="5" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="73" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>90</v>
       </c>
@@ -10020,26 +10043,26 @@
       <c r="D73" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="E73" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="F73" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G73" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G73" s="1" t="s">
+      <c r="H73" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="H73" s="5" t="s">
+      <c r="I73" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="I73" s="5" t="s">
+      <c r="J73" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="J73" s="5" t="s">
+      <c r="K73" s="5" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="74" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>91</v>
       </c>
@@ -10052,26 +10075,26 @@
       <c r="D74" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="E74" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="F74" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G74" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="G74" s="1" t="s">
+      <c r="H74" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="H74" s="5" t="s">
+      <c r="I74" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="I74" s="5" t="s">
+      <c r="J74" s="5" t="s">
         <v>538</v>
       </c>
-      <c r="J74" s="5" t="s">
+      <c r="K74" s="5" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="75" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>94</v>
       </c>
@@ -10085,26 +10108,26 @@
       <c r="D75" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E75" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="F75" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G75" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G75" s="1" t="s">
+      <c r="H75" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="H75" s="5" t="s">
+      <c r="I75" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="I75" s="5" t="s">
+      <c r="J75" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="J75" s="5" t="s">
+      <c r="K75" s="5" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="76" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>97</v>
       </c>
@@ -10117,27 +10140,27 @@
       <c r="D76" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E76" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="F76" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G76" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G76" s="1" t="s">
+      <c r="H76" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="H76" s="5" t="s">
+      <c r="I76" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="I76" s="5" t="s">
+      <c r="J76" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="J76" s="5" t="str">
+      <c r="K76" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B76&amp;" resources for the specified patient and observation code."</f>
         <v>Fetches a bundle of all Observation resources for the specified patient and observation code.</v>
       </c>
     </row>
-    <row r="77" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>100</v>
       </c>
@@ -10150,27 +10173,27 @@
       <c r="D77" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="E77" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="F77" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G77" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G77" s="1" t="s">
+      <c r="H77" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="H77" s="5" t="s">
+      <c r="I77" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="I77" s="5" t="s">
+      <c r="J77" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="J77" s="5" t="str">
+      <c r="K77" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B77&amp;" resources for the specified "&amp;SUBSTITUTE(D77,","," and ")</f>
         <v>Fetches a bundle of all Observation resources for the specified patient and category and status</v>
       </c>
     </row>
-    <row r="78" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>101</v>
       </c>
@@ -10183,27 +10206,27 @@
       <c r="D78" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E78" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="F78" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G78" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G78" s="1" t="s">
+      <c r="H78" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="H78" s="5" t="s">
+      <c r="I78" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="I78" s="5" t="s">
+      <c r="J78" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="J78" s="5" t="str">
+      <c r="K78" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B78&amp;" resources for the specified patient and a category code = `vital-signs`"</f>
         <v>Fetches a bundle of all Observation resources for the specified patient and a category code = `vital-signs`</v>
       </c>
     </row>
-    <row r="79" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>102</v>
       </c>
@@ -10216,27 +10239,27 @@
       <c r="D79" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E79" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="F79" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G79" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G79" s="1" t="s">
+      <c r="H79" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="H79" s="5" t="s">
+      <c r="I79" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="I79" s="5" t="s">
+      <c r="J79" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="J79" s="5" t="str">
+      <c r="K79" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B79&amp;" resources for the specified patient and observation code(s).  SHOULD support search by multiple codes. The Observation `code` parameter searches `Observation.code only."</f>
         <v>Fetches a bundle of all Observation resources for the specified patient and observation code(s).  SHOULD support search by multiple codes. The Observation `code` parameter searches `Observation.code only.</v>
       </c>
     </row>
-    <row r="80" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>103</v>
       </c>
@@ -10249,27 +10272,27 @@
       <c r="D80" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="E80" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="F80" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G80" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="G80" s="1" t="s">
+      <c r="H80" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="H80" s="5" t="s">
+      <c r="I80" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="I80" s="5" t="s">
+      <c r="J80" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="J80" s="5" t="str">
+      <c r="K80" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B80&amp;" resources for the specified patient and date and a category code = `vital-signs`"</f>
         <v>Fetches a bundle of all Observation resources for the specified patient and date and a category code = `vital-signs`</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>104</v>
       </c>
@@ -10282,30 +10305,30 @@
       <c r="D81" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="E81" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="F81" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G81" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="H81" s="5" t="s">
+      <c r="I81" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="I81" s="5" t="s">
+      <c r="J81" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="J81" s="5" t="str">
+      <c r="K81" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B81&amp;" resources for the specified patient and date and report code(s).  SHOULD support search by multiple codes."</f>
         <v>Fetches a bundle of all Observation resources for the specified patient and date and report code(s).  SHOULD support search by multiple codes.</v>
       </c>
-      <c r="K81" s="1"/>
       <c r="L81" s="1"/>
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
       <c r="O81" s="1"/>
       <c r="P81" s="1"/>
-    </row>
-    <row r="82" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q81" s="1"/>
+    </row>
+    <row r="82" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>107</v>
       </c>
@@ -10319,24 +10342,24 @@
       <c r="D82" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E82" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="F82" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G82" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="H82" s="5" t="s">
+      <c r="I82" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="I82" s="5" t="s">
+      <c r="J82" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="J82" s="5" t="str">
+      <c r="K82" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B82&amp;" resources for the specified "&amp;SUBSTITUTE(D82,","," and ") &amp;". See the implementation notes above for how to access the actual document."</f>
         <v>Fetches a bundle of all DocumentReference resources for the specified patient and status. See the implementation notes above for how to access the actual document.</v>
       </c>
     </row>
-    <row r="83" spans="1:16" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:17" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>108</v>
       </c>
@@ -10350,22 +10373,22 @@
       <c r="D83" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="E83" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="F83" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G83" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H83" s="5" t="s">
+      <c r="I83" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="I83" s="5"/>
-      <c r="J83" s="5" t="str">
+      <c r="J83" s="5"/>
+      <c r="K83" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B83&amp;" resources for the specified "&amp;SUBSTITUTE(D83,","," and ") &amp;". See the implementation notes above for how to access the actual document."</f>
         <v>Fetches a bundle of all !DocumentReference resources for the specified patient and period. See the implementation notes above for how to access the actual document.</v>
       </c>
     </row>
-    <row r="84" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>109</v>
       </c>
@@ -10379,26 +10402,26 @@
       <c r="D84" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E84" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="F84" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G84" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G84" s="1" t="s">
+      <c r="H84" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="H84" s="5" t="s">
+      <c r="I84" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="I84" s="5" t="s">
+      <c r="J84" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="J84" s="5" t="s">
+      <c r="K84" s="5" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="85" spans="1:16" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:17" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>110</v>
       </c>
@@ -10412,26 +10435,26 @@
       <c r="D85" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="E85" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="F85" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G85" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="G85" s="1" t="s">
+      <c r="H85" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="H85" s="5" t="s">
+      <c r="I85" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="I85" s="9" t="s">
+      <c r="J85" s="9" t="s">
         <v>542</v>
       </c>
-      <c r="J85" s="5" t="s">
+      <c r="K85" s="5" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="86" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>111</v>
       </c>
@@ -10445,23 +10468,23 @@
       <c r="D86" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="E86" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="F86" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G86" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="H86" s="5" t="s">
+      <c r="I86" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="I86" s="5" t="s">
+      <c r="J86" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="J86" s="5" t="s">
+      <c r="K86" s="5" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="87" spans="1:16" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:17" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>112</v>
       </c>
@@ -10475,24 +10498,24 @@
       <c r="D87" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="E87" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="F87" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G87" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="H87" s="5" t="s">
+      <c r="I87" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="I87" s="5" t="s">
+      <c r="J87" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="J87" s="5" t="str">
+      <c r="K87" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B87&amp;" resources for the specified "&amp;SUBSTITUTE(D87,","," and ") &amp;". See the implementation notes above for how to access the actual document."</f>
         <v>Fetches a bundle of all DocumentReference resources for the specified patient and type and period. See the implementation notes above for how to access the actual document.</v>
       </c>
     </row>
-    <row r="88" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>115</v>
       </c>
@@ -10505,25 +10528,25 @@
       <c r="D88" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="E88" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="F88" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G88" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="H88" s="5" t="s">
+      <c r="I88" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="I88" s="5" t="s">
+      <c r="J88" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="J88" s="5" t="s">
+      <c r="K88" s="5" t="s">
         <v>401</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J88" xr:uid="{331E0B16-168F-459B-8951-3DF614BF0371}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J132">
+  <autoFilter ref="A1:K88" xr:uid="{331E0B16-168F-459B-8951-3DF614BF0371}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K132">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/input/resources_spreadsheets/uscore-server.xlsx
+++ b/input/resources_spreadsheets/uscore-server.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/US-Core-R4/input/resources_spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23198CBE-5B5A-F144-B019-3FDB8FA8D031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D4A99B-544D-214A-B59C-630238B89E98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-71680" yWindow="-12140" windowWidth="47680" windowHeight="17540" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-71680" yWindow="-12140" windowWidth="47680" windowHeight="17540" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -2605,11 +2605,11 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AB98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C35" sqref="C35"/>
+      <selection pane="bottomRight" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7893,10 +7893,11 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:Q88"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E94" sqref="E94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7949,7 +7950,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -7974,7 +7975,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and date</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -7999,7 +8000,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and date and patient</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -8024,7 +8025,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and date and patient and type</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -8049,7 +8050,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and date and type</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -8080,7 +8081,7 @@
         <v>Fetches a bundle of all Encounter resources matching the specified class and patient</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -8105,7 +8106,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and patient and status</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -8130,7 +8131,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and patient and status and type</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -8156,7 +8157,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and patient and type</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -8183,7 +8184,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and status</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -8209,7 +8210,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and status and type</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -8234,7 +8235,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and type</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -8265,7 +8266,7 @@
         <v>Fetches a bundle of all Encounter resources matching the specified date and patient</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" s="1" customFormat="1" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -8290,7 +8291,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified date and patient and type</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" s="1" customFormat="1" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -8315,7 +8316,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified date and type</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -8346,7 +8347,7 @@
         <v>Fetches a bundle of all Encounter resources matching the specified patient and type</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -8372,7 +8373,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified patient and status and type</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -8403,7 +8404,7 @@
         <v>Fetches a bundle of all Encounter resources matching the specified patient and status</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" s="1" customFormat="1" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -8430,7 +8431,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified status and type</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" s="1" customFormat="1" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>21</v>
       </c>
@@ -8456,7 +8457,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified context-type-value and publisher</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" s="1" customFormat="1" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>22</v>
       </c>
@@ -8481,7 +8482,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified context-type-value and publisher and status</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>23</v>
       </c>
@@ -8507,7 +8508,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified context-type-value and status</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" s="1" customFormat="1" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>24</v>
       </c>
@@ -8534,7 +8535,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified publisher and status</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" s="1" customFormat="1" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>25</v>
       </c>
@@ -8561,7 +8562,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified publisher and status and version</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" s="1" customFormat="1" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>26</v>
       </c>
@@ -8588,7 +8589,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified publisher and version</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" s="1" customFormat="1" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>27</v>
       </c>
@@ -8613,7 +8614,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified status and title and version</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" s="1" customFormat="1" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>28</v>
       </c>
@@ -8638,7 +8639,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified status and version</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" s="1" customFormat="1" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>29</v>
       </c>
@@ -8663,7 +8664,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified title and version</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" s="1" customFormat="1" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>30</v>
       </c>
@@ -8694,7 +8695,7 @@
         <v>Fetches a bundle of all Patient resources matching the specified birthdate and family</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" s="1" customFormat="1" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>31</v>
       </c>
@@ -8725,7 +8726,7 @@
         <v>Fetches a bundle of all Patient resources matching the specified birthdate and name</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" s="1" customFormat="1" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>32</v>
       </c>
@@ -8756,7 +8757,7 @@
         <v>Fetches a bundle of all Patient resources matching the specified family and gender</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" s="1" customFormat="1" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>33</v>
       </c>
@@ -8787,7 +8788,7 @@
         <v>Fetches a bundle of all Patient resources matching the specified gender and name</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" s="1" customFormat="1" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>36</v>
       </c>
@@ -8864,6 +8865,9 @@
       <c r="D35" s="1" t="s">
         <v>580</v>
       </c>
+      <c r="E35" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="F35" s="1" t="s">
         <v>70</v>
       </c>
@@ -8954,6 +8958,9 @@
       <c r="D38" s="1" t="s">
         <v>577</v>
       </c>
+      <c r="E38" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="F38" s="1" t="s">
         <v>70</v>
       </c>
@@ -8984,6 +8991,9 @@
       <c r="D39" s="1" t="s">
         <v>578</v>
       </c>
+      <c r="E39" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="F39" s="1" t="s">
         <v>70</v>
       </c>
@@ -9014,6 +9024,9 @@
       <c r="D40" s="1" t="s">
         <v>579</v>
       </c>
+      <c r="E40" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="F40" s="1" t="s">
         <v>70</v>
       </c>
@@ -9030,7 +9043,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>42</v>
       </c>
@@ -9060,7 +9073,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>45</v>
       </c>
@@ -9091,7 +9104,7 @@
         <v>Fetches a bundle of all Immunization resources for the specified patient and date</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>46</v>
       </c>
@@ -9122,7 +9135,7 @@
         <v>Fetches a bundle of all Immunization resources for the specified patient and status</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>49</v>
       </c>
@@ -9152,7 +9165,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and status</v>
       </c>
     </row>
-    <row r="45" spans="1:11" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" s="1" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>50</v>
       </c>
@@ -9185,7 +9198,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and  a category code = `LAB`</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" s="1" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>51</v>
       </c>
@@ -9215,7 +9228,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and  report code(s).  SHOULD support search by multiple report codes.</v>
       </c>
     </row>
-    <row r="47" spans="1:11" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" s="1" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>52</v>
       </c>
@@ -9248,7 +9261,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and a category code = `LAB`</v>
       </c>
     </row>
-    <row r="48" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>53</v>
       </c>
@@ -9278,7 +9291,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes.</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>56</v>
       </c>
@@ -9308,7 +9321,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and status</v>
       </c>
     </row>
-    <row r="50" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>57</v>
       </c>
@@ -9338,7 +9351,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and  a category code specified in US Core DiagnosticReport Category Codes</v>
       </c>
     </row>
-    <row r="51" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>58</v>
       </c>
@@ -9368,7 +9381,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and  report code(s).  SHOULD support search by multiple report codes.</v>
       </c>
     </row>
-    <row r="52" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>59</v>
       </c>
@@ -9398,7 +9411,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and a category code specified in US Core DiagnosticReport Category Codes</v>
       </c>
     </row>
-    <row r="53" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>60</v>
       </c>
@@ -9428,7 +9441,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes.</v>
       </c>
     </row>
-    <row r="54" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>63</v>
       </c>
@@ -9459,7 +9472,7 @@
         <v>Fetches a bundle of all Goal resources for the specified patient and lifecycle-status</v>
       </c>
     </row>
-    <row r="55" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>64</v>
       </c>
@@ -9490,7 +9503,7 @@
         <v>Fetches a bundle of all Goal resources for the specified patient and target-date</v>
       </c>
     </row>
-    <row r="56" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>67</v>
       </c>
@@ -9523,7 +9536,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="57" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>68</v>
       </c>
@@ -9556,7 +9569,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="58" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>69</v>
       </c>
@@ -9589,7 +9602,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="59" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>70</v>
       </c>
@@ -9622,7 +9635,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="60" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>73</v>
       </c>
@@ -9653,7 +9666,7 @@
         <v>Fetches a bundle of all !MedicationStatement resources for the specified patient and status</v>
       </c>
     </row>
-    <row r="61" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <f>SUBTOTAL(9,M101)</f>
         <v>0</v>
@@ -9684,7 +9697,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="62" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>75</v>
       </c>
@@ -9715,7 +9728,7 @@
         <v>Fetches a bundle of all Procedure resources for the specified patient and status</v>
       </c>
     </row>
-    <row r="63" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>76</v>
       </c>
@@ -9746,7 +9759,7 @@
         <v>Fetches a bundle of all Procedure resources for the specified patient and date</v>
       </c>
     </row>
-    <row r="64" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>77</v>
       </c>
@@ -9777,7 +9790,7 @@
         <v>Fetches a bundle of all Procedure resources for the specified patient and date and procedure code(s).  SHOULD support search by multiple codes.</v>
       </c>
     </row>
-    <row r="65" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>80</v>
       </c>
@@ -9809,7 +9822,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="66" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>81</v>
       </c>
@@ -9842,7 +9855,7 @@
         <v>Fetches a bundle of all Observation resources for the specified patient and a category code = `laboratory`</v>
       </c>
     </row>
-    <row r="67" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>82</v>
       </c>
@@ -9872,7 +9885,7 @@
         <v>Fetches a bundle of all Observation resources for the specified patient and observation code(s).  SHOULD support search by multiple report codes. The Observation `code` parameter searches `Observation.code only.</v>
       </c>
     </row>
-    <row r="68" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>83</v>
       </c>
@@ -9905,7 +9918,7 @@
         <v>Fetches a bundle of all Observation resources for the specified patient and date and a category code = `laboratory`</v>
       </c>
     </row>
-    <row r="69" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>84</v>
       </c>
@@ -9935,7 +9948,7 @@
         <v>Fetches a bundle of all Observation resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes.</v>
       </c>
     </row>
-    <row r="70" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>85</v>
       </c>
@@ -9965,7 +9978,7 @@
         <v>Fetches a bundle of all !Observation resources for the specified patient and status</v>
       </c>
     </row>
-    <row r="71" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>88</v>
       </c>
@@ -9998,7 +10011,7 @@
         <v>Fetches a bundle of all CarePlan resources for the specified patient and category=`assess-plan`</v>
       </c>
     </row>
-    <row r="72" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>89</v>
       </c>
@@ -10030,7 +10043,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="73" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>90</v>
       </c>
@@ -10062,7 +10075,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="74" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>91</v>
       </c>
@@ -10094,7 +10107,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="75" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>94</v>
       </c>
@@ -10127,7 +10140,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="76" spans="1:11" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" s="1" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>97</v>
       </c>
@@ -10160,7 +10173,7 @@
         <v>Fetches a bundle of all Observation resources for the specified patient and observation code.</v>
       </c>
     </row>
-    <row r="77" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>100</v>
       </c>
@@ -10193,7 +10206,7 @@
         <v>Fetches a bundle of all Observation resources for the specified patient and category and status</v>
       </c>
     </row>
-    <row r="78" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>101</v>
       </c>
@@ -10226,7 +10239,7 @@
         <v>Fetches a bundle of all Observation resources for the specified patient and a category code = `vital-signs`</v>
       </c>
     </row>
-    <row r="79" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>102</v>
       </c>
@@ -10259,7 +10272,7 @@
         <v>Fetches a bundle of all Observation resources for the specified patient and observation code(s).  SHOULD support search by multiple codes. The Observation `code` parameter searches `Observation.code only.</v>
       </c>
     </row>
-    <row r="80" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>103</v>
       </c>
@@ -10292,7 +10305,7 @@
         <v>Fetches a bundle of all Observation resources for the specified patient and date and a category code = `vital-signs`</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>104</v>
       </c>
@@ -10328,7 +10341,7 @@
       <c r="P81" s="1"/>
       <c r="Q81" s="1"/>
     </row>
-    <row r="82" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>107</v>
       </c>
@@ -10359,7 +10372,7 @@
         <v>Fetches a bundle of all DocumentReference resources for the specified patient and status. See the implementation notes above for how to access the actual document.</v>
       </c>
     </row>
-    <row r="83" spans="1:17" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:17" s="1" customFormat="1" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>108</v>
       </c>
@@ -10388,7 +10401,7 @@
         <v>Fetches a bundle of all !DocumentReference resources for the specified patient and period. See the implementation notes above for how to access the actual document.</v>
       </c>
     </row>
-    <row r="84" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>109</v>
       </c>
@@ -10421,7 +10434,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="85" spans="1:17" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:17" s="1" customFormat="1" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>110</v>
       </c>
@@ -10454,7 +10467,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="86" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>111</v>
       </c>
@@ -10484,7 +10497,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="87" spans="1:17" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:17" s="1" customFormat="1" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>112</v>
       </c>
@@ -10515,7 +10528,7 @@
         <v>Fetches a bundle of all DocumentReference resources for the specified patient and type and period. See the implementation notes above for how to access the actual document.</v>
       </c>
     </row>
-    <row r="88" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>115</v>
       </c>
@@ -10545,7 +10558,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K88" xr:uid="{331E0B16-168F-459B-8951-3DF614BF0371}"/>
+  <autoFilter ref="A1:K88" xr:uid="{331E0B16-168F-459B-8951-3DF614BF0371}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Condition"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K132">
     <sortCondition ref="A1"/>
   </sortState>

--- a/input/resources_spreadsheets/uscore-server.xlsx
+++ b/input/resources_spreadsheets/uscore-server.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/US-Core-R4/input/resources_spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D4A99B-544D-214A-B59C-630238B89E98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F740F7E8-CCAC-634E-9E2A-ADF9822618AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-71680" yWindow="-12140" windowWidth="47680" windowHeight="17540" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-47240" yWindow="-3620" windowWidth="47680" windowHeight="17540" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -26,8 +26,8 @@
     <sheet name="sp_combos" sheetId="8" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">sp_combos!$A$1:$K$88</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">sps!$A$1:$AB$98</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">sp_combos!$A$1:$K$90</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">sps!$A$1:$AB$100</definedName>
   </definedNames>
   <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
@@ -85,7 +85,7 @@
     <author>tc={B335108E-FDC9-AC41-96F3-657CAF0CB14F}</author>
   </authors>
   <commentList>
-    <comment ref="L36" authorId="0" shapeId="0" xr:uid="{9A91E9C9-8B21-8546-B0F6-E258B9D2B6FF}">
+    <comment ref="L38" authorId="0" shapeId="0" xr:uid="{9A91E9C9-8B21-8546-B0F6-E258B9D2B6FF}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -93,7 +93,7 @@
     where does this show up?</t>
       </text>
     </comment>
-    <comment ref="Z40" authorId="1" shapeId="0" xr:uid="{2FB8FCA2-BD31-DF4C-95E0-15548A47CED8}">
+    <comment ref="Z42" authorId="1" shapeId="0" xr:uid="{2FB8FCA2-BD31-DF4C-95E0-15548A47CED8}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -101,7 +101,7 @@
     do i need this?</t>
       </text>
     </comment>
-    <comment ref="AA40" authorId="2" shapeId="0" xr:uid="{B335108E-FDC9-AC41-96F3-657CAF0CB14F}">
+    <comment ref="AA42" authorId="2" shapeId="0" xr:uid="{B335108E-FDC9-AC41-96F3-657CAF0CB14F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -116,10 +116,19 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={4C3DF362-0F09-CC4A-8C76-08E5FFBB7F41}</author>
     <author>tc={55554AA4-06E7-B947-A224-22F62EAAB8DA}</author>
   </authors>
   <commentList>
-    <comment ref="I37" authorId="0" shapeId="0" xr:uid="{55554AA4-06E7-B947-A224-22F62EAAB8DA}">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{4C3DF362-0F09-CC4A-8C76-08E5FFBB7F41}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    does this do anything if not delete row</t>
+      </text>
+    </comment>
+    <comment ref="I39" authorId="1" shapeId="0" xr:uid="{55554AA4-06E7-B947-A224-22F62EAAB8DA}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -132,7 +141,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2149" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2180" uniqueCount="594">
   <si>
     <t>Element</t>
   </si>
@@ -1980,6 +1989,24 @@
   </si>
   <si>
     <t>is_new</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>discharge-disposition</t>
+  </si>
+  <si>
+    <t>patient,location</t>
+  </si>
+  <si>
+    <t>GET [base]/Encounter?patient=1137192&amp;location=Location/hospital</t>
+  </si>
+  <si>
+    <t>patient,discharge-disposition</t>
+  </si>
+  <si>
+    <t>GET [base]/Encounter?patient=example1&amp;discharge-disposition=01</t>
   </si>
 </sst>
 </file>
@@ -2487,13 +2514,13 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="L36" dT="2021-11-06T02:36:52.48" personId="{01DB13A2-9E02-7A4D-96F1-9E53507C2507}" id="{9A91E9C9-8B21-8546-B0F6-E258B9D2B6FF}">
+  <threadedComment ref="L38" dT="2021-11-06T02:36:52.48" personId="{01DB13A2-9E02-7A4D-96F1-9E53507C2507}" id="{9A91E9C9-8B21-8546-B0F6-E258B9D2B6FF}">
     <text>where does this show up?</text>
   </threadedComment>
-  <threadedComment ref="Z40" dT="2021-11-06T02:39:25.62" personId="{01DB13A2-9E02-7A4D-96F1-9E53507C2507}" id="{2FB8FCA2-BD31-DF4C-95E0-15548A47CED8}">
+  <threadedComment ref="Z42" dT="2021-11-06T02:39:25.62" personId="{01DB13A2-9E02-7A4D-96F1-9E53507C2507}" id="{2FB8FCA2-BD31-DF4C-95E0-15548A47CED8}">
     <text>do i need this?</text>
   </threadedComment>
-  <threadedComment ref="AA40" dT="2021-11-06T02:40:08.93" personId="{01DB13A2-9E02-7A4D-96F1-9E53507C2507}" id="{B335108E-FDC9-AC41-96F3-657CAF0CB14F}">
+  <threadedComment ref="AA42" dT="2021-11-06T02:40:08.93" personId="{01DB13A2-9E02-7A4D-96F1-9E53507C2507}" id="{B335108E-FDC9-AC41-96F3-657CAF0CB14F}">
     <text>do I need this?</text>
   </threadedComment>
 </ThreadedComments>
@@ -2501,7 +2528,10 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="I37" dT="2021-11-06T02:44:23.26" personId="{01DB13A2-9E02-7A4D-96F1-9E53507C2507}" id="{55554AA4-06E7-B947-A224-22F62EAAB8DA}">
+  <threadedComment ref="I1" dT="2021-11-08T19:54:50.37" personId="{01DB13A2-9E02-7A4D-96F1-9E53507C2507}" id="{4C3DF362-0F09-CC4A-8C76-08E5FFBB7F41}">
+    <text>does this do anything if not delete row</text>
+  </threadedComment>
+  <threadedComment ref="I39" dT="2021-11-06T02:44:23.26" personId="{01DB13A2-9E02-7A4D-96F1-9E53507C2507}" id="{55554AA4-06E7-B947-A224-22F62EAAB8DA}">
     <text>is column being used???</text>
   </threadedComment>
 </ThreadedComments>
@@ -2603,13 +2633,13 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:AB98"/>
+  <dimension ref="A1:AB100"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomRight" activeCell="G103" sqref="G103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2780,7 +2810,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="1" t="str">
-        <f t="shared" ref="G3:G70" si="1">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B3)</f>
+        <f t="shared" ref="G3:G72" si="1">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B3)</f>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!example code search</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -2997,7 +3027,7 @@
         <v>64</v>
       </c>
       <c r="L7" t="str">
-        <f t="shared" ref="L7:L22" si="4">B7&amp;"."&amp;C7</f>
+        <f t="shared" ref="L7:L24" si="4">B7&amp;"."&amp;C7</f>
         <v>!Patient.address</v>
       </c>
       <c r="M7" t="s">
@@ -3065,7 +3095,7 @@
       </c>
       <c r="AA8" s="12"/>
       <c r="AB8" s="1" t="str">
-        <f t="shared" ref="AB8:AB43" si="5">"SearchParameter-us-core-"&amp;LOWER((B8)&amp;"-"&amp;C8&amp;".html")</f>
+        <f t="shared" ref="AB8:AB45" si="5">"SearchParameter-us-core-"&amp;LOWER((B8)&amp;"-"&amp;C8&amp;".html")</f>
         <v>SearchParameter-us-core-!patient-telecom.html</v>
       </c>
     </row>
@@ -3337,7 +3367,7 @@
         <v>SearchParameter-us-core-condition-patient.html</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3390,7 +3420,7 @@
         <v>SearchParameter-us-core-encounter-id.html</v>
       </c>
     </row>
-    <row r="15" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -3440,7 +3470,7 @@
         <v>SearchParameter-us-core-encounter-class.html</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -3494,7 +3524,7 @@
         <v>SearchParameter-us-core-encounter-date.html</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -3551,7 +3581,7 @@
         <v>SearchParameter-us-core-encounter-identifier.html</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -3609,15 +3639,15 @@
         <v>SearchParameter-us-core-encounter-patient.html</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C19" t="s">
-        <v>62</v>
+      <c r="C19" s="1" t="s">
+        <v>588</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>30</v>
@@ -3626,24 +3656,27 @@
         <v>0</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="G19" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="G19" si="8">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B19)</f>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter</v>
       </c>
-      <c r="H19" t="s">
-        <v>56</v>
-      </c>
-      <c r="J19" t="s">
-        <v>56</v>
-      </c>
-      <c r="K19" t="s">
-        <v>57</v>
-      </c>
-      <c r="L19" t="str">
-        <f t="shared" si="4"/>
-        <v>Encounter.status</v>
+      <c r="H19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I19" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L19" s="1" t="str">
+        <f t="shared" ref="L19" si="9">B19&amp;"."&amp;C19</f>
+        <v>Encounter.location</v>
       </c>
       <c r="M19" s="1" t="s">
         <v>56</v>
@@ -3651,23 +3684,31 @@
       <c r="O19" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Y19" s="5"/>
-      <c r="Z19" s="5"/>
-      <c r="AA19" s="12"/>
+      <c r="Y19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z19" s="5" t="str">
+        <f>"GET [base]/"&amp;B19&amp;"?patient=1137192"</f>
+        <v>GET [base]/Encounter?patient=1137192</v>
+      </c>
+      <c r="AA19" s="12" t="str">
+        <f>"Fetches a bundle of all "&amp;B19&amp; " resources for the specified patient"</f>
+        <v>Fetches a bundle of all Encounter resources for the specified patient</v>
+      </c>
       <c r="AB19" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>SearchParameter-us-core-encounter-status.html</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="AB19" si="10">"SearchParameter-us-core-"&amp;LOWER((B19)&amp;"-"&amp;SUBSTITUTE(C19,"_","")&amp;".html")</f>
+        <v>SearchParameter-us-core-encounter-location.html</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>30</v>
@@ -3691,9 +3732,9 @@
       <c r="K20" t="s">
         <v>57</v>
       </c>
-      <c r="L20" s="1" t="str">
+      <c r="L20" t="str">
         <f t="shared" si="4"/>
-        <v>Encounter.type</v>
+        <v>Encounter.status</v>
       </c>
       <c r="M20" s="1" t="s">
         <v>56</v>
@@ -3706,94 +3747,97 @@
       <c r="AA20" s="12"/>
       <c r="AB20" s="1" t="str">
         <f t="shared" si="5"/>
+        <v>SearchParameter-us-core-encounter-status.html</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="G21" s="1" t="str">
+        <f t="shared" ref="G21" si="11">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B21)</f>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L21" s="1" t="str">
+        <f t="shared" ref="L21" si="12">B21&amp;"."&amp;C21</f>
+        <v>Encounter.type</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="12"/>
+      <c r="AB21" s="1" t="str">
+        <f t="shared" ref="AB21" si="13">"SearchParameter-us-core-"&amp;LOWER((B21)&amp;"-"&amp;C21&amp;".html")</f>
         <v>SearchParameter-us-core-encounter-type.html</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" t="b">
-        <v>1</v>
-      </c>
-      <c r="G21" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient</v>
-      </c>
-      <c r="H21" t="s">
-        <v>56</v>
-      </c>
-      <c r="J21" t="s">
-        <v>56</v>
-      </c>
-      <c r="K21" t="s">
-        <v>57</v>
-      </c>
-      <c r="L21" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Patient._id</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="O21" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y21" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z21" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="AB21" s="1" t="str">
-        <f>"SearchParameter-us-core-"&amp;LOWER((B21)&amp;"-"&amp;SUBSTITUTE(C21,"_","")&amp;".html")</f>
-        <v>SearchParameter-us-core-patient-id.html</v>
-      </c>
-    </row>
-    <row r="22" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>78</v>
+        <v>589</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E22" t="b">
+      <c r="E22" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G22" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient</v>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter</v>
       </c>
       <c r="H22" t="s">
         <v>56</v>
       </c>
+      <c r="I22" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="J22" t="s">
         <v>56</v>
       </c>
       <c r="K22" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="L22" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Patient.birthdate</v>
+        <v>Encounter.discharge-disposition</v>
       </c>
       <c r="M22" s="1" t="s">
         <v>56</v>
@@ -3801,30 +3845,29 @@
       <c r="O22" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Z22"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="12"/>
       <c r="AB22" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>SearchParameter-us-core-patient-birthdate.html</v>
+        <v>SearchParameter-us-core-encounter-discharge-disposition.html</v>
       </c>
     </row>
     <row r="23" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>30</v>
+      <c r="C23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" t="s">
+        <v>12</v>
       </c>
       <c r="E23" t="b">
-        <v>0</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>562</v>
+        <v>1</v>
       </c>
       <c r="G23" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3837,10 +3880,11 @@
         <v>56</v>
       </c>
       <c r="K23" t="s">
-        <v>64</v>
-      </c>
-      <c r="L23" s="6" t="s">
-        <v>82</v>
+        <v>57</v>
+      </c>
+      <c r="L23" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>Patient._id</v>
       </c>
       <c r="M23" s="1" t="s">
         <v>56</v>
@@ -3848,21 +3892,26 @@
       <c r="O23" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Y23"/>
+      <c r="Y23" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z23" s="5" t="s">
+        <v>339</v>
+      </c>
       <c r="AB23" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>SearchParameter-us-core-patient-family.html</v>
+        <f>"SearchParameter-us-core-"&amp;LOWER((B23)&amp;"-"&amp;SUBSTITUTE(C23,"_","")&amp;".html")</f>
+        <v>SearchParameter-us-core-patient-id.html</v>
       </c>
     </row>
     <row r="24" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B24" t="s">
         <v>21</v>
       </c>
       <c r="C24" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>30</v>
@@ -3871,7 +3920,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G24" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3884,11 +3933,11 @@
         <v>56</v>
       </c>
       <c r="K24" t="s">
-        <v>57</v>
-      </c>
-      <c r="L24" t="str">
-        <f>B24&amp;"."&amp;C24</f>
-        <v>Patient.gender</v>
+        <v>79</v>
+      </c>
+      <c r="L24" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>Patient.birthdate</v>
       </c>
       <c r="M24" s="1" t="s">
         <v>56</v>
@@ -3896,28 +3945,30 @@
       <c r="O24" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Y24"/>
-      <c r="AA24" s="12"/>
+      <c r="Z24"/>
       <c r="AB24" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>SearchParameter-us-core-patient-gender.html</v>
+        <v>SearchParameter-us-core-patient-birthdate.html</v>
       </c>
     </row>
     <row r="25" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B25" t="s">
         <v>21</v>
       </c>
-      <c r="C25" t="s">
-        <v>83</v>
+      <c r="C25" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>562</v>
       </c>
       <c r="G25" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3933,7 +3984,7 @@
         <v>64</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M25" s="1" t="s">
         <v>56</v>
@@ -3941,27 +3992,27 @@
       <c r="O25" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AA25" s="12"/>
+      <c r="Y25"/>
       <c r="AB25" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>SearchParameter-us-core-patient-given.html</v>
+        <v>SearchParameter-us-core-patient-family.html</v>
       </c>
     </row>
     <row r="26" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B26" t="s">
         <v>21</v>
       </c>
       <c r="C26" t="s">
-        <v>77</v>
-      </c>
-      <c r="D26" t="s">
-        <v>12</v>
+        <v>81</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="E26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>528</v>
@@ -3981,7 +4032,7 @@
       </c>
       <c r="L26" t="str">
         <f>B26&amp;"."&amp;C26</f>
-        <v>Patient.identifier</v>
+        <v>Patient.gender</v>
       </c>
       <c r="M26" s="1" t="s">
         <v>56</v>
@@ -3989,36 +4040,28 @@
       <c r="O26" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Y26" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="Z26" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="AA26" s="12" t="str">
-        <f>"Fetches a bundle containing any "&amp;B26&amp;" resources matching the identifier"</f>
-        <v>Fetches a bundle containing any Patient resources matching the identifier</v>
-      </c>
+      <c r="Y26"/>
+      <c r="AA26" s="12"/>
       <c r="AB26" s="1" t="str">
-        <f t="shared" ref="AB26:AB27" si="8">"SearchParameter-us-core-"&amp;LOWER((B26)&amp;"-"&amp;SUBSTITUTE(C26,"_","")&amp;".html")</f>
-        <v>SearchParameter-us-core-patient-identifier.html</v>
+        <f t="shared" si="5"/>
+        <v>SearchParameter-us-core-patient-gender.html</v>
       </c>
     </row>
     <row r="27" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>21</v>
       </c>
       <c r="C27" t="s">
-        <v>23</v>
-      </c>
-      <c r="D27" t="s">
-        <v>12</v>
+        <v>83</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="E27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4033,9 +4076,8 @@
       <c r="K27" t="s">
         <v>64</v>
       </c>
-      <c r="L27" t="str">
-        <f>B27&amp;"."&amp;C27</f>
-        <v>Patient.name</v>
+      <c r="L27" s="6" t="s">
+        <v>84</v>
       </c>
       <c r="M27" s="1" t="s">
         <v>56</v>
@@ -4043,41 +4085,34 @@
       <c r="O27" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="S27"/>
-      <c r="Y27" s="5" t="s">
-        <v>487</v>
-      </c>
-      <c r="Z27" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="AA27" s="12" t="str">
-        <f>"Fetches a bundle of all "&amp;B27&amp;" resources matching the name"</f>
-        <v>Fetches a bundle of all Patient resources matching the name</v>
-      </c>
+      <c r="AA27" s="12"/>
       <c r="AB27" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>SearchParameter-us-core-patient-name.html</v>
+        <f t="shared" si="5"/>
+        <v>SearchParameter-us-core-patient-given.html</v>
       </c>
     </row>
     <row r="28" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>158</v>
+        <v>21</v>
       </c>
       <c r="C28" t="s">
-        <v>55</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E28" s="1" t="b">
-        <v>0</v>
+        <v>77</v>
+      </c>
+      <c r="D28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" t="b">
+        <v>1</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>528</v>
       </c>
       <c r="G28" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient</v>
       </c>
       <c r="H28" t="s">
         <v>56</v>
@@ -4088,8 +4123,9 @@
       <c r="K28" t="s">
         <v>57</v>
       </c>
-      <c r="L28" t="s">
-        <v>58</v>
+      <c r="L28" t="str">
+        <f>B28&amp;"."&amp;C28</f>
+        <v>Patient.identifier</v>
       </c>
       <c r="M28" s="1" t="s">
         <v>56</v>
@@ -4097,43 +4133,53 @@
       <c r="O28" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="Y28" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="Z28" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AA28" s="12" t="str">
+        <f>"Fetches a bundle containing any "&amp;B28&amp;" resources matching the identifier"</f>
+        <v>Fetches a bundle containing any Patient resources matching the identifier</v>
+      </c>
       <c r="AB28" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>SearchParameter-us-core-!questionnaire-_id.html</v>
+        <f t="shared" ref="AB28:AB29" si="14">"SearchParameter-us-core-"&amp;LOWER((B28)&amp;"-"&amp;SUBSTITUTE(C28,"_","")&amp;".html")</f>
+        <v>SearchParameter-us-core-patient-identifier.html</v>
       </c>
     </row>
     <row r="29" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>158</v>
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
+        <v>21</v>
       </c>
       <c r="C29" t="s">
-        <v>71</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E29" s="1" t="b">
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" t="b">
+        <v>1</v>
       </c>
       <c r="G29" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient</v>
       </c>
       <c r="H29" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J29" t="s">
         <v>56</v>
       </c>
       <c r="K29" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="L29" t="str">
-        <f t="shared" ref="L29:L43" si="9">B29&amp;"."&amp;C29</f>
-        <v>!Questionnaire.context-type-value</v>
+        <f>B29&amp;"."&amp;C29</f>
+        <v>Patient.name</v>
       </c>
       <c r="M29" s="1" t="s">
         <v>56</v>
@@ -4141,20 +4187,31 @@
       <c r="O29" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="S29"/>
+      <c r="Y29" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="Z29" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA29" s="12" t="str">
+        <f>"Fetches a bundle of all "&amp;B29&amp;" resources matching the name"</f>
+        <v>Fetches a bundle of all Patient resources matching the name</v>
+      </c>
       <c r="AB29" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>SearchParameter-us-core-!questionnaire-context-type-value.html</v>
+        <f t="shared" si="14"/>
+        <v>SearchParameter-us-core-patient-name.html</v>
       </c>
     </row>
     <row r="30" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>29</v>
-      </c>
-      <c r="B30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
         <v>158</v>
       </c>
       <c r="C30" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>30</v>
@@ -4173,35 +4230,31 @@
         <v>56</v>
       </c>
       <c r="K30" t="s">
-        <v>64</v>
-      </c>
-      <c r="L30" t="str">
-        <f t="shared" si="9"/>
-        <v>!Questionnaire.publisher</v>
+        <v>57</v>
+      </c>
+      <c r="L30" t="s">
+        <v>58</v>
       </c>
       <c r="M30" s="1" t="s">
         <v>56</v>
       </c>
       <c r="O30" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="Q30" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="AB30" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>SearchParameter-us-core-!questionnaire-publisher.html</v>
+        <v>SearchParameter-us-core-!questionnaire-_id.html</v>
       </c>
     </row>
     <row r="31" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>158</v>
       </c>
       <c r="C31" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>30</v>
@@ -4214,17 +4267,17 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
       </c>
       <c r="H31" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="J31" t="s">
         <v>56</v>
       </c>
       <c r="K31" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="L31" t="str">
-        <f t="shared" si="9"/>
-        <v>!Questionnaire.status</v>
+        <f t="shared" ref="L31:L45" si="15">B31&amp;"."&amp;C31</f>
+        <v>!Questionnaire.context-type-value</v>
       </c>
       <c r="M31" s="1" t="s">
         <v>56</v>
@@ -4234,18 +4287,18 @@
       </c>
       <c r="AB31" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>SearchParameter-us-core-!questionnaire-status.html</v>
-      </c>
-    </row>
-    <row r="32" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>SearchParameter-us-core-!questionnaire-context-type-value.html</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>63</v>
+      <c r="C32" t="s">
+        <v>68</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>30</v>
@@ -4257,18 +4310,18 @@
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
       </c>
-      <c r="H32" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K32" s="1" t="s">
+      <c r="H32" t="s">
+        <v>56</v>
+      </c>
+      <c r="J32" t="s">
+        <v>56</v>
+      </c>
+      <c r="K32" t="s">
         <v>64</v>
       </c>
-      <c r="L32" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>!Questionnaire.title</v>
+      <c r="L32" t="str">
+        <f t="shared" si="15"/>
+        <v>!Questionnaire.publisher</v>
       </c>
       <c r="M32" s="1" t="s">
         <v>56</v>
@@ -4276,33 +4329,23 @@
       <c r="O32" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="R32" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="S32" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="U32" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="V32" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA32" s="2"/>
+      <c r="Q32" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="AB32" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>SearchParameter-us-core-!questionnaire-title.html</v>
-      </c>
-    </row>
-    <row r="33" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>SearchParameter-us-core-!questionnaire-publisher.html</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>60</v>
+      <c r="C33" t="s">
+        <v>62</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>30</v>
@@ -4314,18 +4357,18 @@
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
       </c>
-      <c r="H33" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="L33" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>!Questionnaire.url</v>
+      <c r="H33" t="s">
+        <v>56</v>
+      </c>
+      <c r="J33" t="s">
+        <v>56</v>
+      </c>
+      <c r="K33" t="s">
+        <v>57</v>
+      </c>
+      <c r="L33" t="str">
+        <f t="shared" si="15"/>
+        <v>!Questionnaire.status</v>
       </c>
       <c r="M33" s="1" t="s">
         <v>56</v>
@@ -4333,21 +4376,20 @@
       <c r="O33" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AA33" s="2"/>
       <c r="AB33" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>SearchParameter-us-core-!questionnaire-url.html</v>
+        <v>SearchParameter-us-core-!questionnaire-status.html</v>
       </c>
     </row>
     <row r="34" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>158</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>30</v>
@@ -4366,33 +4408,45 @@
         <v>56</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="L34" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>!Questionnaire.version</v>
+        <f t="shared" si="15"/>
+        <v>!Questionnaire.title</v>
       </c>
       <c r="M34" s="1" t="s">
         <v>56</v>
       </c>
       <c r="O34" s="1" t="s">
         <v>56</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S34" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="U34" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="V34" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="AA34" s="2"/>
       <c r="AB34" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>SearchParameter-us-core-!questionnaire-version.html</v>
-      </c>
-    </row>
-    <row r="35" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+        <v>SearchParameter-us-core-!questionnaire-title.html</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>154</v>
+        <v>60</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>30</v>
@@ -4400,12 +4454,9 @@
       <c r="E35" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F35" s="2" t="s">
-        <v>526</v>
-      </c>
       <c r="G35" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>56</v>
@@ -4414,11 +4465,11 @@
         <v>56</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="L35" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>Condition.onset-date</v>
+        <f t="shared" si="15"/>
+        <v>!Questionnaire.url</v>
       </c>
       <c r="M35" s="1" t="s">
         <v>56</v>
@@ -4426,27 +4477,21 @@
       <c r="O35" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="P35" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="S35" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AA35" s="12"/>
+      <c r="AA35" s="2"/>
       <c r="AB35" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>SearchParameter-us-core-condition-onset-date.html</v>
-      </c>
-    </row>
-    <row r="36" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+        <v>SearchParameter-us-core-!questionnaire-url.html</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>573</v>
+        <v>67</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>30</v>
@@ -4454,28 +4499,22 @@
       <c r="E36" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F36" s="2" t="s">
-        <v>526</v>
-      </c>
       <c r="G36" s="1" t="str">
-        <f t="shared" ref="G36:G38" si="10">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B36)</f>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
+        <f t="shared" si="1"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I36" s="1" t="b">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>56</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="L36" s="1" t="str">
-        <f t="shared" ref="L36:L38" si="11">B36&amp;"."&amp;C36</f>
-        <v>Condition.asserted-date</v>
+        <f t="shared" si="15"/>
+        <v>!Questionnaire.version</v>
       </c>
       <c r="M36" s="1" t="s">
         <v>56</v>
@@ -4483,27 +4522,21 @@
       <c r="O36" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="P36" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="S36" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AA36" s="12"/>
+      <c r="AA36" s="2"/>
       <c r="AB36" s="1" t="str">
-        <f t="shared" ref="AB36:AB38" si="12">"SearchParameter-us-core-"&amp;LOWER((B36)&amp;"-"&amp;C36&amp;".html")</f>
-        <v>SearchParameter-us-core-condition-asserted-date.html</v>
+        <f t="shared" si="5"/>
+        <v>SearchParameter-us-core-!questionnaire-version.html</v>
       </c>
     </row>
     <row r="37" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>138</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>574</v>
+        <v>154</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>30</v>
@@ -4515,14 +4548,11 @@
         <v>526</v>
       </c>
       <c r="G37" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="I37" s="1" t="b">
-        <v>1</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>56</v>
@@ -4531,8 +4561,8 @@
         <v>79</v>
       </c>
       <c r="L37" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>Condition.recorded-date</v>
+        <f t="shared" si="15"/>
+        <v>Condition.onset-date</v>
       </c>
       <c r="M37" s="1" t="s">
         <v>56</v>
@@ -4548,19 +4578,19 @@
       </c>
       <c r="AA37" s="12"/>
       <c r="AB37" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>SearchParameter-us-core-condition-recorded-date.html</v>
+        <f t="shared" si="5"/>
+        <v>SearchParameter-us-core-condition-onset-date.html</v>
       </c>
     </row>
     <row r="38" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>138</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>30</v>
@@ -4572,11 +4602,11 @@
         <v>526</v>
       </c>
       <c r="G38" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="G38:G40" si="16">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B38)</f>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I38" s="1" t="b">
         <v>1</v>
@@ -4588,8 +4618,8 @@
         <v>79</v>
       </c>
       <c r="L38" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>Condition.abatement-date</v>
+        <f t="shared" ref="L38:L40" si="17">B38&amp;"."&amp;C38</f>
+        <v>Condition.asserted-date</v>
       </c>
       <c r="M38" s="1" t="s">
         <v>56</v>
@@ -4605,19 +4635,19 @@
       </c>
       <c r="AA38" s="12"/>
       <c r="AB38" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>SearchParameter-us-core-condition-abatement-date.html</v>
+        <f t="shared" ref="AB38:AB40" si="18">"SearchParameter-us-core-"&amp;LOWER((B38)&amp;"-"&amp;C38&amp;".html")</f>
+        <v>SearchParameter-us-core-condition-asserted-date.html</v>
       </c>
     </row>
     <row r="39" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>138</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>26</v>
+        <v>574</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>30</v>
@@ -4626,168 +4656,162 @@
         <v>0</v>
       </c>
       <c r="F39" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="G39" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I39" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L39" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>Condition.recorded-date</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S39" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA39" s="12"/>
+      <c r="AB39" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>SearchParameter-us-core-condition-recorded-date.html</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>37</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E40" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="G40" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I40" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L40" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>Condition.abatement-date</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S40" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA40" s="12"/>
+      <c r="AB40" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>SearchParameter-us-core-condition-abatement-date.html</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>38</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E41" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="G39" s="1" t="str">
+      <c r="G41" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
       </c>
-      <c r="H39" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K39" s="1" t="s">
+      <c r="H41" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K41" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="L39" s="1" t="str">
-        <f t="shared" si="9"/>
+      <c r="L41" s="1" t="str">
+        <f t="shared" si="15"/>
         <v>Condition.code</v>
       </c>
-      <c r="M39" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="O39" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y39" s="5"/>
-      <c r="Z39" s="5"/>
-      <c r="AA39" s="12"/>
-      <c r="AB39" s="1" t="str">
+      <c r="M41" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y41" s="5"/>
+      <c r="Z41" s="5"/>
+      <c r="AA41" s="12"/>
+      <c r="AB41" s="1" t="str">
         <f t="shared" si="5"/>
         <v>SearchParameter-us-core-condition-code.html</v>
       </c>
     </row>
-    <row r="40" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
-        <v>12</v>
-      </c>
-      <c r="B40" s="1" t="s">
+    <row r="42" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>12</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>440</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E40" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="G40" s="1" t="str">
-        <f t="shared" ref="G40" si="13">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B40)</f>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I40" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="L40" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>Condition.encounter</v>
-      </c>
-      <c r="M40" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="O40" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y40" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="Z40" s="5" t="str">
-        <f>"GET [base]/"&amp;B40&amp;"?patient=1137192"</f>
-        <v>GET [base]/Condition?patient=1137192</v>
-      </c>
-      <c r="AA40" s="12" t="str">
-        <f>"Fetches a bundle of all "&amp;B40&amp; " resources for the specified patient"</f>
-        <v>Fetches a bundle of all Condition resources for the specified patient</v>
-      </c>
-      <c r="AB40" s="1" t="str">
-        <f t="shared" ref="AB40" si="14">"SearchParameter-us-core-"&amp;LOWER((B40)&amp;"-"&amp;SUBSTITUTE(C40,"_","")&amp;".html")</f>
-        <v>SearchParameter-us-core-condition-encounter.html</v>
-      </c>
-    </row>
-    <row r="41" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
-        <v>39</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E41" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="G41" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-immunization</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="L41" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>Immunization.patient</v>
-      </c>
-      <c r="M41" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="O41" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y41" s="1" t="str">
-        <f>"support searching for all "&amp;LOWER(B41)&amp;"s for a patient"</f>
-        <v>support searching for all immunizations for a patient</v>
-      </c>
-      <c r="Z41" s="5" t="str">
-        <f>"GET [base]/"&amp;B41&amp;"?patient=1137192"</f>
-        <v>GET [base]/Immunization?patient=1137192</v>
-      </c>
-      <c r="AA41" s="12" t="str">
-        <f>"Fetches a bundle of all "&amp;B41&amp; " resources for the specified patient"</f>
-        <v>Fetches a bundle of all Immunization resources for the specified patient</v>
-      </c>
-      <c r="AB41" s="1" t="str">
-        <f>"SearchParameter-us-core-"&amp;LOWER((B41)&amp;"-"&amp;SUBSTITUTE(C41,"_","")&amp;".html")</f>
-        <v>SearchParameter-us-core-immunization-patient.html</v>
-      </c>
-    </row>
-    <row r="42" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
-        <v>40</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>30</v>
@@ -4796,24 +4820,27 @@
         <v>0</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="G42" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-immunization</v>
+        <f t="shared" ref="G42" si="19">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B42)</f>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="I42" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="J42" s="1" t="s">
         <v>56</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="L42" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>Immunization.status</v>
+        <f t="shared" si="15"/>
+        <v>Condition.encounter</v>
       </c>
       <c r="M42" s="1" t="s">
         <v>56</v>
@@ -4821,32 +4848,40 @@
       <c r="O42" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Y42" s="5"/>
-      <c r="Z42" s="5"/>
-      <c r="AA42" s="12"/>
+      <c r="Y42" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="Z42" s="5" t="str">
+        <f>"GET [base]/"&amp;B42&amp;"?patient=1137192"</f>
+        <v>GET [base]/Condition?patient=1137192</v>
+      </c>
+      <c r="AA42" s="12" t="str">
+        <f>"Fetches a bundle of all "&amp;B42&amp; " resources for the specified patient"</f>
+        <v>Fetches a bundle of all Condition resources for the specified patient</v>
+      </c>
       <c r="AB42" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>SearchParameter-us-core-immunization-status.html</v>
+        <f t="shared" ref="AB42" si="20">"SearchParameter-us-core-"&amp;LOWER((B42)&amp;"-"&amp;SUBSTITUTE(C42,"_","")&amp;".html")</f>
+        <v>SearchParameter-us-core-condition-encounter.html</v>
       </c>
     </row>
     <row r="43" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>161</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="E43" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G43" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4859,154 +4894,154 @@
         <v>56</v>
       </c>
       <c r="K43" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L43" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>Immunization.patient</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y43" s="1" t="str">
+        <f>"support searching for all "&amp;LOWER(B43)&amp;"s for a patient"</f>
+        <v>support searching for all immunizations for a patient</v>
+      </c>
+      <c r="Z43" s="5" t="str">
+        <f>"GET [base]/"&amp;B43&amp;"?patient=1137192"</f>
+        <v>GET [base]/Immunization?patient=1137192</v>
+      </c>
+      <c r="AA43" s="12" t="str">
+        <f>"Fetches a bundle of all "&amp;B43&amp; " resources for the specified patient"</f>
+        <v>Fetches a bundle of all Immunization resources for the specified patient</v>
+      </c>
+      <c r="AB43" s="1" t="str">
+        <f>"SearchParameter-us-core-"&amp;LOWER((B43)&amp;"-"&amp;SUBSTITUTE(C43,"_","")&amp;".html")</f>
+        <v>SearchParameter-us-core-immunization-patient.html</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>40</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E44" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="G44" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-immunization</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L44" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>Immunization.status</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y44" s="5"/>
+      <c r="Z44" s="5"/>
+      <c r="AA44" s="12"/>
+      <c r="AB44" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>SearchParameter-us-core-immunization-status.html</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>41</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="L43" s="1" t="str">
-        <f t="shared" si="9"/>
+      <c r="D45" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E45" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="G45" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-immunization</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L45" s="1" t="str">
+        <f t="shared" si="15"/>
         <v>Immunization.date</v>
       </c>
-      <c r="M43" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="O43" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="P43" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="S43" s="1" t="s">
+      <c r="M45" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S45" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AA43" s="12"/>
-      <c r="AB43" s="1" t="str">
+      <c r="AA45" s="12"/>
+      <c r="AB45" s="1" t="str">
         <f t="shared" si="5"/>
         <v>SearchParameter-us-core-immunization-date.html</v>
       </c>
     </row>
-    <row r="44" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
-        <v>42</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E44" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G44" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="L44" s="1" t="str">
-        <f>B44&amp;".id"</f>
-        <v>DocumentReference.id</v>
-      </c>
-      <c r="M44" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="O44" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y44" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="Z44" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="AA44" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="AB44" s="1" t="str">
-        <f t="shared" ref="AB44" si="15">"SearchParameter-us-core-"&amp;LOWER((B44)&amp;"-"&amp;C44&amp;".html")</f>
-        <v>SearchParameter-us-core-documentreference-_id.html</v>
-      </c>
-    </row>
-    <row r="45" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
-        <v>43</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E45" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="G45" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="L45" s="1" t="str">
-        <f t="shared" ref="L45:L71" si="16">B45&amp;"."&amp;C45</f>
-        <v>DocumentReference.status</v>
-      </c>
-      <c r="M45" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N45" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O45" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y45" s="5"/>
-      <c r="Z45" s="5"/>
-      <c r="AA45" s="12"/>
-      <c r="AB45" s="1" t="str">
-        <f t="shared" ref="AB45:AB74" si="17">"SearchParameter-us-core-"&amp;LOWER((B45)&amp;"-"&amp;C45&amp;".html")</f>
-        <v>SearchParameter-us-core-documentreference-status.html</v>
-      </c>
-    </row>
     <row r="46" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>178</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E46" s="1" t="b">
         <v>1</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>525</v>
       </c>
       <c r="G46" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5019,11 +5054,11 @@
         <v>56</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="L46" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>DocumentReference.patient</v>
+        <f>B46&amp;".id"</f>
+        <v>DocumentReference.id</v>
       </c>
       <c r="M46" s="1" t="s">
         <v>56</v>
@@ -5031,32 +5066,29 @@
       <c r="O46" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Y46" s="1" t="str">
-        <f>"support searching for all "&amp;LOWER(B46)&amp;"s for a patient"</f>
-        <v>support searching for all documentreferences for a patient</v>
-      </c>
-      <c r="Z46" s="5" t="str">
-        <f>"GET [base]/"&amp;B46&amp;"?patient=1137192"</f>
-        <v>GET [base]/DocumentReference?patient=1137192</v>
-      </c>
-      <c r="AA46" s="12" t="str">
-        <f>"Fetches a bundle of all "&amp;B46&amp; " resources for the specified patient. See the implementation notes above for how to access the actual document."</f>
-        <v>Fetches a bundle of all DocumentReference resources for the specified patient. See the implementation notes above for how to access the actual document.</v>
+      <c r="Y46" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="Z46" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="AA46" s="2" t="s">
+        <v>291</v>
       </c>
       <c r="AB46" s="1" t="str">
-        <f t="shared" ref="AB46:AB49" si="18">"SearchParameter-us-core-"&amp;LOWER((B46)&amp;"-"&amp;C46&amp;".html")</f>
-        <v>SearchParameter-us-core-documentreference-patient.html</v>
+        <f t="shared" ref="AB46" si="21">"SearchParameter-us-core-"&amp;LOWER((B46)&amp;"-"&amp;C46&amp;".html")</f>
+        <v>SearchParameter-us-core-documentreference-_id.html</v>
       </c>
     </row>
     <row r="47" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>178</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>140</v>
+        <v>62</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>30</v>
@@ -5081,11 +5113,14 @@
         <v>57</v>
       </c>
       <c r="L47" s="1" t="str">
-        <f t="shared" ref="L47:L49" si="19">B47&amp;"."&amp;C47</f>
-        <v>DocumentReference.category</v>
+        <f t="shared" ref="L47:L73" si="22">B47&amp;"."&amp;C47</f>
+        <v>DocumentReference.status</v>
       </c>
       <c r="M47" s="1" t="s">
         <v>56</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="O47" s="1" t="s">
         <v>56</v>
@@ -5094,28 +5129,28 @@
       <c r="Z47" s="5"/>
       <c r="AA47" s="12"/>
       <c r="AB47" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>SearchParameter-us-core-documentreference-category.html</v>
+        <f t="shared" ref="AB47:AB76" si="23">"SearchParameter-us-core-"&amp;LOWER((B47)&amp;"-"&amp;C47&amp;".html")</f>
+        <v>SearchParameter-us-core-documentreference-status.html</v>
       </c>
     </row>
     <row r="48" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>178</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="E48" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="G48" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5128,11 +5163,11 @@
         <v>56</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="L48" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>DocumentReference.type</v>
+        <f t="shared" si="22"/>
+        <v>DocumentReference.patient</v>
       </c>
       <c r="M48" s="1" t="s">
         <v>56</v>
@@ -5140,23 +5175,32 @@
       <c r="O48" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Y48" s="5"/>
-      <c r="Z48" s="5"/>
-      <c r="AA48" s="12"/>
+      <c r="Y48" s="1" t="str">
+        <f>"support searching for all "&amp;LOWER(B48)&amp;"s for a patient"</f>
+        <v>support searching for all documentreferences for a patient</v>
+      </c>
+      <c r="Z48" s="5" t="str">
+        <f>"GET [base]/"&amp;B48&amp;"?patient=1137192"</f>
+        <v>GET [base]/DocumentReference?patient=1137192</v>
+      </c>
+      <c r="AA48" s="12" t="str">
+        <f>"Fetches a bundle of all "&amp;B48&amp; " resources for the specified patient. See the implementation notes above for how to access the actual document."</f>
+        <v>Fetches a bundle of all DocumentReference resources for the specified patient. See the implementation notes above for how to access the actual document.</v>
+      </c>
       <c r="AB48" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>SearchParameter-us-core-documentreference-type.html</v>
+        <f t="shared" ref="AB48:AB51" si="24">"SearchParameter-us-core-"&amp;LOWER((B48)&amp;"-"&amp;C48&amp;".html")</f>
+        <v>SearchParameter-us-core-documentreference-patient.html</v>
       </c>
     </row>
     <row r="49" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>178</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>30</v>
@@ -5165,7 +5209,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="G49" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5178,11 +5222,11 @@
         <v>56</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="L49" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>DocumentReference.date</v>
+        <f t="shared" ref="L49:L51" si="25">B49&amp;"."&amp;C49</f>
+        <v>DocumentReference.category</v>
       </c>
       <c r="M49" s="1" t="s">
         <v>56</v>
@@ -5190,27 +5234,23 @@
       <c r="O49" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="P49" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="S49" s="1" t="s">
-        <v>93</v>
-      </c>
+      <c r="Y49" s="5"/>
+      <c r="Z49" s="5"/>
       <c r="AA49" s="12"/>
       <c r="AB49" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>SearchParameter-us-core-documentreference-date.html</v>
+        <f t="shared" si="24"/>
+        <v>SearchParameter-us-core-documentreference-category.html</v>
       </c>
     </row>
     <row r="50" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>178</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>289</v>
+        <v>13</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>30</v>
@@ -5219,7 +5259,7 @@
         <v>0</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="G50" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5232,10 +5272,11 @@
         <v>56</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L50" s="1" t="s">
-        <v>292</v>
+        <v>57</v>
+      </c>
+      <c r="L50" s="1" t="str">
+        <f t="shared" si="25"/>
+        <v>DocumentReference.type</v>
       </c>
       <c r="M50" s="1" t="s">
         <v>56</v>
@@ -5243,27 +5284,23 @@
       <c r="O50" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="P50" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="S50" s="1" t="s">
-        <v>93</v>
-      </c>
+      <c r="Y50" s="5"/>
+      <c r="Z50" s="5"/>
       <c r="AA50" s="12"/>
       <c r="AB50" s="1" t="str">
-        <f t="shared" ref="AB50" si="20">"SearchParameter-us-core-"&amp;LOWER((B50)&amp;"-"&amp;C50&amp;".html")</f>
-        <v>SearchParameter-us-core-documentreference-period.html</v>
+        <f t="shared" si="24"/>
+        <v>SearchParameter-us-core-documentreference-type.html</v>
       </c>
     </row>
     <row r="51" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>30</v>
@@ -5272,11 +5309,11 @@
         <v>0</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G51" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-diagnosticreport</v>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>56</v>
@@ -5285,51 +5322,52 @@
         <v>56</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="L51" s="1" t="str">
-        <f t="shared" ref="L51:L55" si="21">B51&amp;"."&amp;C51</f>
-        <v>DiagnosticReport.status</v>
+        <f t="shared" si="25"/>
+        <v>DocumentReference.date</v>
       </c>
       <c r="M51" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N51" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="O51" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Y51" s="5"/>
-      <c r="Z51" s="5"/>
+      <c r="P51" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S51" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="AA51" s="12"/>
       <c r="AB51" s="1" t="str">
-        <f>"SearchParameter-us-core-"&amp;LOWER((B51)&amp;"-"&amp;C51&amp;".html")</f>
-        <v>SearchParameter-us-core-diagnosticreport-status.html</v>
+        <f t="shared" si="24"/>
+        <v>SearchParameter-us-core-documentreference-date.html</v>
       </c>
     </row>
     <row r="52" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>90</v>
+        <v>289</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E52" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="G52" s="1" t="str">
-        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B52)</f>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-diagnosticreport</v>
+        <f t="shared" si="1"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>56</v>
@@ -5338,11 +5376,10 @@
         <v>56</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="L52" s="1" t="str">
-        <f t="shared" si="21"/>
-        <v>DiagnosticReport.patient</v>
+        <v>79</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>292</v>
       </c>
       <c r="M52" s="1" t="s">
         <v>56</v>
@@ -5350,32 +5387,27 @@
       <c r="O52" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Y52" s="1" t="str">
-        <f>"support searching for all "&amp;LOWER(B52)&amp;"s for a patient"</f>
-        <v>support searching for all diagnosticreports for a patient</v>
-      </c>
-      <c r="Z52" s="5" t="str">
-        <f>"GET [base]/"&amp;B52&amp;"?patient=1137192"</f>
-        <v>GET [base]/DiagnosticReport?patient=1137192</v>
-      </c>
-      <c r="AA52" s="12" t="str">
-        <f>"Fetches a bundle of all "&amp;B52&amp; " resources for the specified patient"</f>
-        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient</v>
-      </c>
+      <c r="P52" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S52" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA52" s="12"/>
       <c r="AB52" s="1" t="str">
-        <f>"SearchParameter-us-core-"&amp;LOWER((B52)&amp;"-"&amp;C52&amp;".html")</f>
-        <v>SearchParameter-us-core-diagnosticreport-patient.html</v>
+        <f t="shared" ref="AB52" si="26">"SearchParameter-us-core-"&amp;LOWER((B52)&amp;"-"&amp;C52&amp;".html")</f>
+        <v>SearchParameter-us-core-documentreference-period.html</v>
       </c>
     </row>
     <row r="53" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>179</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>140</v>
+        <v>62</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>30</v>
@@ -5400,11 +5432,14 @@
         <v>57</v>
       </c>
       <c r="L53" s="1" t="str">
-        <f t="shared" si="21"/>
-        <v>DiagnosticReport.category</v>
+        <f t="shared" ref="L53:L57" si="27">B53&amp;"."&amp;C53</f>
+        <v>DiagnosticReport.status</v>
       </c>
       <c r="M53" s="1" t="s">
         <v>56</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="O53" s="1" t="s">
         <v>56</v>
@@ -5414,30 +5449,30 @@
       <c r="AA53" s="12"/>
       <c r="AB53" s="1" t="str">
         <f>"SearchParameter-us-core-"&amp;LOWER((B53)&amp;"-"&amp;C53&amp;".html")</f>
-        <v>SearchParameter-us-core-diagnosticreport-category.html</v>
+        <v>SearchParameter-us-core-diagnosticreport-status.html</v>
       </c>
     </row>
     <row r="54" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>179</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="E54" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="G54" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B54)</f>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-diagnosticreport</v>
       </c>
       <c r="H54" s="1" t="s">
@@ -5447,38 +5482,44 @@
         <v>56</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="L54" s="1" t="str">
-        <f t="shared" si="21"/>
-        <v>DiagnosticReport.code</v>
+        <f t="shared" si="27"/>
+        <v>DiagnosticReport.patient</v>
       </c>
       <c r="M54" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N54" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="O54" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Y54" s="5"/>
-      <c r="Z54" s="5"/>
-      <c r="AA54" s="12"/>
+      <c r="Y54" s="1" t="str">
+        <f>"support searching for all "&amp;LOWER(B54)&amp;"s for a patient"</f>
+        <v>support searching for all diagnosticreports for a patient</v>
+      </c>
+      <c r="Z54" s="5" t="str">
+        <f>"GET [base]/"&amp;B54&amp;"?patient=1137192"</f>
+        <v>GET [base]/DiagnosticReport?patient=1137192</v>
+      </c>
+      <c r="AA54" s="12" t="str">
+        <f>"Fetches a bundle of all "&amp;B54&amp; " resources for the specified patient"</f>
+        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient</v>
+      </c>
       <c r="AB54" s="1" t="str">
         <f>"SearchParameter-us-core-"&amp;LOWER((B54)&amp;"-"&amp;C54&amp;".html")</f>
-        <v>SearchParameter-us-core-diagnosticreport-code.html</v>
+        <v>SearchParameter-us-core-diagnosticreport-patient.html</v>
       </c>
     </row>
     <row r="55" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>179</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>30</v>
@@ -5487,7 +5528,7 @@
         <v>0</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="G55" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5500,11 +5541,11 @@
         <v>56</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="L55" s="1" t="str">
-        <f t="shared" si="21"/>
-        <v>DiagnosticReport.date</v>
+        <f t="shared" si="27"/>
+        <v>DiagnosticReport.category</v>
       </c>
       <c r="M55" s="1" t="s">
         <v>56</v>
@@ -5512,27 +5553,23 @@
       <c r="O55" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="P55" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="S55" s="1" t="s">
-        <v>93</v>
-      </c>
+      <c r="Y55" s="5"/>
+      <c r="Z55" s="5"/>
       <c r="AA55" s="12"/>
       <c r="AB55" s="1" t="str">
         <f>"SearchParameter-us-core-"&amp;LOWER((B55)&amp;"-"&amp;C55&amp;".html")</f>
-        <v>SearchParameter-us-core-diagnosticreport-date.html</v>
+        <v>SearchParameter-us-core-diagnosticreport-category.html</v>
       </c>
     </row>
     <row r="56" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>317</v>
+        <v>26</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>30</v>
@@ -5545,7 +5582,7 @@
       </c>
       <c r="G56" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-goal</v>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-diagnosticreport</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>56</v>
@@ -5557,11 +5594,14 @@
         <v>57</v>
       </c>
       <c r="L56" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>Goal.lifecycle-status</v>
+        <f t="shared" si="27"/>
+        <v>DiagnosticReport.code</v>
       </c>
       <c r="M56" s="1" t="s">
         <v>56</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="O56" s="1" t="s">
         <v>56</v>
@@ -5570,32 +5610,32 @@
       <c r="Z56" s="5"/>
       <c r="AA56" s="12"/>
       <c r="AB56" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>SearchParameter-us-core-goal-lifecycle-status.html</v>
+        <f>"SearchParameter-us-core-"&amp;LOWER((B56)&amp;"-"&amp;C56&amp;".html")</f>
+        <v>SearchParameter-us-core-diagnosticreport-code.html</v>
       </c>
     </row>
     <row r="57" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E57" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="G57" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-goal</v>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-diagnosticreport</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>56</v>
@@ -5604,11 +5644,11 @@
         <v>56</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="L57" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>Goal.patient</v>
+        <f t="shared" si="27"/>
+        <v>DiagnosticReport.date</v>
       </c>
       <c r="M57" s="1" t="s">
         <v>56</v>
@@ -5616,32 +5656,27 @@
       <c r="O57" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Y57" s="1" t="str">
-        <f>"support searching for all "&amp;LOWER(B57)&amp;"s for a patient"</f>
-        <v>support searching for all goals for a patient</v>
-      </c>
-      <c r="Z57" s="5" t="str">
-        <f>"GET [base]/"&amp;B57&amp;"?patient=1137192"</f>
-        <v>GET [base]/Goal?patient=1137192</v>
-      </c>
-      <c r="AA57" s="12" t="str">
-        <f>"Fetches a bundle of all "&amp;B57&amp; " resources for the specified patient"</f>
-        <v>Fetches a bundle of all Goal resources for the specified patient</v>
-      </c>
+      <c r="P57" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="S57" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA57" s="12"/>
       <c r="AB57" s="1" t="str">
-        <f t="shared" ref="AB57:AB58" si="22">"SearchParameter-us-core-"&amp;LOWER((B57)&amp;"-"&amp;C57&amp;".html")</f>
-        <v>SearchParameter-us-core-goal-patient.html</v>
+        <f>"SearchParameter-us-core-"&amp;LOWER((B57)&amp;"-"&amp;C57&amp;".html")</f>
+        <v>SearchParameter-us-core-diagnosticreport-date.html</v>
       </c>
     </row>
     <row r="58" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>180</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>418</v>
+        <v>317</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>30</v>
@@ -5650,7 +5685,7 @@
         <v>0</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G58" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5663,11 +5698,11 @@
         <v>56</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="L58" s="1" t="str">
-        <f t="shared" ref="L58" si="23">B58&amp;"."&amp;C58</f>
-        <v>Goal.target-date</v>
+        <f t="shared" si="22"/>
+        <v>Goal.lifecycle-status</v>
       </c>
       <c r="M58" s="1" t="s">
         <v>56</v>
@@ -5675,40 +5710,36 @@
       <c r="O58" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="P58" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="S58" s="1" t="s">
-        <v>93</v>
-      </c>
+      <c r="Y58" s="5"/>
+      <c r="Z58" s="5"/>
       <c r="AA58" s="12"/>
       <c r="AB58" s="1" t="str">
-        <f t="shared" si="22"/>
-        <v>SearchParameter-us-core-goal-target-date.html</v>
+        <f t="shared" si="23"/>
+        <v>SearchParameter-us-core-goal-lifecycle-status.html</v>
       </c>
     </row>
     <row r="59" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="E59" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="G59" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-goal</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>56</v>
@@ -5717,38 +5748,44 @@
         <v>56</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="L59" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>MedicationRequest.status</v>
+        <f t="shared" si="22"/>
+        <v>Goal.patient</v>
       </c>
       <c r="M59" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N59" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="O59" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Y59" s="5"/>
-      <c r="Z59" s="5"/>
-      <c r="AA59" s="12"/>
+      <c r="Y59" s="1" t="str">
+        <f>"support searching for all "&amp;LOWER(B59)&amp;"s for a patient"</f>
+        <v>support searching for all goals for a patient</v>
+      </c>
+      <c r="Z59" s="5" t="str">
+        <f>"GET [base]/"&amp;B59&amp;"?patient=1137192"</f>
+        <v>GET [base]/Goal?patient=1137192</v>
+      </c>
+      <c r="AA59" s="12" t="str">
+        <f>"Fetches a bundle of all "&amp;B59&amp; " resources for the specified patient"</f>
+        <v>Fetches a bundle of all Goal resources for the specified patient</v>
+      </c>
       <c r="AB59" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>SearchParameter-us-core-medicationrequest-status.html</v>
+        <f t="shared" ref="AB59:AB60" si="28">"SearchParameter-us-core-"&amp;LOWER((B59)&amp;"-"&amp;C59&amp;".html")</f>
+        <v>SearchParameter-us-core-goal-patient.html</v>
       </c>
     </row>
     <row r="60" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>30</v>
@@ -5757,11 +5794,11 @@
         <v>0</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G60" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-goal</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>56</v>
@@ -5770,38 +5807,39 @@
         <v>56</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="L60" s="1" t="str">
-        <f t="shared" ref="L60" si="24">B60&amp;"."&amp;C60</f>
-        <v>MedicationRequest.intent</v>
+        <f t="shared" ref="L60" si="29">B60&amp;"."&amp;C60</f>
+        <v>Goal.target-date</v>
       </c>
       <c r="M60" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N60" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="O60" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Y60" s="5"/>
-      <c r="Z60" s="5"/>
+      <c r="P60" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S60" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="AA60" s="12"/>
       <c r="AB60" s="1" t="str">
-        <f t="shared" ref="AB60" si="25">"SearchParameter-us-core-"&amp;LOWER((B60)&amp;"-"&amp;C60&amp;".html")</f>
-        <v>SearchParameter-us-core-medicationrequest-intent.html</v>
+        <f t="shared" si="28"/>
+        <v>SearchParameter-us-core-goal-target-date.html</v>
       </c>
     </row>
     <row r="61" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>181</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>30</v>
@@ -5810,7 +5848,7 @@
         <v>0</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="G61" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5823,36 +5861,38 @@
         <v>56</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="L61" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>MedicationRequest.patient</v>
+        <f t="shared" si="22"/>
+        <v>MedicationRequest.status</v>
       </c>
       <c r="M61" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="N61" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="O61" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="W61" s="7"/>
-      <c r="X61" s="7"/>
-      <c r="Z61" s="12"/>
+      <c r="Y61" s="5"/>
+      <c r="Z61" s="5"/>
       <c r="AA61" s="12"/>
       <c r="AB61" s="1" t="str">
-        <f t="shared" ref="AB61" si="26">"SearchParameter-us-core-"&amp;LOWER((B61)&amp;"-"&amp;C61&amp;".html")</f>
-        <v>SearchParameter-us-core-medicationrequest-patient.html</v>
+        <f t="shared" si="23"/>
+        <v>SearchParameter-us-core-medicationrequest-status.html</v>
       </c>
     </row>
     <row r="62" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>181</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>30</v>
@@ -5861,7 +5901,7 @@
         <v>0</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="G62" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5874,36 +5914,38 @@
         <v>56</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="L62" s="1" t="str">
-        <f t="shared" ref="L62" si="27">B62&amp;"."&amp;C62</f>
-        <v>MedicationRequest.encounter</v>
+        <f t="shared" ref="L62" si="30">B62&amp;"."&amp;C62</f>
+        <v>MedicationRequest.intent</v>
       </c>
       <c r="M62" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="N62" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="O62" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="W62" s="7"/>
-      <c r="X62" s="7"/>
-      <c r="Z62" s="12"/>
+      <c r="Y62" s="5"/>
+      <c r="Z62" s="5"/>
       <c r="AA62" s="12"/>
       <c r="AB62" s="1" t="str">
-        <f t="shared" ref="AB62" si="28">"SearchParameter-us-core-"&amp;LOWER((B62)&amp;"-"&amp;C62&amp;".html")</f>
-        <v>SearchParameter-us-core-medicationrequest-encounter.html</v>
+        <f t="shared" ref="AB62" si="31">"SearchParameter-us-core-"&amp;LOWER((B62)&amp;"-"&amp;C62&amp;".html")</f>
+        <v>SearchParameter-us-core-medicationrequest-intent.html</v>
       </c>
     </row>
     <row r="63" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>181</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>230</v>
+        <v>90</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>30</v>
@@ -5912,7 +5954,7 @@
         <v>0</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G63" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5925,11 +5967,11 @@
         <v>56</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="L63" s="1" t="str">
-        <f t="shared" ref="L63" si="29">B63&amp;"."&amp;C63</f>
-        <v>MedicationRequest.authoredon</v>
+        <f t="shared" si="22"/>
+        <v>MedicationRequest.patient</v>
       </c>
       <c r="M63" s="1" t="s">
         <v>56</v>
@@ -5937,27 +5979,24 @@
       <c r="O63" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="P63" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="S63" s="1" t="s">
-        <v>93</v>
-      </c>
+      <c r="W63" s="7"/>
+      <c r="X63" s="7"/>
+      <c r="Z63" s="12"/>
       <c r="AA63" s="12"/>
       <c r="AB63" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>SearchParameter-us-core-medicationrequest-authoredon.html</v>
+        <f t="shared" ref="AB63" si="32">"SearchParameter-us-core-"&amp;LOWER((B63)&amp;"-"&amp;C63&amp;".html")</f>
+        <v>SearchParameter-us-core-medicationrequest-patient.html</v>
       </c>
     </row>
     <row r="64" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>447</v>
+        <v>181</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>62</v>
+        <v>440</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>30</v>
@@ -5966,11 +6005,11 @@
         <v>0</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="G64" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!medicationstatement</v>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>56</v>
@@ -5979,51 +6018,49 @@
         <v>56</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="L64" s="1" t="str">
-        <f>B64&amp;"."&amp;C64</f>
-        <v>!MedicationStatement.status</v>
+        <f t="shared" ref="L64" si="33">B64&amp;"."&amp;C64</f>
+        <v>MedicationRequest.encounter</v>
       </c>
       <c r="M64" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N64" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="O64" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Y64" s="5"/>
-      <c r="Z64" s="5"/>
+      <c r="W64" s="7"/>
+      <c r="X64" s="7"/>
+      <c r="Z64" s="12"/>
       <c r="AA64" s="12"/>
       <c r="AB64" s="1" t="str">
-        <f>"SearchParameter-us-core-"&amp;LOWER((B64)&amp;"-"&amp;C64&amp;".html")</f>
-        <v>SearchParameter-us-core-!medicationstatement-status.html</v>
+        <f t="shared" ref="AB64" si="34">"SearchParameter-us-core-"&amp;LOWER((B64)&amp;"-"&amp;C64&amp;".html")</f>
+        <v>SearchParameter-us-core-medicationrequest-encounter.html</v>
       </c>
     </row>
     <row r="65" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>447</v>
+        <v>181</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>90</v>
+        <v>230</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E65" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="G65" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!medicationstatement</v>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>56</v>
@@ -6032,11 +6069,11 @@
         <v>56</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="L65" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>!MedicationStatement.patient</v>
+        <f t="shared" ref="L65" si="35">B65&amp;"."&amp;C65</f>
+        <v>MedicationRequest.authoredon</v>
       </c>
       <c r="M65" s="1" t="s">
         <v>56</v>
@@ -6044,31 +6081,27 @@
       <c r="O65" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="X65" s="7"/>
-      <c r="Y65" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="Z65" s="12" t="s">
-        <v>341</v>
-      </c>
-      <c r="AA65" s="12" t="str">
-        <f>"Fetches a bundle of all "&amp;B65&amp; " resources for the specified patient. Mandatory for client to support the _include parameter. Optional for server to support the _include parameter."</f>
-        <v>Fetches a bundle of all !MedicationStatement resources for the specified patient. Mandatory for client to support the _include parameter. Optional for server to support the _include parameter.</v>
-      </c>
+      <c r="P65" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S65" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA65" s="12"/>
       <c r="AB65" s="1" t="str">
-        <f t="shared" ref="AB65:AB66" si="30">"SearchParameter-us-core-"&amp;LOWER((B65)&amp;"-"&amp;C65&amp;".html")</f>
-        <v>SearchParameter-us-core-!medicationstatement-patient.html</v>
+        <f t="shared" si="23"/>
+        <v>SearchParameter-us-core-medicationrequest-authoredon.html</v>
       </c>
     </row>
     <row r="66" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>447</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>229</v>
+        <v>62</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>30</v>
@@ -6077,7 +6110,7 @@
         <v>0</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="G66" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6090,52 +6123,51 @@
         <v>56</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="L66" s="1" t="str">
-        <f t="shared" ref="L66" si="31">B66&amp;"."&amp;C66</f>
-        <v>!MedicationStatement.effective</v>
+        <f>B66&amp;"."&amp;C66</f>
+        <v>!MedicationStatement.status</v>
       </c>
       <c r="M66" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="N66" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="O66" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="P66" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="S66" s="1" t="s">
-        <v>93</v>
-      </c>
+      <c r="Y66" s="5"/>
+      <c r="Z66" s="5"/>
       <c r="AA66" s="12"/>
       <c r="AB66" s="1" t="str">
-        <f t="shared" si="30"/>
-        <v>SearchParameter-us-core-!medicationstatement-effective.html</v>
+        <f>"SearchParameter-us-core-"&amp;LOWER((B66)&amp;"-"&amp;C66&amp;".html")</f>
+        <v>SearchParameter-us-core-!medicationstatement-status.html</v>
       </c>
     </row>
     <row r="67" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>182</v>
+        <v>447</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="E67" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="G67" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-procedure</v>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!medicationstatement</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>56</v>
@@ -6144,51 +6176,56 @@
         <v>56</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="L67" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>Procedure.status</v>
+        <f t="shared" si="22"/>
+        <v>!MedicationStatement.patient</v>
       </c>
       <c r="M67" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N67" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="O67" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Y67" s="5"/>
-      <c r="Z67" s="5"/>
-      <c r="AA67" s="12"/>
+      <c r="X67" s="7"/>
+      <c r="Y67" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z67" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="AA67" s="12" t="str">
+        <f>"Fetches a bundle of all "&amp;B67&amp; " resources for the specified patient. Mandatory for client to support the _include parameter. Optional for server to support the _include parameter."</f>
+        <v>Fetches a bundle of all !MedicationStatement resources for the specified patient. Mandatory for client to support the _include parameter. Optional for server to support the _include parameter.</v>
+      </c>
       <c r="AB67" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>SearchParameter-us-core-procedure-status.html</v>
+        <f t="shared" ref="AB67:AB68" si="36">"SearchParameter-us-core-"&amp;LOWER((B67)&amp;"-"&amp;C67&amp;".html")</f>
+        <v>SearchParameter-us-core-!medicationstatement-patient.html</v>
       </c>
     </row>
     <row r="68" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>182</v>
+        <v>447</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>90</v>
+        <v>229</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E68" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="G68" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-procedure</v>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!medicationstatement</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>56</v>
@@ -6197,11 +6234,11 @@
         <v>56</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="L68" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>Procedure.patient</v>
+        <f t="shared" ref="L68" si="37">B68&amp;"."&amp;C68</f>
+        <v>!MedicationStatement.effective</v>
       </c>
       <c r="M68" s="1" t="s">
         <v>56</v>
@@ -6209,31 +6246,27 @@
       <c r="O68" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Y68" s="1" t="str">
-        <f>"support searching for all "&amp;LOWER(B68)&amp;"s for a patient"</f>
-        <v>support searching for all procedures for a patient</v>
-      </c>
-      <c r="Z68" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="AA68" s="12" t="str">
-        <f>"Fetches a bundle of all "&amp;B68&amp; " resources for the specified patient"</f>
-        <v>Fetches a bundle of all Procedure resources for the specified patient</v>
-      </c>
+      <c r="P68" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="S68" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA68" s="12"/>
       <c r="AB68" s="1" t="str">
-        <f t="shared" ref="AB68:AB70" si="32">"SearchParameter-us-core-"&amp;LOWER((B68)&amp;"-"&amp;C68&amp;".html")</f>
-        <v>SearchParameter-us-core-procedure-patient.html</v>
+        <f t="shared" si="36"/>
+        <v>SearchParameter-us-core-!medicationstatement-effective.html</v>
       </c>
     </row>
     <row r="69" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>182</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>30</v>
@@ -6242,7 +6275,7 @@
         <v>0</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="G69" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6255,48 +6288,47 @@
         <v>56</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="L69" s="1" t="str">
-        <f t="shared" ref="L69:L70" si="33">B69&amp;"."&amp;C69</f>
-        <v>Procedure.date</v>
+        <f t="shared" si="22"/>
+        <v>Procedure.status</v>
       </c>
       <c r="M69" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="N69" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="O69" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="P69" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="S69" s="1" t="s">
-        <v>93</v>
-      </c>
+      <c r="Y69" s="5"/>
+      <c r="Z69" s="5"/>
       <c r="AA69" s="12"/>
       <c r="AB69" s="1" t="str">
-        <f t="shared" si="32"/>
-        <v>SearchParameter-us-core-procedure-date.html</v>
+        <f t="shared" si="23"/>
+        <v>SearchParameter-us-core-procedure-status.html</v>
       </c>
     </row>
     <row r="70" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>182</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="E70" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="G70" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6309,38 +6341,43 @@
         <v>56</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="L70" s="1" t="str">
-        <f t="shared" si="33"/>
-        <v>Procedure.code</v>
+        <f t="shared" si="22"/>
+        <v>Procedure.patient</v>
       </c>
       <c r="M70" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N70" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="O70" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Y70" s="5"/>
-      <c r="Z70" s="5"/>
-      <c r="AA70" s="12"/>
+      <c r="Y70" s="1" t="str">
+        <f>"support searching for all "&amp;LOWER(B70)&amp;"s for a patient"</f>
+        <v>support searching for all procedures for a patient</v>
+      </c>
+      <c r="Z70" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="AA70" s="12" t="str">
+        <f>"Fetches a bundle of all "&amp;B70&amp; " resources for the specified patient"</f>
+        <v>Fetches a bundle of all Procedure resources for the specified patient</v>
+      </c>
       <c r="AB70" s="1" t="str">
-        <f t="shared" si="32"/>
-        <v>SearchParameter-us-core-procedure-code.html</v>
+        <f t="shared" ref="AB70:AB72" si="38">"SearchParameter-us-core-"&amp;LOWER((B70)&amp;"-"&amp;C70&amp;".html")</f>
+        <v>SearchParameter-us-core-procedure-patient.html</v>
       </c>
     </row>
     <row r="71" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>30</v>
@@ -6349,11 +6386,11 @@
         <v>0</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G71" s="1" t="str">
-        <f t="shared" ref="G71:G98" si="34">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B71)</f>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation</v>
+        <f t="shared" si="1"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-procedure</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>56</v>
@@ -6362,38 +6399,39 @@
         <v>56</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="L71" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>Observation.status</v>
+        <f t="shared" ref="L71:L72" si="39">B71&amp;"."&amp;C71</f>
+        <v>Procedure.date</v>
       </c>
       <c r="M71" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N71" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="O71" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Y71" s="5"/>
-      <c r="Z71" s="5"/>
+      <c r="P71" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S71" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="AA71" s="12"/>
       <c r="AB71" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>SearchParameter-us-core-observation-status.html</v>
+        <f t="shared" si="38"/>
+        <v>SearchParameter-us-core-procedure-date.html</v>
       </c>
     </row>
     <row r="72" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>140</v>
+        <v>26</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>30</v>
@@ -6405,8 +6443,8 @@
         <v>528</v>
       </c>
       <c r="G72" s="1" t="str">
-        <f t="shared" si="34"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation</v>
+        <f t="shared" si="1"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-procedure</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>56</v>
@@ -6418,11 +6456,14 @@
         <v>57</v>
       </c>
       <c r="L72" s="1" t="str">
-        <f t="shared" ref="L72:L74" si="35">B72&amp;"."&amp;C72</f>
-        <v>Observation.category</v>
+        <f t="shared" si="39"/>
+        <v>Procedure.code</v>
       </c>
       <c r="M72" s="1" t="s">
         <v>56</v>
+      </c>
+      <c r="N72" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="O72" s="1" t="s">
         <v>56</v>
@@ -6431,19 +6472,19 @@
       <c r="Z72" s="5"/>
       <c r="AA72" s="12"/>
       <c r="AB72" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>SearchParameter-us-core-observation-category.html</v>
+        <f t="shared" si="38"/>
+        <v>SearchParameter-us-core-procedure-code.html</v>
       </c>
     </row>
     <row r="73" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>183</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>30</v>
@@ -6455,7 +6496,7 @@
         <v>528</v>
       </c>
       <c r="G73" s="1" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" ref="G73:G100" si="40">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B73)</f>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation</v>
       </c>
       <c r="H73" s="1" t="s">
@@ -6468,14 +6509,14 @@
         <v>57</v>
       </c>
       <c r="L73" s="1" t="str">
-        <f t="shared" si="35"/>
-        <v>Observation.code</v>
+        <f t="shared" si="22"/>
+        <v>Observation.status</v>
       </c>
       <c r="M73" s="1" t="s">
         <v>56</v>
       </c>
       <c r="N73" s="1" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="O73" s="1" t="s">
         <v>56</v>
@@ -6484,19 +6525,19 @@
       <c r="Z73" s="5"/>
       <c r="AA73" s="12"/>
       <c r="AB73" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>SearchParameter-us-core-observation-code.html</v>
+        <f t="shared" si="23"/>
+        <v>SearchParameter-us-core-observation-status.html</v>
       </c>
     </row>
     <row r="74" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>183</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>30</v>
@@ -6505,10 +6546,10 @@
         <v>0</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="G74" s="1" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation</v>
       </c>
       <c r="H74" s="1" t="s">
@@ -6518,11 +6559,11 @@
         <v>56</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="L74" s="1" t="str">
-        <f t="shared" si="35"/>
-        <v>Observation.date</v>
+        <f t="shared" ref="L74:L76" si="41">B74&amp;"."&amp;C74</f>
+        <v>Observation.category</v>
       </c>
       <c r="M74" s="1" t="s">
         <v>56</v>
@@ -6530,27 +6571,23 @@
       <c r="O74" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="P74" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="S74" s="1" t="s">
-        <v>93</v>
-      </c>
+      <c r="Y74" s="5"/>
+      <c r="Z74" s="5"/>
       <c r="AA74" s="12"/>
       <c r="AB74" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>SearchParameter-us-core-observation-date.html</v>
+        <f t="shared" si="23"/>
+        <v>SearchParameter-us-core-observation-category.html</v>
       </c>
     </row>
     <row r="75" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>183</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>30</v>
@@ -6559,10 +6596,10 @@
         <v>0</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="G75" s="1" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation</v>
       </c>
       <c r="H75" s="1" t="s">
@@ -6572,44 +6609,38 @@
         <v>56</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="L75" s="1" t="str">
-        <f>B75&amp;"."&amp;C75</f>
-        <v>Observation.patient</v>
+        <f t="shared" si="41"/>
+        <v>Observation.code</v>
       </c>
       <c r="M75" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="N75" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="O75" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Y75" s="1" t="str">
-        <f>"support searching for all "&amp;LOWER(B75)&amp;"s for a patient"</f>
-        <v>support searching for all observations for a patient</v>
-      </c>
-      <c r="Z75" s="5" t="str">
-        <f>"GET [base]/"&amp;B75&amp;"?patient=1137192"</f>
-        <v>GET [base]/Observation?patient=1137192</v>
-      </c>
-      <c r="AA75" s="12" t="str">
-        <f>"Fetches a bundle of all "&amp;B75&amp; " resources for the specified patient"</f>
-        <v>Fetches a bundle of all Observation resources for the specified patient</v>
-      </c>
+      <c r="Y75" s="5"/>
+      <c r="Z75" s="5"/>
+      <c r="AA75" s="12"/>
       <c r="AB75" s="1" t="str">
-        <f>"SearchParameter-us-core-"&amp;LOWER((B75)&amp;"-"&amp;C75&amp;".html")</f>
-        <v>SearchParameter-us-core-observation-patient.html</v>
+        <f t="shared" si="23"/>
+        <v>SearchParameter-us-core-observation-code.html</v>
       </c>
     </row>
     <row r="76" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>235</v>
+        <v>183</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>30</v>
@@ -6618,11 +6649,11 @@
         <v>0</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G76" s="1" t="str">
-        <f t="shared" si="34"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-careplan</v>
+        <f t="shared" si="40"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>56</v>
@@ -6631,11 +6662,11 @@
         <v>56</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="L76" s="1" t="str">
-        <f t="shared" ref="L76:L78" si="36">B76&amp;"."&amp;C76</f>
-        <v>CarePlan.category</v>
+        <f t="shared" si="41"/>
+        <v>Observation.date</v>
       </c>
       <c r="M76" s="1" t="s">
         <v>56</v>
@@ -6643,23 +6674,27 @@
       <c r="O76" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Y76" s="5"/>
-      <c r="Z76" s="5"/>
+      <c r="P76" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S76" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="AA76" s="12"/>
       <c r="AB76" s="1" t="str">
-        <f t="shared" ref="AB76:AB78" si="37">"SearchParameter-us-core-"&amp;LOWER((B76)&amp;"-"&amp;C76&amp;".html")</f>
-        <v>SearchParameter-us-core-careplan-category.html</v>
+        <f t="shared" si="23"/>
+        <v>SearchParameter-us-core-observation-date.html</v>
       </c>
     </row>
     <row r="77" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>318</v>
+        <v>183</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>30</v>
@@ -6668,11 +6703,11 @@
         <v>0</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="G77" s="1" t="str">
-        <f t="shared" si="34"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!careplan</v>
+        <f t="shared" si="40"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>56</v>
@@ -6681,11 +6716,11 @@
         <v>56</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="L77" s="1" t="str">
-        <f t="shared" si="36"/>
-        <v>!CarePlan.code</v>
+        <f>B77&amp;"."&amp;C77</f>
+        <v>Observation.patient</v>
       </c>
       <c r="M77" s="1" t="s">
         <v>56</v>
@@ -6693,23 +6728,32 @@
       <c r="O77" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Y77" s="5"/>
-      <c r="Z77" s="5"/>
-      <c r="AA77" s="12"/>
+      <c r="Y77" s="1" t="str">
+        <f>"support searching for all "&amp;LOWER(B77)&amp;"s for a patient"</f>
+        <v>support searching for all observations for a patient</v>
+      </c>
+      <c r="Z77" s="5" t="str">
+        <f>"GET [base]/"&amp;B77&amp;"?patient=1137192"</f>
+        <v>GET [base]/Observation?patient=1137192</v>
+      </c>
+      <c r="AA77" s="12" t="str">
+        <f>"Fetches a bundle of all "&amp;B77&amp; " resources for the specified patient"</f>
+        <v>Fetches a bundle of all Observation resources for the specified patient</v>
+      </c>
       <c r="AB77" s="1" t="str">
-        <f t="shared" si="37"/>
-        <v>SearchParameter-us-core-!careplan-code.html</v>
+        <f>"SearchParameter-us-core-"&amp;LOWER((B77)&amp;"-"&amp;C77&amp;".html")</f>
+        <v>SearchParameter-us-core-observation-patient.html</v>
       </c>
     </row>
     <row r="78" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>235</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>30</v>
@@ -6718,10 +6762,10 @@
         <v>0</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="G78" s="1" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-careplan</v>
       </c>
       <c r="H78" s="1" t="s">
@@ -6731,11 +6775,11 @@
         <v>56</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="L78" s="1" t="str">
-        <f t="shared" si="36"/>
-        <v>CarePlan.date</v>
+        <f t="shared" ref="L78:L80" si="42">B78&amp;"."&amp;C78</f>
+        <v>CarePlan.category</v>
       </c>
       <c r="M78" s="1" t="s">
         <v>56</v>
@@ -6743,27 +6787,23 @@
       <c r="O78" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="P78" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="S78" s="1" t="s">
-        <v>93</v>
-      </c>
+      <c r="Y78" s="5"/>
+      <c r="Z78" s="5"/>
       <c r="AA78" s="12"/>
       <c r="AB78" s="1" t="str">
-        <f t="shared" si="37"/>
-        <v>SearchParameter-us-core-careplan-date.html</v>
+        <f t="shared" ref="AB78:AB80" si="43">"SearchParameter-us-core-"&amp;LOWER((B78)&amp;"-"&amp;C78&amp;".html")</f>
+        <v>SearchParameter-us-core-careplan-category.html</v>
       </c>
     </row>
     <row r="79" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>235</v>
+        <v>318</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>30</v>
@@ -6772,11 +6812,11 @@
         <v>0</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="G79" s="1" t="str">
-        <f t="shared" si="34"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-careplan</v>
+        <f t="shared" si="40"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!careplan</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>56</v>
@@ -6785,11 +6825,11 @@
         <v>56</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="L79" s="1" t="str">
-        <f>B79&amp;"."&amp;C79</f>
-        <v>CarePlan.patient</v>
+        <f t="shared" si="42"/>
+        <v>!CarePlan.code</v>
       </c>
       <c r="M79" s="1" t="s">
         <v>56</v>
@@ -6797,32 +6837,23 @@
       <c r="O79" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Y79" s="1" t="str">
-        <f>"support searching for all "&amp;LOWER(B79)&amp;"s for a patient"</f>
-        <v>support searching for all careplans for a patient</v>
-      </c>
-      <c r="Z79" s="5" t="str">
-        <f>"GET [base]/"&amp;B79&amp;"?patient=1137192"</f>
-        <v>GET [base]/CarePlan?patient=1137192</v>
-      </c>
-      <c r="AA79" s="12" t="str">
-        <f>"Fetches a bundle of all "&amp;B79&amp; " resources for the specified patient"</f>
-        <v>Fetches a bundle of all CarePlan resources for the specified patient</v>
-      </c>
+      <c r="Y79" s="5"/>
+      <c r="Z79" s="5"/>
+      <c r="AA79" s="12"/>
       <c r="AB79" s="1" t="str">
-        <f>"SearchParameter-us-core-"&amp;LOWER((B79)&amp;"-"&amp;C79&amp;".html")</f>
-        <v>SearchParameter-us-core-careplan-patient.html</v>
+        <f t="shared" si="43"/>
+        <v>SearchParameter-us-core-!careplan-code.html</v>
       </c>
     </row>
     <row r="80" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>235</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>30</v>
@@ -6831,10 +6862,10 @@
         <v>0</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G80" s="1" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-careplan</v>
       </c>
       <c r="H80" s="1" t="s">
@@ -6844,35 +6875,36 @@
         <v>56</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="L80" s="1" t="str">
-        <f t="shared" ref="L80" si="38">B80&amp;"."&amp;C80</f>
-        <v>CarePlan.status</v>
+        <f t="shared" si="42"/>
+        <v>CarePlan.date</v>
       </c>
       <c r="M80" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N80" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="O80" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Y80" s="5"/>
-      <c r="Z80" s="5"/>
+      <c r="P80" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S80" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="AA80" s="12"/>
       <c r="AB80" s="1" t="str">
-        <f t="shared" ref="AB80" si="39">"SearchParameter-us-core-"&amp;LOWER((B80)&amp;"-"&amp;C80&amp;".html")</f>
-        <v>SearchParameter-us-core-careplan-status.html</v>
+        <f t="shared" si="43"/>
+        <v>SearchParameter-us-core-careplan-date.html</v>
       </c>
     </row>
     <row r="81" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>90</v>
@@ -6887,8 +6919,8 @@
         <v>525</v>
       </c>
       <c r="G81" s="1" t="str">
-        <f t="shared" si="34"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-careteam</v>
+        <f t="shared" si="40"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-careplan</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>56</v>
@@ -6901,7 +6933,7 @@
       </c>
       <c r="L81" s="1" t="str">
         <f>B81&amp;"."&amp;C81</f>
-        <v>CareTeam.patient</v>
+        <v>CarePlan.patient</v>
       </c>
       <c r="M81" s="1" t="s">
         <v>56</v>
@@ -6911,27 +6943,27 @@
       </c>
       <c r="Y81" s="1" t="str">
         <f>"support searching for all "&amp;LOWER(B81)&amp;"s for a patient"</f>
-        <v>support searching for all careteams for a patient</v>
+        <v>support searching for all careplans for a patient</v>
       </c>
       <c r="Z81" s="5" t="str">
         <f>"GET [base]/"&amp;B81&amp;"?patient=1137192"</f>
-        <v>GET [base]/CareTeam?patient=1137192</v>
+        <v>GET [base]/CarePlan?patient=1137192</v>
       </c>
       <c r="AA81" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B81&amp; " resources for the specified patient"</f>
-        <v>Fetches a bundle of all CareTeam resources for the specified patient</v>
+        <v>Fetches a bundle of all CarePlan resources for the specified patient</v>
       </c>
       <c r="AB81" s="1" t="str">
         <f>"SearchParameter-us-core-"&amp;LOWER((B81)&amp;"-"&amp;C81&amp;".html")</f>
-        <v>SearchParameter-us-core-careteam-patient.html</v>
+        <v>SearchParameter-us-core-careplan-patient.html</v>
       </c>
     </row>
     <row r="82" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>62</v>
@@ -6946,8 +6978,8 @@
         <v>528</v>
       </c>
       <c r="G82" s="1" t="str">
-        <f t="shared" si="34"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-careteam</v>
+        <f t="shared" si="40"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-careplan</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>56</v>
@@ -6959,14 +6991,14 @@
         <v>57</v>
       </c>
       <c r="L82" s="1" t="str">
-        <f t="shared" ref="L82" si="40">B82&amp;"."&amp;C82</f>
-        <v>CareTeam.status</v>
+        <f t="shared" ref="L82" si="44">B82&amp;"."&amp;C82</f>
+        <v>CarePlan.status</v>
       </c>
       <c r="M82" s="1" t="s">
         <v>56</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="O82" s="1" t="s">
         <v>56</v>
@@ -6975,32 +7007,32 @@
       <c r="Z82" s="5"/>
       <c r="AA82" s="12"/>
       <c r="AB82" s="1" t="str">
-        <f t="shared" ref="AB82" si="41">"SearchParameter-us-core-"&amp;LOWER((B82)&amp;"-"&amp;C82&amp;".html")</f>
-        <v>SearchParameter-us-core-careteam-status.html</v>
+        <f t="shared" ref="AB82" si="45">"SearchParameter-us-core-"&amp;LOWER((B82)&amp;"-"&amp;C82&amp;".html")</f>
+        <v>SearchParameter-us-core-careplan-status.html</v>
       </c>
     </row>
     <row r="83" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E83" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>525</v>
       </c>
       <c r="G83" s="1" t="str">
-        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-implantable-"&amp;LOWER(B83)</f>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-implantable-device</v>
+        <f t="shared" si="40"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-careteam</v>
       </c>
       <c r="H83" s="1" t="s">
         <v>56</v>
@@ -7012,8 +7044,8 @@
         <v>91</v>
       </c>
       <c r="L83" s="1" t="str">
-        <f t="shared" ref="L83:L98" si="42">B83&amp;"."&amp;C83</f>
-        <v>Device.patient</v>
+        <f>B83&amp;"."&amp;C83</f>
+        <v>CareTeam.patient</v>
       </c>
       <c r="M83" s="1" t="s">
         <v>56</v>
@@ -7022,31 +7054,31 @@
         <v>56</v>
       </c>
       <c r="Y83" s="1" t="str">
-        <f>"support searching for all "&amp;LOWER(B83)&amp;"s for a patient, including implantable devices"</f>
-        <v>support searching for all devices for a patient, including implantable devices</v>
+        <f>"support searching for all "&amp;LOWER(B83)&amp;"s for a patient"</f>
+        <v>support searching for all careteams for a patient</v>
       </c>
       <c r="Z83" s="5" t="str">
         <f>"GET [base]/"&amp;B83&amp;"?patient=1137192"</f>
-        <v>GET [base]/Device?patient=1137192</v>
+        <v>GET [base]/CareTeam?patient=1137192</v>
       </c>
       <c r="AA83" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B83&amp; " resources for the specified patient"</f>
-        <v>Fetches a bundle of all Device resources for the specified patient</v>
+        <v>Fetches a bundle of all CareTeam resources for the specified patient</v>
       </c>
       <c r="AB83" s="1" t="str">
-        <f t="shared" ref="AB83:AB94" si="43">"SearchParameter-us-core-"&amp;LOWER((B83)&amp;"-"&amp;C83&amp;".html")</f>
-        <v>SearchParameter-us-core-device-patient.html</v>
+        <f>"SearchParameter-us-core-"&amp;LOWER((B83)&amp;"-"&amp;C83&amp;".html")</f>
+        <v>SearchParameter-us-core-careteam-patient.html</v>
       </c>
     </row>
     <row r="84" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>30</v>
@@ -7058,8 +7090,8 @@
         <v>528</v>
       </c>
       <c r="G84" s="1" t="str">
-        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-implantable-"&amp;LOWER(B84)</f>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-implantable-device</v>
+        <f t="shared" si="40"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-careteam</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>56</v>
@@ -7071,31 +7103,35 @@
         <v>57</v>
       </c>
       <c r="L84" s="1" t="str">
-        <f t="shared" ref="L84" si="44">B84&amp;"."&amp;C84</f>
-        <v>Device.type</v>
+        <f t="shared" ref="L84" si="46">B84&amp;"."&amp;C84</f>
+        <v>CareTeam.status</v>
       </c>
       <c r="M84" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="N84" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="O84" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="Y84" s="5"/>
       <c r="Z84" s="5"/>
       <c r="AA84" s="12"/>
       <c r="AB84" s="1" t="str">
-        <f t="shared" si="43"/>
-        <v>SearchParameter-us-core-device-type.html</v>
-      </c>
-    </row>
-    <row r="85" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="AB84" si="47">"SearchParameter-us-core-"&amp;LOWER((B84)&amp;"-"&amp;C84&amp;".html")</f>
+        <v>SearchParameter-us-core-careteam-status.html</v>
+      </c>
+    </row>
+    <row r="85" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>12</v>
@@ -7103,9 +7139,12 @@
       <c r="E85" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="F85" s="2" t="s">
+        <v>525</v>
+      </c>
       <c r="G85" s="1" t="str">
-        <f t="shared" si="34"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-location</v>
+        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-implantable-"&amp;LOWER(B85)</f>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-implantable-device</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>56</v>
@@ -7113,12 +7152,12 @@
       <c r="J85" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K85" t="s">
-        <v>64</v>
+      <c r="K85" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="L85" s="1" t="str">
-        <f t="shared" si="42"/>
-        <v>Location.name</v>
+        <f t="shared" ref="L85:L100" si="48">B85&amp;"."&amp;C85</f>
+        <v>Device.patient</v>
       </c>
       <c r="M85" s="1" t="s">
         <v>56</v>
@@ -7126,41 +7165,45 @@
       <c r="O85" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Y85" s="1" t="s">
-        <v>258</v>
+      <c r="Y85" s="1" t="str">
+        <f>"support searching for all "&amp;LOWER(B85)&amp;"s for a patient, including implantable devices"</f>
+        <v>support searching for all devices for a patient, including implantable devices</v>
       </c>
       <c r="Z85" s="5" t="str">
-        <f>"GET [base]/"&amp;B85&amp;"?name=Health"</f>
-        <v>GET [base]/Location?name=Health</v>
+        <f>"GET [base]/"&amp;B85&amp;"?patient=1137192"</f>
+        <v>GET [base]/Device?patient=1137192</v>
       </c>
       <c r="AA85" s="12" t="str">
-        <f>"Fetches a bundle of all "&amp;B85&amp; " resources that match the name"</f>
-        <v>Fetches a bundle of all Location resources that match the name</v>
-      </c>
-      <c r="AB85" t="str">
-        <f t="shared" si="43"/>
-        <v>SearchParameter-us-core-location-name.html</v>
-      </c>
-    </row>
-    <row r="86" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <f>"Fetches a bundle of all "&amp;B85&amp; " resources for the specified patient"</f>
+        <v>Fetches a bundle of all Device resources for the specified patient</v>
+      </c>
+      <c r="AB85" s="1" t="str">
+        <f t="shared" ref="AB85:AB96" si="49">"SearchParameter-us-core-"&amp;LOWER((B85)&amp;"-"&amp;C85&amp;".html")</f>
+        <v>SearchParameter-us-core-device-patient.html</v>
+      </c>
+    </row>
+    <row r="86" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E86" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>528</v>
       </c>
       <c r="G86" s="1" t="str">
-        <f t="shared" si="34"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-location</v>
+        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-implantable-"&amp;LOWER(B86)</f>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-implantable-device</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>56</v>
@@ -7169,11 +7212,11 @@
         <v>56</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L86" s="1" t="str">
-        <f t="shared" si="42"/>
-        <v>Location.address</v>
+        <f t="shared" ref="L86" si="50">B86&amp;"."&amp;C86</f>
+        <v>Device.type</v>
       </c>
       <c r="M86" s="1" t="s">
         <v>56</v>
@@ -7181,40 +7224,31 @@
       <c r="O86" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Y86" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="Z86" s="5" t="str">
-        <f>"GET [base]/"&amp;B86&amp;"?address=Arbor"</f>
-        <v>GET [base]/Location?address=Arbor</v>
-      </c>
-      <c r="AA86" s="12" t="str">
-        <f>"Fetches a bundle of all "&amp;B86&amp; " resources that match the address string"</f>
-        <v>Fetches a bundle of all Location resources that match the address string</v>
-      </c>
-      <c r="AB86" t="str">
-        <f t="shared" si="43"/>
-        <v>SearchParameter-us-core-location-address.html</v>
+      <c r="Z86" s="5"/>
+      <c r="AA86" s="12"/>
+      <c r="AB86" s="1" t="str">
+        <f t="shared" si="49"/>
+        <v>SearchParameter-us-core-device-type.html</v>
       </c>
     </row>
     <row r="87" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>254</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>255</v>
+        <v>23</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="E87" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G87" s="1" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-location</v>
       </c>
       <c r="H87" s="1" t="s">
@@ -7223,12 +7257,12 @@
       <c r="J87" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K87" s="1" t="s">
+      <c r="K87" t="s">
         <v>64</v>
       </c>
       <c r="L87" s="1" t="str">
-        <f t="shared" si="42"/>
-        <v>Location.address-city</v>
+        <f t="shared" si="48"/>
+        <v>Location.name</v>
       </c>
       <c r="M87" s="1" t="s">
         <v>56</v>
@@ -7237,39 +7271,39 @@
         <v>56</v>
       </c>
       <c r="Y87" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="Z87" s="5" t="str">
-        <f>"GET [base]/"&amp;B87&amp;"?address-city=Ann Arbor"</f>
-        <v>GET [base]/Location?address-city=Ann Arbor</v>
+        <f>"GET [base]/"&amp;B87&amp;"?name=Health"</f>
+        <v>GET [base]/Location?name=Health</v>
       </c>
       <c r="AA87" s="12" t="str">
-        <f>"Fetches a bundle of all "&amp;B87&amp; " resources for the city"</f>
-        <v>Fetches a bundle of all Location resources for the city</v>
+        <f>"Fetches a bundle of all "&amp;B87&amp; " resources that match the name"</f>
+        <v>Fetches a bundle of all Location resources that match the name</v>
       </c>
       <c r="AB87" t="str">
-        <f t="shared" si="43"/>
-        <v>SearchParameter-us-core-location-address-city.html</v>
+        <f t="shared" si="49"/>
+        <v>SearchParameter-us-core-location-name.html</v>
       </c>
     </row>
     <row r="88" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>254</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>319</v>
+        <v>86</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="E88" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G88" s="1" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-location</v>
       </c>
       <c r="H88" s="1" t="s">
@@ -7282,8 +7316,8 @@
         <v>64</v>
       </c>
       <c r="L88" s="1" t="str">
-        <f t="shared" si="42"/>
-        <v>Location.address-state</v>
+        <f t="shared" si="48"/>
+        <v>Location.address</v>
       </c>
       <c r="M88" s="1" t="s">
         <v>56</v>
@@ -7292,29 +7326,30 @@
         <v>56</v>
       </c>
       <c r="Y88" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="Z88" s="5" t="s">
-        <v>263</v>
+        <v>259</v>
+      </c>
+      <c r="Z88" s="5" t="str">
+        <f>"GET [base]/"&amp;B88&amp;"?address=Arbor"</f>
+        <v>GET [base]/Location?address=Arbor</v>
       </c>
       <c r="AA88" s="12" t="str">
-        <f>"Fetches a bundle of all "&amp;B88&amp; " resources for the state"</f>
-        <v>Fetches a bundle of all Location resources for the state</v>
+        <f>"Fetches a bundle of all "&amp;B88&amp; " resources that match the address string"</f>
+        <v>Fetches a bundle of all Location resources that match the address string</v>
       </c>
       <c r="AB88" t="str">
-        <f t="shared" si="43"/>
-        <v>SearchParameter-us-core-location-address-state.html</v>
+        <f t="shared" si="49"/>
+        <v>SearchParameter-us-core-location-address.html</v>
       </c>
     </row>
     <row r="89" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>254</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>70</v>
@@ -7323,7 +7358,7 @@
         <v>1</v>
       </c>
       <c r="G89" s="1" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-location</v>
       </c>
       <c r="H89" s="1" t="s">
@@ -7336,8 +7371,8 @@
         <v>64</v>
       </c>
       <c r="L89" s="1" t="str">
-        <f t="shared" si="42"/>
-        <v>Location.address-postalcode</v>
+        <f t="shared" si="48"/>
+        <v>Location.address-city</v>
       </c>
       <c r="M89" s="1" t="s">
         <v>56</v>
@@ -7346,40 +7381,40 @@
         <v>56</v>
       </c>
       <c r="Y89" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="Z89" s="5" t="str">
-        <f>"GET [base]/"&amp;B89&amp;"?address-postalcode=48104"</f>
-        <v>GET [base]/Location?address-postalcode=48104</v>
+        <f>"GET [base]/"&amp;B89&amp;"?address-city=Ann Arbor"</f>
+        <v>GET [base]/Location?address-city=Ann Arbor</v>
       </c>
       <c r="AA89" s="12" t="str">
-        <f>"Fetches a bundle of all "&amp;B89&amp; " resources for the ZIP code"</f>
-        <v>Fetches a bundle of all Location resources for the ZIP code</v>
+        <f>"Fetches a bundle of all "&amp;B89&amp; " resources for the city"</f>
+        <v>Fetches a bundle of all Location resources for the city</v>
       </c>
       <c r="AB89" t="str">
-        <f t="shared" si="43"/>
-        <v>SearchParameter-us-core-location-address-postalcode.html</v>
-      </c>
-    </row>
-    <row r="90" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="49"/>
+        <v>SearchParameter-us-core-location-address-city.html</v>
+      </c>
+    </row>
+    <row r="90" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>23</v>
+        <v>319</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="E90" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G90" s="1" t="str">
-        <f t="shared" si="34"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization</v>
+        <f t="shared" si="40"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-location</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>56</v>
@@ -7391,8 +7426,8 @@
         <v>64</v>
       </c>
       <c r="L90" s="1" t="str">
-        <f t="shared" si="42"/>
-        <v>Organization.name</v>
+        <f t="shared" si="48"/>
+        <v>Location.address-state</v>
       </c>
       <c r="M90" s="1" t="s">
         <v>56</v>
@@ -7401,40 +7436,39 @@
         <v>56</v>
       </c>
       <c r="Y90" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="Z90" s="5" t="str">
-        <f>"GET [base]/"&amp;B90&amp;"?name=Health"</f>
-        <v>GET [base]/Organization?name=Health</v>
+        <v>261</v>
+      </c>
+      <c r="Z90" s="5" t="s">
+        <v>263</v>
       </c>
       <c r="AA90" s="12" t="str">
-        <f>"Fetches a bundle of all "&amp;B90&amp; " resources that match the name"</f>
-        <v>Fetches a bundle of all Organization resources that match the name</v>
-      </c>
-      <c r="AB90" s="1" t="str">
-        <f t="shared" si="43"/>
-        <v>SearchParameter-us-core-organization-name.html</v>
-      </c>
-    </row>
-    <row r="91" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <f>"Fetches a bundle of all "&amp;B90&amp; " resources for the state"</f>
+        <v>Fetches a bundle of all Location resources for the state</v>
+      </c>
+      <c r="AB90" t="str">
+        <f t="shared" si="49"/>
+        <v>SearchParameter-us-core-location-address-state.html</v>
+      </c>
+    </row>
+    <row r="91" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>86</v>
+        <v>257</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="E91" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G91" s="1" t="str">
-        <f t="shared" si="34"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization</v>
+        <f t="shared" si="40"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-location</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>56</v>
@@ -7446,8 +7480,8 @@
         <v>64</v>
       </c>
       <c r="L91" s="1" t="str">
-        <f t="shared" si="42"/>
-        <v>Organization.address</v>
+        <f t="shared" si="48"/>
+        <v>Location.address-postalcode</v>
       </c>
       <c r="M91" s="1" t="s">
         <v>56</v>
@@ -7456,40 +7490,40 @@
         <v>56</v>
       </c>
       <c r="Y91" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="Z91" s="5" t="str">
-        <f>"GET [base]/"&amp;B91&amp;"?address=Arbor"</f>
-        <v>GET [base]/Organization?address=Arbor</v>
+        <f>"GET [base]/"&amp;B91&amp;"?address-postalcode=48104"</f>
+        <v>GET [base]/Location?address-postalcode=48104</v>
       </c>
       <c r="AA91" s="12" t="str">
-        <f>"Fetches a bundle of all "&amp;B91&amp; " resources that match the address string"</f>
-        <v>Fetches a bundle of all Organization resources that match the address string</v>
-      </c>
-      <c r="AB91" s="1" t="str">
-        <f t="shared" si="43"/>
-        <v>SearchParameter-us-core-organization-address.html</v>
+        <f>"Fetches a bundle of all "&amp;B91&amp; " resources for the ZIP code"</f>
+        <v>Fetches a bundle of all Location resources for the ZIP code</v>
+      </c>
+      <c r="AB91" t="str">
+        <f t="shared" si="49"/>
+        <v>SearchParameter-us-core-location-address-postalcode.html</v>
       </c>
     </row>
     <row r="92" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>255</v>
+        <v>23</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="E92" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G92" s="1" t="str">
-        <f t="shared" si="34"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!organization</v>
+        <f t="shared" si="40"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>56</v>
@@ -7501,8 +7535,8 @@
         <v>64</v>
       </c>
       <c r="L92" s="1" t="str">
-        <f t="shared" si="42"/>
-        <v>!Organization.address-city</v>
+        <f t="shared" si="48"/>
+        <v>Organization.name</v>
       </c>
       <c r="M92" s="1" t="s">
         <v>56</v>
@@ -7511,40 +7545,40 @@
         <v>56</v>
       </c>
       <c r="Y92" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="Z92" s="5" t="str">
-        <f>"GET [base]/"&amp;B92&amp;"?address-city=Ann Arbor"</f>
-        <v>GET [base]/!Organization?address-city=Ann Arbor</v>
+        <f>"GET [base]/"&amp;B92&amp;"?name=Health"</f>
+        <v>GET [base]/Organization?name=Health</v>
       </c>
       <c r="AA92" s="12" t="str">
-        <f>"Fetches a bundle of all "&amp;B92&amp; " resources for the city"</f>
-        <v>Fetches a bundle of all !Organization resources for the city</v>
+        <f>"Fetches a bundle of all "&amp;B92&amp; " resources that match the name"</f>
+        <v>Fetches a bundle of all Organization resources that match the name</v>
       </c>
       <c r="AB92" s="1" t="str">
-        <f t="shared" si="43"/>
-        <v>SearchParameter-us-core-!organization-address-city.html</v>
+        <f t="shared" si="49"/>
+        <v>SearchParameter-us-core-organization-name.html</v>
       </c>
     </row>
     <row r="93" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>256</v>
+        <v>86</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="E93" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G93" s="1" t="str">
-        <f t="shared" si="34"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!organization</v>
+        <f t="shared" si="40"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>56</v>
@@ -7556,8 +7590,8 @@
         <v>64</v>
       </c>
       <c r="L93" s="1" t="str">
-        <f t="shared" si="42"/>
-        <v>!Organization.adress-state</v>
+        <f t="shared" si="48"/>
+        <v>Organization.address</v>
       </c>
       <c r="M93" s="1" t="s">
         <v>56</v>
@@ -7566,30 +7600,30 @@
         <v>56</v>
       </c>
       <c r="Y93" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="Z93" s="5" t="str">
-        <f>"GET [base]/"&amp;B93&amp;"?address-state=MI"</f>
-        <v>GET [base]/!Organization?address-state=MI</v>
+        <f>"GET [base]/"&amp;B93&amp;"?address=Arbor"</f>
+        <v>GET [base]/Organization?address=Arbor</v>
       </c>
       <c r="AA93" s="12" t="str">
-        <f>"Fetches a bundle of all "&amp;B93&amp; " resources for the state"</f>
-        <v>Fetches a bundle of all !Organization resources for the state</v>
+        <f>"Fetches a bundle of all "&amp;B93&amp; " resources that match the address string"</f>
+        <v>Fetches a bundle of all Organization resources that match the address string</v>
       </c>
       <c r="AB93" s="1" t="str">
-        <f t="shared" si="43"/>
-        <v>SearchParameter-us-core-!organization-adress-state.html</v>
+        <f t="shared" si="49"/>
+        <v>SearchParameter-us-core-organization-address.html</v>
       </c>
     </row>
     <row r="94" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>270</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>70</v>
@@ -7598,7 +7632,7 @@
         <v>1</v>
       </c>
       <c r="G94" s="1" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!organization</v>
       </c>
       <c r="H94" s="1" t="s">
@@ -7611,8 +7645,8 @@
         <v>64</v>
       </c>
       <c r="L94" s="1" t="str">
-        <f t="shared" si="42"/>
-        <v>!Organization.address-postalcode</v>
+        <f t="shared" si="48"/>
+        <v>!Organization.address-city</v>
       </c>
       <c r="M94" s="1" t="s">
         <v>56</v>
@@ -7621,40 +7655,40 @@
         <v>56</v>
       </c>
       <c r="Y94" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="Z94" s="5" t="str">
-        <f>"GET [base]/"&amp;B94&amp;"?address-postalcode=48104"</f>
-        <v>GET [base]/!Organization?address-postalcode=48104</v>
+        <f>"GET [base]/"&amp;B94&amp;"?address-city=Ann Arbor"</f>
+        <v>GET [base]/!Organization?address-city=Ann Arbor</v>
       </c>
       <c r="AA94" s="12" t="str">
-        <f>"Fetches a bundle of all "&amp;B94&amp; " resources for the ZIP code"</f>
-        <v>Fetches a bundle of all !Organization resources for the ZIP code</v>
+        <f>"Fetches a bundle of all "&amp;B94&amp; " resources for the city"</f>
+        <v>Fetches a bundle of all !Organization resources for the city</v>
       </c>
       <c r="AB94" s="1" t="str">
-        <f t="shared" si="43"/>
-        <v>SearchParameter-us-core-!organization-address-postalcode.html</v>
+        <f t="shared" si="49"/>
+        <v>SearchParameter-us-core-!organization-address-city.html</v>
       </c>
     </row>
     <row r="95" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>23</v>
+        <v>256</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="E95" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G95" s="1" t="str">
-        <f t="shared" si="34"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner</v>
+        <f t="shared" si="40"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!organization</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>56</v>
@@ -7666,8 +7700,8 @@
         <v>64</v>
       </c>
       <c r="L95" s="1" t="str">
-        <f t="shared" si="42"/>
-        <v>Practitioner.name</v>
+        <f t="shared" si="48"/>
+        <v>!Organization.adress-state</v>
       </c>
       <c r="M95" s="1" t="s">
         <v>56</v>
@@ -7675,44 +7709,41 @@
       <c r="O95" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Y95" s="5" t="s">
-        <v>272</v>
+      <c r="Y95" s="1" t="s">
+        <v>268</v>
       </c>
       <c r="Z95" s="5" t="str">
-        <f>"GET [base]/"&amp;B95&amp;"?name=Smith"</f>
-        <v>GET [base]/Practitioner?name=Smith</v>
+        <f>"GET [base]/"&amp;B95&amp;"?address-state=MI"</f>
+        <v>GET [base]/!Organization?address-state=MI</v>
       </c>
       <c r="AA95" s="12" t="str">
-        <f>"Fetches a bundle of all "&amp;B95&amp;" resources matching the name"</f>
-        <v>Fetches a bundle of all Practitioner resources matching the name</v>
+        <f>"Fetches a bundle of all "&amp;B95&amp; " resources for the state"</f>
+        <v>Fetches a bundle of all !Organization resources for the state</v>
       </c>
       <c r="AB95" s="1" t="str">
-        <f t="shared" ref="AB95:AB96" si="45">"SearchParameter-us-core-"&amp;LOWER((B95)&amp;"-"&amp;SUBSTITUTE(C95,"_","")&amp;".html")</f>
-        <v>SearchParameter-us-core-practitioner-name.html</v>
+        <f t="shared" si="49"/>
+        <v>SearchParameter-us-core-!organization-adress-state.html</v>
       </c>
     </row>
     <row r="96" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>77</v>
+        <v>257</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="E96" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F96" s="2" t="s">
-        <v>528</v>
-      </c>
       <c r="G96" s="1" t="str">
-        <f t="shared" si="34"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner</v>
+        <f t="shared" si="40"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!organization</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>56</v>
@@ -7721,11 +7752,11 @@
         <v>56</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="L96" s="1" t="str">
-        <f t="shared" si="42"/>
-        <v>Practitioner.identifier</v>
+        <f t="shared" si="48"/>
+        <v>!Organization.address-postalcode</v>
       </c>
       <c r="M96" s="1" t="s">
         <v>56</v>
@@ -7733,31 +7764,31 @@
       <c r="O96" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Y96" s="5" t="s">
-        <v>327</v>
+      <c r="Y96" s="1" t="s">
+        <v>269</v>
       </c>
       <c r="Z96" s="5" t="str">
-        <f>"GET [base]/"&amp;B96&amp;"?dentifier=http://hl7.org/fhir/sid/us-npi\|97860456"</f>
-        <v>GET [base]/Practitioner?dentifier=http://hl7.org/fhir/sid/us-npi\|97860456</v>
+        <f>"GET [base]/"&amp;B96&amp;"?address-postalcode=48104"</f>
+        <v>GET [base]/!Organization?address-postalcode=48104</v>
       </c>
       <c r="AA96" s="12" t="str">
-        <f>"Fetches a bundle containing any "&amp;B96&amp;" resources matching the identifier"</f>
-        <v>Fetches a bundle containing any Practitioner resources matching the identifier</v>
+        <f>"Fetches a bundle of all "&amp;B96&amp; " resources for the ZIP code"</f>
+        <v>Fetches a bundle of all !Organization resources for the ZIP code</v>
       </c>
       <c r="AB96" s="1" t="str">
-        <f t="shared" si="45"/>
-        <v>SearchParameter-us-core-practitioner-identifier.html</v>
+        <f t="shared" si="49"/>
+        <v>SearchParameter-us-core-!organization-address-postalcode.html</v>
       </c>
     </row>
     <row r="97" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>274</v>
+        <v>23</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>12</v>
@@ -7765,12 +7796,9 @@
       <c r="E97" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F97" s="2" t="s">
-        <v>528</v>
-      </c>
       <c r="G97" s="1" t="str">
-        <f t="shared" si="34"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitionerrole</v>
+        <f t="shared" si="40"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>56</v>
@@ -7779,11 +7807,11 @@
         <v>56</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="L97" s="1" t="str">
-        <f t="shared" si="42"/>
-        <v>PractitionerRole.specialty</v>
+        <f t="shared" si="48"/>
+        <v>Practitioner.name</v>
       </c>
       <c r="M97" s="1" t="s">
         <v>56</v>
@@ -7791,34 +7819,31 @@
       <c r="O97" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="X97" s="1" t="s">
-        <v>277</v>
-      </c>
       <c r="Y97" s="5" t="s">
-        <v>328</v>
+        <v>272</v>
       </c>
       <c r="Z97" s="5" t="str">
-        <f>"GET [base]/"&amp;B97&amp;"?specialty=http://nucc.org/provider-taxonomy\|208D0000X"</f>
-        <v>GET [base]/PractitionerRole?specialty=http://nucc.org/provider-taxonomy\|208D0000X</v>
+        <f>"GET [base]/"&amp;B97&amp;"?name=Smith"</f>
+        <v>GET [base]/Practitioner?name=Smith</v>
       </c>
       <c r="AA97" s="12" t="str">
-        <f>"Fetches a bundle containing  "&amp;B97&amp;" resources matching the specialty"</f>
-        <v>Fetches a bundle containing  PractitionerRole resources matching the specialty</v>
+        <f>"Fetches a bundle of all "&amp;B97&amp;" resources matching the name"</f>
+        <v>Fetches a bundle of all Practitioner resources matching the name</v>
       </c>
       <c r="AB97" s="1" t="str">
-        <f t="shared" ref="AB97" si="46">"SearchParameter-us-core-"&amp;LOWER((B97)&amp;"-"&amp;SUBSTITUTE(C97,"_","")&amp;".html")</f>
-        <v>SearchParameter-us-core-practitionerrole-specialty.html</v>
-      </c>
-    </row>
-    <row r="98" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="AB97:AB98" si="51">"SearchParameter-us-core-"&amp;LOWER((B97)&amp;"-"&amp;SUBSTITUTE(C97,"_","")&amp;".html")</f>
+        <v>SearchParameter-us-core-practitioner-name.html</v>
+      </c>
+    </row>
+    <row r="98" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>275</v>
+        <v>77</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>12</v>
@@ -7827,62 +7852,182 @@
         <v>1</v>
       </c>
       <c r="F98" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="G98" s="1" t="str">
+        <f t="shared" si="40"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K98" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L98" s="1" t="str">
+        <f t="shared" si="48"/>
+        <v>Practitioner.identifier</v>
+      </c>
+      <c r="M98" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O98" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y98" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="Z98" s="5" t="str">
+        <f>"GET [base]/"&amp;B98&amp;"?dentifier=http://hl7.org/fhir/sid/us-npi\|97860456"</f>
+        <v>GET [base]/Practitioner?dentifier=http://hl7.org/fhir/sid/us-npi\|97860456</v>
+      </c>
+      <c r="AA98" s="12" t="str">
+        <f>"Fetches a bundle containing any "&amp;B98&amp;" resources matching the identifier"</f>
+        <v>Fetches a bundle containing any Practitioner resources matching the identifier</v>
+      </c>
+      <c r="AB98" s="1" t="str">
+        <f t="shared" si="51"/>
+        <v>SearchParameter-us-core-practitioner-identifier.html</v>
+      </c>
+    </row>
+    <row r="99" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="1">
+        <v>95</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E99" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="G99" s="1" t="str">
+        <f t="shared" si="40"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitionerrole</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K99" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L99" s="1" t="str">
+        <f t="shared" si="48"/>
+        <v>PractitionerRole.specialty</v>
+      </c>
+      <c r="M99" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O99" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="X99" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="Y99" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="Z99" s="5" t="str">
+        <f>"GET [base]/"&amp;B99&amp;"?specialty=http://nucc.org/provider-taxonomy\|208D0000X"</f>
+        <v>GET [base]/PractitionerRole?specialty=http://nucc.org/provider-taxonomy\|208D0000X</v>
+      </c>
+      <c r="AA99" s="12" t="str">
+        <f>"Fetches a bundle containing  "&amp;B99&amp;" resources matching the specialty"</f>
+        <v>Fetches a bundle containing  PractitionerRole resources matching the specialty</v>
+      </c>
+      <c r="AB99" s="1" t="str">
+        <f t="shared" ref="AB99" si="52">"SearchParameter-us-core-"&amp;LOWER((B99)&amp;"-"&amp;SUBSTITUTE(C99,"_","")&amp;".html")</f>
+        <v>SearchParameter-us-core-practitionerrole-specialty.html</v>
+      </c>
+    </row>
+    <row r="100" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="1">
+        <v>96</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E100" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F100" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="G98" s="1" t="str">
-        <f t="shared" si="34"/>
+      <c r="G100" s="1" t="str">
+        <f t="shared" si="40"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitionerrole</v>
       </c>
-      <c r="H98" t="s">
-        <v>56</v>
-      </c>
-      <c r="J98" t="s">
-        <v>56</v>
-      </c>
-      <c r="K98" t="s">
+      <c r="H100" t="s">
+        <v>56</v>
+      </c>
+      <c r="J100" t="s">
+        <v>56</v>
+      </c>
+      <c r="K100" t="s">
         <v>91</v>
       </c>
-      <c r="L98" s="1" t="str">
-        <f t="shared" si="42"/>
+      <c r="L100" s="1" t="str">
+        <f t="shared" si="48"/>
         <v>PractitionerRole.practitioner</v>
       </c>
-      <c r="M98" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="O98" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="U98" s="1" t="s">
+      <c r="M100" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O100" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="U100" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="X98" s="1" t="s">
+      <c r="X100" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="Y98" s="5" t="s">
+      <c r="Y100" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="Z98" s="5" t="str">
-        <f>_xlfn.CONCAT("GET [base]/",B98,"?practitioner.identifier=http://hl7.org/fhir/sid/us-npi\|97860456&amp;_include=PractitionerRole:practitioner","&amp;_include=PractitionerRole?endpoint~GET [base]/PractitionerRole?practitioner.name=Henry&amp;_include=PractitionerRole:practitioner&amp;_include=PractitionerRole?endpoint")</f>
+      <c r="Z100" s="5" t="str">
+        <f>_xlfn.CONCAT("GET [base]/",B100,"?practitioner.identifier=http://hl7.org/fhir/sid/us-npi\|97860456&amp;_include=PractitionerRole:practitioner","&amp;_include=PractitionerRole?endpoint~GET [base]/PractitionerRole?practitioner.name=Henry&amp;_include=PractitionerRole:practitioner&amp;_include=PractitionerRole?endpoint")</f>
         <v>GET [base]/PractitionerRole?practitioner.identifier=http://hl7.org/fhir/sid/us-npi\|97860456&amp;_include=PractitionerRole:practitioner&amp;_include=PractitionerRole?endpoint~GET [base]/PractitionerRole?practitioner.name=Henry&amp;_include=PractitionerRole:practitioner&amp;_include=PractitionerRole?endpoint</v>
       </c>
-      <c r="AA98" s="12" t="str">
-        <f>"Fetches a bundle containing  "&amp;B98&amp;" resources matching the chained parameter practitioner.name or practitioner.identifier. SHOULD support the _include for PractionerRole.practitioner and PractitionerRole.endpoint."</f>
+      <c r="AA100" s="12" t="str">
+        <f>"Fetches a bundle containing  "&amp;B100&amp;" resources matching the chained parameter practitioner.name or practitioner.identifier. SHOULD support the _include for PractionerRole.practitioner and PractitionerRole.endpoint."</f>
         <v>Fetches a bundle containing  PractitionerRole resources matching the chained parameter practitioner.name or practitioner.identifier. SHOULD support the _include for PractionerRole.practitioner and PractitionerRole.endpoint.</v>
       </c>
-      <c r="AB98" t="str">
-        <f>"SearchParameter-us-core-"&amp;LOWER((B98)&amp;"-"&amp;SUBSTITUTE(C98,"_","")&amp;".html")</f>
+      <c r="AB100" t="str">
+        <f>"SearchParameter-us-core-"&amp;LOWER((B100)&amp;"-"&amp;SUBSTITUTE(C100,"_","")&amp;".html")</f>
         <v>SearchParameter-us-core-practitionerrole-practitioner.html</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AB98" xr:uid="{1CF5B17E-E72E-48B2-A597-9C21C12723F0}">
+  <autoFilter ref="A1:AB100" xr:uid="{1CF5B17E-E72E-48B2-A597-9C21C12723F0}">
     <filterColumn colId="1">
       <filters>
         <filter val="Condition"/>
+        <filter val="Encounter"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:AA34">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:AA36">
     <sortCondition ref="B1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7894,10 +8039,10 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:Q88"/>
+  <dimension ref="A1:Q90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E94" sqref="E94"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7958,7 +8103,7 @@
         <v>157</v>
       </c>
       <c r="C2" s="1" t="str">
-        <f t="shared" ref="C2:C43" si="0">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B2)</f>
+        <f t="shared" ref="C2:C45" si="0">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B2)</f>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
       </c>
       <c r="D2" t="s">
@@ -7971,7 +8116,7 @@
         <v>100</v>
       </c>
       <c r="K2" s="5" t="str">
-        <f t="shared" ref="K2:K32" si="1">"Fetches a bundle of all "&amp;B2&amp;" resources matching the specified "&amp;SUBSTITUTE(D2,","," and ")</f>
+        <f t="shared" ref="K2:K34" si="1">"Fetches a bundle of all "&amp;B2&amp;" resources matching the specified "&amp;SUBSTITUTE(D2,","," and ")</f>
         <v>Fetches a bundle of all !Encounter resources matching the specified class and date</v>
       </c>
     </row>
@@ -8050,7 +8195,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and date and type</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -8081,7 +8226,7 @@
         <v>Fetches a bundle of all Encounter resources matching the specified class and patient</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -8106,7 +8251,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and patient and status</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -8131,7 +8276,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and patient and status and type</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -8157,7 +8302,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and patient and type</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -8184,7 +8329,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and status</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -8210,7 +8355,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and status and type</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -8235,7 +8380,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and type</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -8266,7 +8411,7 @@
         <v>Fetches a bundle of all Encounter resources matching the specified date and patient</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="1" customFormat="1" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -8291,7 +8436,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified date and patient and type</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="1" customFormat="1" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -8316,7 +8461,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified date and type</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -8324,167 +8469,184 @@
         <v>22</v>
       </c>
       <c r="C16" s="1" t="str">
+        <f t="shared" ref="C16" si="2">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B16)</f>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="K16" s="5" t="str">
+        <f t="shared" ref="K16" si="3">"Fetches a bundle of all "&amp;B16&amp;" resources matching the specified "&amp;SUBSTITUTE(D16,","," and ")</f>
+        <v>Fetches a bundle of all Encounter resources matching the specified patient and type</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="1" t="str">
         <f t="shared" si="0"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="I16" s="1" t="s">
+      <c r="D17" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="E17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="K16" s="5" t="str">
+      <c r="J17" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="K17" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>Fetches a bundle of all Encounter resources matching the specified patient and type</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
+        <v>Fetches a bundle of all Encounter resources matching the specified patient and location</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C17" s="1" t="str">
+      <c r="C18" s="1" t="str">
         <f t="shared" si="0"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G17" s="1" t="s">
+      <c r="F18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5" t="str">
+      <c r="J18" s="5"/>
+      <c r="K18" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Fetches a bundle of all !Encounter resources matching the specified patient and status and type</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
+    <row r="19" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="1" t="str">
+      <c r="C19" s="1" t="str">
+        <f t="shared" ref="C19" si="4">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B19)</f>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="K19" s="5" t="str">
+        <f t="shared" ref="K19" si="5">"Fetches a bundle of all "&amp;B19&amp;" resources matching the specified "&amp;SUBSTITUTE(D19,","," and ")</f>
+        <v>Fetches a bundle of all Encounter resources matching the specified patient and status</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>17</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="1" t="str">
         <f t="shared" si="0"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G18" s="1" t="s">
+      <c r="D20" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="E20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="I20" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J18" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="K18" s="5" t="str">
+      <c r="J20" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="K20" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>Fetches a bundle of all Encounter resources matching the specified patient and status</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" s="1" customFormat="1" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
+        <v>Fetches a bundle of all Encounter resources matching the specified patient and discharge-disposition</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C19" s="1" t="str">
+      <c r="C21" s="1" t="str">
         <f t="shared" si="0"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G19" s="1" t="s">
+      <c r="F21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5" t="str">
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Fetches a bundle of all !Encounter resources matching the specified status and type</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="1" customFormat="1" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
+    <row r="22" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
         <v>21</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C20" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Fetches a bundle of all !Questionnaire resources matching the specified context-type-value and publisher</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" s="1" customFormat="1" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>22</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C21" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="K21" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Fetches a bundle of all !Questionnaire resources matching the specified context-type-value and publisher and status</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>23</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>158</v>
@@ -8494,23 +8656,23 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>70</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="I22" s="5"/>
+        <v>121</v>
+      </c>
+      <c r="J22" s="5"/>
       <c r="K22" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>Fetches a bundle of all !Questionnaire resources matching the specified context-type-value and status</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" s="1" customFormat="1" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
+        <v>Fetches a bundle of all !Questionnaire resources matching the specified context-type-value and publisher</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>158</v>
@@ -8520,24 +8682,22 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
+        <v>123</v>
+      </c>
       <c r="K23" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>Fetches a bundle of all !Questionnaire resources matching the specified publisher and status</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" s="1" customFormat="1" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
+        <v>Fetches a bundle of all !Questionnaire resources matching the specified context-type-value and publisher and status</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>158</v>
@@ -8547,24 +8707,23 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>70</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
       <c r="K24" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>Fetches a bundle of all !Questionnaire resources matching the specified publisher and status and version</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" s="1" customFormat="1" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
+        <v>Fetches a bundle of all !Questionnaire resources matching the specified context-type-value and status</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>158</v>
@@ -8574,10 +8733,10 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>127</v>
@@ -8586,12 +8745,12 @@
       <c r="J25" s="5"/>
       <c r="K25" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>Fetches a bundle of all !Questionnaire resources matching the specified publisher and version</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" s="1" customFormat="1" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
+        <v>Fetches a bundle of all !Questionnaire resources matching the specified publisher and status</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>158</v>
@@ -8601,7 +8760,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>70</v>
@@ -8609,14 +8768,16 @@
       <c r="G26" s="1" t="s">
         <v>127</v>
       </c>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
       <c r="K26" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>Fetches a bundle of all !Questionnaire resources matching the specified status and title and version</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" s="1" customFormat="1" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
+        <v>Fetches a bundle of all !Questionnaire resources matching the specified publisher and status and version</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>158</v>
@@ -8626,22 +8787,24 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>70</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>57</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
       <c r="K27" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>Fetches a bundle of all !Questionnaire resources matching the specified status and version</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" s="1" customFormat="1" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
+        <v>Fetches a bundle of all !Questionnaire resources matching the specified publisher and version</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>158</v>
@@ -8651,7 +8814,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>70</v>
@@ -8661,74 +8824,62 @@
       </c>
       <c r="K28" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>Fetches a bundle of all !Questionnaire resources matching the specified title and version</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" s="1" customFormat="1" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
+        <v>Fetches a bundle of all !Questionnaire resources matching the specified status and title and version</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>21</v>
+        <v>158</v>
       </c>
       <c r="C29" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient</v>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>70</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="J29" s="5" t="s">
-        <v>177</v>
+        <v>57</v>
       </c>
       <c r="K29" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>Fetches a bundle of all Patient resources matching the specified birthdate and family</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" s="1" customFormat="1" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
+        <v>Fetches a bundle of all !Questionnaire resources matching the specified status and version</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>21</v>
+        <v>158</v>
       </c>
       <c r="C30" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient</v>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="J30" s="5" t="s">
-        <v>174</v>
+        <v>127</v>
       </c>
       <c r="K30" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>Fetches a bundle of all Patient resources matching the specified birthdate and name</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" s="1" customFormat="1" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
+        <v>Fetches a bundle of all !Questionnaire resources matching the specified title and version</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>21</v>
@@ -8738,28 +8889,28 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>70</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K31" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>Fetches a bundle of all Patient resources matching the specified family and gender</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" s="1" customFormat="1" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
+        <v>Fetches a bundle of all Patient resources matching the specified birthdate and family</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>21</v>
@@ -8769,104 +8920,100 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K32" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>Fetches a bundle of all Patient resources matching the specified gender and name</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" s="1" customFormat="1" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+        <v>Fetches a bundle of all Patient resources matching the specified birthdate and name</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>138</v>
+        <v>21</v>
       </c>
       <c r="C33" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>70</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>334</v>
+        <v>127</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="K33" s="5" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+      <c r="K33" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Fetches a bundle of all Patient resources matching the specified family and gender</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>138</v>
+        <v>21</v>
       </c>
       <c r="C34" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>463</v>
-      </c>
-      <c r="K34" s="5" t="s">
-        <v>146</v>
+        <v>175</v>
+      </c>
+      <c r="K34" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Fetches a bundle of all Patient resources matching the specified gender and name</v>
       </c>
     </row>
     <row r="35" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>138</v>
       </c>
       <c r="C35" s="1" t="str">
-        <f t="shared" ref="C35" si="2">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B35)</f>
+        <f t="shared" si="0"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="E35" s="1" t="b">
-        <v>1</v>
+        <v>144</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>70</v>
@@ -8874,19 +9021,22 @@
       <c r="G35" s="1" t="s">
         <v>106</v>
       </c>
+      <c r="H35" s="1" t="s">
+        <v>334</v>
+      </c>
       <c r="I35" s="5" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>585</v>
+        <v>335</v>
       </c>
       <c r="K35" s="5" t="s">
-        <v>586</v>
+        <v>326</v>
       </c>
     </row>
     <row r="36" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>138</v>
@@ -8896,7 +9046,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>70</v>
@@ -8905,76 +9055,76 @@
         <v>106</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>336</v>
+        <v>463</v>
       </c>
       <c r="K36" s="5" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="37" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>138</v>
       </c>
       <c r="C37" s="1" t="str">
+        <f t="shared" ref="C37" si="6">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B37)</f>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="E37" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>38</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C38" s="1" t="str">
         <f t="shared" si="0"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="I37" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="J37" s="5" t="s">
-        <v>581</v>
-      </c>
-      <c r="K37" s="5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
-        <v>39</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C38" s="1" t="str">
-        <f t="shared" ref="C38:C40" si="3">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B38)</f>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
-      </c>
       <c r="D38" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="E38" s="1" t="b">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>70</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>149</v>
+        <v>106</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>582</v>
+        <v>336</v>
       </c>
       <c r="K38" s="5" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="39" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8985,14 +9135,11 @@
         <v>138</v>
       </c>
       <c r="C39" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="E39" s="1" t="b">
-        <v>1</v>
+        <v>148</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>70</v>
@@ -9004,7 +9151,7 @@
         <v>153</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="K39" s="5" t="s">
         <v>156</v>
@@ -9018,11 +9165,11 @@
         <v>138</v>
       </c>
       <c r="C40" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="C40:C42" si="7">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B40)</f>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="E40" s="1" t="b">
         <v>1</v>
@@ -9037,170 +9184,173 @@
         <v>153</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="K40" s="5" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C41" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="E41" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="K41" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>39</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C42" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="E42" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="K42" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
         <v>42</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C41" s="1" t="str">
+      <c r="C43" s="1" t="str">
         <f t="shared" si="0"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-allergyintolerance</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F41" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G41" s="1" t="s">
+      <c r="F43" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G43" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="I41" s="5" t="s">
+      <c r="I43" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="J41" s="5" t="s">
+      <c r="J43" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="K41" s="5" t="s">
+      <c r="K43" s="5" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
+    <row r="44" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
         <v>45</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C42" s="1" t="str">
+      <c r="C44" s="1" t="str">
         <f t="shared" si="0"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-immunization</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="F42" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G42" s="1" t="s">
+      <c r="F44" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G44" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="I42" s="5" t="s">
+      <c r="I44" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="J42" s="5" t="s">
+      <c r="J44" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="K42" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B42&amp;" resources for the specified "&amp;SUBSTITUTE(D42,","," and ")</f>
+      <c r="K44" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B44&amp;" resources for the specified "&amp;SUBSTITUTE(D44,","," and ")</f>
         <v>Fetches a bundle of all Immunization resources for the specified patient and date</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
+    <row r="45" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
         <v>46</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C43" s="1" t="str">
+      <c r="C45" s="1" t="str">
         <f t="shared" si="0"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-immunization</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="F43" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G43" s="1" t="s">
+      <c r="F45" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G45" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="I43" s="5" t="s">
+      <c r="I45" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="J43" s="5" t="s">
+      <c r="J45" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="K43" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B43&amp;" resources for the specified "&amp;SUBSTITUTE(D43,","," and ")</f>
+      <c r="K45" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B45&amp;" resources for the specified "&amp;SUBSTITUTE(D45,","," and ")</f>
         <v>Fetches a bundle of all Immunization resources for the specified patient and status</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
+    <row r="46" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
         <v>49</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="I44" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="J44" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="K44" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B44&amp;" resources for the specified "&amp;SUBSTITUTE(D44,","," and ")</f>
-        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and status</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" s="1" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
-        <v>50</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="I45" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="J45" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="K45" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B45&amp;" resources for the specified patient and  a category code = `LAB`"</f>
-        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and  a category code = `LAB`</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" s="1" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="1">
-        <v>51</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>179</v>
@@ -9209,28 +9359,28 @@
         <v>189</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>106</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="J46" s="9" t="s">
-        <v>198</v>
+        <v>201</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>185</v>
       </c>
       <c r="K46" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B46&amp;" resources for the specified patient and  report code(s).  SHOULD support search by multiple report codes."</f>
-        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and  report code(s).  SHOULD support search by multiple report codes.</v>
+        <f>"Fetches a bundle of all "&amp;B46&amp;" resources for the specified "&amp;SUBSTITUTE(D46,","," and ")</f>
+        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and status</v>
       </c>
     </row>
     <row r="47" spans="1:11" s="1" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>179</v>
@@ -9239,31 +9389,31 @@
         <v>189</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>195</v>
+        <v>145</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>219</v>
+        <v>106</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>330</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J47" s="9" t="s">
-        <v>531</v>
+        <v>197</v>
       </c>
       <c r="K47" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B47&amp;" resources for the specified patient and date and a category code = `LAB`"</f>
-        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and a category code = `LAB`</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <f>"Fetches a bundle of all "&amp;B47&amp;" resources for the specified patient and  a category code = `LAB`"</f>
+        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and  a category code = `LAB`</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" s="1" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>179</v>
@@ -9272,88 +9422,91 @@
         <v>189</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>220</v>
+        <v>147</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>219</v>
+        <v>106</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="J48" s="5" t="s">
-        <v>532</v>
+        <v>223</v>
+      </c>
+      <c r="J48" s="9" t="s">
+        <v>198</v>
       </c>
       <c r="K48" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B48&amp;" resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes."</f>
-        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes.</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <f>"Fetches a bundle of all "&amp;B48&amp;" resources for the specified patient and  report code(s).  SHOULD support search by multiple report codes."</f>
+        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and  report code(s).  SHOULD support search by multiple report codes.</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" s="1" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C49" s="11" t="s">
-        <v>190</v>
+      <c r="C49" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>116</v>
+        <v>195</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>106</v>
+        <v>219</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>330</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="J49" s="5" t="s">
-        <v>185</v>
+        <v>196</v>
+      </c>
+      <c r="J49" s="9" t="s">
+        <v>531</v>
       </c>
       <c r="K49" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B49&amp;" resources for the specified "&amp;SUBSTITUTE(D49,","," and ")</f>
-        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and status</v>
+        <f>"Fetches a bundle of all "&amp;B49&amp;" resources for the specified patient and date and a category code = `LAB`"</f>
+        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and a category code = `LAB`</v>
       </c>
     </row>
     <row r="50" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C50" s="11" t="s">
-        <v>190</v>
+      <c r="C50" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>145</v>
+        <v>220</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>106</v>
+        <v>219</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>199</v>
+        <v>227</v>
       </c>
       <c r="J50" s="5" t="s">
-        <v>203</v>
+        <v>532</v>
       </c>
       <c r="K50" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B50&amp;" resources for the specified patient and  a category code specified in US Core DiagnosticReport Category Codes"</f>
-        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and  a category code specified in US Core DiagnosticReport Category Codes</v>
+        <f>"Fetches a bundle of all "&amp;B50&amp;" resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes."</f>
+        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes.</v>
       </c>
     </row>
     <row r="51" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>179</v>
@@ -9362,28 +9515,28 @@
         <v>190</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>106</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>200</v>
+        <v>307</v>
       </c>
       <c r="J51" s="5" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="K51" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B51&amp;" resources for the specified patient and  report code(s).  SHOULD support search by multiple report codes."</f>
-        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and  report code(s).  SHOULD support search by multiple report codes.</v>
+        <f>"Fetches a bundle of all "&amp;B51&amp;" resources for the specified "&amp;SUBSTITUTE(D51,","," and ")</f>
+        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and status</v>
       </c>
     </row>
     <row r="52" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>179</v>
@@ -9392,28 +9545,28 @@
         <v>190</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>195</v>
+        <v>145</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>219</v>
+        <v>106</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>533</v>
+        <v>203</v>
       </c>
       <c r="K52" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B52&amp;" resources for the specified patient and date and a category code specified in US Core DiagnosticReport Category Codes"</f>
-        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and a category code specified in US Core DiagnosticReport Category Codes</v>
+        <f>"Fetches a bundle of all "&amp;B52&amp;" resources for the specified patient and  a category code specified in US Core DiagnosticReport Category Codes"</f>
+        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and  a category code specified in US Core DiagnosticReport Category Codes</v>
       </c>
     </row>
     <row r="53" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>179</v>
@@ -9422,169 +9575,163 @@
         <v>190</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>220</v>
+        <v>147</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>219</v>
+        <v>106</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>532</v>
+        <v>198</v>
       </c>
       <c r="K53" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B53&amp;" resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes."</f>
-        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes.</v>
+        <f>"Fetches a bundle of all "&amp;B53&amp;" resources for the specified patient and  report code(s).  SHOULD support search by multiple report codes."</f>
+        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and  report code(s).  SHOULD support search by multiple report codes.</v>
       </c>
     </row>
     <row r="54" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C54" s="1" t="str">
-        <f t="shared" ref="C54:C64" si="4">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B54)</f>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-goal</v>
+        <v>179</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>190</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>320</v>
+        <v>195</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>106</v>
+        <v>219</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>321</v>
+        <v>533</v>
       </c>
       <c r="K54" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B54&amp;" resources for the specified "&amp;SUBSTITUTE(D54,","," and ")</f>
-        <v>Fetches a bundle of all Goal resources for the specified patient and lifecycle-status</v>
+        <f>"Fetches a bundle of all "&amp;B54&amp;" resources for the specified patient and date and a category code specified in US Core DiagnosticReport Category Codes"</f>
+        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and a category code specified in US Core DiagnosticReport Category Codes</v>
       </c>
     </row>
     <row r="55" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C55" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-goal</v>
+        <v>179</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>190</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>419</v>
+        <v>220</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>70</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>149</v>
+        <v>219</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="J55" s="5" t="s">
-        <v>420</v>
+        <v>532</v>
       </c>
       <c r="K55" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B55&amp;" resources for the specified "&amp;SUBSTITUTE(D55,","," and ")</f>
-        <v>Fetches a bundle of all Goal resources for the specified patient and target-date</v>
+        <f>"Fetches a bundle of all "&amp;B55&amp;" resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes."</f>
+        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes.</v>
       </c>
     </row>
     <row r="56" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C56" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
+        <f t="shared" ref="C56:C66" si="8">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B56)</f>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-goal</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>435</v>
+        <v>320</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="H56" s="1" t="s">
-        <v>465</v>
-      </c>
       <c r="I56" s="5" t="s">
-        <v>439</v>
+        <v>187</v>
       </c>
       <c r="J56" s="5" t="s">
-        <v>466</v>
-      </c>
-      <c r="K56" s="5" t="s">
-        <v>469</v>
+        <v>321</v>
+      </c>
+      <c r="K56" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B56&amp;" resources for the specified "&amp;SUBSTITUTE(D56,","," and ")</f>
+        <v>Fetches a bundle of all Goal resources for the specified patient and lifecycle-status</v>
       </c>
     </row>
     <row r="57" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C57" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
+        <f t="shared" si="8"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-goal</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>465</v>
+        <v>149</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="J57" s="5" t="s">
-        <v>467</v>
-      </c>
-      <c r="K57" s="5" t="s">
-        <v>470</v>
+        <v>420</v>
+      </c>
+      <c r="K57" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B57&amp;" resources for the specified "&amp;SUBSTITUTE(D57,","," and ")</f>
+        <v>Fetches a bundle of all Goal resources for the specified patient and target-date</v>
       </c>
     </row>
     <row r="58" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>181</v>
       </c>
       <c r="C58" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>106</v>
@@ -9593,61 +9740,61 @@
         <v>465</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>186</v>
+        <v>439</v>
       </c>
       <c r="J58" s="5" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="K58" s="5" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="59" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>181</v>
       </c>
       <c r="C59" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>219</v>
+        <v>106</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>465</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>231</v>
+        <v>186</v>
       </c>
       <c r="J59" s="5" t="s">
-        <v>534</v>
+        <v>467</v>
       </c>
       <c r="K59" s="5" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="60" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>447</v>
+        <v>181</v>
       </c>
       <c r="C60" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!medicationstatement</v>
+        <f t="shared" si="8"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>116</v>
+        <v>438</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>70</v>
@@ -9655,58 +9802,62 @@
       <c r="G60" s="1" t="s">
         <v>106</v>
       </c>
+      <c r="H60" s="1" t="s">
+        <v>465</v>
+      </c>
       <c r="I60" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J60" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="K60" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B60&amp;" resources for the specified "&amp;SUBSTITUTE(D60,","," and ")</f>
-        <v>Fetches a bundle of all !MedicationStatement resources for the specified patient and status</v>
+        <v>468</v>
+      </c>
+      <c r="K60" s="5" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="61" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <f>SUBTOTAL(9,M101)</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>447</v>
+        <v>181</v>
       </c>
       <c r="C61" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!medicationstatement</v>
+        <f t="shared" si="8"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>233</v>
+        <v>437</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>70</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>149</v>
+        <v>219</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>465</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J61" s="5" t="s">
-        <v>417</v>
+        <v>534</v>
       </c>
       <c r="K61" s="5" t="s">
-        <v>234</v>
+        <v>472</v>
       </c>
     </row>
     <row r="62" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>182</v>
+        <v>447</v>
       </c>
       <c r="C62" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-procedure</v>
+        <f t="shared" si="8"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!medicationstatement</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>116</v>
@@ -9718,146 +9869,143 @@
         <v>106</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="J62" s="5" t="s">
-        <v>204</v>
+        <v>416</v>
       </c>
       <c r="K62" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B62&amp;" resources for the specified "&amp;SUBSTITUTE(D62,","," and ")</f>
-        <v>Fetches a bundle of all Procedure resources for the specified patient and status</v>
+        <v>Fetches a bundle of all !MedicationStatement resources for the specified patient and status</v>
       </c>
     </row>
     <row r="63" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>76</v>
+        <f>SUBTOTAL(9,M103)</f>
+        <v>0</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>182</v>
+        <v>447</v>
       </c>
       <c r="C63" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-procedure</v>
+        <f t="shared" si="8"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!medicationstatement</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>164</v>
+        <v>233</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>106</v>
+        <v>149</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="J63" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="K63" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B63&amp;" resources for the specified "&amp;SUBSTITUTE(D63,","," and ")</f>
-        <v>Fetches a bundle of all Procedure resources for the specified patient and date</v>
+        <v>417</v>
+      </c>
+      <c r="K63" s="5" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="64" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>182</v>
       </c>
       <c r="C64" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-procedure</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>220</v>
+        <v>116</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>70</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>219</v>
+        <v>106</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="J64" s="5" t="s">
-        <v>535</v>
+        <v>204</v>
       </c>
       <c r="K64" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B64&amp;" resources for the specified patient and date and procedure code(s).  SHOULD support search by multiple codes."</f>
-        <v>Fetches a bundle of all Procedure resources for the specified patient and date and procedure code(s).  SHOULD support search by multiple codes.</v>
+        <f>"Fetches a bundle of all "&amp;B64&amp;" resources for the specified "&amp;SUBSTITUTE(D64,","," and ")</f>
+        <v>Fetches a bundle of all Procedure resources for the specified patient and status</v>
       </c>
     </row>
     <row r="65" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>424</v>
+        <v>182</v>
+      </c>
+      <c r="C65" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-procedure</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>238</v>
+        <v>164</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="H65" s="1" t="s">
-        <v>426</v>
-      </c>
       <c r="I65" s="5" t="s">
-        <v>284</v>
+        <v>217</v>
       </c>
       <c r="J65" s="5" t="s">
-        <v>427</v>
-      </c>
-      <c r="K65" s="5" t="s">
-        <v>325</v>
+        <v>218</v>
+      </c>
+      <c r="K65" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B65&amp;" resources for the specified "&amp;SUBSTITUTE(D65,","," and ")</f>
+        <v>Fetches a bundle of all Procedure resources for the specified patient and date</v>
       </c>
     </row>
     <row r="66" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>424</v>
+        <v>182</v>
+      </c>
+      <c r="C66" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-procedure</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>145</v>
+        <v>220</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>426</v>
+        <v>219</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="J66" s="5" t="s">
-        <v>428</v>
+        <v>535</v>
       </c>
       <c r="K66" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B66&amp;" resources for the specified patient and a category code = `laboratory`"</f>
-        <v>Fetches a bundle of all Observation resources for the specified patient and a category code = `laboratory`</v>
+        <f>"Fetches a bundle of all "&amp;B66&amp;" resources for the specified patient and date and procedure code(s).  SHOULD support search by multiple codes."</f>
+        <v>Fetches a bundle of all Procedure resources for the specified patient and date and procedure code(s).  SHOULD support search by multiple codes.</v>
       </c>
     </row>
     <row r="67" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>183</v>
@@ -9866,186 +10014,186 @@
         <v>424</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>147</v>
+        <v>238</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>106</v>
       </c>
+      <c r="H67" s="1" t="s">
+        <v>426</v>
+      </c>
       <c r="I67" s="5" t="s">
-        <v>225</v>
+        <v>284</v>
       </c>
       <c r="J67" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="K67" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B67&amp;" resources for the specified patient and observation code(s).  SHOULD support search by multiple report codes. The Observation `code` parameter searches `Observation.code only."</f>
-        <v>Fetches a bundle of all Observation resources for the specified patient and observation code(s).  SHOULD support search by multiple report codes. The Observation `code` parameter searches `Observation.code only.</v>
+        <v>427</v>
+      </c>
+      <c r="K67" s="5" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="68" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C68" s="11" t="s">
+      <c r="C68" s="1" t="s">
         <v>424</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>195</v>
+        <v>145</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>219</v>
+        <v>106</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>426</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="J68" s="5" t="s">
-        <v>536</v>
+        <v>428</v>
       </c>
       <c r="K68" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B68&amp;" resources for the specified patient and date and a category code = `laboratory`"</f>
-        <v>Fetches a bundle of all Observation resources for the specified patient and date and a category code = `laboratory`</v>
+        <f>"Fetches a bundle of all "&amp;B68&amp;" resources for the specified patient and a category code = `laboratory`"</f>
+        <v>Fetches a bundle of all Observation resources for the specified patient and a category code = `laboratory`</v>
       </c>
     </row>
     <row r="69" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C69" s="11" t="s">
+      <c r="C69" s="1" t="s">
         <v>424</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>220</v>
+        <v>147</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>219</v>
+        <v>106</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="J69" s="5" t="s">
-        <v>537</v>
+        <v>337</v>
       </c>
       <c r="K69" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B69&amp;" resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes."</f>
-        <v>Fetches a bundle of all Observation resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes.</v>
+        <f>"Fetches a bundle of all "&amp;B69&amp;" resources for the specified patient and observation code(s).  SHOULD support search by multiple report codes. The Observation `code` parameter searches `Observation.code only."</f>
+        <v>Fetches a bundle of all Observation resources for the specified patient and observation code(s).  SHOULD support search by multiple report codes. The Observation `code` parameter searches `Observation.code only.</v>
       </c>
     </row>
     <row r="70" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="C70" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C70" s="11" t="s">
         <v>424</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>116</v>
+        <v>195</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>106</v>
+        <v>219</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>426</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="J70" s="5" t="s">
-        <v>206</v>
+        <v>536</v>
       </c>
       <c r="K70" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B70&amp;" resources for the specified "&amp;SUBSTITUTE(D70,","," and ")</f>
-        <v>Fetches a bundle of all !Observation resources for the specified patient and status</v>
+        <f>"Fetches a bundle of all "&amp;B70&amp;" resources for the specified patient and date and a category code = `laboratory`"</f>
+        <v>Fetches a bundle of all Observation resources for the specified patient and date and a category code = `laboratory`</v>
       </c>
     </row>
     <row r="71" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>235</v>
+        <v>183</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>237</v>
+        <v>424</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>145</v>
+        <v>220</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>331</v>
+        <v>219</v>
       </c>
       <c r="I71" s="5" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="J71" s="5" t="s">
-        <v>244</v>
+        <v>537</v>
       </c>
       <c r="K71" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B71&amp;" resources for the specified "&amp;SUBSTITUTE(D71,","," and ")&amp;"=`assess-plan`"</f>
-        <v>Fetches a bundle of all CarePlan resources for the specified patient and category=`assess-plan`</v>
+        <f>"Fetches a bundle of all "&amp;B71&amp;" resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes."</f>
+        <v>Fetches a bundle of all Observation resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes.</v>
       </c>
     </row>
     <row r="72" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="C72" s="11" t="s">
-        <v>237</v>
+        <v>324</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>424</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>195</v>
+        <v>116</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>70</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>331</v>
+        <v>106</v>
       </c>
       <c r="I72" s="5" t="s">
-        <v>242</v>
+        <v>207</v>
       </c>
       <c r="J72" s="5" t="s">
-        <v>539</v>
-      </c>
-      <c r="K72" s="5" t="s">
-        <v>246</v>
+        <v>206</v>
+      </c>
+      <c r="K72" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B72&amp;" resources for the specified "&amp;SUBSTITUTE(D72,","," and ")</f>
+        <v>Fetches a bundle of all !Observation resources for the specified patient and status</v>
       </c>
     </row>
     <row r="73" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>235</v>
@@ -10054,10 +10202,10 @@
         <v>237</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>238</v>
+        <v>145</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>106</v>
@@ -10066,18 +10214,19 @@
         <v>331</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="J73" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="K73" s="5" t="s">
-        <v>247</v>
+        <v>244</v>
+      </c>
+      <c r="K73" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B73&amp;" resources for the specified "&amp;SUBSTITUTE(D73,","," and ")&amp;"=`assess-plan`"</f>
+        <v>Fetches a bundle of all CarePlan resources for the specified patient and category=`assess-plan`</v>
       </c>
     </row>
     <row r="74" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>235</v>
@@ -10086,7 +10235,7 @@
         <v>237</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>239</v>
+        <v>195</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>70</v>
@@ -10098,126 +10247,124 @@
         <v>331</v>
       </c>
       <c r="I74" s="5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J74" s="5" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="K74" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="75" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C75" s="1" t="str">
-        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B75)</f>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-careteam</v>
+        <v>235</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>237</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>116</v>
+        <v>238</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>106</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="I75" s="5" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="J75" s="5" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="K75" s="5" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" s="1" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C76" s="10" t="s">
-        <v>279</v>
+        <v>235</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>237</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>147</v>
+        <v>239</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>106</v>
+        <v>219</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>281</v>
+        <v>241</v>
       </c>
       <c r="J76" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="K76" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B76&amp;" resources for the specified patient and observation code."</f>
-        <v>Fetches a bundle of all Observation resources for the specified patient and observation code.</v>
+        <v>538</v>
+      </c>
+      <c r="K76" s="5" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="77" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>501</v>
+        <v>249</v>
+      </c>
+      <c r="C77" s="1" t="str">
+        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B77)</f>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-careteam</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>238</v>
+        <v>116</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>106</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>429</v>
+        <v>315</v>
       </c>
       <c r="I77" s="5" t="s">
-        <v>283</v>
+        <v>250</v>
       </c>
       <c r="J77" s="5" t="s">
-        <v>430</v>
-      </c>
-      <c r="K77" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B77&amp;" resources for the specified "&amp;SUBSTITUTE(D77,","," and ")</f>
-        <v>Fetches a bundle of all Observation resources for the specified patient and category and status</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+      <c r="K77" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" s="1" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C78" s="1" t="s">
-        <v>501</v>
+      <c r="C78" s="10" t="s">
+        <v>279</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>12</v>
@@ -10226,22 +10373,22 @@
         <v>106</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>429</v>
+        <v>332</v>
       </c>
       <c r="I78" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J78" s="5" t="s">
-        <v>431</v>
+        <v>280</v>
       </c>
       <c r="K78" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B78&amp;" resources for the specified patient and a category code = `vital-signs`"</f>
-        <v>Fetches a bundle of all Observation resources for the specified patient and a category code = `vital-signs`</v>
+        <f>"Fetches a bundle of all "&amp;B78&amp;" resources for the specified patient and observation code."</f>
+        <v>Fetches a bundle of all Observation resources for the specified patient and observation code.</v>
       </c>
     </row>
     <row r="79" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>183</v>
@@ -10250,10 +10397,10 @@
         <v>501</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>147</v>
+        <v>238</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>106</v>
@@ -10262,19 +10409,19 @@
         <v>429</v>
       </c>
       <c r="I79" s="5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="J79" s="5" t="s">
-        <v>286</v>
+        <v>430</v>
       </c>
       <c r="K79" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B79&amp;" resources for the specified patient and observation code(s).  SHOULD support search by multiple codes. The Observation `code` parameter searches `Observation.code only."</f>
-        <v>Fetches a bundle of all Observation resources for the specified patient and observation code(s).  SHOULD support search by multiple codes. The Observation `code` parameter searches `Observation.code only.</v>
+        <f>"Fetches a bundle of all "&amp;B79&amp;" resources for the specified "&amp;SUBSTITUTE(D79,","," and ")</f>
+        <v>Fetches a bundle of all Observation resources for the specified patient and category and status</v>
       </c>
     </row>
     <row r="80" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>183</v>
@@ -10283,31 +10430,31 @@
         <v>501</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>195</v>
+        <v>145</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>219</v>
+        <v>106</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>429</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="J80" s="5" t="s">
-        <v>540</v>
+        <v>431</v>
       </c>
       <c r="K80" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B80&amp;" resources for the specified patient and date and a category code = `vital-signs`"</f>
-        <v>Fetches a bundle of all Observation resources for the specified patient and date and a category code = `vital-signs`</v>
-      </c>
-    </row>
-    <row r="81" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f>"Fetches a bundle of all "&amp;B80&amp;" resources for the specified patient and a category code = `vital-signs`"</f>
+        <v>Fetches a bundle of all Observation resources for the specified patient and a category code = `vital-signs`</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>183</v>
@@ -10316,170 +10463,170 @@
         <v>501</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>220</v>
+        <v>147</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>219</v>
+        <v>106</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>429</v>
       </c>
       <c r="I81" s="5" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="J81" s="5" t="s">
-        <v>541</v>
+        <v>286</v>
       </c>
       <c r="K81" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B81&amp;" resources for the specified patient and date and report code(s).  SHOULD support search by multiple codes."</f>
-        <v>Fetches a bundle of all Observation resources for the specified patient and date and report code(s).  SHOULD support search by multiple codes.</v>
-      </c>
-      <c r="L81" s="1"/>
-      <c r="M81" s="1"/>
-      <c r="N81" s="1"/>
-      <c r="O81" s="1"/>
-      <c r="P81" s="1"/>
-      <c r="Q81" s="1"/>
+        <f>"Fetches a bundle of all "&amp;B81&amp;" resources for the specified patient and observation code(s).  SHOULD support search by multiple codes. The Observation `code` parameter searches `Observation.code only."</f>
+        <v>Fetches a bundle of all Observation resources for the specified patient and observation code(s).  SHOULD support search by multiple codes. The Observation `code` parameter searches `Observation.code only.</v>
+      </c>
     </row>
     <row r="82" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C82" s="1" t="str">
-        <f t="shared" ref="C82:C87" si="5">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B82)</f>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
+        <v>183</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>501</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>116</v>
+        <v>195</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>106</v>
+        <v>219</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>429</v>
       </c>
       <c r="I82" s="5" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="J82" s="5" t="s">
-        <v>297</v>
+        <v>540</v>
       </c>
       <c r="K82" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B82&amp;" resources for the specified "&amp;SUBSTITUTE(D82,","," and ") &amp;". See the implementation notes above for how to access the actual document."</f>
-        <v>Fetches a bundle of all DocumentReference resources for the specified patient and status. See the implementation notes above for how to access the actual document.</v>
-      </c>
-    </row>
-    <row r="83" spans="1:17" s="1" customFormat="1" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <f>"Fetches a bundle of all "&amp;B82&amp;" resources for the specified patient and date and a category code = `vital-signs`"</f>
+        <v>Fetches a bundle of all Observation resources for the specified patient and date and a category code = `vital-signs`</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C83" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!documentreference</v>
+        <v>183</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>501</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>293</v>
+        <v>220</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>70</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>149</v>
+        <v>219</v>
       </c>
       <c r="I83" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="J83" s="5"/>
+        <v>288</v>
+      </c>
+      <c r="J83" s="5" t="s">
+        <v>541</v>
+      </c>
       <c r="K83" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B83&amp;" resources for the specified "&amp;SUBSTITUTE(D83,","," and ") &amp;". See the implementation notes above for how to access the actual document."</f>
-        <v>Fetches a bundle of all !DocumentReference resources for the specified patient and period. See the implementation notes above for how to access the actual document.</v>
-      </c>
+        <f>"Fetches a bundle of all "&amp;B83&amp;" resources for the specified patient and date and report code(s).  SHOULD support search by multiple codes."</f>
+        <v>Fetches a bundle of all Observation resources for the specified patient and date and report code(s).  SHOULD support search by multiple codes.</v>
+      </c>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
+      <c r="O83" s="1"/>
+      <c r="P83" s="1"/>
+      <c r="Q83" s="1"/>
     </row>
     <row r="84" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>178</v>
       </c>
       <c r="C84" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="C84:C89" si="9">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B84)</f>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="H84" s="1" t="s">
-        <v>333</v>
-      </c>
       <c r="I84" s="5" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="J84" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="K84" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
+      </c>
+      <c r="K84" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B84&amp;" resources for the specified "&amp;SUBSTITUTE(D84,","," and ") &amp;". See the implementation notes above for how to access the actual document."</f>
+        <v>Fetches a bundle of all DocumentReference resources for the specified patient and status. See the implementation notes above for how to access the actual document.</v>
       </c>
     </row>
     <row r="85" spans="1:17" s="1" customFormat="1" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>178</v>
+        <v>294</v>
       </c>
       <c r="C85" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
+        <f t="shared" si="9"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!documentreference</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>195</v>
+        <v>293</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="H85" s="1" t="s">
-        <v>333</v>
+        <v>149</v>
       </c>
       <c r="I85" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="J85" s="9" t="s">
-        <v>542</v>
-      </c>
-      <c r="K85" s="5" t="s">
-        <v>302</v>
+        <v>295</v>
+      </c>
+      <c r="J85" s="5"/>
+      <c r="K85" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B85&amp;" resources for the specified "&amp;SUBSTITUTE(D85,","," and ") &amp;". See the implementation notes above for how to access the actual document."</f>
+        <v>Fetches a bundle of all !DocumentReference resources for the specified patient and period. See the implementation notes above for how to access the actual document.</v>
       </c>
     </row>
     <row r="86" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>178</v>
       </c>
       <c r="C86" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>12</v>
@@ -10487,85 +10634,152 @@
       <c r="G86" s="1" t="s">
         <v>106</v>
       </c>
+      <c r="H86" s="1" t="s">
+        <v>333</v>
+      </c>
       <c r="I86" s="5" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="J86" s="5" t="s">
-        <v>399</v>
+        <v>296</v>
       </c>
       <c r="K86" s="5" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="87" spans="1:17" s="1" customFormat="1" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>178</v>
       </c>
       <c r="C87" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>303</v>
+        <v>195</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>219</v>
       </c>
+      <c r="H87" s="1" t="s">
+        <v>333</v>
+      </c>
       <c r="I87" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="J87" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="K87" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B87&amp;" resources for the specified "&amp;SUBSTITUTE(D87,","," and ") &amp;". See the implementation notes above for how to access the actual document."</f>
-        <v>Fetches a bundle of all DocumentReference resources for the specified patient and type and period. See the implementation notes above for how to access the actual document.</v>
+        <v>300</v>
+      </c>
+      <c r="J87" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="K87" s="5" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="88" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>441</v>
+        <v>178</v>
+      </c>
+      <c r="C88" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>118</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>106</v>
       </c>
       <c r="I88" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="J88" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="K88" s="5" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" s="1" customFormat="1" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
+        <v>112</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C89" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="I89" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="J89" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="K89" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B89&amp;" resources for the specified "&amp;SUBSTITUTE(D89,","," and ") &amp;". See the implementation notes above for how to access the actual document."</f>
+        <v>Fetches a bundle of all DocumentReference resources for the specified patient and type and period. See the implementation notes above for how to access the actual document.</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="1">
+        <v>115</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I90" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="J88" s="5" t="s">
+      <c r="J90" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="K88" s="5" t="s">
+      <c r="K90" s="5" t="s">
         <v>401</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K88" xr:uid="{331E0B16-168F-459B-8951-3DF614BF0371}">
+  <autoFilter ref="A1:K90" xr:uid="{331E0B16-168F-459B-8951-3DF614BF0371}">
     <filterColumn colId="1">
       <filters>
         <filter val="Condition"/>
+        <filter val="Encounter"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K132">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K134">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/input/resources_spreadsheets/uscore-server.xlsx
+++ b/input/resources_spreadsheets/uscore-server.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/US-Core-R4/input/resources_spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F740F7E8-CCAC-634E-9E2A-ADF9822618AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BF2F87B-DBD8-6743-B15B-4009D232C53B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-47240" yWindow="-3620" windowWidth="47680" windowHeight="17540" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-66900" yWindow="-1720" windowWidth="55960" windowHeight="14700" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -27,7 +27,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">sp_combos!$A$1:$K$90</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">sps!$A$1:$AB$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">sps!$A$1:$AB$102</definedName>
   </definedNames>
   <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
@@ -141,7 +141,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2180" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2210" uniqueCount="604">
   <si>
     <t>Element</t>
   </si>
@@ -891,15 +891,6 @@
   </si>
   <si>
     <t>CareTeam</t>
-  </si>
-  <si>
-    <t>support searching for all current care team members for a patient.</t>
-  </si>
-  <si>
-    <t>GET [base]/CareTeam?patient=1137192&amp;status=active</t>
-  </si>
-  <si>
-    <t>Fetches a bundle of all CareTeam resources for the specified patient and status =`active`</t>
   </si>
   <si>
     <t>Device</t>
@@ -2008,12 +1999,51 @@
   <si>
     <t>GET [base]/Encounter?patient=example1&amp;discharge-disposition=01</t>
   </si>
+  <si>
+    <t>support fetching a CareTeam</t>
+  </si>
+  <si>
+    <t>CareTeam:participant:Practitioner,CareTeam:participant:Patient,CareTeam:participant:RelatedPerson,</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>support searching a careteam by participant role</t>
+  </si>
+  <si>
+    <t>DOES THIS DO ANYTHING?</t>
+  </si>
+  <si>
+    <t>!CareTeam</t>
+  </si>
+  <si>
+    <t>support searching for all current care team members for a patient. DOES THIS DO ANYTHING?</t>
+  </si>
+  <si>
+    <t>GET [base]/CareTeam?patient=1137192&amp;status=active~GET [base]/CareTeam?patient=1137192&amp;status=active&amp;_include=CareTeam:participant:Practitioner&amp;_include=CareTeam:participant:Patient&amp;_include=CareTeam:participant:RelatedPerson</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all CareTeam resources for the specified patient and status =`active` and may include CareTeam Patient, RelatedPerson and Practitioner participants</t>
+  </si>
+  <si>
+    <t>patient,role</t>
+  </si>
+  <si>
+    <t>support searching for all current care team member roles for a patient. DOES THIS DO ANYTHING?</t>
+  </si>
+  <si>
+    <t>GET [base]/CareTeam?patient=1137192&amp;role=http://snomed.info/sct\|17561000</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all CareTeam resources for the specified patient and participant role</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2108,12 +2138,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2560,34 +2584,34 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B2" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B3" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B4" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B5" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -2595,12 +2619,12 @@
         <v>68</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B7" t="s">
         <v>60</v>
@@ -2608,15 +2632,15 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B8" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -2633,13 +2657,13 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:AB100"/>
+  <dimension ref="A1:AB102"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F11" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="O23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G103" sqref="G103"/>
+      <selection pane="bottomRight" activeCell="Z86" sqref="Z86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2686,7 +2710,7 @@
         <v>41</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>32</v>
@@ -2728,10 +2752,10 @@
         <v>52</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="X1" s="4" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="Y1" s="4" t="s">
         <v>3</v>
@@ -2908,7 +2932,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="G5" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3116,7 +3140,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="G9" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3165,7 +3189,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="G10" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3210,7 +3234,7 @@
         <v>SearchParameter-us-core-allergyintolerance-patient.html</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="19" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3227,7 +3251,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="G11" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3261,7 +3285,7 @@
         <v>SearchParameter-us-core-condition-category.html</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3278,7 +3302,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="G12" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3309,7 +3333,7 @@
         <v>SearchParameter-us-core-condition-clinical-status.html</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3326,7 +3350,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="G13" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3367,7 +3391,7 @@
         <v>SearchParameter-us-core-condition-patient.html</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3410,7 +3434,7 @@
         <v>212</v>
       </c>
       <c r="Z14" s="5" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="AA14" s="2" t="s">
         <v>171</v>
@@ -3420,7 +3444,7 @@
         <v>SearchParameter-us-core-encounter-id.html</v>
       </c>
     </row>
-    <row r="15" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -3437,7 +3461,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="G15" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3470,7 +3494,7 @@
         <v>SearchParameter-us-core-encounter-class.html</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -3487,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="G16" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3524,7 +3548,7 @@
         <v>SearchParameter-us-core-encounter-date.html</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -3541,7 +3565,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="G17" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3581,7 +3605,7 @@
         <v>SearchParameter-us-core-encounter-identifier.html</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -3598,7 +3622,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="G18" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3639,7 +3663,7 @@
         <v>SearchParameter-us-core-encounter-patient.html</v>
       </c>
     </row>
-    <row r="19" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -3647,7 +3671,7 @@
         <v>22</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>30</v>
@@ -3656,7 +3680,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="G19" s="1" t="str">
         <f t="shared" ref="G19" si="8">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B19)</f>
@@ -3700,7 +3724,7 @@
         <v>SearchParameter-us-core-encounter-location.html</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -3717,7 +3741,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="G20" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3750,7 +3774,7 @@
         <v>SearchParameter-us-core-encounter-status.html</v>
       </c>
     </row>
-    <row r="21" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -3767,7 +3791,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="G21" s="1" t="str">
         <f t="shared" ref="G21" si="11">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B21)</f>
@@ -3800,7 +3824,7 @@
         <v>SearchParameter-us-core-encounter-type.html</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -3808,7 +3832,7 @@
         <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>30</v>
@@ -3817,7 +3841,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="G22" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3853,7 +3877,7 @@
         <v>SearchParameter-us-core-encounter-discharge-disposition.html</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:28" ht="19" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -3896,14 +3920,14 @@
         <v>76</v>
       </c>
       <c r="Z23" s="5" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="AB23" s="1" t="str">
         <f>"SearchParameter-us-core-"&amp;LOWER((B23)&amp;"-"&amp;SUBSTITUTE(C23,"_","")&amp;".html")</f>
         <v>SearchParameter-us-core-patient-id.html</v>
       </c>
     </row>
-    <row r="24" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -3920,7 +3944,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="G24" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3951,7 +3975,7 @@
         <v>SearchParameter-us-core-patient-birthdate.html</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -3968,7 +3992,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="G25" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3998,7 +4022,7 @@
         <v>SearchParameter-us-core-patient-family.html</v>
       </c>
     </row>
-    <row r="26" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -4015,7 +4039,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="G26" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4047,7 +4071,7 @@
         <v>SearchParameter-us-core-patient-gender.html</v>
       </c>
     </row>
-    <row r="27" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -4091,7 +4115,7 @@
         <v>SearchParameter-us-core-patient-given.html</v>
       </c>
     </row>
-    <row r="28" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -4108,7 +4132,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="G28" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4148,7 +4172,7 @@
         <v>SearchParameter-us-core-patient-identifier.html</v>
       </c>
     </row>
-    <row r="29" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -4189,7 +4213,7 @@
       </c>
       <c r="S29"/>
       <c r="Y29" s="5" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="Z29" s="1" t="s">
         <v>173</v>
@@ -4528,7 +4552,7 @@
         <v>SearchParameter-us-core-!questionnaire-version.html</v>
       </c>
     </row>
-    <row r="37" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>34</v>
       </c>
@@ -4545,7 +4569,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="G37" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4582,7 +4606,7 @@
         <v>SearchParameter-us-core-condition-onset-date.html</v>
       </c>
     </row>
-    <row r="38" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>35</v>
       </c>
@@ -4590,7 +4614,7 @@
         <v>138</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>30</v>
@@ -4599,7 +4623,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="G38" s="1" t="str">
         <f t="shared" ref="G38:G40" si="16">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B38)</f>
@@ -4639,7 +4663,7 @@
         <v>SearchParameter-us-core-condition-asserted-date.html</v>
       </c>
     </row>
-    <row r="39" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>36</v>
       </c>
@@ -4647,7 +4671,7 @@
         <v>138</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>30</v>
@@ -4656,7 +4680,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="G39" s="1" t="str">
         <f t="shared" si="16"/>
@@ -4696,7 +4720,7 @@
         <v>SearchParameter-us-core-condition-recorded-date.html</v>
       </c>
     </row>
-    <row r="40" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>37</v>
       </c>
@@ -4704,7 +4728,7 @@
         <v>138</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>30</v>
@@ -4713,7 +4737,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="G40" s="1" t="str">
         <f t="shared" si="16"/>
@@ -4753,7 +4777,7 @@
         <v>SearchParameter-us-core-condition-abatement-date.html</v>
       </c>
     </row>
-    <row r="41" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>38</v>
       </c>
@@ -4770,7 +4794,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="G41" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4803,7 +4827,7 @@
         <v>SearchParameter-us-core-condition-code.html</v>
       </c>
     </row>
-    <row r="42" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>12</v>
       </c>
@@ -4811,7 +4835,7 @@
         <v>138</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>30</v>
@@ -4820,7 +4844,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="G42" s="1" t="str">
         <f t="shared" ref="G42" si="19">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B42)</f>
@@ -4849,7 +4873,7 @@
         <v>56</v>
       </c>
       <c r="Y42" s="1" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="Z42" s="5" t="str">
         <f>"GET [base]/"&amp;B42&amp;"?patient=1137192"</f>
@@ -4881,7 +4905,7 @@
         <v>1</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="G43" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4940,7 +4964,7 @@
         <v>0</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="G44" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4990,7 +5014,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="G45" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5067,13 +5091,13 @@
         <v>56</v>
       </c>
       <c r="Y46" s="5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="Z46" s="5" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="AA46" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="AB46" s="1" t="str">
         <f t="shared" ref="AB46" si="21">"SearchParameter-us-core-"&amp;LOWER((B46)&amp;"-"&amp;C46&amp;".html")</f>
@@ -5097,7 +5121,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="G47" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5150,7 +5174,7 @@
         <v>1</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="G48" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5209,7 +5233,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="G49" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5259,7 +5283,7 @@
         <v>0</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="G50" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5309,7 +5333,7 @@
         <v>0</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="G51" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5354,7 +5378,7 @@
         <v>178</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>30</v>
@@ -5363,7 +5387,7 @@
         <v>0</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="G52" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5379,7 +5403,7 @@
         <v>79</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="M52" s="1" t="s">
         <v>56</v>
@@ -5416,7 +5440,7 @@
         <v>0</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="G53" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5469,7 +5493,7 @@
         <v>1</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="G54" s="1" t="str">
         <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B54)</f>
@@ -5528,7 +5552,7 @@
         <v>0</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="G55" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5578,7 +5602,7 @@
         <v>0</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="G56" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5631,7 +5655,7 @@
         <v>0</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="G57" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5676,7 +5700,7 @@
         <v>180</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>30</v>
@@ -5685,7 +5709,7 @@
         <v>0</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="G58" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5735,7 +5759,7 @@
         <v>1</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="G59" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5785,7 +5809,7 @@
         <v>180</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>30</v>
@@ -5794,7 +5818,7 @@
         <v>0</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="G60" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5848,7 +5872,7 @@
         <v>0</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="G61" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5892,7 +5916,7 @@
         <v>181</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>30</v>
@@ -5901,7 +5925,7 @@
         <v>0</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="G62" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5954,7 +5978,7 @@
         <v>0</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="G63" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5996,7 +6020,7 @@
         <v>181</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>30</v>
@@ -6005,7 +6029,7 @@
         <v>0</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="G64" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6056,7 +6080,7 @@
         <v>0</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="G65" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6098,7 +6122,7 @@
         <v>62</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>62</v>
@@ -6110,7 +6134,7 @@
         <v>0</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="G66" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6151,7 +6175,7 @@
         <v>63</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>90</v>
@@ -6163,7 +6187,7 @@
         <v>1</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="G67" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6193,7 +6217,7 @@
         <v>215</v>
       </c>
       <c r="Z67" s="12" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="AA67" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B67&amp; " resources for the specified patient. Mandatory for client to support the _include parameter. Optional for server to support the _include parameter."</f>
@@ -6209,7 +6233,7 @@
         <v>64</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>229</v>
@@ -6221,7 +6245,7 @@
         <v>0</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="G68" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6275,7 +6299,7 @@
         <v>0</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="G69" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6328,7 +6352,7 @@
         <v>1</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="G70" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6386,7 +6410,7 @@
         <v>0</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="G71" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6440,7 +6464,7 @@
         <v>0</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="G72" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6493,10 +6517,10 @@
         <v>0</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="G73" s="1" t="str">
-        <f t="shared" ref="G73:G100" si="40">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B73)</f>
+        <f t="shared" ref="G73:G102" si="40">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B73)</f>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation</v>
       </c>
       <c r="H73" s="1" t="s">
@@ -6546,7 +6570,7 @@
         <v>0</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="G74" s="1" t="str">
         <f t="shared" si="40"/>
@@ -6596,7 +6620,7 @@
         <v>0</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="G75" s="1" t="str">
         <f t="shared" si="40"/>
@@ -6649,7 +6673,7 @@
         <v>0</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="G76" s="1" t="str">
         <f t="shared" si="40"/>
@@ -6703,7 +6727,7 @@
         <v>0</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="G77" s="1" t="str">
         <f t="shared" si="40"/>
@@ -6762,7 +6786,7 @@
         <v>0</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="G78" s="1" t="str">
         <f t="shared" si="40"/>
@@ -6800,7 +6824,7 @@
         <v>75</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>26</v>
@@ -6812,7 +6836,7 @@
         <v>0</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="G79" s="1" t="str">
         <f t="shared" si="40"/>
@@ -6862,7 +6886,7 @@
         <v>0</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="G80" s="1" t="str">
         <f t="shared" si="40"/>
@@ -6916,7 +6940,7 @@
         <v>0</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="G81" s="1" t="str">
         <f t="shared" si="40"/>
@@ -6975,7 +6999,7 @@
         <v>0</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="G82" s="1" t="str">
         <f t="shared" si="40"/>
@@ -7011,7 +7035,7 @@
         <v>SearchParameter-us-core-careplan-status.html</v>
       </c>
     </row>
-    <row r="83" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>79</v>
       </c>
@@ -7028,7 +7052,7 @@
         <v>0</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="G83" s="1" t="str">
         <f t="shared" si="40"/>
@@ -7053,13 +7077,16 @@
       <c r="O83" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="X83" s="1" t="s">
+        <v>592</v>
+      </c>
       <c r="Y83" s="1" t="str">
         <f>"support searching for all "&amp;LOWER(B83)&amp;"s for a patient"</f>
         <v>support searching for all careteams for a patient</v>
       </c>
       <c r="Z83" s="5" t="str">
-        <f>"GET [base]/"&amp;B83&amp;"?patient=1137192"</f>
-        <v>GET [base]/CareTeam?patient=1137192</v>
+        <f>"GET [base]/"&amp;B83&amp;"?name=Shaw"</f>
+        <v>GET [base]/CareTeam?name=Shaw</v>
       </c>
       <c r="AA83" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B83&amp; " resources for the specified patient"</f>
@@ -7070,31 +7097,31 @@
         <v>SearchParameter-us-core-careteam-patient.html</v>
       </c>
     </row>
-    <row r="84" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>249</v>
+        <v>596</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="E84" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>528</v>
+        <v>1</v>
       </c>
       <c r="G84" s="1" t="str">
         <f t="shared" si="40"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-careteam</v>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!careteam</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>56</v>
+      </c>
+      <c r="I84" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="J84" s="1" t="s">
         <v>56</v>
@@ -7103,48 +7130,53 @@
         <v>57</v>
       </c>
       <c r="L84" s="1" t="str">
-        <f t="shared" ref="L84" si="46">B84&amp;"."&amp;C84</f>
-        <v>CareTeam.status</v>
+        <f t="shared" ref="L84:L85" si="46">B84&amp;"."&amp;C84</f>
+        <v>!CareTeam._id</v>
       </c>
       <c r="M84" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N84" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="O84" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Y84" s="5"/>
-      <c r="Z84" s="5"/>
-      <c r="AA84" s="12"/>
+      <c r="X84" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="Y84" s="5" t="s">
+        <v>591</v>
+      </c>
+      <c r="Z84" s="5" t="str">
+        <f>"GET [base]/"&amp;B84&amp;"?name=Smith"</f>
+        <v>GET [base]/!CareTeam?name=Smith</v>
+      </c>
+      <c r="AA84" s="2"/>
       <c r="AB84" s="1" t="str">
-        <f t="shared" ref="AB84" si="47">"SearchParameter-us-core-"&amp;LOWER((B84)&amp;"-"&amp;C84&amp;".html")</f>
-        <v>SearchParameter-us-core-careteam-status.html</v>
-      </c>
-    </row>
-    <row r="85" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <f>"SearchParameter-us-core-"&amp;LOWER((B84)&amp;"-"&amp;SUBSTITUTE(C84,"_","")&amp;".html")</f>
+        <v>SearchParameter-us-core-!careteam-id.html</v>
+      </c>
+    </row>
+    <row r="85" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E85" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>525</v>
       </c>
       <c r="G85" s="1" t="str">
-        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-implantable-"&amp;LOWER(B85)</f>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-implantable-device</v>
+        <f t="shared" ref="G85" si="47">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B85)</f>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-careteam</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>56</v>
@@ -7153,60 +7185,57 @@
         <v>56</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="L85" s="1" t="str">
-        <f t="shared" ref="L85:L100" si="48">B85&amp;"."&amp;C85</f>
-        <v>Device.patient</v>
+        <f t="shared" si="46"/>
+        <v>CareTeam.status</v>
       </c>
       <c r="M85" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="N85" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="O85" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Y85" s="1" t="str">
-        <f>"support searching for all "&amp;LOWER(B85)&amp;"s for a patient, including implantable devices"</f>
-        <v>support searching for all devices for a patient, including implantable devices</v>
-      </c>
-      <c r="Z85" s="5" t="str">
-        <f>"GET [base]/"&amp;B85&amp;"?patient=1137192"</f>
-        <v>GET [base]/Device?patient=1137192</v>
-      </c>
-      <c r="AA85" s="12" t="str">
-        <f>"Fetches a bundle of all "&amp;B85&amp; " resources for the specified patient"</f>
-        <v>Fetches a bundle of all Device resources for the specified patient</v>
-      </c>
+      <c r="Y85" s="5"/>
+      <c r="Z85" s="5"/>
+      <c r="AA85" s="12"/>
       <c r="AB85" s="1" t="str">
-        <f t="shared" ref="AB85:AB96" si="49">"SearchParameter-us-core-"&amp;LOWER((B85)&amp;"-"&amp;C85&amp;".html")</f>
-        <v>SearchParameter-us-core-device-patient.html</v>
-      </c>
-    </row>
-    <row r="86" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="AB85" si="48">"SearchParameter-us-core-"&amp;LOWER((B85)&amp;"-"&amp;C85&amp;".html")</f>
+        <v>SearchParameter-us-core-careteam-status.html</v>
+      </c>
+    </row>
+    <row r="86" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>13</v>
+        <v>593</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="E86" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="G86" s="1" t="str">
-        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-implantable-"&amp;LOWER(B86)</f>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-implantable-device</v>
+        <f t="shared" si="40"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-careteam</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
+      </c>
+      <c r="I86" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="J86" s="1" t="s">
         <v>56</v>
@@ -7215,31 +7244,42 @@
         <v>57</v>
       </c>
       <c r="L86" s="1" t="str">
-        <f t="shared" ref="L86" si="50">B86&amp;"."&amp;C86</f>
-        <v>Device.type</v>
+        <f t="shared" ref="L86" si="49">B86&amp;"."&amp;C86</f>
+        <v>CareTeam.role</v>
       </c>
       <c r="M86" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="N86" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="O86" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Z86" s="5"/>
-      <c r="AA86" s="12"/>
+      <c r="Y86" s="5" t="s">
+        <v>594</v>
+      </c>
+      <c r="Z86" s="5" t="str">
+        <f>"GET [base]/"&amp;B86&amp;"?"&amp;C86&amp;"=http://snomed.info/sct\|17561000"</f>
+        <v>GET [base]/CareTeam?role=http://snomed.info/sct\|17561000</v>
+      </c>
+      <c r="AA86" s="12" t="s">
+        <v>595</v>
+      </c>
       <c r="AB86" s="1" t="str">
-        <f t="shared" si="49"/>
-        <v>SearchParameter-us-core-device-type.html</v>
-      </c>
-    </row>
-    <row r="87" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="AB86" si="50">"SearchParameter-us-core-"&amp;LOWER((B86)&amp;"-"&amp;C86&amp;".html")</f>
+        <v>SearchParameter-us-core-careteam-role.html</v>
+      </c>
+    </row>
+    <row r="87" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>12</v>
@@ -7247,9 +7287,12 @@
       <c r="E87" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="F87" s="2" t="s">
+        <v>522</v>
+      </c>
       <c r="G87" s="1" t="str">
-        <f t="shared" si="40"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-location</v>
+        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-implantable-"&amp;LOWER(B87)</f>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-implantable-device</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>56</v>
@@ -7257,12 +7300,12 @@
       <c r="J87" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K87" t="s">
-        <v>64</v>
+      <c r="K87" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="L87" s="1" t="str">
-        <f t="shared" si="48"/>
-        <v>Location.name</v>
+        <f t="shared" ref="L87:L102" si="51">B87&amp;"."&amp;C87</f>
+        <v>Device.patient</v>
       </c>
       <c r="M87" s="1" t="s">
         <v>56</v>
@@ -7270,41 +7313,45 @@
       <c r="O87" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Y87" s="1" t="s">
-        <v>258</v>
+      <c r="Y87" s="1" t="str">
+        <f>"support searching for all "&amp;LOWER(B87)&amp;"s for a patient, including implantable devices"</f>
+        <v>support searching for all devices for a patient, including implantable devices</v>
       </c>
       <c r="Z87" s="5" t="str">
-        <f>"GET [base]/"&amp;B87&amp;"?name=Health"</f>
-        <v>GET [base]/Location?name=Health</v>
+        <f>"GET [base]/"&amp;B87&amp;"?patient=1137192"</f>
+        <v>GET [base]/Device?patient=1137192</v>
       </c>
       <c r="AA87" s="12" t="str">
-        <f>"Fetches a bundle of all "&amp;B87&amp; " resources that match the name"</f>
-        <v>Fetches a bundle of all Location resources that match the name</v>
-      </c>
-      <c r="AB87" t="str">
-        <f t="shared" si="49"/>
-        <v>SearchParameter-us-core-location-name.html</v>
-      </c>
-    </row>
-    <row r="88" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <f>"Fetches a bundle of all "&amp;B87&amp; " resources for the specified patient"</f>
+        <v>Fetches a bundle of all Device resources for the specified patient</v>
+      </c>
+      <c r="AB87" s="1" t="str">
+        <f t="shared" ref="AB87:AB98" si="52">"SearchParameter-us-core-"&amp;LOWER((B87)&amp;"-"&amp;C87&amp;".html")</f>
+        <v>SearchParameter-us-core-device-patient.html</v>
+      </c>
+    </row>
+    <row r="88" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E88" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>525</v>
       </c>
       <c r="G88" s="1" t="str">
-        <f t="shared" si="40"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-location</v>
+        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-implantable-"&amp;LOWER(B88)</f>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-implantable-device</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>56</v>
@@ -7313,11 +7360,11 @@
         <v>56</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L88" s="1" t="str">
-        <f t="shared" si="48"/>
-        <v>Location.address</v>
+        <f t="shared" ref="L88" si="53">B88&amp;"."&amp;C88</f>
+        <v>Device.type</v>
       </c>
       <c r="M88" s="1" t="s">
         <v>56</v>
@@ -7325,34 +7372,25 @@
       <c r="O88" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Y88" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="Z88" s="5" t="str">
-        <f>"GET [base]/"&amp;B88&amp;"?address=Arbor"</f>
-        <v>GET [base]/Location?address=Arbor</v>
-      </c>
-      <c r="AA88" s="12" t="str">
-        <f>"Fetches a bundle of all "&amp;B88&amp; " resources that match the address string"</f>
-        <v>Fetches a bundle of all Location resources that match the address string</v>
-      </c>
-      <c r="AB88" t="str">
-        <f t="shared" si="49"/>
-        <v>SearchParameter-us-core-location-address.html</v>
+      <c r="Z88" s="5"/>
+      <c r="AA88" s="12"/>
+      <c r="AB88" s="1" t="str">
+        <f t="shared" si="52"/>
+        <v>SearchParameter-us-core-device-type.html</v>
       </c>
     </row>
     <row r="89" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>255</v>
+        <v>23</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="E89" s="1" t="b">
         <v>1</v>
@@ -7367,12 +7405,12 @@
       <c r="J89" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K89" s="1" t="s">
+      <c r="K89" t="s">
         <v>64</v>
       </c>
       <c r="L89" s="1" t="str">
-        <f t="shared" si="48"/>
-        <v>Location.address-city</v>
+        <f t="shared" si="51"/>
+        <v>Location.name</v>
       </c>
       <c r="M89" s="1" t="s">
         <v>56</v>
@@ -7381,33 +7419,33 @@
         <v>56</v>
       </c>
       <c r="Y89" s="1" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="Z89" s="5" t="str">
-        <f>"GET [base]/"&amp;B89&amp;"?address-city=Ann Arbor"</f>
-        <v>GET [base]/Location?address-city=Ann Arbor</v>
+        <f>"GET [base]/"&amp;B89&amp;"?name=Health"</f>
+        <v>GET [base]/Location?name=Health</v>
       </c>
       <c r="AA89" s="12" t="str">
-        <f>"Fetches a bundle of all "&amp;B89&amp; " resources for the city"</f>
-        <v>Fetches a bundle of all Location resources for the city</v>
+        <f>"Fetches a bundle of all "&amp;B89&amp; " resources that match the name"</f>
+        <v>Fetches a bundle of all Location resources that match the name</v>
       </c>
       <c r="AB89" t="str">
-        <f t="shared" si="49"/>
-        <v>SearchParameter-us-core-location-address-city.html</v>
+        <f t="shared" si="52"/>
+        <v>SearchParameter-us-core-location-name.html</v>
       </c>
     </row>
     <row r="90" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
+        <v>84</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B90" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>319</v>
-      </c>
       <c r="D90" s="1" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="E90" s="1" t="b">
         <v>1</v>
@@ -7426,8 +7464,8 @@
         <v>64</v>
       </c>
       <c r="L90" s="1" t="str">
-        <f t="shared" si="48"/>
-        <v>Location.address-state</v>
+        <f t="shared" si="51"/>
+        <v>Location.address</v>
       </c>
       <c r="M90" s="1" t="s">
         <v>56</v>
@@ -7436,29 +7474,30 @@
         <v>56</v>
       </c>
       <c r="Y90" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="Z90" s="5" t="s">
-        <v>263</v>
+        <v>256</v>
+      </c>
+      <c r="Z90" s="5" t="str">
+        <f>"GET [base]/"&amp;B90&amp;"?address=Arbor"</f>
+        <v>GET [base]/Location?address=Arbor</v>
       </c>
       <c r="AA90" s="12" t="str">
-        <f>"Fetches a bundle of all "&amp;B90&amp; " resources for the state"</f>
-        <v>Fetches a bundle of all Location resources for the state</v>
+        <f>"Fetches a bundle of all "&amp;B90&amp; " resources that match the address string"</f>
+        <v>Fetches a bundle of all Location resources that match the address string</v>
       </c>
       <c r="AB90" t="str">
-        <f t="shared" si="49"/>
-        <v>SearchParameter-us-core-location-address-state.html</v>
+        <f t="shared" si="52"/>
+        <v>SearchParameter-us-core-location-address.html</v>
       </c>
     </row>
     <row r="91" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>70</v>
@@ -7480,8 +7519,8 @@
         <v>64</v>
       </c>
       <c r="L91" s="1" t="str">
-        <f t="shared" si="48"/>
-        <v>Location.address-postalcode</v>
+        <f t="shared" si="51"/>
+        <v>Location.address-city</v>
       </c>
       <c r="M91" s="1" t="s">
         <v>56</v>
@@ -7490,40 +7529,40 @@
         <v>56</v>
       </c>
       <c r="Y91" s="1" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="Z91" s="5" t="str">
-        <f>"GET [base]/"&amp;B91&amp;"?address-postalcode=48104"</f>
-        <v>GET [base]/Location?address-postalcode=48104</v>
+        <f>"GET [base]/"&amp;B91&amp;"?address-city=Ann Arbor"</f>
+        <v>GET [base]/Location?address-city=Ann Arbor</v>
       </c>
       <c r="AA91" s="12" t="str">
-        <f>"Fetches a bundle of all "&amp;B91&amp; " resources for the ZIP code"</f>
-        <v>Fetches a bundle of all Location resources for the ZIP code</v>
+        <f>"Fetches a bundle of all "&amp;B91&amp; " resources for the city"</f>
+        <v>Fetches a bundle of all Location resources for the city</v>
       </c>
       <c r="AB91" t="str">
-        <f t="shared" si="49"/>
-        <v>SearchParameter-us-core-location-address-postalcode.html</v>
-      </c>
-    </row>
-    <row r="92" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="52"/>
+        <v>SearchParameter-us-core-location-address-city.html</v>
+      </c>
+    </row>
+    <row r="92" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>23</v>
+        <v>316</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="E92" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G92" s="1" t="str">
         <f t="shared" si="40"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization</v>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-location</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>56</v>
@@ -7535,8 +7574,8 @@
         <v>64</v>
       </c>
       <c r="L92" s="1" t="str">
-        <f t="shared" si="48"/>
-        <v>Organization.name</v>
+        <f t="shared" si="51"/>
+        <v>Location.address-state</v>
       </c>
       <c r="M92" s="1" t="s">
         <v>56</v>
@@ -7545,40 +7584,39 @@
         <v>56</v>
       </c>
       <c r="Y92" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="Z92" s="5" t="str">
-        <f>"GET [base]/"&amp;B92&amp;"?name=Health"</f>
-        <v>GET [base]/Organization?name=Health</v>
+        <v>258</v>
+      </c>
+      <c r="Z92" s="5" t="s">
+        <v>260</v>
       </c>
       <c r="AA92" s="12" t="str">
-        <f>"Fetches a bundle of all "&amp;B92&amp; " resources that match the name"</f>
-        <v>Fetches a bundle of all Organization resources that match the name</v>
-      </c>
-      <c r="AB92" s="1" t="str">
-        <f t="shared" si="49"/>
-        <v>SearchParameter-us-core-organization-name.html</v>
-      </c>
-    </row>
-    <row r="93" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <f>"Fetches a bundle of all "&amp;B92&amp; " resources for the state"</f>
+        <v>Fetches a bundle of all Location resources for the state</v>
+      </c>
+      <c r="AB92" t="str">
+        <f t="shared" si="52"/>
+        <v>SearchParameter-us-core-location-address-state.html</v>
+      </c>
+    </row>
+    <row r="93" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>86</v>
+        <v>254</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="E93" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G93" s="1" t="str">
         <f t="shared" si="40"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization</v>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-location</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>56</v>
@@ -7590,8 +7628,8 @@
         <v>64</v>
       </c>
       <c r="L93" s="1" t="str">
-        <f t="shared" si="48"/>
-        <v>Organization.address</v>
+        <f t="shared" si="51"/>
+        <v>Location.address-postalcode</v>
       </c>
       <c r="M93" s="1" t="s">
         <v>56</v>
@@ -7600,40 +7638,40 @@
         <v>56</v>
       </c>
       <c r="Y93" s="1" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="Z93" s="5" t="str">
-        <f>"GET [base]/"&amp;B93&amp;"?address=Arbor"</f>
-        <v>GET [base]/Organization?address=Arbor</v>
+        <f>"GET [base]/"&amp;B93&amp;"?address-postalcode=48104"</f>
+        <v>GET [base]/Location?address-postalcode=48104</v>
       </c>
       <c r="AA93" s="12" t="str">
-        <f>"Fetches a bundle of all "&amp;B93&amp; " resources that match the address string"</f>
-        <v>Fetches a bundle of all Organization resources that match the address string</v>
-      </c>
-      <c r="AB93" s="1" t="str">
-        <f t="shared" si="49"/>
-        <v>SearchParameter-us-core-organization-address.html</v>
+        <f>"Fetches a bundle of all "&amp;B93&amp; " resources for the ZIP code"</f>
+        <v>Fetches a bundle of all Location resources for the ZIP code</v>
+      </c>
+      <c r="AB93" t="str">
+        <f t="shared" si="52"/>
+        <v>SearchParameter-us-core-location-address-postalcode.html</v>
       </c>
     </row>
     <row r="94" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>255</v>
+        <v>23</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="E94" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G94" s="1" t="str">
         <f t="shared" si="40"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!organization</v>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>56</v>
@@ -7645,8 +7683,8 @@
         <v>64</v>
       </c>
       <c r="L94" s="1" t="str">
-        <f t="shared" si="48"/>
-        <v>!Organization.address-city</v>
+        <f t="shared" si="51"/>
+        <v>Organization.name</v>
       </c>
       <c r="M94" s="1" t="s">
         <v>56</v>
@@ -7655,40 +7693,40 @@
         <v>56</v>
       </c>
       <c r="Y94" s="1" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="Z94" s="5" t="str">
-        <f>"GET [base]/"&amp;B94&amp;"?address-city=Ann Arbor"</f>
-        <v>GET [base]/!Organization?address-city=Ann Arbor</v>
+        <f>"GET [base]/"&amp;B94&amp;"?name=Health"</f>
+        <v>GET [base]/Organization?name=Health</v>
       </c>
       <c r="AA94" s="12" t="str">
-        <f>"Fetches a bundle of all "&amp;B94&amp; " resources for the city"</f>
-        <v>Fetches a bundle of all !Organization resources for the city</v>
+        <f>"Fetches a bundle of all "&amp;B94&amp; " resources that match the name"</f>
+        <v>Fetches a bundle of all Organization resources that match the name</v>
       </c>
       <c r="AB94" s="1" t="str">
-        <f t="shared" si="49"/>
-        <v>SearchParameter-us-core-!organization-address-city.html</v>
+        <f t="shared" si="52"/>
+        <v>SearchParameter-us-core-organization-name.html</v>
       </c>
     </row>
     <row r="95" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>256</v>
+        <v>86</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="E95" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G95" s="1" t="str">
         <f t="shared" si="40"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!organization</v>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>56</v>
@@ -7700,8 +7738,8 @@
         <v>64</v>
       </c>
       <c r="L95" s="1" t="str">
-        <f t="shared" si="48"/>
-        <v>!Organization.adress-state</v>
+        <f t="shared" si="51"/>
+        <v>Organization.address</v>
       </c>
       <c r="M95" s="1" t="s">
         <v>56</v>
@@ -7710,30 +7748,30 @@
         <v>56</v>
       </c>
       <c r="Y95" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="Z95" s="5" t="str">
-        <f>"GET [base]/"&amp;B95&amp;"?address-state=MI"</f>
-        <v>GET [base]/!Organization?address-state=MI</v>
+        <f>"GET [base]/"&amp;B95&amp;"?address=Arbor"</f>
+        <v>GET [base]/Organization?address=Arbor</v>
       </c>
       <c r="AA95" s="12" t="str">
-        <f>"Fetches a bundle of all "&amp;B95&amp; " resources for the state"</f>
-        <v>Fetches a bundle of all !Organization resources for the state</v>
+        <f>"Fetches a bundle of all "&amp;B95&amp; " resources that match the address string"</f>
+        <v>Fetches a bundle of all Organization resources that match the address string</v>
       </c>
       <c r="AB95" s="1" t="str">
-        <f t="shared" si="49"/>
-        <v>SearchParameter-us-core-!organization-adress-state.html</v>
+        <f t="shared" si="52"/>
+        <v>SearchParameter-us-core-organization-address.html</v>
       </c>
     </row>
     <row r="96" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>70</v>
@@ -7755,8 +7793,8 @@
         <v>64</v>
       </c>
       <c r="L96" s="1" t="str">
-        <f t="shared" si="48"/>
-        <v>!Organization.address-postalcode</v>
+        <f t="shared" si="51"/>
+        <v>!Organization.address-city</v>
       </c>
       <c r="M96" s="1" t="s">
         <v>56</v>
@@ -7765,40 +7803,40 @@
         <v>56</v>
       </c>
       <c r="Y96" s="1" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="Z96" s="5" t="str">
-        <f>"GET [base]/"&amp;B96&amp;"?address-postalcode=48104"</f>
-        <v>GET [base]/!Organization?address-postalcode=48104</v>
+        <f>"GET [base]/"&amp;B96&amp;"?address-city=Ann Arbor"</f>
+        <v>GET [base]/!Organization?address-city=Ann Arbor</v>
       </c>
       <c r="AA96" s="12" t="str">
-        <f>"Fetches a bundle of all "&amp;B96&amp; " resources for the ZIP code"</f>
-        <v>Fetches a bundle of all !Organization resources for the ZIP code</v>
+        <f>"Fetches a bundle of all "&amp;B96&amp; " resources for the city"</f>
+        <v>Fetches a bundle of all !Organization resources for the city</v>
       </c>
       <c r="AB96" s="1" t="str">
-        <f t="shared" si="49"/>
-        <v>SearchParameter-us-core-!organization-address-postalcode.html</v>
+        <f t="shared" si="52"/>
+        <v>SearchParameter-us-core-!organization-address-city.html</v>
       </c>
     </row>
     <row r="97" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>23</v>
+        <v>253</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="E97" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G97" s="1" t="str">
         <f t="shared" si="40"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner</v>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!organization</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>56</v>
@@ -7810,8 +7848,8 @@
         <v>64</v>
       </c>
       <c r="L97" s="1" t="str">
-        <f t="shared" si="48"/>
-        <v>Practitioner.name</v>
+        <f t="shared" si="51"/>
+        <v>!Organization.adress-state</v>
       </c>
       <c r="M97" s="1" t="s">
         <v>56</v>
@@ -7819,44 +7857,41 @@
       <c r="O97" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Y97" s="5" t="s">
-        <v>272</v>
+      <c r="Y97" s="1" t="s">
+        <v>265</v>
       </c>
       <c r="Z97" s="5" t="str">
-        <f>"GET [base]/"&amp;B97&amp;"?name=Smith"</f>
-        <v>GET [base]/Practitioner?name=Smith</v>
+        <f>"GET [base]/"&amp;B97&amp;"?address-state=MI"</f>
+        <v>GET [base]/!Organization?address-state=MI</v>
       </c>
       <c r="AA97" s="12" t="str">
-        <f>"Fetches a bundle of all "&amp;B97&amp;" resources matching the name"</f>
-        <v>Fetches a bundle of all Practitioner resources matching the name</v>
+        <f>"Fetches a bundle of all "&amp;B97&amp; " resources for the state"</f>
+        <v>Fetches a bundle of all !Organization resources for the state</v>
       </c>
       <c r="AB97" s="1" t="str">
-        <f t="shared" ref="AB97:AB98" si="51">"SearchParameter-us-core-"&amp;LOWER((B97)&amp;"-"&amp;SUBSTITUTE(C97,"_","")&amp;".html")</f>
-        <v>SearchParameter-us-core-practitioner-name.html</v>
+        <f t="shared" si="52"/>
+        <v>SearchParameter-us-core-!organization-adress-state.html</v>
       </c>
     </row>
     <row r="98" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>77</v>
+        <v>254</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="E98" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F98" s="2" t="s">
-        <v>528</v>
-      </c>
       <c r="G98" s="1" t="str">
         <f t="shared" si="40"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner</v>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!organization</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>56</v>
@@ -7865,11 +7900,11 @@
         <v>56</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="L98" s="1" t="str">
-        <f t="shared" si="48"/>
-        <v>Practitioner.identifier</v>
+        <f t="shared" si="51"/>
+        <v>!Organization.address-postalcode</v>
       </c>
       <c r="M98" s="1" t="s">
         <v>56</v>
@@ -7877,31 +7912,31 @@
       <c r="O98" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Y98" s="5" t="s">
-        <v>327</v>
+      <c r="Y98" s="1" t="s">
+        <v>266</v>
       </c>
       <c r="Z98" s="5" t="str">
-        <f>"GET [base]/"&amp;B98&amp;"?dentifier=http://hl7.org/fhir/sid/us-npi\|97860456"</f>
-        <v>GET [base]/Practitioner?dentifier=http://hl7.org/fhir/sid/us-npi\|97860456</v>
+        <f>"GET [base]/"&amp;B98&amp;"?address-postalcode=48104"</f>
+        <v>GET [base]/!Organization?address-postalcode=48104</v>
       </c>
       <c r="AA98" s="12" t="str">
-        <f>"Fetches a bundle containing any "&amp;B98&amp;" resources matching the identifier"</f>
-        <v>Fetches a bundle containing any Practitioner resources matching the identifier</v>
+        <f>"Fetches a bundle of all "&amp;B98&amp; " resources for the ZIP code"</f>
+        <v>Fetches a bundle of all !Organization resources for the ZIP code</v>
       </c>
       <c r="AB98" s="1" t="str">
-        <f t="shared" si="51"/>
-        <v>SearchParameter-us-core-practitioner-identifier.html</v>
-      </c>
-    </row>
-    <row r="99" spans="1:28" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="52"/>
+        <v>SearchParameter-us-core-!organization-address-postalcode.html</v>
+      </c>
+    </row>
+    <row r="99" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>274</v>
+        <v>23</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>12</v>
@@ -7909,12 +7944,9 @@
       <c r="E99" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F99" s="2" t="s">
-        <v>528</v>
-      </c>
       <c r="G99" s="1" t="str">
         <f t="shared" si="40"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitionerrole</v>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>56</v>
@@ -7923,11 +7955,11 @@
         <v>56</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="L99" s="1" t="str">
-        <f t="shared" si="48"/>
-        <v>PractitionerRole.specialty</v>
+        <f t="shared" si="51"/>
+        <v>Practitioner.name</v>
       </c>
       <c r="M99" s="1" t="s">
         <v>56</v>
@@ -7935,34 +7967,31 @@
       <c r="O99" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="X99" s="1" t="s">
-        <v>277</v>
-      </c>
       <c r="Y99" s="5" t="s">
-        <v>328</v>
+        <v>269</v>
       </c>
       <c r="Z99" s="5" t="str">
-        <f>"GET [base]/"&amp;B99&amp;"?specialty=http://nucc.org/provider-taxonomy\|208D0000X"</f>
-        <v>GET [base]/PractitionerRole?specialty=http://nucc.org/provider-taxonomy\|208D0000X</v>
+        <f>"GET [base]/"&amp;B99&amp;"?name=Smith"</f>
+        <v>GET [base]/Practitioner?name=Smith</v>
       </c>
       <c r="AA99" s="12" t="str">
-        <f>"Fetches a bundle containing  "&amp;B99&amp;" resources matching the specialty"</f>
-        <v>Fetches a bundle containing  PractitionerRole resources matching the specialty</v>
+        <f>"Fetches a bundle of all "&amp;B99&amp;" resources matching the name"</f>
+        <v>Fetches a bundle of all Practitioner resources matching the name</v>
       </c>
       <c r="AB99" s="1" t="str">
-        <f t="shared" ref="AB99" si="52">"SearchParameter-us-core-"&amp;LOWER((B99)&amp;"-"&amp;SUBSTITUTE(C99,"_","")&amp;".html")</f>
-        <v>SearchParameter-us-core-practitionerrole-specialty.html</v>
-      </c>
-    </row>
-    <row r="100" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="AB99:AB100" si="54">"SearchParameter-us-core-"&amp;LOWER((B99)&amp;"-"&amp;SUBSTITUTE(C99,"_","")&amp;".html")</f>
+        <v>SearchParameter-us-core-practitioner-name.html</v>
+      </c>
+    </row>
+    <row r="100" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>275</v>
+        <v>77</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>12</v>
@@ -7975,55 +8004,176 @@
       </c>
       <c r="G100" s="1" t="str">
         <f t="shared" si="40"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K100" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L100" s="1" t="str">
+        <f t="shared" si="51"/>
+        <v>Practitioner.identifier</v>
+      </c>
+      <c r="M100" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O100" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y100" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="Z100" s="5" t="str">
+        <f>"GET [base]/"&amp;B100&amp;"?dentifier=http://hl7.org/fhir/sid/us-npi\|97860456"</f>
+        <v>GET [base]/Practitioner?dentifier=http://hl7.org/fhir/sid/us-npi\|97860456</v>
+      </c>
+      <c r="AA100" s="12" t="str">
+        <f>"Fetches a bundle containing any "&amp;B100&amp;" resources matching the identifier"</f>
+        <v>Fetches a bundle containing any Practitioner resources matching the identifier</v>
+      </c>
+      <c r="AB100" s="1" t="str">
+        <f t="shared" si="54"/>
+        <v>SearchParameter-us-core-practitioner-identifier.html</v>
+      </c>
+    </row>
+    <row r="101" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="1">
+        <v>95</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E101" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="G101" s="1" t="str">
+        <f t="shared" si="40"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitionerrole</v>
       </c>
-      <c r="H100" t="s">
-        <v>56</v>
-      </c>
-      <c r="J100" t="s">
-        <v>56</v>
-      </c>
-      <c r="K100" t="s">
+      <c r="H101" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K101" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L101" s="1" t="str">
+        <f t="shared" si="51"/>
+        <v>PractitionerRole.specialty</v>
+      </c>
+      <c r="M101" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O101" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="X101" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y101" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z101" s="5" t="str">
+        <f>"GET [base]/"&amp;B101&amp;"?specialty=http://nucc.org/provider-taxonomy\|208D0000X"</f>
+        <v>GET [base]/PractitionerRole?specialty=http://nucc.org/provider-taxonomy\|208D0000X</v>
+      </c>
+      <c r="AA101" s="12" t="str">
+        <f>"Fetches a bundle containing  "&amp;B101&amp;" resources matching the specialty"</f>
+        <v>Fetches a bundle containing  PractitionerRole resources matching the specialty</v>
+      </c>
+      <c r="AB101" s="1" t="str">
+        <f t="shared" ref="AB101" si="55">"SearchParameter-us-core-"&amp;LOWER((B101)&amp;"-"&amp;SUBSTITUTE(C101,"_","")&amp;".html")</f>
+        <v>SearchParameter-us-core-practitionerrole-specialty.html</v>
+      </c>
+    </row>
+    <row r="102" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="1">
+        <v>96</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E102" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G102" s="1" t="str">
+        <f t="shared" si="40"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitionerrole</v>
+      </c>
+      <c r="H102" t="s">
+        <v>56</v>
+      </c>
+      <c r="J102" t="s">
+        <v>56</v>
+      </c>
+      <c r="K102" t="s">
         <v>91</v>
       </c>
-      <c r="L100" s="1" t="str">
-        <f t="shared" si="48"/>
+      <c r="L102" s="1" t="str">
+        <f t="shared" si="51"/>
         <v>PractitionerRole.practitioner</v>
       </c>
-      <c r="M100" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="O100" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="U100" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="X100" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="Y100" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="Z100" s="5" t="str">
-        <f>_xlfn.CONCAT("GET [base]/",B100,"?practitioner.identifier=http://hl7.org/fhir/sid/us-npi\|97860456&amp;_include=PractitionerRole:practitioner","&amp;_include=PractitionerRole?endpoint~GET [base]/PractitionerRole?practitioner.name=Henry&amp;_include=PractitionerRole:practitioner&amp;_include=PractitionerRole?endpoint")</f>
+      <c r="M102" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O102" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="U102" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="X102" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y102" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="Z102" s="5" t="str">
+        <f>_xlfn.CONCAT("GET [base]/",B102,"?practitioner.identifier=http://hl7.org/fhir/sid/us-npi\|97860456&amp;_include=PractitionerRole:practitioner","&amp;_include=PractitionerRole?endpoint~GET [base]/PractitionerRole?practitioner.name=Henry&amp;_include=PractitionerRole:practitioner&amp;_include=PractitionerRole?endpoint")</f>
         <v>GET [base]/PractitionerRole?practitioner.identifier=http://hl7.org/fhir/sid/us-npi\|97860456&amp;_include=PractitionerRole:practitioner&amp;_include=PractitionerRole?endpoint~GET [base]/PractitionerRole?practitioner.name=Henry&amp;_include=PractitionerRole:practitioner&amp;_include=PractitionerRole?endpoint</v>
       </c>
-      <c r="AA100" s="12" t="str">
-        <f>"Fetches a bundle containing  "&amp;B100&amp;" resources matching the chained parameter practitioner.name or practitioner.identifier. SHOULD support the _include for PractionerRole.practitioner and PractitionerRole.endpoint."</f>
+      <c r="AA102" s="12" t="str">
+        <f>"Fetches a bundle containing  "&amp;B102&amp;" resources matching the chained parameter practitioner.name or practitioner.identifier. SHOULD support the _include for PractionerRole.practitioner and PractitionerRole.endpoint."</f>
         <v>Fetches a bundle containing  PractitionerRole resources matching the chained parameter practitioner.name or practitioner.identifier. SHOULD support the _include for PractionerRole.practitioner and PractitionerRole.endpoint.</v>
       </c>
-      <c r="AB100" t="str">
-        <f>"SearchParameter-us-core-"&amp;LOWER((B100)&amp;"-"&amp;SUBSTITUTE(C100,"_","")&amp;".html")</f>
+      <c r="AB102" t="str">
+        <f>"SearchParameter-us-core-"&amp;LOWER((B102)&amp;"-"&amp;SUBSTITUTE(C102,"_","")&amp;".html")</f>
         <v>SearchParameter-us-core-practitionerrole-practitioner.html</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AB100" xr:uid="{1CF5B17E-E72E-48B2-A597-9C21C12723F0}">
+  <autoFilter ref="A1:AB102" xr:uid="{1CF5B17E-E72E-48B2-A597-9C21C12723F0}">
     <filterColumn colId="1">
       <filters>
-        <filter val="Condition"/>
-        <filter val="Encounter"/>
+        <filter val="CareTeam"/>
+        <filter val="Patient"/>
+        <filter val="Practitioner"/>
+        <filter val="PractitionerRole"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -8039,10 +8189,10 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:Q90"/>
+  <dimension ref="A1:Q91"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="J95" sqref="J95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8074,7 +8224,7 @@
         <v>96</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>97</v>
@@ -8083,7 +8233,7 @@
         <v>98</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>3</v>
@@ -8195,7 +8345,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and date and type</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -8216,17 +8366,17 @@
         <v>106</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="K6" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Fetches a bundle of all Encounter resources matching the specified class and patient</v>
       </c>
     </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -8251,7 +8401,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and patient and status</v>
       </c>
     </row>
-    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -8276,7 +8426,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and patient and status and type</v>
       </c>
     </row>
-    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -8302,7 +8452,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and patient and type</v>
       </c>
     </row>
-    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -8329,7 +8479,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and status</v>
       </c>
     </row>
-    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -8355,7 +8505,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and status and type</v>
       </c>
     </row>
-    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -8380,7 +8530,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and type</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -8401,17 +8551,17 @@
         <v>113</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="K13" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Fetches a bundle of all Encounter resources matching the specified date and patient</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" s="1" customFormat="1" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -8436,7 +8586,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified date and patient and type</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" s="1" customFormat="1" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -8461,7 +8611,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified date and type</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" s="1" customFormat="1" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -8482,17 +8632,17 @@
         <v>106</v>
       </c>
       <c r="I16" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>309</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>312</v>
       </c>
       <c r="K16" s="5" t="str">
         <f t="shared" ref="K16" si="3">"Fetches a bundle of all "&amp;B16&amp;" resources matching the specified "&amp;SUBSTITUTE(D16,","," and ")</f>
         <v>Fetches a bundle of all Encounter resources matching the specified patient and type</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -8504,7 +8654,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="E17" s="1" t="b">
         <v>1</v>
@@ -8516,17 +8666,17 @@
         <v>91</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="K17" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Fetches a bundle of all Encounter resources matching the specified patient and location</v>
       </c>
     </row>
-    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -8552,7 +8702,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified patient and status and type</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" s="1" customFormat="1" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -8573,17 +8723,17 @@
         <v>106</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="K19" s="5" t="str">
         <f t="shared" ref="K19" si="5">"Fetches a bundle of all "&amp;B19&amp;" resources matching the specified "&amp;SUBSTITUTE(D19,","," and ")</f>
         <v>Fetches a bundle of all Encounter resources matching the specified patient and status</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -8595,7 +8745,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="E20" s="1" t="b">
         <v>1</v>
@@ -8607,17 +8757,17 @@
         <v>106</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="K20" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Fetches a bundle of all Encounter resources matching the specified patient and discharge-disposition</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" s="1" customFormat="1" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -8644,7 +8794,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified status and type</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" s="1" customFormat="1" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -8670,7 +8820,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified context-type-value and publisher</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" s="1" customFormat="1" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -8695,7 +8845,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified context-type-value and publisher and status</v>
       </c>
     </row>
-    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -8721,7 +8871,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified context-type-value and status</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" s="1" customFormat="1" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -8748,7 +8898,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified publisher and status</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" s="1" customFormat="1" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -8775,7 +8925,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified publisher and status and version</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" s="1" customFormat="1" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -8802,7 +8952,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified publisher and version</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" s="1" customFormat="1" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -8827,7 +8977,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified status and title and version</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" s="1" customFormat="1" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -8852,7 +9002,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified status and version</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" s="1" customFormat="1" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -8877,7 +9027,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified title and version</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" s="1" customFormat="1" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -8908,7 +9058,7 @@
         <v>Fetches a bundle of all Patient resources matching the specified birthdate and family</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" s="1" customFormat="1" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -8939,7 +9089,7 @@
         <v>Fetches a bundle of all Patient resources matching the specified birthdate and name</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" s="1" customFormat="1" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -8970,7 +9120,7 @@
         <v>Fetches a bundle of all Patient resources matching the specified family and gender</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" s="1" customFormat="1" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -9001,7 +9151,7 @@
         <v>Fetches a bundle of all Patient resources matching the specified gender and name</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" s="1" customFormat="1" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>36</v>
       </c>
@@ -9022,19 +9172,19 @@
         <v>106</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="I35" s="5" t="s">
         <v>155</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="K35" s="5" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" s="1" customFormat="1" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>37</v>
       </c>
@@ -9058,13 +9208,13 @@
         <v>150</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="K36" s="5" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" s="1" customFormat="1" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>37</v>
       </c>
@@ -9076,7 +9226,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="E37" s="1" t="b">
         <v>1</v>
@@ -9091,13 +9241,13 @@
         <v>150</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="K37" s="5" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" s="1" customFormat="1" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>38</v>
       </c>
@@ -9121,13 +9271,13 @@
         <v>151</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="K38" s="5" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" s="1" customFormat="1" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>39</v>
       </c>
@@ -9151,13 +9301,13 @@
         <v>153</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="K39" s="5" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" s="1" customFormat="1" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -9169,7 +9319,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="E40" s="1" t="b">
         <v>1</v>
@@ -9184,13 +9334,13 @@
         <v>153</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="K40" s="5" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" s="1" customFormat="1" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -9202,7 +9352,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="E41" s="1" t="b">
         <v>1</v>
@@ -9217,13 +9367,13 @@
         <v>153</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="K41" s="5" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" s="1" customFormat="1" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>39</v>
       </c>
@@ -9235,7 +9385,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="E42" s="1" t="b">
         <v>1</v>
@@ -9250,13 +9400,13 @@
         <v>153</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="K42" s="5" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" s="1" customFormat="1" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -9280,13 +9430,13 @@
         <v>162</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="K43" s="5" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" s="1" customFormat="1" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>45</v>
       </c>
@@ -9310,14 +9460,14 @@
         <v>167</v>
       </c>
       <c r="J44" s="5" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="K44" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B44&amp;" resources for the specified "&amp;SUBSTITUTE(D44,","," and ")</f>
         <v>Fetches a bundle of all Immunization resources for the specified patient and date</v>
       </c>
     </row>
-    <row r="45" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" s="1" customFormat="1" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>46</v>
       </c>
@@ -9338,7 +9488,7 @@
         <v>149</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="J45" s="5" t="s">
         <v>163</v>
@@ -9348,7 +9498,7 @@
         <v>Fetches a bundle of all Immunization resources for the specified patient and status</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" s="1" customFormat="1" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>49</v>
       </c>
@@ -9378,7 +9528,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and status</v>
       </c>
     </row>
-    <row r="47" spans="1:11" s="1" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" s="1" customFormat="1" ht="17" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>50</v>
       </c>
@@ -9398,7 +9548,7 @@
         <v>106</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="I47" s="5" t="s">
         <v>194</v>
@@ -9411,7 +9561,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and  a category code = `LAB`</v>
       </c>
     </row>
-    <row r="48" spans="1:11" s="1" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" s="1" customFormat="1" ht="17" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>51</v>
       </c>
@@ -9441,7 +9591,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and  report code(s).  SHOULD support search by multiple report codes.</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="1" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" s="1" customFormat="1" ht="17" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>52</v>
       </c>
@@ -9461,20 +9611,20 @@
         <v>219</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       